--- a/BackTest/2019-11-21 BackTest ORBS.xlsx
+++ b/BackTest/2019-11-21 BackTest ORBS.xlsx
@@ -451,17 +451,13 @@
         <v>11.50000000000001</v>
       </c>
       <c r="H2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
       </c>
-      <c r="J2" t="n">
-        <v>11.5</v>
-      </c>
-      <c r="K2" t="n">
-        <v>11.5</v>
-      </c>
+      <c r="J2" t="inlineStr"/>
+      <c r="K2" t="inlineStr"/>
       <c r="L2" t="inlineStr"/>
       <c r="M2" t="n">
         <v>1</v>
@@ -490,22 +486,14 @@
         <v>11.45000000000001</v>
       </c>
       <c r="H3" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
       </c>
-      <c r="J3" t="n">
-        <v>11.4</v>
-      </c>
-      <c r="K3" t="n">
-        <v>11.5</v>
-      </c>
-      <c r="L3" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+      <c r="J3" t="inlineStr"/>
+      <c r="K3" t="inlineStr"/>
+      <c r="L3" t="inlineStr"/>
       <c r="M3" t="n">
         <v>1</v>
       </c>
@@ -533,22 +521,14 @@
         <v>11.40000000000001</v>
       </c>
       <c r="H4" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
       </c>
-      <c r="J4" t="n">
-        <v>11.4</v>
-      </c>
-      <c r="K4" t="n">
-        <v>11.5</v>
-      </c>
-      <c r="L4" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+      <c r="J4" t="inlineStr"/>
+      <c r="K4" t="inlineStr"/>
+      <c r="L4" t="inlineStr"/>
       <c r="M4" t="n">
         <v>1</v>
       </c>
@@ -576,17 +556,13 @@
         <v>11.40000000000001</v>
       </c>
       <c r="H5" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
       </c>
-      <c r="J5" t="n">
-        <v>11.4</v>
-      </c>
-      <c r="K5" t="n">
-        <v>11.4</v>
-      </c>
+      <c r="J5" t="inlineStr"/>
+      <c r="K5" t="inlineStr"/>
       <c r="L5" t="inlineStr"/>
       <c r="M5" t="n">
         <v>1</v>
@@ -615,22 +591,14 @@
         <v>11.45000000000001</v>
       </c>
       <c r="H6" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I6" t="n">
         <v>0</v>
       </c>
-      <c r="J6" t="n">
-        <v>11.5</v>
-      </c>
-      <c r="K6" t="n">
-        <v>11.4</v>
-      </c>
-      <c r="L6" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+      <c r="J6" t="inlineStr"/>
+      <c r="K6" t="inlineStr"/>
+      <c r="L6" t="inlineStr"/>
       <c r="M6" t="n">
         <v>1</v>
       </c>
@@ -658,22 +626,14 @@
         <v>11.50000000000001</v>
       </c>
       <c r="H7" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
         <v>0</v>
       </c>
-      <c r="J7" t="n">
-        <v>11.5</v>
-      </c>
-      <c r="K7" t="n">
-        <v>11.4</v>
-      </c>
-      <c r="L7" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+      <c r="J7" t="inlineStr"/>
+      <c r="K7" t="inlineStr"/>
+      <c r="L7" t="inlineStr"/>
       <c r="M7" t="n">
         <v>1</v>
       </c>
@@ -701,17 +661,13 @@
         <v>11.55000000000001</v>
       </c>
       <c r="H8" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
       </c>
-      <c r="J8" t="n">
-        <v>11.6</v>
-      </c>
-      <c r="K8" t="n">
-        <v>11.6</v>
-      </c>
+      <c r="J8" t="inlineStr"/>
+      <c r="K8" t="inlineStr"/>
       <c r="L8" t="inlineStr"/>
       <c r="M8" t="n">
         <v>1</v>
@@ -740,22 +696,14 @@
         <v>11.55000000000001</v>
       </c>
       <c r="H9" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I9" t="n">
         <v>0</v>
       </c>
-      <c r="J9" t="n">
-        <v>11.5</v>
-      </c>
-      <c r="K9" t="n">
-        <v>11.6</v>
-      </c>
-      <c r="L9" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+      <c r="J9" t="inlineStr"/>
+      <c r="K9" t="inlineStr"/>
+      <c r="L9" t="inlineStr"/>
       <c r="M9" t="n">
         <v>1</v>
       </c>
@@ -783,22 +731,14 @@
         <v>11.50000000000001</v>
       </c>
       <c r="H10" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
         <v>0</v>
       </c>
-      <c r="J10" t="n">
-        <v>11.5</v>
-      </c>
-      <c r="K10" t="n">
-        <v>11.6</v>
-      </c>
-      <c r="L10" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+      <c r="J10" t="inlineStr"/>
+      <c r="K10" t="inlineStr"/>
+      <c r="L10" t="inlineStr"/>
       <c r="M10" t="n">
         <v>1</v>
       </c>
@@ -826,17 +766,13 @@
         <v>11.55000000000001</v>
       </c>
       <c r="H11" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
       </c>
-      <c r="J11" t="n">
-        <v>11.6</v>
-      </c>
-      <c r="K11" t="n">
-        <v>11.6</v>
-      </c>
+      <c r="J11" t="inlineStr"/>
+      <c r="K11" t="inlineStr"/>
       <c r="L11" t="inlineStr"/>
       <c r="M11" t="n">
         <v>1</v>
@@ -865,22 +801,14 @@
         <v>11.60000000000001</v>
       </c>
       <c r="H12" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I12" t="n">
         <v>0</v>
       </c>
-      <c r="J12" t="n">
-        <v>11.6</v>
-      </c>
-      <c r="K12" t="n">
-        <v>11.6</v>
-      </c>
-      <c r="L12" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+      <c r="J12" t="inlineStr"/>
+      <c r="K12" t="inlineStr"/>
+      <c r="L12" t="inlineStr"/>
       <c r="M12" t="n">
         <v>1</v>
       </c>
@@ -908,22 +836,14 @@
         <v>11.55000000000001</v>
       </c>
       <c r="H13" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
       </c>
-      <c r="J13" t="n">
-        <v>11.5</v>
-      </c>
-      <c r="K13" t="n">
-        <v>11.6</v>
-      </c>
-      <c r="L13" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+      <c r="J13" t="inlineStr"/>
+      <c r="K13" t="inlineStr"/>
+      <c r="L13" t="inlineStr"/>
       <c r="M13" t="n">
         <v>1</v>
       </c>
@@ -986,17 +906,13 @@
         <v>11.55000000000001</v>
       </c>
       <c r="H15" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I15" t="n">
         <v>0</v>
       </c>
-      <c r="J15" t="n">
-        <v>11.5</v>
-      </c>
-      <c r="K15" t="n">
-        <v>11.5</v>
-      </c>
+      <c r="J15" t="inlineStr"/>
+      <c r="K15" t="inlineStr"/>
       <c r="L15" t="inlineStr"/>
       <c r="M15" t="n">
         <v>1</v>
@@ -1031,14 +947,8 @@
         <v>0</v>
       </c>
       <c r="J16" t="inlineStr"/>
-      <c r="K16" t="n">
-        <v>11.5</v>
-      </c>
-      <c r="L16" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+      <c r="K16" t="inlineStr"/>
+      <c r="L16" t="inlineStr"/>
       <c r="M16" t="n">
         <v>1</v>
       </c>
@@ -1072,14 +982,8 @@
         <v>0</v>
       </c>
       <c r="J17" t="inlineStr"/>
-      <c r="K17" t="n">
-        <v>11.5</v>
-      </c>
-      <c r="L17" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+      <c r="K17" t="inlineStr"/>
+      <c r="L17" t="inlineStr"/>
       <c r="M17" t="n">
         <v>1</v>
       </c>
@@ -2020,7 +1924,7 @@
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J44" t="inlineStr"/>
       <c r="K44" t="inlineStr"/>
@@ -2055,7 +1959,7 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J45" t="inlineStr"/>
       <c r="K45" t="inlineStr"/>
@@ -3105,7 +3009,7 @@
         <v>0</v>
       </c>
       <c r="I75" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J75" t="inlineStr"/>
       <c r="K75" t="inlineStr"/>
@@ -3455,7 +3359,7 @@
         <v>0</v>
       </c>
       <c r="I85" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J85" t="inlineStr"/>
       <c r="K85" t="inlineStr"/>
@@ -4712,14 +4616,20 @@
         <v>11.6</v>
       </c>
       <c r="H121" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I121" t="n">
         <v>0</v>
       </c>
-      <c r="J121" t="inlineStr"/>
+      <c r="J121" t="n">
+        <v>11.6</v>
+      </c>
       <c r="K121" t="inlineStr"/>
-      <c r="L121" t="inlineStr"/>
+      <c r="L121" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
       <c r="M121" t="n">
         <v>1</v>
       </c>
@@ -4747,14 +4657,20 @@
         <v>11.6</v>
       </c>
       <c r="H122" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I122" t="n">
         <v>0</v>
       </c>
-      <c r="J122" t="inlineStr"/>
+      <c r="J122" t="n">
+        <v>11.6</v>
+      </c>
       <c r="K122" t="inlineStr"/>
-      <c r="L122" t="inlineStr"/>
+      <c r="L122" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M122" t="n">
         <v>1</v>
       </c>
@@ -4782,14 +4698,20 @@
         <v>11.7</v>
       </c>
       <c r="H123" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I123" t="n">
         <v>0</v>
       </c>
-      <c r="J123" t="inlineStr"/>
+      <c r="J123" t="n">
+        <v>11.6</v>
+      </c>
       <c r="K123" t="inlineStr"/>
-      <c r="L123" t="inlineStr"/>
+      <c r="L123" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M123" t="n">
         <v>1</v>
       </c>
@@ -4824,7 +4746,11 @@
       </c>
       <c r="J124" t="inlineStr"/>
       <c r="K124" t="inlineStr"/>
-      <c r="L124" t="inlineStr"/>
+      <c r="L124" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M124" t="n">
         <v>1</v>
       </c>
@@ -4859,7 +4785,11 @@
       </c>
       <c r="J125" t="inlineStr"/>
       <c r="K125" t="inlineStr"/>
-      <c r="L125" t="inlineStr"/>
+      <c r="L125" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M125" t="n">
         <v>1</v>
       </c>
@@ -4894,7 +4824,11 @@
       </c>
       <c r="J126" t="inlineStr"/>
       <c r="K126" t="inlineStr"/>
-      <c r="L126" t="inlineStr"/>
+      <c r="L126" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M126" t="n">
         <v>1</v>
       </c>
@@ -4929,7 +4863,11 @@
       </c>
       <c r="J127" t="inlineStr"/>
       <c r="K127" t="inlineStr"/>
-      <c r="L127" t="inlineStr"/>
+      <c r="L127" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M127" t="n">
         <v>1</v>
       </c>
@@ -4964,7 +4902,11 @@
       </c>
       <c r="J128" t="inlineStr"/>
       <c r="K128" t="inlineStr"/>
-      <c r="L128" t="inlineStr"/>
+      <c r="L128" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M128" t="n">
         <v>1</v>
       </c>
@@ -4999,7 +4941,11 @@
       </c>
       <c r="J129" t="inlineStr"/>
       <c r="K129" t="inlineStr"/>
-      <c r="L129" t="inlineStr"/>
+      <c r="L129" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M129" t="n">
         <v>1</v>
       </c>
@@ -5034,7 +4980,11 @@
       </c>
       <c r="J130" t="inlineStr"/>
       <c r="K130" t="inlineStr"/>
-      <c r="L130" t="inlineStr"/>
+      <c r="L130" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M130" t="n">
         <v>1</v>
       </c>
@@ -5069,7 +5019,11 @@
       </c>
       <c r="J131" t="inlineStr"/>
       <c r="K131" t="inlineStr"/>
-      <c r="L131" t="inlineStr"/>
+      <c r="L131" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M131" t="n">
         <v>1</v>
       </c>
@@ -5104,7 +5058,11 @@
       </c>
       <c r="J132" t="inlineStr"/>
       <c r="K132" t="inlineStr"/>
-      <c r="L132" t="inlineStr"/>
+      <c r="L132" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M132" t="n">
         <v>1</v>
       </c>
@@ -5139,7 +5097,11 @@
       </c>
       <c r="J133" t="inlineStr"/>
       <c r="K133" t="inlineStr"/>
-      <c r="L133" t="inlineStr"/>
+      <c r="L133" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M133" t="n">
         <v>1</v>
       </c>
@@ -5174,7 +5136,11 @@
       </c>
       <c r="J134" t="inlineStr"/>
       <c r="K134" t="inlineStr"/>
-      <c r="L134" t="inlineStr"/>
+      <c r="L134" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M134" t="n">
         <v>1</v>
       </c>
@@ -5209,7 +5175,11 @@
       </c>
       <c r="J135" t="inlineStr"/>
       <c r="K135" t="inlineStr"/>
-      <c r="L135" t="inlineStr"/>
+      <c r="L135" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M135" t="n">
         <v>1</v>
       </c>
@@ -5244,7 +5214,11 @@
       </c>
       <c r="J136" t="inlineStr"/>
       <c r="K136" t="inlineStr"/>
-      <c r="L136" t="inlineStr"/>
+      <c r="L136" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M136" t="n">
         <v>1</v>
       </c>
@@ -5279,7 +5253,11 @@
       </c>
       <c r="J137" t="inlineStr"/>
       <c r="K137" t="inlineStr"/>
-      <c r="L137" t="inlineStr"/>
+      <c r="L137" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M137" t="n">
         <v>1</v>
       </c>
@@ -5314,7 +5292,11 @@
       </c>
       <c r="J138" t="inlineStr"/>
       <c r="K138" t="inlineStr"/>
-      <c r="L138" t="inlineStr"/>
+      <c r="L138" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M138" t="n">
         <v>1</v>
       </c>
@@ -5349,7 +5331,11 @@
       </c>
       <c r="J139" t="inlineStr"/>
       <c r="K139" t="inlineStr"/>
-      <c r="L139" t="inlineStr"/>
+      <c r="L139" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M139" t="n">
         <v>1</v>
       </c>
@@ -5384,7 +5370,11 @@
       </c>
       <c r="J140" t="inlineStr"/>
       <c r="K140" t="inlineStr"/>
-      <c r="L140" t="inlineStr"/>
+      <c r="L140" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M140" t="n">
         <v>1</v>
       </c>
@@ -5419,7 +5409,11 @@
       </c>
       <c r="J141" t="inlineStr"/>
       <c r="K141" t="inlineStr"/>
-      <c r="L141" t="inlineStr"/>
+      <c r="L141" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M141" t="n">
         <v>1</v>
       </c>
@@ -5454,7 +5448,11 @@
       </c>
       <c r="J142" t="inlineStr"/>
       <c r="K142" t="inlineStr"/>
-      <c r="L142" t="inlineStr"/>
+      <c r="L142" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M142" t="n">
         <v>1</v>
       </c>
@@ -5489,7 +5487,11 @@
       </c>
       <c r="J143" t="inlineStr"/>
       <c r="K143" t="inlineStr"/>
-      <c r="L143" t="inlineStr"/>
+      <c r="L143" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M143" t="n">
         <v>1</v>
       </c>
@@ -5524,7 +5526,11 @@
       </c>
       <c r="J144" t="inlineStr"/>
       <c r="K144" t="inlineStr"/>
-      <c r="L144" t="inlineStr"/>
+      <c r="L144" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M144" t="n">
         <v>1</v>
       </c>
@@ -5559,7 +5565,11 @@
       </c>
       <c r="J145" t="inlineStr"/>
       <c r="K145" t="inlineStr"/>
-      <c r="L145" t="inlineStr"/>
+      <c r="L145" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M145" t="n">
         <v>1</v>
       </c>
@@ -5594,7 +5604,11 @@
       </c>
       <c r="J146" t="inlineStr"/>
       <c r="K146" t="inlineStr"/>
-      <c r="L146" t="inlineStr"/>
+      <c r="L146" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M146" t="n">
         <v>1</v>
       </c>
@@ -5629,7 +5643,11 @@
       </c>
       <c r="J147" t="inlineStr"/>
       <c r="K147" t="inlineStr"/>
-      <c r="L147" t="inlineStr"/>
+      <c r="L147" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M147" t="n">
         <v>1</v>
       </c>
@@ -5664,7 +5682,11 @@
       </c>
       <c r="J148" t="inlineStr"/>
       <c r="K148" t="inlineStr"/>
-      <c r="L148" t="inlineStr"/>
+      <c r="L148" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M148" t="n">
         <v>1</v>
       </c>
@@ -5699,7 +5721,11 @@
       </c>
       <c r="J149" t="inlineStr"/>
       <c r="K149" t="inlineStr"/>
-      <c r="L149" t="inlineStr"/>
+      <c r="L149" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M149" t="n">
         <v>1</v>
       </c>
@@ -5734,7 +5760,11 @@
       </c>
       <c r="J150" t="inlineStr"/>
       <c r="K150" t="inlineStr"/>
-      <c r="L150" t="inlineStr"/>
+      <c r="L150" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M150" t="n">
         <v>1</v>
       </c>
@@ -5769,7 +5799,11 @@
       </c>
       <c r="J151" t="inlineStr"/>
       <c r="K151" t="inlineStr"/>
-      <c r="L151" t="inlineStr"/>
+      <c r="L151" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M151" t="n">
         <v>1</v>
       </c>
@@ -5804,7 +5838,11 @@
       </c>
       <c r="J152" t="inlineStr"/>
       <c r="K152" t="inlineStr"/>
-      <c r="L152" t="inlineStr"/>
+      <c r="L152" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M152" t="n">
         <v>1</v>
       </c>
@@ -5839,7 +5877,11 @@
       </c>
       <c r="J153" t="inlineStr"/>
       <c r="K153" t="inlineStr"/>
-      <c r="L153" t="inlineStr"/>
+      <c r="L153" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M153" t="n">
         <v>1</v>
       </c>
@@ -5874,7 +5916,11 @@
       </c>
       <c r="J154" t="inlineStr"/>
       <c r="K154" t="inlineStr"/>
-      <c r="L154" t="inlineStr"/>
+      <c r="L154" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M154" t="n">
         <v>1</v>
       </c>
@@ -5909,7 +5955,11 @@
       </c>
       <c r="J155" t="inlineStr"/>
       <c r="K155" t="inlineStr"/>
-      <c r="L155" t="inlineStr"/>
+      <c r="L155" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M155" t="n">
         <v>1</v>
       </c>
@@ -5944,7 +5994,11 @@
       </c>
       <c r="J156" t="inlineStr"/>
       <c r="K156" t="inlineStr"/>
-      <c r="L156" t="inlineStr"/>
+      <c r="L156" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M156" t="n">
         <v>1</v>
       </c>
@@ -5979,7 +6033,11 @@
       </c>
       <c r="J157" t="inlineStr"/>
       <c r="K157" t="inlineStr"/>
-      <c r="L157" t="inlineStr"/>
+      <c r="L157" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M157" t="n">
         <v>1</v>
       </c>
@@ -6014,7 +6072,11 @@
       </c>
       <c r="J158" t="inlineStr"/>
       <c r="K158" t="inlineStr"/>
-      <c r="L158" t="inlineStr"/>
+      <c r="L158" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M158" t="n">
         <v>1</v>
       </c>
@@ -6049,7 +6111,11 @@
       </c>
       <c r="J159" t="inlineStr"/>
       <c r="K159" t="inlineStr"/>
-      <c r="L159" t="inlineStr"/>
+      <c r="L159" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M159" t="n">
         <v>1</v>
       </c>
@@ -6084,7 +6150,11 @@
       </c>
       <c r="J160" t="inlineStr"/>
       <c r="K160" t="inlineStr"/>
-      <c r="L160" t="inlineStr"/>
+      <c r="L160" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M160" t="n">
         <v>1</v>
       </c>
@@ -6119,7 +6189,11 @@
       </c>
       <c r="J161" t="inlineStr"/>
       <c r="K161" t="inlineStr"/>
-      <c r="L161" t="inlineStr"/>
+      <c r="L161" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M161" t="n">
         <v>1</v>
       </c>
@@ -6154,7 +6228,11 @@
       </c>
       <c r="J162" t="inlineStr"/>
       <c r="K162" t="inlineStr"/>
-      <c r="L162" t="inlineStr"/>
+      <c r="L162" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M162" t="n">
         <v>1</v>
       </c>
@@ -6189,7 +6267,11 @@
       </c>
       <c r="J163" t="inlineStr"/>
       <c r="K163" t="inlineStr"/>
-      <c r="L163" t="inlineStr"/>
+      <c r="L163" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M163" t="n">
         <v>1</v>
       </c>
@@ -6224,7 +6306,11 @@
       </c>
       <c r="J164" t="inlineStr"/>
       <c r="K164" t="inlineStr"/>
-      <c r="L164" t="inlineStr"/>
+      <c r="L164" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M164" t="n">
         <v>1</v>
       </c>
@@ -6259,7 +6345,11 @@
       </c>
       <c r="J165" t="inlineStr"/>
       <c r="K165" t="inlineStr"/>
-      <c r="L165" t="inlineStr"/>
+      <c r="L165" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M165" t="n">
         <v>1</v>
       </c>

--- a/BackTest/2019-11-21 BackTest ORBS.xlsx
+++ b/BackTest/2019-11-21 BackTest ORBS.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M165"/>
+  <dimension ref="A1:M166"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -445,10 +445,10 @@
         <v>11.5</v>
       </c>
       <c r="F2" t="n">
-        <v>6472.514786956522</v>
+        <v>25059.84431304348</v>
       </c>
       <c r="G2" t="n">
-        <v>11.50000000000001</v>
+        <v>11.38333333333331</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -468,22 +468,22 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>11.4</v>
+        <v>11.5</v>
       </c>
       <c r="C3" t="n">
-        <v>11.4</v>
+        <v>11.5</v>
       </c>
       <c r="D3" t="n">
-        <v>11.4</v>
+        <v>11.5</v>
       </c>
       <c r="E3" t="n">
-        <v>11.4</v>
+        <v>11.5</v>
       </c>
       <c r="F3" t="n">
-        <v>3241.875</v>
+        <v>6472.514786956522</v>
       </c>
       <c r="G3" t="n">
-        <v>11.45000000000001</v>
+        <v>11.38333333333331</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -515,10 +515,10 @@
         <v>11.4</v>
       </c>
       <c r="F4" t="n">
-        <v>26021.841</v>
+        <v>3241.875</v>
       </c>
       <c r="G4" t="n">
-        <v>11.40000000000001</v>
+        <v>11.38333333333331</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -550,10 +550,10 @@
         <v>11.4</v>
       </c>
       <c r="F5" t="n">
-        <v>100845.4887</v>
+        <v>26021.841</v>
       </c>
       <c r="G5" t="n">
-        <v>11.40000000000001</v>
+        <v>11.38666666666664</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
@@ -573,22 +573,22 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>11.5</v>
+        <v>11.4</v>
       </c>
       <c r="C6" t="n">
-        <v>11.5</v>
+        <v>11.4</v>
       </c>
       <c r="D6" t="n">
-        <v>11.5</v>
+        <v>11.4</v>
       </c>
       <c r="E6" t="n">
-        <v>11.5</v>
+        <v>11.4</v>
       </c>
       <c r="F6" t="n">
-        <v>9556.8855</v>
+        <v>100845.4887</v>
       </c>
       <c r="G6" t="n">
-        <v>11.45000000000001</v>
+        <v>11.38999999999997</v>
       </c>
       <c r="H6" t="n">
         <v>0</v>
@@ -620,10 +620,10 @@
         <v>11.5</v>
       </c>
       <c r="F7" t="n">
-        <v>78995.1009</v>
+        <v>9556.8855</v>
       </c>
       <c r="G7" t="n">
-        <v>11.50000000000001</v>
+        <v>11.39166666666664</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
@@ -643,22 +643,22 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>11.6</v>
+        <v>11.5</v>
       </c>
       <c r="C8" t="n">
-        <v>11.6</v>
+        <v>11.5</v>
       </c>
       <c r="D8" t="n">
-        <v>11.6</v>
+        <v>11.5</v>
       </c>
       <c r="E8" t="n">
-        <v>11.6</v>
+        <v>11.5</v>
       </c>
       <c r="F8" t="n">
-        <v>10000</v>
+        <v>78995.1009</v>
       </c>
       <c r="G8" t="n">
-        <v>11.55000000000001</v>
+        <v>11.39499999999997</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
@@ -678,22 +678,22 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>11.5</v>
+        <v>11.6</v>
       </c>
       <c r="C9" t="n">
-        <v>11.5</v>
+        <v>11.6</v>
       </c>
       <c r="D9" t="n">
-        <v>11.5</v>
+        <v>11.6</v>
       </c>
       <c r="E9" t="n">
-        <v>11.5</v>
+        <v>11.6</v>
       </c>
       <c r="F9" t="n">
-        <v>2900</v>
+        <v>10000</v>
       </c>
       <c r="G9" t="n">
-        <v>11.55000000000001</v>
+        <v>11.39833333333331</v>
       </c>
       <c r="H9" t="n">
         <v>0</v>
@@ -725,10 +725,10 @@
         <v>11.5</v>
       </c>
       <c r="F10" t="n">
-        <v>27100</v>
+        <v>2900</v>
       </c>
       <c r="G10" t="n">
-        <v>11.50000000000001</v>
+        <v>11.39999999999997</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
@@ -748,22 +748,22 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>11.6</v>
+        <v>11.5</v>
       </c>
       <c r="C11" t="n">
-        <v>11.6</v>
+        <v>11.5</v>
       </c>
       <c r="D11" t="n">
-        <v>11.6</v>
+        <v>11.5</v>
       </c>
       <c r="E11" t="n">
-        <v>11.6</v>
+        <v>11.5</v>
       </c>
       <c r="F11" t="n">
-        <v>20920</v>
+        <v>27100</v>
       </c>
       <c r="G11" t="n">
-        <v>11.55000000000001</v>
+        <v>11.40333333333331</v>
       </c>
       <c r="H11" t="n">
         <v>0</v>
@@ -795,10 +795,10 @@
         <v>11.6</v>
       </c>
       <c r="F12" t="n">
-        <v>3250</v>
+        <v>20920</v>
       </c>
       <c r="G12" t="n">
-        <v>11.60000000000001</v>
+        <v>11.40833333333331</v>
       </c>
       <c r="H12" t="n">
         <v>0</v>
@@ -818,22 +818,22 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>11.5</v>
+        <v>11.6</v>
       </c>
       <c r="C13" t="n">
-        <v>11.5</v>
+        <v>11.6</v>
       </c>
       <c r="D13" t="n">
-        <v>11.5</v>
+        <v>11.6</v>
       </c>
       <c r="E13" t="n">
-        <v>11.5</v>
+        <v>11.6</v>
       </c>
       <c r="F13" t="n">
-        <v>4604</v>
+        <v>3250</v>
       </c>
       <c r="G13" t="n">
-        <v>11.55000000000001</v>
+        <v>11.41333333333331</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
@@ -853,22 +853,22 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>11.6</v>
+        <v>11.5</v>
       </c>
       <c r="C14" t="n">
-        <v>11.6</v>
+        <v>11.5</v>
       </c>
       <c r="D14" t="n">
-        <v>11.6</v>
+        <v>11.5</v>
       </c>
       <c r="E14" t="n">
-        <v>11.6</v>
+        <v>11.5</v>
       </c>
       <c r="F14" t="n">
-        <v>11721</v>
+        <v>4604</v>
       </c>
       <c r="G14" t="n">
-        <v>11.55000000000001</v>
+        <v>11.41499999999998</v>
       </c>
       <c r="H14" t="n">
         <v>0</v>
@@ -888,22 +888,22 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>11.5</v>
+        <v>11.6</v>
       </c>
       <c r="C15" t="n">
-        <v>11.5</v>
+        <v>11.6</v>
       </c>
       <c r="D15" t="n">
-        <v>11.5</v>
+        <v>11.6</v>
       </c>
       <c r="E15" t="n">
-        <v>11.5</v>
+        <v>11.6</v>
       </c>
       <c r="F15" t="n">
-        <v>1200</v>
+        <v>11721</v>
       </c>
       <c r="G15" t="n">
-        <v>11.55000000000001</v>
+        <v>11.41833333333331</v>
       </c>
       <c r="H15" t="n">
         <v>0</v>
@@ -923,22 +923,22 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>11.6</v>
+        <v>11.5</v>
       </c>
       <c r="C16" t="n">
-        <v>11.6</v>
+        <v>11.5</v>
       </c>
       <c r="D16" t="n">
-        <v>11.6</v>
+        <v>11.5</v>
       </c>
       <c r="E16" t="n">
-        <v>11.6</v>
+        <v>11.5</v>
       </c>
       <c r="F16" t="n">
-        <v>39918</v>
+        <v>1200</v>
       </c>
       <c r="G16" t="n">
-        <v>11.55000000000001</v>
+        <v>11.42166666666665</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
@@ -970,10 +970,10 @@
         <v>11.6</v>
       </c>
       <c r="F17" t="n">
-        <v>348.2436</v>
+        <v>39918</v>
       </c>
       <c r="G17" t="n">
-        <v>11.60000000000001</v>
+        <v>11.42666666666665</v>
       </c>
       <c r="H17" t="n">
         <v>0</v>
@@ -993,22 +993,22 @@
         <v>16</v>
       </c>
       <c r="B18" t="n">
-        <v>11.7</v>
+        <v>11.6</v>
       </c>
       <c r="C18" t="n">
-        <v>11.7</v>
+        <v>11.6</v>
       </c>
       <c r="D18" t="n">
-        <v>11.7</v>
+        <v>11.6</v>
       </c>
       <c r="E18" t="n">
-        <v>11.7</v>
+        <v>11.6</v>
       </c>
       <c r="F18" t="n">
-        <v>234.8206</v>
+        <v>348.2436</v>
       </c>
       <c r="G18" t="n">
-        <v>11.65000000000001</v>
+        <v>11.42999999999998</v>
       </c>
       <c r="H18" t="n">
         <v>0</v>
@@ -1040,10 +1040,10 @@
         <v>11.7</v>
       </c>
       <c r="F19" t="n">
-        <v>60130.1794</v>
+        <v>234.8206</v>
       </c>
       <c r="G19" t="n">
-        <v>11.70000000000001</v>
+        <v>11.43499999999998</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
@@ -1075,10 +1075,10 @@
         <v>11.7</v>
       </c>
       <c r="F20" t="n">
-        <v>3296.405</v>
+        <v>60130.1794</v>
       </c>
       <c r="G20" t="n">
-        <v>11.7</v>
+        <v>11.44166666666665</v>
       </c>
       <c r="H20" t="n">
         <v>0</v>
@@ -1098,22 +1098,22 @@
         <v>19</v>
       </c>
       <c r="B21" t="n">
-        <v>11.8</v>
+        <v>11.7</v>
       </c>
       <c r="C21" t="n">
-        <v>11.8</v>
+        <v>11.7</v>
       </c>
       <c r="D21" t="n">
-        <v>11.8</v>
+        <v>11.7</v>
       </c>
       <c r="E21" t="n">
-        <v>11.8</v>
+        <v>11.7</v>
       </c>
       <c r="F21" t="n">
-        <v>166602.5318</v>
+        <v>3296.405</v>
       </c>
       <c r="G21" t="n">
-        <v>11.75000000000001</v>
+        <v>11.44833333333332</v>
       </c>
       <c r="H21" t="n">
         <v>0</v>
@@ -1133,22 +1133,22 @@
         <v>20</v>
       </c>
       <c r="B22" t="n">
-        <v>11.9</v>
+        <v>11.8</v>
       </c>
       <c r="C22" t="n">
-        <v>11.6</v>
+        <v>11.8</v>
       </c>
       <c r="D22" t="n">
-        <v>11.9</v>
+        <v>11.8</v>
       </c>
       <c r="E22" t="n">
-        <v>11.5</v>
+        <v>11.8</v>
       </c>
       <c r="F22" t="n">
-        <v>157159.5878</v>
+        <v>166602.5318</v>
       </c>
       <c r="G22" t="n">
-        <v>11.7</v>
+        <v>11.45666666666665</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
@@ -1168,28 +1168,28 @@
         <v>21</v>
       </c>
       <c r="B23" t="n">
-        <v>11.6</v>
+        <v>11.9</v>
       </c>
       <c r="C23" t="n">
         <v>11.6</v>
       </c>
       <c r="D23" t="n">
-        <v>11.6</v>
+        <v>11.9</v>
       </c>
       <c r="E23" t="n">
-        <v>11.6</v>
+        <v>11.5</v>
       </c>
       <c r="F23" t="n">
-        <v>1546.1593</v>
+        <v>157159.5878</v>
       </c>
       <c r="G23" t="n">
-        <v>11.6</v>
+        <v>11.46166666666665</v>
       </c>
       <c r="H23" t="n">
         <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J23" t="inlineStr"/>
       <c r="K23" t="inlineStr"/>
@@ -1215,16 +1215,16 @@
         <v>11.6</v>
       </c>
       <c r="F24" t="n">
-        <v>315.6044</v>
+        <v>1546.1593</v>
       </c>
       <c r="G24" t="n">
-        <v>11.6</v>
+        <v>11.46666666666665</v>
       </c>
       <c r="H24" t="n">
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J24" t="inlineStr"/>
       <c r="K24" t="inlineStr"/>
@@ -1250,16 +1250,16 @@
         <v>11.6</v>
       </c>
       <c r="F25" t="n">
-        <v>19712.9732</v>
+        <v>315.6044</v>
       </c>
       <c r="G25" t="n">
-        <v>11.6</v>
+        <v>11.47166666666666</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J25" t="inlineStr"/>
       <c r="K25" t="inlineStr"/>
@@ -1285,16 +1285,16 @@
         <v>11.6</v>
       </c>
       <c r="F26" t="n">
-        <v>45319.1004</v>
+        <v>19712.9732</v>
       </c>
       <c r="G26" t="n">
-        <v>11.6</v>
+        <v>11.47666666666666</v>
       </c>
       <c r="H26" t="n">
         <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J26" t="inlineStr"/>
       <c r="K26" t="inlineStr"/>
@@ -1308,22 +1308,22 @@
         <v>25</v>
       </c>
       <c r="B27" t="n">
-        <v>11.5</v>
+        <v>11.6</v>
       </c>
       <c r="C27" t="n">
-        <v>11.5</v>
+        <v>11.6</v>
       </c>
       <c r="D27" t="n">
-        <v>11.5</v>
+        <v>11.6</v>
       </c>
       <c r="E27" t="n">
-        <v>11.5</v>
+        <v>11.6</v>
       </c>
       <c r="F27" t="n">
-        <v>39667.0323</v>
+        <v>45319.1004</v>
       </c>
       <c r="G27" t="n">
-        <v>11.55</v>
+        <v>11.48166666666666</v>
       </c>
       <c r="H27" t="n">
         <v>0</v>
@@ -1343,22 +1343,22 @@
         <v>26</v>
       </c>
       <c r="B28" t="n">
-        <v>11.7</v>
+        <v>11.5</v>
       </c>
       <c r="C28" t="n">
-        <v>11.7</v>
+        <v>11.5</v>
       </c>
       <c r="D28" t="n">
-        <v>11.7</v>
+        <v>11.5</v>
       </c>
       <c r="E28" t="n">
-        <v>11.7</v>
+        <v>11.5</v>
       </c>
       <c r="F28" t="n">
-        <v>12448.8178</v>
+        <v>39667.0323</v>
       </c>
       <c r="G28" t="n">
-        <v>11.6</v>
+        <v>11.48499999999999</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
@@ -1390,10 +1390,10 @@
         <v>11.7</v>
       </c>
       <c r="F29" t="n">
-        <v>16129.033</v>
+        <v>12448.8178</v>
       </c>
       <c r="G29" t="n">
-        <v>11.7</v>
+        <v>11.48999999999999</v>
       </c>
       <c r="H29" t="n">
         <v>0</v>
@@ -1413,22 +1413,22 @@
         <v>28</v>
       </c>
       <c r="B30" t="n">
-        <v>11.6</v>
+        <v>11.7</v>
       </c>
       <c r="C30" t="n">
-        <v>11.6</v>
+        <v>11.7</v>
       </c>
       <c r="D30" t="n">
-        <v>11.6</v>
+        <v>11.7</v>
       </c>
       <c r="E30" t="n">
-        <v>11.6</v>
+        <v>11.7</v>
       </c>
       <c r="F30" t="n">
-        <v>18850.881</v>
+        <v>16129.033</v>
       </c>
       <c r="G30" t="n">
-        <v>11.65</v>
+        <v>11.49666666666666</v>
       </c>
       <c r="H30" t="n">
         <v>0</v>
@@ -1460,10 +1460,10 @@
         <v>11.6</v>
       </c>
       <c r="F31" t="n">
-        <v>87199.11900000001</v>
+        <v>18850.881</v>
       </c>
       <c r="G31" t="n">
-        <v>11.6</v>
+        <v>11.50166666666666</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
@@ -1495,10 +1495,10 @@
         <v>11.6</v>
       </c>
       <c r="F32" t="n">
-        <v>12800.881</v>
+        <v>87199.11900000001</v>
       </c>
       <c r="G32" t="n">
-        <v>11.59999999999999</v>
+        <v>11.505</v>
       </c>
       <c r="H32" t="n">
         <v>0</v>
@@ -1518,22 +1518,22 @@
         <v>31</v>
       </c>
       <c r="B33" t="n">
-        <v>11.7</v>
+        <v>11.6</v>
       </c>
       <c r="C33" t="n">
-        <v>11.7</v>
+        <v>11.6</v>
       </c>
       <c r="D33" t="n">
-        <v>11.7</v>
+        <v>11.6</v>
       </c>
       <c r="E33" t="n">
-        <v>11.7</v>
+        <v>11.6</v>
       </c>
       <c r="F33" t="n">
-        <v>85966.81789999999</v>
+        <v>12800.881</v>
       </c>
       <c r="G33" t="n">
-        <v>11.65</v>
+        <v>11.51</v>
       </c>
       <c r="H33" t="n">
         <v>0</v>
@@ -1565,10 +1565,10 @@
         <v>11.7</v>
       </c>
       <c r="F34" t="n">
-        <v>13302038.8404</v>
+        <v>85966.81789999999</v>
       </c>
       <c r="G34" t="n">
-        <v>11.69999999999999</v>
+        <v>11.51666666666666</v>
       </c>
       <c r="H34" t="n">
         <v>0</v>
@@ -1597,13 +1597,13 @@
         <v>11.7</v>
       </c>
       <c r="E35" t="n">
-        <v>11.6</v>
+        <v>11.7</v>
       </c>
       <c r="F35" t="n">
-        <v>130065131.364</v>
+        <v>13302038.8404</v>
       </c>
       <c r="G35" t="n">
-        <v>11.69999999999999</v>
+        <v>11.52333333333333</v>
       </c>
       <c r="H35" t="n">
         <v>0</v>
@@ -1635,10 +1635,10 @@
         <v>11.6</v>
       </c>
       <c r="F36" t="n">
-        <v>106001857.6074</v>
+        <v>130065131.364</v>
       </c>
       <c r="G36" t="n">
-        <v>11.69999999999999</v>
+        <v>11.53</v>
       </c>
       <c r="H36" t="n">
         <v>0</v>
@@ -1667,13 +1667,13 @@
         <v>11.7</v>
       </c>
       <c r="E37" t="n">
-        <v>11.7</v>
+        <v>11.6</v>
       </c>
       <c r="F37" t="n">
-        <v>92703390.89920001</v>
+        <v>106001857.6074</v>
       </c>
       <c r="G37" t="n">
-        <v>11.69999999999999</v>
+        <v>11.53666666666667</v>
       </c>
       <c r="H37" t="n">
         <v>0</v>
@@ -1705,10 +1705,10 @@
         <v>11.7</v>
       </c>
       <c r="F38" t="n">
-        <v>38036926.8492</v>
+        <v>92703390.89920001</v>
       </c>
       <c r="G38" t="n">
-        <v>11.69999999999999</v>
+        <v>11.54333333333334</v>
       </c>
       <c r="H38" t="n">
         <v>0</v>
@@ -1740,10 +1740,10 @@
         <v>11.7</v>
       </c>
       <c r="F39" t="n">
-        <v>8453362.104</v>
+        <v>38036926.8492</v>
       </c>
       <c r="G39" t="n">
-        <v>11.69999999999999</v>
+        <v>11.54833333333334</v>
       </c>
       <c r="H39" t="n">
         <v>0</v>
@@ -1775,10 +1775,10 @@
         <v>11.7</v>
       </c>
       <c r="F40" t="n">
-        <v>156096310.7232</v>
+        <v>8453362.104</v>
       </c>
       <c r="G40" t="n">
-        <v>11.69999999999999</v>
+        <v>11.55333333333334</v>
       </c>
       <c r="H40" t="n">
         <v>0</v>
@@ -1810,10 +1810,10 @@
         <v>11.7</v>
       </c>
       <c r="F41" t="n">
-        <v>195853126.5092</v>
+        <v>156096310.7232</v>
       </c>
       <c r="G41" t="n">
-        <v>11.69999999999999</v>
+        <v>11.55833333333334</v>
       </c>
       <c r="H41" t="n">
         <v>0</v>
@@ -1845,10 +1845,10 @@
         <v>11.7</v>
       </c>
       <c r="F42" t="n">
-        <v>158274385.0388</v>
+        <v>195853126.5092</v>
       </c>
       <c r="G42" t="n">
-        <v>11.69999999999999</v>
+        <v>11.56333333333334</v>
       </c>
       <c r="H42" t="n">
         <v>0</v>
@@ -1877,19 +1877,19 @@
         <v>11.7</v>
       </c>
       <c r="E43" t="n">
-        <v>11.6</v>
+        <v>11.7</v>
       </c>
       <c r="F43" t="n">
-        <v>179923443.1154</v>
+        <v>158274385.0388</v>
       </c>
       <c r="G43" t="n">
-        <v>11.69999999999999</v>
+        <v>11.57000000000001</v>
       </c>
       <c r="H43" t="n">
         <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J43" t="inlineStr"/>
       <c r="K43" t="inlineStr"/>
@@ -1915,10 +1915,10 @@
         <v>11.6</v>
       </c>
       <c r="F44" t="n">
-        <v>121746723.4606</v>
+        <v>179923443.1154</v>
       </c>
       <c r="G44" t="n">
-        <v>11.69999999999999</v>
+        <v>11.57666666666668</v>
       </c>
       <c r="H44" t="n">
         <v>0</v>
@@ -1947,13 +1947,13 @@
         <v>11.7</v>
       </c>
       <c r="E45" t="n">
-        <v>11.7</v>
+        <v>11.6</v>
       </c>
       <c r="F45" t="n">
-        <v>27976905.5353</v>
+        <v>121746723.4606</v>
       </c>
       <c r="G45" t="n">
-        <v>11.69999999999999</v>
+        <v>11.58166666666668</v>
       </c>
       <c r="H45" t="n">
         <v>0</v>
@@ -1982,13 +1982,13 @@
         <v>11.7</v>
       </c>
       <c r="E46" t="n">
-        <v>11.6</v>
+        <v>11.7</v>
       </c>
       <c r="F46" t="n">
-        <v>112470697.5007</v>
+        <v>27976905.5353</v>
       </c>
       <c r="G46" t="n">
-        <v>11.69999999999999</v>
+        <v>11.58833333333335</v>
       </c>
       <c r="H46" t="n">
         <v>0</v>
@@ -2017,13 +2017,13 @@
         <v>11.7</v>
       </c>
       <c r="E47" t="n">
-        <v>11.7</v>
+        <v>11.6</v>
       </c>
       <c r="F47" t="n">
-        <v>186207290.4324</v>
+        <v>112470697.5007</v>
       </c>
       <c r="G47" t="n">
-        <v>11.69999999999999</v>
+        <v>11.59166666666668</v>
       </c>
       <c r="H47" t="n">
         <v>0</v>
@@ -2055,10 +2055,10 @@
         <v>11.7</v>
       </c>
       <c r="F48" t="n">
-        <v>187632281.534</v>
+        <v>186207290.4324</v>
       </c>
       <c r="G48" t="n">
-        <v>11.69999999999999</v>
+        <v>11.59500000000002</v>
       </c>
       <c r="H48" t="n">
         <v>0</v>
@@ -2090,10 +2090,10 @@
         <v>11.7</v>
       </c>
       <c r="F49" t="n">
-        <v>189037860.2988</v>
+        <v>187632281.534</v>
       </c>
       <c r="G49" t="n">
-        <v>11.69999999999999</v>
+        <v>11.59833333333335</v>
       </c>
       <c r="H49" t="n">
         <v>0</v>
@@ -2125,10 +2125,10 @@
         <v>11.7</v>
       </c>
       <c r="F50" t="n">
-        <v>189738700.8229</v>
+        <v>189037860.2988</v>
       </c>
       <c r="G50" t="n">
-        <v>11.69999999999999</v>
+        <v>11.60166666666668</v>
       </c>
       <c r="H50" t="n">
         <v>0</v>
@@ -2160,10 +2160,10 @@
         <v>11.7</v>
       </c>
       <c r="F51" t="n">
-        <v>189733668.404</v>
+        <v>189738700.8229</v>
       </c>
       <c r="G51" t="n">
-        <v>11.69999999999999</v>
+        <v>11.60500000000002</v>
       </c>
       <c r="H51" t="n">
         <v>0</v>
@@ -2195,10 +2195,10 @@
         <v>11.7</v>
       </c>
       <c r="F52" t="n">
-        <v>179900005.3512</v>
+        <v>189733668.404</v>
       </c>
       <c r="G52" t="n">
-        <v>11.69999999999999</v>
+        <v>11.60666666666669</v>
       </c>
       <c r="H52" t="n">
         <v>0</v>
@@ -2230,10 +2230,10 @@
         <v>11.7</v>
       </c>
       <c r="F53" t="n">
-        <v>186907693.1443</v>
+        <v>179900005.3512</v>
       </c>
       <c r="G53" t="n">
-        <v>11.69999999999999</v>
+        <v>11.60833333333335</v>
       </c>
       <c r="H53" t="n">
         <v>0</v>
@@ -2265,10 +2265,10 @@
         <v>11.7</v>
       </c>
       <c r="F54" t="n">
-        <v>189019743.1377</v>
+        <v>186907693.1443</v>
       </c>
       <c r="G54" t="n">
-        <v>11.69999999999999</v>
+        <v>11.61166666666669</v>
       </c>
       <c r="H54" t="n">
         <v>0</v>
@@ -2300,10 +2300,10 @@
         <v>11.7</v>
       </c>
       <c r="F55" t="n">
-        <v>186909832.5976</v>
+        <v>189019743.1377</v>
       </c>
       <c r="G55" t="n">
-        <v>11.69999999999999</v>
+        <v>11.61166666666669</v>
       </c>
       <c r="H55" t="n">
         <v>0</v>
@@ -2335,10 +2335,10 @@
         <v>11.7</v>
       </c>
       <c r="F56" t="n">
-        <v>191151814.6144</v>
+        <v>186909832.5976</v>
       </c>
       <c r="G56" t="n">
-        <v>11.69999999999999</v>
+        <v>11.61500000000002</v>
       </c>
       <c r="H56" t="n">
         <v>0</v>
@@ -2370,10 +2370,10 @@
         <v>11.7</v>
       </c>
       <c r="F57" t="n">
-        <v>105400215.78</v>
+        <v>191151814.6144</v>
       </c>
       <c r="G57" t="n">
-        <v>11.69999999999999</v>
+        <v>11.61833333333336</v>
       </c>
       <c r="H57" t="n">
         <v>0</v>
@@ -2405,10 +2405,10 @@
         <v>11.7</v>
       </c>
       <c r="F58" t="n">
-        <v>178811966.5981</v>
+        <v>105400215.78</v>
       </c>
       <c r="G58" t="n">
-        <v>11.69999999999999</v>
+        <v>11.62166666666669</v>
       </c>
       <c r="H58" t="n">
         <v>0</v>
@@ -2440,10 +2440,10 @@
         <v>11.7</v>
       </c>
       <c r="F59" t="n">
-        <v>190423056.5092</v>
+        <v>178811966.5981</v>
       </c>
       <c r="G59" t="n">
-        <v>11.69999999999999</v>
+        <v>11.62500000000002</v>
       </c>
       <c r="H59" t="n">
         <v>0</v>
@@ -2475,10 +2475,10 @@
         <v>11.7</v>
       </c>
       <c r="F60" t="n">
-        <v>189720388.404</v>
+        <v>190423056.5092</v>
       </c>
       <c r="G60" t="n">
-        <v>11.69999999999999</v>
+        <v>11.62833333333336</v>
       </c>
       <c r="H60" t="n">
         <v>0</v>
@@ -2501,19 +2501,19 @@
         <v>11.7</v>
       </c>
       <c r="C61" t="n">
-        <v>11.8</v>
+        <v>11.7</v>
       </c>
       <c r="D61" t="n">
-        <v>11.8</v>
+        <v>11.7</v>
       </c>
       <c r="E61" t="n">
         <v>11.7</v>
       </c>
       <c r="F61" t="n">
-        <v>5599959.6117</v>
+        <v>189720388.404</v>
       </c>
       <c r="G61" t="n">
-        <v>11.74999999999999</v>
+        <v>11.63333333333336</v>
       </c>
       <c r="H61" t="n">
         <v>0</v>
@@ -2533,7 +2533,7 @@
         <v>60</v>
       </c>
       <c r="B62" t="n">
-        <v>11.8</v>
+        <v>11.7</v>
       </c>
       <c r="C62" t="n">
         <v>11.8</v>
@@ -2542,13 +2542,13 @@
         <v>11.8</v>
       </c>
       <c r="E62" t="n">
-        <v>11.8</v>
+        <v>11.7</v>
       </c>
       <c r="F62" t="n">
-        <v>4891.0665</v>
+        <v>5599959.6117</v>
       </c>
       <c r="G62" t="n">
-        <v>11.79999999999999</v>
+        <v>11.63833333333336</v>
       </c>
       <c r="H62" t="n">
         <v>0</v>
@@ -2580,10 +2580,10 @@
         <v>11.8</v>
       </c>
       <c r="F63" t="n">
-        <v>100000</v>
+        <v>4891.0665</v>
       </c>
       <c r="G63" t="n">
-        <v>11.79999999999999</v>
+        <v>11.64333333333336</v>
       </c>
       <c r="H63" t="n">
         <v>0</v>
@@ -2615,19 +2615,23 @@
         <v>11.8</v>
       </c>
       <c r="F64" t="n">
-        <v>2000</v>
+        <v>100000</v>
       </c>
       <c r="G64" t="n">
-        <v>11.79999999999999</v>
+        <v>11.65000000000002</v>
       </c>
       <c r="H64" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I64" t="n">
         <v>0</v>
       </c>
-      <c r="J64" t="inlineStr"/>
-      <c r="K64" t="inlineStr"/>
+      <c r="J64" t="n">
+        <v>11.8</v>
+      </c>
+      <c r="K64" t="n">
+        <v>11.8</v>
+      </c>
       <c r="L64" t="inlineStr"/>
       <c r="M64" t="n">
         <v>1</v>
@@ -2638,22 +2642,22 @@
         <v>63</v>
       </c>
       <c r="B65" t="n">
-        <v>11.9</v>
+        <v>11.8</v>
       </c>
       <c r="C65" t="n">
-        <v>11.9</v>
+        <v>11.8</v>
       </c>
       <c r="D65" t="n">
-        <v>11.9</v>
+        <v>11.8</v>
       </c>
       <c r="E65" t="n">
-        <v>11.9</v>
+        <v>11.8</v>
       </c>
       <c r="F65" t="n">
-        <v>251.3883</v>
+        <v>2000</v>
       </c>
       <c r="G65" t="n">
-        <v>11.84999999999999</v>
+        <v>11.65666666666669</v>
       </c>
       <c r="H65" t="n">
         <v>0</v>
@@ -2662,8 +2666,14 @@
         <v>0</v>
       </c>
       <c r="J65" t="inlineStr"/>
-      <c r="K65" t="inlineStr"/>
-      <c r="L65" t="inlineStr"/>
+      <c r="K65" t="n">
+        <v>11.8</v>
+      </c>
+      <c r="L65" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="M65" t="n">
         <v>1</v>
       </c>
@@ -2685,10 +2695,10 @@
         <v>11.9</v>
       </c>
       <c r="F66" t="n">
-        <v>4201.680672268908</v>
+        <v>251.3883</v>
       </c>
       <c r="G66" t="n">
-        <v>11.89999999999999</v>
+        <v>11.66500000000002</v>
       </c>
       <c r="H66" t="n">
         <v>0</v>
@@ -2697,8 +2707,14 @@
         <v>0</v>
       </c>
       <c r="J66" t="inlineStr"/>
-      <c r="K66" t="inlineStr"/>
-      <c r="L66" t="inlineStr"/>
+      <c r="K66" t="n">
+        <v>11.8</v>
+      </c>
+      <c r="L66" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="M66" t="n">
         <v>1</v>
       </c>
@@ -2708,22 +2724,22 @@
         <v>65</v>
       </c>
       <c r="B67" t="n">
-        <v>11.8</v>
+        <v>11.9</v>
       </c>
       <c r="C67" t="n">
-        <v>11.8</v>
+        <v>11.9</v>
       </c>
       <c r="D67" t="n">
-        <v>11.8</v>
+        <v>11.9</v>
       </c>
       <c r="E67" t="n">
-        <v>11.8</v>
+        <v>11.9</v>
       </c>
       <c r="F67" t="n">
-        <v>1733.9769</v>
+        <v>4201.680672268908</v>
       </c>
       <c r="G67" t="n">
-        <v>11.84999999999999</v>
+        <v>11.67166666666669</v>
       </c>
       <c r="H67" t="n">
         <v>0</v>
@@ -2743,22 +2759,22 @@
         <v>66</v>
       </c>
       <c r="B68" t="n">
-        <v>11.7</v>
+        <v>11.8</v>
       </c>
       <c r="C68" t="n">
-        <v>11.7</v>
+        <v>11.8</v>
       </c>
       <c r="D68" t="n">
-        <v>11.7</v>
+        <v>11.8</v>
       </c>
       <c r="E68" t="n">
-        <v>11.7</v>
+        <v>11.8</v>
       </c>
       <c r="F68" t="n">
-        <v>58830</v>
+        <v>1733.9769</v>
       </c>
       <c r="G68" t="n">
-        <v>11.75</v>
+        <v>11.67666666666669</v>
       </c>
       <c r="H68" t="n">
         <v>0</v>
@@ -2778,22 +2794,22 @@
         <v>67</v>
       </c>
       <c r="B69" t="n">
-        <v>11.8</v>
+        <v>11.7</v>
       </c>
       <c r="C69" t="n">
-        <v>11.8</v>
+        <v>11.7</v>
       </c>
       <c r="D69" t="n">
-        <v>11.8</v>
+        <v>11.7</v>
       </c>
       <c r="E69" t="n">
-        <v>11.8</v>
+        <v>11.7</v>
       </c>
       <c r="F69" t="n">
-        <v>123789.0642</v>
+        <v>58830</v>
       </c>
       <c r="G69" t="n">
-        <v>11.75</v>
+        <v>11.67833333333335</v>
       </c>
       <c r="H69" t="n">
         <v>0</v>
@@ -2813,22 +2829,22 @@
         <v>68</v>
       </c>
       <c r="B70" t="n">
-        <v>11.9</v>
+        <v>11.8</v>
       </c>
       <c r="C70" t="n">
-        <v>11.9</v>
+        <v>11.8</v>
       </c>
       <c r="D70" t="n">
-        <v>11.9</v>
+        <v>11.8</v>
       </c>
       <c r="E70" t="n">
-        <v>11.9</v>
+        <v>11.8</v>
       </c>
       <c r="F70" t="n">
-        <v>89823.7029</v>
+        <v>123789.0642</v>
       </c>
       <c r="G70" t="n">
-        <v>11.85</v>
+        <v>11.68333333333335</v>
       </c>
       <c r="H70" t="n">
         <v>0</v>
@@ -2860,10 +2876,10 @@
         <v>11.9</v>
       </c>
       <c r="F71" t="n">
-        <v>49.9214</v>
+        <v>89823.7029</v>
       </c>
       <c r="G71" t="n">
-        <v>11.9</v>
+        <v>11.69000000000002</v>
       </c>
       <c r="H71" t="n">
         <v>0</v>
@@ -2886,19 +2902,19 @@
         <v>11.9</v>
       </c>
       <c r="C72" t="n">
-        <v>12.1</v>
+        <v>11.9</v>
       </c>
       <c r="D72" t="n">
-        <v>12.1</v>
+        <v>11.9</v>
       </c>
       <c r="E72" t="n">
         <v>11.9</v>
       </c>
       <c r="F72" t="n">
-        <v>154646.1387492187</v>
+        <v>49.9214</v>
       </c>
       <c r="G72" t="n">
-        <v>12</v>
+        <v>11.69500000000002</v>
       </c>
       <c r="H72" t="n">
         <v>0</v>
@@ -2918,7 +2934,7 @@
         <v>71</v>
       </c>
       <c r="B73" t="n">
-        <v>12.1</v>
+        <v>11.9</v>
       </c>
       <c r="C73" t="n">
         <v>12.1</v>
@@ -2927,13 +2943,13 @@
         <v>12.1</v>
       </c>
       <c r="E73" t="n">
-        <v>12.1</v>
+        <v>11.9</v>
       </c>
       <c r="F73" t="n">
-        <v>1980.0993</v>
+        <v>154646.1387492187</v>
       </c>
       <c r="G73" t="n">
-        <v>12.1</v>
+        <v>11.70333333333335</v>
       </c>
       <c r="H73" t="n">
         <v>0</v>
@@ -2953,22 +2969,22 @@
         <v>72</v>
       </c>
       <c r="B74" t="n">
-        <v>12</v>
+        <v>12.1</v>
       </c>
       <c r="C74" t="n">
-        <v>12</v>
+        <v>12.1</v>
       </c>
       <c r="D74" t="n">
-        <v>12</v>
+        <v>12.1</v>
       </c>
       <c r="E74" t="n">
-        <v>12</v>
+        <v>12.1</v>
       </c>
       <c r="F74" t="n">
-        <v>134024.0411</v>
+        <v>1980.0993</v>
       </c>
       <c r="G74" t="n">
-        <v>12.05</v>
+        <v>11.71333333333335</v>
       </c>
       <c r="H74" t="n">
         <v>0</v>
@@ -3000,16 +3016,16 @@
         <v>12</v>
       </c>
       <c r="F75" t="n">
-        <v>1000</v>
+        <v>134024.0411</v>
       </c>
       <c r="G75" t="n">
-        <v>12</v>
+        <v>11.72000000000002</v>
       </c>
       <c r="H75" t="n">
         <v>0</v>
       </c>
       <c r="I75" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J75" t="inlineStr"/>
       <c r="K75" t="inlineStr"/>
@@ -3035,10 +3051,10 @@
         <v>12</v>
       </c>
       <c r="F76" t="n">
-        <v>41487.3614</v>
+        <v>1000</v>
       </c>
       <c r="G76" t="n">
-        <v>12</v>
+        <v>11.72833333333335</v>
       </c>
       <c r="H76" t="n">
         <v>0</v>
@@ -3058,22 +3074,22 @@
         <v>75</v>
       </c>
       <c r="B77" t="n">
-        <v>12.1</v>
+        <v>12</v>
       </c>
       <c r="C77" t="n">
-        <v>12.1</v>
+        <v>12</v>
       </c>
       <c r="D77" t="n">
-        <v>12.1</v>
+        <v>12</v>
       </c>
       <c r="E77" t="n">
-        <v>12.1</v>
+        <v>12</v>
       </c>
       <c r="F77" t="n">
-        <v>11937.9435</v>
+        <v>41487.3614</v>
       </c>
       <c r="G77" t="n">
-        <v>12.05</v>
+        <v>11.73500000000002</v>
       </c>
       <c r="H77" t="n">
         <v>0</v>
@@ -3105,10 +3121,10 @@
         <v>12.1</v>
       </c>
       <c r="F78" t="n">
-        <v>17840.68947851239</v>
+        <v>11937.9435</v>
       </c>
       <c r="G78" t="n">
-        <v>12.1</v>
+        <v>11.74333333333335</v>
       </c>
       <c r="H78" t="n">
         <v>0</v>
@@ -3128,22 +3144,22 @@
         <v>77</v>
       </c>
       <c r="B79" t="n">
-        <v>12.2</v>
+        <v>12.1</v>
       </c>
       <c r="C79" t="n">
         <v>12.1</v>
       </c>
       <c r="D79" t="n">
-        <v>12.2</v>
+        <v>12.1</v>
       </c>
       <c r="E79" t="n">
         <v>12.1</v>
       </c>
       <c r="F79" t="n">
-        <v>85476.65089999999</v>
+        <v>17840.68947851239</v>
       </c>
       <c r="G79" t="n">
-        <v>12.1</v>
+        <v>11.75000000000002</v>
       </c>
       <c r="H79" t="n">
         <v>0</v>
@@ -3166,19 +3182,19 @@
         <v>12.2</v>
       </c>
       <c r="C80" t="n">
-        <v>12.2</v>
+        <v>12.1</v>
       </c>
       <c r="D80" t="n">
         <v>12.2</v>
       </c>
       <c r="E80" t="n">
-        <v>12.2</v>
+        <v>12.1</v>
       </c>
       <c r="F80" t="n">
-        <v>102072.4842</v>
+        <v>85476.65089999999</v>
       </c>
       <c r="G80" t="n">
-        <v>12.15</v>
+        <v>11.75666666666669</v>
       </c>
       <c r="H80" t="n">
         <v>0</v>
@@ -3198,22 +3214,22 @@
         <v>79</v>
       </c>
       <c r="B81" t="n">
-        <v>12.1</v>
+        <v>12.2</v>
       </c>
       <c r="C81" t="n">
-        <v>12.1</v>
+        <v>12.2</v>
       </c>
       <c r="D81" t="n">
-        <v>12.1</v>
+        <v>12.2</v>
       </c>
       <c r="E81" t="n">
-        <v>12.1</v>
+        <v>12.2</v>
       </c>
       <c r="F81" t="n">
-        <v>3539</v>
+        <v>102072.4842</v>
       </c>
       <c r="G81" t="n">
-        <v>12.15</v>
+        <v>11.76500000000002</v>
       </c>
       <c r="H81" t="n">
         <v>0</v>
@@ -3233,22 +3249,22 @@
         <v>80</v>
       </c>
       <c r="B82" t="n">
-        <v>12.3</v>
+        <v>12.1</v>
       </c>
       <c r="C82" t="n">
-        <v>12.3</v>
+        <v>12.1</v>
       </c>
       <c r="D82" t="n">
-        <v>12.3</v>
+        <v>12.1</v>
       </c>
       <c r="E82" t="n">
-        <v>12.3</v>
+        <v>12.1</v>
       </c>
       <c r="F82" t="n">
-        <v>41</v>
+        <v>3539</v>
       </c>
       <c r="G82" t="n">
-        <v>12.2</v>
+        <v>11.77000000000002</v>
       </c>
       <c r="H82" t="n">
         <v>0</v>
@@ -3280,10 +3296,10 @@
         <v>12.3</v>
       </c>
       <c r="F83" t="n">
-        <v>47091.4205</v>
+        <v>41</v>
       </c>
       <c r="G83" t="n">
-        <v>12.3</v>
+        <v>11.78166666666669</v>
       </c>
       <c r="H83" t="n">
         <v>0</v>
@@ -3303,22 +3319,22 @@
         <v>82</v>
       </c>
       <c r="B84" t="n">
-        <v>12.1</v>
+        <v>12.3</v>
       </c>
       <c r="C84" t="n">
-        <v>12.1</v>
+        <v>12.3</v>
       </c>
       <c r="D84" t="n">
-        <v>12.1</v>
+        <v>12.3</v>
       </c>
       <c r="E84" t="n">
-        <v>12.1</v>
+        <v>12.3</v>
       </c>
       <c r="F84" t="n">
-        <v>2500</v>
+        <v>47091.4205</v>
       </c>
       <c r="G84" t="n">
-        <v>12.2</v>
+        <v>11.79333333333335</v>
       </c>
       <c r="H84" t="n">
         <v>0</v>
@@ -3341,25 +3357,25 @@
         <v>12.1</v>
       </c>
       <c r="C85" t="n">
-        <v>12</v>
+        <v>12.1</v>
       </c>
       <c r="D85" t="n">
         <v>12.1</v>
       </c>
       <c r="E85" t="n">
-        <v>12</v>
+        <v>12.1</v>
       </c>
       <c r="F85" t="n">
-        <v>69267.75992148761</v>
+        <v>2500</v>
       </c>
       <c r="G85" t="n">
-        <v>12.05</v>
+        <v>11.80166666666668</v>
       </c>
       <c r="H85" t="n">
         <v>0</v>
       </c>
       <c r="I85" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J85" t="inlineStr"/>
       <c r="K85" t="inlineStr"/>
@@ -3373,22 +3389,22 @@
         <v>84</v>
       </c>
       <c r="B86" t="n">
-        <v>12</v>
+        <v>12.1</v>
       </c>
       <c r="C86" t="n">
         <v>12</v>
       </c>
       <c r="D86" t="n">
-        <v>12</v>
+        <v>12.1</v>
       </c>
       <c r="E86" t="n">
         <v>12</v>
       </c>
       <c r="F86" t="n">
-        <v>3350</v>
+        <v>69267.75992148761</v>
       </c>
       <c r="G86" t="n">
-        <v>12</v>
+        <v>11.80833333333335</v>
       </c>
       <c r="H86" t="n">
         <v>0</v>
@@ -3411,19 +3427,19 @@
         <v>12</v>
       </c>
       <c r="C87" t="n">
-        <v>11.9</v>
+        <v>12</v>
       </c>
       <c r="D87" t="n">
         <v>12</v>
       </c>
       <c r="E87" t="n">
-        <v>11.9</v>
+        <v>12</v>
       </c>
       <c r="F87" t="n">
-        <v>25869.7773</v>
+        <v>3350</v>
       </c>
       <c r="G87" t="n">
-        <v>11.95</v>
+        <v>11.81500000000002</v>
       </c>
       <c r="H87" t="n">
         <v>0</v>
@@ -3443,22 +3459,22 @@
         <v>86</v>
       </c>
       <c r="B88" t="n">
-        <v>12.1</v>
+        <v>12</v>
       </c>
       <c r="C88" t="n">
-        <v>12.1</v>
+        <v>11.9</v>
       </c>
       <c r="D88" t="n">
-        <v>12.1</v>
+        <v>12</v>
       </c>
       <c r="E88" t="n">
-        <v>12.1</v>
+        <v>11.9</v>
       </c>
       <c r="F88" t="n">
-        <v>2303.2476</v>
+        <v>25869.7773</v>
       </c>
       <c r="G88" t="n">
-        <v>12</v>
+        <v>11.82166666666668</v>
       </c>
       <c r="H88" t="n">
         <v>0</v>
@@ -3490,10 +3506,10 @@
         <v>12.1</v>
       </c>
       <c r="F89" t="n">
-        <v>5819.577</v>
+        <v>2303.2476</v>
       </c>
       <c r="G89" t="n">
-        <v>12.1</v>
+        <v>11.82833333333335</v>
       </c>
       <c r="H89" t="n">
         <v>0</v>
@@ -3513,22 +3529,22 @@
         <v>88</v>
       </c>
       <c r="B90" t="n">
-        <v>12</v>
+        <v>12.1</v>
       </c>
       <c r="C90" t="n">
-        <v>11.9</v>
+        <v>12.1</v>
       </c>
       <c r="D90" t="n">
-        <v>12</v>
+        <v>12.1</v>
       </c>
       <c r="E90" t="n">
-        <v>11.9</v>
+        <v>12.1</v>
       </c>
       <c r="F90" t="n">
-        <v>189553.5962</v>
+        <v>5819.577</v>
       </c>
       <c r="G90" t="n">
-        <v>12</v>
+        <v>11.83500000000002</v>
       </c>
       <c r="H90" t="n">
         <v>0</v>
@@ -3548,22 +3564,22 @@
         <v>89</v>
       </c>
       <c r="B91" t="n">
-        <v>11.9</v>
+        <v>12</v>
       </c>
       <c r="C91" t="n">
         <v>11.9</v>
       </c>
       <c r="D91" t="n">
-        <v>11.9</v>
+        <v>12</v>
       </c>
       <c r="E91" t="n">
         <v>11.9</v>
       </c>
       <c r="F91" t="n">
-        <v>9946.4038</v>
+        <v>189553.5962</v>
       </c>
       <c r="G91" t="n">
-        <v>11.9</v>
+        <v>11.84000000000001</v>
       </c>
       <c r="H91" t="n">
         <v>0</v>
@@ -3583,22 +3599,22 @@
         <v>90</v>
       </c>
       <c r="B92" t="n">
-        <v>12.1</v>
+        <v>11.9</v>
       </c>
       <c r="C92" t="n">
-        <v>12.1</v>
+        <v>11.9</v>
       </c>
       <c r="D92" t="n">
-        <v>12.1</v>
+        <v>11.9</v>
       </c>
       <c r="E92" t="n">
-        <v>12.1</v>
+        <v>11.9</v>
       </c>
       <c r="F92" t="n">
-        <v>210</v>
+        <v>9946.4038</v>
       </c>
       <c r="G92" t="n">
-        <v>12</v>
+        <v>11.84500000000001</v>
       </c>
       <c r="H92" t="n">
         <v>0</v>
@@ -3618,22 +3634,22 @@
         <v>91</v>
       </c>
       <c r="B93" t="n">
-        <v>12</v>
+        <v>12.1</v>
       </c>
       <c r="C93" t="n">
-        <v>12</v>
+        <v>12.1</v>
       </c>
       <c r="D93" t="n">
-        <v>12</v>
+        <v>12.1</v>
       </c>
       <c r="E93" t="n">
-        <v>12</v>
+        <v>12.1</v>
       </c>
       <c r="F93" t="n">
-        <v>80376.11629999999</v>
+        <v>210</v>
       </c>
       <c r="G93" t="n">
-        <v>12.05</v>
+        <v>11.85333333333335</v>
       </c>
       <c r="H93" t="n">
         <v>0</v>
@@ -3656,19 +3672,19 @@
         <v>12</v>
       </c>
       <c r="C94" t="n">
-        <v>12.1</v>
+        <v>12</v>
       </c>
       <c r="D94" t="n">
-        <v>12.1</v>
+        <v>12</v>
       </c>
       <c r="E94" t="n">
         <v>12</v>
       </c>
       <c r="F94" t="n">
-        <v>42788.99898677686</v>
+        <v>80376.11629999999</v>
       </c>
       <c r="G94" t="n">
-        <v>12.05</v>
+        <v>11.85833333333335</v>
       </c>
       <c r="H94" t="n">
         <v>0</v>
@@ -3688,7 +3704,7 @@
         <v>93</v>
       </c>
       <c r="B95" t="n">
-        <v>12.1</v>
+        <v>12</v>
       </c>
       <c r="C95" t="n">
         <v>12.1</v>
@@ -3697,13 +3713,13 @@
         <v>12.1</v>
       </c>
       <c r="E95" t="n">
-        <v>12.1</v>
+        <v>12</v>
       </c>
       <c r="F95" t="n">
-        <v>31119.63199173554</v>
+        <v>42788.99898677686</v>
       </c>
       <c r="G95" t="n">
-        <v>12.1</v>
+        <v>11.86500000000001</v>
       </c>
       <c r="H95" t="n">
         <v>0</v>
@@ -3726,19 +3742,19 @@
         <v>12.1</v>
       </c>
       <c r="C96" t="n">
-        <v>12</v>
+        <v>12.1</v>
       </c>
       <c r="D96" t="n">
         <v>12.1</v>
       </c>
       <c r="E96" t="n">
-        <v>11.9</v>
+        <v>12.1</v>
       </c>
       <c r="F96" t="n">
-        <v>63340.8259</v>
+        <v>31119.63199173554</v>
       </c>
       <c r="G96" t="n">
-        <v>12.05</v>
+        <v>11.87166666666668</v>
       </c>
       <c r="H96" t="n">
         <v>0</v>
@@ -3758,22 +3774,22 @@
         <v>95</v>
       </c>
       <c r="B97" t="n">
-        <v>11.9</v>
+        <v>12.1</v>
       </c>
       <c r="C97" t="n">
-        <v>11.9</v>
+        <v>12</v>
       </c>
       <c r="D97" t="n">
-        <v>11.9</v>
+        <v>12.1</v>
       </c>
       <c r="E97" t="n">
         <v>11.9</v>
       </c>
       <c r="F97" t="n">
-        <v>29649.5695</v>
+        <v>63340.8259</v>
       </c>
       <c r="G97" t="n">
-        <v>11.95</v>
+        <v>11.87666666666668</v>
       </c>
       <c r="H97" t="n">
         <v>0</v>
@@ -3805,10 +3821,10 @@
         <v>11.9</v>
       </c>
       <c r="F98" t="n">
-        <v>23602.5531</v>
+        <v>29649.5695</v>
       </c>
       <c r="G98" t="n">
-        <v>11.9</v>
+        <v>11.88000000000001</v>
       </c>
       <c r="H98" t="n">
         <v>0</v>
@@ -3840,10 +3856,10 @@
         <v>11.9</v>
       </c>
       <c r="F99" t="n">
-        <v>24718.9033</v>
+        <v>23602.5531</v>
       </c>
       <c r="G99" t="n">
-        <v>11.9</v>
+        <v>11.88333333333334</v>
       </c>
       <c r="H99" t="n">
         <v>0</v>
@@ -3875,10 +3891,10 @@
         <v>11.9</v>
       </c>
       <c r="F100" t="n">
-        <v>25652.1657</v>
+        <v>24718.9033</v>
       </c>
       <c r="G100" t="n">
-        <v>11.9</v>
+        <v>11.88666666666668</v>
       </c>
       <c r="H100" t="n">
         <v>0</v>
@@ -3898,22 +3914,22 @@
         <v>99</v>
       </c>
       <c r="B101" t="n">
-        <v>12</v>
+        <v>11.9</v>
       </c>
       <c r="C101" t="n">
-        <v>12</v>
+        <v>11.9</v>
       </c>
       <c r="D101" t="n">
-        <v>12</v>
+        <v>11.9</v>
       </c>
       <c r="E101" t="n">
-        <v>12</v>
+        <v>11.9</v>
       </c>
       <c r="F101" t="n">
-        <v>8333.3334</v>
+        <v>25652.1657</v>
       </c>
       <c r="G101" t="n">
-        <v>11.95</v>
+        <v>11.89000000000001</v>
       </c>
       <c r="H101" t="n">
         <v>0</v>
@@ -3933,22 +3949,22 @@
         <v>100</v>
       </c>
       <c r="B102" t="n">
-        <v>11.9</v>
+        <v>12</v>
       </c>
       <c r="C102" t="n">
-        <v>11.9</v>
+        <v>12</v>
       </c>
       <c r="D102" t="n">
-        <v>11.9</v>
+        <v>12</v>
       </c>
       <c r="E102" t="n">
-        <v>11.9</v>
+        <v>12</v>
       </c>
       <c r="F102" t="n">
-        <v>1591.9618</v>
+        <v>8333.3334</v>
       </c>
       <c r="G102" t="n">
-        <v>11.95</v>
+        <v>11.89500000000001</v>
       </c>
       <c r="H102" t="n">
         <v>0</v>
@@ -3980,10 +3996,10 @@
         <v>11.9</v>
       </c>
       <c r="F103" t="n">
-        <v>117.7310924369748</v>
+        <v>1591.9618</v>
       </c>
       <c r="G103" t="n">
-        <v>11.9</v>
+        <v>11.89833333333334</v>
       </c>
       <c r="H103" t="n">
         <v>0</v>
@@ -4015,10 +4031,10 @@
         <v>11.9</v>
       </c>
       <c r="F104" t="n">
-        <v>117.8151260504202</v>
+        <v>117.7310924369748</v>
       </c>
       <c r="G104" t="n">
-        <v>11.9</v>
+        <v>11.90166666666667</v>
       </c>
       <c r="H104" t="n">
         <v>0</v>
@@ -4038,22 +4054,22 @@
         <v>103</v>
       </c>
       <c r="B105" t="n">
-        <v>11.8</v>
+        <v>11.9</v>
       </c>
       <c r="C105" t="n">
-        <v>11.8</v>
+        <v>11.9</v>
       </c>
       <c r="D105" t="n">
-        <v>11.8</v>
+        <v>11.9</v>
       </c>
       <c r="E105" t="n">
-        <v>11.8</v>
+        <v>11.9</v>
       </c>
       <c r="F105" t="n">
-        <v>4948.4236</v>
+        <v>117.8151260504202</v>
       </c>
       <c r="G105" t="n">
-        <v>11.85</v>
+        <v>11.905</v>
       </c>
       <c r="H105" t="n">
         <v>0</v>
@@ -4085,10 +4101,10 @@
         <v>11.8</v>
       </c>
       <c r="F106" t="n">
-        <v>146865</v>
+        <v>4948.4236</v>
       </c>
       <c r="G106" t="n">
-        <v>11.80000000000001</v>
+        <v>11.90666666666667</v>
       </c>
       <c r="H106" t="n">
         <v>0</v>
@@ -4111,19 +4127,19 @@
         <v>11.8</v>
       </c>
       <c r="C107" t="n">
-        <v>11.7</v>
+        <v>11.8</v>
       </c>
       <c r="D107" t="n">
         <v>11.8</v>
       </c>
       <c r="E107" t="n">
-        <v>11.7</v>
+        <v>11.8</v>
       </c>
       <c r="F107" t="n">
-        <v>270316.671</v>
+        <v>146865</v>
       </c>
       <c r="G107" t="n">
-        <v>11.75000000000001</v>
+        <v>11.90833333333333</v>
       </c>
       <c r="H107" t="n">
         <v>0</v>
@@ -4143,22 +4159,22 @@
         <v>106</v>
       </c>
       <c r="B108" t="n">
-        <v>11.7</v>
+        <v>11.8</v>
       </c>
       <c r="C108" t="n">
         <v>11.7</v>
       </c>
       <c r="D108" t="n">
-        <v>11.7</v>
+        <v>11.8</v>
       </c>
       <c r="E108" t="n">
         <v>11.7</v>
       </c>
       <c r="F108" t="n">
-        <v>100000</v>
+        <v>270316.671</v>
       </c>
       <c r="G108" t="n">
-        <v>11.7</v>
+        <v>11.90833333333333</v>
       </c>
       <c r="H108" t="n">
         <v>0</v>
@@ -4193,7 +4209,7 @@
         <v>100000</v>
       </c>
       <c r="G109" t="n">
-        <v>11.7</v>
+        <v>11.90833333333333</v>
       </c>
       <c r="H109" t="n">
         <v>0</v>
@@ -4225,10 +4241,10 @@
         <v>11.7</v>
       </c>
       <c r="F110" t="n">
-        <v>74084.7746</v>
+        <v>100000</v>
       </c>
       <c r="G110" t="n">
-        <v>11.7</v>
+        <v>11.90833333333333</v>
       </c>
       <c r="H110" t="n">
         <v>0</v>
@@ -4248,22 +4264,22 @@
         <v>109</v>
       </c>
       <c r="B111" t="n">
-        <v>11.8</v>
+        <v>11.7</v>
       </c>
       <c r="C111" t="n">
-        <v>11.8</v>
+        <v>11.7</v>
       </c>
       <c r="D111" t="n">
-        <v>11.8</v>
+        <v>11.7</v>
       </c>
       <c r="E111" t="n">
-        <v>11.8</v>
+        <v>11.7</v>
       </c>
       <c r="F111" t="n">
-        <v>9014.7901</v>
+        <v>74084.7746</v>
       </c>
       <c r="G111" t="n">
-        <v>11.75000000000001</v>
+        <v>11.90833333333333</v>
       </c>
       <c r="H111" t="n">
         <v>0</v>
@@ -4295,10 +4311,10 @@
         <v>11.8</v>
       </c>
       <c r="F112" t="n">
-        <v>100</v>
+        <v>9014.7901</v>
       </c>
       <c r="G112" t="n">
-        <v>11.80000000000001</v>
+        <v>11.91</v>
       </c>
       <c r="H112" t="n">
         <v>0</v>
@@ -4330,10 +4346,10 @@
         <v>11.8</v>
       </c>
       <c r="F113" t="n">
-        <v>3360</v>
+        <v>100</v>
       </c>
       <c r="G113" t="n">
-        <v>11.80000000000001</v>
+        <v>11.91166666666666</v>
       </c>
       <c r="H113" t="n">
         <v>0</v>
@@ -4356,19 +4372,19 @@
         <v>11.8</v>
       </c>
       <c r="C114" t="n">
-        <v>11.7</v>
+        <v>11.8</v>
       </c>
       <c r="D114" t="n">
         <v>11.8</v>
       </c>
       <c r="E114" t="n">
-        <v>11.7</v>
+        <v>11.8</v>
       </c>
       <c r="F114" t="n">
-        <v>8301.961799999999</v>
+        <v>3360</v>
       </c>
       <c r="G114" t="n">
-        <v>11.75000000000001</v>
+        <v>11.91333333333333</v>
       </c>
       <c r="H114" t="n">
         <v>0</v>
@@ -4391,19 +4407,19 @@
         <v>11.8</v>
       </c>
       <c r="C115" t="n">
-        <v>11.8</v>
+        <v>11.7</v>
       </c>
       <c r="D115" t="n">
         <v>11.8</v>
       </c>
       <c r="E115" t="n">
-        <v>11.8</v>
+        <v>11.7</v>
       </c>
       <c r="F115" t="n">
-        <v>1590</v>
+        <v>8301.961799999999</v>
       </c>
       <c r="G115" t="n">
-        <v>11.75000000000001</v>
+        <v>11.91333333333333</v>
       </c>
       <c r="H115" t="n">
         <v>0</v>
@@ -4435,10 +4451,10 @@
         <v>11.8</v>
       </c>
       <c r="F116" t="n">
-        <v>100000</v>
+        <v>1590</v>
       </c>
       <c r="G116" t="n">
-        <v>11.80000000000001</v>
+        <v>11.91499999999999</v>
       </c>
       <c r="H116" t="n">
         <v>0</v>
@@ -4458,22 +4474,22 @@
         <v>115</v>
       </c>
       <c r="B117" t="n">
-        <v>11.7</v>
+        <v>11.8</v>
       </c>
       <c r="C117" t="n">
-        <v>11.7</v>
+        <v>11.8</v>
       </c>
       <c r="D117" t="n">
-        <v>11.7</v>
+        <v>11.8</v>
       </c>
       <c r="E117" t="n">
-        <v>11.7</v>
+        <v>11.8</v>
       </c>
       <c r="F117" t="n">
-        <v>21436.8989</v>
+        <v>100000</v>
       </c>
       <c r="G117" t="n">
-        <v>11.75000000000001</v>
+        <v>11.91666666666666</v>
       </c>
       <c r="H117" t="n">
         <v>0</v>
@@ -4505,10 +4521,10 @@
         <v>11.7</v>
       </c>
       <c r="F118" t="n">
-        <v>80546.3033</v>
+        <v>21436.8989</v>
       </c>
       <c r="G118" t="n">
-        <v>11.7</v>
+        <v>11.91666666666666</v>
       </c>
       <c r="H118" t="n">
         <v>0</v>
@@ -4528,22 +4544,22 @@
         <v>117</v>
       </c>
       <c r="B119" t="n">
-        <v>11.6</v>
+        <v>11.7</v>
       </c>
       <c r="C119" t="n">
-        <v>11.6</v>
+        <v>11.7</v>
       </c>
       <c r="D119" t="n">
-        <v>11.6</v>
+        <v>11.7</v>
       </c>
       <c r="E119" t="n">
-        <v>11.6</v>
+        <v>11.7</v>
       </c>
       <c r="F119" t="n">
-        <v>235.5462</v>
+        <v>80546.3033</v>
       </c>
       <c r="G119" t="n">
-        <v>11.65</v>
+        <v>11.91666666666666</v>
       </c>
       <c r="H119" t="n">
         <v>0</v>
@@ -4575,10 +4591,10 @@
         <v>11.6</v>
       </c>
       <c r="F120" t="n">
-        <v>8696.2371</v>
+        <v>235.5462</v>
       </c>
       <c r="G120" t="n">
-        <v>11.6</v>
+        <v>11.91499999999999</v>
       </c>
       <c r="H120" t="n">
         <v>0</v>
@@ -4598,38 +4614,32 @@
         <v>119</v>
       </c>
       <c r="B121" t="n">
-        <v>11.7</v>
+        <v>11.6</v>
       </c>
       <c r="C121" t="n">
         <v>11.6</v>
       </c>
       <c r="D121" t="n">
-        <v>11.7</v>
+        <v>11.6</v>
       </c>
       <c r="E121" t="n">
         <v>11.6</v>
       </c>
       <c r="F121" t="n">
-        <v>75906.85980000001</v>
+        <v>8696.2371</v>
       </c>
       <c r="G121" t="n">
-        <v>11.6</v>
+        <v>11.91333333333333</v>
       </c>
       <c r="H121" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I121" t="n">
         <v>0</v>
       </c>
-      <c r="J121" t="n">
-        <v>11.6</v>
-      </c>
+      <c r="J121" t="inlineStr"/>
       <c r="K121" t="inlineStr"/>
-      <c r="L121" t="inlineStr">
-        <is>
-          <t>매수 체결</t>
-        </is>
-      </c>
+      <c r="L121" t="inlineStr"/>
       <c r="M121" t="n">
         <v>1</v>
       </c>
@@ -4639,38 +4649,32 @@
         <v>120</v>
       </c>
       <c r="B122" t="n">
-        <v>11.6</v>
+        <v>11.7</v>
       </c>
       <c r="C122" t="n">
         <v>11.6</v>
       </c>
       <c r="D122" t="n">
-        <v>11.6</v>
+        <v>11.7</v>
       </c>
       <c r="E122" t="n">
         <v>11.6</v>
       </c>
       <c r="F122" t="n">
-        <v>4201.6807</v>
+        <v>75906.85980000001</v>
       </c>
       <c r="G122" t="n">
-        <v>11.6</v>
+        <v>11.90999999999999</v>
       </c>
       <c r="H122" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I122" t="n">
         <v>0</v>
       </c>
-      <c r="J122" t="n">
-        <v>11.6</v>
-      </c>
+      <c r="J122" t="inlineStr"/>
       <c r="K122" t="inlineStr"/>
-      <c r="L122" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L122" t="inlineStr"/>
       <c r="M122" t="n">
         <v>1</v>
       </c>
@@ -4680,38 +4684,32 @@
         <v>121</v>
       </c>
       <c r="B123" t="n">
-        <v>11.8</v>
+        <v>11.6</v>
       </c>
       <c r="C123" t="n">
-        <v>11.8</v>
+        <v>11.6</v>
       </c>
       <c r="D123" t="n">
-        <v>11.8</v>
+        <v>11.6</v>
       </c>
       <c r="E123" t="n">
-        <v>11.8</v>
+        <v>11.6</v>
       </c>
       <c r="F123" t="n">
-        <v>5000</v>
+        <v>4201.6807</v>
       </c>
       <c r="G123" t="n">
-        <v>11.7</v>
+        <v>11.90666666666666</v>
       </c>
       <c r="H123" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I123" t="n">
         <v>0</v>
       </c>
-      <c r="J123" t="n">
-        <v>11.6</v>
-      </c>
+      <c r="J123" t="inlineStr"/>
       <c r="K123" t="inlineStr"/>
-      <c r="L123" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L123" t="inlineStr"/>
       <c r="M123" t="n">
         <v>1</v>
       </c>
@@ -4733,10 +4731,10 @@
         <v>11.8</v>
       </c>
       <c r="F124" t="n">
-        <v>13163.9409</v>
+        <v>5000</v>
       </c>
       <c r="G124" t="n">
-        <v>11.8</v>
+        <v>11.90666666666666</v>
       </c>
       <c r="H124" t="n">
         <v>0</v>
@@ -4746,11 +4744,7 @@
       </c>
       <c r="J124" t="inlineStr"/>
       <c r="K124" t="inlineStr"/>
-      <c r="L124" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L124" t="inlineStr"/>
       <c r="M124" t="n">
         <v>1</v>
       </c>
@@ -4772,10 +4766,10 @@
         <v>11.8</v>
       </c>
       <c r="F125" t="n">
-        <v>33000</v>
+        <v>13163.9409</v>
       </c>
       <c r="G125" t="n">
-        <v>11.8</v>
+        <v>11.90666666666666</v>
       </c>
       <c r="H125" t="n">
         <v>0</v>
@@ -4785,11 +4779,7 @@
       </c>
       <c r="J125" t="inlineStr"/>
       <c r="K125" t="inlineStr"/>
-      <c r="L125" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L125" t="inlineStr"/>
       <c r="M125" t="n">
         <v>1</v>
       </c>
@@ -4811,10 +4801,10 @@
         <v>11.8</v>
       </c>
       <c r="F126" t="n">
-        <v>10950.3295</v>
+        <v>33000</v>
       </c>
       <c r="G126" t="n">
-        <v>11.8</v>
+        <v>11.90499999999999</v>
       </c>
       <c r="H126" t="n">
         <v>0</v>
@@ -4824,11 +4814,7 @@
       </c>
       <c r="J126" t="inlineStr"/>
       <c r="K126" t="inlineStr"/>
-      <c r="L126" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L126" t="inlineStr"/>
       <c r="M126" t="n">
         <v>1</v>
       </c>
@@ -4838,22 +4824,22 @@
         <v>125</v>
       </c>
       <c r="B127" t="n">
-        <v>11.7</v>
+        <v>11.8</v>
       </c>
       <c r="C127" t="n">
-        <v>11.6</v>
+        <v>11.8</v>
       </c>
       <c r="D127" t="n">
-        <v>11.7</v>
+        <v>11.8</v>
       </c>
       <c r="E127" t="n">
-        <v>11.6</v>
+        <v>11.8</v>
       </c>
       <c r="F127" t="n">
-        <v>177882.793</v>
+        <v>10950.3295</v>
       </c>
       <c r="G127" t="n">
-        <v>11.7</v>
+        <v>11.90333333333333</v>
       </c>
       <c r="H127" t="n">
         <v>0</v>
@@ -4863,11 +4849,7 @@
       </c>
       <c r="J127" t="inlineStr"/>
       <c r="K127" t="inlineStr"/>
-      <c r="L127" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L127" t="inlineStr"/>
       <c r="M127" t="n">
         <v>1</v>
       </c>
@@ -4877,22 +4859,22 @@
         <v>126</v>
       </c>
       <c r="B128" t="n">
-        <v>11.6</v>
+        <v>11.7</v>
       </c>
       <c r="C128" t="n">
         <v>11.6</v>
       </c>
       <c r="D128" t="n">
-        <v>11.6</v>
+        <v>11.7</v>
       </c>
       <c r="E128" t="n">
         <v>11.6</v>
       </c>
       <c r="F128" t="n">
-        <v>4300</v>
+        <v>177882.793</v>
       </c>
       <c r="G128" t="n">
-        <v>11.6</v>
+        <v>11.9</v>
       </c>
       <c r="H128" t="n">
         <v>0</v>
@@ -4902,11 +4884,7 @@
       </c>
       <c r="J128" t="inlineStr"/>
       <c r="K128" t="inlineStr"/>
-      <c r="L128" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L128" t="inlineStr"/>
       <c r="M128" t="n">
         <v>1</v>
       </c>
@@ -4916,22 +4894,22 @@
         <v>127</v>
       </c>
       <c r="B129" t="n">
-        <v>11.7</v>
+        <v>11.6</v>
       </c>
       <c r="C129" t="n">
-        <v>11.7</v>
+        <v>11.6</v>
       </c>
       <c r="D129" t="n">
-        <v>11.7</v>
+        <v>11.6</v>
       </c>
       <c r="E129" t="n">
-        <v>11.7</v>
+        <v>11.6</v>
       </c>
       <c r="F129" t="n">
-        <v>1100</v>
+        <v>4300</v>
       </c>
       <c r="G129" t="n">
-        <v>11.65</v>
+        <v>11.89833333333333</v>
       </c>
       <c r="H129" t="n">
         <v>0</v>
@@ -4941,11 +4919,7 @@
       </c>
       <c r="J129" t="inlineStr"/>
       <c r="K129" t="inlineStr"/>
-      <c r="L129" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L129" t="inlineStr"/>
       <c r="M129" t="n">
         <v>1</v>
       </c>
@@ -4967,10 +4941,10 @@
         <v>11.7</v>
       </c>
       <c r="F130" t="n">
-        <v>97127.8533</v>
+        <v>1100</v>
       </c>
       <c r="G130" t="n">
-        <v>11.7</v>
+        <v>11.89666666666666</v>
       </c>
       <c r="H130" t="n">
         <v>0</v>
@@ -4980,11 +4954,7 @@
       </c>
       <c r="J130" t="inlineStr"/>
       <c r="K130" t="inlineStr"/>
-      <c r="L130" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L130" t="inlineStr"/>
       <c r="M130" t="n">
         <v>1</v>
       </c>
@@ -4994,22 +4964,22 @@
         <v>129</v>
       </c>
       <c r="B131" t="n">
-        <v>11.8</v>
+        <v>11.7</v>
       </c>
       <c r="C131" t="n">
-        <v>11.8</v>
+        <v>11.7</v>
       </c>
       <c r="D131" t="n">
-        <v>11.8</v>
+        <v>11.7</v>
       </c>
       <c r="E131" t="n">
-        <v>11.8</v>
+        <v>11.7</v>
       </c>
       <c r="F131" t="n">
-        <v>11170</v>
+        <v>97127.8533</v>
       </c>
       <c r="G131" t="n">
-        <v>11.75</v>
+        <v>11.89333333333333</v>
       </c>
       <c r="H131" t="n">
         <v>0</v>
@@ -5019,11 +4989,7 @@
       </c>
       <c r="J131" t="inlineStr"/>
       <c r="K131" t="inlineStr"/>
-      <c r="L131" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L131" t="inlineStr"/>
       <c r="M131" t="n">
         <v>1</v>
       </c>
@@ -5033,22 +4999,22 @@
         <v>130</v>
       </c>
       <c r="B132" t="n">
-        <v>11.9</v>
+        <v>11.8</v>
       </c>
       <c r="C132" t="n">
-        <v>11.9</v>
+        <v>11.8</v>
       </c>
       <c r="D132" t="n">
-        <v>11.9</v>
+        <v>11.8</v>
       </c>
       <c r="E132" t="n">
-        <v>11.9</v>
+        <v>11.8</v>
       </c>
       <c r="F132" t="n">
-        <v>80906.7314</v>
+        <v>11170</v>
       </c>
       <c r="G132" t="n">
-        <v>11.85</v>
+        <v>11.89166666666666</v>
       </c>
       <c r="H132" t="n">
         <v>0</v>
@@ -5058,11 +5024,7 @@
       </c>
       <c r="J132" t="inlineStr"/>
       <c r="K132" t="inlineStr"/>
-      <c r="L132" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L132" t="inlineStr"/>
       <c r="M132" t="n">
         <v>1</v>
       </c>
@@ -5072,22 +5034,22 @@
         <v>131</v>
       </c>
       <c r="B133" t="n">
-        <v>11.7</v>
+        <v>11.9</v>
       </c>
       <c r="C133" t="n">
-        <v>11.7</v>
+        <v>11.9</v>
       </c>
       <c r="D133" t="n">
-        <v>11.7</v>
+        <v>11.9</v>
       </c>
       <c r="E133" t="n">
-        <v>11.7</v>
+        <v>11.9</v>
       </c>
       <c r="F133" t="n">
-        <v>100</v>
+        <v>80906.7314</v>
       </c>
       <c r="G133" t="n">
-        <v>11.8</v>
+        <v>11.88833333333333</v>
       </c>
       <c r="H133" t="n">
         <v>0</v>
@@ -5097,11 +5059,7 @@
       </c>
       <c r="J133" t="inlineStr"/>
       <c r="K133" t="inlineStr"/>
-      <c r="L133" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L133" t="inlineStr"/>
       <c r="M133" t="n">
         <v>1</v>
       </c>
@@ -5123,10 +5081,10 @@
         <v>11.7</v>
       </c>
       <c r="F134" t="n">
-        <v>1000</v>
+        <v>100</v>
       </c>
       <c r="G134" t="n">
-        <v>11.7</v>
+        <v>11.88166666666666</v>
       </c>
       <c r="H134" t="n">
         <v>0</v>
@@ -5136,11 +5094,7 @@
       </c>
       <c r="J134" t="inlineStr"/>
       <c r="K134" t="inlineStr"/>
-      <c r="L134" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L134" t="inlineStr"/>
       <c r="M134" t="n">
         <v>1</v>
       </c>
@@ -5162,10 +5116,10 @@
         <v>11.7</v>
       </c>
       <c r="F135" t="n">
-        <v>18228.795</v>
+        <v>1000</v>
       </c>
       <c r="G135" t="n">
-        <v>11.7</v>
+        <v>11.87666666666666</v>
       </c>
       <c r="H135" t="n">
         <v>0</v>
@@ -5175,11 +5129,7 @@
       </c>
       <c r="J135" t="inlineStr"/>
       <c r="K135" t="inlineStr"/>
-      <c r="L135" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L135" t="inlineStr"/>
       <c r="M135" t="n">
         <v>1</v>
       </c>
@@ -5201,10 +5151,10 @@
         <v>11.7</v>
       </c>
       <c r="F136" t="n">
-        <v>21771.205</v>
+        <v>18228.795</v>
       </c>
       <c r="G136" t="n">
-        <v>11.7</v>
+        <v>11.87166666666666</v>
       </c>
       <c r="H136" t="n">
         <v>0</v>
@@ -5214,11 +5164,7 @@
       </c>
       <c r="J136" t="inlineStr"/>
       <c r="K136" t="inlineStr"/>
-      <c r="L136" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L136" t="inlineStr"/>
       <c r="M136" t="n">
         <v>1</v>
       </c>
@@ -5228,22 +5174,22 @@
         <v>135</v>
       </c>
       <c r="B137" t="n">
-        <v>11.8</v>
+        <v>11.7</v>
       </c>
       <c r="C137" t="n">
-        <v>11.8</v>
+        <v>11.7</v>
       </c>
       <c r="D137" t="n">
-        <v>11.8</v>
+        <v>11.7</v>
       </c>
       <c r="E137" t="n">
-        <v>11.8</v>
+        <v>11.7</v>
       </c>
       <c r="F137" t="n">
-        <v>2200</v>
+        <v>21771.205</v>
       </c>
       <c r="G137" t="n">
-        <v>11.75000000000001</v>
+        <v>11.86666666666667</v>
       </c>
       <c r="H137" t="n">
         <v>0</v>
@@ -5253,11 +5199,7 @@
       </c>
       <c r="J137" t="inlineStr"/>
       <c r="K137" t="inlineStr"/>
-      <c r="L137" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L137" t="inlineStr"/>
       <c r="M137" t="n">
         <v>1</v>
       </c>
@@ -5279,10 +5221,10 @@
         <v>11.8</v>
       </c>
       <c r="F138" t="n">
-        <v>908.5016000000001</v>
+        <v>2200</v>
       </c>
       <c r="G138" t="n">
-        <v>11.80000000000001</v>
+        <v>11.86166666666666</v>
       </c>
       <c r="H138" t="n">
         <v>0</v>
@@ -5292,11 +5234,7 @@
       </c>
       <c r="J138" t="inlineStr"/>
       <c r="K138" t="inlineStr"/>
-      <c r="L138" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L138" t="inlineStr"/>
       <c r="M138" t="n">
         <v>1</v>
       </c>
@@ -5306,22 +5244,22 @@
         <v>137</v>
       </c>
       <c r="B139" t="n">
-        <v>11.9</v>
+        <v>11.8</v>
       </c>
       <c r="C139" t="n">
-        <v>11.9</v>
+        <v>11.8</v>
       </c>
       <c r="D139" t="n">
-        <v>11.9</v>
+        <v>11.8</v>
       </c>
       <c r="E139" t="n">
-        <v>11.9</v>
+        <v>11.8</v>
       </c>
       <c r="F139" t="n">
-        <v>346.3635</v>
+        <v>908.5016000000001</v>
       </c>
       <c r="G139" t="n">
-        <v>11.85000000000001</v>
+        <v>11.85666666666666</v>
       </c>
       <c r="H139" t="n">
         <v>0</v>
@@ -5331,11 +5269,7 @@
       </c>
       <c r="J139" t="inlineStr"/>
       <c r="K139" t="inlineStr"/>
-      <c r="L139" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L139" t="inlineStr"/>
       <c r="M139" t="n">
         <v>1</v>
       </c>
@@ -5357,10 +5291,10 @@
         <v>11.9</v>
       </c>
       <c r="F140" t="n">
-        <v>215067.6921</v>
+        <v>346.3635</v>
       </c>
       <c r="G140" t="n">
-        <v>11.90000000000001</v>
+        <v>11.85333333333333</v>
       </c>
       <c r="H140" t="n">
         <v>0</v>
@@ -5370,11 +5304,7 @@
       </c>
       <c r="J140" t="inlineStr"/>
       <c r="K140" t="inlineStr"/>
-      <c r="L140" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L140" t="inlineStr"/>
       <c r="M140" t="n">
         <v>1</v>
       </c>
@@ -5384,22 +5314,22 @@
         <v>139</v>
       </c>
       <c r="B141" t="n">
-        <v>11.8</v>
+        <v>11.9</v>
       </c>
       <c r="C141" t="n">
-        <v>11.8</v>
+        <v>11.9</v>
       </c>
       <c r="D141" t="n">
-        <v>11.8</v>
+        <v>11.9</v>
       </c>
       <c r="E141" t="n">
-        <v>11.8</v>
+        <v>11.9</v>
       </c>
       <c r="F141" t="n">
-        <v>234400.0556</v>
+        <v>215067.6921</v>
       </c>
       <c r="G141" t="n">
-        <v>11.85000000000001</v>
+        <v>11.84833333333333</v>
       </c>
       <c r="H141" t="n">
         <v>0</v>
@@ -5409,11 +5339,7 @@
       </c>
       <c r="J141" t="inlineStr"/>
       <c r="K141" t="inlineStr"/>
-      <c r="L141" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L141" t="inlineStr"/>
       <c r="M141" t="n">
         <v>1</v>
       </c>
@@ -5435,10 +5361,10 @@
         <v>11.8</v>
       </c>
       <c r="F142" t="n">
-        <v>38611.1969</v>
+        <v>234400.0556</v>
       </c>
       <c r="G142" t="n">
-        <v>11.80000000000001</v>
+        <v>11.84333333333333</v>
       </c>
       <c r="H142" t="n">
         <v>0</v>
@@ -5448,11 +5374,7 @@
       </c>
       <c r="J142" t="inlineStr"/>
       <c r="K142" t="inlineStr"/>
-      <c r="L142" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L142" t="inlineStr"/>
       <c r="M142" t="n">
         <v>1</v>
       </c>
@@ -5462,22 +5384,22 @@
         <v>141</v>
       </c>
       <c r="B143" t="n">
-        <v>11.9</v>
+        <v>11.8</v>
       </c>
       <c r="C143" t="n">
-        <v>11.9</v>
+        <v>11.8</v>
       </c>
       <c r="D143" t="n">
-        <v>11.9</v>
+        <v>11.8</v>
       </c>
       <c r="E143" t="n">
-        <v>11.9</v>
+        <v>11.8</v>
       </c>
       <c r="F143" t="n">
-        <v>97673.49099999999</v>
+        <v>38611.1969</v>
       </c>
       <c r="G143" t="n">
-        <v>11.85000000000001</v>
+        <v>11.83499999999999</v>
       </c>
       <c r="H143" t="n">
         <v>0</v>
@@ -5487,11 +5409,7 @@
       </c>
       <c r="J143" t="inlineStr"/>
       <c r="K143" t="inlineStr"/>
-      <c r="L143" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L143" t="inlineStr"/>
       <c r="M143" t="n">
         <v>1</v>
       </c>
@@ -5513,10 +5431,10 @@
         <v>11.9</v>
       </c>
       <c r="F144" t="n">
-        <v>32236.2036</v>
+        <v>97673.49099999999</v>
       </c>
       <c r="G144" t="n">
-        <v>11.90000000000001</v>
+        <v>11.82833333333333</v>
       </c>
       <c r="H144" t="n">
         <v>0</v>
@@ -5526,11 +5444,7 @@
       </c>
       <c r="J144" t="inlineStr"/>
       <c r="K144" t="inlineStr"/>
-      <c r="L144" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L144" t="inlineStr"/>
       <c r="M144" t="n">
         <v>1</v>
       </c>
@@ -5552,10 +5466,10 @@
         <v>11.9</v>
       </c>
       <c r="F145" t="n">
-        <v>4201.680672268908</v>
+        <v>32236.2036</v>
       </c>
       <c r="G145" t="n">
-        <v>11.90000000000001</v>
+        <v>11.82499999999999</v>
       </c>
       <c r="H145" t="n">
         <v>0</v>
@@ -5565,11 +5479,7 @@
       </c>
       <c r="J145" t="inlineStr"/>
       <c r="K145" t="inlineStr"/>
-      <c r="L145" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L145" t="inlineStr"/>
       <c r="M145" t="n">
         <v>1</v>
       </c>
@@ -5579,22 +5489,22 @@
         <v>144</v>
       </c>
       <c r="B146" t="n">
-        <v>11.8</v>
+        <v>11.9</v>
       </c>
       <c r="C146" t="n">
-        <v>11.8</v>
+        <v>11.9</v>
       </c>
       <c r="D146" t="n">
-        <v>11.8</v>
+        <v>11.9</v>
       </c>
       <c r="E146" t="n">
-        <v>11.8</v>
+        <v>11.9</v>
       </c>
       <c r="F146" t="n">
-        <v>25000</v>
+        <v>4201.680672268908</v>
       </c>
       <c r="G146" t="n">
-        <v>11.85000000000001</v>
+        <v>11.82333333333333</v>
       </c>
       <c r="H146" t="n">
         <v>0</v>
@@ -5604,11 +5514,7 @@
       </c>
       <c r="J146" t="inlineStr"/>
       <c r="K146" t="inlineStr"/>
-      <c r="L146" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L146" t="inlineStr"/>
       <c r="M146" t="n">
         <v>1</v>
       </c>
@@ -5630,10 +5536,10 @@
         <v>11.8</v>
       </c>
       <c r="F147" t="n">
-        <v>26673.5393</v>
+        <v>25000</v>
       </c>
       <c r="G147" t="n">
-        <v>11.80000000000001</v>
+        <v>11.81999999999999</v>
       </c>
       <c r="H147" t="n">
         <v>0</v>
@@ -5643,11 +5549,7 @@
       </c>
       <c r="J147" t="inlineStr"/>
       <c r="K147" t="inlineStr"/>
-      <c r="L147" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L147" t="inlineStr"/>
       <c r="M147" t="n">
         <v>1</v>
       </c>
@@ -5657,22 +5559,22 @@
         <v>146</v>
       </c>
       <c r="B148" t="n">
-        <v>11.7</v>
+        <v>11.8</v>
       </c>
       <c r="C148" t="n">
-        <v>11.7</v>
+        <v>11.8</v>
       </c>
       <c r="D148" t="n">
-        <v>11.7</v>
+        <v>11.8</v>
       </c>
       <c r="E148" t="n">
-        <v>11.7</v>
+        <v>11.8</v>
       </c>
       <c r="F148" t="n">
-        <v>100</v>
+        <v>26673.5393</v>
       </c>
       <c r="G148" t="n">
-        <v>11.75000000000001</v>
+        <v>11.81833333333332</v>
       </c>
       <c r="H148" t="n">
         <v>0</v>
@@ -5682,11 +5584,7 @@
       </c>
       <c r="J148" t="inlineStr"/>
       <c r="K148" t="inlineStr"/>
-      <c r="L148" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L148" t="inlineStr"/>
       <c r="M148" t="n">
         <v>1</v>
       </c>
@@ -5708,10 +5606,10 @@
         <v>11.7</v>
       </c>
       <c r="F149" t="n">
-        <v>4201.6807</v>
+        <v>100</v>
       </c>
       <c r="G149" t="n">
-        <v>11.70000000000001</v>
+        <v>11.81166666666666</v>
       </c>
       <c r="H149" t="n">
         <v>0</v>
@@ -5721,11 +5619,7 @@
       </c>
       <c r="J149" t="inlineStr"/>
       <c r="K149" t="inlineStr"/>
-      <c r="L149" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L149" t="inlineStr"/>
       <c r="M149" t="n">
         <v>1</v>
       </c>
@@ -5735,22 +5629,22 @@
         <v>148</v>
       </c>
       <c r="B150" t="n">
-        <v>11.8</v>
+        <v>11.7</v>
       </c>
       <c r="C150" t="n">
-        <v>11.8</v>
+        <v>11.7</v>
       </c>
       <c r="D150" t="n">
-        <v>11.8</v>
+        <v>11.7</v>
       </c>
       <c r="E150" t="n">
-        <v>11.8</v>
+        <v>11.7</v>
       </c>
       <c r="F150" t="n">
-        <v>18152.8312</v>
+        <v>4201.6807</v>
       </c>
       <c r="G150" t="n">
-        <v>11.75000000000001</v>
+        <v>11.80499999999999</v>
       </c>
       <c r="H150" t="n">
         <v>0</v>
@@ -5760,11 +5654,7 @@
       </c>
       <c r="J150" t="inlineStr"/>
       <c r="K150" t="inlineStr"/>
-      <c r="L150" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L150" t="inlineStr"/>
       <c r="M150" t="n">
         <v>1</v>
       </c>
@@ -5786,10 +5676,10 @@
         <v>11.8</v>
       </c>
       <c r="F151" t="n">
-        <v>88371.85649999999</v>
+        <v>18152.8312</v>
       </c>
       <c r="G151" t="n">
-        <v>11.80000000000001</v>
+        <v>11.80333333333332</v>
       </c>
       <c r="H151" t="n">
         <v>0</v>
@@ -5799,11 +5689,7 @@
       </c>
       <c r="J151" t="inlineStr"/>
       <c r="K151" t="inlineStr"/>
-      <c r="L151" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L151" t="inlineStr"/>
       <c r="M151" t="n">
         <v>1</v>
       </c>
@@ -5825,10 +5711,10 @@
         <v>11.8</v>
       </c>
       <c r="F152" t="n">
-        <v>45978.7097</v>
+        <v>88371.85649999999</v>
       </c>
       <c r="G152" t="n">
-        <v>11.80000000000001</v>
+        <v>11.80166666666666</v>
       </c>
       <c r="H152" t="n">
         <v>0</v>
@@ -5838,11 +5724,7 @@
       </c>
       <c r="J152" t="inlineStr"/>
       <c r="K152" t="inlineStr"/>
-      <c r="L152" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L152" t="inlineStr"/>
       <c r="M152" t="n">
         <v>1</v>
       </c>
@@ -5852,22 +5734,22 @@
         <v>151</v>
       </c>
       <c r="B153" t="n">
-        <v>11.7</v>
+        <v>11.8</v>
       </c>
       <c r="C153" t="n">
-        <v>11.7</v>
+        <v>11.8</v>
       </c>
       <c r="D153" t="n">
-        <v>11.7</v>
+        <v>11.8</v>
       </c>
       <c r="E153" t="n">
-        <v>11.7</v>
+        <v>11.8</v>
       </c>
       <c r="F153" t="n">
-        <v>23959.5487</v>
+        <v>45978.7097</v>
       </c>
       <c r="G153" t="n">
-        <v>11.75000000000001</v>
+        <v>11.79666666666666</v>
       </c>
       <c r="H153" t="n">
         <v>0</v>
@@ -5877,11 +5759,7 @@
       </c>
       <c r="J153" t="inlineStr"/>
       <c r="K153" t="inlineStr"/>
-      <c r="L153" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L153" t="inlineStr"/>
       <c r="M153" t="n">
         <v>1</v>
       </c>
@@ -5903,10 +5781,10 @@
         <v>11.7</v>
       </c>
       <c r="F154" t="n">
-        <v>24965.0007</v>
+        <v>23959.5487</v>
       </c>
       <c r="G154" t="n">
-        <v>11.70000000000001</v>
+        <v>11.79166666666666</v>
       </c>
       <c r="H154" t="n">
         <v>0</v>
@@ -5916,11 +5794,7 @@
       </c>
       <c r="J154" t="inlineStr"/>
       <c r="K154" t="inlineStr"/>
-      <c r="L154" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L154" t="inlineStr"/>
       <c r="M154" t="n">
         <v>1</v>
       </c>
@@ -5930,22 +5804,22 @@
         <v>153</v>
       </c>
       <c r="B155" t="n">
-        <v>11.8</v>
+        <v>11.7</v>
       </c>
       <c r="C155" t="n">
-        <v>11.8</v>
+        <v>11.7</v>
       </c>
       <c r="D155" t="n">
-        <v>11.8</v>
+        <v>11.7</v>
       </c>
       <c r="E155" t="n">
-        <v>11.8</v>
+        <v>11.7</v>
       </c>
       <c r="F155" t="n">
-        <v>4226.6613</v>
+        <v>24965.0007</v>
       </c>
       <c r="G155" t="n">
-        <v>11.75000000000001</v>
+        <v>11.78499999999999</v>
       </c>
       <c r="H155" t="n">
         <v>0</v>
@@ -5955,11 +5829,7 @@
       </c>
       <c r="J155" t="inlineStr"/>
       <c r="K155" t="inlineStr"/>
-      <c r="L155" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L155" t="inlineStr"/>
       <c r="M155" t="n">
         <v>1</v>
       </c>
@@ -5981,10 +5851,10 @@
         <v>11.8</v>
       </c>
       <c r="F156" t="n">
-        <v>6079.6567</v>
+        <v>4226.6613</v>
       </c>
       <c r="G156" t="n">
-        <v>11.80000000000001</v>
+        <v>11.77999999999999</v>
       </c>
       <c r="H156" t="n">
         <v>0</v>
@@ -5994,11 +5864,7 @@
       </c>
       <c r="J156" t="inlineStr"/>
       <c r="K156" t="inlineStr"/>
-      <c r="L156" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L156" t="inlineStr"/>
       <c r="M156" t="n">
         <v>1</v>
       </c>
@@ -6020,10 +5886,10 @@
         <v>11.8</v>
       </c>
       <c r="F157" t="n">
-        <v>4360</v>
+        <v>6079.6567</v>
       </c>
       <c r="G157" t="n">
-        <v>11.80000000000001</v>
+        <v>11.77666666666665</v>
       </c>
       <c r="H157" t="n">
         <v>0</v>
@@ -6033,11 +5899,7 @@
       </c>
       <c r="J157" t="inlineStr"/>
       <c r="K157" t="inlineStr"/>
-      <c r="L157" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L157" t="inlineStr"/>
       <c r="M157" t="n">
         <v>1</v>
       </c>
@@ -6059,10 +5921,10 @@
         <v>11.8</v>
       </c>
       <c r="F158" t="n">
-        <v>298792.3166</v>
+        <v>4360</v>
       </c>
       <c r="G158" t="n">
-        <v>11.80000000000001</v>
+        <v>11.77499999999999</v>
       </c>
       <c r="H158" t="n">
         <v>0</v>
@@ -6072,11 +5934,7 @@
       </c>
       <c r="J158" t="inlineStr"/>
       <c r="K158" t="inlineStr"/>
-      <c r="L158" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L158" t="inlineStr"/>
       <c r="M158" t="n">
         <v>1</v>
       </c>
@@ -6098,10 +5956,10 @@
         <v>11.8</v>
       </c>
       <c r="F159" t="n">
-        <v>63287.2407</v>
+        <v>298792.3166</v>
       </c>
       <c r="G159" t="n">
-        <v>11.80000000000001</v>
+        <v>11.77333333333332</v>
       </c>
       <c r="H159" t="n">
         <v>0</v>
@@ -6111,11 +5969,7 @@
       </c>
       <c r="J159" t="inlineStr"/>
       <c r="K159" t="inlineStr"/>
-      <c r="L159" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L159" t="inlineStr"/>
       <c r="M159" t="n">
         <v>1</v>
       </c>
@@ -6128,19 +5982,19 @@
         <v>11.8</v>
       </c>
       <c r="C160" t="n">
-        <v>11.9</v>
+        <v>11.8</v>
       </c>
       <c r="D160" t="n">
-        <v>11.9</v>
+        <v>11.8</v>
       </c>
       <c r="E160" t="n">
         <v>11.8</v>
       </c>
       <c r="F160" t="n">
-        <v>30773.29091512605</v>
+        <v>63287.2407</v>
       </c>
       <c r="G160" t="n">
-        <v>11.85000000000001</v>
+        <v>11.77166666666665</v>
       </c>
       <c r="H160" t="n">
         <v>0</v>
@@ -6150,11 +6004,7 @@
       </c>
       <c r="J160" t="inlineStr"/>
       <c r="K160" t="inlineStr"/>
-      <c r="L160" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L160" t="inlineStr"/>
       <c r="M160" t="n">
         <v>1</v>
       </c>
@@ -6164,10 +6014,10 @@
         <v>159</v>
       </c>
       <c r="B161" t="n">
-        <v>11.9</v>
+        <v>11.8</v>
       </c>
       <c r="C161" t="n">
-        <v>11.8</v>
+        <v>11.9</v>
       </c>
       <c r="D161" t="n">
         <v>11.9</v>
@@ -6176,10 +6026,10 @@
         <v>11.8</v>
       </c>
       <c r="F161" t="n">
-        <v>123781.9023848739</v>
+        <v>30773.29091512605</v>
       </c>
       <c r="G161" t="n">
-        <v>11.85000000000001</v>
+        <v>11.77166666666665</v>
       </c>
       <c r="H161" t="n">
         <v>0</v>
@@ -6189,11 +6039,7 @@
       </c>
       <c r="J161" t="inlineStr"/>
       <c r="K161" t="inlineStr"/>
-      <c r="L161" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L161" t="inlineStr"/>
       <c r="M161" t="n">
         <v>1</v>
       </c>
@@ -6203,22 +6049,22 @@
         <v>160</v>
       </c>
       <c r="B162" t="n">
-        <v>11.8</v>
+        <v>11.9</v>
       </c>
       <c r="C162" t="n">
         <v>11.8</v>
       </c>
       <c r="D162" t="n">
-        <v>11.8</v>
+        <v>11.9</v>
       </c>
       <c r="E162" t="n">
         <v>11.8</v>
       </c>
       <c r="F162" t="n">
-        <v>171836.0471</v>
+        <v>123781.9023848739</v>
       </c>
       <c r="G162" t="n">
-        <v>11.80000000000001</v>
+        <v>11.76833333333332</v>
       </c>
       <c r="H162" t="n">
         <v>0</v>
@@ -6228,11 +6074,7 @@
       </c>
       <c r="J162" t="inlineStr"/>
       <c r="K162" t="inlineStr"/>
-      <c r="L162" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L162" t="inlineStr"/>
       <c r="M162" t="n">
         <v>1</v>
       </c>
@@ -6254,10 +6096,10 @@
         <v>11.8</v>
       </c>
       <c r="F163" t="n">
-        <v>1.5126050420168e-05</v>
+        <v>171836.0471</v>
       </c>
       <c r="G163" t="n">
-        <v>11.80000000000002</v>
+        <v>11.76666666666665</v>
       </c>
       <c r="H163" t="n">
         <v>0</v>
@@ -6267,11 +6109,7 @@
       </c>
       <c r="J163" t="inlineStr"/>
       <c r="K163" t="inlineStr"/>
-      <c r="L163" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L163" t="inlineStr"/>
       <c r="M163" t="n">
         <v>1</v>
       </c>
@@ -6293,10 +6131,10 @@
         <v>11.8</v>
       </c>
       <c r="F164" t="n">
-        <v>19132.62628487395</v>
+        <v>1.5126050420168e-05</v>
       </c>
       <c r="G164" t="n">
-        <v>11.80000000000002</v>
+        <v>11.76499999999999</v>
       </c>
       <c r="H164" t="n">
         <v>0</v>
@@ -6306,11 +6144,7 @@
       </c>
       <c r="J164" t="inlineStr"/>
       <c r="K164" t="inlineStr"/>
-      <c r="L164" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L164" t="inlineStr"/>
       <c r="M164" t="n">
         <v>1</v>
       </c>
@@ -6320,22 +6154,22 @@
         <v>163</v>
       </c>
       <c r="B165" t="n">
-        <v>11.9</v>
+        <v>11.8</v>
       </c>
       <c r="C165" t="n">
-        <v>11.9</v>
+        <v>11.8</v>
       </c>
       <c r="D165" t="n">
-        <v>11.9</v>
+        <v>11.8</v>
       </c>
       <c r="E165" t="n">
         <v>11.8</v>
       </c>
       <c r="F165" t="n">
-        <v>21072.6183</v>
+        <v>19132.62628487395</v>
       </c>
       <c r="G165" t="n">
-        <v>11.85000000000002</v>
+        <v>11.76333333333332</v>
       </c>
       <c r="H165" t="n">
         <v>0</v>
@@ -6345,12 +6179,43 @@
       </c>
       <c r="J165" t="inlineStr"/>
       <c r="K165" t="inlineStr"/>
-      <c r="L165" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L165" t="inlineStr"/>
       <c r="M165" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="166">
+      <c r="A166" s="1" t="n">
+        <v>164</v>
+      </c>
+      <c r="B166" t="n">
+        <v>11.9</v>
+      </c>
+      <c r="C166" t="n">
+        <v>11.9</v>
+      </c>
+      <c r="D166" t="n">
+        <v>11.9</v>
+      </c>
+      <c r="E166" t="n">
+        <v>11.8</v>
+      </c>
+      <c r="F166" t="n">
+        <v>21072.6183</v>
+      </c>
+      <c r="G166" t="n">
+        <v>11.76499999999999</v>
+      </c>
+      <c r="H166" t="n">
+        <v>0</v>
+      </c>
+      <c r="I166" t="n">
+        <v>0</v>
+      </c>
+      <c r="J166" t="inlineStr"/>
+      <c r="K166" t="inlineStr"/>
+      <c r="L166" t="inlineStr"/>
+      <c r="M166" t="n">
         <v>1</v>
       </c>
     </row>

--- a/BackTest/2019-11-21 BackTest ORBS.xlsx
+++ b/BackTest/2019-11-21 BackTest ORBS.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M166"/>
+  <dimension ref="A1:N176"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -394,35 +394,40 @@
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
+          <t>CMO</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>MA60</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>low_check</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
+      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>high_check</t>
         </is>
       </c>
-      <c r="J1" s="1" t="inlineStr">
+      <c r="K1" s="1" t="inlineStr">
         <is>
           <t>BuyPrice</t>
         </is>
       </c>
-      <c r="K1" s="1" t="inlineStr">
+      <c r="L1" s="1" t="inlineStr">
         <is>
           <t>bprelay</t>
         </is>
       </c>
-      <c r="L1" s="1" t="inlineStr">
+      <c r="M1" s="1" t="inlineStr">
         <is>
           <t>Condition</t>
         </is>
       </c>
-      <c r="M1" s="1" t="inlineStr">
+      <c r="N1" s="1" t="inlineStr">
         <is>
           <t>Profits</t>
         </is>
@@ -448,18 +453,21 @@
         <v>25059.84431304348</v>
       </c>
       <c r="G2" t="n">
+        <v>11.52</v>
+      </c>
+      <c r="H2" t="n">
         <v>11.38333333333331</v>
       </c>
-      <c r="H2" t="n">
-        <v>0</v>
-      </c>
       <c r="I2" t="n">
-        <v>0</v>
-      </c>
-      <c r="J2" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="J2" t="n">
+        <v>0</v>
+      </c>
       <c r="K2" t="inlineStr"/>
       <c r="L2" t="inlineStr"/>
-      <c r="M2" t="n">
+      <c r="M2" t="inlineStr"/>
+      <c r="N2" t="n">
         <v>1</v>
       </c>
     </row>
@@ -483,18 +491,25 @@
         <v>6472.514786956522</v>
       </c>
       <c r="G3" t="n">
+        <v>11.52</v>
+      </c>
+      <c r="H3" t="n">
         <v>11.38333333333331</v>
       </c>
-      <c r="H3" t="n">
-        <v>0</v>
-      </c>
       <c r="I3" t="n">
-        <v>0</v>
-      </c>
-      <c r="J3" t="inlineStr"/>
-      <c r="K3" t="inlineStr"/>
-      <c r="L3" t="inlineStr"/>
-      <c r="M3" t="n">
+        <v>1</v>
+      </c>
+      <c r="J3" t="n">
+        <v>0</v>
+      </c>
+      <c r="K3" t="n">
+        <v>11.5</v>
+      </c>
+      <c r="L3" t="n">
+        <v>11.5</v>
+      </c>
+      <c r="M3" t="inlineStr"/>
+      <c r="N3" t="n">
         <v>1</v>
       </c>
     </row>
@@ -518,18 +533,29 @@
         <v>3241.875</v>
       </c>
       <c r="G4" t="n">
+        <v>11.51333333333333</v>
+      </c>
+      <c r="H4" t="n">
         <v>11.38333333333331</v>
       </c>
-      <c r="H4" t="n">
-        <v>0</v>
-      </c>
       <c r="I4" t="n">
-        <v>0</v>
-      </c>
-      <c r="J4" t="inlineStr"/>
-      <c r="K4" t="inlineStr"/>
-      <c r="L4" t="inlineStr"/>
-      <c r="M4" t="n">
+        <v>1</v>
+      </c>
+      <c r="J4" t="n">
+        <v>0</v>
+      </c>
+      <c r="K4" t="n">
+        <v>11.5</v>
+      </c>
+      <c r="L4" t="n">
+        <v>11.5</v>
+      </c>
+      <c r="M4" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="N4" t="n">
         <v>1</v>
       </c>
     </row>
@@ -553,18 +579,29 @@
         <v>26021.841</v>
       </c>
       <c r="G5" t="n">
+        <v>11.50666666666667</v>
+      </c>
+      <c r="H5" t="n">
         <v>11.38666666666664</v>
       </c>
-      <c r="H5" t="n">
-        <v>0</v>
-      </c>
       <c r="I5" t="n">
-        <v>0</v>
-      </c>
-      <c r="J5" t="inlineStr"/>
-      <c r="K5" t="inlineStr"/>
-      <c r="L5" t="inlineStr"/>
-      <c r="M5" t="n">
+        <v>1</v>
+      </c>
+      <c r="J5" t="n">
+        <v>0</v>
+      </c>
+      <c r="K5" t="n">
+        <v>11.4</v>
+      </c>
+      <c r="L5" t="n">
+        <v>11.5</v>
+      </c>
+      <c r="M5" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="N5" t="n">
         <v>1</v>
       </c>
     </row>
@@ -588,18 +625,25 @@
         <v>100845.4887</v>
       </c>
       <c r="G6" t="n">
+        <v>11.5</v>
+      </c>
+      <c r="H6" t="n">
         <v>11.38999999999997</v>
       </c>
-      <c r="H6" t="n">
-        <v>0</v>
-      </c>
       <c r="I6" t="n">
-        <v>0</v>
-      </c>
-      <c r="J6" t="inlineStr"/>
-      <c r="K6" t="inlineStr"/>
-      <c r="L6" t="inlineStr"/>
-      <c r="M6" t="n">
+        <v>1</v>
+      </c>
+      <c r="J6" t="n">
+        <v>0</v>
+      </c>
+      <c r="K6" t="n">
+        <v>11.4</v>
+      </c>
+      <c r="L6" t="n">
+        <v>11.4</v>
+      </c>
+      <c r="M6" t="inlineStr"/>
+      <c r="N6" t="n">
         <v>1</v>
       </c>
     </row>
@@ -623,18 +667,29 @@
         <v>9556.8855</v>
       </c>
       <c r="G7" t="n">
+        <v>11.49333333333333</v>
+      </c>
+      <c r="H7" t="n">
         <v>11.39166666666664</v>
       </c>
-      <c r="H7" t="n">
-        <v>0</v>
-      </c>
       <c r="I7" t="n">
-        <v>0</v>
-      </c>
-      <c r="J7" t="inlineStr"/>
-      <c r="K7" t="inlineStr"/>
-      <c r="L7" t="inlineStr"/>
-      <c r="M7" t="n">
+        <v>1</v>
+      </c>
+      <c r="J7" t="n">
+        <v>0</v>
+      </c>
+      <c r="K7" t="n">
+        <v>11.4</v>
+      </c>
+      <c r="L7" t="n">
+        <v>11.4</v>
+      </c>
+      <c r="M7" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="N7" t="n">
         <v>1</v>
       </c>
     </row>
@@ -658,18 +713,29 @@
         <v>78995.1009</v>
       </c>
       <c r="G8" t="n">
+        <v>11.48666666666667</v>
+      </c>
+      <c r="H8" t="n">
         <v>11.39499999999997</v>
       </c>
-      <c r="H8" t="n">
-        <v>0</v>
-      </c>
       <c r="I8" t="n">
-        <v>0</v>
-      </c>
-      <c r="J8" t="inlineStr"/>
-      <c r="K8" t="inlineStr"/>
-      <c r="L8" t="inlineStr"/>
-      <c r="M8" t="n">
+        <v>1</v>
+      </c>
+      <c r="J8" t="n">
+        <v>0</v>
+      </c>
+      <c r="K8" t="n">
+        <v>11.5</v>
+      </c>
+      <c r="L8" t="n">
+        <v>11.4</v>
+      </c>
+      <c r="M8" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="N8" t="n">
         <v>1</v>
       </c>
     </row>
@@ -693,18 +759,25 @@
         <v>10000</v>
       </c>
       <c r="G9" t="n">
+        <v>11.49333333333333</v>
+      </c>
+      <c r="H9" t="n">
         <v>11.39833333333331</v>
       </c>
-      <c r="H9" t="n">
-        <v>0</v>
-      </c>
       <c r="I9" t="n">
-        <v>0</v>
-      </c>
-      <c r="J9" t="inlineStr"/>
-      <c r="K9" t="inlineStr"/>
-      <c r="L9" t="inlineStr"/>
-      <c r="M9" t="n">
+        <v>1</v>
+      </c>
+      <c r="J9" t="n">
+        <v>0</v>
+      </c>
+      <c r="K9" t="n">
+        <v>11.5</v>
+      </c>
+      <c r="L9" t="n">
+        <v>11.5</v>
+      </c>
+      <c r="M9" t="inlineStr"/>
+      <c r="N9" t="n">
         <v>1</v>
       </c>
     </row>
@@ -728,18 +801,29 @@
         <v>2900</v>
       </c>
       <c r="G10" t="n">
+        <v>11.48</v>
+      </c>
+      <c r="H10" t="n">
         <v>11.39999999999997</v>
       </c>
-      <c r="H10" t="n">
-        <v>0</v>
-      </c>
       <c r="I10" t="n">
-        <v>0</v>
-      </c>
-      <c r="J10" t="inlineStr"/>
-      <c r="K10" t="inlineStr"/>
-      <c r="L10" t="inlineStr"/>
-      <c r="M10" t="n">
+        <v>1</v>
+      </c>
+      <c r="J10" t="n">
+        <v>0</v>
+      </c>
+      <c r="K10" t="n">
+        <v>11.6</v>
+      </c>
+      <c r="L10" t="n">
+        <v>11.5</v>
+      </c>
+      <c r="M10" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="N10" t="n">
         <v>1</v>
       </c>
     </row>
@@ -763,18 +847,27 @@
         <v>27100</v>
       </c>
       <c r="G11" t="n">
+        <v>11.48</v>
+      </c>
+      <c r="H11" t="n">
         <v>11.40333333333331</v>
       </c>
-      <c r="H11" t="n">
-        <v>0</v>
-      </c>
       <c r="I11" t="n">
         <v>0</v>
       </c>
-      <c r="J11" t="inlineStr"/>
+      <c r="J11" t="n">
+        <v>0</v>
+      </c>
       <c r="K11" t="inlineStr"/>
-      <c r="L11" t="inlineStr"/>
-      <c r="M11" t="n">
+      <c r="L11" t="n">
+        <v>11.5</v>
+      </c>
+      <c r="M11" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="N11" t="n">
         <v>1</v>
       </c>
     </row>
@@ -798,18 +891,25 @@
         <v>20920</v>
       </c>
       <c r="G12" t="n">
+        <v>11.48666666666667</v>
+      </c>
+      <c r="H12" t="n">
         <v>11.40833333333331</v>
       </c>
-      <c r="H12" t="n">
-        <v>0</v>
-      </c>
       <c r="I12" t="n">
-        <v>0</v>
-      </c>
-      <c r="J12" t="inlineStr"/>
-      <c r="K12" t="inlineStr"/>
-      <c r="L12" t="inlineStr"/>
-      <c r="M12" t="n">
+        <v>1</v>
+      </c>
+      <c r="J12" t="n">
+        <v>0</v>
+      </c>
+      <c r="K12" t="n">
+        <v>11.5</v>
+      </c>
+      <c r="L12" t="n">
+        <v>11.5</v>
+      </c>
+      <c r="M12" t="inlineStr"/>
+      <c r="N12" t="n">
         <v>1</v>
       </c>
     </row>
@@ -833,18 +933,27 @@
         <v>3250</v>
       </c>
       <c r="G13" t="n">
+        <v>11.49333333333333</v>
+      </c>
+      <c r="H13" t="n">
         <v>11.41333333333331</v>
       </c>
-      <c r="H13" t="n">
-        <v>0</v>
-      </c>
       <c r="I13" t="n">
         <v>0</v>
       </c>
-      <c r="J13" t="inlineStr"/>
+      <c r="J13" t="n">
+        <v>0</v>
+      </c>
       <c r="K13" t="inlineStr"/>
-      <c r="L13" t="inlineStr"/>
-      <c r="M13" t="n">
+      <c r="L13" t="n">
+        <v>11.5</v>
+      </c>
+      <c r="M13" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="N13" t="n">
         <v>1</v>
       </c>
     </row>
@@ -868,18 +977,27 @@
         <v>4604</v>
       </c>
       <c r="G14" t="n">
+        <v>11.49333333333333</v>
+      </c>
+      <c r="H14" t="n">
         <v>11.41499999999998</v>
       </c>
-      <c r="H14" t="n">
-        <v>0</v>
-      </c>
       <c r="I14" t="n">
         <v>0</v>
       </c>
-      <c r="J14" t="inlineStr"/>
+      <c r="J14" t="n">
+        <v>0</v>
+      </c>
       <c r="K14" t="inlineStr"/>
-      <c r="L14" t="inlineStr"/>
-      <c r="M14" t="n">
+      <c r="L14" t="n">
+        <v>11.5</v>
+      </c>
+      <c r="M14" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="N14" t="n">
         <v>1</v>
       </c>
     </row>
@@ -903,18 +1021,25 @@
         <v>11721</v>
       </c>
       <c r="G15" t="n">
+        <v>11.5</v>
+      </c>
+      <c r="H15" t="n">
         <v>11.41833333333331</v>
       </c>
-      <c r="H15" t="n">
-        <v>0</v>
-      </c>
       <c r="I15" t="n">
-        <v>0</v>
-      </c>
-      <c r="J15" t="inlineStr"/>
-      <c r="K15" t="inlineStr"/>
-      <c r="L15" t="inlineStr"/>
-      <c r="M15" t="n">
+        <v>1</v>
+      </c>
+      <c r="J15" t="n">
+        <v>0</v>
+      </c>
+      <c r="K15" t="n">
+        <v>11.5</v>
+      </c>
+      <c r="L15" t="n">
+        <v>11.5</v>
+      </c>
+      <c r="M15" t="inlineStr"/>
+      <c r="N15" t="n">
         <v>1</v>
       </c>
     </row>
@@ -938,18 +1063,27 @@
         <v>1200</v>
       </c>
       <c r="G16" t="n">
+        <v>11.50666666666667</v>
+      </c>
+      <c r="H16" t="n">
         <v>11.42166666666665</v>
       </c>
-      <c r="H16" t="n">
-        <v>0</v>
-      </c>
       <c r="I16" t="n">
         <v>0</v>
       </c>
-      <c r="J16" t="inlineStr"/>
+      <c r="J16" t="n">
+        <v>0</v>
+      </c>
       <c r="K16" t="inlineStr"/>
-      <c r="L16" t="inlineStr"/>
-      <c r="M16" t="n">
+      <c r="L16" t="n">
+        <v>11.5</v>
+      </c>
+      <c r="M16" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="N16" t="n">
         <v>1</v>
       </c>
     </row>
@@ -973,18 +1107,27 @@
         <v>39918</v>
       </c>
       <c r="G17" t="n">
+        <v>11.51333333333333</v>
+      </c>
+      <c r="H17" t="n">
         <v>11.42666666666665</v>
       </c>
-      <c r="H17" t="n">
-        <v>0</v>
-      </c>
       <c r="I17" t="n">
         <v>0</v>
       </c>
-      <c r="J17" t="inlineStr"/>
+      <c r="J17" t="n">
+        <v>0</v>
+      </c>
       <c r="K17" t="inlineStr"/>
-      <c r="L17" t="inlineStr"/>
-      <c r="M17" t="n">
+      <c r="L17" t="n">
+        <v>11.5</v>
+      </c>
+      <c r="M17" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="N17" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1008,18 +1151,21 @@
         <v>348.2436</v>
       </c>
       <c r="G18" t="n">
+        <v>11.52</v>
+      </c>
+      <c r="H18" t="n">
         <v>11.42999999999998</v>
       </c>
-      <c r="H18" t="n">
-        <v>0</v>
-      </c>
       <c r="I18" t="n">
         <v>0</v>
       </c>
-      <c r="J18" t="inlineStr"/>
+      <c r="J18" t="n">
+        <v>0</v>
+      </c>
       <c r="K18" t="inlineStr"/>
       <c r="L18" t="inlineStr"/>
-      <c r="M18" t="n">
+      <c r="M18" t="inlineStr"/>
+      <c r="N18" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1043,18 +1189,21 @@
         <v>234.8206</v>
       </c>
       <c r="G19" t="n">
+        <v>11.54</v>
+      </c>
+      <c r="H19" t="n">
         <v>11.43499999999998</v>
       </c>
-      <c r="H19" t="n">
-        <v>0</v>
-      </c>
       <c r="I19" t="n">
         <v>0</v>
       </c>
-      <c r="J19" t="inlineStr"/>
+      <c r="J19" t="n">
+        <v>0</v>
+      </c>
       <c r="K19" t="inlineStr"/>
       <c r="L19" t="inlineStr"/>
-      <c r="M19" t="n">
+      <c r="M19" t="inlineStr"/>
+      <c r="N19" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1078,18 +1227,21 @@
         <v>60130.1794</v>
       </c>
       <c r="G20" t="n">
+        <v>11.56</v>
+      </c>
+      <c r="H20" t="n">
         <v>11.44166666666665</v>
       </c>
-      <c r="H20" t="n">
-        <v>0</v>
-      </c>
       <c r="I20" t="n">
         <v>0</v>
       </c>
-      <c r="J20" t="inlineStr"/>
+      <c r="J20" t="n">
+        <v>0</v>
+      </c>
       <c r="K20" t="inlineStr"/>
       <c r="L20" t="inlineStr"/>
-      <c r="M20" t="n">
+      <c r="M20" t="inlineStr"/>
+      <c r="N20" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1113,18 +1265,21 @@
         <v>3296.405</v>
       </c>
       <c r="G21" t="n">
+        <v>11.57999999999999</v>
+      </c>
+      <c r="H21" t="n">
         <v>11.44833333333332</v>
       </c>
-      <c r="H21" t="n">
-        <v>0</v>
-      </c>
       <c r="I21" t="n">
         <v>0</v>
       </c>
-      <c r="J21" t="inlineStr"/>
+      <c r="J21" t="n">
+        <v>0</v>
+      </c>
       <c r="K21" t="inlineStr"/>
       <c r="L21" t="inlineStr"/>
-      <c r="M21" t="n">
+      <c r="M21" t="inlineStr"/>
+      <c r="N21" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1148,18 +1303,21 @@
         <v>166602.5318</v>
       </c>
       <c r="G22" t="n">
+        <v>11.6</v>
+      </c>
+      <c r="H22" t="n">
         <v>11.45666666666665</v>
       </c>
-      <c r="H22" t="n">
-        <v>0</v>
-      </c>
       <c r="I22" t="n">
         <v>0</v>
       </c>
-      <c r="J22" t="inlineStr"/>
+      <c r="J22" t="n">
+        <v>0</v>
+      </c>
       <c r="K22" t="inlineStr"/>
       <c r="L22" t="inlineStr"/>
-      <c r="M22" t="n">
+      <c r="M22" t="inlineStr"/>
+      <c r="N22" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1183,18 +1341,21 @@
         <v>157159.5878</v>
       </c>
       <c r="G23" t="n">
+        <v>11.60666666666666</v>
+      </c>
+      <c r="H23" t="n">
         <v>11.46166666666665</v>
       </c>
-      <c r="H23" t="n">
-        <v>0</v>
-      </c>
       <c r="I23" t="n">
-        <v>1</v>
-      </c>
-      <c r="J23" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="J23" t="n">
+        <v>0</v>
+      </c>
       <c r="K23" t="inlineStr"/>
       <c r="L23" t="inlineStr"/>
-      <c r="M23" t="n">
+      <c r="M23" t="inlineStr"/>
+      <c r="N23" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1218,18 +1379,21 @@
         <v>1546.1593</v>
       </c>
       <c r="G24" t="n">
+        <v>11.60666666666666</v>
+      </c>
+      <c r="H24" t="n">
         <v>11.46666666666665</v>
       </c>
-      <c r="H24" t="n">
-        <v>0</v>
-      </c>
       <c r="I24" t="n">
-        <v>1</v>
-      </c>
-      <c r="J24" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="J24" t="n">
+        <v>0</v>
+      </c>
       <c r="K24" t="inlineStr"/>
       <c r="L24" t="inlineStr"/>
-      <c r="M24" t="n">
+      <c r="M24" t="inlineStr"/>
+      <c r="N24" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1253,18 +1417,21 @@
         <v>315.6044</v>
       </c>
       <c r="G25" t="n">
+        <v>11.61333333333333</v>
+      </c>
+      <c r="H25" t="n">
         <v>11.47166666666666</v>
       </c>
-      <c r="H25" t="n">
-        <v>0</v>
-      </c>
       <c r="I25" t="n">
-        <v>1</v>
-      </c>
-      <c r="J25" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="J25" t="n">
+        <v>0</v>
+      </c>
       <c r="K25" t="inlineStr"/>
       <c r="L25" t="inlineStr"/>
-      <c r="M25" t="n">
+      <c r="M25" t="inlineStr"/>
+      <c r="N25" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1288,18 +1455,21 @@
         <v>19712.9732</v>
       </c>
       <c r="G26" t="n">
+        <v>11.62</v>
+      </c>
+      <c r="H26" t="n">
         <v>11.47666666666666</v>
       </c>
-      <c r="H26" t="n">
-        <v>0</v>
-      </c>
       <c r="I26" t="n">
-        <v>1</v>
-      </c>
-      <c r="J26" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="J26" t="n">
+        <v>0</v>
+      </c>
       <c r="K26" t="inlineStr"/>
       <c r="L26" t="inlineStr"/>
-      <c r="M26" t="n">
+      <c r="M26" t="inlineStr"/>
+      <c r="N26" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1323,18 +1493,21 @@
         <v>45319.1004</v>
       </c>
       <c r="G27" t="n">
+        <v>11.62</v>
+      </c>
+      <c r="H27" t="n">
         <v>11.48166666666666</v>
       </c>
-      <c r="H27" t="n">
-        <v>0</v>
-      </c>
       <c r="I27" t="n">
         <v>0</v>
       </c>
-      <c r="J27" t="inlineStr"/>
+      <c r="J27" t="n">
+        <v>0</v>
+      </c>
       <c r="K27" t="inlineStr"/>
       <c r="L27" t="inlineStr"/>
-      <c r="M27" t="n">
+      <c r="M27" t="inlineStr"/>
+      <c r="N27" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1358,18 +1531,21 @@
         <v>39667.0323</v>
       </c>
       <c r="G28" t="n">
+        <v>11.61333333333333</v>
+      </c>
+      <c r="H28" t="n">
         <v>11.48499999999999</v>
       </c>
-      <c r="H28" t="n">
-        <v>0</v>
-      </c>
       <c r="I28" t="n">
         <v>0</v>
       </c>
-      <c r="J28" t="inlineStr"/>
+      <c r="J28" t="n">
+        <v>0</v>
+      </c>
       <c r="K28" t="inlineStr"/>
       <c r="L28" t="inlineStr"/>
-      <c r="M28" t="n">
+      <c r="M28" t="inlineStr"/>
+      <c r="N28" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1393,18 +1569,21 @@
         <v>12448.8178</v>
       </c>
       <c r="G29" t="n">
+        <v>11.62666666666666</v>
+      </c>
+      <c r="H29" t="n">
         <v>11.48999999999999</v>
       </c>
-      <c r="H29" t="n">
-        <v>0</v>
-      </c>
       <c r="I29" t="n">
         <v>0</v>
       </c>
-      <c r="J29" t="inlineStr"/>
+      <c r="J29" t="n">
+        <v>0</v>
+      </c>
       <c r="K29" t="inlineStr"/>
       <c r="L29" t="inlineStr"/>
-      <c r="M29" t="n">
+      <c r="M29" t="inlineStr"/>
+      <c r="N29" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1428,18 +1607,21 @@
         <v>16129.033</v>
       </c>
       <c r="G30" t="n">
+        <v>11.63333333333333</v>
+      </c>
+      <c r="H30" t="n">
         <v>11.49666666666666</v>
       </c>
-      <c r="H30" t="n">
-        <v>0</v>
-      </c>
       <c r="I30" t="n">
         <v>0</v>
       </c>
-      <c r="J30" t="inlineStr"/>
+      <c r="J30" t="n">
+        <v>0</v>
+      </c>
       <c r="K30" t="inlineStr"/>
       <c r="L30" t="inlineStr"/>
-      <c r="M30" t="n">
+      <c r="M30" t="inlineStr"/>
+      <c r="N30" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1463,18 +1645,21 @@
         <v>18850.881</v>
       </c>
       <c r="G31" t="n">
+        <v>11.63999999999999</v>
+      </c>
+      <c r="H31" t="n">
         <v>11.50166666666666</v>
       </c>
-      <c r="H31" t="n">
-        <v>0</v>
-      </c>
       <c r="I31" t="n">
         <v>0</v>
       </c>
-      <c r="J31" t="inlineStr"/>
+      <c r="J31" t="n">
+        <v>0</v>
+      </c>
       <c r="K31" t="inlineStr"/>
       <c r="L31" t="inlineStr"/>
-      <c r="M31" t="n">
+      <c r="M31" t="inlineStr"/>
+      <c r="N31" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1498,18 +1683,21 @@
         <v>87199.11900000001</v>
       </c>
       <c r="G32" t="n">
+        <v>11.63999999999999</v>
+      </c>
+      <c r="H32" t="n">
         <v>11.505</v>
       </c>
-      <c r="H32" t="n">
-        <v>0</v>
-      </c>
       <c r="I32" t="n">
         <v>0</v>
       </c>
-      <c r="J32" t="inlineStr"/>
+      <c r="J32" t="n">
+        <v>0</v>
+      </c>
       <c r="K32" t="inlineStr"/>
       <c r="L32" t="inlineStr"/>
-      <c r="M32" t="n">
+      <c r="M32" t="inlineStr"/>
+      <c r="N32" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1533,18 +1721,21 @@
         <v>12800.881</v>
       </c>
       <c r="G33" t="n">
+        <v>11.63999999999999</v>
+      </c>
+      <c r="H33" t="n">
         <v>11.51</v>
       </c>
-      <c r="H33" t="n">
-        <v>0</v>
-      </c>
       <c r="I33" t="n">
         <v>0</v>
       </c>
-      <c r="J33" t="inlineStr"/>
+      <c r="J33" t="n">
+        <v>0</v>
+      </c>
       <c r="K33" t="inlineStr"/>
       <c r="L33" t="inlineStr"/>
-      <c r="M33" t="n">
+      <c r="M33" t="inlineStr"/>
+      <c r="N33" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1568,18 +1759,21 @@
         <v>85966.81789999999</v>
       </c>
       <c r="G34" t="n">
+        <v>11.63999999999999</v>
+      </c>
+      <c r="H34" t="n">
         <v>11.51666666666666</v>
       </c>
-      <c r="H34" t="n">
-        <v>0</v>
-      </c>
       <c r="I34" t="n">
         <v>0</v>
       </c>
-      <c r="J34" t="inlineStr"/>
+      <c r="J34" t="n">
+        <v>0</v>
+      </c>
       <c r="K34" t="inlineStr"/>
       <c r="L34" t="inlineStr"/>
-      <c r="M34" t="n">
+      <c r="M34" t="inlineStr"/>
+      <c r="N34" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1603,18 +1797,21 @@
         <v>13302038.8404</v>
       </c>
       <c r="G35" t="n">
+        <v>11.63999999999999</v>
+      </c>
+      <c r="H35" t="n">
         <v>11.52333333333333</v>
       </c>
-      <c r="H35" t="n">
-        <v>0</v>
-      </c>
       <c r="I35" t="n">
         <v>0</v>
       </c>
-      <c r="J35" t="inlineStr"/>
+      <c r="J35" t="n">
+        <v>0</v>
+      </c>
       <c r="K35" t="inlineStr"/>
       <c r="L35" t="inlineStr"/>
-      <c r="M35" t="n">
+      <c r="M35" t="inlineStr"/>
+      <c r="N35" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1638,18 +1835,21 @@
         <v>130065131.364</v>
       </c>
       <c r="G36" t="n">
+        <v>11.63999999999999</v>
+      </c>
+      <c r="H36" t="n">
         <v>11.53</v>
       </c>
-      <c r="H36" t="n">
-        <v>0</v>
-      </c>
       <c r="I36" t="n">
         <v>0</v>
       </c>
-      <c r="J36" t="inlineStr"/>
+      <c r="J36" t="n">
+        <v>0</v>
+      </c>
       <c r="K36" t="inlineStr"/>
       <c r="L36" t="inlineStr"/>
-      <c r="M36" t="n">
+      <c r="M36" t="inlineStr"/>
+      <c r="N36" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1673,18 +1873,21 @@
         <v>106001857.6074</v>
       </c>
       <c r="G37" t="n">
+        <v>11.63333333333333</v>
+      </c>
+      <c r="H37" t="n">
         <v>11.53666666666667</v>
       </c>
-      <c r="H37" t="n">
-        <v>0</v>
-      </c>
       <c r="I37" t="n">
         <v>0</v>
       </c>
-      <c r="J37" t="inlineStr"/>
+      <c r="J37" t="n">
+        <v>0</v>
+      </c>
       <c r="K37" t="inlineStr"/>
       <c r="L37" t="inlineStr"/>
-      <c r="M37" t="n">
+      <c r="M37" t="inlineStr"/>
+      <c r="N37" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1708,18 +1911,21 @@
         <v>92703390.89920001</v>
       </c>
       <c r="G38" t="n">
+        <v>11.63999999999999</v>
+      </c>
+      <c r="H38" t="n">
         <v>11.54333333333334</v>
       </c>
-      <c r="H38" t="n">
-        <v>0</v>
-      </c>
       <c r="I38" t="n">
         <v>0</v>
       </c>
-      <c r="J38" t="inlineStr"/>
+      <c r="J38" t="n">
+        <v>0</v>
+      </c>
       <c r="K38" t="inlineStr"/>
       <c r="L38" t="inlineStr"/>
-      <c r="M38" t="n">
+      <c r="M38" t="inlineStr"/>
+      <c r="N38" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1743,18 +1949,21 @@
         <v>38036926.8492</v>
       </c>
       <c r="G39" t="n">
+        <v>11.64666666666666</v>
+      </c>
+      <c r="H39" t="n">
         <v>11.54833333333334</v>
       </c>
-      <c r="H39" t="n">
-        <v>0</v>
-      </c>
       <c r="I39" t="n">
         <v>0</v>
       </c>
-      <c r="J39" t="inlineStr"/>
+      <c r="J39" t="n">
+        <v>0</v>
+      </c>
       <c r="K39" t="inlineStr"/>
       <c r="L39" t="inlineStr"/>
-      <c r="M39" t="n">
+      <c r="M39" t="inlineStr"/>
+      <c r="N39" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1778,18 +1987,21 @@
         <v>8453362.104</v>
       </c>
       <c r="G40" t="n">
+        <v>11.65333333333333</v>
+      </c>
+      <c r="H40" t="n">
         <v>11.55333333333334</v>
       </c>
-      <c r="H40" t="n">
-        <v>0</v>
-      </c>
       <c r="I40" t="n">
         <v>0</v>
       </c>
-      <c r="J40" t="inlineStr"/>
+      <c r="J40" t="n">
+        <v>0</v>
+      </c>
       <c r="K40" t="inlineStr"/>
       <c r="L40" t="inlineStr"/>
-      <c r="M40" t="n">
+      <c r="M40" t="inlineStr"/>
+      <c r="N40" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1813,18 +2025,21 @@
         <v>156096310.7232</v>
       </c>
       <c r="G41" t="n">
+        <v>11.65999999999999</v>
+      </c>
+      <c r="H41" t="n">
         <v>11.55833333333334</v>
       </c>
-      <c r="H41" t="n">
-        <v>0</v>
-      </c>
       <c r="I41" t="n">
         <v>0</v>
       </c>
-      <c r="J41" t="inlineStr"/>
+      <c r="J41" t="n">
+        <v>0</v>
+      </c>
       <c r="K41" t="inlineStr"/>
       <c r="L41" t="inlineStr"/>
-      <c r="M41" t="n">
+      <c r="M41" t="inlineStr"/>
+      <c r="N41" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1848,18 +2063,21 @@
         <v>195853126.5092</v>
       </c>
       <c r="G42" t="n">
+        <v>11.66666666666666</v>
+      </c>
+      <c r="H42" t="n">
         <v>11.56333333333334</v>
       </c>
-      <c r="H42" t="n">
-        <v>0</v>
-      </c>
       <c r="I42" t="n">
         <v>0</v>
       </c>
-      <c r="J42" t="inlineStr"/>
+      <c r="J42" t="n">
+        <v>0</v>
+      </c>
       <c r="K42" t="inlineStr"/>
       <c r="L42" t="inlineStr"/>
-      <c r="M42" t="n">
+      <c r="M42" t="inlineStr"/>
+      <c r="N42" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1883,18 +2101,21 @@
         <v>158274385.0388</v>
       </c>
       <c r="G43" t="n">
+        <v>11.67999999999999</v>
+      </c>
+      <c r="H43" t="n">
         <v>11.57000000000001</v>
       </c>
-      <c r="H43" t="n">
-        <v>0</v>
-      </c>
       <c r="I43" t="n">
-        <v>1</v>
-      </c>
-      <c r="J43" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="J43" t="n">
+        <v>0</v>
+      </c>
       <c r="K43" t="inlineStr"/>
       <c r="L43" t="inlineStr"/>
-      <c r="M43" t="n">
+      <c r="M43" t="inlineStr"/>
+      <c r="N43" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1918,18 +2139,21 @@
         <v>179923443.1154</v>
       </c>
       <c r="G44" t="n">
+        <v>11.67999999999999</v>
+      </c>
+      <c r="H44" t="n">
         <v>11.57666666666668</v>
       </c>
-      <c r="H44" t="n">
-        <v>0</v>
-      </c>
       <c r="I44" t="n">
         <v>0</v>
       </c>
-      <c r="J44" t="inlineStr"/>
+      <c r="J44" t="n">
+        <v>0</v>
+      </c>
       <c r="K44" t="inlineStr"/>
       <c r="L44" t="inlineStr"/>
-      <c r="M44" t="n">
+      <c r="M44" t="inlineStr"/>
+      <c r="N44" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1953,18 +2177,21 @@
         <v>121746723.4606</v>
       </c>
       <c r="G45" t="n">
+        <v>11.67999999999999</v>
+      </c>
+      <c r="H45" t="n">
         <v>11.58166666666668</v>
       </c>
-      <c r="H45" t="n">
-        <v>0</v>
-      </c>
       <c r="I45" t="n">
         <v>0</v>
       </c>
-      <c r="J45" t="inlineStr"/>
+      <c r="J45" t="n">
+        <v>0</v>
+      </c>
       <c r="K45" t="inlineStr"/>
       <c r="L45" t="inlineStr"/>
-      <c r="M45" t="n">
+      <c r="M45" t="inlineStr"/>
+      <c r="N45" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1988,18 +2215,21 @@
         <v>27976905.5353</v>
       </c>
       <c r="G46" t="n">
+        <v>11.68666666666666</v>
+      </c>
+      <c r="H46" t="n">
         <v>11.58833333333335</v>
       </c>
-      <c r="H46" t="n">
-        <v>0</v>
-      </c>
       <c r="I46" t="n">
         <v>0</v>
       </c>
-      <c r="J46" t="inlineStr"/>
+      <c r="J46" t="n">
+        <v>0</v>
+      </c>
       <c r="K46" t="inlineStr"/>
       <c r="L46" t="inlineStr"/>
-      <c r="M46" t="n">
+      <c r="M46" t="inlineStr"/>
+      <c r="N46" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2023,18 +2253,21 @@
         <v>112470697.5007</v>
       </c>
       <c r="G47" t="n">
+        <v>11.69333333333332</v>
+      </c>
+      <c r="H47" t="n">
         <v>11.59166666666668</v>
       </c>
-      <c r="H47" t="n">
-        <v>0</v>
-      </c>
       <c r="I47" t="n">
         <v>0</v>
       </c>
-      <c r="J47" t="inlineStr"/>
+      <c r="J47" t="n">
+        <v>0</v>
+      </c>
       <c r="K47" t="inlineStr"/>
       <c r="L47" t="inlineStr"/>
-      <c r="M47" t="n">
+      <c r="M47" t="inlineStr"/>
+      <c r="N47" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2058,18 +2291,21 @@
         <v>186207290.4324</v>
       </c>
       <c r="G48" t="n">
+        <v>11.69999999999999</v>
+      </c>
+      <c r="H48" t="n">
         <v>11.59500000000002</v>
       </c>
-      <c r="H48" t="n">
-        <v>0</v>
-      </c>
       <c r="I48" t="n">
         <v>0</v>
       </c>
-      <c r="J48" t="inlineStr"/>
+      <c r="J48" t="n">
+        <v>0</v>
+      </c>
       <c r="K48" t="inlineStr"/>
       <c r="L48" t="inlineStr"/>
-      <c r="M48" t="n">
+      <c r="M48" t="inlineStr"/>
+      <c r="N48" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2093,18 +2329,21 @@
         <v>187632281.534</v>
       </c>
       <c r="G49" t="n">
+        <v>11.69999999999999</v>
+      </c>
+      <c r="H49" t="n">
         <v>11.59833333333335</v>
       </c>
-      <c r="H49" t="n">
-        <v>0</v>
-      </c>
       <c r="I49" t="n">
         <v>0</v>
       </c>
-      <c r="J49" t="inlineStr"/>
+      <c r="J49" t="n">
+        <v>0</v>
+      </c>
       <c r="K49" t="inlineStr"/>
       <c r="L49" t="inlineStr"/>
-      <c r="M49" t="n">
+      <c r="M49" t="inlineStr"/>
+      <c r="N49" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2128,18 +2367,21 @@
         <v>189037860.2988</v>
       </c>
       <c r="G50" t="n">
+        <v>11.69999999999999</v>
+      </c>
+      <c r="H50" t="n">
         <v>11.60166666666668</v>
       </c>
-      <c r="H50" t="n">
-        <v>0</v>
-      </c>
       <c r="I50" t="n">
         <v>0</v>
       </c>
-      <c r="J50" t="inlineStr"/>
+      <c r="J50" t="n">
+        <v>0</v>
+      </c>
       <c r="K50" t="inlineStr"/>
       <c r="L50" t="inlineStr"/>
-      <c r="M50" t="n">
+      <c r="M50" t="inlineStr"/>
+      <c r="N50" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2163,18 +2405,21 @@
         <v>189738700.8229</v>
       </c>
       <c r="G51" t="n">
+        <v>11.69999999999999</v>
+      </c>
+      <c r="H51" t="n">
         <v>11.60500000000002</v>
       </c>
-      <c r="H51" t="n">
-        <v>0</v>
-      </c>
       <c r="I51" t="n">
         <v>0</v>
       </c>
-      <c r="J51" t="inlineStr"/>
+      <c r="J51" t="n">
+        <v>0</v>
+      </c>
       <c r="K51" t="inlineStr"/>
       <c r="L51" t="inlineStr"/>
-      <c r="M51" t="n">
+      <c r="M51" t="inlineStr"/>
+      <c r="N51" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2198,18 +2443,21 @@
         <v>189733668.404</v>
       </c>
       <c r="G52" t="n">
+        <v>11.69999999999999</v>
+      </c>
+      <c r="H52" t="n">
         <v>11.60666666666669</v>
       </c>
-      <c r="H52" t="n">
-        <v>0</v>
-      </c>
       <c r="I52" t="n">
         <v>0</v>
       </c>
-      <c r="J52" t="inlineStr"/>
+      <c r="J52" t="n">
+        <v>0</v>
+      </c>
       <c r="K52" t="inlineStr"/>
       <c r="L52" t="inlineStr"/>
-      <c r="M52" t="n">
+      <c r="M52" t="inlineStr"/>
+      <c r="N52" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2233,18 +2481,21 @@
         <v>179900005.3512</v>
       </c>
       <c r="G53" t="n">
+        <v>11.69999999999999</v>
+      </c>
+      <c r="H53" t="n">
         <v>11.60833333333335</v>
       </c>
-      <c r="H53" t="n">
-        <v>0</v>
-      </c>
       <c r="I53" t="n">
         <v>0</v>
       </c>
-      <c r="J53" t="inlineStr"/>
+      <c r="J53" t="n">
+        <v>0</v>
+      </c>
       <c r="K53" t="inlineStr"/>
       <c r="L53" t="inlineStr"/>
-      <c r="M53" t="n">
+      <c r="M53" t="inlineStr"/>
+      <c r="N53" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2268,18 +2519,21 @@
         <v>186907693.1443</v>
       </c>
       <c r="G54" t="n">
+        <v>11.69999999999999</v>
+      </c>
+      <c r="H54" t="n">
         <v>11.61166666666669</v>
       </c>
-      <c r="H54" t="n">
-        <v>0</v>
-      </c>
       <c r="I54" t="n">
         <v>0</v>
       </c>
-      <c r="J54" t="inlineStr"/>
+      <c r="J54" t="n">
+        <v>0</v>
+      </c>
       <c r="K54" t="inlineStr"/>
       <c r="L54" t="inlineStr"/>
-      <c r="M54" t="n">
+      <c r="M54" t="inlineStr"/>
+      <c r="N54" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2303,18 +2557,21 @@
         <v>189019743.1377</v>
       </c>
       <c r="G55" t="n">
+        <v>11.69999999999999</v>
+      </c>
+      <c r="H55" t="n">
         <v>11.61166666666669</v>
       </c>
-      <c r="H55" t="n">
-        <v>0</v>
-      </c>
       <c r="I55" t="n">
         <v>0</v>
       </c>
-      <c r="J55" t="inlineStr"/>
+      <c r="J55" t="n">
+        <v>0</v>
+      </c>
       <c r="K55" t="inlineStr"/>
       <c r="L55" t="inlineStr"/>
-      <c r="M55" t="n">
+      <c r="M55" t="inlineStr"/>
+      <c r="N55" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2338,18 +2595,21 @@
         <v>186909832.5976</v>
       </c>
       <c r="G56" t="n">
+        <v>11.69999999999999</v>
+      </c>
+      <c r="H56" t="n">
         <v>11.61500000000002</v>
       </c>
-      <c r="H56" t="n">
-        <v>0</v>
-      </c>
       <c r="I56" t="n">
         <v>0</v>
       </c>
-      <c r="J56" t="inlineStr"/>
+      <c r="J56" t="n">
+        <v>0</v>
+      </c>
       <c r="K56" t="inlineStr"/>
       <c r="L56" t="inlineStr"/>
-      <c r="M56" t="n">
+      <c r="M56" t="inlineStr"/>
+      <c r="N56" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2373,18 +2633,21 @@
         <v>191151814.6144</v>
       </c>
       <c r="G57" t="n">
+        <v>11.69999999999999</v>
+      </c>
+      <c r="H57" t="n">
         <v>11.61833333333336</v>
       </c>
-      <c r="H57" t="n">
-        <v>0</v>
-      </c>
       <c r="I57" t="n">
         <v>0</v>
       </c>
-      <c r="J57" t="inlineStr"/>
+      <c r="J57" t="n">
+        <v>0</v>
+      </c>
       <c r="K57" t="inlineStr"/>
       <c r="L57" t="inlineStr"/>
-      <c r="M57" t="n">
+      <c r="M57" t="inlineStr"/>
+      <c r="N57" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2408,18 +2671,21 @@
         <v>105400215.78</v>
       </c>
       <c r="G58" t="n">
+        <v>11.69999999999999</v>
+      </c>
+      <c r="H58" t="n">
         <v>11.62166666666669</v>
       </c>
-      <c r="H58" t="n">
-        <v>0</v>
-      </c>
       <c r="I58" t="n">
         <v>0</v>
       </c>
-      <c r="J58" t="inlineStr"/>
+      <c r="J58" t="n">
+        <v>0</v>
+      </c>
       <c r="K58" t="inlineStr"/>
       <c r="L58" t="inlineStr"/>
-      <c r="M58" t="n">
+      <c r="M58" t="inlineStr"/>
+      <c r="N58" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2443,18 +2709,21 @@
         <v>178811966.5981</v>
       </c>
       <c r="G59" t="n">
+        <v>11.69999999999999</v>
+      </c>
+      <c r="H59" t="n">
         <v>11.62500000000002</v>
       </c>
-      <c r="H59" t="n">
-        <v>0</v>
-      </c>
       <c r="I59" t="n">
         <v>0</v>
       </c>
-      <c r="J59" t="inlineStr"/>
+      <c r="J59" t="n">
+        <v>0</v>
+      </c>
       <c r="K59" t="inlineStr"/>
       <c r="L59" t="inlineStr"/>
-      <c r="M59" t="n">
+      <c r="M59" t="inlineStr"/>
+      <c r="N59" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2478,18 +2747,21 @@
         <v>190423056.5092</v>
       </c>
       <c r="G60" t="n">
+        <v>11.69999999999999</v>
+      </c>
+      <c r="H60" t="n">
         <v>11.62833333333336</v>
       </c>
-      <c r="H60" t="n">
-        <v>0</v>
-      </c>
       <c r="I60" t="n">
         <v>0</v>
       </c>
-      <c r="J60" t="inlineStr"/>
+      <c r="J60" t="n">
+        <v>0</v>
+      </c>
       <c r="K60" t="inlineStr"/>
       <c r="L60" t="inlineStr"/>
-      <c r="M60" t="n">
+      <c r="M60" t="inlineStr"/>
+      <c r="N60" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2513,18 +2785,21 @@
         <v>189720388.404</v>
       </c>
       <c r="G61" t="n">
+        <v>11.69999999999999</v>
+      </c>
+      <c r="H61" t="n">
         <v>11.63333333333336</v>
       </c>
-      <c r="H61" t="n">
-        <v>0</v>
-      </c>
       <c r="I61" t="n">
         <v>0</v>
       </c>
-      <c r="J61" t="inlineStr"/>
+      <c r="J61" t="n">
+        <v>0</v>
+      </c>
       <c r="K61" t="inlineStr"/>
       <c r="L61" t="inlineStr"/>
-      <c r="M61" t="n">
+      <c r="M61" t="inlineStr"/>
+      <c r="N61" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2548,18 +2823,21 @@
         <v>5599959.6117</v>
       </c>
       <c r="G62" t="n">
+        <v>11.70666666666666</v>
+      </c>
+      <c r="H62" t="n">
         <v>11.63833333333336</v>
       </c>
-      <c r="H62" t="n">
-        <v>0</v>
-      </c>
       <c r="I62" t="n">
         <v>0</v>
       </c>
-      <c r="J62" t="inlineStr"/>
+      <c r="J62" t="n">
+        <v>0</v>
+      </c>
       <c r="K62" t="inlineStr"/>
       <c r="L62" t="inlineStr"/>
-      <c r="M62" t="n">
+      <c r="M62" t="inlineStr"/>
+      <c r="N62" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2583,18 +2861,21 @@
         <v>4891.0665</v>
       </c>
       <c r="G63" t="n">
+        <v>11.71333333333333</v>
+      </c>
+      <c r="H63" t="n">
         <v>11.64333333333336</v>
       </c>
-      <c r="H63" t="n">
-        <v>0</v>
-      </c>
       <c r="I63" t="n">
         <v>0</v>
       </c>
-      <c r="J63" t="inlineStr"/>
+      <c r="J63" t="n">
+        <v>0</v>
+      </c>
       <c r="K63" t="inlineStr"/>
       <c r="L63" t="inlineStr"/>
-      <c r="M63" t="n">
+      <c r="M63" t="inlineStr"/>
+      <c r="N63" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2618,22 +2899,21 @@
         <v>100000</v>
       </c>
       <c r="G64" t="n">
+        <v>11.71999999999999</v>
+      </c>
+      <c r="H64" t="n">
         <v>11.65000000000002</v>
       </c>
-      <c r="H64" t="n">
-        <v>1</v>
-      </c>
       <c r="I64" t="n">
         <v>0</v>
       </c>
       <c r="J64" t="n">
-        <v>11.8</v>
-      </c>
-      <c r="K64" t="n">
-        <v>11.8</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="K64" t="inlineStr"/>
       <c r="L64" t="inlineStr"/>
-      <c r="M64" t="n">
+      <c r="M64" t="inlineStr"/>
+      <c r="N64" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2657,24 +2937,21 @@
         <v>2000</v>
       </c>
       <c r="G65" t="n">
+        <v>11.72666666666666</v>
+      </c>
+      <c r="H65" t="n">
         <v>11.65666666666669</v>
       </c>
-      <c r="H65" t="n">
-        <v>0</v>
-      </c>
       <c r="I65" t="n">
         <v>0</v>
       </c>
-      <c r="J65" t="inlineStr"/>
-      <c r="K65" t="n">
-        <v>11.8</v>
-      </c>
-      <c r="L65" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
-      <c r="M65" t="n">
+      <c r="J65" t="n">
+        <v>0</v>
+      </c>
+      <c r="K65" t="inlineStr"/>
+      <c r="L65" t="inlineStr"/>
+      <c r="M65" t="inlineStr"/>
+      <c r="N65" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2698,24 +2975,21 @@
         <v>251.3883</v>
       </c>
       <c r="G66" t="n">
+        <v>11.74</v>
+      </c>
+      <c r="H66" t="n">
         <v>11.66500000000002</v>
       </c>
-      <c r="H66" t="n">
-        <v>0</v>
-      </c>
       <c r="I66" t="n">
         <v>0</v>
       </c>
-      <c r="J66" t="inlineStr"/>
-      <c r="K66" t="n">
-        <v>11.8</v>
-      </c>
-      <c r="L66" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
-      <c r="M66" t="n">
+      <c r="J66" t="n">
+        <v>0</v>
+      </c>
+      <c r="K66" t="inlineStr"/>
+      <c r="L66" t="inlineStr"/>
+      <c r="M66" t="inlineStr"/>
+      <c r="N66" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2739,18 +3013,21 @@
         <v>4201.680672268908</v>
       </c>
       <c r="G67" t="n">
+        <v>11.75333333333333</v>
+      </c>
+      <c r="H67" t="n">
         <v>11.67166666666669</v>
       </c>
-      <c r="H67" t="n">
-        <v>0</v>
-      </c>
       <c r="I67" t="n">
         <v>0</v>
       </c>
-      <c r="J67" t="inlineStr"/>
+      <c r="J67" t="n">
+        <v>0</v>
+      </c>
       <c r="K67" t="inlineStr"/>
       <c r="L67" t="inlineStr"/>
-      <c r="M67" t="n">
+      <c r="M67" t="inlineStr"/>
+      <c r="N67" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2774,18 +3051,21 @@
         <v>1733.9769</v>
       </c>
       <c r="G68" t="n">
+        <v>11.76</v>
+      </c>
+      <c r="H68" t="n">
         <v>11.67666666666669</v>
       </c>
-      <c r="H68" t="n">
-        <v>0</v>
-      </c>
       <c r="I68" t="n">
         <v>0</v>
       </c>
-      <c r="J68" t="inlineStr"/>
+      <c r="J68" t="n">
+        <v>0</v>
+      </c>
       <c r="K68" t="inlineStr"/>
       <c r="L68" t="inlineStr"/>
-      <c r="M68" t="n">
+      <c r="M68" t="inlineStr"/>
+      <c r="N68" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2809,18 +3089,21 @@
         <v>58830</v>
       </c>
       <c r="G69" t="n">
+        <v>11.76</v>
+      </c>
+      <c r="H69" t="n">
         <v>11.67833333333335</v>
       </c>
-      <c r="H69" t="n">
-        <v>0</v>
-      </c>
       <c r="I69" t="n">
         <v>0</v>
       </c>
-      <c r="J69" t="inlineStr"/>
+      <c r="J69" t="n">
+        <v>0</v>
+      </c>
       <c r="K69" t="inlineStr"/>
       <c r="L69" t="inlineStr"/>
-      <c r="M69" t="n">
+      <c r="M69" t="inlineStr"/>
+      <c r="N69" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2844,18 +3127,21 @@
         <v>123789.0642</v>
       </c>
       <c r="G70" t="n">
+        <v>11.76666666666667</v>
+      </c>
+      <c r="H70" t="n">
         <v>11.68333333333335</v>
       </c>
-      <c r="H70" t="n">
-        <v>0</v>
-      </c>
       <c r="I70" t="n">
         <v>0</v>
       </c>
-      <c r="J70" t="inlineStr"/>
+      <c r="J70" t="n">
+        <v>0</v>
+      </c>
       <c r="K70" t="inlineStr"/>
       <c r="L70" t="inlineStr"/>
-      <c r="M70" t="n">
+      <c r="M70" t="inlineStr"/>
+      <c r="N70" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2879,18 +3165,21 @@
         <v>89823.7029</v>
       </c>
       <c r="G71" t="n">
+        <v>11.78</v>
+      </c>
+      <c r="H71" t="n">
         <v>11.69000000000002</v>
       </c>
-      <c r="H71" t="n">
-        <v>0</v>
-      </c>
       <c r="I71" t="n">
         <v>0</v>
       </c>
-      <c r="J71" t="inlineStr"/>
+      <c r="J71" t="n">
+        <v>0</v>
+      </c>
       <c r="K71" t="inlineStr"/>
       <c r="L71" t="inlineStr"/>
-      <c r="M71" t="n">
+      <c r="M71" t="inlineStr"/>
+      <c r="N71" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2914,18 +3203,21 @@
         <v>49.9214</v>
       </c>
       <c r="G72" t="n">
+        <v>11.79333333333333</v>
+      </c>
+      <c r="H72" t="n">
         <v>11.69500000000002</v>
       </c>
-      <c r="H72" t="n">
-        <v>0</v>
-      </c>
       <c r="I72" t="n">
         <v>0</v>
       </c>
-      <c r="J72" t="inlineStr"/>
+      <c r="J72" t="n">
+        <v>0</v>
+      </c>
       <c r="K72" t="inlineStr"/>
       <c r="L72" t="inlineStr"/>
-      <c r="M72" t="n">
+      <c r="M72" t="inlineStr"/>
+      <c r="N72" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2949,18 +3241,21 @@
         <v>154646.1387492187</v>
       </c>
       <c r="G73" t="n">
+        <v>11.82</v>
+      </c>
+      <c r="H73" t="n">
         <v>11.70333333333335</v>
       </c>
-      <c r="H73" t="n">
-        <v>0</v>
-      </c>
       <c r="I73" t="n">
         <v>0</v>
       </c>
-      <c r="J73" t="inlineStr"/>
+      <c r="J73" t="n">
+        <v>0</v>
+      </c>
       <c r="K73" t="inlineStr"/>
       <c r="L73" t="inlineStr"/>
-      <c r="M73" t="n">
+      <c r="M73" t="inlineStr"/>
+      <c r="N73" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2984,18 +3279,21 @@
         <v>1980.0993</v>
       </c>
       <c r="G74" t="n">
+        <v>11.84666666666667</v>
+      </c>
+      <c r="H74" t="n">
         <v>11.71333333333335</v>
       </c>
-      <c r="H74" t="n">
-        <v>0</v>
-      </c>
       <c r="I74" t="n">
         <v>0</v>
       </c>
-      <c r="J74" t="inlineStr"/>
+      <c r="J74" t="n">
+        <v>0</v>
+      </c>
       <c r="K74" t="inlineStr"/>
       <c r="L74" t="inlineStr"/>
-      <c r="M74" t="n">
+      <c r="M74" t="inlineStr"/>
+      <c r="N74" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3019,18 +3317,21 @@
         <v>134024.0411</v>
       </c>
       <c r="G75" t="n">
+        <v>11.86666666666667</v>
+      </c>
+      <c r="H75" t="n">
         <v>11.72000000000002</v>
       </c>
-      <c r="H75" t="n">
-        <v>0</v>
-      </c>
       <c r="I75" t="n">
         <v>0</v>
       </c>
-      <c r="J75" t="inlineStr"/>
+      <c r="J75" t="n">
+        <v>0</v>
+      </c>
       <c r="K75" t="inlineStr"/>
       <c r="L75" t="inlineStr"/>
-      <c r="M75" t="n">
+      <c r="M75" t="inlineStr"/>
+      <c r="N75" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3054,18 +3355,21 @@
         <v>1000</v>
       </c>
       <c r="G76" t="n">
+        <v>11.88666666666667</v>
+      </c>
+      <c r="H76" t="n">
         <v>11.72833333333335</v>
       </c>
-      <c r="H76" t="n">
-        <v>0</v>
-      </c>
       <c r="I76" t="n">
         <v>0</v>
       </c>
-      <c r="J76" t="inlineStr"/>
+      <c r="J76" t="n">
+        <v>0</v>
+      </c>
       <c r="K76" t="inlineStr"/>
       <c r="L76" t="inlineStr"/>
-      <c r="M76" t="n">
+      <c r="M76" t="inlineStr"/>
+      <c r="N76" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3089,18 +3393,21 @@
         <v>41487.3614</v>
       </c>
       <c r="G77" t="n">
+        <v>11.9</v>
+      </c>
+      <c r="H77" t="n">
         <v>11.73500000000002</v>
       </c>
-      <c r="H77" t="n">
-        <v>0</v>
-      </c>
       <c r="I77" t="n">
         <v>0</v>
       </c>
-      <c r="J77" t="inlineStr"/>
+      <c r="J77" t="n">
+        <v>0</v>
+      </c>
       <c r="K77" t="inlineStr"/>
       <c r="L77" t="inlineStr"/>
-      <c r="M77" t="n">
+      <c r="M77" t="inlineStr"/>
+      <c r="N77" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3124,18 +3431,21 @@
         <v>11937.9435</v>
       </c>
       <c r="G78" t="n">
+        <v>11.92</v>
+      </c>
+      <c r="H78" t="n">
         <v>11.74333333333335</v>
       </c>
-      <c r="H78" t="n">
-        <v>0</v>
-      </c>
       <c r="I78" t="n">
         <v>0</v>
       </c>
-      <c r="J78" t="inlineStr"/>
+      <c r="J78" t="n">
+        <v>0</v>
+      </c>
       <c r="K78" t="inlineStr"/>
       <c r="L78" t="inlineStr"/>
-      <c r="M78" t="n">
+      <c r="M78" t="inlineStr"/>
+      <c r="N78" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3159,18 +3469,21 @@
         <v>17840.68947851239</v>
       </c>
       <c r="G79" t="n">
+        <v>11.94</v>
+      </c>
+      <c r="H79" t="n">
         <v>11.75000000000002</v>
       </c>
-      <c r="H79" t="n">
-        <v>0</v>
-      </c>
       <c r="I79" t="n">
         <v>0</v>
       </c>
-      <c r="J79" t="inlineStr"/>
+      <c r="J79" t="n">
+        <v>0</v>
+      </c>
       <c r="K79" t="inlineStr"/>
       <c r="L79" t="inlineStr"/>
-      <c r="M79" t="n">
+      <c r="M79" t="inlineStr"/>
+      <c r="N79" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3194,18 +3507,21 @@
         <v>85476.65089999999</v>
       </c>
       <c r="G80" t="n">
+        <v>11.96</v>
+      </c>
+      <c r="H80" t="n">
         <v>11.75666666666669</v>
       </c>
-      <c r="H80" t="n">
-        <v>0</v>
-      </c>
       <c r="I80" t="n">
         <v>0</v>
       </c>
-      <c r="J80" t="inlineStr"/>
+      <c r="J80" t="n">
+        <v>0</v>
+      </c>
       <c r="K80" t="inlineStr"/>
       <c r="L80" t="inlineStr"/>
-      <c r="M80" t="n">
+      <c r="M80" t="inlineStr"/>
+      <c r="N80" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3229,18 +3545,21 @@
         <v>102072.4842</v>
       </c>
       <c r="G81" t="n">
+        <v>11.98</v>
+      </c>
+      <c r="H81" t="n">
         <v>11.76500000000002</v>
       </c>
-      <c r="H81" t="n">
-        <v>0</v>
-      </c>
       <c r="I81" t="n">
         <v>0</v>
       </c>
-      <c r="J81" t="inlineStr"/>
+      <c r="J81" t="n">
+        <v>0</v>
+      </c>
       <c r="K81" t="inlineStr"/>
       <c r="L81" t="inlineStr"/>
-      <c r="M81" t="n">
+      <c r="M81" t="inlineStr"/>
+      <c r="N81" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3264,18 +3583,21 @@
         <v>3539</v>
       </c>
       <c r="G82" t="n">
+        <v>11.99333333333333</v>
+      </c>
+      <c r="H82" t="n">
         <v>11.77000000000002</v>
       </c>
-      <c r="H82" t="n">
-        <v>0</v>
-      </c>
       <c r="I82" t="n">
         <v>0</v>
       </c>
-      <c r="J82" t="inlineStr"/>
+      <c r="J82" t="n">
+        <v>0</v>
+      </c>
       <c r="K82" t="inlineStr"/>
       <c r="L82" t="inlineStr"/>
-      <c r="M82" t="n">
+      <c r="M82" t="inlineStr"/>
+      <c r="N82" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3299,18 +3621,21 @@
         <v>41</v>
       </c>
       <c r="G83" t="n">
+        <v>12.02666666666667</v>
+      </c>
+      <c r="H83" t="n">
         <v>11.78166666666669</v>
       </c>
-      <c r="H83" t="n">
-        <v>0</v>
-      </c>
       <c r="I83" t="n">
         <v>0</v>
       </c>
-      <c r="J83" t="inlineStr"/>
+      <c r="J83" t="n">
+        <v>0</v>
+      </c>
       <c r="K83" t="inlineStr"/>
       <c r="L83" t="inlineStr"/>
-      <c r="M83" t="n">
+      <c r="M83" t="inlineStr"/>
+      <c r="N83" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3334,18 +3659,21 @@
         <v>47091.4205</v>
       </c>
       <c r="G84" t="n">
+        <v>12.06666666666667</v>
+      </c>
+      <c r="H84" t="n">
         <v>11.79333333333335</v>
       </c>
-      <c r="H84" t="n">
-        <v>0</v>
-      </c>
       <c r="I84" t="n">
         <v>0</v>
       </c>
-      <c r="J84" t="inlineStr"/>
+      <c r="J84" t="n">
+        <v>1</v>
+      </c>
       <c r="K84" t="inlineStr"/>
       <c r="L84" t="inlineStr"/>
-      <c r="M84" t="n">
+      <c r="M84" t="inlineStr"/>
+      <c r="N84" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3369,18 +3697,21 @@
         <v>2500</v>
       </c>
       <c r="G85" t="n">
+        <v>12.08666666666667</v>
+      </c>
+      <c r="H85" t="n">
         <v>11.80166666666668</v>
       </c>
-      <c r="H85" t="n">
-        <v>0</v>
-      </c>
       <c r="I85" t="n">
         <v>0</v>
       </c>
-      <c r="J85" t="inlineStr"/>
+      <c r="J85" t="n">
+        <v>1</v>
+      </c>
       <c r="K85" t="inlineStr"/>
       <c r="L85" t="inlineStr"/>
-      <c r="M85" t="n">
+      <c r="M85" t="inlineStr"/>
+      <c r="N85" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3404,18 +3735,21 @@
         <v>69267.75992148761</v>
       </c>
       <c r="G86" t="n">
+        <v>12.09333333333333</v>
+      </c>
+      <c r="H86" t="n">
         <v>11.80833333333335</v>
       </c>
-      <c r="H86" t="n">
-        <v>0</v>
-      </c>
       <c r="I86" t="n">
         <v>0</v>
       </c>
-      <c r="J86" t="inlineStr"/>
+      <c r="J86" t="n">
+        <v>1</v>
+      </c>
       <c r="K86" t="inlineStr"/>
       <c r="L86" t="inlineStr"/>
-      <c r="M86" t="n">
+      <c r="M86" t="inlineStr"/>
+      <c r="N86" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3439,18 +3773,21 @@
         <v>3350</v>
       </c>
       <c r="G87" t="n">
+        <v>12.1</v>
+      </c>
+      <c r="H87" t="n">
         <v>11.81500000000002</v>
       </c>
-      <c r="H87" t="n">
-        <v>0</v>
-      </c>
       <c r="I87" t="n">
         <v>0</v>
       </c>
-      <c r="J87" t="inlineStr"/>
+      <c r="J87" t="n">
+        <v>1</v>
+      </c>
       <c r="K87" t="inlineStr"/>
       <c r="L87" t="inlineStr"/>
-      <c r="M87" t="n">
+      <c r="M87" t="inlineStr"/>
+      <c r="N87" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3474,18 +3811,21 @@
         <v>25869.7773</v>
       </c>
       <c r="G88" t="n">
+        <v>12.08666666666667</v>
+      </c>
+      <c r="H88" t="n">
         <v>11.82166666666668</v>
       </c>
-      <c r="H88" t="n">
-        <v>0</v>
-      </c>
       <c r="I88" t="n">
         <v>0</v>
       </c>
-      <c r="J88" t="inlineStr"/>
+      <c r="J88" t="n">
+        <v>1</v>
+      </c>
       <c r="K88" t="inlineStr"/>
       <c r="L88" t="inlineStr"/>
-      <c r="M88" t="n">
+      <c r="M88" t="inlineStr"/>
+      <c r="N88" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3509,18 +3849,21 @@
         <v>2303.2476</v>
       </c>
       <c r="G89" t="n">
+        <v>12.08666666666667</v>
+      </c>
+      <c r="H89" t="n">
         <v>11.82833333333335</v>
       </c>
-      <c r="H89" t="n">
-        <v>0</v>
-      </c>
       <c r="I89" t="n">
         <v>0</v>
       </c>
-      <c r="J89" t="inlineStr"/>
+      <c r="J89" t="n">
+        <v>1</v>
+      </c>
       <c r="K89" t="inlineStr"/>
       <c r="L89" t="inlineStr"/>
-      <c r="M89" t="n">
+      <c r="M89" t="inlineStr"/>
+      <c r="N89" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3544,18 +3887,21 @@
         <v>5819.577</v>
       </c>
       <c r="G90" t="n">
+        <v>12.09333333333333</v>
+      </c>
+      <c r="H90" t="n">
         <v>11.83500000000002</v>
       </c>
-      <c r="H90" t="n">
-        <v>0</v>
-      </c>
       <c r="I90" t="n">
         <v>0</v>
       </c>
-      <c r="J90" t="inlineStr"/>
+      <c r="J90" t="n">
+        <v>0</v>
+      </c>
       <c r="K90" t="inlineStr"/>
       <c r="L90" t="inlineStr"/>
-      <c r="M90" t="n">
+      <c r="M90" t="inlineStr"/>
+      <c r="N90" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3579,18 +3925,21 @@
         <v>189553.5962</v>
       </c>
       <c r="G91" t="n">
+        <v>12.08666666666667</v>
+      </c>
+      <c r="H91" t="n">
         <v>11.84000000000001</v>
       </c>
-      <c r="H91" t="n">
-        <v>0</v>
-      </c>
       <c r="I91" t="n">
         <v>0</v>
       </c>
-      <c r="J91" t="inlineStr"/>
+      <c r="J91" t="n">
+        <v>1</v>
+      </c>
       <c r="K91" t="inlineStr"/>
       <c r="L91" t="inlineStr"/>
-      <c r="M91" t="n">
+      <c r="M91" t="inlineStr"/>
+      <c r="N91" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3614,18 +3963,21 @@
         <v>9946.4038</v>
       </c>
       <c r="G92" t="n">
+        <v>12.08</v>
+      </c>
+      <c r="H92" t="n">
         <v>11.84500000000001</v>
       </c>
-      <c r="H92" t="n">
-        <v>0</v>
-      </c>
       <c r="I92" t="n">
         <v>0</v>
       </c>
-      <c r="J92" t="inlineStr"/>
+      <c r="J92" t="n">
+        <v>0</v>
+      </c>
       <c r="K92" t="inlineStr"/>
       <c r="L92" t="inlineStr"/>
-      <c r="M92" t="n">
+      <c r="M92" t="inlineStr"/>
+      <c r="N92" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3649,18 +4001,21 @@
         <v>210</v>
       </c>
       <c r="G93" t="n">
+        <v>12.08</v>
+      </c>
+      <c r="H93" t="n">
         <v>11.85333333333335</v>
       </c>
-      <c r="H93" t="n">
-        <v>0</v>
-      </c>
       <c r="I93" t="n">
         <v>0</v>
       </c>
-      <c r="J93" t="inlineStr"/>
+      <c r="J93" t="n">
+        <v>1</v>
+      </c>
       <c r="K93" t="inlineStr"/>
       <c r="L93" t="inlineStr"/>
-      <c r="M93" t="n">
+      <c r="M93" t="inlineStr"/>
+      <c r="N93" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3684,18 +4039,21 @@
         <v>80376.11629999999</v>
       </c>
       <c r="G94" t="n">
+        <v>12.07333333333333</v>
+      </c>
+      <c r="H94" t="n">
         <v>11.85833333333335</v>
       </c>
-      <c r="H94" t="n">
-        <v>0</v>
-      </c>
       <c r="I94" t="n">
         <v>0</v>
       </c>
-      <c r="J94" t="inlineStr"/>
+      <c r="J94" t="n">
+        <v>1</v>
+      </c>
       <c r="K94" t="inlineStr"/>
       <c r="L94" t="inlineStr"/>
-      <c r="M94" t="n">
+      <c r="M94" t="inlineStr"/>
+      <c r="N94" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3719,18 +4077,21 @@
         <v>42788.99898677686</v>
       </c>
       <c r="G95" t="n">
+        <v>12.07333333333333</v>
+      </c>
+      <c r="H95" t="n">
         <v>11.86500000000001</v>
       </c>
-      <c r="H95" t="n">
-        <v>0</v>
-      </c>
       <c r="I95" t="n">
         <v>0</v>
       </c>
-      <c r="J95" t="inlineStr"/>
+      <c r="J95" t="n">
+        <v>0</v>
+      </c>
       <c r="K95" t="inlineStr"/>
       <c r="L95" t="inlineStr"/>
-      <c r="M95" t="n">
+      <c r="M95" t="inlineStr"/>
+      <c r="N95" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3754,18 +4115,21 @@
         <v>31119.63199173554</v>
       </c>
       <c r="G96" t="n">
+        <v>12.06666666666667</v>
+      </c>
+      <c r="H96" t="n">
         <v>11.87166666666668</v>
       </c>
-      <c r="H96" t="n">
-        <v>0</v>
-      </c>
       <c r="I96" t="n">
         <v>0</v>
       </c>
-      <c r="J96" t="inlineStr"/>
+      <c r="J96" t="n">
+        <v>1</v>
+      </c>
       <c r="K96" t="inlineStr"/>
       <c r="L96" t="inlineStr"/>
-      <c r="M96" t="n">
+      <c r="M96" t="inlineStr"/>
+      <c r="N96" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3789,18 +4153,21 @@
         <v>63340.8259</v>
       </c>
       <c r="G97" t="n">
+        <v>12.06</v>
+      </c>
+      <c r="H97" t="n">
         <v>11.87666666666668</v>
       </c>
-      <c r="H97" t="n">
-        <v>0</v>
-      </c>
       <c r="I97" t="n">
         <v>0</v>
       </c>
-      <c r="J97" t="inlineStr"/>
+      <c r="J97" t="n">
+        <v>1</v>
+      </c>
       <c r="K97" t="inlineStr"/>
       <c r="L97" t="inlineStr"/>
-      <c r="M97" t="n">
+      <c r="M97" t="inlineStr"/>
+      <c r="N97" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3824,18 +4191,21 @@
         <v>29649.5695</v>
       </c>
       <c r="G98" t="n">
+        <v>12.03333333333333</v>
+      </c>
+      <c r="H98" t="n">
         <v>11.88000000000001</v>
       </c>
-      <c r="H98" t="n">
-        <v>0</v>
-      </c>
       <c r="I98" t="n">
         <v>0</v>
       </c>
-      <c r="J98" t="inlineStr"/>
+      <c r="J98" t="n">
+        <v>1</v>
+      </c>
       <c r="K98" t="inlineStr"/>
       <c r="L98" t="inlineStr"/>
-      <c r="M98" t="n">
+      <c r="M98" t="inlineStr"/>
+      <c r="N98" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3859,18 +4229,21 @@
         <v>23602.5531</v>
       </c>
       <c r="G99" t="n">
+        <v>12.00666666666667</v>
+      </c>
+      <c r="H99" t="n">
         <v>11.88333333333334</v>
       </c>
-      <c r="H99" t="n">
-        <v>0</v>
-      </c>
       <c r="I99" t="n">
         <v>0</v>
       </c>
-      <c r="J99" t="inlineStr"/>
+      <c r="J99" t="n">
+        <v>1</v>
+      </c>
       <c r="K99" t="inlineStr"/>
       <c r="L99" t="inlineStr"/>
-      <c r="M99" t="n">
+      <c r="M99" t="inlineStr"/>
+      <c r="N99" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3894,18 +4267,21 @@
         <v>24718.9033</v>
       </c>
       <c r="G100" t="n">
+        <v>11.99333333333333</v>
+      </c>
+      <c r="H100" t="n">
         <v>11.88666666666668</v>
       </c>
-      <c r="H100" t="n">
-        <v>0</v>
-      </c>
       <c r="I100" t="n">
         <v>0</v>
       </c>
-      <c r="J100" t="inlineStr"/>
+      <c r="J100" t="n">
+        <v>1</v>
+      </c>
       <c r="K100" t="inlineStr"/>
       <c r="L100" t="inlineStr"/>
-      <c r="M100" t="n">
+      <c r="M100" t="inlineStr"/>
+      <c r="N100" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3929,18 +4305,21 @@
         <v>25652.1657</v>
       </c>
       <c r="G101" t="n">
+        <v>11.98666666666667</v>
+      </c>
+      <c r="H101" t="n">
         <v>11.89000000000001</v>
       </c>
-      <c r="H101" t="n">
-        <v>0</v>
-      </c>
       <c r="I101" t="n">
         <v>0</v>
       </c>
-      <c r="J101" t="inlineStr"/>
+      <c r="J101" t="n">
+        <v>1</v>
+      </c>
       <c r="K101" t="inlineStr"/>
       <c r="L101" t="inlineStr"/>
-      <c r="M101" t="n">
+      <c r="M101" t="inlineStr"/>
+      <c r="N101" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3964,18 +4343,21 @@
         <v>8333.3334</v>
       </c>
       <c r="G102" t="n">
+        <v>11.98666666666667</v>
+      </c>
+      <c r="H102" t="n">
         <v>11.89500000000001</v>
       </c>
-      <c r="H102" t="n">
-        <v>0</v>
-      </c>
       <c r="I102" t="n">
         <v>0</v>
       </c>
-      <c r="J102" t="inlineStr"/>
+      <c r="J102" t="n">
+        <v>0</v>
+      </c>
       <c r="K102" t="inlineStr"/>
       <c r="L102" t="inlineStr"/>
-      <c r="M102" t="n">
+      <c r="M102" t="inlineStr"/>
+      <c r="N102" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3999,18 +4381,21 @@
         <v>1591.9618</v>
       </c>
       <c r="G103" t="n">
+        <v>11.98666666666667</v>
+      </c>
+      <c r="H103" t="n">
         <v>11.89833333333334</v>
       </c>
-      <c r="H103" t="n">
-        <v>0</v>
-      </c>
       <c r="I103" t="n">
         <v>0</v>
       </c>
-      <c r="J103" t="inlineStr"/>
+      <c r="J103" t="n">
+        <v>0</v>
+      </c>
       <c r="K103" t="inlineStr"/>
       <c r="L103" t="inlineStr"/>
-      <c r="M103" t="n">
+      <c r="M103" t="inlineStr"/>
+      <c r="N103" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4034,18 +4419,21 @@
         <v>117.7310924369748</v>
       </c>
       <c r="G104" t="n">
+        <v>11.97333333333333</v>
+      </c>
+      <c r="H104" t="n">
         <v>11.90166666666667</v>
       </c>
-      <c r="H104" t="n">
-        <v>0</v>
-      </c>
       <c r="I104" t="n">
         <v>0</v>
       </c>
-      <c r="J104" t="inlineStr"/>
+      <c r="J104" t="n">
+        <v>0</v>
+      </c>
       <c r="K104" t="inlineStr"/>
       <c r="L104" t="inlineStr"/>
-      <c r="M104" t="n">
+      <c r="M104" t="inlineStr"/>
+      <c r="N104" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4069,18 +4457,21 @@
         <v>117.8151260504202</v>
       </c>
       <c r="G105" t="n">
+        <v>11.96</v>
+      </c>
+      <c r="H105" t="n">
         <v>11.905</v>
       </c>
-      <c r="H105" t="n">
-        <v>0</v>
-      </c>
       <c r="I105" t="n">
         <v>0</v>
       </c>
-      <c r="J105" t="inlineStr"/>
+      <c r="J105" t="n">
+        <v>0</v>
+      </c>
       <c r="K105" t="inlineStr"/>
       <c r="L105" t="inlineStr"/>
-      <c r="M105" t="n">
+      <c r="M105" t="inlineStr"/>
+      <c r="N105" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4104,18 +4495,21 @@
         <v>4948.4236</v>
       </c>
       <c r="G106" t="n">
+        <v>11.95333333333334</v>
+      </c>
+      <c r="H106" t="n">
         <v>11.90666666666667</v>
       </c>
-      <c r="H106" t="n">
-        <v>0</v>
-      </c>
       <c r="I106" t="n">
         <v>0</v>
       </c>
-      <c r="J106" t="inlineStr"/>
+      <c r="J106" t="n">
+        <v>0</v>
+      </c>
       <c r="K106" t="inlineStr"/>
       <c r="L106" t="inlineStr"/>
-      <c r="M106" t="n">
+      <c r="M106" t="inlineStr"/>
+      <c r="N106" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4139,18 +4533,21 @@
         <v>146865</v>
       </c>
       <c r="G107" t="n">
+        <v>11.94666666666667</v>
+      </c>
+      <c r="H107" t="n">
         <v>11.90833333333333</v>
       </c>
-      <c r="H107" t="n">
-        <v>0</v>
-      </c>
       <c r="I107" t="n">
         <v>0</v>
       </c>
-      <c r="J107" t="inlineStr"/>
+      <c r="J107" t="n">
+        <v>0</v>
+      </c>
       <c r="K107" t="inlineStr"/>
       <c r="L107" t="inlineStr"/>
-      <c r="M107" t="n">
+      <c r="M107" t="inlineStr"/>
+      <c r="N107" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4174,18 +4571,21 @@
         <v>270316.671</v>
       </c>
       <c r="G108" t="n">
+        <v>11.92</v>
+      </c>
+      <c r="H108" t="n">
         <v>11.90833333333333</v>
       </c>
-      <c r="H108" t="n">
-        <v>0</v>
-      </c>
       <c r="I108" t="n">
         <v>0</v>
       </c>
-      <c r="J108" t="inlineStr"/>
+      <c r="J108" t="n">
+        <v>0</v>
+      </c>
       <c r="K108" t="inlineStr"/>
       <c r="L108" t="inlineStr"/>
-      <c r="M108" t="n">
+      <c r="M108" t="inlineStr"/>
+      <c r="N108" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4209,18 +4609,21 @@
         <v>100000</v>
       </c>
       <c r="G109" t="n">
+        <v>11.9</v>
+      </c>
+      <c r="H109" t="n">
         <v>11.90833333333333</v>
       </c>
-      <c r="H109" t="n">
-        <v>0</v>
-      </c>
       <c r="I109" t="n">
         <v>0</v>
       </c>
-      <c r="J109" t="inlineStr"/>
+      <c r="J109" t="n">
+        <v>0</v>
+      </c>
       <c r="K109" t="inlineStr"/>
       <c r="L109" t="inlineStr"/>
-      <c r="M109" t="n">
+      <c r="M109" t="inlineStr"/>
+      <c r="N109" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4244,18 +4647,21 @@
         <v>100000</v>
       </c>
       <c r="G110" t="n">
+        <v>11.87333333333333</v>
+      </c>
+      <c r="H110" t="n">
         <v>11.90833333333333</v>
       </c>
-      <c r="H110" t="n">
-        <v>0</v>
-      </c>
       <c r="I110" t="n">
         <v>0</v>
       </c>
-      <c r="J110" t="inlineStr"/>
+      <c r="J110" t="n">
+        <v>0</v>
+      </c>
       <c r="K110" t="inlineStr"/>
       <c r="L110" t="inlineStr"/>
-      <c r="M110" t="n">
+      <c r="M110" t="inlineStr"/>
+      <c r="N110" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4279,18 +4685,21 @@
         <v>74084.7746</v>
       </c>
       <c r="G111" t="n">
+        <v>11.84666666666667</v>
+      </c>
+      <c r="H111" t="n">
         <v>11.90833333333333</v>
       </c>
-      <c r="H111" t="n">
-        <v>0</v>
-      </c>
       <c r="I111" t="n">
         <v>0</v>
       </c>
-      <c r="J111" t="inlineStr"/>
+      <c r="J111" t="n">
+        <v>0</v>
+      </c>
       <c r="K111" t="inlineStr"/>
       <c r="L111" t="inlineStr"/>
-      <c r="M111" t="n">
+      <c r="M111" t="inlineStr"/>
+      <c r="N111" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4314,18 +4723,21 @@
         <v>9014.7901</v>
       </c>
       <c r="G112" t="n">
+        <v>11.83333333333334</v>
+      </c>
+      <c r="H112" t="n">
         <v>11.91</v>
       </c>
-      <c r="H112" t="n">
-        <v>0</v>
-      </c>
       <c r="I112" t="n">
         <v>0</v>
       </c>
-      <c r="J112" t="inlineStr"/>
+      <c r="J112" t="n">
+        <v>0</v>
+      </c>
       <c r="K112" t="inlineStr"/>
       <c r="L112" t="inlineStr"/>
-      <c r="M112" t="n">
+      <c r="M112" t="inlineStr"/>
+      <c r="N112" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4349,18 +4761,21 @@
         <v>100</v>
       </c>
       <c r="G113" t="n">
+        <v>11.82666666666667</v>
+      </c>
+      <c r="H113" t="n">
         <v>11.91166666666666</v>
       </c>
-      <c r="H113" t="n">
-        <v>0</v>
-      </c>
       <c r="I113" t="n">
         <v>0</v>
       </c>
-      <c r="J113" t="inlineStr"/>
+      <c r="J113" t="n">
+        <v>0</v>
+      </c>
       <c r="K113" t="inlineStr"/>
       <c r="L113" t="inlineStr"/>
-      <c r="M113" t="n">
+      <c r="M113" t="inlineStr"/>
+      <c r="N113" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4384,18 +4799,21 @@
         <v>3360</v>
       </c>
       <c r="G114" t="n">
+        <v>11.82</v>
+      </c>
+      <c r="H114" t="n">
         <v>11.91333333333333</v>
       </c>
-      <c r="H114" t="n">
-        <v>0</v>
-      </c>
       <c r="I114" t="n">
         <v>0</v>
       </c>
-      <c r="J114" t="inlineStr"/>
+      <c r="J114" t="n">
+        <v>0</v>
+      </c>
       <c r="K114" t="inlineStr"/>
       <c r="L114" t="inlineStr"/>
-      <c r="M114" t="n">
+      <c r="M114" t="inlineStr"/>
+      <c r="N114" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4419,18 +4837,21 @@
         <v>8301.961799999999</v>
       </c>
       <c r="G115" t="n">
+        <v>11.80666666666667</v>
+      </c>
+      <c r="H115" t="n">
         <v>11.91333333333333</v>
       </c>
-      <c r="H115" t="n">
-        <v>0</v>
-      </c>
       <c r="I115" t="n">
         <v>0</v>
       </c>
-      <c r="J115" t="inlineStr"/>
+      <c r="J115" t="n">
+        <v>0</v>
+      </c>
       <c r="K115" t="inlineStr"/>
       <c r="L115" t="inlineStr"/>
-      <c r="M115" t="n">
+      <c r="M115" t="inlineStr"/>
+      <c r="N115" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4454,18 +4875,21 @@
         <v>1590</v>
       </c>
       <c r="G116" t="n">
+        <v>11.8</v>
+      </c>
+      <c r="H116" t="n">
         <v>11.91499999999999</v>
       </c>
-      <c r="H116" t="n">
-        <v>0</v>
-      </c>
       <c r="I116" t="n">
         <v>0</v>
       </c>
-      <c r="J116" t="inlineStr"/>
+      <c r="J116" t="n">
+        <v>0</v>
+      </c>
       <c r="K116" t="inlineStr"/>
       <c r="L116" t="inlineStr"/>
-      <c r="M116" t="n">
+      <c r="M116" t="inlineStr"/>
+      <c r="N116" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4489,18 +4913,21 @@
         <v>100000</v>
       </c>
       <c r="G117" t="n">
+        <v>11.78666666666667</v>
+      </c>
+      <c r="H117" t="n">
         <v>11.91666666666666</v>
       </c>
-      <c r="H117" t="n">
-        <v>0</v>
-      </c>
       <c r="I117" t="n">
         <v>0</v>
       </c>
-      <c r="J117" t="inlineStr"/>
+      <c r="J117" t="n">
+        <v>0</v>
+      </c>
       <c r="K117" t="inlineStr"/>
       <c r="L117" t="inlineStr"/>
-      <c r="M117" t="n">
+      <c r="M117" t="inlineStr"/>
+      <c r="N117" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4524,18 +4951,21 @@
         <v>21436.8989</v>
       </c>
       <c r="G118" t="n">
+        <v>11.77333333333334</v>
+      </c>
+      <c r="H118" t="n">
         <v>11.91666666666666</v>
       </c>
-      <c r="H118" t="n">
-        <v>0</v>
-      </c>
       <c r="I118" t="n">
         <v>0</v>
       </c>
-      <c r="J118" t="inlineStr"/>
+      <c r="J118" t="n">
+        <v>0</v>
+      </c>
       <c r="K118" t="inlineStr"/>
       <c r="L118" t="inlineStr"/>
-      <c r="M118" t="n">
+      <c r="M118" t="inlineStr"/>
+      <c r="N118" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4559,18 +4989,21 @@
         <v>80546.3033</v>
       </c>
       <c r="G119" t="n">
+        <v>11.76</v>
+      </c>
+      <c r="H119" t="n">
         <v>11.91666666666666</v>
       </c>
-      <c r="H119" t="n">
-        <v>0</v>
-      </c>
       <c r="I119" t="n">
         <v>0</v>
       </c>
-      <c r="J119" t="inlineStr"/>
+      <c r="J119" t="n">
+        <v>0</v>
+      </c>
       <c r="K119" t="inlineStr"/>
       <c r="L119" t="inlineStr"/>
-      <c r="M119" t="n">
+      <c r="M119" t="inlineStr"/>
+      <c r="N119" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4594,18 +5027,21 @@
         <v>235.5462</v>
       </c>
       <c r="G120" t="n">
+        <v>11.74</v>
+      </c>
+      <c r="H120" t="n">
         <v>11.91499999999999</v>
       </c>
-      <c r="H120" t="n">
-        <v>0</v>
-      </c>
       <c r="I120" t="n">
         <v>0</v>
       </c>
-      <c r="J120" t="inlineStr"/>
+      <c r="J120" t="n">
+        <v>0</v>
+      </c>
       <c r="K120" t="inlineStr"/>
       <c r="L120" t="inlineStr"/>
-      <c r="M120" t="n">
+      <c r="M120" t="inlineStr"/>
+      <c r="N120" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4629,18 +5065,21 @@
         <v>8696.2371</v>
       </c>
       <c r="G121" t="n">
+        <v>11.72666666666666</v>
+      </c>
+      <c r="H121" t="n">
         <v>11.91333333333333</v>
       </c>
-      <c r="H121" t="n">
-        <v>0</v>
-      </c>
       <c r="I121" t="n">
         <v>0</v>
       </c>
-      <c r="J121" t="inlineStr"/>
+      <c r="J121" t="n">
+        <v>0</v>
+      </c>
       <c r="K121" t="inlineStr"/>
       <c r="L121" t="inlineStr"/>
-      <c r="M121" t="n">
+      <c r="M121" t="inlineStr"/>
+      <c r="N121" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4664,18 +5103,21 @@
         <v>75906.85980000001</v>
       </c>
       <c r="G122" t="n">
+        <v>11.71333333333333</v>
+      </c>
+      <c r="H122" t="n">
         <v>11.90999999999999</v>
       </c>
-      <c r="H122" t="n">
-        <v>0</v>
-      </c>
       <c r="I122" t="n">
         <v>0</v>
       </c>
-      <c r="J122" t="inlineStr"/>
+      <c r="J122" t="n">
+        <v>0</v>
+      </c>
       <c r="K122" t="inlineStr"/>
       <c r="L122" t="inlineStr"/>
-      <c r="M122" t="n">
+      <c r="M122" t="inlineStr"/>
+      <c r="N122" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4699,18 +5141,21 @@
         <v>4201.6807</v>
       </c>
       <c r="G123" t="n">
+        <v>11.70666666666667</v>
+      </c>
+      <c r="H123" t="n">
         <v>11.90666666666666</v>
       </c>
-      <c r="H123" t="n">
-        <v>0</v>
-      </c>
       <c r="I123" t="n">
         <v>0</v>
       </c>
-      <c r="J123" t="inlineStr"/>
+      <c r="J123" t="n">
+        <v>0</v>
+      </c>
       <c r="K123" t="inlineStr"/>
       <c r="L123" t="inlineStr"/>
-      <c r="M123" t="n">
+      <c r="M123" t="inlineStr"/>
+      <c r="N123" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4734,18 +5179,21 @@
         <v>5000</v>
       </c>
       <c r="G124" t="n">
+        <v>11.71333333333333</v>
+      </c>
+      <c r="H124" t="n">
         <v>11.90666666666666</v>
       </c>
-      <c r="H124" t="n">
-        <v>0</v>
-      </c>
       <c r="I124" t="n">
         <v>0</v>
       </c>
-      <c r="J124" t="inlineStr"/>
+      <c r="J124" t="n">
+        <v>0</v>
+      </c>
       <c r="K124" t="inlineStr"/>
       <c r="L124" t="inlineStr"/>
-      <c r="M124" t="n">
+      <c r="M124" t="inlineStr"/>
+      <c r="N124" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4769,18 +5217,21 @@
         <v>13163.9409</v>
       </c>
       <c r="G125" t="n">
+        <v>11.72</v>
+      </c>
+      <c r="H125" t="n">
         <v>11.90666666666666</v>
       </c>
-      <c r="H125" t="n">
-        <v>0</v>
-      </c>
       <c r="I125" t="n">
         <v>0</v>
       </c>
-      <c r="J125" t="inlineStr"/>
+      <c r="J125" t="n">
+        <v>0</v>
+      </c>
       <c r="K125" t="inlineStr"/>
       <c r="L125" t="inlineStr"/>
-      <c r="M125" t="n">
+      <c r="M125" t="inlineStr"/>
+      <c r="N125" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4804,18 +5255,21 @@
         <v>33000</v>
       </c>
       <c r="G126" t="n">
+        <v>11.72666666666667</v>
+      </c>
+      <c r="H126" t="n">
         <v>11.90499999999999</v>
       </c>
-      <c r="H126" t="n">
-        <v>0</v>
-      </c>
       <c r="I126" t="n">
         <v>0</v>
       </c>
-      <c r="J126" t="inlineStr"/>
+      <c r="J126" t="n">
+        <v>0</v>
+      </c>
       <c r="K126" t="inlineStr"/>
       <c r="L126" t="inlineStr"/>
-      <c r="M126" t="n">
+      <c r="M126" t="inlineStr"/>
+      <c r="N126" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4839,18 +5293,21 @@
         <v>10950.3295</v>
       </c>
       <c r="G127" t="n">
+        <v>11.72666666666667</v>
+      </c>
+      <c r="H127" t="n">
         <v>11.90333333333333</v>
       </c>
-      <c r="H127" t="n">
-        <v>0</v>
-      </c>
       <c r="I127" t="n">
         <v>0</v>
       </c>
-      <c r="J127" t="inlineStr"/>
+      <c r="J127" t="n">
+        <v>0</v>
+      </c>
       <c r="K127" t="inlineStr"/>
       <c r="L127" t="inlineStr"/>
-      <c r="M127" t="n">
+      <c r="M127" t="inlineStr"/>
+      <c r="N127" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4874,18 +5331,21 @@
         <v>177882.793</v>
       </c>
       <c r="G128" t="n">
-        <v>11.9</v>
+        <v>11.71333333333333</v>
       </c>
       <c r="H128" t="n">
-        <v>0</v>
+        <v>11.9</v>
       </c>
       <c r="I128" t="n">
         <v>0</v>
       </c>
-      <c r="J128" t="inlineStr"/>
+      <c r="J128" t="n">
+        <v>0</v>
+      </c>
       <c r="K128" t="inlineStr"/>
       <c r="L128" t="inlineStr"/>
-      <c r="M128" t="n">
+      <c r="M128" t="inlineStr"/>
+      <c r="N128" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4909,18 +5369,21 @@
         <v>4300</v>
       </c>
       <c r="G129" t="n">
+        <v>11.7</v>
+      </c>
+      <c r="H129" t="n">
         <v>11.89833333333333</v>
       </c>
-      <c r="H129" t="n">
-        <v>0</v>
-      </c>
       <c r="I129" t="n">
         <v>0</v>
       </c>
-      <c r="J129" t="inlineStr"/>
+      <c r="J129" t="n">
+        <v>0</v>
+      </c>
       <c r="K129" t="inlineStr"/>
       <c r="L129" t="inlineStr"/>
-      <c r="M129" t="n">
+      <c r="M129" t="inlineStr"/>
+      <c r="N129" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4944,18 +5407,21 @@
         <v>1100</v>
       </c>
       <c r="G130" t="n">
+        <v>11.7</v>
+      </c>
+      <c r="H130" t="n">
         <v>11.89666666666666</v>
       </c>
-      <c r="H130" t="n">
-        <v>0</v>
-      </c>
       <c r="I130" t="n">
         <v>0</v>
       </c>
-      <c r="J130" t="inlineStr"/>
+      <c r="J130" t="n">
+        <v>0</v>
+      </c>
       <c r="K130" t="inlineStr"/>
       <c r="L130" t="inlineStr"/>
-      <c r="M130" t="n">
+      <c r="M130" t="inlineStr"/>
+      <c r="N130" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4979,18 +5445,21 @@
         <v>97127.8533</v>
       </c>
       <c r="G131" t="n">
+        <v>11.69333333333333</v>
+      </c>
+      <c r="H131" t="n">
         <v>11.89333333333333</v>
       </c>
-      <c r="H131" t="n">
-        <v>0</v>
-      </c>
       <c r="I131" t="n">
         <v>0</v>
       </c>
-      <c r="J131" t="inlineStr"/>
+      <c r="J131" t="n">
+        <v>0</v>
+      </c>
       <c r="K131" t="inlineStr"/>
       <c r="L131" t="inlineStr"/>
-      <c r="M131" t="n">
+      <c r="M131" t="inlineStr"/>
+      <c r="N131" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5014,18 +5483,21 @@
         <v>11170</v>
       </c>
       <c r="G132" t="n">
+        <v>11.69333333333333</v>
+      </c>
+      <c r="H132" t="n">
         <v>11.89166666666666</v>
       </c>
-      <c r="H132" t="n">
-        <v>0</v>
-      </c>
       <c r="I132" t="n">
         <v>0</v>
       </c>
-      <c r="J132" t="inlineStr"/>
+      <c r="J132" t="n">
+        <v>0</v>
+      </c>
       <c r="K132" t="inlineStr"/>
       <c r="L132" t="inlineStr"/>
-      <c r="M132" t="n">
+      <c r="M132" t="inlineStr"/>
+      <c r="N132" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5049,18 +5521,21 @@
         <v>80906.7314</v>
       </c>
       <c r="G133" t="n">
+        <v>11.70666666666667</v>
+      </c>
+      <c r="H133" t="n">
         <v>11.88833333333333</v>
       </c>
-      <c r="H133" t="n">
-        <v>0</v>
-      </c>
       <c r="I133" t="n">
         <v>0</v>
       </c>
-      <c r="J133" t="inlineStr"/>
+      <c r="J133" t="n">
+        <v>0</v>
+      </c>
       <c r="K133" t="inlineStr"/>
       <c r="L133" t="inlineStr"/>
-      <c r="M133" t="n">
+      <c r="M133" t="inlineStr"/>
+      <c r="N133" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5084,18 +5559,21 @@
         <v>100</v>
       </c>
       <c r="G134" t="n">
+        <v>11.70666666666667</v>
+      </c>
+      <c r="H134" t="n">
         <v>11.88166666666666</v>
       </c>
-      <c r="H134" t="n">
-        <v>0</v>
-      </c>
       <c r="I134" t="n">
         <v>0</v>
       </c>
-      <c r="J134" t="inlineStr"/>
+      <c r="J134" t="n">
+        <v>0</v>
+      </c>
       <c r="K134" t="inlineStr"/>
       <c r="L134" t="inlineStr"/>
-      <c r="M134" t="n">
+      <c r="M134" t="inlineStr"/>
+      <c r="N134" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5119,18 +5597,21 @@
         <v>1000</v>
       </c>
       <c r="G135" t="n">
+        <v>11.71333333333333</v>
+      </c>
+      <c r="H135" t="n">
         <v>11.87666666666666</v>
       </c>
-      <c r="H135" t="n">
-        <v>0</v>
-      </c>
       <c r="I135" t="n">
         <v>0</v>
       </c>
-      <c r="J135" t="inlineStr"/>
+      <c r="J135" t="n">
+        <v>0</v>
+      </c>
       <c r="K135" t="inlineStr"/>
       <c r="L135" t="inlineStr"/>
-      <c r="M135" t="n">
+      <c r="M135" t="inlineStr"/>
+      <c r="N135" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5154,18 +5635,21 @@
         <v>18228.795</v>
       </c>
       <c r="G136" t="n">
+        <v>11.72</v>
+      </c>
+      <c r="H136" t="n">
         <v>11.87166666666666</v>
       </c>
-      <c r="H136" t="n">
-        <v>0</v>
-      </c>
       <c r="I136" t="n">
         <v>0</v>
       </c>
-      <c r="J136" t="inlineStr"/>
+      <c r="J136" t="n">
+        <v>0</v>
+      </c>
       <c r="K136" t="inlineStr"/>
       <c r="L136" t="inlineStr"/>
-      <c r="M136" t="n">
+      <c r="M136" t="inlineStr"/>
+      <c r="N136" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5189,18 +5673,21 @@
         <v>21771.205</v>
       </c>
       <c r="G137" t="n">
+        <v>11.72666666666666</v>
+      </c>
+      <c r="H137" t="n">
         <v>11.86666666666667</v>
       </c>
-      <c r="H137" t="n">
-        <v>0</v>
-      </c>
       <c r="I137" t="n">
         <v>0</v>
       </c>
-      <c r="J137" t="inlineStr"/>
+      <c r="J137" t="n">
+        <v>0</v>
+      </c>
       <c r="K137" t="inlineStr"/>
       <c r="L137" t="inlineStr"/>
-      <c r="M137" t="n">
+      <c r="M137" t="inlineStr"/>
+      <c r="N137" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5224,18 +5711,21 @@
         <v>2200</v>
       </c>
       <c r="G138" t="n">
+        <v>11.74</v>
+      </c>
+      <c r="H138" t="n">
         <v>11.86166666666666</v>
       </c>
-      <c r="H138" t="n">
-        <v>0</v>
-      </c>
       <c r="I138" t="n">
         <v>0</v>
       </c>
-      <c r="J138" t="inlineStr"/>
+      <c r="J138" t="n">
+        <v>0</v>
+      </c>
       <c r="K138" t="inlineStr"/>
       <c r="L138" t="inlineStr"/>
-      <c r="M138" t="n">
+      <c r="M138" t="inlineStr"/>
+      <c r="N138" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5259,18 +5749,21 @@
         <v>908.5016000000001</v>
       </c>
       <c r="G139" t="n">
+        <v>11.74</v>
+      </c>
+      <c r="H139" t="n">
         <v>11.85666666666666</v>
       </c>
-      <c r="H139" t="n">
-        <v>0</v>
-      </c>
       <c r="I139" t="n">
         <v>0</v>
       </c>
-      <c r="J139" t="inlineStr"/>
+      <c r="J139" t="n">
+        <v>0</v>
+      </c>
       <c r="K139" t="inlineStr"/>
       <c r="L139" t="inlineStr"/>
-      <c r="M139" t="n">
+      <c r="M139" t="inlineStr"/>
+      <c r="N139" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5294,18 +5787,21 @@
         <v>346.3635</v>
       </c>
       <c r="G140" t="n">
+        <v>11.74666666666667</v>
+      </c>
+      <c r="H140" t="n">
         <v>11.85333333333333</v>
       </c>
-      <c r="H140" t="n">
-        <v>0</v>
-      </c>
       <c r="I140" t="n">
         <v>0</v>
       </c>
-      <c r="J140" t="inlineStr"/>
+      <c r="J140" t="n">
+        <v>0</v>
+      </c>
       <c r="K140" t="inlineStr"/>
       <c r="L140" t="inlineStr"/>
-      <c r="M140" t="n">
+      <c r="M140" t="inlineStr"/>
+      <c r="N140" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5329,18 +5825,21 @@
         <v>215067.6921</v>
       </c>
       <c r="G141" t="n">
+        <v>11.75333333333333</v>
+      </c>
+      <c r="H141" t="n">
         <v>11.84833333333333</v>
       </c>
-      <c r="H141" t="n">
-        <v>0</v>
-      </c>
       <c r="I141" t="n">
         <v>0</v>
       </c>
-      <c r="J141" t="inlineStr"/>
+      <c r="J141" t="n">
+        <v>0</v>
+      </c>
       <c r="K141" t="inlineStr"/>
       <c r="L141" t="inlineStr"/>
-      <c r="M141" t="n">
+      <c r="M141" t="inlineStr"/>
+      <c r="N141" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5364,18 +5863,21 @@
         <v>234400.0556</v>
       </c>
       <c r="G142" t="n">
+        <v>11.75333333333333</v>
+      </c>
+      <c r="H142" t="n">
         <v>11.84333333333333</v>
       </c>
-      <c r="H142" t="n">
-        <v>0</v>
-      </c>
       <c r="I142" t="n">
         <v>0</v>
       </c>
-      <c r="J142" t="inlineStr"/>
+      <c r="J142" t="n">
+        <v>0</v>
+      </c>
       <c r="K142" t="inlineStr"/>
       <c r="L142" t="inlineStr"/>
-      <c r="M142" t="n">
+      <c r="M142" t="inlineStr"/>
+      <c r="N142" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5399,18 +5901,21 @@
         <v>38611.1969</v>
       </c>
       <c r="G143" t="n">
+        <v>11.76666666666667</v>
+      </c>
+      <c r="H143" t="n">
         <v>11.83499999999999</v>
       </c>
-      <c r="H143" t="n">
-        <v>0</v>
-      </c>
       <c r="I143" t="n">
         <v>0</v>
       </c>
-      <c r="J143" t="inlineStr"/>
+      <c r="J143" t="n">
+        <v>0</v>
+      </c>
       <c r="K143" t="inlineStr"/>
       <c r="L143" t="inlineStr"/>
-      <c r="M143" t="n">
+      <c r="M143" t="inlineStr"/>
+      <c r="N143" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5434,18 +5939,21 @@
         <v>97673.49099999999</v>
       </c>
       <c r="G144" t="n">
+        <v>11.78666666666667</v>
+      </c>
+      <c r="H144" t="n">
         <v>11.82833333333333</v>
       </c>
-      <c r="H144" t="n">
-        <v>0</v>
-      </c>
       <c r="I144" t="n">
         <v>0</v>
       </c>
-      <c r="J144" t="inlineStr"/>
+      <c r="J144" t="n">
+        <v>0</v>
+      </c>
       <c r="K144" t="inlineStr"/>
       <c r="L144" t="inlineStr"/>
-      <c r="M144" t="n">
+      <c r="M144" t="inlineStr"/>
+      <c r="N144" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5469,18 +5977,21 @@
         <v>32236.2036</v>
       </c>
       <c r="G145" t="n">
+        <v>11.8</v>
+      </c>
+      <c r="H145" t="n">
         <v>11.82499999999999</v>
       </c>
-      <c r="H145" t="n">
-        <v>0</v>
-      </c>
       <c r="I145" t="n">
         <v>0</v>
       </c>
-      <c r="J145" t="inlineStr"/>
+      <c r="J145" t="n">
+        <v>0</v>
+      </c>
       <c r="K145" t="inlineStr"/>
       <c r="L145" t="inlineStr"/>
-      <c r="M145" t="n">
+      <c r="M145" t="inlineStr"/>
+      <c r="N145" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5504,18 +6015,21 @@
         <v>4201.680672268908</v>
       </c>
       <c r="G146" t="n">
+        <v>11.81333333333334</v>
+      </c>
+      <c r="H146" t="n">
         <v>11.82333333333333</v>
       </c>
-      <c r="H146" t="n">
-        <v>0</v>
-      </c>
       <c r="I146" t="n">
         <v>0</v>
       </c>
-      <c r="J146" t="inlineStr"/>
+      <c r="J146" t="n">
+        <v>0</v>
+      </c>
       <c r="K146" t="inlineStr"/>
       <c r="L146" t="inlineStr"/>
-      <c r="M146" t="n">
+      <c r="M146" t="inlineStr"/>
+      <c r="N146" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5539,18 +6053,21 @@
         <v>25000</v>
       </c>
       <c r="G147" t="n">
+        <v>11.81333333333334</v>
+      </c>
+      <c r="H147" t="n">
         <v>11.81999999999999</v>
       </c>
-      <c r="H147" t="n">
-        <v>0</v>
-      </c>
       <c r="I147" t="n">
         <v>0</v>
       </c>
-      <c r="J147" t="inlineStr"/>
+      <c r="J147" t="n">
+        <v>0</v>
+      </c>
       <c r="K147" t="inlineStr"/>
       <c r="L147" t="inlineStr"/>
-      <c r="M147" t="n">
+      <c r="M147" t="inlineStr"/>
+      <c r="N147" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5574,18 +6091,21 @@
         <v>26673.5393</v>
       </c>
       <c r="G148" t="n">
+        <v>11.80666666666667</v>
+      </c>
+      <c r="H148" t="n">
         <v>11.81833333333332</v>
       </c>
-      <c r="H148" t="n">
-        <v>0</v>
-      </c>
       <c r="I148" t="n">
         <v>0</v>
       </c>
-      <c r="J148" t="inlineStr"/>
+      <c r="J148" t="n">
+        <v>0</v>
+      </c>
       <c r="K148" t="inlineStr"/>
       <c r="L148" t="inlineStr"/>
-      <c r="M148" t="n">
+      <c r="M148" t="inlineStr"/>
+      <c r="N148" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5609,18 +6129,21 @@
         <v>100</v>
       </c>
       <c r="G149" t="n">
+        <v>11.80666666666667</v>
+      </c>
+      <c r="H149" t="n">
         <v>11.81166666666666</v>
       </c>
-      <c r="H149" t="n">
-        <v>0</v>
-      </c>
       <c r="I149" t="n">
         <v>0</v>
       </c>
-      <c r="J149" t="inlineStr"/>
+      <c r="J149" t="n">
+        <v>0</v>
+      </c>
       <c r="K149" t="inlineStr"/>
       <c r="L149" t="inlineStr"/>
-      <c r="M149" t="n">
+      <c r="M149" t="inlineStr"/>
+      <c r="N149" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5644,18 +6167,21 @@
         <v>4201.6807</v>
       </c>
       <c r="G150" t="n">
+        <v>11.80666666666667</v>
+      </c>
+      <c r="H150" t="n">
         <v>11.80499999999999</v>
       </c>
-      <c r="H150" t="n">
-        <v>0</v>
-      </c>
       <c r="I150" t="n">
         <v>0</v>
       </c>
-      <c r="J150" t="inlineStr"/>
+      <c r="J150" t="n">
+        <v>0</v>
+      </c>
       <c r="K150" t="inlineStr"/>
       <c r="L150" t="inlineStr"/>
-      <c r="M150" t="n">
+      <c r="M150" t="inlineStr"/>
+      <c r="N150" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5679,18 +6205,21 @@
         <v>18152.8312</v>
       </c>
       <c r="G151" t="n">
+        <v>11.81333333333334</v>
+      </c>
+      <c r="H151" t="n">
         <v>11.80333333333332</v>
       </c>
-      <c r="H151" t="n">
-        <v>0</v>
-      </c>
       <c r="I151" t="n">
         <v>0</v>
       </c>
-      <c r="J151" t="inlineStr"/>
+      <c r="J151" t="n">
+        <v>0</v>
+      </c>
       <c r="K151" t="inlineStr"/>
       <c r="L151" t="inlineStr"/>
-      <c r="M151" t="n">
+      <c r="M151" t="inlineStr"/>
+      <c r="N151" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5714,18 +6243,21 @@
         <v>88371.85649999999</v>
       </c>
       <c r="G152" t="n">
+        <v>11.82000000000001</v>
+      </c>
+      <c r="H152" t="n">
         <v>11.80166666666666</v>
       </c>
-      <c r="H152" t="n">
-        <v>0</v>
-      </c>
       <c r="I152" t="n">
         <v>0</v>
       </c>
-      <c r="J152" t="inlineStr"/>
+      <c r="J152" t="n">
+        <v>0</v>
+      </c>
       <c r="K152" t="inlineStr"/>
       <c r="L152" t="inlineStr"/>
-      <c r="M152" t="n">
+      <c r="M152" t="inlineStr"/>
+      <c r="N152" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5749,18 +6281,21 @@
         <v>45978.7097</v>
       </c>
       <c r="G153" t="n">
+        <v>11.82000000000001</v>
+      </c>
+      <c r="H153" t="n">
         <v>11.79666666666666</v>
       </c>
-      <c r="H153" t="n">
-        <v>0</v>
-      </c>
       <c r="I153" t="n">
         <v>0</v>
       </c>
-      <c r="J153" t="inlineStr"/>
+      <c r="J153" t="n">
+        <v>0</v>
+      </c>
       <c r="K153" t="inlineStr"/>
       <c r="L153" t="inlineStr"/>
-      <c r="M153" t="n">
+      <c r="M153" t="inlineStr"/>
+      <c r="N153" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5784,18 +6319,21 @@
         <v>23959.5487</v>
       </c>
       <c r="G154" t="n">
+        <v>11.81333333333334</v>
+      </c>
+      <c r="H154" t="n">
         <v>11.79166666666666</v>
       </c>
-      <c r="H154" t="n">
-        <v>0</v>
-      </c>
       <c r="I154" t="n">
         <v>0</v>
       </c>
-      <c r="J154" t="inlineStr"/>
+      <c r="J154" t="n">
+        <v>0</v>
+      </c>
       <c r="K154" t="inlineStr"/>
       <c r="L154" t="inlineStr"/>
-      <c r="M154" t="n">
+      <c r="M154" t="inlineStr"/>
+      <c r="N154" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5819,18 +6357,21 @@
         <v>24965.0007</v>
       </c>
       <c r="G155" t="n">
+        <v>11.8</v>
+      </c>
+      <c r="H155" t="n">
         <v>11.78499999999999</v>
       </c>
-      <c r="H155" t="n">
-        <v>0</v>
-      </c>
       <c r="I155" t="n">
         <v>0</v>
       </c>
-      <c r="J155" t="inlineStr"/>
+      <c r="J155" t="n">
+        <v>0</v>
+      </c>
       <c r="K155" t="inlineStr"/>
       <c r="L155" t="inlineStr"/>
-      <c r="M155" t="n">
+      <c r="M155" t="inlineStr"/>
+      <c r="N155" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5854,18 +6395,21 @@
         <v>4226.6613</v>
       </c>
       <c r="G156" t="n">
+        <v>11.79333333333334</v>
+      </c>
+      <c r="H156" t="n">
         <v>11.77999999999999</v>
       </c>
-      <c r="H156" t="n">
-        <v>0</v>
-      </c>
       <c r="I156" t="n">
         <v>0</v>
       </c>
-      <c r="J156" t="inlineStr"/>
+      <c r="J156" t="n">
+        <v>0</v>
+      </c>
       <c r="K156" t="inlineStr"/>
       <c r="L156" t="inlineStr"/>
-      <c r="M156" t="n">
+      <c r="M156" t="inlineStr"/>
+      <c r="N156" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5889,18 +6433,21 @@
         <v>6079.6567</v>
       </c>
       <c r="G157" t="n">
+        <v>11.79333333333334</v>
+      </c>
+      <c r="H157" t="n">
         <v>11.77666666666665</v>
       </c>
-      <c r="H157" t="n">
-        <v>0</v>
-      </c>
       <c r="I157" t="n">
         <v>0</v>
       </c>
-      <c r="J157" t="inlineStr"/>
+      <c r="J157" t="n">
+        <v>0</v>
+      </c>
       <c r="K157" t="inlineStr"/>
       <c r="L157" t="inlineStr"/>
-      <c r="M157" t="n">
+      <c r="M157" t="inlineStr"/>
+      <c r="N157" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5924,18 +6471,21 @@
         <v>4360</v>
       </c>
       <c r="G158" t="n">
+        <v>11.79333333333334</v>
+      </c>
+      <c r="H158" t="n">
         <v>11.77499999999999</v>
       </c>
-      <c r="H158" t="n">
-        <v>0</v>
-      </c>
       <c r="I158" t="n">
         <v>0</v>
       </c>
-      <c r="J158" t="inlineStr"/>
+      <c r="J158" t="n">
+        <v>0</v>
+      </c>
       <c r="K158" t="inlineStr"/>
       <c r="L158" t="inlineStr"/>
-      <c r="M158" t="n">
+      <c r="M158" t="inlineStr"/>
+      <c r="N158" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5959,18 +6509,21 @@
         <v>298792.3166</v>
       </c>
       <c r="G159" t="n">
+        <v>11.78666666666667</v>
+      </c>
+      <c r="H159" t="n">
         <v>11.77333333333332</v>
       </c>
-      <c r="H159" t="n">
-        <v>0</v>
-      </c>
       <c r="I159" t="n">
         <v>0</v>
       </c>
-      <c r="J159" t="inlineStr"/>
+      <c r="J159" t="n">
+        <v>0</v>
+      </c>
       <c r="K159" t="inlineStr"/>
       <c r="L159" t="inlineStr"/>
-      <c r="M159" t="n">
+      <c r="M159" t="inlineStr"/>
+      <c r="N159" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5994,18 +6547,21 @@
         <v>63287.2407</v>
       </c>
       <c r="G160" t="n">
+        <v>11.78</v>
+      </c>
+      <c r="H160" t="n">
         <v>11.77166666666665</v>
       </c>
-      <c r="H160" t="n">
-        <v>0</v>
-      </c>
       <c r="I160" t="n">
         <v>0</v>
       </c>
-      <c r="J160" t="inlineStr"/>
+      <c r="J160" t="n">
+        <v>0</v>
+      </c>
       <c r="K160" t="inlineStr"/>
       <c r="L160" t="inlineStr"/>
-      <c r="M160" t="n">
+      <c r="M160" t="inlineStr"/>
+      <c r="N160" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6029,18 +6585,21 @@
         <v>30773.29091512605</v>
       </c>
       <c r="G161" t="n">
+        <v>11.78</v>
+      </c>
+      <c r="H161" t="n">
         <v>11.77166666666665</v>
       </c>
-      <c r="H161" t="n">
-        <v>0</v>
-      </c>
       <c r="I161" t="n">
         <v>0</v>
       </c>
-      <c r="J161" t="inlineStr"/>
+      <c r="J161" t="n">
+        <v>0</v>
+      </c>
       <c r="K161" t="inlineStr"/>
       <c r="L161" t="inlineStr"/>
-      <c r="M161" t="n">
+      <c r="M161" t="inlineStr"/>
+      <c r="N161" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6064,18 +6623,21 @@
         <v>123781.9023848739</v>
       </c>
       <c r="G162" t="n">
+        <v>11.78</v>
+      </c>
+      <c r="H162" t="n">
         <v>11.76833333333332</v>
       </c>
-      <c r="H162" t="n">
-        <v>0</v>
-      </c>
       <c r="I162" t="n">
         <v>0</v>
       </c>
-      <c r="J162" t="inlineStr"/>
+      <c r="J162" t="n">
+        <v>0</v>
+      </c>
       <c r="K162" t="inlineStr"/>
       <c r="L162" t="inlineStr"/>
-      <c r="M162" t="n">
+      <c r="M162" t="inlineStr"/>
+      <c r="N162" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6099,18 +6661,21 @@
         <v>171836.0471</v>
       </c>
       <c r="G163" t="n">
+        <v>11.78</v>
+      </c>
+      <c r="H163" t="n">
         <v>11.76666666666665</v>
       </c>
-      <c r="H163" t="n">
-        <v>0</v>
-      </c>
       <c r="I163" t="n">
         <v>0</v>
       </c>
-      <c r="J163" t="inlineStr"/>
+      <c r="J163" t="n">
+        <v>0</v>
+      </c>
       <c r="K163" t="inlineStr"/>
       <c r="L163" t="inlineStr"/>
-      <c r="M163" t="n">
+      <c r="M163" t="inlineStr"/>
+      <c r="N163" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6134,18 +6699,21 @@
         <v>1.5126050420168e-05</v>
       </c>
       <c r="G164" t="n">
+        <v>11.78666666666667</v>
+      </c>
+      <c r="H164" t="n">
         <v>11.76499999999999</v>
       </c>
-      <c r="H164" t="n">
-        <v>0</v>
-      </c>
       <c r="I164" t="n">
         <v>0</v>
       </c>
-      <c r="J164" t="inlineStr"/>
+      <c r="J164" t="n">
+        <v>0</v>
+      </c>
       <c r="K164" t="inlineStr"/>
       <c r="L164" t="inlineStr"/>
-      <c r="M164" t="n">
+      <c r="M164" t="inlineStr"/>
+      <c r="N164" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6169,18 +6737,21 @@
         <v>19132.62628487395</v>
       </c>
       <c r="G165" t="n">
+        <v>11.79333333333334</v>
+      </c>
+      <c r="H165" t="n">
         <v>11.76333333333332</v>
       </c>
-      <c r="H165" t="n">
-        <v>0</v>
-      </c>
       <c r="I165" t="n">
         <v>0</v>
       </c>
-      <c r="J165" t="inlineStr"/>
+      <c r="J165" t="n">
+        <v>0</v>
+      </c>
       <c r="K165" t="inlineStr"/>
       <c r="L165" t="inlineStr"/>
-      <c r="M165" t="n">
+      <c r="M165" t="inlineStr"/>
+      <c r="N165" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6204,18 +6775,401 @@
         <v>21072.6183</v>
       </c>
       <c r="G166" t="n">
+        <v>11.80000000000001</v>
+      </c>
+      <c r="H166" t="n">
         <v>11.76499999999999</v>
       </c>
-      <c r="H166" t="n">
-        <v>0</v>
-      </c>
       <c r="I166" t="n">
         <v>0</v>
       </c>
-      <c r="J166" t="inlineStr"/>
+      <c r="J166" t="n">
+        <v>0</v>
+      </c>
       <c r="K166" t="inlineStr"/>
       <c r="L166" t="inlineStr"/>
-      <c r="M166" t="n">
+      <c r="M166" t="inlineStr"/>
+      <c r="N166" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="167">
+      <c r="A167" s="1" t="n">
+        <v>165</v>
+      </c>
+      <c r="B167" t="n">
+        <v>11.9</v>
+      </c>
+      <c r="C167" t="n">
+        <v>11.9</v>
+      </c>
+      <c r="D167" t="n">
+        <v>11.9</v>
+      </c>
+      <c r="E167" t="n">
+        <v>11.9</v>
+      </c>
+      <c r="F167" t="n">
+        <v>6899.4078</v>
+      </c>
+      <c r="G167" t="n">
+        <v>11.80666666666667</v>
+      </c>
+      <c r="H167" t="n">
+        <v>11.76666666666665</v>
+      </c>
+      <c r="I167" t="n">
+        <v>0</v>
+      </c>
+      <c r="J167" t="n">
+        <v>0</v>
+      </c>
+      <c r="K167" t="inlineStr"/>
+      <c r="L167" t="inlineStr"/>
+      <c r="M167" t="inlineStr"/>
+      <c r="N167" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="168">
+      <c r="A168" s="1" t="n">
+        <v>166</v>
+      </c>
+      <c r="B168" t="n">
+        <v>12</v>
+      </c>
+      <c r="C168" t="n">
+        <v>11.9</v>
+      </c>
+      <c r="D168" t="n">
+        <v>12</v>
+      </c>
+      <c r="E168" t="n">
+        <v>11.8</v>
+      </c>
+      <c r="F168" t="n">
+        <v>86491.4749</v>
+      </c>
+      <c r="G168" t="n">
+        <v>11.81333333333334</v>
+      </c>
+      <c r="H168" t="n">
+        <v>11.76999999999999</v>
+      </c>
+      <c r="I168" t="n">
+        <v>0</v>
+      </c>
+      <c r="J168" t="n">
+        <v>0</v>
+      </c>
+      <c r="K168" t="inlineStr"/>
+      <c r="L168" t="inlineStr"/>
+      <c r="M168" t="inlineStr"/>
+      <c r="N168" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="169">
+      <c r="A169" s="1" t="n">
+        <v>167</v>
+      </c>
+      <c r="B169" t="n">
+        <v>11.9</v>
+      </c>
+      <c r="C169" t="n">
+        <v>11.8</v>
+      </c>
+      <c r="D169" t="n">
+        <v>11.9</v>
+      </c>
+      <c r="E169" t="n">
+        <v>11.8</v>
+      </c>
+      <c r="F169" t="n">
+        <v>176106.8292</v>
+      </c>
+      <c r="G169" t="n">
+        <v>11.82000000000001</v>
+      </c>
+      <c r="H169" t="n">
+        <v>11.77166666666665</v>
+      </c>
+      <c r="I169" t="n">
+        <v>0</v>
+      </c>
+      <c r="J169" t="n">
+        <v>0</v>
+      </c>
+      <c r="K169" t="inlineStr"/>
+      <c r="L169" t="inlineStr"/>
+      <c r="M169" t="inlineStr"/>
+      <c r="N169" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="170">
+      <c r="A170" s="1" t="n">
+        <v>168</v>
+      </c>
+      <c r="B170" t="n">
+        <v>11.9</v>
+      </c>
+      <c r="C170" t="n">
+        <v>11.9</v>
+      </c>
+      <c r="D170" t="n">
+        <v>11.9</v>
+      </c>
+      <c r="E170" t="n">
+        <v>11.9</v>
+      </c>
+      <c r="F170" t="n">
+        <v>43635.9061</v>
+      </c>
+      <c r="G170" t="n">
+        <v>11.83333333333334</v>
+      </c>
+      <c r="H170" t="n">
+        <v>11.77499999999998</v>
+      </c>
+      <c r="I170" t="n">
+        <v>0</v>
+      </c>
+      <c r="J170" t="n">
+        <v>0</v>
+      </c>
+      <c r="K170" t="inlineStr"/>
+      <c r="L170" t="inlineStr"/>
+      <c r="M170" t="inlineStr"/>
+      <c r="N170" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="171">
+      <c r="A171" s="1" t="n">
+        <v>169</v>
+      </c>
+      <c r="B171" t="n">
+        <v>12</v>
+      </c>
+      <c r="C171" t="n">
+        <v>12</v>
+      </c>
+      <c r="D171" t="n">
+        <v>12</v>
+      </c>
+      <c r="E171" t="n">
+        <v>12</v>
+      </c>
+      <c r="F171" t="n">
+        <v>80</v>
+      </c>
+      <c r="G171" t="n">
+        <v>11.84666666666667</v>
+      </c>
+      <c r="H171" t="n">
+        <v>11.77999999999998</v>
+      </c>
+      <c r="I171" t="n">
+        <v>0</v>
+      </c>
+      <c r="J171" t="n">
+        <v>0</v>
+      </c>
+      <c r="K171" t="inlineStr"/>
+      <c r="L171" t="inlineStr"/>
+      <c r="M171" t="inlineStr"/>
+      <c r="N171" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="172">
+      <c r="A172" s="1" t="n">
+        <v>170</v>
+      </c>
+      <c r="B172" t="n">
+        <v>11.9</v>
+      </c>
+      <c r="C172" t="n">
+        <v>11.9</v>
+      </c>
+      <c r="D172" t="n">
+        <v>11.9</v>
+      </c>
+      <c r="E172" t="n">
+        <v>11.9</v>
+      </c>
+      <c r="F172" t="n">
+        <v>8831</v>
+      </c>
+      <c r="G172" t="n">
+        <v>11.85333333333334</v>
+      </c>
+      <c r="H172" t="n">
+        <v>11.78166666666665</v>
+      </c>
+      <c r="I172" t="n">
+        <v>0</v>
+      </c>
+      <c r="J172" t="n">
+        <v>0</v>
+      </c>
+      <c r="K172" t="inlineStr"/>
+      <c r="L172" t="inlineStr"/>
+      <c r="M172" t="inlineStr"/>
+      <c r="N172" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="173">
+      <c r="A173" s="1" t="n">
+        <v>171</v>
+      </c>
+      <c r="B173" t="n">
+        <v>11.9</v>
+      </c>
+      <c r="C173" t="n">
+        <v>11.9</v>
+      </c>
+      <c r="D173" t="n">
+        <v>11.9</v>
+      </c>
+      <c r="E173" t="n">
+        <v>11.9</v>
+      </c>
+      <c r="F173" t="n">
+        <v>982.0187</v>
+      </c>
+      <c r="G173" t="n">
+        <v>11.86000000000001</v>
+      </c>
+      <c r="H173" t="n">
+        <v>11.78333333333332</v>
+      </c>
+      <c r="I173" t="n">
+        <v>0</v>
+      </c>
+      <c r="J173" t="n">
+        <v>0</v>
+      </c>
+      <c r="K173" t="inlineStr"/>
+      <c r="L173" t="inlineStr"/>
+      <c r="M173" t="inlineStr"/>
+      <c r="N173" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="174">
+      <c r="A174" s="1" t="n">
+        <v>172</v>
+      </c>
+      <c r="B174" t="n">
+        <v>11.9</v>
+      </c>
+      <c r="C174" t="n">
+        <v>11.9</v>
+      </c>
+      <c r="D174" t="n">
+        <v>11.9</v>
+      </c>
+      <c r="E174" t="n">
+        <v>11.9</v>
+      </c>
+      <c r="F174" t="n">
+        <v>20000</v>
+      </c>
+      <c r="G174" t="n">
+        <v>11.86666666666667</v>
+      </c>
+      <c r="H174" t="n">
+        <v>11.78499999999998</v>
+      </c>
+      <c r="I174" t="n">
+        <v>0</v>
+      </c>
+      <c r="J174" t="n">
+        <v>0</v>
+      </c>
+      <c r="K174" t="inlineStr"/>
+      <c r="L174" t="inlineStr"/>
+      <c r="M174" t="inlineStr"/>
+      <c r="N174" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="175">
+      <c r="A175" s="1" t="n">
+        <v>173</v>
+      </c>
+      <c r="B175" t="n">
+        <v>11.8</v>
+      </c>
+      <c r="C175" t="n">
+        <v>11.7</v>
+      </c>
+      <c r="D175" t="n">
+        <v>11.8</v>
+      </c>
+      <c r="E175" t="n">
+        <v>11.7</v>
+      </c>
+      <c r="F175" t="n">
+        <v>41075.5745</v>
+      </c>
+      <c r="G175" t="n">
+        <v>11.86000000000001</v>
+      </c>
+      <c r="H175" t="n">
+        <v>11.78499999999998</v>
+      </c>
+      <c r="I175" t="n">
+        <v>0</v>
+      </c>
+      <c r="J175" t="n">
+        <v>0</v>
+      </c>
+      <c r="K175" t="inlineStr"/>
+      <c r="L175" t="inlineStr"/>
+      <c r="M175" t="inlineStr"/>
+      <c r="N175" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="176">
+      <c r="A176" s="1" t="n">
+        <v>174</v>
+      </c>
+      <c r="B176" t="n">
+        <v>11.7</v>
+      </c>
+      <c r="C176" t="n">
+        <v>11.7</v>
+      </c>
+      <c r="D176" t="n">
+        <v>11.7</v>
+      </c>
+      <c r="E176" t="n">
+        <v>11.7</v>
+      </c>
+      <c r="F176" t="n">
+        <v>106098.7638</v>
+      </c>
+      <c r="G176" t="n">
+        <v>11.84666666666667</v>
+      </c>
+      <c r="H176" t="n">
+        <v>11.78333333333332</v>
+      </c>
+      <c r="I176" t="n">
+        <v>0</v>
+      </c>
+      <c r="J176" t="n">
+        <v>0</v>
+      </c>
+      <c r="K176" t="inlineStr"/>
+      <c r="L176" t="inlineStr"/>
+      <c r="M176" t="inlineStr"/>
+      <c r="N176" t="n">
         <v>1</v>
       </c>
     </row>

--- a/BackTest/2019-11-21 BackTest ORBS.xlsx
+++ b/BackTest/2019-11-21 BackTest ORBS.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N176"/>
+  <dimension ref="A1:M205"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -394,40 +394,35 @@
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>CMO</t>
+          <t>OBV</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
         <is>
-          <t>MA60</t>
+          <t>low_check</t>
         </is>
       </c>
       <c r="I1" s="1" t="inlineStr">
         <is>
-          <t>low_check</t>
+          <t>high_check</t>
         </is>
       </c>
       <c r="J1" s="1" t="inlineStr">
         <is>
-          <t>high_check</t>
+          <t>BuyPrice</t>
         </is>
       </c>
       <c r="K1" s="1" t="inlineStr">
         <is>
-          <t>BuyPrice</t>
+          <t>bprelay</t>
         </is>
       </c>
       <c r="L1" s="1" t="inlineStr">
         <is>
-          <t>bprelay</t>
+          <t>Condition</t>
         </is>
       </c>
       <c r="M1" s="1" t="inlineStr">
-        <is>
-          <t>Condition</t>
-        </is>
-      </c>
-      <c r="N1" s="1" t="inlineStr">
         <is>
           <t>Profits</t>
         </is>
@@ -438,36 +433,33 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>11.5</v>
+        <v>11.3</v>
       </c>
       <c r="C2" t="n">
-        <v>11.5</v>
+        <v>11.3</v>
       </c>
       <c r="D2" t="n">
-        <v>11.5</v>
+        <v>11.3</v>
       </c>
       <c r="E2" t="n">
-        <v>11.5</v>
+        <v>11.3</v>
       </c>
       <c r="F2" t="n">
-        <v>25059.84431304348</v>
+        <v>238947.7055</v>
       </c>
       <c r="G2" t="n">
-        <v>11.52</v>
+        <v>-411242.9847711343</v>
       </c>
       <c r="H2" t="n">
-        <v>11.38333333333331</v>
+        <v>1</v>
       </c>
       <c r="I2" t="n">
-        <v>1</v>
-      </c>
-      <c r="J2" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J2" t="inlineStr"/>
       <c r="K2" t="inlineStr"/>
       <c r="L2" t="inlineStr"/>
-      <c r="M2" t="inlineStr"/>
-      <c r="N2" t="n">
+      <c r="M2" t="n">
         <v>1</v>
       </c>
     </row>
@@ -476,40 +468,39 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>11.5</v>
+        <v>11.4</v>
       </c>
       <c r="C3" t="n">
-        <v>11.5</v>
+        <v>11.3</v>
       </c>
       <c r="D3" t="n">
-        <v>11.5</v>
+        <v>11.4</v>
       </c>
       <c r="E3" t="n">
-        <v>11.5</v>
+        <v>11.3</v>
       </c>
       <c r="F3" t="n">
-        <v>6472.514786956522</v>
+        <v>225.0001</v>
       </c>
       <c r="G3" t="n">
-        <v>11.52</v>
+        <v>-411242.9847711343</v>
       </c>
       <c r="H3" t="n">
-        <v>11.38333333333331</v>
+        <v>1</v>
       </c>
       <c r="I3" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
-      </c>
-      <c r="K3" t="n">
-        <v>11.5</v>
-      </c>
-      <c r="L3" t="n">
-        <v>11.5</v>
-      </c>
-      <c r="M3" t="inlineStr"/>
-      <c r="N3" t="n">
+        <v>11.3</v>
+      </c>
+      <c r="K3" t="inlineStr"/>
+      <c r="L3" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
+      <c r="M3" t="n">
         <v>1</v>
       </c>
     </row>
@@ -518,44 +509,39 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>11.4</v>
+        <v>11.3</v>
       </c>
       <c r="C4" t="n">
-        <v>11.4</v>
+        <v>11.3</v>
       </c>
       <c r="D4" t="n">
-        <v>11.4</v>
+        <v>11.3</v>
       </c>
       <c r="E4" t="n">
-        <v>11.4</v>
+        <v>11.3</v>
       </c>
       <c r="F4" t="n">
-        <v>3241.875</v>
+        <v>224.9999</v>
       </c>
       <c r="G4" t="n">
-        <v>11.51333333333333</v>
+        <v>-411242.9847711343</v>
       </c>
       <c r="H4" t="n">
-        <v>11.38333333333331</v>
+        <v>1</v>
       </c>
       <c r="I4" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>0</v>
-      </c>
-      <c r="K4" t="n">
-        <v>11.5</v>
-      </c>
-      <c r="L4" t="n">
-        <v>11.5</v>
-      </c>
-      <c r="M4" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
-      <c r="N4" t="n">
+        <v>11.3</v>
+      </c>
+      <c r="K4" t="inlineStr"/>
+      <c r="L4" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M4" t="n">
         <v>1</v>
       </c>
     </row>
@@ -564,44 +550,39 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>11.4</v>
+        <v>11.3</v>
       </c>
       <c r="C5" t="n">
-        <v>11.4</v>
+        <v>11.3</v>
       </c>
       <c r="D5" t="n">
-        <v>11.4</v>
+        <v>11.3</v>
       </c>
       <c r="E5" t="n">
-        <v>11.4</v>
+        <v>11.3</v>
       </c>
       <c r="F5" t="n">
-        <v>26021.841</v>
+        <v>1196.5449</v>
       </c>
       <c r="G5" t="n">
-        <v>11.50666666666667</v>
+        <v>-411242.9847711343</v>
       </c>
       <c r="H5" t="n">
-        <v>11.38666666666664</v>
+        <v>1</v>
       </c>
       <c r="I5" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>0</v>
-      </c>
-      <c r="K5" t="n">
-        <v>11.4</v>
-      </c>
-      <c r="L5" t="n">
-        <v>11.5</v>
-      </c>
-      <c r="M5" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
-      <c r="N5" t="n">
+        <v>11.3</v>
+      </c>
+      <c r="K5" t="inlineStr"/>
+      <c r="L5" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M5" t="n">
         <v>1</v>
       </c>
     </row>
@@ -610,40 +591,37 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>11.4</v>
+        <v>11.3</v>
       </c>
       <c r="C6" t="n">
-        <v>11.4</v>
+        <v>11.3</v>
       </c>
       <c r="D6" t="n">
-        <v>11.4</v>
+        <v>11.3</v>
       </c>
       <c r="E6" t="n">
-        <v>11.4</v>
+        <v>11.3</v>
       </c>
       <c r="F6" t="n">
-        <v>100845.4887</v>
+        <v>15336.6987</v>
       </c>
       <c r="G6" t="n">
-        <v>11.5</v>
+        <v>-411242.9847711343</v>
       </c>
       <c r="H6" t="n">
-        <v>11.38999999999997</v>
+        <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>1</v>
-      </c>
-      <c r="J6" t="n">
-        <v>0</v>
-      </c>
-      <c r="K6" t="n">
-        <v>11.4</v>
-      </c>
-      <c r="L6" t="n">
-        <v>11.4</v>
-      </c>
-      <c r="M6" t="inlineStr"/>
-      <c r="N6" t="n">
+        <v>0</v>
+      </c>
+      <c r="J6" t="inlineStr"/>
+      <c r="K6" t="inlineStr"/>
+      <c r="L6" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M6" t="n">
         <v>1</v>
       </c>
     </row>
@@ -652,44 +630,39 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>11.5</v>
+        <v>11.3</v>
       </c>
       <c r="C7" t="n">
-        <v>11.5</v>
+        <v>11.3</v>
       </c>
       <c r="D7" t="n">
-        <v>11.5</v>
+        <v>11.3</v>
       </c>
       <c r="E7" t="n">
-        <v>11.5</v>
+        <v>11.3</v>
       </c>
       <c r="F7" t="n">
-        <v>9556.8855</v>
+        <v>69635.2056</v>
       </c>
       <c r="G7" t="n">
-        <v>11.49333333333333</v>
+        <v>-411242.9847711343</v>
       </c>
       <c r="H7" t="n">
-        <v>11.39166666666664</v>
+        <v>1</v>
       </c>
       <c r="I7" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>0</v>
-      </c>
-      <c r="K7" t="n">
-        <v>11.4</v>
-      </c>
-      <c r="L7" t="n">
-        <v>11.4</v>
-      </c>
-      <c r="M7" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
-      <c r="N7" t="n">
+        <v>11.3</v>
+      </c>
+      <c r="K7" t="inlineStr"/>
+      <c r="L7" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M7" t="n">
         <v>1</v>
       </c>
     </row>
@@ -698,44 +671,39 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>11.5</v>
+        <v>11.4</v>
       </c>
       <c r="C8" t="n">
-        <v>11.5</v>
+        <v>11.4</v>
       </c>
       <c r="D8" t="n">
-        <v>11.5</v>
+        <v>11.4</v>
       </c>
       <c r="E8" t="n">
-        <v>11.5</v>
+        <v>11.4</v>
       </c>
       <c r="F8" t="n">
-        <v>78995.1009</v>
+        <v>25219.6044</v>
       </c>
       <c r="G8" t="n">
-        <v>11.48666666666667</v>
+        <v>-386023.3803711343</v>
       </c>
       <c r="H8" t="n">
-        <v>11.39499999999997</v>
+        <v>1</v>
       </c>
       <c r="I8" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>0</v>
-      </c>
-      <c r="K8" t="n">
-        <v>11.5</v>
-      </c>
-      <c r="L8" t="n">
-        <v>11.4</v>
-      </c>
-      <c r="M8" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
-      <c r="N8" t="n">
+        <v>11.3</v>
+      </c>
+      <c r="K8" t="inlineStr"/>
+      <c r="L8" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M8" t="n">
         <v>1</v>
       </c>
     </row>
@@ -744,40 +712,39 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>11.6</v>
+        <v>11.4</v>
       </c>
       <c r="C9" t="n">
-        <v>11.6</v>
+        <v>11.4</v>
       </c>
       <c r="D9" t="n">
-        <v>11.6</v>
+        <v>11.4</v>
       </c>
       <c r="E9" t="n">
-        <v>11.6</v>
+        <v>11.4</v>
       </c>
       <c r="F9" t="n">
-        <v>10000</v>
+        <v>43750.2734</v>
       </c>
       <c r="G9" t="n">
-        <v>11.49333333333333</v>
+        <v>-386023.3803711343</v>
       </c>
       <c r="H9" t="n">
-        <v>11.39833333333331</v>
+        <v>1</v>
       </c>
       <c r="I9" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>0</v>
-      </c>
-      <c r="K9" t="n">
-        <v>11.5</v>
-      </c>
-      <c r="L9" t="n">
-        <v>11.5</v>
-      </c>
-      <c r="M9" t="inlineStr"/>
-      <c r="N9" t="n">
+        <v>11.4</v>
+      </c>
+      <c r="K9" t="inlineStr"/>
+      <c r="L9" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M9" t="n">
         <v>1</v>
       </c>
     </row>
@@ -786,44 +753,39 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>11.5</v>
+        <v>11.4</v>
       </c>
       <c r="C10" t="n">
-        <v>11.5</v>
+        <v>11.4</v>
       </c>
       <c r="D10" t="n">
-        <v>11.5</v>
+        <v>11.4</v>
       </c>
       <c r="E10" t="n">
-        <v>11.5</v>
+        <v>11.4</v>
       </c>
       <c r="F10" t="n">
-        <v>2900</v>
+        <v>500</v>
       </c>
       <c r="G10" t="n">
-        <v>11.48</v>
+        <v>-386023.3803711343</v>
       </c>
       <c r="H10" t="n">
-        <v>11.39999999999997</v>
+        <v>1</v>
       </c>
       <c r="I10" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>0</v>
-      </c>
-      <c r="K10" t="n">
-        <v>11.6</v>
-      </c>
-      <c r="L10" t="n">
-        <v>11.5</v>
-      </c>
-      <c r="M10" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
-      <c r="N10" t="n">
+        <v>11.4</v>
+      </c>
+      <c r="K10" t="inlineStr"/>
+      <c r="L10" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M10" t="n">
         <v>1</v>
       </c>
     </row>
@@ -832,42 +794,39 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>11.5</v>
+        <v>11.4</v>
       </c>
       <c r="C11" t="n">
-        <v>11.5</v>
+        <v>11.4</v>
       </c>
       <c r="D11" t="n">
-        <v>11.5</v>
+        <v>11.4</v>
       </c>
       <c r="E11" t="n">
-        <v>11.5</v>
+        <v>11.4</v>
       </c>
       <c r="F11" t="n">
-        <v>27100</v>
+        <v>40191.6896</v>
       </c>
       <c r="G11" t="n">
-        <v>11.48</v>
+        <v>-386023.3803711343</v>
       </c>
       <c r="H11" t="n">
-        <v>11.40333333333331</v>
+        <v>1</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>0</v>
+        <v>11.4</v>
       </c>
       <c r="K11" t="inlineStr"/>
-      <c r="L11" t="n">
-        <v>11.5</v>
-      </c>
-      <c r="M11" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
-      <c r="N11" t="n">
+      <c r="L11" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M11" t="n">
         <v>1</v>
       </c>
     </row>
@@ -876,40 +835,37 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>11.6</v>
+        <v>11.3</v>
       </c>
       <c r="C12" t="n">
-        <v>11.6</v>
+        <v>11.3</v>
       </c>
       <c r="D12" t="n">
-        <v>11.6</v>
+        <v>11.3</v>
       </c>
       <c r="E12" t="n">
-        <v>11.6</v>
+        <v>11.3</v>
       </c>
       <c r="F12" t="n">
-        <v>20920</v>
+        <v>43750.2734</v>
       </c>
       <c r="G12" t="n">
-        <v>11.48666666666667</v>
+        <v>-429773.6537711343</v>
       </c>
       <c r="H12" t="n">
-        <v>11.40833333333331</v>
+        <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>1</v>
-      </c>
-      <c r="J12" t="n">
-        <v>0</v>
-      </c>
-      <c r="K12" t="n">
-        <v>11.5</v>
-      </c>
-      <c r="L12" t="n">
-        <v>11.5</v>
-      </c>
-      <c r="M12" t="inlineStr"/>
-      <c r="N12" t="n">
+        <v>0</v>
+      </c>
+      <c r="J12" t="inlineStr"/>
+      <c r="K12" t="inlineStr"/>
+      <c r="L12" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M12" t="n">
         <v>1</v>
       </c>
     </row>
@@ -918,42 +874,37 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>11.6</v>
+        <v>11.3</v>
       </c>
       <c r="C13" t="n">
-        <v>11.6</v>
+        <v>11.3</v>
       </c>
       <c r="D13" t="n">
-        <v>11.6</v>
+        <v>11.3</v>
       </c>
       <c r="E13" t="n">
-        <v>11.6</v>
+        <v>11.3</v>
       </c>
       <c r="F13" t="n">
-        <v>3250</v>
+        <v>40191.6896</v>
       </c>
       <c r="G13" t="n">
-        <v>11.49333333333333</v>
+        <v>-429773.6537711343</v>
       </c>
       <c r="H13" t="n">
-        <v>11.41333333333331</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
       </c>
-      <c r="J13" t="n">
-        <v>0</v>
-      </c>
+      <c r="J13" t="inlineStr"/>
       <c r="K13" t="inlineStr"/>
-      <c r="L13" t="n">
-        <v>11.5</v>
-      </c>
-      <c r="M13" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
-      <c r="N13" t="n">
+      <c r="L13" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M13" t="n">
         <v>1</v>
       </c>
     </row>
@@ -962,42 +913,37 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>11.5</v>
+        <v>11.4</v>
       </c>
       <c r="C14" t="n">
-        <v>11.5</v>
+        <v>11.4</v>
       </c>
       <c r="D14" t="n">
-        <v>11.5</v>
+        <v>11.4</v>
       </c>
       <c r="E14" t="n">
-        <v>11.5</v>
+        <v>11.4</v>
       </c>
       <c r="F14" t="n">
-        <v>4604</v>
+        <v>125891.237</v>
       </c>
       <c r="G14" t="n">
-        <v>11.49333333333333</v>
+        <v>-303882.4167711344</v>
       </c>
       <c r="H14" t="n">
-        <v>11.41499999999998</v>
+        <v>0</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
       </c>
-      <c r="J14" t="n">
-        <v>0</v>
-      </c>
+      <c r="J14" t="inlineStr"/>
       <c r="K14" t="inlineStr"/>
-      <c r="L14" t="n">
-        <v>11.5</v>
-      </c>
-      <c r="M14" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
-      <c r="N14" t="n">
+      <c r="L14" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M14" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1006,40 +952,37 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>11.6</v>
+        <v>11.3</v>
       </c>
       <c r="C15" t="n">
-        <v>11.6</v>
+        <v>11.3</v>
       </c>
       <c r="D15" t="n">
-        <v>11.6</v>
+        <v>11.3</v>
       </c>
       <c r="E15" t="n">
-        <v>11.6</v>
+        <v>11.3</v>
       </c>
       <c r="F15" t="n">
-        <v>11721</v>
+        <v>130</v>
       </c>
       <c r="G15" t="n">
-        <v>11.5</v>
+        <v>-304012.4167711344</v>
       </c>
       <c r="H15" t="n">
-        <v>11.41833333333331</v>
+        <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>1</v>
-      </c>
-      <c r="J15" t="n">
-        <v>0</v>
-      </c>
-      <c r="K15" t="n">
-        <v>11.5</v>
-      </c>
-      <c r="L15" t="n">
-        <v>11.5</v>
-      </c>
-      <c r="M15" t="inlineStr"/>
-      <c r="N15" t="n">
+        <v>0</v>
+      </c>
+      <c r="J15" t="inlineStr"/>
+      <c r="K15" t="inlineStr"/>
+      <c r="L15" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M15" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1060,30 +1003,25 @@
         <v>11.5</v>
       </c>
       <c r="F16" t="n">
-        <v>1200</v>
+        <v>50</v>
       </c>
       <c r="G16" t="n">
-        <v>11.50666666666667</v>
+        <v>-303962.4167711344</v>
       </c>
       <c r="H16" t="n">
-        <v>11.42166666666665</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
         <v>0</v>
       </c>
-      <c r="J16" t="n">
-        <v>0</v>
-      </c>
+      <c r="J16" t="inlineStr"/>
       <c r="K16" t="inlineStr"/>
-      <c r="L16" t="n">
-        <v>11.5</v>
-      </c>
-      <c r="M16" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
-      <c r="N16" t="n">
+      <c r="L16" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M16" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1092,42 +1030,37 @@
         <v>15</v>
       </c>
       <c r="B17" t="n">
-        <v>11.6</v>
+        <v>11.5</v>
       </c>
       <c r="C17" t="n">
-        <v>11.6</v>
+        <v>11.5</v>
       </c>
       <c r="D17" t="n">
-        <v>11.6</v>
+        <v>11.5</v>
       </c>
       <c r="E17" t="n">
-        <v>11.6</v>
+        <v>11.5</v>
       </c>
       <c r="F17" t="n">
-        <v>39918</v>
+        <v>1988.8955</v>
       </c>
       <c r="G17" t="n">
-        <v>11.51333333333333</v>
+        <v>-303962.4167711344</v>
       </c>
       <c r="H17" t="n">
-        <v>11.42666666666665</v>
+        <v>0</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
       </c>
-      <c r="J17" t="n">
-        <v>0</v>
-      </c>
+      <c r="J17" t="inlineStr"/>
       <c r="K17" t="inlineStr"/>
-      <c r="L17" t="n">
-        <v>11.5</v>
-      </c>
-      <c r="M17" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
-      <c r="N17" t="n">
+      <c r="L17" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M17" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1136,36 +1069,37 @@
         <v>16</v>
       </c>
       <c r="B18" t="n">
-        <v>11.6</v>
+        <v>11.5</v>
       </c>
       <c r="C18" t="n">
-        <v>11.6</v>
+        <v>11.5</v>
       </c>
       <c r="D18" t="n">
-        <v>11.6</v>
+        <v>11.5</v>
       </c>
       <c r="E18" t="n">
-        <v>11.6</v>
+        <v>11.5</v>
       </c>
       <c r="F18" t="n">
-        <v>348.2436</v>
+        <v>8674</v>
       </c>
       <c r="G18" t="n">
-        <v>11.52</v>
+        <v>-303962.4167711344</v>
       </c>
       <c r="H18" t="n">
-        <v>11.42999999999998</v>
+        <v>0</v>
       </c>
       <c r="I18" t="n">
         <v>0</v>
       </c>
-      <c r="J18" t="n">
-        <v>0</v>
-      </c>
+      <c r="J18" t="inlineStr"/>
       <c r="K18" t="inlineStr"/>
-      <c r="L18" t="inlineStr"/>
-      <c r="M18" t="inlineStr"/>
-      <c r="N18" t="n">
+      <c r="L18" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M18" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1174,36 +1108,39 @@
         <v>17</v>
       </c>
       <c r="B19" t="n">
-        <v>11.7</v>
+        <v>11.5</v>
       </c>
       <c r="C19" t="n">
-        <v>11.7</v>
+        <v>11.5</v>
       </c>
       <c r="D19" t="n">
-        <v>11.7</v>
+        <v>11.5</v>
       </c>
       <c r="E19" t="n">
-        <v>11.7</v>
+        <v>11.5</v>
       </c>
       <c r="F19" t="n">
-        <v>234.8206</v>
+        <v>176183.8331</v>
       </c>
       <c r="G19" t="n">
-        <v>11.54</v>
+        <v>-303962.4167711344</v>
       </c>
       <c r="H19" t="n">
-        <v>11.43499999999998</v>
+        <v>1</v>
       </c>
       <c r="I19" t="n">
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>0</v>
+        <v>11.5</v>
       </c>
       <c r="K19" t="inlineStr"/>
-      <c r="L19" t="inlineStr"/>
-      <c r="M19" t="inlineStr"/>
-      <c r="N19" t="n">
+      <c r="L19" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M19" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1212,36 +1149,37 @@
         <v>18</v>
       </c>
       <c r="B20" t="n">
-        <v>11.7</v>
+        <v>11.5</v>
       </c>
       <c r="C20" t="n">
-        <v>11.7</v>
+        <v>11.5</v>
       </c>
       <c r="D20" t="n">
-        <v>11.7</v>
+        <v>11.5</v>
       </c>
       <c r="E20" t="n">
-        <v>11.7</v>
+        <v>11.5</v>
       </c>
       <c r="F20" t="n">
-        <v>60130.1794</v>
+        <v>40665.2789</v>
       </c>
       <c r="G20" t="n">
-        <v>11.56</v>
+        <v>-303962.4167711344</v>
       </c>
       <c r="H20" t="n">
-        <v>11.44166666666665</v>
+        <v>0</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
       </c>
-      <c r="J20" t="n">
-        <v>0</v>
-      </c>
+      <c r="J20" t="inlineStr"/>
       <c r="K20" t="inlineStr"/>
-      <c r="L20" t="inlineStr"/>
-      <c r="M20" t="inlineStr"/>
-      <c r="N20" t="n">
+      <c r="L20" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M20" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1250,36 +1188,37 @@
         <v>19</v>
       </c>
       <c r="B21" t="n">
-        <v>11.7</v>
+        <v>11.5</v>
       </c>
       <c r="C21" t="n">
-        <v>11.7</v>
+        <v>11.6</v>
       </c>
       <c r="D21" t="n">
-        <v>11.7</v>
+        <v>11.6</v>
       </c>
       <c r="E21" t="n">
-        <v>11.7</v>
+        <v>11.4</v>
       </c>
       <c r="F21" t="n">
-        <v>3296.405</v>
+        <v>99911.58106551724</v>
       </c>
       <c r="G21" t="n">
-        <v>11.57999999999999</v>
+        <v>-204050.8357056171</v>
       </c>
       <c r="H21" t="n">
-        <v>11.44833333333332</v>
+        <v>0</v>
       </c>
       <c r="I21" t="n">
         <v>0</v>
       </c>
-      <c r="J21" t="n">
-        <v>0</v>
-      </c>
+      <c r="J21" t="inlineStr"/>
       <c r="K21" t="inlineStr"/>
-      <c r="L21" t="inlineStr"/>
-      <c r="M21" t="inlineStr"/>
-      <c r="N21" t="n">
+      <c r="L21" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M21" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1288,36 +1227,37 @@
         <v>20</v>
       </c>
       <c r="B22" t="n">
-        <v>11.8</v>
+        <v>11.6</v>
       </c>
       <c r="C22" t="n">
-        <v>11.8</v>
+        <v>11.6</v>
       </c>
       <c r="D22" t="n">
-        <v>11.8</v>
+        <v>11.6</v>
       </c>
       <c r="E22" t="n">
-        <v>11.8</v>
+        <v>11.6</v>
       </c>
       <c r="F22" t="n">
-        <v>166602.5318</v>
+        <v>104002.4714</v>
       </c>
       <c r="G22" t="n">
-        <v>11.6</v>
+        <v>-204050.8357056171</v>
       </c>
       <c r="H22" t="n">
-        <v>11.45666666666665</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
         <v>0</v>
       </c>
-      <c r="J22" t="n">
-        <v>0</v>
-      </c>
+      <c r="J22" t="inlineStr"/>
       <c r="K22" t="inlineStr"/>
-      <c r="L22" t="inlineStr"/>
-      <c r="M22" t="inlineStr"/>
-      <c r="N22" t="n">
+      <c r="L22" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M22" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1326,36 +1266,37 @@
         <v>21</v>
       </c>
       <c r="B23" t="n">
-        <v>11.9</v>
+        <v>11.5</v>
       </c>
       <c r="C23" t="n">
-        <v>11.6</v>
+        <v>11.5</v>
       </c>
       <c r="D23" t="n">
-        <v>11.9</v>
+        <v>11.5</v>
       </c>
       <c r="E23" t="n">
         <v>11.5</v>
       </c>
       <c r="F23" t="n">
-        <v>157159.5878</v>
+        <v>13685.4766</v>
       </c>
       <c r="G23" t="n">
-        <v>11.60666666666666</v>
+        <v>-217736.3123056171</v>
       </c>
       <c r="H23" t="n">
-        <v>11.46166666666665</v>
+        <v>0</v>
       </c>
       <c r="I23" t="n">
         <v>0</v>
       </c>
-      <c r="J23" t="n">
-        <v>0</v>
-      </c>
+      <c r="J23" t="inlineStr"/>
       <c r="K23" t="inlineStr"/>
-      <c r="L23" t="inlineStr"/>
-      <c r="M23" t="inlineStr"/>
-      <c r="N23" t="n">
+      <c r="L23" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M23" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1364,36 +1305,37 @@
         <v>22</v>
       </c>
       <c r="B24" t="n">
-        <v>11.6</v>
+        <v>11.5</v>
       </c>
       <c r="C24" t="n">
-        <v>11.6</v>
+        <v>11.7</v>
       </c>
       <c r="D24" t="n">
-        <v>11.6</v>
+        <v>11.7</v>
       </c>
       <c r="E24" t="n">
-        <v>11.6</v>
+        <v>11.5</v>
       </c>
       <c r="F24" t="n">
-        <v>1546.1593</v>
+        <v>62854.34188034188</v>
       </c>
       <c r="G24" t="n">
-        <v>11.60666666666666</v>
+        <v>-154881.9704252752</v>
       </c>
       <c r="H24" t="n">
-        <v>11.46666666666665</v>
+        <v>0</v>
       </c>
       <c r="I24" t="n">
         <v>0</v>
       </c>
-      <c r="J24" t="n">
-        <v>0</v>
-      </c>
+      <c r="J24" t="inlineStr"/>
       <c r="K24" t="inlineStr"/>
-      <c r="L24" t="inlineStr"/>
-      <c r="M24" t="inlineStr"/>
-      <c r="N24" t="n">
+      <c r="L24" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M24" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1402,36 +1344,37 @@
         <v>23</v>
       </c>
       <c r="B25" t="n">
-        <v>11.6</v>
+        <v>11.5</v>
       </c>
       <c r="C25" t="n">
-        <v>11.6</v>
+        <v>11.5</v>
       </c>
       <c r="D25" t="n">
-        <v>11.6</v>
+        <v>11.5</v>
       </c>
       <c r="E25" t="n">
-        <v>11.6</v>
+        <v>11.5</v>
       </c>
       <c r="F25" t="n">
-        <v>315.6044</v>
+        <v>629.5689</v>
       </c>
       <c r="G25" t="n">
-        <v>11.61333333333333</v>
+        <v>-155511.5393252753</v>
       </c>
       <c r="H25" t="n">
-        <v>11.47166666666666</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
         <v>0</v>
       </c>
-      <c r="J25" t="n">
-        <v>0</v>
-      </c>
+      <c r="J25" t="inlineStr"/>
       <c r="K25" t="inlineStr"/>
-      <c r="L25" t="inlineStr"/>
-      <c r="M25" t="inlineStr"/>
-      <c r="N25" t="n">
+      <c r="L25" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M25" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1440,36 +1383,37 @@
         <v>24</v>
       </c>
       <c r="B26" t="n">
-        <v>11.6</v>
+        <v>11.5</v>
       </c>
       <c r="C26" t="n">
-        <v>11.6</v>
+        <v>11.5</v>
       </c>
       <c r="D26" t="n">
-        <v>11.6</v>
+        <v>11.5</v>
       </c>
       <c r="E26" t="n">
-        <v>11.6</v>
+        <v>11.5</v>
       </c>
       <c r="F26" t="n">
-        <v>19712.9732</v>
+        <v>41123.5154</v>
       </c>
       <c r="G26" t="n">
-        <v>11.62</v>
+        <v>-155511.5393252753</v>
       </c>
       <c r="H26" t="n">
-        <v>11.47666666666666</v>
+        <v>0</v>
       </c>
       <c r="I26" t="n">
         <v>0</v>
       </c>
-      <c r="J26" t="n">
-        <v>0</v>
-      </c>
+      <c r="J26" t="inlineStr"/>
       <c r="K26" t="inlineStr"/>
-      <c r="L26" t="inlineStr"/>
-      <c r="M26" t="inlineStr"/>
-      <c r="N26" t="n">
+      <c r="L26" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M26" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1478,36 +1422,37 @@
         <v>25</v>
       </c>
       <c r="B27" t="n">
-        <v>11.6</v>
+        <v>11.5</v>
       </c>
       <c r="C27" t="n">
-        <v>11.6</v>
+        <v>11.5</v>
       </c>
       <c r="D27" t="n">
-        <v>11.6</v>
+        <v>11.5</v>
       </c>
       <c r="E27" t="n">
-        <v>11.6</v>
+        <v>11.5</v>
       </c>
       <c r="F27" t="n">
-        <v>45319.1004</v>
+        <v>4347.826086956522</v>
       </c>
       <c r="G27" t="n">
-        <v>11.62</v>
+        <v>-155511.5393252753</v>
       </c>
       <c r="H27" t="n">
-        <v>11.48166666666666</v>
+        <v>0</v>
       </c>
       <c r="I27" t="n">
         <v>0</v>
       </c>
-      <c r="J27" t="n">
-        <v>0</v>
-      </c>
+      <c r="J27" t="inlineStr"/>
       <c r="K27" t="inlineStr"/>
-      <c r="L27" t="inlineStr"/>
-      <c r="M27" t="inlineStr"/>
-      <c r="N27" t="n">
+      <c r="L27" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M27" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1528,24 +1473,25 @@
         <v>11.5</v>
       </c>
       <c r="F28" t="n">
-        <v>39667.0323</v>
+        <v>19712.9732</v>
       </c>
       <c r="G28" t="n">
-        <v>11.61333333333333</v>
+        <v>-155511.5393252753</v>
       </c>
       <c r="H28" t="n">
-        <v>11.48499999999999</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
         <v>0</v>
       </c>
-      <c r="J28" t="n">
-        <v>0</v>
-      </c>
+      <c r="J28" t="inlineStr"/>
       <c r="K28" t="inlineStr"/>
-      <c r="L28" t="inlineStr"/>
-      <c r="M28" t="inlineStr"/>
-      <c r="N28" t="n">
+      <c r="L28" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M28" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1554,36 +1500,37 @@
         <v>27</v>
       </c>
       <c r="B29" t="n">
-        <v>11.7</v>
+        <v>11.5</v>
       </c>
       <c r="C29" t="n">
-        <v>11.7</v>
+        <v>11.5</v>
       </c>
       <c r="D29" t="n">
-        <v>11.7</v>
+        <v>11.5</v>
       </c>
       <c r="E29" t="n">
-        <v>11.7</v>
+        <v>11.5</v>
       </c>
       <c r="F29" t="n">
-        <v>12448.8178</v>
+        <v>26021.841</v>
       </c>
       <c r="G29" t="n">
-        <v>11.62666666666666</v>
+        <v>-155511.5393252753</v>
       </c>
       <c r="H29" t="n">
-        <v>11.48999999999999</v>
+        <v>0</v>
       </c>
       <c r="I29" t="n">
         <v>0</v>
       </c>
-      <c r="J29" t="n">
-        <v>0</v>
-      </c>
+      <c r="J29" t="inlineStr"/>
       <c r="K29" t="inlineStr"/>
-      <c r="L29" t="inlineStr"/>
-      <c r="M29" t="inlineStr"/>
-      <c r="N29" t="n">
+      <c r="L29" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M29" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1592,36 +1539,37 @@
         <v>28</v>
       </c>
       <c r="B30" t="n">
-        <v>11.7</v>
+        <v>11.4</v>
       </c>
       <c r="C30" t="n">
-        <v>11.7</v>
+        <v>11.4</v>
       </c>
       <c r="D30" t="n">
-        <v>11.7</v>
+        <v>11.4</v>
       </c>
       <c r="E30" t="n">
-        <v>11.7</v>
+        <v>11.4</v>
       </c>
       <c r="F30" t="n">
-        <v>16129.033</v>
+        <v>7800.302</v>
       </c>
       <c r="G30" t="n">
-        <v>11.63333333333333</v>
+        <v>-163311.8413252753</v>
       </c>
       <c r="H30" t="n">
-        <v>11.49666666666666</v>
+        <v>0</v>
       </c>
       <c r="I30" t="n">
         <v>0</v>
       </c>
-      <c r="J30" t="n">
-        <v>0</v>
-      </c>
+      <c r="J30" t="inlineStr"/>
       <c r="K30" t="inlineStr"/>
-      <c r="L30" t="inlineStr"/>
-      <c r="M30" t="inlineStr"/>
-      <c r="N30" t="n">
+      <c r="L30" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M30" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1630,36 +1578,39 @@
         <v>29</v>
       </c>
       <c r="B31" t="n">
-        <v>11.6</v>
+        <v>11.5</v>
       </c>
       <c r="C31" t="n">
-        <v>11.6</v>
+        <v>11.5</v>
       </c>
       <c r="D31" t="n">
-        <v>11.6</v>
+        <v>11.5</v>
       </c>
       <c r="E31" t="n">
-        <v>11.6</v>
+        <v>11.5</v>
       </c>
       <c r="F31" t="n">
-        <v>18850.881</v>
+        <v>25059.84431304348</v>
       </c>
       <c r="G31" t="n">
-        <v>11.63999999999999</v>
+        <v>-138251.9970122318</v>
       </c>
       <c r="H31" t="n">
-        <v>11.50166666666666</v>
+        <v>1</v>
       </c>
       <c r="I31" t="n">
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>0</v>
+        <v>11.4</v>
       </c>
       <c r="K31" t="inlineStr"/>
-      <c r="L31" t="inlineStr"/>
-      <c r="M31" t="inlineStr"/>
-      <c r="N31" t="n">
+      <c r="L31" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M31" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1668,36 +1619,37 @@
         <v>30</v>
       </c>
       <c r="B32" t="n">
-        <v>11.6</v>
+        <v>11.5</v>
       </c>
       <c r="C32" t="n">
-        <v>11.6</v>
+        <v>11.5</v>
       </c>
       <c r="D32" t="n">
-        <v>11.6</v>
+        <v>11.5</v>
       </c>
       <c r="E32" t="n">
-        <v>11.6</v>
+        <v>11.5</v>
       </c>
       <c r="F32" t="n">
-        <v>87199.11900000001</v>
+        <v>6472.514786956522</v>
       </c>
       <c r="G32" t="n">
-        <v>11.63999999999999</v>
+        <v>-138251.9970122318</v>
       </c>
       <c r="H32" t="n">
-        <v>11.505</v>
+        <v>0</v>
       </c>
       <c r="I32" t="n">
         <v>0</v>
       </c>
-      <c r="J32" t="n">
-        <v>0</v>
-      </c>
+      <c r="J32" t="inlineStr"/>
       <c r="K32" t="inlineStr"/>
-      <c r="L32" t="inlineStr"/>
-      <c r="M32" t="inlineStr"/>
-      <c r="N32" t="n">
+      <c r="L32" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M32" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1706,36 +1658,37 @@
         <v>31</v>
       </c>
       <c r="B33" t="n">
-        <v>11.6</v>
+        <v>11.4</v>
       </c>
       <c r="C33" t="n">
-        <v>11.6</v>
+        <v>11.4</v>
       </c>
       <c r="D33" t="n">
-        <v>11.6</v>
+        <v>11.4</v>
       </c>
       <c r="E33" t="n">
-        <v>11.6</v>
+        <v>11.4</v>
       </c>
       <c r="F33" t="n">
-        <v>12800.881</v>
+        <v>3241.875</v>
       </c>
       <c r="G33" t="n">
-        <v>11.63999999999999</v>
+        <v>-141493.8720122318</v>
       </c>
       <c r="H33" t="n">
-        <v>11.51</v>
+        <v>0</v>
       </c>
       <c r="I33" t="n">
         <v>0</v>
       </c>
-      <c r="J33" t="n">
-        <v>0</v>
-      </c>
+      <c r="J33" t="inlineStr"/>
       <c r="K33" t="inlineStr"/>
-      <c r="L33" t="inlineStr"/>
-      <c r="M33" t="inlineStr"/>
-      <c r="N33" t="n">
+      <c r="L33" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M33" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1744,36 +1697,37 @@
         <v>32</v>
       </c>
       <c r="B34" t="n">
-        <v>11.7</v>
+        <v>11.4</v>
       </c>
       <c r="C34" t="n">
-        <v>11.7</v>
+        <v>11.4</v>
       </c>
       <c r="D34" t="n">
-        <v>11.7</v>
+        <v>11.4</v>
       </c>
       <c r="E34" t="n">
-        <v>11.7</v>
+        <v>11.4</v>
       </c>
       <c r="F34" t="n">
-        <v>85966.81789999999</v>
+        <v>26021.841</v>
       </c>
       <c r="G34" t="n">
-        <v>11.63999999999999</v>
+        <v>-141493.8720122318</v>
       </c>
       <c r="H34" t="n">
-        <v>11.51666666666666</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
         <v>0</v>
       </c>
-      <c r="J34" t="n">
-        <v>0</v>
-      </c>
+      <c r="J34" t="inlineStr"/>
       <c r="K34" t="inlineStr"/>
-      <c r="L34" t="inlineStr"/>
-      <c r="M34" t="inlineStr"/>
-      <c r="N34" t="n">
+      <c r="L34" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M34" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1782,36 +1736,37 @@
         <v>33</v>
       </c>
       <c r="B35" t="n">
-        <v>11.7</v>
+        <v>11.4</v>
       </c>
       <c r="C35" t="n">
-        <v>11.7</v>
+        <v>11.4</v>
       </c>
       <c r="D35" t="n">
-        <v>11.7</v>
+        <v>11.4</v>
       </c>
       <c r="E35" t="n">
-        <v>11.7</v>
+        <v>11.4</v>
       </c>
       <c r="F35" t="n">
-        <v>13302038.8404</v>
+        <v>100845.4887</v>
       </c>
       <c r="G35" t="n">
-        <v>11.63999999999999</v>
+        <v>-141493.8720122318</v>
       </c>
       <c r="H35" t="n">
-        <v>11.52333333333333</v>
+        <v>0</v>
       </c>
       <c r="I35" t="n">
         <v>0</v>
       </c>
-      <c r="J35" t="n">
-        <v>0</v>
-      </c>
+      <c r="J35" t="inlineStr"/>
       <c r="K35" t="inlineStr"/>
-      <c r="L35" t="inlineStr"/>
-      <c r="M35" t="inlineStr"/>
-      <c r="N35" t="n">
+      <c r="L35" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M35" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1820,36 +1775,37 @@
         <v>34</v>
       </c>
       <c r="B36" t="n">
-        <v>11.7</v>
+        <v>11.5</v>
       </c>
       <c r="C36" t="n">
-        <v>11.7</v>
+        <v>11.5</v>
       </c>
       <c r="D36" t="n">
-        <v>11.7</v>
+        <v>11.5</v>
       </c>
       <c r="E36" t="n">
-        <v>11.6</v>
+        <v>11.5</v>
       </c>
       <c r="F36" t="n">
-        <v>130065131.364</v>
+        <v>9556.8855</v>
       </c>
       <c r="G36" t="n">
-        <v>11.63999999999999</v>
+        <v>-131936.9865122318</v>
       </c>
       <c r="H36" t="n">
-        <v>11.53</v>
+        <v>0</v>
       </c>
       <c r="I36" t="n">
         <v>0</v>
       </c>
-      <c r="J36" t="n">
-        <v>0</v>
-      </c>
+      <c r="J36" t="inlineStr"/>
       <c r="K36" t="inlineStr"/>
-      <c r="L36" t="inlineStr"/>
-      <c r="M36" t="inlineStr"/>
-      <c r="N36" t="n">
+      <c r="L36" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M36" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1858,36 +1814,37 @@
         <v>35</v>
       </c>
       <c r="B37" t="n">
-        <v>11.7</v>
+        <v>11.5</v>
       </c>
       <c r="C37" t="n">
-        <v>11.7</v>
+        <v>11.5</v>
       </c>
       <c r="D37" t="n">
-        <v>11.7</v>
+        <v>11.5</v>
       </c>
       <c r="E37" t="n">
-        <v>11.6</v>
+        <v>11.5</v>
       </c>
       <c r="F37" t="n">
-        <v>106001857.6074</v>
+        <v>78995.1009</v>
       </c>
       <c r="G37" t="n">
-        <v>11.63333333333333</v>
+        <v>-131936.9865122318</v>
       </c>
       <c r="H37" t="n">
-        <v>11.53666666666667</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
         <v>0</v>
       </c>
-      <c r="J37" t="n">
-        <v>0</v>
-      </c>
+      <c r="J37" t="inlineStr"/>
       <c r="K37" t="inlineStr"/>
-      <c r="L37" t="inlineStr"/>
-      <c r="M37" t="inlineStr"/>
-      <c r="N37" t="n">
+      <c r="L37" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M37" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1896,36 +1853,37 @@
         <v>36</v>
       </c>
       <c r="B38" t="n">
-        <v>11.7</v>
+        <v>11.6</v>
       </c>
       <c r="C38" t="n">
-        <v>11.7</v>
+        <v>11.6</v>
       </c>
       <c r="D38" t="n">
-        <v>11.7</v>
+        <v>11.6</v>
       </c>
       <c r="E38" t="n">
-        <v>11.7</v>
+        <v>11.6</v>
       </c>
       <c r="F38" t="n">
-        <v>92703390.89920001</v>
+        <v>10000</v>
       </c>
       <c r="G38" t="n">
-        <v>11.63999999999999</v>
+        <v>-121936.9865122318</v>
       </c>
       <c r="H38" t="n">
-        <v>11.54333333333334</v>
+        <v>0</v>
       </c>
       <c r="I38" t="n">
         <v>0</v>
       </c>
-      <c r="J38" t="n">
-        <v>0</v>
-      </c>
+      <c r="J38" t="inlineStr"/>
       <c r="K38" t="inlineStr"/>
-      <c r="L38" t="inlineStr"/>
-      <c r="M38" t="inlineStr"/>
-      <c r="N38" t="n">
+      <c r="L38" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M38" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1934,36 +1892,37 @@
         <v>37</v>
       </c>
       <c r="B39" t="n">
-        <v>11.7</v>
+        <v>11.5</v>
       </c>
       <c r="C39" t="n">
-        <v>11.7</v>
+        <v>11.5</v>
       </c>
       <c r="D39" t="n">
-        <v>11.7</v>
+        <v>11.5</v>
       </c>
       <c r="E39" t="n">
-        <v>11.7</v>
+        <v>11.5</v>
       </c>
       <c r="F39" t="n">
-        <v>38036926.8492</v>
+        <v>2900</v>
       </c>
       <c r="G39" t="n">
-        <v>11.64666666666666</v>
+        <v>-124836.9865122318</v>
       </c>
       <c r="H39" t="n">
-        <v>11.54833333333334</v>
+        <v>0</v>
       </c>
       <c r="I39" t="n">
         <v>0</v>
       </c>
-      <c r="J39" t="n">
-        <v>0</v>
-      </c>
+      <c r="J39" t="inlineStr"/>
       <c r="K39" t="inlineStr"/>
-      <c r="L39" t="inlineStr"/>
-      <c r="M39" t="inlineStr"/>
-      <c r="N39" t="n">
+      <c r="L39" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M39" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1972,36 +1931,37 @@
         <v>38</v>
       </c>
       <c r="B40" t="n">
-        <v>11.7</v>
+        <v>11.5</v>
       </c>
       <c r="C40" t="n">
-        <v>11.7</v>
+        <v>11.5</v>
       </c>
       <c r="D40" t="n">
-        <v>11.7</v>
+        <v>11.5</v>
       </c>
       <c r="E40" t="n">
-        <v>11.7</v>
+        <v>11.5</v>
       </c>
       <c r="F40" t="n">
-        <v>8453362.104</v>
+        <v>27100</v>
       </c>
       <c r="G40" t="n">
-        <v>11.65333333333333</v>
+        <v>-124836.9865122318</v>
       </c>
       <c r="H40" t="n">
-        <v>11.55333333333334</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
         <v>0</v>
       </c>
-      <c r="J40" t="n">
-        <v>0</v>
-      </c>
+      <c r="J40" t="inlineStr"/>
       <c r="K40" t="inlineStr"/>
-      <c r="L40" t="inlineStr"/>
-      <c r="M40" t="inlineStr"/>
-      <c r="N40" t="n">
+      <c r="L40" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M40" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2010,36 +1970,39 @@
         <v>39</v>
       </c>
       <c r="B41" t="n">
-        <v>11.7</v>
+        <v>11.6</v>
       </c>
       <c r="C41" t="n">
-        <v>11.7</v>
+        <v>11.6</v>
       </c>
       <c r="D41" t="n">
-        <v>11.7</v>
+        <v>11.6</v>
       </c>
       <c r="E41" t="n">
-        <v>11.7</v>
+        <v>11.6</v>
       </c>
       <c r="F41" t="n">
-        <v>156096310.7232</v>
+        <v>20920</v>
       </c>
       <c r="G41" t="n">
-        <v>11.65999999999999</v>
+        <v>-103916.9865122318</v>
       </c>
       <c r="H41" t="n">
-        <v>11.55833333333334</v>
+        <v>1</v>
       </c>
       <c r="I41" t="n">
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>0</v>
+        <v>11.5</v>
       </c>
       <c r="K41" t="inlineStr"/>
-      <c r="L41" t="inlineStr"/>
-      <c r="M41" t="inlineStr"/>
-      <c r="N41" t="n">
+      <c r="L41" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M41" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2048,36 +2011,37 @@
         <v>40</v>
       </c>
       <c r="B42" t="n">
-        <v>11.7</v>
+        <v>11.6</v>
       </c>
       <c r="C42" t="n">
-        <v>11.7</v>
+        <v>11.6</v>
       </c>
       <c r="D42" t="n">
-        <v>11.7</v>
+        <v>11.6</v>
       </c>
       <c r="E42" t="n">
-        <v>11.7</v>
+        <v>11.6</v>
       </c>
       <c r="F42" t="n">
-        <v>195853126.5092</v>
+        <v>3250</v>
       </c>
       <c r="G42" t="n">
-        <v>11.66666666666666</v>
+        <v>-103916.9865122318</v>
       </c>
       <c r="H42" t="n">
-        <v>11.56333333333334</v>
+        <v>0</v>
       </c>
       <c r="I42" t="n">
         <v>0</v>
       </c>
-      <c r="J42" t="n">
-        <v>0</v>
-      </c>
+      <c r="J42" t="inlineStr"/>
       <c r="K42" t="inlineStr"/>
-      <c r="L42" t="inlineStr"/>
-      <c r="M42" t="inlineStr"/>
-      <c r="N42" t="n">
+      <c r="L42" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M42" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2086,36 +2050,37 @@
         <v>41</v>
       </c>
       <c r="B43" t="n">
-        <v>11.7</v>
+        <v>11.5</v>
       </c>
       <c r="C43" t="n">
-        <v>11.7</v>
+        <v>11.5</v>
       </c>
       <c r="D43" t="n">
-        <v>11.7</v>
+        <v>11.5</v>
       </c>
       <c r="E43" t="n">
-        <v>11.7</v>
+        <v>11.5</v>
       </c>
       <c r="F43" t="n">
-        <v>158274385.0388</v>
+        <v>4604</v>
       </c>
       <c r="G43" t="n">
-        <v>11.67999999999999</v>
+        <v>-108520.9865122318</v>
       </c>
       <c r="H43" t="n">
-        <v>11.57000000000001</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
         <v>0</v>
       </c>
-      <c r="J43" t="n">
-        <v>0</v>
-      </c>
+      <c r="J43" t="inlineStr"/>
       <c r="K43" t="inlineStr"/>
-      <c r="L43" t="inlineStr"/>
-      <c r="M43" t="inlineStr"/>
-      <c r="N43" t="n">
+      <c r="L43" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M43" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2124,36 +2089,37 @@
         <v>42</v>
       </c>
       <c r="B44" t="n">
-        <v>11.7</v>
+        <v>11.6</v>
       </c>
       <c r="C44" t="n">
-        <v>11.7</v>
+        <v>11.6</v>
       </c>
       <c r="D44" t="n">
-        <v>11.7</v>
+        <v>11.6</v>
       </c>
       <c r="E44" t="n">
         <v>11.6</v>
       </c>
       <c r="F44" t="n">
-        <v>179923443.1154</v>
+        <v>11721</v>
       </c>
       <c r="G44" t="n">
-        <v>11.67999999999999</v>
+        <v>-96799.98651223176</v>
       </c>
       <c r="H44" t="n">
-        <v>11.57666666666668</v>
+        <v>0</v>
       </c>
       <c r="I44" t="n">
         <v>0</v>
       </c>
-      <c r="J44" t="n">
-        <v>0</v>
-      </c>
+      <c r="J44" t="inlineStr"/>
       <c r="K44" t="inlineStr"/>
-      <c r="L44" t="inlineStr"/>
-      <c r="M44" t="inlineStr"/>
-      <c r="N44" t="n">
+      <c r="L44" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M44" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2162,36 +2128,37 @@
         <v>43</v>
       </c>
       <c r="B45" t="n">
-        <v>11.7</v>
+        <v>11.5</v>
       </c>
       <c r="C45" t="n">
-        <v>11.7</v>
+        <v>11.5</v>
       </c>
       <c r="D45" t="n">
-        <v>11.7</v>
+        <v>11.5</v>
       </c>
       <c r="E45" t="n">
-        <v>11.6</v>
+        <v>11.5</v>
       </c>
       <c r="F45" t="n">
-        <v>121746723.4606</v>
+        <v>1200</v>
       </c>
       <c r="G45" t="n">
-        <v>11.67999999999999</v>
+        <v>-97999.98651223176</v>
       </c>
       <c r="H45" t="n">
-        <v>11.58166666666668</v>
+        <v>0</v>
       </c>
       <c r="I45" t="n">
         <v>0</v>
       </c>
-      <c r="J45" t="n">
-        <v>0</v>
-      </c>
+      <c r="J45" t="inlineStr"/>
       <c r="K45" t="inlineStr"/>
-      <c r="L45" t="inlineStr"/>
-      <c r="M45" t="inlineStr"/>
-      <c r="N45" t="n">
+      <c r="L45" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M45" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2200,36 +2167,37 @@
         <v>44</v>
       </c>
       <c r="B46" t="n">
-        <v>11.7</v>
+        <v>11.6</v>
       </c>
       <c r="C46" t="n">
-        <v>11.7</v>
+        <v>11.6</v>
       </c>
       <c r="D46" t="n">
-        <v>11.7</v>
+        <v>11.6</v>
       </c>
       <c r="E46" t="n">
-        <v>11.7</v>
+        <v>11.6</v>
       </c>
       <c r="F46" t="n">
-        <v>27976905.5353</v>
+        <v>39918</v>
       </c>
       <c r="G46" t="n">
-        <v>11.68666666666666</v>
+        <v>-58081.98651223176</v>
       </c>
       <c r="H46" t="n">
-        <v>11.58833333333335</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
         <v>0</v>
       </c>
-      <c r="J46" t="n">
-        <v>0</v>
-      </c>
+      <c r="J46" t="inlineStr"/>
       <c r="K46" t="inlineStr"/>
-      <c r="L46" t="inlineStr"/>
-      <c r="M46" t="inlineStr"/>
-      <c r="N46" t="n">
+      <c r="L46" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M46" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2238,36 +2206,37 @@
         <v>45</v>
       </c>
       <c r="B47" t="n">
-        <v>11.7</v>
+        <v>11.6</v>
       </c>
       <c r="C47" t="n">
-        <v>11.7</v>
+        <v>11.6</v>
       </c>
       <c r="D47" t="n">
-        <v>11.7</v>
+        <v>11.6</v>
       </c>
       <c r="E47" t="n">
         <v>11.6</v>
       </c>
       <c r="F47" t="n">
-        <v>112470697.5007</v>
+        <v>348.2436</v>
       </c>
       <c r="G47" t="n">
-        <v>11.69333333333332</v>
+        <v>-58081.98651223176</v>
       </c>
       <c r="H47" t="n">
-        <v>11.59166666666668</v>
+        <v>0</v>
       </c>
       <c r="I47" t="n">
         <v>0</v>
       </c>
-      <c r="J47" t="n">
-        <v>0</v>
-      </c>
+      <c r="J47" t="inlineStr"/>
       <c r="K47" t="inlineStr"/>
-      <c r="L47" t="inlineStr"/>
-      <c r="M47" t="inlineStr"/>
-      <c r="N47" t="n">
+      <c r="L47" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M47" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2288,24 +2257,25 @@
         <v>11.7</v>
       </c>
       <c r="F48" t="n">
-        <v>186207290.4324</v>
+        <v>234.8206</v>
       </c>
       <c r="G48" t="n">
-        <v>11.69999999999999</v>
+        <v>-57847.16591223176</v>
       </c>
       <c r="H48" t="n">
-        <v>11.59500000000002</v>
+        <v>0</v>
       </c>
       <c r="I48" t="n">
         <v>0</v>
       </c>
-      <c r="J48" t="n">
-        <v>0</v>
-      </c>
+      <c r="J48" t="inlineStr"/>
       <c r="K48" t="inlineStr"/>
-      <c r="L48" t="inlineStr"/>
-      <c r="M48" t="inlineStr"/>
-      <c r="N48" t="n">
+      <c r="L48" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M48" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2326,24 +2296,25 @@
         <v>11.7</v>
       </c>
       <c r="F49" t="n">
-        <v>187632281.534</v>
+        <v>60130.1794</v>
       </c>
       <c r="G49" t="n">
-        <v>11.69999999999999</v>
+        <v>-57847.16591223176</v>
       </c>
       <c r="H49" t="n">
-        <v>11.59833333333335</v>
+        <v>0</v>
       </c>
       <c r="I49" t="n">
         <v>0</v>
       </c>
-      <c r="J49" t="n">
-        <v>0</v>
-      </c>
+      <c r="J49" t="inlineStr"/>
       <c r="K49" t="inlineStr"/>
-      <c r="L49" t="inlineStr"/>
-      <c r="M49" t="inlineStr"/>
-      <c r="N49" t="n">
+      <c r="L49" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M49" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2364,24 +2335,25 @@
         <v>11.7</v>
       </c>
       <c r="F50" t="n">
-        <v>189037860.2988</v>
+        <v>3296.405</v>
       </c>
       <c r="G50" t="n">
-        <v>11.69999999999999</v>
+        <v>-57847.16591223176</v>
       </c>
       <c r="H50" t="n">
-        <v>11.60166666666668</v>
+        <v>0</v>
       </c>
       <c r="I50" t="n">
         <v>0</v>
       </c>
-      <c r="J50" t="n">
-        <v>0</v>
-      </c>
+      <c r="J50" t="inlineStr"/>
       <c r="K50" t="inlineStr"/>
-      <c r="L50" t="inlineStr"/>
-      <c r="M50" t="inlineStr"/>
-      <c r="N50" t="n">
+      <c r="L50" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M50" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2390,36 +2362,37 @@
         <v>49</v>
       </c>
       <c r="B51" t="n">
-        <v>11.7</v>
+        <v>11.8</v>
       </c>
       <c r="C51" t="n">
-        <v>11.7</v>
+        <v>11.8</v>
       </c>
       <c r="D51" t="n">
-        <v>11.7</v>
+        <v>11.8</v>
       </c>
       <c r="E51" t="n">
-        <v>11.7</v>
+        <v>11.8</v>
       </c>
       <c r="F51" t="n">
-        <v>189738700.8229</v>
+        <v>166602.5318</v>
       </c>
       <c r="G51" t="n">
-        <v>11.69999999999999</v>
+        <v>108755.3658877682</v>
       </c>
       <c r="H51" t="n">
-        <v>11.60500000000002</v>
+        <v>0</v>
       </c>
       <c r="I51" t="n">
         <v>0</v>
       </c>
-      <c r="J51" t="n">
-        <v>0</v>
-      </c>
+      <c r="J51" t="inlineStr"/>
       <c r="K51" t="inlineStr"/>
-      <c r="L51" t="inlineStr"/>
-      <c r="M51" t="inlineStr"/>
-      <c r="N51" t="n">
+      <c r="L51" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M51" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2428,36 +2401,37 @@
         <v>50</v>
       </c>
       <c r="B52" t="n">
-        <v>11.7</v>
+        <v>11.9</v>
       </c>
       <c r="C52" t="n">
-        <v>11.7</v>
+        <v>11.6</v>
       </c>
       <c r="D52" t="n">
-        <v>11.7</v>
+        <v>11.9</v>
       </c>
       <c r="E52" t="n">
-        <v>11.7</v>
+        <v>11.5</v>
       </c>
       <c r="F52" t="n">
-        <v>189733668.404</v>
+        <v>157159.5878</v>
       </c>
       <c r="G52" t="n">
-        <v>11.69999999999999</v>
+        <v>-48404.22191223176</v>
       </c>
       <c r="H52" t="n">
-        <v>11.60666666666669</v>
+        <v>0</v>
       </c>
       <c r="I52" t="n">
         <v>0</v>
       </c>
-      <c r="J52" t="n">
-        <v>0</v>
-      </c>
+      <c r="J52" t="inlineStr"/>
       <c r="K52" t="inlineStr"/>
-      <c r="L52" t="inlineStr"/>
-      <c r="M52" t="inlineStr"/>
-      <c r="N52" t="n">
+      <c r="L52" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M52" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2466,36 +2440,37 @@
         <v>51</v>
       </c>
       <c r="B53" t="n">
-        <v>11.7</v>
+        <v>11.6</v>
       </c>
       <c r="C53" t="n">
-        <v>11.7</v>
+        <v>11.6</v>
       </c>
       <c r="D53" t="n">
-        <v>11.7</v>
+        <v>11.6</v>
       </c>
       <c r="E53" t="n">
-        <v>11.7</v>
+        <v>11.6</v>
       </c>
       <c r="F53" t="n">
-        <v>179900005.3512</v>
+        <v>1546.1593</v>
       </c>
       <c r="G53" t="n">
-        <v>11.69999999999999</v>
+        <v>-48404.22191223176</v>
       </c>
       <c r="H53" t="n">
-        <v>11.60833333333335</v>
+        <v>0</v>
       </c>
       <c r="I53" t="n">
         <v>0</v>
       </c>
-      <c r="J53" t="n">
-        <v>0</v>
-      </c>
+      <c r="J53" t="inlineStr"/>
       <c r="K53" t="inlineStr"/>
-      <c r="L53" t="inlineStr"/>
-      <c r="M53" t="inlineStr"/>
-      <c r="N53" t="n">
+      <c r="L53" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M53" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2504,36 +2479,37 @@
         <v>52</v>
       </c>
       <c r="B54" t="n">
-        <v>11.7</v>
+        <v>11.6</v>
       </c>
       <c r="C54" t="n">
-        <v>11.7</v>
+        <v>11.6</v>
       </c>
       <c r="D54" t="n">
-        <v>11.7</v>
+        <v>11.6</v>
       </c>
       <c r="E54" t="n">
-        <v>11.7</v>
+        <v>11.6</v>
       </c>
       <c r="F54" t="n">
-        <v>186907693.1443</v>
+        <v>315.6044</v>
       </c>
       <c r="G54" t="n">
-        <v>11.69999999999999</v>
+        <v>-48404.22191223176</v>
       </c>
       <c r="H54" t="n">
-        <v>11.61166666666669</v>
+        <v>0</v>
       </c>
       <c r="I54" t="n">
         <v>0</v>
       </c>
-      <c r="J54" t="n">
-        <v>0</v>
-      </c>
+      <c r="J54" t="inlineStr"/>
       <c r="K54" t="inlineStr"/>
-      <c r="L54" t="inlineStr"/>
-      <c r="M54" t="inlineStr"/>
-      <c r="N54" t="n">
+      <c r="L54" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M54" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2542,36 +2518,37 @@
         <v>53</v>
       </c>
       <c r="B55" t="n">
-        <v>11.7</v>
+        <v>11.6</v>
       </c>
       <c r="C55" t="n">
-        <v>11.7</v>
+        <v>11.6</v>
       </c>
       <c r="D55" t="n">
-        <v>11.7</v>
+        <v>11.6</v>
       </c>
       <c r="E55" t="n">
-        <v>11.7</v>
+        <v>11.6</v>
       </c>
       <c r="F55" t="n">
-        <v>189019743.1377</v>
+        <v>19712.9732</v>
       </c>
       <c r="G55" t="n">
-        <v>11.69999999999999</v>
+        <v>-48404.22191223176</v>
       </c>
       <c r="H55" t="n">
-        <v>11.61166666666669</v>
+        <v>0</v>
       </c>
       <c r="I55" t="n">
         <v>0</v>
       </c>
-      <c r="J55" t="n">
-        <v>0</v>
-      </c>
+      <c r="J55" t="inlineStr"/>
       <c r="K55" t="inlineStr"/>
-      <c r="L55" t="inlineStr"/>
-      <c r="M55" t="inlineStr"/>
-      <c r="N55" t="n">
+      <c r="L55" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M55" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2580,36 +2557,37 @@
         <v>54</v>
       </c>
       <c r="B56" t="n">
-        <v>11.7</v>
+        <v>11.6</v>
       </c>
       <c r="C56" t="n">
-        <v>11.7</v>
+        <v>11.6</v>
       </c>
       <c r="D56" t="n">
-        <v>11.7</v>
+        <v>11.6</v>
       </c>
       <c r="E56" t="n">
-        <v>11.7</v>
+        <v>11.6</v>
       </c>
       <c r="F56" t="n">
-        <v>186909832.5976</v>
+        <v>45319.1004</v>
       </c>
       <c r="G56" t="n">
-        <v>11.69999999999999</v>
+        <v>-48404.22191223176</v>
       </c>
       <c r="H56" t="n">
-        <v>11.61500000000002</v>
+        <v>0</v>
       </c>
       <c r="I56" t="n">
         <v>0</v>
       </c>
-      <c r="J56" t="n">
-        <v>0</v>
-      </c>
+      <c r="J56" t="inlineStr"/>
       <c r="K56" t="inlineStr"/>
-      <c r="L56" t="inlineStr"/>
-      <c r="M56" t="inlineStr"/>
-      <c r="N56" t="n">
+      <c r="L56" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M56" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2618,36 +2596,37 @@
         <v>55</v>
       </c>
       <c r="B57" t="n">
-        <v>11.7</v>
+        <v>11.5</v>
       </c>
       <c r="C57" t="n">
-        <v>11.7</v>
+        <v>11.5</v>
       </c>
       <c r="D57" t="n">
-        <v>11.7</v>
+        <v>11.5</v>
       </c>
       <c r="E57" t="n">
-        <v>11.7</v>
+        <v>11.5</v>
       </c>
       <c r="F57" t="n">
-        <v>191151814.6144</v>
+        <v>39667.0323</v>
       </c>
       <c r="G57" t="n">
-        <v>11.69999999999999</v>
+        <v>-88071.25421223175</v>
       </c>
       <c r="H57" t="n">
-        <v>11.61833333333336</v>
+        <v>0</v>
       </c>
       <c r="I57" t="n">
         <v>0</v>
       </c>
-      <c r="J57" t="n">
-        <v>0</v>
-      </c>
+      <c r="J57" t="inlineStr"/>
       <c r="K57" t="inlineStr"/>
-      <c r="L57" t="inlineStr"/>
-      <c r="M57" t="inlineStr"/>
-      <c r="N57" t="n">
+      <c r="L57" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M57" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2668,24 +2647,25 @@
         <v>11.7</v>
       </c>
       <c r="F58" t="n">
-        <v>105400215.78</v>
+        <v>12448.8178</v>
       </c>
       <c r="G58" t="n">
-        <v>11.69999999999999</v>
+        <v>-75622.43641223175</v>
       </c>
       <c r="H58" t="n">
-        <v>11.62166666666669</v>
+        <v>0</v>
       </c>
       <c r="I58" t="n">
         <v>0</v>
       </c>
-      <c r="J58" t="n">
-        <v>0</v>
-      </c>
+      <c r="J58" t="inlineStr"/>
       <c r="K58" t="inlineStr"/>
-      <c r="L58" t="inlineStr"/>
-      <c r="M58" t="inlineStr"/>
-      <c r="N58" t="n">
+      <c r="L58" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M58" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2706,24 +2686,25 @@
         <v>11.7</v>
       </c>
       <c r="F59" t="n">
-        <v>178811966.5981</v>
+        <v>16129.033</v>
       </c>
       <c r="G59" t="n">
-        <v>11.69999999999999</v>
+        <v>-75622.43641223175</v>
       </c>
       <c r="H59" t="n">
-        <v>11.62500000000002</v>
+        <v>0</v>
       </c>
       <c r="I59" t="n">
         <v>0</v>
       </c>
-      <c r="J59" t="n">
-        <v>0</v>
-      </c>
+      <c r="J59" t="inlineStr"/>
       <c r="K59" t="inlineStr"/>
-      <c r="L59" t="inlineStr"/>
-      <c r="M59" t="inlineStr"/>
-      <c r="N59" t="n">
+      <c r="L59" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M59" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2732,36 +2713,37 @@
         <v>58</v>
       </c>
       <c r="B60" t="n">
-        <v>11.7</v>
+        <v>11.6</v>
       </c>
       <c r="C60" t="n">
-        <v>11.7</v>
+        <v>11.6</v>
       </c>
       <c r="D60" t="n">
-        <v>11.7</v>
+        <v>11.6</v>
       </c>
       <c r="E60" t="n">
-        <v>11.7</v>
+        <v>11.6</v>
       </c>
       <c r="F60" t="n">
-        <v>190423056.5092</v>
+        <v>18850.881</v>
       </c>
       <c r="G60" t="n">
-        <v>11.69999999999999</v>
+        <v>-94473.31741223176</v>
       </c>
       <c r="H60" t="n">
-        <v>11.62833333333336</v>
+        <v>0</v>
       </c>
       <c r="I60" t="n">
         <v>0</v>
       </c>
-      <c r="J60" t="n">
-        <v>0</v>
-      </c>
+      <c r="J60" t="inlineStr"/>
       <c r="K60" t="inlineStr"/>
-      <c r="L60" t="inlineStr"/>
-      <c r="M60" t="inlineStr"/>
-      <c r="N60" t="n">
+      <c r="L60" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M60" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2770,36 +2752,37 @@
         <v>59</v>
       </c>
       <c r="B61" t="n">
-        <v>11.7</v>
+        <v>11.6</v>
       </c>
       <c r="C61" t="n">
-        <v>11.7</v>
+        <v>11.6</v>
       </c>
       <c r="D61" t="n">
-        <v>11.7</v>
+        <v>11.6</v>
       </c>
       <c r="E61" t="n">
-        <v>11.7</v>
+        <v>11.6</v>
       </c>
       <c r="F61" t="n">
-        <v>189720388.404</v>
+        <v>87199.11900000001</v>
       </c>
       <c r="G61" t="n">
-        <v>11.69999999999999</v>
+        <v>-94473.31741223176</v>
       </c>
       <c r="H61" t="n">
-        <v>11.63333333333336</v>
+        <v>0</v>
       </c>
       <c r="I61" t="n">
         <v>0</v>
       </c>
-      <c r="J61" t="n">
-        <v>0</v>
-      </c>
+      <c r="J61" t="inlineStr"/>
       <c r="K61" t="inlineStr"/>
-      <c r="L61" t="inlineStr"/>
-      <c r="M61" t="inlineStr"/>
-      <c r="N61" t="n">
+      <c r="L61" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M61" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2808,36 +2791,37 @@
         <v>60</v>
       </c>
       <c r="B62" t="n">
-        <v>11.7</v>
+        <v>11.6</v>
       </c>
       <c r="C62" t="n">
-        <v>11.8</v>
+        <v>11.6</v>
       </c>
       <c r="D62" t="n">
-        <v>11.8</v>
+        <v>11.6</v>
       </c>
       <c r="E62" t="n">
-        <v>11.7</v>
+        <v>11.6</v>
       </c>
       <c r="F62" t="n">
-        <v>5599959.6117</v>
+        <v>12800.881</v>
       </c>
       <c r="G62" t="n">
-        <v>11.70666666666666</v>
+        <v>-94473.31741223176</v>
       </c>
       <c r="H62" t="n">
-        <v>11.63833333333336</v>
+        <v>0</v>
       </c>
       <c r="I62" t="n">
         <v>0</v>
       </c>
-      <c r="J62" t="n">
-        <v>0</v>
-      </c>
+      <c r="J62" t="inlineStr"/>
       <c r="K62" t="inlineStr"/>
-      <c r="L62" t="inlineStr"/>
-      <c r="M62" t="inlineStr"/>
-      <c r="N62" t="n">
+      <c r="L62" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M62" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2846,36 +2830,37 @@
         <v>61</v>
       </c>
       <c r="B63" t="n">
-        <v>11.8</v>
+        <v>11.7</v>
       </c>
       <c r="C63" t="n">
-        <v>11.8</v>
+        <v>11.7</v>
       </c>
       <c r="D63" t="n">
-        <v>11.8</v>
+        <v>11.7</v>
       </c>
       <c r="E63" t="n">
-        <v>11.8</v>
+        <v>11.7</v>
       </c>
       <c r="F63" t="n">
-        <v>4891.0665</v>
+        <v>85966.81789999999</v>
       </c>
       <c r="G63" t="n">
-        <v>11.71333333333333</v>
+        <v>-8506.499512231763</v>
       </c>
       <c r="H63" t="n">
-        <v>11.64333333333336</v>
+        <v>0</v>
       </c>
       <c r="I63" t="n">
         <v>0</v>
       </c>
-      <c r="J63" t="n">
-        <v>0</v>
-      </c>
+      <c r="J63" t="inlineStr"/>
       <c r="K63" t="inlineStr"/>
-      <c r="L63" t="inlineStr"/>
-      <c r="M63" t="inlineStr"/>
-      <c r="N63" t="n">
+      <c r="L63" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M63" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2884,36 +2869,37 @@
         <v>62</v>
       </c>
       <c r="B64" t="n">
-        <v>11.8</v>
+        <v>11.7</v>
       </c>
       <c r="C64" t="n">
-        <v>11.8</v>
+        <v>11.7</v>
       </c>
       <c r="D64" t="n">
-        <v>11.8</v>
+        <v>11.7</v>
       </c>
       <c r="E64" t="n">
-        <v>11.8</v>
+        <v>11.7</v>
       </c>
       <c r="F64" t="n">
-        <v>100000</v>
+        <v>13302038.8404</v>
       </c>
       <c r="G64" t="n">
-        <v>11.71999999999999</v>
+        <v>-8506.499512231763</v>
       </c>
       <c r="H64" t="n">
-        <v>11.65000000000002</v>
+        <v>0</v>
       </c>
       <c r="I64" t="n">
         <v>0</v>
       </c>
-      <c r="J64" t="n">
-        <v>0</v>
-      </c>
+      <c r="J64" t="inlineStr"/>
       <c r="K64" t="inlineStr"/>
-      <c r="L64" t="inlineStr"/>
-      <c r="M64" t="inlineStr"/>
-      <c r="N64" t="n">
+      <c r="L64" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M64" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2922,36 +2908,37 @@
         <v>63</v>
       </c>
       <c r="B65" t="n">
-        <v>11.8</v>
+        <v>11.7</v>
       </c>
       <c r="C65" t="n">
-        <v>11.8</v>
+        <v>11.7</v>
       </c>
       <c r="D65" t="n">
-        <v>11.8</v>
+        <v>11.7</v>
       </c>
       <c r="E65" t="n">
-        <v>11.8</v>
+        <v>11.6</v>
       </c>
       <c r="F65" t="n">
-        <v>2000</v>
+        <v>130065131.364</v>
       </c>
       <c r="G65" t="n">
-        <v>11.72666666666666</v>
+        <v>-8506.499512231763</v>
       </c>
       <c r="H65" t="n">
-        <v>11.65666666666669</v>
+        <v>0</v>
       </c>
       <c r="I65" t="n">
         <v>0</v>
       </c>
-      <c r="J65" t="n">
-        <v>0</v>
-      </c>
+      <c r="J65" t="inlineStr"/>
       <c r="K65" t="inlineStr"/>
-      <c r="L65" t="inlineStr"/>
-      <c r="M65" t="inlineStr"/>
-      <c r="N65" t="n">
+      <c r="L65" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M65" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2960,36 +2947,37 @@
         <v>64</v>
       </c>
       <c r="B66" t="n">
-        <v>11.9</v>
+        <v>11.7</v>
       </c>
       <c r="C66" t="n">
-        <v>11.9</v>
+        <v>11.7</v>
       </c>
       <c r="D66" t="n">
-        <v>11.9</v>
+        <v>11.7</v>
       </c>
       <c r="E66" t="n">
-        <v>11.9</v>
+        <v>11.6</v>
       </c>
       <c r="F66" t="n">
-        <v>251.3883</v>
+        <v>106001857.6074</v>
       </c>
       <c r="G66" t="n">
-        <v>11.74</v>
+        <v>-8506.499512231763</v>
       </c>
       <c r="H66" t="n">
-        <v>11.66500000000002</v>
+        <v>0</v>
       </c>
       <c r="I66" t="n">
         <v>0</v>
       </c>
-      <c r="J66" t="n">
-        <v>0</v>
-      </c>
+      <c r="J66" t="inlineStr"/>
       <c r="K66" t="inlineStr"/>
-      <c r="L66" t="inlineStr"/>
-      <c r="M66" t="inlineStr"/>
-      <c r="N66" t="n">
+      <c r="L66" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M66" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2998,36 +2986,37 @@
         <v>65</v>
       </c>
       <c r="B67" t="n">
-        <v>11.9</v>
+        <v>11.7</v>
       </c>
       <c r="C67" t="n">
-        <v>11.9</v>
+        <v>11.7</v>
       </c>
       <c r="D67" t="n">
-        <v>11.9</v>
+        <v>11.7</v>
       </c>
       <c r="E67" t="n">
-        <v>11.9</v>
+        <v>11.7</v>
       </c>
       <c r="F67" t="n">
-        <v>4201.680672268908</v>
+        <v>92703390.89920001</v>
       </c>
       <c r="G67" t="n">
-        <v>11.75333333333333</v>
+        <v>-8506.499512231763</v>
       </c>
       <c r="H67" t="n">
-        <v>11.67166666666669</v>
+        <v>0</v>
       </c>
       <c r="I67" t="n">
         <v>0</v>
       </c>
-      <c r="J67" t="n">
-        <v>0</v>
-      </c>
+      <c r="J67" t="inlineStr"/>
       <c r="K67" t="inlineStr"/>
-      <c r="L67" t="inlineStr"/>
-      <c r="M67" t="inlineStr"/>
-      <c r="N67" t="n">
+      <c r="L67" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M67" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3036,36 +3025,37 @@
         <v>66</v>
       </c>
       <c r="B68" t="n">
-        <v>11.8</v>
+        <v>11.7</v>
       </c>
       <c r="C68" t="n">
-        <v>11.8</v>
+        <v>11.7</v>
       </c>
       <c r="D68" t="n">
-        <v>11.8</v>
+        <v>11.7</v>
       </c>
       <c r="E68" t="n">
-        <v>11.8</v>
+        <v>11.7</v>
       </c>
       <c r="F68" t="n">
-        <v>1733.9769</v>
+        <v>38036926.8492</v>
       </c>
       <c r="G68" t="n">
-        <v>11.76</v>
+        <v>-8506.499512231763</v>
       </c>
       <c r="H68" t="n">
-        <v>11.67666666666669</v>
+        <v>0</v>
       </c>
       <c r="I68" t="n">
         <v>0</v>
       </c>
-      <c r="J68" t="n">
-        <v>0</v>
-      </c>
+      <c r="J68" t="inlineStr"/>
       <c r="K68" t="inlineStr"/>
-      <c r="L68" t="inlineStr"/>
-      <c r="M68" t="inlineStr"/>
-      <c r="N68" t="n">
+      <c r="L68" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M68" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3086,24 +3076,25 @@
         <v>11.7</v>
       </c>
       <c r="F69" t="n">
-        <v>58830</v>
+        <v>8453362.104</v>
       </c>
       <c r="G69" t="n">
-        <v>11.76</v>
+        <v>-8506.499512231763</v>
       </c>
       <c r="H69" t="n">
-        <v>11.67833333333335</v>
+        <v>0</v>
       </c>
       <c r="I69" t="n">
         <v>0</v>
       </c>
-      <c r="J69" t="n">
-        <v>0</v>
-      </c>
+      <c r="J69" t="inlineStr"/>
       <c r="K69" t="inlineStr"/>
-      <c r="L69" t="inlineStr"/>
-      <c r="M69" t="inlineStr"/>
-      <c r="N69" t="n">
+      <c r="L69" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M69" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3112,36 +3103,37 @@
         <v>68</v>
       </c>
       <c r="B70" t="n">
-        <v>11.8</v>
+        <v>11.7</v>
       </c>
       <c r="C70" t="n">
-        <v>11.8</v>
+        <v>11.7</v>
       </c>
       <c r="D70" t="n">
-        <v>11.8</v>
+        <v>11.7</v>
       </c>
       <c r="E70" t="n">
-        <v>11.8</v>
+        <v>11.7</v>
       </c>
       <c r="F70" t="n">
-        <v>123789.0642</v>
+        <v>156096310.7232</v>
       </c>
       <c r="G70" t="n">
-        <v>11.76666666666667</v>
+        <v>-8506.499512231763</v>
       </c>
       <c r="H70" t="n">
-        <v>11.68333333333335</v>
+        <v>0</v>
       </c>
       <c r="I70" t="n">
         <v>0</v>
       </c>
-      <c r="J70" t="n">
-        <v>0</v>
-      </c>
+      <c r="J70" t="inlineStr"/>
       <c r="K70" t="inlineStr"/>
-      <c r="L70" t="inlineStr"/>
-      <c r="M70" t="inlineStr"/>
-      <c r="N70" t="n">
+      <c r="L70" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M70" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3150,36 +3142,37 @@
         <v>69</v>
       </c>
       <c r="B71" t="n">
-        <v>11.9</v>
+        <v>11.7</v>
       </c>
       <c r="C71" t="n">
-        <v>11.9</v>
+        <v>11.7</v>
       </c>
       <c r="D71" t="n">
-        <v>11.9</v>
+        <v>11.7</v>
       </c>
       <c r="E71" t="n">
-        <v>11.9</v>
+        <v>11.7</v>
       </c>
       <c r="F71" t="n">
-        <v>89823.7029</v>
+        <v>195853126.5092</v>
       </c>
       <c r="G71" t="n">
-        <v>11.78</v>
+        <v>-8506.499512231763</v>
       </c>
       <c r="H71" t="n">
-        <v>11.69000000000002</v>
+        <v>0</v>
       </c>
       <c r="I71" t="n">
         <v>0</v>
       </c>
-      <c r="J71" t="n">
-        <v>0</v>
-      </c>
+      <c r="J71" t="inlineStr"/>
       <c r="K71" t="inlineStr"/>
-      <c r="L71" t="inlineStr"/>
-      <c r="M71" t="inlineStr"/>
-      <c r="N71" t="n">
+      <c r="L71" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M71" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3188,36 +3181,37 @@
         <v>70</v>
       </c>
       <c r="B72" t="n">
-        <v>11.9</v>
+        <v>11.7</v>
       </c>
       <c r="C72" t="n">
-        <v>11.9</v>
+        <v>11.7</v>
       </c>
       <c r="D72" t="n">
-        <v>11.9</v>
+        <v>11.7</v>
       </c>
       <c r="E72" t="n">
-        <v>11.9</v>
+        <v>11.7</v>
       </c>
       <c r="F72" t="n">
-        <v>49.9214</v>
+        <v>158274385.0388</v>
       </c>
       <c r="G72" t="n">
-        <v>11.79333333333333</v>
+        <v>-8506.499512231763</v>
       </c>
       <c r="H72" t="n">
-        <v>11.69500000000002</v>
+        <v>0</v>
       </c>
       <c r="I72" t="n">
         <v>0</v>
       </c>
-      <c r="J72" t="n">
-        <v>0</v>
-      </c>
+      <c r="J72" t="inlineStr"/>
       <c r="K72" t="inlineStr"/>
-      <c r="L72" t="inlineStr"/>
-      <c r="M72" t="inlineStr"/>
-      <c r="N72" t="n">
+      <c r="L72" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M72" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3226,36 +3220,37 @@
         <v>71</v>
       </c>
       <c r="B73" t="n">
-        <v>11.9</v>
+        <v>11.7</v>
       </c>
       <c r="C73" t="n">
-        <v>12.1</v>
+        <v>11.7</v>
       </c>
       <c r="D73" t="n">
-        <v>12.1</v>
+        <v>11.7</v>
       </c>
       <c r="E73" t="n">
-        <v>11.9</v>
+        <v>11.6</v>
       </c>
       <c r="F73" t="n">
-        <v>154646.1387492187</v>
+        <v>179923443.1154</v>
       </c>
       <c r="G73" t="n">
-        <v>11.82</v>
+        <v>-8506.499512231763</v>
       </c>
       <c r="H73" t="n">
-        <v>11.70333333333335</v>
+        <v>0</v>
       </c>
       <c r="I73" t="n">
         <v>0</v>
       </c>
-      <c r="J73" t="n">
-        <v>0</v>
-      </c>
+      <c r="J73" t="inlineStr"/>
       <c r="K73" t="inlineStr"/>
-      <c r="L73" t="inlineStr"/>
-      <c r="M73" t="inlineStr"/>
-      <c r="N73" t="n">
+      <c r="L73" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M73" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3264,36 +3259,37 @@
         <v>72</v>
       </c>
       <c r="B74" t="n">
-        <v>12.1</v>
+        <v>11.7</v>
       </c>
       <c r="C74" t="n">
-        <v>12.1</v>
+        <v>11.7</v>
       </c>
       <c r="D74" t="n">
-        <v>12.1</v>
+        <v>11.7</v>
       </c>
       <c r="E74" t="n">
-        <v>12.1</v>
+        <v>11.6</v>
       </c>
       <c r="F74" t="n">
-        <v>1980.0993</v>
+        <v>121746723.4606</v>
       </c>
       <c r="G74" t="n">
-        <v>11.84666666666667</v>
+        <v>-8506.499512231763</v>
       </c>
       <c r="H74" t="n">
-        <v>11.71333333333335</v>
+        <v>0</v>
       </c>
       <c r="I74" t="n">
         <v>0</v>
       </c>
-      <c r="J74" t="n">
-        <v>0</v>
-      </c>
+      <c r="J74" t="inlineStr"/>
       <c r="K74" t="inlineStr"/>
-      <c r="L74" t="inlineStr"/>
-      <c r="M74" t="inlineStr"/>
-      <c r="N74" t="n">
+      <c r="L74" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M74" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3302,36 +3298,37 @@
         <v>73</v>
       </c>
       <c r="B75" t="n">
-        <v>12</v>
+        <v>11.7</v>
       </c>
       <c r="C75" t="n">
-        <v>12</v>
+        <v>11.7</v>
       </c>
       <c r="D75" t="n">
-        <v>12</v>
+        <v>11.7</v>
       </c>
       <c r="E75" t="n">
-        <v>12</v>
+        <v>11.7</v>
       </c>
       <c r="F75" t="n">
-        <v>134024.0411</v>
+        <v>27976905.5353</v>
       </c>
       <c r="G75" t="n">
-        <v>11.86666666666667</v>
+        <v>-8506.499512231763</v>
       </c>
       <c r="H75" t="n">
-        <v>11.72000000000002</v>
+        <v>0</v>
       </c>
       <c r="I75" t="n">
         <v>0</v>
       </c>
-      <c r="J75" t="n">
-        <v>0</v>
-      </c>
+      <c r="J75" t="inlineStr"/>
       <c r="K75" t="inlineStr"/>
-      <c r="L75" t="inlineStr"/>
-      <c r="M75" t="inlineStr"/>
-      <c r="N75" t="n">
+      <c r="L75" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M75" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3340,36 +3337,37 @@
         <v>74</v>
       </c>
       <c r="B76" t="n">
-        <v>12</v>
+        <v>11.7</v>
       </c>
       <c r="C76" t="n">
-        <v>12</v>
+        <v>11.7</v>
       </c>
       <c r="D76" t="n">
-        <v>12</v>
+        <v>11.7</v>
       </c>
       <c r="E76" t="n">
-        <v>12</v>
+        <v>11.6</v>
       </c>
       <c r="F76" t="n">
-        <v>1000</v>
+        <v>112470697.5007</v>
       </c>
       <c r="G76" t="n">
-        <v>11.88666666666667</v>
+        <v>-8506.499512231763</v>
       </c>
       <c r="H76" t="n">
-        <v>11.72833333333335</v>
+        <v>0</v>
       </c>
       <c r="I76" t="n">
         <v>0</v>
       </c>
-      <c r="J76" t="n">
-        <v>0</v>
-      </c>
+      <c r="J76" t="inlineStr"/>
       <c r="K76" t="inlineStr"/>
-      <c r="L76" t="inlineStr"/>
-      <c r="M76" t="inlineStr"/>
-      <c r="N76" t="n">
+      <c r="L76" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M76" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3378,36 +3376,37 @@
         <v>75</v>
       </c>
       <c r="B77" t="n">
-        <v>12</v>
+        <v>11.7</v>
       </c>
       <c r="C77" t="n">
-        <v>12</v>
+        <v>11.7</v>
       </c>
       <c r="D77" t="n">
-        <v>12</v>
+        <v>11.7</v>
       </c>
       <c r="E77" t="n">
-        <v>12</v>
+        <v>11.7</v>
       </c>
       <c r="F77" t="n">
-        <v>41487.3614</v>
+        <v>186207290.4324</v>
       </c>
       <c r="G77" t="n">
-        <v>11.9</v>
+        <v>-8506.499512231763</v>
       </c>
       <c r="H77" t="n">
-        <v>11.73500000000002</v>
+        <v>0</v>
       </c>
       <c r="I77" t="n">
         <v>0</v>
       </c>
-      <c r="J77" t="n">
-        <v>0</v>
-      </c>
+      <c r="J77" t="inlineStr"/>
       <c r="K77" t="inlineStr"/>
-      <c r="L77" t="inlineStr"/>
-      <c r="M77" t="inlineStr"/>
-      <c r="N77" t="n">
+      <c r="L77" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M77" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3416,36 +3415,37 @@
         <v>76</v>
       </c>
       <c r="B78" t="n">
-        <v>12.1</v>
+        <v>11.7</v>
       </c>
       <c r="C78" t="n">
-        <v>12.1</v>
+        <v>11.7</v>
       </c>
       <c r="D78" t="n">
-        <v>12.1</v>
+        <v>11.7</v>
       </c>
       <c r="E78" t="n">
-        <v>12.1</v>
+        <v>11.7</v>
       </c>
       <c r="F78" t="n">
-        <v>11937.9435</v>
+        <v>187632281.534</v>
       </c>
       <c r="G78" t="n">
-        <v>11.92</v>
+        <v>-8506.499512231763</v>
       </c>
       <c r="H78" t="n">
-        <v>11.74333333333335</v>
+        <v>0</v>
       </c>
       <c r="I78" t="n">
         <v>0</v>
       </c>
-      <c r="J78" t="n">
-        <v>0</v>
-      </c>
+      <c r="J78" t="inlineStr"/>
       <c r="K78" t="inlineStr"/>
-      <c r="L78" t="inlineStr"/>
-      <c r="M78" t="inlineStr"/>
-      <c r="N78" t="n">
+      <c r="L78" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M78" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3454,36 +3454,37 @@
         <v>77</v>
       </c>
       <c r="B79" t="n">
-        <v>12.1</v>
+        <v>11.7</v>
       </c>
       <c r="C79" t="n">
-        <v>12.1</v>
+        <v>11.7</v>
       </c>
       <c r="D79" t="n">
-        <v>12.1</v>
+        <v>11.7</v>
       </c>
       <c r="E79" t="n">
-        <v>12.1</v>
+        <v>11.7</v>
       </c>
       <c r="F79" t="n">
-        <v>17840.68947851239</v>
+        <v>189037860.2988</v>
       </c>
       <c r="G79" t="n">
-        <v>11.94</v>
+        <v>-8506.499512231763</v>
       </c>
       <c r="H79" t="n">
-        <v>11.75000000000002</v>
+        <v>0</v>
       </c>
       <c r="I79" t="n">
         <v>0</v>
       </c>
-      <c r="J79" t="n">
-        <v>0</v>
-      </c>
+      <c r="J79" t="inlineStr"/>
       <c r="K79" t="inlineStr"/>
-      <c r="L79" t="inlineStr"/>
-      <c r="M79" t="inlineStr"/>
-      <c r="N79" t="n">
+      <c r="L79" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M79" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3492,36 +3493,37 @@
         <v>78</v>
       </c>
       <c r="B80" t="n">
-        <v>12.2</v>
+        <v>11.7</v>
       </c>
       <c r="C80" t="n">
-        <v>12.1</v>
+        <v>11.7</v>
       </c>
       <c r="D80" t="n">
-        <v>12.2</v>
+        <v>11.7</v>
       </c>
       <c r="E80" t="n">
-        <v>12.1</v>
+        <v>11.7</v>
       </c>
       <c r="F80" t="n">
-        <v>85476.65089999999</v>
+        <v>189738700.8229</v>
       </c>
       <c r="G80" t="n">
-        <v>11.96</v>
+        <v>-8506.499512231763</v>
       </c>
       <c r="H80" t="n">
-        <v>11.75666666666669</v>
+        <v>0</v>
       </c>
       <c r="I80" t="n">
         <v>0</v>
       </c>
-      <c r="J80" t="n">
-        <v>0</v>
-      </c>
+      <c r="J80" t="inlineStr"/>
       <c r="K80" t="inlineStr"/>
-      <c r="L80" t="inlineStr"/>
-      <c r="M80" t="inlineStr"/>
-      <c r="N80" t="n">
+      <c r="L80" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M80" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3530,36 +3532,37 @@
         <v>79</v>
       </c>
       <c r="B81" t="n">
-        <v>12.2</v>
+        <v>11.7</v>
       </c>
       <c r="C81" t="n">
-        <v>12.2</v>
+        <v>11.7</v>
       </c>
       <c r="D81" t="n">
-        <v>12.2</v>
+        <v>11.7</v>
       </c>
       <c r="E81" t="n">
-        <v>12.2</v>
+        <v>11.7</v>
       </c>
       <c r="F81" t="n">
-        <v>102072.4842</v>
+        <v>189733668.404</v>
       </c>
       <c r="G81" t="n">
-        <v>11.98</v>
+        <v>-8506.499512231763</v>
       </c>
       <c r="H81" t="n">
-        <v>11.76500000000002</v>
+        <v>0</v>
       </c>
       <c r="I81" t="n">
         <v>0</v>
       </c>
-      <c r="J81" t="n">
-        <v>0</v>
-      </c>
+      <c r="J81" t="inlineStr"/>
       <c r="K81" t="inlineStr"/>
-      <c r="L81" t="inlineStr"/>
-      <c r="M81" t="inlineStr"/>
-      <c r="N81" t="n">
+      <c r="L81" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M81" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3568,36 +3571,37 @@
         <v>80</v>
       </c>
       <c r="B82" t="n">
-        <v>12.1</v>
+        <v>11.7</v>
       </c>
       <c r="C82" t="n">
-        <v>12.1</v>
+        <v>11.7</v>
       </c>
       <c r="D82" t="n">
-        <v>12.1</v>
+        <v>11.7</v>
       </c>
       <c r="E82" t="n">
-        <v>12.1</v>
+        <v>11.7</v>
       </c>
       <c r="F82" t="n">
-        <v>3539</v>
+        <v>179900005.3512</v>
       </c>
       <c r="G82" t="n">
-        <v>11.99333333333333</v>
+        <v>-8506.499512231763</v>
       </c>
       <c r="H82" t="n">
-        <v>11.77000000000002</v>
+        <v>0</v>
       </c>
       <c r="I82" t="n">
         <v>0</v>
       </c>
-      <c r="J82" t="n">
-        <v>0</v>
-      </c>
+      <c r="J82" t="inlineStr"/>
       <c r="K82" t="inlineStr"/>
-      <c r="L82" t="inlineStr"/>
-      <c r="M82" t="inlineStr"/>
-      <c r="N82" t="n">
+      <c r="L82" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M82" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3606,36 +3610,37 @@
         <v>81</v>
       </c>
       <c r="B83" t="n">
-        <v>12.3</v>
+        <v>11.7</v>
       </c>
       <c r="C83" t="n">
-        <v>12.3</v>
+        <v>11.7</v>
       </c>
       <c r="D83" t="n">
-        <v>12.3</v>
+        <v>11.7</v>
       </c>
       <c r="E83" t="n">
-        <v>12.3</v>
+        <v>11.7</v>
       </c>
       <c r="F83" t="n">
-        <v>41</v>
+        <v>186907693.1443</v>
       </c>
       <c r="G83" t="n">
-        <v>12.02666666666667</v>
+        <v>-8506.499512231763</v>
       </c>
       <c r="H83" t="n">
-        <v>11.78166666666669</v>
+        <v>0</v>
       </c>
       <c r="I83" t="n">
         <v>0</v>
       </c>
-      <c r="J83" t="n">
-        <v>0</v>
-      </c>
+      <c r="J83" t="inlineStr"/>
       <c r="K83" t="inlineStr"/>
-      <c r="L83" t="inlineStr"/>
-      <c r="M83" t="inlineStr"/>
-      <c r="N83" t="n">
+      <c r="L83" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M83" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3644,36 +3649,37 @@
         <v>82</v>
       </c>
       <c r="B84" t="n">
-        <v>12.3</v>
+        <v>11.7</v>
       </c>
       <c r="C84" t="n">
-        <v>12.3</v>
+        <v>11.7</v>
       </c>
       <c r="D84" t="n">
-        <v>12.3</v>
+        <v>11.7</v>
       </c>
       <c r="E84" t="n">
-        <v>12.3</v>
+        <v>11.7</v>
       </c>
       <c r="F84" t="n">
-        <v>47091.4205</v>
+        <v>189019743.1377</v>
       </c>
       <c r="G84" t="n">
-        <v>12.06666666666667</v>
+        <v>-8506.499512231763</v>
       </c>
       <c r="H84" t="n">
-        <v>11.79333333333335</v>
+        <v>0</v>
       </c>
       <c r="I84" t="n">
         <v>0</v>
       </c>
-      <c r="J84" t="n">
-        <v>1</v>
-      </c>
+      <c r="J84" t="inlineStr"/>
       <c r="K84" t="inlineStr"/>
-      <c r="L84" t="inlineStr"/>
-      <c r="M84" t="inlineStr"/>
-      <c r="N84" t="n">
+      <c r="L84" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M84" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3682,36 +3688,37 @@
         <v>83</v>
       </c>
       <c r="B85" t="n">
-        <v>12.1</v>
+        <v>11.7</v>
       </c>
       <c r="C85" t="n">
-        <v>12.1</v>
+        <v>11.7</v>
       </c>
       <c r="D85" t="n">
-        <v>12.1</v>
+        <v>11.7</v>
       </c>
       <c r="E85" t="n">
-        <v>12.1</v>
+        <v>11.7</v>
       </c>
       <c r="F85" t="n">
-        <v>2500</v>
+        <v>186909832.5976</v>
       </c>
       <c r="G85" t="n">
-        <v>12.08666666666667</v>
+        <v>-8506.499512231763</v>
       </c>
       <c r="H85" t="n">
-        <v>11.80166666666668</v>
+        <v>0</v>
       </c>
       <c r="I85" t="n">
         <v>0</v>
       </c>
-      <c r="J85" t="n">
-        <v>1</v>
-      </c>
+      <c r="J85" t="inlineStr"/>
       <c r="K85" t="inlineStr"/>
-      <c r="L85" t="inlineStr"/>
-      <c r="M85" t="inlineStr"/>
-      <c r="N85" t="n">
+      <c r="L85" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M85" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3720,36 +3727,37 @@
         <v>84</v>
       </c>
       <c r="B86" t="n">
-        <v>12.1</v>
+        <v>11.7</v>
       </c>
       <c r="C86" t="n">
-        <v>12</v>
+        <v>11.7</v>
       </c>
       <c r="D86" t="n">
-        <v>12.1</v>
+        <v>11.7</v>
       </c>
       <c r="E86" t="n">
-        <v>12</v>
+        <v>11.7</v>
       </c>
       <c r="F86" t="n">
-        <v>69267.75992148761</v>
+        <v>191151814.6144</v>
       </c>
       <c r="G86" t="n">
-        <v>12.09333333333333</v>
+        <v>-8506.499512231763</v>
       </c>
       <c r="H86" t="n">
-        <v>11.80833333333335</v>
+        <v>0</v>
       </c>
       <c r="I86" t="n">
         <v>0</v>
       </c>
-      <c r="J86" t="n">
-        <v>1</v>
-      </c>
+      <c r="J86" t="inlineStr"/>
       <c r="K86" t="inlineStr"/>
-      <c r="L86" t="inlineStr"/>
-      <c r="M86" t="inlineStr"/>
-      <c r="N86" t="n">
+      <c r="L86" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M86" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3758,36 +3766,37 @@
         <v>85</v>
       </c>
       <c r="B87" t="n">
-        <v>12</v>
+        <v>11.7</v>
       </c>
       <c r="C87" t="n">
-        <v>12</v>
+        <v>11.7</v>
       </c>
       <c r="D87" t="n">
-        <v>12</v>
+        <v>11.7</v>
       </c>
       <c r="E87" t="n">
-        <v>12</v>
+        <v>11.7</v>
       </c>
       <c r="F87" t="n">
-        <v>3350</v>
+        <v>105400215.78</v>
       </c>
       <c r="G87" t="n">
-        <v>12.1</v>
+        <v>-8506.499512231763</v>
       </c>
       <c r="H87" t="n">
-        <v>11.81500000000002</v>
+        <v>0</v>
       </c>
       <c r="I87" t="n">
         <v>0</v>
       </c>
-      <c r="J87" t="n">
-        <v>1</v>
-      </c>
+      <c r="J87" t="inlineStr"/>
       <c r="K87" t="inlineStr"/>
-      <c r="L87" t="inlineStr"/>
-      <c r="M87" t="inlineStr"/>
-      <c r="N87" t="n">
+      <c r="L87" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M87" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3796,36 +3805,37 @@
         <v>86</v>
       </c>
       <c r="B88" t="n">
-        <v>12</v>
+        <v>11.7</v>
       </c>
       <c r="C88" t="n">
-        <v>11.9</v>
+        <v>11.7</v>
       </c>
       <c r="D88" t="n">
-        <v>12</v>
+        <v>11.7</v>
       </c>
       <c r="E88" t="n">
-        <v>11.9</v>
+        <v>11.7</v>
       </c>
       <c r="F88" t="n">
-        <v>25869.7773</v>
+        <v>178811966.5981</v>
       </c>
       <c r="G88" t="n">
-        <v>12.08666666666667</v>
+        <v>-8506.499512231763</v>
       </c>
       <c r="H88" t="n">
-        <v>11.82166666666668</v>
+        <v>0</v>
       </c>
       <c r="I88" t="n">
         <v>0</v>
       </c>
-      <c r="J88" t="n">
-        <v>1</v>
-      </c>
+      <c r="J88" t="inlineStr"/>
       <c r="K88" t="inlineStr"/>
-      <c r="L88" t="inlineStr"/>
-      <c r="M88" t="inlineStr"/>
-      <c r="N88" t="n">
+      <c r="L88" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M88" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3834,36 +3844,37 @@
         <v>87</v>
       </c>
       <c r="B89" t="n">
-        <v>12.1</v>
+        <v>11.7</v>
       </c>
       <c r="C89" t="n">
-        <v>12.1</v>
+        <v>11.7</v>
       </c>
       <c r="D89" t="n">
-        <v>12.1</v>
+        <v>11.7</v>
       </c>
       <c r="E89" t="n">
-        <v>12.1</v>
+        <v>11.7</v>
       </c>
       <c r="F89" t="n">
-        <v>2303.2476</v>
+        <v>190423056.5092</v>
       </c>
       <c r="G89" t="n">
-        <v>12.08666666666667</v>
+        <v>-8506.499512231763</v>
       </c>
       <c r="H89" t="n">
-        <v>11.82833333333335</v>
+        <v>0</v>
       </c>
       <c r="I89" t="n">
         <v>0</v>
       </c>
-      <c r="J89" t="n">
-        <v>1</v>
-      </c>
+      <c r="J89" t="inlineStr"/>
       <c r="K89" t="inlineStr"/>
-      <c r="L89" t="inlineStr"/>
-      <c r="M89" t="inlineStr"/>
-      <c r="N89" t="n">
+      <c r="L89" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M89" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3872,36 +3883,37 @@
         <v>88</v>
       </c>
       <c r="B90" t="n">
-        <v>12.1</v>
+        <v>11.7</v>
       </c>
       <c r="C90" t="n">
-        <v>12.1</v>
+        <v>11.7</v>
       </c>
       <c r="D90" t="n">
-        <v>12.1</v>
+        <v>11.7</v>
       </c>
       <c r="E90" t="n">
-        <v>12.1</v>
+        <v>11.7</v>
       </c>
       <c r="F90" t="n">
-        <v>5819.577</v>
+        <v>189720388.404</v>
       </c>
       <c r="G90" t="n">
-        <v>12.09333333333333</v>
+        <v>-8506.499512231763</v>
       </c>
       <c r="H90" t="n">
-        <v>11.83500000000002</v>
+        <v>0</v>
       </c>
       <c r="I90" t="n">
         <v>0</v>
       </c>
-      <c r="J90" t="n">
-        <v>0</v>
-      </c>
+      <c r="J90" t="inlineStr"/>
       <c r="K90" t="inlineStr"/>
-      <c r="L90" t="inlineStr"/>
-      <c r="M90" t="inlineStr"/>
-      <c r="N90" t="n">
+      <c r="L90" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M90" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3910,36 +3922,37 @@
         <v>89</v>
       </c>
       <c r="B91" t="n">
-        <v>12</v>
+        <v>11.7</v>
       </c>
       <c r="C91" t="n">
-        <v>11.9</v>
+        <v>11.8</v>
       </c>
       <c r="D91" t="n">
-        <v>12</v>
+        <v>11.8</v>
       </c>
       <c r="E91" t="n">
-        <v>11.9</v>
+        <v>11.7</v>
       </c>
       <c r="F91" t="n">
-        <v>189553.5962</v>
+        <v>5599959.6117</v>
       </c>
       <c r="G91" t="n">
-        <v>12.08666666666667</v>
+        <v>5591453.112187768</v>
       </c>
       <c r="H91" t="n">
-        <v>11.84000000000001</v>
+        <v>0</v>
       </c>
       <c r="I91" t="n">
         <v>0</v>
       </c>
-      <c r="J91" t="n">
-        <v>1</v>
-      </c>
+      <c r="J91" t="inlineStr"/>
       <c r="K91" t="inlineStr"/>
-      <c r="L91" t="inlineStr"/>
-      <c r="M91" t="inlineStr"/>
-      <c r="N91" t="n">
+      <c r="L91" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M91" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3948,36 +3961,37 @@
         <v>90</v>
       </c>
       <c r="B92" t="n">
-        <v>11.9</v>
+        <v>11.8</v>
       </c>
       <c r="C92" t="n">
-        <v>11.9</v>
+        <v>11.8</v>
       </c>
       <c r="D92" t="n">
-        <v>11.9</v>
+        <v>11.8</v>
       </c>
       <c r="E92" t="n">
-        <v>11.9</v>
+        <v>11.8</v>
       </c>
       <c r="F92" t="n">
-        <v>9946.4038</v>
+        <v>4891.0665</v>
       </c>
       <c r="G92" t="n">
-        <v>12.08</v>
+        <v>5591453.112187768</v>
       </c>
       <c r="H92" t="n">
-        <v>11.84500000000001</v>
+        <v>0</v>
       </c>
       <c r="I92" t="n">
         <v>0</v>
       </c>
-      <c r="J92" t="n">
-        <v>0</v>
-      </c>
+      <c r="J92" t="inlineStr"/>
       <c r="K92" t="inlineStr"/>
-      <c r="L92" t="inlineStr"/>
-      <c r="M92" t="inlineStr"/>
-      <c r="N92" t="n">
+      <c r="L92" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M92" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3986,36 +4000,37 @@
         <v>91</v>
       </c>
       <c r="B93" t="n">
-        <v>12.1</v>
+        <v>11.8</v>
       </c>
       <c r="C93" t="n">
-        <v>12.1</v>
+        <v>11.8</v>
       </c>
       <c r="D93" t="n">
-        <v>12.1</v>
+        <v>11.8</v>
       </c>
       <c r="E93" t="n">
-        <v>12.1</v>
+        <v>11.8</v>
       </c>
       <c r="F93" t="n">
-        <v>210</v>
+        <v>100000</v>
       </c>
       <c r="G93" t="n">
-        <v>12.08</v>
+        <v>5591453.112187768</v>
       </c>
       <c r="H93" t="n">
-        <v>11.85333333333335</v>
+        <v>0</v>
       </c>
       <c r="I93" t="n">
         <v>0</v>
       </c>
-      <c r="J93" t="n">
-        <v>1</v>
-      </c>
+      <c r="J93" t="inlineStr"/>
       <c r="K93" t="inlineStr"/>
-      <c r="L93" t="inlineStr"/>
-      <c r="M93" t="inlineStr"/>
-      <c r="N93" t="n">
+      <c r="L93" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M93" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4024,36 +4039,37 @@
         <v>92</v>
       </c>
       <c r="B94" t="n">
-        <v>12</v>
+        <v>11.8</v>
       </c>
       <c r="C94" t="n">
-        <v>12</v>
+        <v>11.8</v>
       </c>
       <c r="D94" t="n">
-        <v>12</v>
+        <v>11.8</v>
       </c>
       <c r="E94" t="n">
-        <v>12</v>
+        <v>11.8</v>
       </c>
       <c r="F94" t="n">
-        <v>80376.11629999999</v>
+        <v>2000</v>
       </c>
       <c r="G94" t="n">
-        <v>12.07333333333333</v>
+        <v>5591453.112187768</v>
       </c>
       <c r="H94" t="n">
-        <v>11.85833333333335</v>
+        <v>0</v>
       </c>
       <c r="I94" t="n">
         <v>0</v>
       </c>
-      <c r="J94" t="n">
-        <v>1</v>
-      </c>
+      <c r="J94" t="inlineStr"/>
       <c r="K94" t="inlineStr"/>
-      <c r="L94" t="inlineStr"/>
-      <c r="M94" t="inlineStr"/>
-      <c r="N94" t="n">
+      <c r="L94" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M94" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4062,36 +4078,37 @@
         <v>93</v>
       </c>
       <c r="B95" t="n">
-        <v>12</v>
+        <v>11.9</v>
       </c>
       <c r="C95" t="n">
-        <v>12.1</v>
+        <v>11.9</v>
       </c>
       <c r="D95" t="n">
-        <v>12.1</v>
+        <v>11.9</v>
       </c>
       <c r="E95" t="n">
-        <v>12</v>
+        <v>11.9</v>
       </c>
       <c r="F95" t="n">
-        <v>42788.99898677686</v>
+        <v>251.3883</v>
       </c>
       <c r="G95" t="n">
-        <v>12.07333333333333</v>
+        <v>5591704.500487768</v>
       </c>
       <c r="H95" t="n">
-        <v>11.86500000000001</v>
+        <v>0</v>
       </c>
       <c r="I95" t="n">
         <v>0</v>
       </c>
-      <c r="J95" t="n">
-        <v>0</v>
-      </c>
+      <c r="J95" t="inlineStr"/>
       <c r="K95" t="inlineStr"/>
-      <c r="L95" t="inlineStr"/>
-      <c r="M95" t="inlineStr"/>
-      <c r="N95" t="n">
+      <c r="L95" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M95" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4100,36 +4117,37 @@
         <v>94</v>
       </c>
       <c r="B96" t="n">
-        <v>12.1</v>
+        <v>11.9</v>
       </c>
       <c r="C96" t="n">
-        <v>12.1</v>
+        <v>11.9</v>
       </c>
       <c r="D96" t="n">
-        <v>12.1</v>
+        <v>11.9</v>
       </c>
       <c r="E96" t="n">
-        <v>12.1</v>
+        <v>11.9</v>
       </c>
       <c r="F96" t="n">
-        <v>31119.63199173554</v>
+        <v>4201.680672268908</v>
       </c>
       <c r="G96" t="n">
-        <v>12.06666666666667</v>
+        <v>5591704.500487768</v>
       </c>
       <c r="H96" t="n">
-        <v>11.87166666666668</v>
+        <v>0</v>
       </c>
       <c r="I96" t="n">
         <v>0</v>
       </c>
-      <c r="J96" t="n">
-        <v>1</v>
-      </c>
+      <c r="J96" t="inlineStr"/>
       <c r="K96" t="inlineStr"/>
-      <c r="L96" t="inlineStr"/>
-      <c r="M96" t="inlineStr"/>
-      <c r="N96" t="n">
+      <c r="L96" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M96" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4138,36 +4156,37 @@
         <v>95</v>
       </c>
       <c r="B97" t="n">
-        <v>12.1</v>
+        <v>11.8</v>
       </c>
       <c r="C97" t="n">
-        <v>12</v>
+        <v>11.8</v>
       </c>
       <c r="D97" t="n">
-        <v>12.1</v>
+        <v>11.8</v>
       </c>
       <c r="E97" t="n">
-        <v>11.9</v>
+        <v>11.8</v>
       </c>
       <c r="F97" t="n">
-        <v>63340.8259</v>
+        <v>1733.9769</v>
       </c>
       <c r="G97" t="n">
-        <v>12.06</v>
+        <v>5589970.523587768</v>
       </c>
       <c r="H97" t="n">
-        <v>11.87666666666668</v>
+        <v>0</v>
       </c>
       <c r="I97" t="n">
         <v>0</v>
       </c>
-      <c r="J97" t="n">
-        <v>1</v>
-      </c>
+      <c r="J97" t="inlineStr"/>
       <c r="K97" t="inlineStr"/>
-      <c r="L97" t="inlineStr"/>
-      <c r="M97" t="inlineStr"/>
-      <c r="N97" t="n">
+      <c r="L97" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M97" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4176,36 +4195,37 @@
         <v>96</v>
       </c>
       <c r="B98" t="n">
-        <v>11.9</v>
+        <v>11.7</v>
       </c>
       <c r="C98" t="n">
-        <v>11.9</v>
+        <v>11.7</v>
       </c>
       <c r="D98" t="n">
-        <v>11.9</v>
+        <v>11.7</v>
       </c>
       <c r="E98" t="n">
-        <v>11.9</v>
+        <v>11.7</v>
       </c>
       <c r="F98" t="n">
-        <v>29649.5695</v>
+        <v>58830</v>
       </c>
       <c r="G98" t="n">
-        <v>12.03333333333333</v>
+        <v>5531140.523587768</v>
       </c>
       <c r="H98" t="n">
-        <v>11.88000000000001</v>
+        <v>0</v>
       </c>
       <c r="I98" t="n">
         <v>0</v>
       </c>
-      <c r="J98" t="n">
-        <v>1</v>
-      </c>
+      <c r="J98" t="inlineStr"/>
       <c r="K98" t="inlineStr"/>
-      <c r="L98" t="inlineStr"/>
-      <c r="M98" t="inlineStr"/>
-      <c r="N98" t="n">
+      <c r="L98" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M98" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4214,36 +4234,37 @@
         <v>97</v>
       </c>
       <c r="B99" t="n">
-        <v>11.9</v>
+        <v>11.8</v>
       </c>
       <c r="C99" t="n">
-        <v>11.9</v>
+        <v>11.8</v>
       </c>
       <c r="D99" t="n">
-        <v>11.9</v>
+        <v>11.8</v>
       </c>
       <c r="E99" t="n">
-        <v>11.9</v>
+        <v>11.8</v>
       </c>
       <c r="F99" t="n">
-        <v>23602.5531</v>
+        <v>123789.0642</v>
       </c>
       <c r="G99" t="n">
-        <v>12.00666666666667</v>
+        <v>5654929.587787768</v>
       </c>
       <c r="H99" t="n">
-        <v>11.88333333333334</v>
+        <v>0</v>
       </c>
       <c r="I99" t="n">
         <v>0</v>
       </c>
-      <c r="J99" t="n">
-        <v>1</v>
-      </c>
+      <c r="J99" t="inlineStr"/>
       <c r="K99" t="inlineStr"/>
-      <c r="L99" t="inlineStr"/>
-      <c r="M99" t="inlineStr"/>
-      <c r="N99" t="n">
+      <c r="L99" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M99" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4264,24 +4285,25 @@
         <v>11.9</v>
       </c>
       <c r="F100" t="n">
-        <v>24718.9033</v>
+        <v>89823.7029</v>
       </c>
       <c r="G100" t="n">
-        <v>11.99333333333333</v>
+        <v>5744753.290687768</v>
       </c>
       <c r="H100" t="n">
-        <v>11.88666666666668</v>
+        <v>0</v>
       </c>
       <c r="I100" t="n">
         <v>0</v>
       </c>
-      <c r="J100" t="n">
-        <v>1</v>
-      </c>
+      <c r="J100" t="inlineStr"/>
       <c r="K100" t="inlineStr"/>
-      <c r="L100" t="inlineStr"/>
-      <c r="M100" t="inlineStr"/>
-      <c r="N100" t="n">
+      <c r="L100" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M100" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4302,24 +4324,25 @@
         <v>11.9</v>
       </c>
       <c r="F101" t="n">
-        <v>25652.1657</v>
+        <v>49.9214</v>
       </c>
       <c r="G101" t="n">
-        <v>11.98666666666667</v>
+        <v>5744753.290687768</v>
       </c>
       <c r="H101" t="n">
-        <v>11.89000000000001</v>
+        <v>0</v>
       </c>
       <c r="I101" t="n">
         <v>0</v>
       </c>
-      <c r="J101" t="n">
-        <v>1</v>
-      </c>
+      <c r="J101" t="inlineStr"/>
       <c r="K101" t="inlineStr"/>
-      <c r="L101" t="inlineStr"/>
-      <c r="M101" t="inlineStr"/>
-      <c r="N101" t="n">
+      <c r="L101" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M101" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4328,36 +4351,37 @@
         <v>100</v>
       </c>
       <c r="B102" t="n">
-        <v>12</v>
+        <v>11.9</v>
       </c>
       <c r="C102" t="n">
-        <v>12</v>
+        <v>12.1</v>
       </c>
       <c r="D102" t="n">
-        <v>12</v>
+        <v>12.1</v>
       </c>
       <c r="E102" t="n">
-        <v>12</v>
+        <v>11.9</v>
       </c>
       <c r="F102" t="n">
-        <v>8333.3334</v>
+        <v>154646.1387492187</v>
       </c>
       <c r="G102" t="n">
-        <v>11.98666666666667</v>
+        <v>5899399.429436986</v>
       </c>
       <c r="H102" t="n">
-        <v>11.89500000000001</v>
+        <v>0</v>
       </c>
       <c r="I102" t="n">
         <v>0</v>
       </c>
-      <c r="J102" t="n">
-        <v>0</v>
-      </c>
+      <c r="J102" t="inlineStr"/>
       <c r="K102" t="inlineStr"/>
-      <c r="L102" t="inlineStr"/>
-      <c r="M102" t="inlineStr"/>
-      <c r="N102" t="n">
+      <c r="L102" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M102" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4366,36 +4390,37 @@
         <v>101</v>
       </c>
       <c r="B103" t="n">
-        <v>11.9</v>
+        <v>12.1</v>
       </c>
       <c r="C103" t="n">
-        <v>11.9</v>
+        <v>12.1</v>
       </c>
       <c r="D103" t="n">
-        <v>11.9</v>
+        <v>12.1</v>
       </c>
       <c r="E103" t="n">
-        <v>11.9</v>
+        <v>12.1</v>
       </c>
       <c r="F103" t="n">
-        <v>1591.9618</v>
+        <v>1980.0993</v>
       </c>
       <c r="G103" t="n">
-        <v>11.98666666666667</v>
+        <v>5899399.429436986</v>
       </c>
       <c r="H103" t="n">
-        <v>11.89833333333334</v>
+        <v>0</v>
       </c>
       <c r="I103" t="n">
         <v>0</v>
       </c>
-      <c r="J103" t="n">
-        <v>0</v>
-      </c>
+      <c r="J103" t="inlineStr"/>
       <c r="K103" t="inlineStr"/>
-      <c r="L103" t="inlineStr"/>
-      <c r="M103" t="inlineStr"/>
-      <c r="N103" t="n">
+      <c r="L103" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M103" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4404,36 +4429,37 @@
         <v>102</v>
       </c>
       <c r="B104" t="n">
-        <v>11.9</v>
+        <v>12</v>
       </c>
       <c r="C104" t="n">
-        <v>11.9</v>
+        <v>12</v>
       </c>
       <c r="D104" t="n">
-        <v>11.9</v>
+        <v>12</v>
       </c>
       <c r="E104" t="n">
-        <v>11.9</v>
+        <v>12</v>
       </c>
       <c r="F104" t="n">
-        <v>117.7310924369748</v>
+        <v>134024.0411</v>
       </c>
       <c r="G104" t="n">
-        <v>11.97333333333333</v>
+        <v>5765375.388336986</v>
       </c>
       <c r="H104" t="n">
-        <v>11.90166666666667</v>
+        <v>0</v>
       </c>
       <c r="I104" t="n">
         <v>0</v>
       </c>
-      <c r="J104" t="n">
-        <v>0</v>
-      </c>
+      <c r="J104" t="inlineStr"/>
       <c r="K104" t="inlineStr"/>
-      <c r="L104" t="inlineStr"/>
-      <c r="M104" t="inlineStr"/>
-      <c r="N104" t="n">
+      <c r="L104" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M104" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4442,36 +4468,37 @@
         <v>103</v>
       </c>
       <c r="B105" t="n">
-        <v>11.9</v>
+        <v>12</v>
       </c>
       <c r="C105" t="n">
-        <v>11.9</v>
+        <v>12</v>
       </c>
       <c r="D105" t="n">
-        <v>11.9</v>
+        <v>12</v>
       </c>
       <c r="E105" t="n">
-        <v>11.9</v>
+        <v>12</v>
       </c>
       <c r="F105" t="n">
-        <v>117.8151260504202</v>
+        <v>1000</v>
       </c>
       <c r="G105" t="n">
-        <v>11.96</v>
+        <v>5765375.388336986</v>
       </c>
       <c r="H105" t="n">
-        <v>11.905</v>
+        <v>0</v>
       </c>
       <c r="I105" t="n">
         <v>0</v>
       </c>
-      <c r="J105" t="n">
-        <v>0</v>
-      </c>
+      <c r="J105" t="inlineStr"/>
       <c r="K105" t="inlineStr"/>
-      <c r="L105" t="inlineStr"/>
-      <c r="M105" t="inlineStr"/>
-      <c r="N105" t="n">
+      <c r="L105" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M105" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4480,36 +4507,37 @@
         <v>104</v>
       </c>
       <c r="B106" t="n">
-        <v>11.8</v>
+        <v>12</v>
       </c>
       <c r="C106" t="n">
-        <v>11.8</v>
+        <v>12</v>
       </c>
       <c r="D106" t="n">
-        <v>11.8</v>
+        <v>12</v>
       </c>
       <c r="E106" t="n">
-        <v>11.8</v>
+        <v>12</v>
       </c>
       <c r="F106" t="n">
-        <v>4948.4236</v>
+        <v>41487.3614</v>
       </c>
       <c r="G106" t="n">
-        <v>11.95333333333334</v>
+        <v>5765375.388336986</v>
       </c>
       <c r="H106" t="n">
-        <v>11.90666666666667</v>
+        <v>0</v>
       </c>
       <c r="I106" t="n">
         <v>0</v>
       </c>
-      <c r="J106" t="n">
-        <v>0</v>
-      </c>
+      <c r="J106" t="inlineStr"/>
       <c r="K106" t="inlineStr"/>
-      <c r="L106" t="inlineStr"/>
-      <c r="M106" t="inlineStr"/>
-      <c r="N106" t="n">
+      <c r="L106" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M106" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4518,36 +4546,37 @@
         <v>105</v>
       </c>
       <c r="B107" t="n">
-        <v>11.8</v>
+        <v>12.1</v>
       </c>
       <c r="C107" t="n">
-        <v>11.8</v>
+        <v>12.1</v>
       </c>
       <c r="D107" t="n">
-        <v>11.8</v>
+        <v>12.1</v>
       </c>
       <c r="E107" t="n">
-        <v>11.8</v>
+        <v>12.1</v>
       </c>
       <c r="F107" t="n">
-        <v>146865</v>
+        <v>11937.9435</v>
       </c>
       <c r="G107" t="n">
-        <v>11.94666666666667</v>
+        <v>5777313.331836986</v>
       </c>
       <c r="H107" t="n">
-        <v>11.90833333333333</v>
+        <v>0</v>
       </c>
       <c r="I107" t="n">
         <v>0</v>
       </c>
-      <c r="J107" t="n">
-        <v>0</v>
-      </c>
+      <c r="J107" t="inlineStr"/>
       <c r="K107" t="inlineStr"/>
-      <c r="L107" t="inlineStr"/>
-      <c r="M107" t="inlineStr"/>
-      <c r="N107" t="n">
+      <c r="L107" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M107" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4556,36 +4585,37 @@
         <v>106</v>
       </c>
       <c r="B108" t="n">
-        <v>11.8</v>
+        <v>12.1</v>
       </c>
       <c r="C108" t="n">
-        <v>11.7</v>
+        <v>12.1</v>
       </c>
       <c r="D108" t="n">
-        <v>11.8</v>
+        <v>12.1</v>
       </c>
       <c r="E108" t="n">
-        <v>11.7</v>
+        <v>12.1</v>
       </c>
       <c r="F108" t="n">
-        <v>270316.671</v>
+        <v>17840.68947851239</v>
       </c>
       <c r="G108" t="n">
-        <v>11.92</v>
+        <v>5777313.331836986</v>
       </c>
       <c r="H108" t="n">
-        <v>11.90833333333333</v>
+        <v>0</v>
       </c>
       <c r="I108" t="n">
         <v>0</v>
       </c>
-      <c r="J108" t="n">
-        <v>0</v>
-      </c>
+      <c r="J108" t="inlineStr"/>
       <c r="K108" t="inlineStr"/>
-      <c r="L108" t="inlineStr"/>
-      <c r="M108" t="inlineStr"/>
-      <c r="N108" t="n">
+      <c r="L108" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M108" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4594,36 +4624,37 @@
         <v>107</v>
       </c>
       <c r="B109" t="n">
-        <v>11.7</v>
+        <v>12.2</v>
       </c>
       <c r="C109" t="n">
-        <v>11.7</v>
+        <v>12.1</v>
       </c>
       <c r="D109" t="n">
-        <v>11.7</v>
+        <v>12.2</v>
       </c>
       <c r="E109" t="n">
-        <v>11.7</v>
+        <v>12.1</v>
       </c>
       <c r="F109" t="n">
-        <v>100000</v>
+        <v>85476.65089999999</v>
       </c>
       <c r="G109" t="n">
-        <v>11.9</v>
+        <v>5777313.331836986</v>
       </c>
       <c r="H109" t="n">
-        <v>11.90833333333333</v>
+        <v>0</v>
       </c>
       <c r="I109" t="n">
         <v>0</v>
       </c>
-      <c r="J109" t="n">
-        <v>0</v>
-      </c>
+      <c r="J109" t="inlineStr"/>
       <c r="K109" t="inlineStr"/>
-      <c r="L109" t="inlineStr"/>
-      <c r="M109" t="inlineStr"/>
-      <c r="N109" t="n">
+      <c r="L109" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M109" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4632,36 +4663,37 @@
         <v>108</v>
       </c>
       <c r="B110" t="n">
-        <v>11.7</v>
+        <v>12.2</v>
       </c>
       <c r="C110" t="n">
-        <v>11.7</v>
+        <v>12.2</v>
       </c>
       <c r="D110" t="n">
-        <v>11.7</v>
+        <v>12.2</v>
       </c>
       <c r="E110" t="n">
-        <v>11.7</v>
+        <v>12.2</v>
       </c>
       <c r="F110" t="n">
-        <v>100000</v>
+        <v>102072.4842</v>
       </c>
       <c r="G110" t="n">
-        <v>11.87333333333333</v>
+        <v>5879385.816036986</v>
       </c>
       <c r="H110" t="n">
-        <v>11.90833333333333</v>
+        <v>0</v>
       </c>
       <c r="I110" t="n">
         <v>0</v>
       </c>
-      <c r="J110" t="n">
-        <v>0</v>
-      </c>
+      <c r="J110" t="inlineStr"/>
       <c r="K110" t="inlineStr"/>
-      <c r="L110" t="inlineStr"/>
-      <c r="M110" t="inlineStr"/>
-      <c r="N110" t="n">
+      <c r="L110" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M110" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4670,36 +4702,37 @@
         <v>109</v>
       </c>
       <c r="B111" t="n">
-        <v>11.7</v>
+        <v>12.1</v>
       </c>
       <c r="C111" t="n">
-        <v>11.7</v>
+        <v>12.1</v>
       </c>
       <c r="D111" t="n">
-        <v>11.7</v>
+        <v>12.1</v>
       </c>
       <c r="E111" t="n">
-        <v>11.7</v>
+        <v>12.1</v>
       </c>
       <c r="F111" t="n">
-        <v>74084.7746</v>
+        <v>3539</v>
       </c>
       <c r="G111" t="n">
-        <v>11.84666666666667</v>
+        <v>5875846.816036986</v>
       </c>
       <c r="H111" t="n">
-        <v>11.90833333333333</v>
+        <v>0</v>
       </c>
       <c r="I111" t="n">
         <v>0</v>
       </c>
-      <c r="J111" t="n">
-        <v>0</v>
-      </c>
+      <c r="J111" t="inlineStr"/>
       <c r="K111" t="inlineStr"/>
-      <c r="L111" t="inlineStr"/>
-      <c r="M111" t="inlineStr"/>
-      <c r="N111" t="n">
+      <c r="L111" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M111" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4708,36 +4741,37 @@
         <v>110</v>
       </c>
       <c r="B112" t="n">
-        <v>11.8</v>
+        <v>12.3</v>
       </c>
       <c r="C112" t="n">
-        <v>11.8</v>
+        <v>12.3</v>
       </c>
       <c r="D112" t="n">
-        <v>11.8</v>
+        <v>12.3</v>
       </c>
       <c r="E112" t="n">
-        <v>11.8</v>
+        <v>12.3</v>
       </c>
       <c r="F112" t="n">
-        <v>9014.7901</v>
+        <v>41</v>
       </c>
       <c r="G112" t="n">
-        <v>11.83333333333334</v>
+        <v>5875887.816036986</v>
       </c>
       <c r="H112" t="n">
-        <v>11.91</v>
+        <v>0</v>
       </c>
       <c r="I112" t="n">
         <v>0</v>
       </c>
-      <c r="J112" t="n">
-        <v>0</v>
-      </c>
+      <c r="J112" t="inlineStr"/>
       <c r="K112" t="inlineStr"/>
-      <c r="L112" t="inlineStr"/>
-      <c r="M112" t="inlineStr"/>
-      <c r="N112" t="n">
+      <c r="L112" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M112" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4746,36 +4780,37 @@
         <v>111</v>
       </c>
       <c r="B113" t="n">
-        <v>11.8</v>
+        <v>12.3</v>
       </c>
       <c r="C113" t="n">
-        <v>11.8</v>
+        <v>12.3</v>
       </c>
       <c r="D113" t="n">
-        <v>11.8</v>
+        <v>12.3</v>
       </c>
       <c r="E113" t="n">
-        <v>11.8</v>
+        <v>12.3</v>
       </c>
       <c r="F113" t="n">
-        <v>100</v>
+        <v>47091.4205</v>
       </c>
       <c r="G113" t="n">
-        <v>11.82666666666667</v>
+        <v>5875887.816036986</v>
       </c>
       <c r="H113" t="n">
-        <v>11.91166666666666</v>
+        <v>0</v>
       </c>
       <c r="I113" t="n">
         <v>0</v>
       </c>
-      <c r="J113" t="n">
-        <v>0</v>
-      </c>
+      <c r="J113" t="inlineStr"/>
       <c r="K113" t="inlineStr"/>
-      <c r="L113" t="inlineStr"/>
-      <c r="M113" t="inlineStr"/>
-      <c r="N113" t="n">
+      <c r="L113" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M113" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4784,74 +4819,70 @@
         <v>112</v>
       </c>
       <c r="B114" t="n">
-        <v>11.8</v>
+        <v>12.1</v>
       </c>
       <c r="C114" t="n">
-        <v>11.8</v>
+        <v>12.1</v>
       </c>
       <c r="D114" t="n">
-        <v>11.8</v>
+        <v>12.1</v>
       </c>
       <c r="E114" t="n">
-        <v>11.8</v>
+        <v>12.1</v>
       </c>
       <c r="F114" t="n">
-        <v>3360</v>
+        <v>2500</v>
       </c>
       <c r="G114" t="n">
-        <v>11.82</v>
+        <v>5873387.816036986</v>
       </c>
       <c r="H114" t="n">
-        <v>11.91333333333333</v>
+        <v>0</v>
       </c>
       <c r="I114" t="n">
-        <v>0</v>
-      </c>
-      <c r="J114" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="J114" t="inlineStr"/>
       <c r="K114" t="inlineStr"/>
-      <c r="L114" t="inlineStr"/>
+      <c r="L114" t="inlineStr">
+        <is>
+          <t>매도 체결</t>
+        </is>
+      </c>
       <c r="M114" t="inlineStr"/>
-      <c r="N114" t="n">
-        <v>1</v>
-      </c>
     </row>
     <row r="115">
       <c r="A115" s="1" t="n">
         <v>113</v>
       </c>
       <c r="B115" t="n">
-        <v>11.8</v>
+        <v>12.1</v>
       </c>
       <c r="C115" t="n">
-        <v>11.7</v>
+        <v>12</v>
       </c>
       <c r="D115" t="n">
-        <v>11.8</v>
+        <v>12.1</v>
       </c>
       <c r="E115" t="n">
-        <v>11.7</v>
+        <v>12</v>
       </c>
       <c r="F115" t="n">
-        <v>8301.961799999999</v>
+        <v>69267.75992148761</v>
       </c>
       <c r="G115" t="n">
-        <v>11.80666666666667</v>
+        <v>5804120.056115499</v>
       </c>
       <c r="H115" t="n">
-        <v>11.91333333333333</v>
+        <v>0</v>
       </c>
       <c r="I115" t="n">
         <v>0</v>
       </c>
-      <c r="J115" t="n">
-        <v>0</v>
-      </c>
+      <c r="J115" t="inlineStr"/>
       <c r="K115" t="inlineStr"/>
       <c r="L115" t="inlineStr"/>
-      <c r="M115" t="inlineStr"/>
-      <c r="N115" t="n">
+      <c r="M115" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4860,36 +4891,33 @@
         <v>114</v>
       </c>
       <c r="B116" t="n">
-        <v>11.8</v>
+        <v>12</v>
       </c>
       <c r="C116" t="n">
-        <v>11.8</v>
+        <v>12</v>
       </c>
       <c r="D116" t="n">
-        <v>11.8</v>
+        <v>12</v>
       </c>
       <c r="E116" t="n">
-        <v>11.8</v>
+        <v>12</v>
       </c>
       <c r="F116" t="n">
-        <v>1590</v>
+        <v>3350</v>
       </c>
       <c r="G116" t="n">
-        <v>11.8</v>
+        <v>5804120.056115499</v>
       </c>
       <c r="H116" t="n">
-        <v>11.91499999999999</v>
+        <v>0</v>
       </c>
       <c r="I116" t="n">
         <v>0</v>
       </c>
-      <c r="J116" t="n">
-        <v>0</v>
-      </c>
+      <c r="J116" t="inlineStr"/>
       <c r="K116" t="inlineStr"/>
       <c r="L116" t="inlineStr"/>
-      <c r="M116" t="inlineStr"/>
-      <c r="N116" t="n">
+      <c r="M116" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4898,36 +4926,33 @@
         <v>115</v>
       </c>
       <c r="B117" t="n">
-        <v>11.8</v>
+        <v>12</v>
       </c>
       <c r="C117" t="n">
-        <v>11.8</v>
+        <v>11.9</v>
       </c>
       <c r="D117" t="n">
-        <v>11.8</v>
+        <v>12</v>
       </c>
       <c r="E117" t="n">
-        <v>11.8</v>
+        <v>11.9</v>
       </c>
       <c r="F117" t="n">
-        <v>100000</v>
+        <v>25869.7773</v>
       </c>
       <c r="G117" t="n">
-        <v>11.78666666666667</v>
+        <v>5778250.278815499</v>
       </c>
       <c r="H117" t="n">
-        <v>11.91666666666666</v>
+        <v>0</v>
       </c>
       <c r="I117" t="n">
         <v>0</v>
       </c>
-      <c r="J117" t="n">
-        <v>0</v>
-      </c>
+      <c r="J117" t="inlineStr"/>
       <c r="K117" t="inlineStr"/>
       <c r="L117" t="inlineStr"/>
-      <c r="M117" t="inlineStr"/>
-      <c r="N117" t="n">
+      <c r="M117" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4936,36 +4961,33 @@
         <v>116</v>
       </c>
       <c r="B118" t="n">
-        <v>11.7</v>
+        <v>12.1</v>
       </c>
       <c r="C118" t="n">
-        <v>11.7</v>
+        <v>12.1</v>
       </c>
       <c r="D118" t="n">
-        <v>11.7</v>
+        <v>12.1</v>
       </c>
       <c r="E118" t="n">
-        <v>11.7</v>
+        <v>12.1</v>
       </c>
       <c r="F118" t="n">
-        <v>21436.8989</v>
+        <v>2303.2476</v>
       </c>
       <c r="G118" t="n">
-        <v>11.77333333333334</v>
+        <v>5780553.526415499</v>
       </c>
       <c r="H118" t="n">
-        <v>11.91666666666666</v>
+        <v>0</v>
       </c>
       <c r="I118" t="n">
         <v>0</v>
       </c>
-      <c r="J118" t="n">
-        <v>0</v>
-      </c>
+      <c r="J118" t="inlineStr"/>
       <c r="K118" t="inlineStr"/>
       <c r="L118" t="inlineStr"/>
-      <c r="M118" t="inlineStr"/>
-      <c r="N118" t="n">
+      <c r="M118" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4974,36 +4996,33 @@
         <v>117</v>
       </c>
       <c r="B119" t="n">
-        <v>11.7</v>
+        <v>12.1</v>
       </c>
       <c r="C119" t="n">
-        <v>11.7</v>
+        <v>12.1</v>
       </c>
       <c r="D119" t="n">
-        <v>11.7</v>
+        <v>12.1</v>
       </c>
       <c r="E119" t="n">
-        <v>11.7</v>
+        <v>12.1</v>
       </c>
       <c r="F119" t="n">
-        <v>80546.3033</v>
+        <v>5819.577</v>
       </c>
       <c r="G119" t="n">
-        <v>11.76</v>
+        <v>5780553.526415499</v>
       </c>
       <c r="H119" t="n">
-        <v>11.91666666666666</v>
+        <v>0</v>
       </c>
       <c r="I119" t="n">
         <v>0</v>
       </c>
-      <c r="J119" t="n">
-        <v>0</v>
-      </c>
+      <c r="J119" t="inlineStr"/>
       <c r="K119" t="inlineStr"/>
       <c r="L119" t="inlineStr"/>
-      <c r="M119" t="inlineStr"/>
-      <c r="N119" t="n">
+      <c r="M119" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5012,36 +5031,33 @@
         <v>118</v>
       </c>
       <c r="B120" t="n">
-        <v>11.6</v>
+        <v>12</v>
       </c>
       <c r="C120" t="n">
-        <v>11.6</v>
+        <v>11.9</v>
       </c>
       <c r="D120" t="n">
-        <v>11.6</v>
+        <v>12</v>
       </c>
       <c r="E120" t="n">
-        <v>11.6</v>
+        <v>11.9</v>
       </c>
       <c r="F120" t="n">
-        <v>235.5462</v>
+        <v>189553.5962</v>
       </c>
       <c r="G120" t="n">
-        <v>11.74</v>
+        <v>5590999.930215499</v>
       </c>
       <c r="H120" t="n">
-        <v>11.91499999999999</v>
+        <v>0</v>
       </c>
       <c r="I120" t="n">
-        <v>0</v>
-      </c>
-      <c r="J120" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="J120" t="inlineStr"/>
       <c r="K120" t="inlineStr"/>
       <c r="L120" t="inlineStr"/>
-      <c r="M120" t="inlineStr"/>
-      <c r="N120" t="n">
+      <c r="M120" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5050,36 +5066,33 @@
         <v>119</v>
       </c>
       <c r="B121" t="n">
-        <v>11.6</v>
+        <v>11.9</v>
       </c>
       <c r="C121" t="n">
-        <v>11.6</v>
+        <v>11.9</v>
       </c>
       <c r="D121" t="n">
-        <v>11.6</v>
+        <v>11.9</v>
       </c>
       <c r="E121" t="n">
-        <v>11.6</v>
+        <v>11.9</v>
       </c>
       <c r="F121" t="n">
-        <v>8696.2371</v>
+        <v>9946.4038</v>
       </c>
       <c r="G121" t="n">
-        <v>11.72666666666666</v>
+        <v>5590999.930215499</v>
       </c>
       <c r="H121" t="n">
-        <v>11.91333333333333</v>
+        <v>0</v>
       </c>
       <c r="I121" t="n">
         <v>0</v>
       </c>
-      <c r="J121" t="n">
-        <v>0</v>
-      </c>
+      <c r="J121" t="inlineStr"/>
       <c r="K121" t="inlineStr"/>
       <c r="L121" t="inlineStr"/>
-      <c r="M121" t="inlineStr"/>
-      <c r="N121" t="n">
+      <c r="M121" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5088,36 +5101,33 @@
         <v>120</v>
       </c>
       <c r="B122" t="n">
-        <v>11.7</v>
+        <v>12.1</v>
       </c>
       <c r="C122" t="n">
-        <v>11.6</v>
+        <v>12.1</v>
       </c>
       <c r="D122" t="n">
-        <v>11.7</v>
+        <v>12.1</v>
       </c>
       <c r="E122" t="n">
-        <v>11.6</v>
+        <v>12.1</v>
       </c>
       <c r="F122" t="n">
-        <v>75906.85980000001</v>
+        <v>210</v>
       </c>
       <c r="G122" t="n">
-        <v>11.71333333333333</v>
+        <v>5591209.930215499</v>
       </c>
       <c r="H122" t="n">
-        <v>11.90999999999999</v>
+        <v>0</v>
       </c>
       <c r="I122" t="n">
         <v>0</v>
       </c>
-      <c r="J122" t="n">
-        <v>0</v>
-      </c>
+      <c r="J122" t="inlineStr"/>
       <c r="K122" t="inlineStr"/>
       <c r="L122" t="inlineStr"/>
-      <c r="M122" t="inlineStr"/>
-      <c r="N122" t="n">
+      <c r="M122" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5126,36 +5136,33 @@
         <v>121</v>
       </c>
       <c r="B123" t="n">
-        <v>11.6</v>
+        <v>12</v>
       </c>
       <c r="C123" t="n">
-        <v>11.6</v>
+        <v>12</v>
       </c>
       <c r="D123" t="n">
-        <v>11.6</v>
+        <v>12</v>
       </c>
       <c r="E123" t="n">
-        <v>11.6</v>
+        <v>12</v>
       </c>
       <c r="F123" t="n">
-        <v>4201.6807</v>
+        <v>80376.11629999999</v>
       </c>
       <c r="G123" t="n">
-        <v>11.70666666666667</v>
+        <v>5510833.813915499</v>
       </c>
       <c r="H123" t="n">
-        <v>11.90666666666666</v>
+        <v>0</v>
       </c>
       <c r="I123" t="n">
-        <v>0</v>
-      </c>
-      <c r="J123" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="J123" t="inlineStr"/>
       <c r="K123" t="inlineStr"/>
       <c r="L123" t="inlineStr"/>
-      <c r="M123" t="inlineStr"/>
-      <c r="N123" t="n">
+      <c r="M123" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5164,36 +5171,33 @@
         <v>122</v>
       </c>
       <c r="B124" t="n">
-        <v>11.8</v>
+        <v>12</v>
       </c>
       <c r="C124" t="n">
-        <v>11.8</v>
+        <v>12.1</v>
       </c>
       <c r="D124" t="n">
-        <v>11.8</v>
+        <v>12.1</v>
       </c>
       <c r="E124" t="n">
-        <v>11.8</v>
+        <v>12</v>
       </c>
       <c r="F124" t="n">
-        <v>5000</v>
+        <v>42788.99898677686</v>
       </c>
       <c r="G124" t="n">
-        <v>11.71333333333333</v>
+        <v>5553622.812902276</v>
       </c>
       <c r="H124" t="n">
-        <v>11.90666666666666</v>
+        <v>0</v>
       </c>
       <c r="I124" t="n">
-        <v>0</v>
-      </c>
-      <c r="J124" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="J124" t="inlineStr"/>
       <c r="K124" t="inlineStr"/>
       <c r="L124" t="inlineStr"/>
-      <c r="M124" t="inlineStr"/>
-      <c r="N124" t="n">
+      <c r="M124" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5202,36 +5206,33 @@
         <v>123</v>
       </c>
       <c r="B125" t="n">
-        <v>11.8</v>
+        <v>12.1</v>
       </c>
       <c r="C125" t="n">
-        <v>11.8</v>
+        <v>12.1</v>
       </c>
       <c r="D125" t="n">
-        <v>11.8</v>
+        <v>12.1</v>
       </c>
       <c r="E125" t="n">
-        <v>11.8</v>
+        <v>12.1</v>
       </c>
       <c r="F125" t="n">
-        <v>13163.9409</v>
+        <v>31119.63199173554</v>
       </c>
       <c r="G125" t="n">
-        <v>11.72</v>
+        <v>5553622.812902276</v>
       </c>
       <c r="H125" t="n">
-        <v>11.90666666666666</v>
+        <v>0</v>
       </c>
       <c r="I125" t="n">
-        <v>0</v>
-      </c>
-      <c r="J125" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="J125" t="inlineStr"/>
       <c r="K125" t="inlineStr"/>
       <c r="L125" t="inlineStr"/>
-      <c r="M125" t="inlineStr"/>
-      <c r="N125" t="n">
+      <c r="M125" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5240,36 +5241,33 @@
         <v>124</v>
       </c>
       <c r="B126" t="n">
-        <v>11.8</v>
+        <v>12.1</v>
       </c>
       <c r="C126" t="n">
-        <v>11.8</v>
+        <v>12</v>
       </c>
       <c r="D126" t="n">
-        <v>11.8</v>
+        <v>12.1</v>
       </c>
       <c r="E126" t="n">
-        <v>11.8</v>
+        <v>11.9</v>
       </c>
       <c r="F126" t="n">
-        <v>33000</v>
+        <v>63340.8259</v>
       </c>
       <c r="G126" t="n">
-        <v>11.72666666666667</v>
+        <v>5490281.987002277</v>
       </c>
       <c r="H126" t="n">
-        <v>11.90499999999999</v>
+        <v>0</v>
       </c>
       <c r="I126" t="n">
-        <v>0</v>
-      </c>
-      <c r="J126" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="J126" t="inlineStr"/>
       <c r="K126" t="inlineStr"/>
       <c r="L126" t="inlineStr"/>
-      <c r="M126" t="inlineStr"/>
-      <c r="N126" t="n">
+      <c r="M126" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5278,36 +5276,33 @@
         <v>125</v>
       </c>
       <c r="B127" t="n">
-        <v>11.8</v>
+        <v>11.9</v>
       </c>
       <c r="C127" t="n">
-        <v>11.8</v>
+        <v>11.9</v>
       </c>
       <c r="D127" t="n">
-        <v>11.8</v>
+        <v>11.9</v>
       </c>
       <c r="E127" t="n">
-        <v>11.8</v>
+        <v>11.9</v>
       </c>
       <c r="F127" t="n">
-        <v>10950.3295</v>
+        <v>29649.5695</v>
       </c>
       <c r="G127" t="n">
-        <v>11.72666666666667</v>
+        <v>5460632.417502277</v>
       </c>
       <c r="H127" t="n">
-        <v>11.90333333333333</v>
+        <v>0</v>
       </c>
       <c r="I127" t="n">
-        <v>0</v>
-      </c>
-      <c r="J127" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="J127" t="inlineStr"/>
       <c r="K127" t="inlineStr"/>
       <c r="L127" t="inlineStr"/>
-      <c r="M127" t="inlineStr"/>
-      <c r="N127" t="n">
+      <c r="M127" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5316,36 +5311,33 @@
         <v>126</v>
       </c>
       <c r="B128" t="n">
-        <v>11.7</v>
+        <v>11.9</v>
       </c>
       <c r="C128" t="n">
-        <v>11.6</v>
+        <v>11.9</v>
       </c>
       <c r="D128" t="n">
-        <v>11.7</v>
+        <v>11.9</v>
       </c>
       <c r="E128" t="n">
-        <v>11.6</v>
+        <v>11.9</v>
       </c>
       <c r="F128" t="n">
-        <v>177882.793</v>
+        <v>23602.5531</v>
       </c>
       <c r="G128" t="n">
-        <v>11.71333333333333</v>
+        <v>5460632.417502277</v>
       </c>
       <c r="H128" t="n">
-        <v>11.9</v>
+        <v>0</v>
       </c>
       <c r="I128" t="n">
-        <v>0</v>
-      </c>
-      <c r="J128" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="J128" t="inlineStr"/>
       <c r="K128" t="inlineStr"/>
       <c r="L128" t="inlineStr"/>
-      <c r="M128" t="inlineStr"/>
-      <c r="N128" t="n">
+      <c r="M128" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5354,36 +5346,33 @@
         <v>127</v>
       </c>
       <c r="B129" t="n">
-        <v>11.6</v>
+        <v>11.9</v>
       </c>
       <c r="C129" t="n">
-        <v>11.6</v>
+        <v>11.9</v>
       </c>
       <c r="D129" t="n">
-        <v>11.6</v>
+        <v>11.9</v>
       </c>
       <c r="E129" t="n">
-        <v>11.6</v>
+        <v>11.9</v>
       </c>
       <c r="F129" t="n">
-        <v>4300</v>
+        <v>24718.9033</v>
       </c>
       <c r="G129" t="n">
-        <v>11.7</v>
+        <v>5460632.417502277</v>
       </c>
       <c r="H129" t="n">
-        <v>11.89833333333333</v>
+        <v>0</v>
       </c>
       <c r="I129" t="n">
         <v>0</v>
       </c>
-      <c r="J129" t="n">
-        <v>0</v>
-      </c>
+      <c r="J129" t="inlineStr"/>
       <c r="K129" t="inlineStr"/>
       <c r="L129" t="inlineStr"/>
-      <c r="M129" t="inlineStr"/>
-      <c r="N129" t="n">
+      <c r="M129" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5392,36 +5381,33 @@
         <v>128</v>
       </c>
       <c r="B130" t="n">
-        <v>11.7</v>
+        <v>11.9</v>
       </c>
       <c r="C130" t="n">
-        <v>11.7</v>
+        <v>11.9</v>
       </c>
       <c r="D130" t="n">
-        <v>11.7</v>
+        <v>11.9</v>
       </c>
       <c r="E130" t="n">
-        <v>11.7</v>
+        <v>11.9</v>
       </c>
       <c r="F130" t="n">
-        <v>1100</v>
+        <v>25652.1657</v>
       </c>
       <c r="G130" t="n">
-        <v>11.7</v>
+        <v>5460632.417502277</v>
       </c>
       <c r="H130" t="n">
-        <v>11.89666666666666</v>
+        <v>0</v>
       </c>
       <c r="I130" t="n">
         <v>0</v>
       </c>
-      <c r="J130" t="n">
-        <v>0</v>
-      </c>
+      <c r="J130" t="inlineStr"/>
       <c r="K130" t="inlineStr"/>
       <c r="L130" t="inlineStr"/>
-      <c r="M130" t="inlineStr"/>
-      <c r="N130" t="n">
+      <c r="M130" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5430,36 +5416,33 @@
         <v>129</v>
       </c>
       <c r="B131" t="n">
-        <v>11.7</v>
+        <v>12</v>
       </c>
       <c r="C131" t="n">
-        <v>11.7</v>
+        <v>12</v>
       </c>
       <c r="D131" t="n">
-        <v>11.7</v>
+        <v>12</v>
       </c>
       <c r="E131" t="n">
-        <v>11.7</v>
+        <v>12</v>
       </c>
       <c r="F131" t="n">
-        <v>97127.8533</v>
+        <v>8333.3334</v>
       </c>
       <c r="G131" t="n">
-        <v>11.69333333333333</v>
+        <v>5468965.750902276</v>
       </c>
       <c r="H131" t="n">
-        <v>11.89333333333333</v>
+        <v>0</v>
       </c>
       <c r="I131" t="n">
-        <v>0</v>
-      </c>
-      <c r="J131" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="J131" t="inlineStr"/>
       <c r="K131" t="inlineStr"/>
       <c r="L131" t="inlineStr"/>
-      <c r="M131" t="inlineStr"/>
-      <c r="N131" t="n">
+      <c r="M131" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5468,36 +5451,33 @@
         <v>130</v>
       </c>
       <c r="B132" t="n">
-        <v>11.8</v>
+        <v>11.9</v>
       </c>
       <c r="C132" t="n">
-        <v>11.8</v>
+        <v>11.9</v>
       </c>
       <c r="D132" t="n">
-        <v>11.8</v>
+        <v>11.9</v>
       </c>
       <c r="E132" t="n">
-        <v>11.8</v>
+        <v>11.9</v>
       </c>
       <c r="F132" t="n">
-        <v>11170</v>
+        <v>1591.9618</v>
       </c>
       <c r="G132" t="n">
-        <v>11.69333333333333</v>
+        <v>5467373.789102277</v>
       </c>
       <c r="H132" t="n">
-        <v>11.89166666666666</v>
+        <v>0</v>
       </c>
       <c r="I132" t="n">
-        <v>0</v>
-      </c>
-      <c r="J132" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="J132" t="inlineStr"/>
       <c r="K132" t="inlineStr"/>
       <c r="L132" t="inlineStr"/>
-      <c r="M132" t="inlineStr"/>
-      <c r="N132" t="n">
+      <c r="M132" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5518,24 +5498,21 @@
         <v>11.9</v>
       </c>
       <c r="F133" t="n">
-        <v>80906.7314</v>
+        <v>117.7310924369748</v>
       </c>
       <c r="G133" t="n">
-        <v>11.70666666666667</v>
+        <v>5467373.789102277</v>
       </c>
       <c r="H133" t="n">
-        <v>11.88833333333333</v>
+        <v>0</v>
       </c>
       <c r="I133" t="n">
-        <v>0</v>
-      </c>
-      <c r="J133" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="J133" t="inlineStr"/>
       <c r="K133" t="inlineStr"/>
       <c r="L133" t="inlineStr"/>
-      <c r="M133" t="inlineStr"/>
-      <c r="N133" t="n">
+      <c r="M133" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5544,36 +5521,33 @@
         <v>132</v>
       </c>
       <c r="B134" t="n">
-        <v>11.7</v>
+        <v>11.9</v>
       </c>
       <c r="C134" t="n">
-        <v>11.7</v>
+        <v>11.9</v>
       </c>
       <c r="D134" t="n">
-        <v>11.7</v>
+        <v>11.9</v>
       </c>
       <c r="E134" t="n">
-        <v>11.7</v>
+        <v>11.9</v>
       </c>
       <c r="F134" t="n">
-        <v>100</v>
+        <v>117.8151260504202</v>
       </c>
       <c r="G134" t="n">
-        <v>11.70666666666667</v>
+        <v>5467373.789102277</v>
       </c>
       <c r="H134" t="n">
-        <v>11.88166666666666</v>
+        <v>0</v>
       </c>
       <c r="I134" t="n">
-        <v>0</v>
-      </c>
-      <c r="J134" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="J134" t="inlineStr"/>
       <c r="K134" t="inlineStr"/>
       <c r="L134" t="inlineStr"/>
-      <c r="M134" t="inlineStr"/>
-      <c r="N134" t="n">
+      <c r="M134" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5582,36 +5556,33 @@
         <v>133</v>
       </c>
       <c r="B135" t="n">
-        <v>11.7</v>
+        <v>11.8</v>
       </c>
       <c r="C135" t="n">
-        <v>11.7</v>
+        <v>11.8</v>
       </c>
       <c r="D135" t="n">
-        <v>11.7</v>
+        <v>11.8</v>
       </c>
       <c r="E135" t="n">
-        <v>11.7</v>
+        <v>11.8</v>
       </c>
       <c r="F135" t="n">
-        <v>1000</v>
+        <v>4948.4236</v>
       </c>
       <c r="G135" t="n">
-        <v>11.71333333333333</v>
+        <v>5462425.365502276</v>
       </c>
       <c r="H135" t="n">
-        <v>11.87666666666666</v>
+        <v>0</v>
       </c>
       <c r="I135" t="n">
         <v>0</v>
       </c>
-      <c r="J135" t="n">
-        <v>0</v>
-      </c>
+      <c r="J135" t="inlineStr"/>
       <c r="K135" t="inlineStr"/>
       <c r="L135" t="inlineStr"/>
-      <c r="M135" t="inlineStr"/>
-      <c r="N135" t="n">
+      <c r="M135" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5620,36 +5591,33 @@
         <v>134</v>
       </c>
       <c r="B136" t="n">
-        <v>11.7</v>
+        <v>11.8</v>
       </c>
       <c r="C136" t="n">
-        <v>11.7</v>
+        <v>11.8</v>
       </c>
       <c r="D136" t="n">
-        <v>11.7</v>
+        <v>11.8</v>
       </c>
       <c r="E136" t="n">
-        <v>11.7</v>
+        <v>11.8</v>
       </c>
       <c r="F136" t="n">
-        <v>18228.795</v>
+        <v>146865</v>
       </c>
       <c r="G136" t="n">
-        <v>11.72</v>
+        <v>5462425.365502276</v>
       </c>
       <c r="H136" t="n">
-        <v>11.87166666666666</v>
+        <v>0</v>
       </c>
       <c r="I136" t="n">
         <v>0</v>
       </c>
-      <c r="J136" t="n">
-        <v>0</v>
-      </c>
+      <c r="J136" t="inlineStr"/>
       <c r="K136" t="inlineStr"/>
       <c r="L136" t="inlineStr"/>
-      <c r="M136" t="inlineStr"/>
-      <c r="N136" t="n">
+      <c r="M136" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5658,36 +5626,33 @@
         <v>135</v>
       </c>
       <c r="B137" t="n">
-        <v>11.7</v>
+        <v>11.8</v>
       </c>
       <c r="C137" t="n">
         <v>11.7</v>
       </c>
       <c r="D137" t="n">
-        <v>11.7</v>
+        <v>11.8</v>
       </c>
       <c r="E137" t="n">
         <v>11.7</v>
       </c>
       <c r="F137" t="n">
-        <v>21771.205</v>
+        <v>270316.671</v>
       </c>
       <c r="G137" t="n">
-        <v>11.72666666666666</v>
+        <v>5192108.694502276</v>
       </c>
       <c r="H137" t="n">
-        <v>11.86666666666667</v>
+        <v>0</v>
       </c>
       <c r="I137" t="n">
         <v>0</v>
       </c>
-      <c r="J137" t="n">
-        <v>0</v>
-      </c>
+      <c r="J137" t="inlineStr"/>
       <c r="K137" t="inlineStr"/>
       <c r="L137" t="inlineStr"/>
-      <c r="M137" t="inlineStr"/>
-      <c r="N137" t="n">
+      <c r="M137" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5696,36 +5661,33 @@
         <v>136</v>
       </c>
       <c r="B138" t="n">
-        <v>11.8</v>
+        <v>11.7</v>
       </c>
       <c r="C138" t="n">
-        <v>11.8</v>
+        <v>11.7</v>
       </c>
       <c r="D138" t="n">
-        <v>11.8</v>
+        <v>11.7</v>
       </c>
       <c r="E138" t="n">
-        <v>11.8</v>
+        <v>11.7</v>
       </c>
       <c r="F138" t="n">
-        <v>2200</v>
+        <v>100000</v>
       </c>
       <c r="G138" t="n">
-        <v>11.74</v>
+        <v>5192108.694502276</v>
       </c>
       <c r="H138" t="n">
-        <v>11.86166666666666</v>
+        <v>0</v>
       </c>
       <c r="I138" t="n">
         <v>0</v>
       </c>
-      <c r="J138" t="n">
-        <v>0</v>
-      </c>
+      <c r="J138" t="inlineStr"/>
       <c r="K138" t="inlineStr"/>
       <c r="L138" t="inlineStr"/>
-      <c r="M138" t="inlineStr"/>
-      <c r="N138" t="n">
+      <c r="M138" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5734,36 +5696,33 @@
         <v>137</v>
       </c>
       <c r="B139" t="n">
-        <v>11.8</v>
+        <v>11.7</v>
       </c>
       <c r="C139" t="n">
-        <v>11.8</v>
+        <v>11.7</v>
       </c>
       <c r="D139" t="n">
-        <v>11.8</v>
+        <v>11.7</v>
       </c>
       <c r="E139" t="n">
-        <v>11.8</v>
+        <v>11.7</v>
       </c>
       <c r="F139" t="n">
-        <v>908.5016000000001</v>
+        <v>100000</v>
       </c>
       <c r="G139" t="n">
-        <v>11.74</v>
+        <v>5192108.694502276</v>
       </c>
       <c r="H139" t="n">
-        <v>11.85666666666666</v>
+        <v>0</v>
       </c>
       <c r="I139" t="n">
         <v>0</v>
       </c>
-      <c r="J139" t="n">
-        <v>0</v>
-      </c>
+      <c r="J139" t="inlineStr"/>
       <c r="K139" t="inlineStr"/>
       <c r="L139" t="inlineStr"/>
-      <c r="M139" t="inlineStr"/>
-      <c r="N139" t="n">
+      <c r="M139" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5772,36 +5731,33 @@
         <v>138</v>
       </c>
       <c r="B140" t="n">
-        <v>11.9</v>
+        <v>11.7</v>
       </c>
       <c r="C140" t="n">
-        <v>11.9</v>
+        <v>11.7</v>
       </c>
       <c r="D140" t="n">
-        <v>11.9</v>
+        <v>11.7</v>
       </c>
       <c r="E140" t="n">
-        <v>11.9</v>
+        <v>11.7</v>
       </c>
       <c r="F140" t="n">
-        <v>346.3635</v>
+        <v>74084.7746</v>
       </c>
       <c r="G140" t="n">
-        <v>11.74666666666667</v>
+        <v>5192108.694502276</v>
       </c>
       <c r="H140" t="n">
-        <v>11.85333333333333</v>
+        <v>0</v>
       </c>
       <c r="I140" t="n">
         <v>0</v>
       </c>
-      <c r="J140" t="n">
-        <v>0</v>
-      </c>
+      <c r="J140" t="inlineStr"/>
       <c r="K140" t="inlineStr"/>
       <c r="L140" t="inlineStr"/>
-      <c r="M140" t="inlineStr"/>
-      <c r="N140" t="n">
+      <c r="M140" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5810,36 +5766,33 @@
         <v>139</v>
       </c>
       <c r="B141" t="n">
-        <v>11.9</v>
+        <v>11.8</v>
       </c>
       <c r="C141" t="n">
-        <v>11.9</v>
+        <v>11.8</v>
       </c>
       <c r="D141" t="n">
-        <v>11.9</v>
+        <v>11.8</v>
       </c>
       <c r="E141" t="n">
-        <v>11.9</v>
+        <v>11.8</v>
       </c>
       <c r="F141" t="n">
-        <v>215067.6921</v>
+        <v>9014.7901</v>
       </c>
       <c r="G141" t="n">
-        <v>11.75333333333333</v>
+        <v>5201123.484602276</v>
       </c>
       <c r="H141" t="n">
-        <v>11.84833333333333</v>
+        <v>0</v>
       </c>
       <c r="I141" t="n">
         <v>0</v>
       </c>
-      <c r="J141" t="n">
-        <v>0</v>
-      </c>
+      <c r="J141" t="inlineStr"/>
       <c r="K141" t="inlineStr"/>
       <c r="L141" t="inlineStr"/>
-      <c r="M141" t="inlineStr"/>
-      <c r="N141" t="n">
+      <c r="M141" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5860,24 +5813,21 @@
         <v>11.8</v>
       </c>
       <c r="F142" t="n">
-        <v>234400.0556</v>
+        <v>100</v>
       </c>
       <c r="G142" t="n">
-        <v>11.75333333333333</v>
+        <v>5201123.484602276</v>
       </c>
       <c r="H142" t="n">
-        <v>11.84333333333333</v>
+        <v>0</v>
       </c>
       <c r="I142" t="n">
-        <v>0</v>
-      </c>
-      <c r="J142" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="J142" t="inlineStr"/>
       <c r="K142" t="inlineStr"/>
       <c r="L142" t="inlineStr"/>
-      <c r="M142" t="inlineStr"/>
-      <c r="N142" t="n">
+      <c r="M142" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5898,24 +5848,21 @@
         <v>11.8</v>
       </c>
       <c r="F143" t="n">
-        <v>38611.1969</v>
+        <v>3360</v>
       </c>
       <c r="G143" t="n">
-        <v>11.76666666666667</v>
+        <v>5201123.484602276</v>
       </c>
       <c r="H143" t="n">
-        <v>11.83499999999999</v>
+        <v>0</v>
       </c>
       <c r="I143" t="n">
-        <v>0</v>
-      </c>
-      <c r="J143" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="J143" t="inlineStr"/>
       <c r="K143" t="inlineStr"/>
       <c r="L143" t="inlineStr"/>
-      <c r="M143" t="inlineStr"/>
-      <c r="N143" t="n">
+      <c r="M143" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5924,36 +5871,33 @@
         <v>142</v>
       </c>
       <c r="B144" t="n">
-        <v>11.9</v>
+        <v>11.8</v>
       </c>
       <c r="C144" t="n">
-        <v>11.9</v>
+        <v>11.7</v>
       </c>
       <c r="D144" t="n">
-        <v>11.9</v>
+        <v>11.8</v>
       </c>
       <c r="E144" t="n">
-        <v>11.9</v>
+        <v>11.7</v>
       </c>
       <c r="F144" t="n">
-        <v>97673.49099999999</v>
+        <v>8301.961799999999</v>
       </c>
       <c r="G144" t="n">
-        <v>11.78666666666667</v>
+        <v>5192821.522802277</v>
       </c>
       <c r="H144" t="n">
-        <v>11.82833333333333</v>
+        <v>0</v>
       </c>
       <c r="I144" t="n">
-        <v>0</v>
-      </c>
-      <c r="J144" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="J144" t="inlineStr"/>
       <c r="K144" t="inlineStr"/>
       <c r="L144" t="inlineStr"/>
-      <c r="M144" t="inlineStr"/>
-      <c r="N144" t="n">
+      <c r="M144" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5962,36 +5906,33 @@
         <v>143</v>
       </c>
       <c r="B145" t="n">
-        <v>11.9</v>
+        <v>11.8</v>
       </c>
       <c r="C145" t="n">
-        <v>11.9</v>
+        <v>11.8</v>
       </c>
       <c r="D145" t="n">
-        <v>11.9</v>
+        <v>11.8</v>
       </c>
       <c r="E145" t="n">
-        <v>11.9</v>
+        <v>11.8</v>
       </c>
       <c r="F145" t="n">
-        <v>32236.2036</v>
+        <v>1590</v>
       </c>
       <c r="G145" t="n">
-        <v>11.8</v>
+        <v>5194411.522802277</v>
       </c>
       <c r="H145" t="n">
-        <v>11.82499999999999</v>
+        <v>0</v>
       </c>
       <c r="I145" t="n">
         <v>0</v>
       </c>
-      <c r="J145" t="n">
-        <v>0</v>
-      </c>
+      <c r="J145" t="inlineStr"/>
       <c r="K145" t="inlineStr"/>
       <c r="L145" t="inlineStr"/>
-      <c r="M145" t="inlineStr"/>
-      <c r="N145" t="n">
+      <c r="M145" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6000,36 +5941,33 @@
         <v>144</v>
       </c>
       <c r="B146" t="n">
-        <v>11.9</v>
+        <v>11.8</v>
       </c>
       <c r="C146" t="n">
-        <v>11.9</v>
+        <v>11.8</v>
       </c>
       <c r="D146" t="n">
-        <v>11.9</v>
+        <v>11.8</v>
       </c>
       <c r="E146" t="n">
-        <v>11.9</v>
+        <v>11.8</v>
       </c>
       <c r="F146" t="n">
-        <v>4201.680672268908</v>
+        <v>100000</v>
       </c>
       <c r="G146" t="n">
-        <v>11.81333333333334</v>
+        <v>5194411.522802277</v>
       </c>
       <c r="H146" t="n">
-        <v>11.82333333333333</v>
+        <v>0</v>
       </c>
       <c r="I146" t="n">
         <v>0</v>
       </c>
-      <c r="J146" t="n">
-        <v>0</v>
-      </c>
+      <c r="J146" t="inlineStr"/>
       <c r="K146" t="inlineStr"/>
       <c r="L146" t="inlineStr"/>
-      <c r="M146" t="inlineStr"/>
-      <c r="N146" t="n">
+      <c r="M146" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6038,36 +5976,33 @@
         <v>145</v>
       </c>
       <c r="B147" t="n">
-        <v>11.8</v>
+        <v>11.7</v>
       </c>
       <c r="C147" t="n">
-        <v>11.8</v>
+        <v>11.7</v>
       </c>
       <c r="D147" t="n">
-        <v>11.8</v>
+        <v>11.7</v>
       </c>
       <c r="E147" t="n">
-        <v>11.8</v>
+        <v>11.7</v>
       </c>
       <c r="F147" t="n">
-        <v>25000</v>
+        <v>21436.8989</v>
       </c>
       <c r="G147" t="n">
-        <v>11.81333333333334</v>
+        <v>5172974.623902276</v>
       </c>
       <c r="H147" t="n">
-        <v>11.81999999999999</v>
+        <v>0</v>
       </c>
       <c r="I147" t="n">
         <v>0</v>
       </c>
-      <c r="J147" t="n">
-        <v>0</v>
-      </c>
+      <c r="J147" t="inlineStr"/>
       <c r="K147" t="inlineStr"/>
       <c r="L147" t="inlineStr"/>
-      <c r="M147" t="inlineStr"/>
-      <c r="N147" t="n">
+      <c r="M147" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6076,36 +6011,33 @@
         <v>146</v>
       </c>
       <c r="B148" t="n">
-        <v>11.8</v>
+        <v>11.7</v>
       </c>
       <c r="C148" t="n">
-        <v>11.8</v>
+        <v>11.7</v>
       </c>
       <c r="D148" t="n">
-        <v>11.8</v>
+        <v>11.7</v>
       </c>
       <c r="E148" t="n">
-        <v>11.8</v>
+        <v>11.7</v>
       </c>
       <c r="F148" t="n">
-        <v>26673.5393</v>
+        <v>80546.3033</v>
       </c>
       <c r="G148" t="n">
-        <v>11.80666666666667</v>
+        <v>5172974.623902276</v>
       </c>
       <c r="H148" t="n">
-        <v>11.81833333333332</v>
+        <v>0</v>
       </c>
       <c r="I148" t="n">
         <v>0</v>
       </c>
-      <c r="J148" t="n">
-        <v>0</v>
-      </c>
+      <c r="J148" t="inlineStr"/>
       <c r="K148" t="inlineStr"/>
       <c r="L148" t="inlineStr"/>
-      <c r="M148" t="inlineStr"/>
-      <c r="N148" t="n">
+      <c r="M148" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6114,36 +6046,33 @@
         <v>147</v>
       </c>
       <c r="B149" t="n">
-        <v>11.7</v>
+        <v>11.6</v>
       </c>
       <c r="C149" t="n">
-        <v>11.7</v>
+        <v>11.6</v>
       </c>
       <c r="D149" t="n">
-        <v>11.7</v>
+        <v>11.6</v>
       </c>
       <c r="E149" t="n">
-        <v>11.7</v>
+        <v>11.6</v>
       </c>
       <c r="F149" t="n">
-        <v>100</v>
+        <v>235.5462</v>
       </c>
       <c r="G149" t="n">
-        <v>11.80666666666667</v>
+        <v>5172739.077702276</v>
       </c>
       <c r="H149" t="n">
-        <v>11.81166666666666</v>
+        <v>0</v>
       </c>
       <c r="I149" t="n">
         <v>0</v>
       </c>
-      <c r="J149" t="n">
-        <v>0</v>
-      </c>
+      <c r="J149" t="inlineStr"/>
       <c r="K149" t="inlineStr"/>
       <c r="L149" t="inlineStr"/>
-      <c r="M149" t="inlineStr"/>
-      <c r="N149" t="n">
+      <c r="M149" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6152,36 +6081,33 @@
         <v>148</v>
       </c>
       <c r="B150" t="n">
-        <v>11.7</v>
+        <v>11.6</v>
       </c>
       <c r="C150" t="n">
-        <v>11.7</v>
+        <v>11.6</v>
       </c>
       <c r="D150" t="n">
-        <v>11.7</v>
+        <v>11.6</v>
       </c>
       <c r="E150" t="n">
-        <v>11.7</v>
+        <v>11.6</v>
       </c>
       <c r="F150" t="n">
-        <v>4201.6807</v>
+        <v>8696.2371</v>
       </c>
       <c r="G150" t="n">
-        <v>11.80666666666667</v>
+        <v>5172739.077702276</v>
       </c>
       <c r="H150" t="n">
-        <v>11.80499999999999</v>
+        <v>0</v>
       </c>
       <c r="I150" t="n">
         <v>0</v>
       </c>
-      <c r="J150" t="n">
-        <v>0</v>
-      </c>
+      <c r="J150" t="inlineStr"/>
       <c r="K150" t="inlineStr"/>
       <c r="L150" t="inlineStr"/>
-      <c r="M150" t="inlineStr"/>
-      <c r="N150" t="n">
+      <c r="M150" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6190,36 +6116,33 @@
         <v>149</v>
       </c>
       <c r="B151" t="n">
-        <v>11.8</v>
+        <v>11.7</v>
       </c>
       <c r="C151" t="n">
-        <v>11.8</v>
+        <v>11.6</v>
       </c>
       <c r="D151" t="n">
-        <v>11.8</v>
+        <v>11.7</v>
       </c>
       <c r="E151" t="n">
-        <v>11.8</v>
+        <v>11.6</v>
       </c>
       <c r="F151" t="n">
-        <v>18152.8312</v>
+        <v>75906.85980000001</v>
       </c>
       <c r="G151" t="n">
-        <v>11.81333333333334</v>
+        <v>5172739.077702276</v>
       </c>
       <c r="H151" t="n">
-        <v>11.80333333333332</v>
+        <v>0</v>
       </c>
       <c r="I151" t="n">
         <v>0</v>
       </c>
-      <c r="J151" t="n">
-        <v>0</v>
-      </c>
+      <c r="J151" t="inlineStr"/>
       <c r="K151" t="inlineStr"/>
       <c r="L151" t="inlineStr"/>
-      <c r="M151" t="inlineStr"/>
-      <c r="N151" t="n">
+      <c r="M151" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6228,36 +6151,33 @@
         <v>150</v>
       </c>
       <c r="B152" t="n">
-        <v>11.8</v>
+        <v>11.6</v>
       </c>
       <c r="C152" t="n">
-        <v>11.8</v>
+        <v>11.6</v>
       </c>
       <c r="D152" t="n">
-        <v>11.8</v>
+        <v>11.6</v>
       </c>
       <c r="E152" t="n">
-        <v>11.8</v>
+        <v>11.6</v>
       </c>
       <c r="F152" t="n">
-        <v>88371.85649999999</v>
+        <v>4201.6807</v>
       </c>
       <c r="G152" t="n">
-        <v>11.82000000000001</v>
+        <v>5172739.077702276</v>
       </c>
       <c r="H152" t="n">
-        <v>11.80166666666666</v>
+        <v>0</v>
       </c>
       <c r="I152" t="n">
         <v>0</v>
       </c>
-      <c r="J152" t="n">
-        <v>0</v>
-      </c>
+      <c r="J152" t="inlineStr"/>
       <c r="K152" t="inlineStr"/>
       <c r="L152" t="inlineStr"/>
-      <c r="M152" t="inlineStr"/>
-      <c r="N152" t="n">
+      <c r="M152" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6278,24 +6198,21 @@
         <v>11.8</v>
       </c>
       <c r="F153" t="n">
-        <v>45978.7097</v>
+        <v>5000</v>
       </c>
       <c r="G153" t="n">
-        <v>11.82000000000001</v>
+        <v>5177739.077702276</v>
       </c>
       <c r="H153" t="n">
-        <v>11.79666666666666</v>
+        <v>0</v>
       </c>
       <c r="I153" t="n">
         <v>0</v>
       </c>
-      <c r="J153" t="n">
-        <v>0</v>
-      </c>
+      <c r="J153" t="inlineStr"/>
       <c r="K153" t="inlineStr"/>
       <c r="L153" t="inlineStr"/>
-      <c r="M153" t="inlineStr"/>
-      <c r="N153" t="n">
+      <c r="M153" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6304,36 +6221,33 @@
         <v>152</v>
       </c>
       <c r="B154" t="n">
-        <v>11.7</v>
+        <v>11.8</v>
       </c>
       <c r="C154" t="n">
-        <v>11.7</v>
+        <v>11.8</v>
       </c>
       <c r="D154" t="n">
-        <v>11.7</v>
+        <v>11.8</v>
       </c>
       <c r="E154" t="n">
-        <v>11.7</v>
+        <v>11.8</v>
       </c>
       <c r="F154" t="n">
-        <v>23959.5487</v>
+        <v>13163.9409</v>
       </c>
       <c r="G154" t="n">
-        <v>11.81333333333334</v>
+        <v>5177739.077702276</v>
       </c>
       <c r="H154" t="n">
-        <v>11.79166666666666</v>
+        <v>0</v>
       </c>
       <c r="I154" t="n">
         <v>0</v>
       </c>
-      <c r="J154" t="n">
-        <v>0</v>
-      </c>
+      <c r="J154" t="inlineStr"/>
       <c r="K154" t="inlineStr"/>
       <c r="L154" t="inlineStr"/>
-      <c r="M154" t="inlineStr"/>
-      <c r="N154" t="n">
+      <c r="M154" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6342,36 +6256,33 @@
         <v>153</v>
       </c>
       <c r="B155" t="n">
-        <v>11.7</v>
+        <v>11.8</v>
       </c>
       <c r="C155" t="n">
-        <v>11.7</v>
+        <v>11.8</v>
       </c>
       <c r="D155" t="n">
-        <v>11.7</v>
+        <v>11.8</v>
       </c>
       <c r="E155" t="n">
-        <v>11.7</v>
+        <v>11.8</v>
       </c>
       <c r="F155" t="n">
-        <v>24965.0007</v>
+        <v>33000</v>
       </c>
       <c r="G155" t="n">
-        <v>11.8</v>
+        <v>5177739.077702276</v>
       </c>
       <c r="H155" t="n">
-        <v>11.78499999999999</v>
+        <v>0</v>
       </c>
       <c r="I155" t="n">
         <v>0</v>
       </c>
-      <c r="J155" t="n">
-        <v>0</v>
-      </c>
+      <c r="J155" t="inlineStr"/>
       <c r="K155" t="inlineStr"/>
       <c r="L155" t="inlineStr"/>
-      <c r="M155" t="inlineStr"/>
-      <c r="N155" t="n">
+      <c r="M155" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6392,24 +6303,21 @@
         <v>11.8</v>
       </c>
       <c r="F156" t="n">
-        <v>4226.6613</v>
+        <v>10950.3295</v>
       </c>
       <c r="G156" t="n">
-        <v>11.79333333333334</v>
+        <v>5177739.077702276</v>
       </c>
       <c r="H156" t="n">
-        <v>11.77999999999999</v>
+        <v>0</v>
       </c>
       <c r="I156" t="n">
         <v>0</v>
       </c>
-      <c r="J156" t="n">
-        <v>0</v>
-      </c>
+      <c r="J156" t="inlineStr"/>
       <c r="K156" t="inlineStr"/>
       <c r="L156" t="inlineStr"/>
-      <c r="M156" t="inlineStr"/>
-      <c r="N156" t="n">
+      <c r="M156" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6418,36 +6326,33 @@
         <v>155</v>
       </c>
       <c r="B157" t="n">
-        <v>11.8</v>
+        <v>11.7</v>
       </c>
       <c r="C157" t="n">
-        <v>11.8</v>
+        <v>11.6</v>
       </c>
       <c r="D157" t="n">
-        <v>11.8</v>
+        <v>11.7</v>
       </c>
       <c r="E157" t="n">
-        <v>11.8</v>
+        <v>11.6</v>
       </c>
       <c r="F157" t="n">
-        <v>6079.6567</v>
+        <v>177882.793</v>
       </c>
       <c r="G157" t="n">
-        <v>11.79333333333334</v>
+        <v>4999856.284702277</v>
       </c>
       <c r="H157" t="n">
-        <v>11.77666666666665</v>
+        <v>0</v>
       </c>
       <c r="I157" t="n">
         <v>0</v>
       </c>
-      <c r="J157" t="n">
-        <v>0</v>
-      </c>
+      <c r="J157" t="inlineStr"/>
       <c r="K157" t="inlineStr"/>
       <c r="L157" t="inlineStr"/>
-      <c r="M157" t="inlineStr"/>
-      <c r="N157" t="n">
+      <c r="M157" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6456,36 +6361,33 @@
         <v>156</v>
       </c>
       <c r="B158" t="n">
-        <v>11.8</v>
+        <v>11.6</v>
       </c>
       <c r="C158" t="n">
-        <v>11.8</v>
+        <v>11.6</v>
       </c>
       <c r="D158" t="n">
-        <v>11.8</v>
+        <v>11.6</v>
       </c>
       <c r="E158" t="n">
-        <v>11.8</v>
+        <v>11.6</v>
       </c>
       <c r="F158" t="n">
-        <v>4360</v>
+        <v>4300</v>
       </c>
       <c r="G158" t="n">
-        <v>11.79333333333334</v>
+        <v>4999856.284702277</v>
       </c>
       <c r="H158" t="n">
-        <v>11.77499999999999</v>
+        <v>0</v>
       </c>
       <c r="I158" t="n">
         <v>0</v>
       </c>
-      <c r="J158" t="n">
-        <v>0</v>
-      </c>
+      <c r="J158" t="inlineStr"/>
       <c r="K158" t="inlineStr"/>
       <c r="L158" t="inlineStr"/>
-      <c r="M158" t="inlineStr"/>
-      <c r="N158" t="n">
+      <c r="M158" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6494,36 +6396,33 @@
         <v>157</v>
       </c>
       <c r="B159" t="n">
-        <v>11.8</v>
+        <v>11.7</v>
       </c>
       <c r="C159" t="n">
-        <v>11.8</v>
+        <v>11.7</v>
       </c>
       <c r="D159" t="n">
-        <v>11.8</v>
+        <v>11.7</v>
       </c>
       <c r="E159" t="n">
-        <v>11.8</v>
+        <v>11.7</v>
       </c>
       <c r="F159" t="n">
-        <v>298792.3166</v>
+        <v>1100</v>
       </c>
       <c r="G159" t="n">
-        <v>11.78666666666667</v>
+        <v>5000956.284702277</v>
       </c>
       <c r="H159" t="n">
-        <v>11.77333333333332</v>
+        <v>0</v>
       </c>
       <c r="I159" t="n">
         <v>0</v>
       </c>
-      <c r="J159" t="n">
-        <v>0</v>
-      </c>
+      <c r="J159" t="inlineStr"/>
       <c r="K159" t="inlineStr"/>
       <c r="L159" t="inlineStr"/>
-      <c r="M159" t="inlineStr"/>
-      <c r="N159" t="n">
+      <c r="M159" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6532,36 +6431,33 @@
         <v>158</v>
       </c>
       <c r="B160" t="n">
-        <v>11.8</v>
+        <v>11.7</v>
       </c>
       <c r="C160" t="n">
-        <v>11.8</v>
+        <v>11.7</v>
       </c>
       <c r="D160" t="n">
-        <v>11.8</v>
+        <v>11.7</v>
       </c>
       <c r="E160" t="n">
-        <v>11.8</v>
+        <v>11.7</v>
       </c>
       <c r="F160" t="n">
-        <v>63287.2407</v>
+        <v>97127.8533</v>
       </c>
       <c r="G160" t="n">
-        <v>11.78</v>
+        <v>5000956.284702277</v>
       </c>
       <c r="H160" t="n">
-        <v>11.77166666666665</v>
+        <v>0</v>
       </c>
       <c r="I160" t="n">
         <v>0</v>
       </c>
-      <c r="J160" t="n">
-        <v>0</v>
-      </c>
+      <c r="J160" t="inlineStr"/>
       <c r="K160" t="inlineStr"/>
       <c r="L160" t="inlineStr"/>
-      <c r="M160" t="inlineStr"/>
-      <c r="N160" t="n">
+      <c r="M160" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6573,33 +6469,30 @@
         <v>11.8</v>
       </c>
       <c r="C161" t="n">
-        <v>11.9</v>
+        <v>11.8</v>
       </c>
       <c r="D161" t="n">
-        <v>11.9</v>
+        <v>11.8</v>
       </c>
       <c r="E161" t="n">
         <v>11.8</v>
       </c>
       <c r="F161" t="n">
-        <v>30773.29091512605</v>
+        <v>11170</v>
       </c>
       <c r="G161" t="n">
-        <v>11.78</v>
+        <v>5012126.284702277</v>
       </c>
       <c r="H161" t="n">
-        <v>11.77166666666665</v>
+        <v>0</v>
       </c>
       <c r="I161" t="n">
         <v>0</v>
       </c>
-      <c r="J161" t="n">
-        <v>0</v>
-      </c>
+      <c r="J161" t="inlineStr"/>
       <c r="K161" t="inlineStr"/>
       <c r="L161" t="inlineStr"/>
-      <c r="M161" t="inlineStr"/>
-      <c r="N161" t="n">
+      <c r="M161" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6611,33 +6504,30 @@
         <v>11.9</v>
       </c>
       <c r="C162" t="n">
-        <v>11.8</v>
+        <v>11.9</v>
       </c>
       <c r="D162" t="n">
         <v>11.9</v>
       </c>
       <c r="E162" t="n">
-        <v>11.8</v>
+        <v>11.9</v>
       </c>
       <c r="F162" t="n">
-        <v>123781.9023848739</v>
+        <v>80906.7314</v>
       </c>
       <c r="G162" t="n">
-        <v>11.78</v>
+        <v>5093033.016102277</v>
       </c>
       <c r="H162" t="n">
-        <v>11.76833333333332</v>
+        <v>0</v>
       </c>
       <c r="I162" t="n">
         <v>0</v>
       </c>
-      <c r="J162" t="n">
-        <v>0</v>
-      </c>
+      <c r="J162" t="inlineStr"/>
       <c r="K162" t="inlineStr"/>
       <c r="L162" t="inlineStr"/>
-      <c r="M162" t="inlineStr"/>
-      <c r="N162" t="n">
+      <c r="M162" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6646,36 +6536,33 @@
         <v>161</v>
       </c>
       <c r="B163" t="n">
-        <v>11.8</v>
+        <v>11.7</v>
       </c>
       <c r="C163" t="n">
-        <v>11.8</v>
+        <v>11.7</v>
       </c>
       <c r="D163" t="n">
-        <v>11.8</v>
+        <v>11.7</v>
       </c>
       <c r="E163" t="n">
-        <v>11.8</v>
+        <v>11.7</v>
       </c>
       <c r="F163" t="n">
-        <v>171836.0471</v>
+        <v>100</v>
       </c>
       <c r="G163" t="n">
-        <v>11.78</v>
+        <v>5092933.016102277</v>
       </c>
       <c r="H163" t="n">
-        <v>11.76666666666665</v>
+        <v>0</v>
       </c>
       <c r="I163" t="n">
         <v>0</v>
       </c>
-      <c r="J163" t="n">
-        <v>0</v>
-      </c>
+      <c r="J163" t="inlineStr"/>
       <c r="K163" t="inlineStr"/>
       <c r="L163" t="inlineStr"/>
-      <c r="M163" t="inlineStr"/>
-      <c r="N163" t="n">
+      <c r="M163" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6684,36 +6571,33 @@
         <v>162</v>
       </c>
       <c r="B164" t="n">
-        <v>11.8</v>
+        <v>11.7</v>
       </c>
       <c r="C164" t="n">
-        <v>11.8</v>
+        <v>11.7</v>
       </c>
       <c r="D164" t="n">
-        <v>11.8</v>
+        <v>11.7</v>
       </c>
       <c r="E164" t="n">
-        <v>11.8</v>
+        <v>11.7</v>
       </c>
       <c r="F164" t="n">
-        <v>1.5126050420168e-05</v>
+        <v>1000</v>
       </c>
       <c r="G164" t="n">
-        <v>11.78666666666667</v>
+        <v>5092933.016102277</v>
       </c>
       <c r="H164" t="n">
-        <v>11.76499999999999</v>
+        <v>0</v>
       </c>
       <c r="I164" t="n">
         <v>0</v>
       </c>
-      <c r="J164" t="n">
-        <v>0</v>
-      </c>
+      <c r="J164" t="inlineStr"/>
       <c r="K164" t="inlineStr"/>
       <c r="L164" t="inlineStr"/>
-      <c r="M164" t="inlineStr"/>
-      <c r="N164" t="n">
+      <c r="M164" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6722,36 +6606,33 @@
         <v>163</v>
       </c>
       <c r="B165" t="n">
-        <v>11.8</v>
+        <v>11.7</v>
       </c>
       <c r="C165" t="n">
-        <v>11.8</v>
+        <v>11.7</v>
       </c>
       <c r="D165" t="n">
-        <v>11.8</v>
+        <v>11.7</v>
       </c>
       <c r="E165" t="n">
-        <v>11.8</v>
+        <v>11.7</v>
       </c>
       <c r="F165" t="n">
-        <v>19132.62628487395</v>
+        <v>18228.795</v>
       </c>
       <c r="G165" t="n">
-        <v>11.79333333333334</v>
+        <v>5092933.016102277</v>
       </c>
       <c r="H165" t="n">
-        <v>11.76333333333332</v>
+        <v>0</v>
       </c>
       <c r="I165" t="n">
         <v>0</v>
       </c>
-      <c r="J165" t="n">
-        <v>0</v>
-      </c>
+      <c r="J165" t="inlineStr"/>
       <c r="K165" t="inlineStr"/>
       <c r="L165" t="inlineStr"/>
-      <c r="M165" t="inlineStr"/>
-      <c r="N165" t="n">
+      <c r="M165" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6760,36 +6641,33 @@
         <v>164</v>
       </c>
       <c r="B166" t="n">
-        <v>11.9</v>
+        <v>11.7</v>
       </c>
       <c r="C166" t="n">
-        <v>11.9</v>
+        <v>11.7</v>
       </c>
       <c r="D166" t="n">
-        <v>11.9</v>
+        <v>11.7</v>
       </c>
       <c r="E166" t="n">
-        <v>11.8</v>
+        <v>11.7</v>
       </c>
       <c r="F166" t="n">
-        <v>21072.6183</v>
+        <v>21771.205</v>
       </c>
       <c r="G166" t="n">
-        <v>11.80000000000001</v>
+        <v>5092933.016102277</v>
       </c>
       <c r="H166" t="n">
-        <v>11.76499999999999</v>
+        <v>0</v>
       </c>
       <c r="I166" t="n">
         <v>0</v>
       </c>
-      <c r="J166" t="n">
-        <v>0</v>
-      </c>
+      <c r="J166" t="inlineStr"/>
       <c r="K166" t="inlineStr"/>
       <c r="L166" t="inlineStr"/>
-      <c r="M166" t="inlineStr"/>
-      <c r="N166" t="n">
+      <c r="M166" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6798,36 +6676,33 @@
         <v>165</v>
       </c>
       <c r="B167" t="n">
-        <v>11.9</v>
+        <v>11.8</v>
       </c>
       <c r="C167" t="n">
-        <v>11.9</v>
+        <v>11.8</v>
       </c>
       <c r="D167" t="n">
-        <v>11.9</v>
+        <v>11.8</v>
       </c>
       <c r="E167" t="n">
-        <v>11.9</v>
+        <v>11.8</v>
       </c>
       <c r="F167" t="n">
-        <v>6899.4078</v>
+        <v>2200</v>
       </c>
       <c r="G167" t="n">
-        <v>11.80666666666667</v>
+        <v>5095133.016102277</v>
       </c>
       <c r="H167" t="n">
-        <v>11.76666666666665</v>
+        <v>0</v>
       </c>
       <c r="I167" t="n">
         <v>0</v>
       </c>
-      <c r="J167" t="n">
-        <v>0</v>
-      </c>
+      <c r="J167" t="inlineStr"/>
       <c r="K167" t="inlineStr"/>
       <c r="L167" t="inlineStr"/>
-      <c r="M167" t="inlineStr"/>
-      <c r="N167" t="n">
+      <c r="M167" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6836,36 +6711,33 @@
         <v>166</v>
       </c>
       <c r="B168" t="n">
-        <v>12</v>
+        <v>11.8</v>
       </c>
       <c r="C168" t="n">
-        <v>11.9</v>
+        <v>11.8</v>
       </c>
       <c r="D168" t="n">
-        <v>12</v>
+        <v>11.8</v>
       </c>
       <c r="E168" t="n">
         <v>11.8</v>
       </c>
       <c r="F168" t="n">
-        <v>86491.4749</v>
+        <v>908.5016000000001</v>
       </c>
       <c r="G168" t="n">
-        <v>11.81333333333334</v>
+        <v>5095133.016102277</v>
       </c>
       <c r="H168" t="n">
-        <v>11.76999999999999</v>
+        <v>0</v>
       </c>
       <c r="I168" t="n">
         <v>0</v>
       </c>
-      <c r="J168" t="n">
-        <v>0</v>
-      </c>
+      <c r="J168" t="inlineStr"/>
       <c r="K168" t="inlineStr"/>
       <c r="L168" t="inlineStr"/>
-      <c r="M168" t="inlineStr"/>
-      <c r="N168" t="n">
+      <c r="M168" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6877,33 +6749,30 @@
         <v>11.9</v>
       </c>
       <c r="C169" t="n">
-        <v>11.8</v>
+        <v>11.9</v>
       </c>
       <c r="D169" t="n">
         <v>11.9</v>
       </c>
       <c r="E169" t="n">
-        <v>11.8</v>
+        <v>11.9</v>
       </c>
       <c r="F169" t="n">
-        <v>176106.8292</v>
+        <v>346.3635</v>
       </c>
       <c r="G169" t="n">
-        <v>11.82000000000001</v>
+        <v>5095479.379602277</v>
       </c>
       <c r="H169" t="n">
-        <v>11.77166666666665</v>
+        <v>0</v>
       </c>
       <c r="I169" t="n">
         <v>0</v>
       </c>
-      <c r="J169" t="n">
-        <v>0</v>
-      </c>
+      <c r="J169" t="inlineStr"/>
       <c r="K169" t="inlineStr"/>
       <c r="L169" t="inlineStr"/>
-      <c r="M169" t="inlineStr"/>
-      <c r="N169" t="n">
+      <c r="M169" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6924,24 +6793,21 @@
         <v>11.9</v>
       </c>
       <c r="F170" t="n">
-        <v>43635.9061</v>
+        <v>215067.6921</v>
       </c>
       <c r="G170" t="n">
-        <v>11.83333333333334</v>
+        <v>5095479.379602277</v>
       </c>
       <c r="H170" t="n">
-        <v>11.77499999999998</v>
+        <v>0</v>
       </c>
       <c r="I170" t="n">
-        <v>0</v>
-      </c>
-      <c r="J170" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="J170" t="inlineStr"/>
       <c r="K170" t="inlineStr"/>
       <c r="L170" t="inlineStr"/>
-      <c r="M170" t="inlineStr"/>
-      <c r="N170" t="n">
+      <c r="M170" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6950,36 +6816,33 @@
         <v>169</v>
       </c>
       <c r="B171" t="n">
-        <v>12</v>
+        <v>11.8</v>
       </c>
       <c r="C171" t="n">
-        <v>12</v>
+        <v>11.8</v>
       </c>
       <c r="D171" t="n">
-        <v>12</v>
+        <v>11.8</v>
       </c>
       <c r="E171" t="n">
-        <v>12</v>
+        <v>11.8</v>
       </c>
       <c r="F171" t="n">
-        <v>80</v>
+        <v>234400.0556</v>
       </c>
       <c r="G171" t="n">
-        <v>11.84666666666667</v>
+        <v>4861079.324002277</v>
       </c>
       <c r="H171" t="n">
-        <v>11.77999999999998</v>
+        <v>0</v>
       </c>
       <c r="I171" t="n">
-        <v>0</v>
-      </c>
-      <c r="J171" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="J171" t="inlineStr"/>
       <c r="K171" t="inlineStr"/>
       <c r="L171" t="inlineStr"/>
-      <c r="M171" t="inlineStr"/>
-      <c r="N171" t="n">
+      <c r="M171" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6988,36 +6851,33 @@
         <v>170</v>
       </c>
       <c r="B172" t="n">
-        <v>11.9</v>
+        <v>11.8</v>
       </c>
       <c r="C172" t="n">
-        <v>11.9</v>
+        <v>11.8</v>
       </c>
       <c r="D172" t="n">
-        <v>11.9</v>
+        <v>11.8</v>
       </c>
       <c r="E172" t="n">
-        <v>11.9</v>
+        <v>11.8</v>
       </c>
       <c r="F172" t="n">
-        <v>8831</v>
+        <v>38611.1969</v>
       </c>
       <c r="G172" t="n">
-        <v>11.85333333333334</v>
+        <v>4861079.324002277</v>
       </c>
       <c r="H172" t="n">
-        <v>11.78166666666665</v>
+        <v>0</v>
       </c>
       <c r="I172" t="n">
-        <v>0</v>
-      </c>
-      <c r="J172" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="J172" t="inlineStr"/>
       <c r="K172" t="inlineStr"/>
       <c r="L172" t="inlineStr"/>
-      <c r="M172" t="inlineStr"/>
-      <c r="N172" t="n">
+      <c r="M172" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7038,24 +6898,21 @@
         <v>11.9</v>
       </c>
       <c r="F173" t="n">
-        <v>982.0187</v>
+        <v>97673.49099999999</v>
       </c>
       <c r="G173" t="n">
-        <v>11.86000000000001</v>
+        <v>4958752.815002277</v>
       </c>
       <c r="H173" t="n">
-        <v>11.78333333333332</v>
+        <v>0</v>
       </c>
       <c r="I173" t="n">
-        <v>0</v>
-      </c>
-      <c r="J173" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="J173" t="inlineStr"/>
       <c r="K173" t="inlineStr"/>
       <c r="L173" t="inlineStr"/>
-      <c r="M173" t="inlineStr"/>
-      <c r="N173" t="n">
+      <c r="M173" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7076,24 +6933,21 @@
         <v>11.9</v>
       </c>
       <c r="F174" t="n">
-        <v>20000</v>
+        <v>32236.2036</v>
       </c>
       <c r="G174" t="n">
-        <v>11.86666666666667</v>
+        <v>4958752.815002277</v>
       </c>
       <c r="H174" t="n">
-        <v>11.78499999999998</v>
+        <v>0</v>
       </c>
       <c r="I174" t="n">
-        <v>0</v>
-      </c>
-      <c r="J174" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="J174" t="inlineStr"/>
       <c r="K174" t="inlineStr"/>
       <c r="L174" t="inlineStr"/>
-      <c r="M174" t="inlineStr"/>
-      <c r="N174" t="n">
+      <c r="M174" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7102,36 +6956,33 @@
         <v>173</v>
       </c>
       <c r="B175" t="n">
-        <v>11.8</v>
+        <v>11.9</v>
       </c>
       <c r="C175" t="n">
-        <v>11.7</v>
+        <v>11.9</v>
       </c>
       <c r="D175" t="n">
-        <v>11.8</v>
+        <v>11.9</v>
       </c>
       <c r="E175" t="n">
-        <v>11.7</v>
+        <v>11.9</v>
       </c>
       <c r="F175" t="n">
-        <v>41075.5745</v>
+        <v>4201.680672268908</v>
       </c>
       <c r="G175" t="n">
-        <v>11.86000000000001</v>
+        <v>4958752.815002277</v>
       </c>
       <c r="H175" t="n">
-        <v>11.78499999999998</v>
+        <v>0</v>
       </c>
       <c r="I175" t="n">
-        <v>0</v>
-      </c>
-      <c r="J175" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="J175" t="inlineStr"/>
       <c r="K175" t="inlineStr"/>
       <c r="L175" t="inlineStr"/>
-      <c r="M175" t="inlineStr"/>
-      <c r="N175" t="n">
+      <c r="M175" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7140,36 +6991,1048 @@
         <v>174</v>
       </c>
       <c r="B176" t="n">
-        <v>11.7</v>
+        <v>11.8</v>
       </c>
       <c r="C176" t="n">
-        <v>11.7</v>
+        <v>11.8</v>
       </c>
       <c r="D176" t="n">
-        <v>11.7</v>
+        <v>11.8</v>
       </c>
       <c r="E176" t="n">
-        <v>11.7</v>
+        <v>11.8</v>
       </c>
       <c r="F176" t="n">
-        <v>106098.7638</v>
+        <v>25000</v>
       </c>
       <c r="G176" t="n">
-        <v>11.84666666666667</v>
+        <v>4933752.815002277</v>
       </c>
       <c r="H176" t="n">
-        <v>11.78333333333332</v>
+        <v>0</v>
       </c>
       <c r="I176" t="n">
-        <v>0</v>
-      </c>
-      <c r="J176" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="J176" t="inlineStr"/>
       <c r="K176" t="inlineStr"/>
       <c r="L176" t="inlineStr"/>
-      <c r="M176" t="inlineStr"/>
-      <c r="N176" t="n">
+      <c r="M176" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="177">
+      <c r="A177" s="1" t="n">
+        <v>175</v>
+      </c>
+      <c r="B177" t="n">
+        <v>11.8</v>
+      </c>
+      <c r="C177" t="n">
+        <v>11.8</v>
+      </c>
+      <c r="D177" t="n">
+        <v>11.8</v>
+      </c>
+      <c r="E177" t="n">
+        <v>11.8</v>
+      </c>
+      <c r="F177" t="n">
+        <v>26673.5393</v>
+      </c>
+      <c r="G177" t="n">
+        <v>4933752.815002277</v>
+      </c>
+      <c r="H177" t="n">
+        <v>0</v>
+      </c>
+      <c r="I177" t="n">
+        <v>1</v>
+      </c>
+      <c r="J177" t="inlineStr"/>
+      <c r="K177" t="inlineStr"/>
+      <c r="L177" t="inlineStr"/>
+      <c r="M177" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="178">
+      <c r="A178" s="1" t="n">
+        <v>176</v>
+      </c>
+      <c r="B178" t="n">
+        <v>11.7</v>
+      </c>
+      <c r="C178" t="n">
+        <v>11.7</v>
+      </c>
+      <c r="D178" t="n">
+        <v>11.7</v>
+      </c>
+      <c r="E178" t="n">
+        <v>11.7</v>
+      </c>
+      <c r="F178" t="n">
+        <v>100</v>
+      </c>
+      <c r="G178" t="n">
+        <v>4933652.815002277</v>
+      </c>
+      <c r="H178" t="n">
+        <v>0</v>
+      </c>
+      <c r="I178" t="n">
+        <v>0</v>
+      </c>
+      <c r="J178" t="inlineStr"/>
+      <c r="K178" t="inlineStr"/>
+      <c r="L178" t="inlineStr"/>
+      <c r="M178" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="179">
+      <c r="A179" s="1" t="n">
+        <v>177</v>
+      </c>
+      <c r="B179" t="n">
+        <v>11.7</v>
+      </c>
+      <c r="C179" t="n">
+        <v>11.7</v>
+      </c>
+      <c r="D179" t="n">
+        <v>11.7</v>
+      </c>
+      <c r="E179" t="n">
+        <v>11.7</v>
+      </c>
+      <c r="F179" t="n">
+        <v>4201.6807</v>
+      </c>
+      <c r="G179" t="n">
+        <v>4933652.815002277</v>
+      </c>
+      <c r="H179" t="n">
+        <v>0</v>
+      </c>
+      <c r="I179" t="n">
+        <v>0</v>
+      </c>
+      <c r="J179" t="inlineStr"/>
+      <c r="K179" t="inlineStr"/>
+      <c r="L179" t="inlineStr"/>
+      <c r="M179" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="180">
+      <c r="A180" s="1" t="n">
+        <v>178</v>
+      </c>
+      <c r="B180" t="n">
+        <v>11.8</v>
+      </c>
+      <c r="C180" t="n">
+        <v>11.8</v>
+      </c>
+      <c r="D180" t="n">
+        <v>11.8</v>
+      </c>
+      <c r="E180" t="n">
+        <v>11.8</v>
+      </c>
+      <c r="F180" t="n">
+        <v>18152.8312</v>
+      </c>
+      <c r="G180" t="n">
+        <v>4951805.646202277</v>
+      </c>
+      <c r="H180" t="n">
+        <v>0</v>
+      </c>
+      <c r="I180" t="n">
+        <v>0</v>
+      </c>
+      <c r="J180" t="inlineStr"/>
+      <c r="K180" t="inlineStr"/>
+      <c r="L180" t="inlineStr"/>
+      <c r="M180" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="181">
+      <c r="A181" s="1" t="n">
+        <v>179</v>
+      </c>
+      <c r="B181" t="n">
+        <v>11.8</v>
+      </c>
+      <c r="C181" t="n">
+        <v>11.8</v>
+      </c>
+      <c r="D181" t="n">
+        <v>11.8</v>
+      </c>
+      <c r="E181" t="n">
+        <v>11.8</v>
+      </c>
+      <c r="F181" t="n">
+        <v>88371.85649999999</v>
+      </c>
+      <c r="G181" t="n">
+        <v>4951805.646202277</v>
+      </c>
+      <c r="H181" t="n">
+        <v>0</v>
+      </c>
+      <c r="I181" t="n">
+        <v>0</v>
+      </c>
+      <c r="J181" t="inlineStr"/>
+      <c r="K181" t="inlineStr"/>
+      <c r="L181" t="inlineStr"/>
+      <c r="M181" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="182">
+      <c r="A182" s="1" t="n">
+        <v>180</v>
+      </c>
+      <c r="B182" t="n">
+        <v>11.8</v>
+      </c>
+      <c r="C182" t="n">
+        <v>11.8</v>
+      </c>
+      <c r="D182" t="n">
+        <v>11.8</v>
+      </c>
+      <c r="E182" t="n">
+        <v>11.8</v>
+      </c>
+      <c r="F182" t="n">
+        <v>45978.7097</v>
+      </c>
+      <c r="G182" t="n">
+        <v>4951805.646202277</v>
+      </c>
+      <c r="H182" t="n">
+        <v>0</v>
+      </c>
+      <c r="I182" t="n">
+        <v>0</v>
+      </c>
+      <c r="J182" t="inlineStr"/>
+      <c r="K182" t="inlineStr"/>
+      <c r="L182" t="inlineStr"/>
+      <c r="M182" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="183">
+      <c r="A183" s="1" t="n">
+        <v>181</v>
+      </c>
+      <c r="B183" t="n">
+        <v>11.7</v>
+      </c>
+      <c r="C183" t="n">
+        <v>11.7</v>
+      </c>
+      <c r="D183" t="n">
+        <v>11.7</v>
+      </c>
+      <c r="E183" t="n">
+        <v>11.7</v>
+      </c>
+      <c r="F183" t="n">
+        <v>23959.5487</v>
+      </c>
+      <c r="G183" t="n">
+        <v>4927846.097502277</v>
+      </c>
+      <c r="H183" t="n">
+        <v>0</v>
+      </c>
+      <c r="I183" t="n">
+        <v>1</v>
+      </c>
+      <c r="J183" t="inlineStr"/>
+      <c r="K183" t="inlineStr"/>
+      <c r="L183" t="inlineStr"/>
+      <c r="M183" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="184">
+      <c r="A184" s="1" t="n">
+        <v>182</v>
+      </c>
+      <c r="B184" t="n">
+        <v>11.7</v>
+      </c>
+      <c r="C184" t="n">
+        <v>11.7</v>
+      </c>
+      <c r="D184" t="n">
+        <v>11.7</v>
+      </c>
+      <c r="E184" t="n">
+        <v>11.7</v>
+      </c>
+      <c r="F184" t="n">
+        <v>24965.0007</v>
+      </c>
+      <c r="G184" t="n">
+        <v>4927846.097502277</v>
+      </c>
+      <c r="H184" t="n">
+        <v>0</v>
+      </c>
+      <c r="I184" t="n">
+        <v>0</v>
+      </c>
+      <c r="J184" t="inlineStr"/>
+      <c r="K184" t="inlineStr"/>
+      <c r="L184" t="inlineStr"/>
+      <c r="M184" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="185">
+      <c r="A185" s="1" t="n">
+        <v>183</v>
+      </c>
+      <c r="B185" t="n">
+        <v>11.8</v>
+      </c>
+      <c r="C185" t="n">
+        <v>11.8</v>
+      </c>
+      <c r="D185" t="n">
+        <v>11.8</v>
+      </c>
+      <c r="E185" t="n">
+        <v>11.8</v>
+      </c>
+      <c r="F185" t="n">
+        <v>4226.6613</v>
+      </c>
+      <c r="G185" t="n">
+        <v>4932072.758802277</v>
+      </c>
+      <c r="H185" t="n">
+        <v>0</v>
+      </c>
+      <c r="I185" t="n">
+        <v>0</v>
+      </c>
+      <c r="J185" t="inlineStr"/>
+      <c r="K185" t="inlineStr"/>
+      <c r="L185" t="inlineStr"/>
+      <c r="M185" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="186">
+      <c r="A186" s="1" t="n">
+        <v>184</v>
+      </c>
+      <c r="B186" t="n">
+        <v>11.8</v>
+      </c>
+      <c r="C186" t="n">
+        <v>11.8</v>
+      </c>
+      <c r="D186" t="n">
+        <v>11.8</v>
+      </c>
+      <c r="E186" t="n">
+        <v>11.8</v>
+      </c>
+      <c r="F186" t="n">
+        <v>6079.6567</v>
+      </c>
+      <c r="G186" t="n">
+        <v>4932072.758802277</v>
+      </c>
+      <c r="H186" t="n">
+        <v>0</v>
+      </c>
+      <c r="I186" t="n">
+        <v>0</v>
+      </c>
+      <c r="J186" t="inlineStr"/>
+      <c r="K186" t="inlineStr"/>
+      <c r="L186" t="inlineStr"/>
+      <c r="M186" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="187">
+      <c r="A187" s="1" t="n">
+        <v>185</v>
+      </c>
+      <c r="B187" t="n">
+        <v>11.8</v>
+      </c>
+      <c r="C187" t="n">
+        <v>11.8</v>
+      </c>
+      <c r="D187" t="n">
+        <v>11.8</v>
+      </c>
+      <c r="E187" t="n">
+        <v>11.8</v>
+      </c>
+      <c r="F187" t="n">
+        <v>4360</v>
+      </c>
+      <c r="G187" t="n">
+        <v>4932072.758802277</v>
+      </c>
+      <c r="H187" t="n">
+        <v>0</v>
+      </c>
+      <c r="I187" t="n">
+        <v>0</v>
+      </c>
+      <c r="J187" t="inlineStr"/>
+      <c r="K187" t="inlineStr"/>
+      <c r="L187" t="inlineStr"/>
+      <c r="M187" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="188">
+      <c r="A188" s="1" t="n">
+        <v>186</v>
+      </c>
+      <c r="B188" t="n">
+        <v>11.8</v>
+      </c>
+      <c r="C188" t="n">
+        <v>11.8</v>
+      </c>
+      <c r="D188" t="n">
+        <v>11.8</v>
+      </c>
+      <c r="E188" t="n">
+        <v>11.8</v>
+      </c>
+      <c r="F188" t="n">
+        <v>298792.3166</v>
+      </c>
+      <c r="G188" t="n">
+        <v>4932072.758802277</v>
+      </c>
+      <c r="H188" t="n">
+        <v>0</v>
+      </c>
+      <c r="I188" t="n">
+        <v>0</v>
+      </c>
+      <c r="J188" t="inlineStr"/>
+      <c r="K188" t="inlineStr"/>
+      <c r="L188" t="inlineStr"/>
+      <c r="M188" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="189">
+      <c r="A189" s="1" t="n">
+        <v>187</v>
+      </c>
+      <c r="B189" t="n">
+        <v>11.8</v>
+      </c>
+      <c r="C189" t="n">
+        <v>11.8</v>
+      </c>
+      <c r="D189" t="n">
+        <v>11.8</v>
+      </c>
+      <c r="E189" t="n">
+        <v>11.8</v>
+      </c>
+      <c r="F189" t="n">
+        <v>63287.2407</v>
+      </c>
+      <c r="G189" t="n">
+        <v>4932072.758802277</v>
+      </c>
+      <c r="H189" t="n">
+        <v>0</v>
+      </c>
+      <c r="I189" t="n">
+        <v>0</v>
+      </c>
+      <c r="J189" t="inlineStr"/>
+      <c r="K189" t="inlineStr"/>
+      <c r="L189" t="inlineStr"/>
+      <c r="M189" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="190">
+      <c r="A190" s="1" t="n">
+        <v>188</v>
+      </c>
+      <c r="B190" t="n">
+        <v>11.8</v>
+      </c>
+      <c r="C190" t="n">
+        <v>11.9</v>
+      </c>
+      <c r="D190" t="n">
+        <v>11.9</v>
+      </c>
+      <c r="E190" t="n">
+        <v>11.8</v>
+      </c>
+      <c r="F190" t="n">
+        <v>30773.29091512605</v>
+      </c>
+      <c r="G190" t="n">
+        <v>4962846.049717403</v>
+      </c>
+      <c r="H190" t="n">
+        <v>0</v>
+      </c>
+      <c r="I190" t="n">
+        <v>0</v>
+      </c>
+      <c r="J190" t="inlineStr"/>
+      <c r="K190" t="inlineStr"/>
+      <c r="L190" t="inlineStr"/>
+      <c r="M190" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="191">
+      <c r="A191" s="1" t="n">
+        <v>189</v>
+      </c>
+      <c r="B191" t="n">
+        <v>11.9</v>
+      </c>
+      <c r="C191" t="n">
+        <v>11.8</v>
+      </c>
+      <c r="D191" t="n">
+        <v>11.9</v>
+      </c>
+      <c r="E191" t="n">
+        <v>11.8</v>
+      </c>
+      <c r="F191" t="n">
+        <v>123781.9023848739</v>
+      </c>
+      <c r="G191" t="n">
+        <v>4839064.14733253</v>
+      </c>
+      <c r="H191" t="n">
+        <v>0</v>
+      </c>
+      <c r="I191" t="n">
+        <v>0</v>
+      </c>
+      <c r="J191" t="inlineStr"/>
+      <c r="K191" t="inlineStr"/>
+      <c r="L191" t="inlineStr"/>
+      <c r="M191" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="192">
+      <c r="A192" s="1" t="n">
+        <v>190</v>
+      </c>
+      <c r="B192" t="n">
+        <v>11.8</v>
+      </c>
+      <c r="C192" t="n">
+        <v>11.8</v>
+      </c>
+      <c r="D192" t="n">
+        <v>11.8</v>
+      </c>
+      <c r="E192" t="n">
+        <v>11.8</v>
+      </c>
+      <c r="F192" t="n">
+        <v>171836.0471</v>
+      </c>
+      <c r="G192" t="n">
+        <v>4839064.14733253</v>
+      </c>
+      <c r="H192" t="n">
+        <v>0</v>
+      </c>
+      <c r="I192" t="n">
+        <v>1</v>
+      </c>
+      <c r="J192" t="inlineStr"/>
+      <c r="K192" t="inlineStr"/>
+      <c r="L192" t="inlineStr"/>
+      <c r="M192" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="193">
+      <c r="A193" s="1" t="n">
+        <v>191</v>
+      </c>
+      <c r="B193" t="n">
+        <v>11.8</v>
+      </c>
+      <c r="C193" t="n">
+        <v>11.8</v>
+      </c>
+      <c r="D193" t="n">
+        <v>11.8</v>
+      </c>
+      <c r="E193" t="n">
+        <v>11.8</v>
+      </c>
+      <c r="F193" t="n">
+        <v>1.5126050420168e-05</v>
+      </c>
+      <c r="G193" t="n">
+        <v>4839064.14733253</v>
+      </c>
+      <c r="H193" t="n">
+        <v>0</v>
+      </c>
+      <c r="I193" t="n">
+        <v>0</v>
+      </c>
+      <c r="J193" t="inlineStr"/>
+      <c r="K193" t="inlineStr"/>
+      <c r="L193" t="inlineStr"/>
+      <c r="M193" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="194">
+      <c r="A194" s="1" t="n">
+        <v>192</v>
+      </c>
+      <c r="B194" t="n">
+        <v>11.8</v>
+      </c>
+      <c r="C194" t="n">
+        <v>11.8</v>
+      </c>
+      <c r="D194" t="n">
+        <v>11.8</v>
+      </c>
+      <c r="E194" t="n">
+        <v>11.8</v>
+      </c>
+      <c r="F194" t="n">
+        <v>19132.62628487395</v>
+      </c>
+      <c r="G194" t="n">
+        <v>4839064.14733253</v>
+      </c>
+      <c r="H194" t="n">
+        <v>0</v>
+      </c>
+      <c r="I194" t="n">
+        <v>0</v>
+      </c>
+      <c r="J194" t="inlineStr"/>
+      <c r="K194" t="inlineStr"/>
+      <c r="L194" t="inlineStr"/>
+      <c r="M194" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="195">
+      <c r="A195" s="1" t="n">
+        <v>193</v>
+      </c>
+      <c r="B195" t="n">
+        <v>11.9</v>
+      </c>
+      <c r="C195" t="n">
+        <v>11.9</v>
+      </c>
+      <c r="D195" t="n">
+        <v>11.9</v>
+      </c>
+      <c r="E195" t="n">
+        <v>11.8</v>
+      </c>
+      <c r="F195" t="n">
+        <v>21072.6183</v>
+      </c>
+      <c r="G195" t="n">
+        <v>4860136.76563253</v>
+      </c>
+      <c r="H195" t="n">
+        <v>0</v>
+      </c>
+      <c r="I195" t="n">
+        <v>0</v>
+      </c>
+      <c r="J195" t="inlineStr"/>
+      <c r="K195" t="inlineStr"/>
+      <c r="L195" t="inlineStr"/>
+      <c r="M195" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="196">
+      <c r="A196" s="1" t="n">
+        <v>194</v>
+      </c>
+      <c r="B196" t="n">
+        <v>11.9</v>
+      </c>
+      <c r="C196" t="n">
+        <v>11.9</v>
+      </c>
+      <c r="D196" t="n">
+        <v>11.9</v>
+      </c>
+      <c r="E196" t="n">
+        <v>11.9</v>
+      </c>
+      <c r="F196" t="n">
+        <v>6899.4078</v>
+      </c>
+      <c r="G196" t="n">
+        <v>4860136.76563253</v>
+      </c>
+      <c r="H196" t="n">
+        <v>0</v>
+      </c>
+      <c r="I196" t="n">
+        <v>0</v>
+      </c>
+      <c r="J196" t="inlineStr"/>
+      <c r="K196" t="inlineStr"/>
+      <c r="L196" t="inlineStr"/>
+      <c r="M196" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="197">
+      <c r="A197" s="1" t="n">
+        <v>195</v>
+      </c>
+      <c r="B197" t="n">
+        <v>12</v>
+      </c>
+      <c r="C197" t="n">
+        <v>11.9</v>
+      </c>
+      <c r="D197" t="n">
+        <v>12</v>
+      </c>
+      <c r="E197" t="n">
+        <v>11.8</v>
+      </c>
+      <c r="F197" t="n">
+        <v>86491.4749</v>
+      </c>
+      <c r="G197" t="n">
+        <v>4860136.76563253</v>
+      </c>
+      <c r="H197" t="n">
+        <v>0</v>
+      </c>
+      <c r="I197" t="n">
+        <v>1</v>
+      </c>
+      <c r="J197" t="inlineStr"/>
+      <c r="K197" t="inlineStr"/>
+      <c r="L197" t="inlineStr"/>
+      <c r="M197" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="198">
+      <c r="A198" s="1" t="n">
+        <v>196</v>
+      </c>
+      <c r="B198" t="n">
+        <v>11.9</v>
+      </c>
+      <c r="C198" t="n">
+        <v>11.8</v>
+      </c>
+      <c r="D198" t="n">
+        <v>11.9</v>
+      </c>
+      <c r="E198" t="n">
+        <v>11.8</v>
+      </c>
+      <c r="F198" t="n">
+        <v>176106.8292</v>
+      </c>
+      <c r="G198" t="n">
+        <v>4684029.93643253</v>
+      </c>
+      <c r="H198" t="n">
+        <v>0</v>
+      </c>
+      <c r="I198" t="n">
+        <v>1</v>
+      </c>
+      <c r="J198" t="inlineStr"/>
+      <c r="K198" t="inlineStr"/>
+      <c r="L198" t="inlineStr"/>
+      <c r="M198" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="199">
+      <c r="A199" s="1" t="n">
+        <v>197</v>
+      </c>
+      <c r="B199" t="n">
+        <v>11.9</v>
+      </c>
+      <c r="C199" t="n">
+        <v>11.9</v>
+      </c>
+      <c r="D199" t="n">
+        <v>11.9</v>
+      </c>
+      <c r="E199" t="n">
+        <v>11.9</v>
+      </c>
+      <c r="F199" t="n">
+        <v>43635.9061</v>
+      </c>
+      <c r="G199" t="n">
+        <v>4727665.84253253</v>
+      </c>
+      <c r="H199" t="n">
+        <v>0</v>
+      </c>
+      <c r="I199" t="n">
+        <v>0</v>
+      </c>
+      <c r="J199" t="inlineStr"/>
+      <c r="K199" t="inlineStr"/>
+      <c r="L199" t="inlineStr"/>
+      <c r="M199" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="200">
+      <c r="A200" s="1" t="n">
+        <v>198</v>
+      </c>
+      <c r="B200" t="n">
+        <v>12</v>
+      </c>
+      <c r="C200" t="n">
+        <v>12</v>
+      </c>
+      <c r="D200" t="n">
+        <v>12</v>
+      </c>
+      <c r="E200" t="n">
+        <v>12</v>
+      </c>
+      <c r="F200" t="n">
+        <v>80</v>
+      </c>
+      <c r="G200" t="n">
+        <v>4727745.84253253</v>
+      </c>
+      <c r="H200" t="n">
+        <v>0</v>
+      </c>
+      <c r="I200" t="n">
+        <v>1</v>
+      </c>
+      <c r="J200" t="inlineStr"/>
+      <c r="K200" t="inlineStr"/>
+      <c r="L200" t="inlineStr"/>
+      <c r="M200" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="201">
+      <c r="A201" s="1" t="n">
+        <v>199</v>
+      </c>
+      <c r="B201" t="n">
+        <v>11.9</v>
+      </c>
+      <c r="C201" t="n">
+        <v>11.9</v>
+      </c>
+      <c r="D201" t="n">
+        <v>11.9</v>
+      </c>
+      <c r="E201" t="n">
+        <v>11.9</v>
+      </c>
+      <c r="F201" t="n">
+        <v>8831</v>
+      </c>
+      <c r="G201" t="n">
+        <v>4718914.84253253</v>
+      </c>
+      <c r="H201" t="n">
+        <v>0</v>
+      </c>
+      <c r="I201" t="n">
+        <v>1</v>
+      </c>
+      <c r="J201" t="inlineStr"/>
+      <c r="K201" t="inlineStr"/>
+      <c r="L201" t="inlineStr"/>
+      <c r="M201" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="202">
+      <c r="A202" s="1" t="n">
+        <v>200</v>
+      </c>
+      <c r="B202" t="n">
+        <v>11.9</v>
+      </c>
+      <c r="C202" t="n">
+        <v>11.9</v>
+      </c>
+      <c r="D202" t="n">
+        <v>11.9</v>
+      </c>
+      <c r="E202" t="n">
+        <v>11.9</v>
+      </c>
+      <c r="F202" t="n">
+        <v>982.0187</v>
+      </c>
+      <c r="G202" t="n">
+        <v>4718914.84253253</v>
+      </c>
+      <c r="H202" t="n">
+        <v>0</v>
+      </c>
+      <c r="I202" t="n">
+        <v>1</v>
+      </c>
+      <c r="J202" t="inlineStr"/>
+      <c r="K202" t="inlineStr"/>
+      <c r="L202" t="inlineStr"/>
+      <c r="M202" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="203">
+      <c r="A203" s="1" t="n">
+        <v>201</v>
+      </c>
+      <c r="B203" t="n">
+        <v>11.9</v>
+      </c>
+      <c r="C203" t="n">
+        <v>11.9</v>
+      </c>
+      <c r="D203" t="n">
+        <v>11.9</v>
+      </c>
+      <c r="E203" t="n">
+        <v>11.9</v>
+      </c>
+      <c r="F203" t="n">
+        <v>20000</v>
+      </c>
+      <c r="G203" t="n">
+        <v>4718914.84253253</v>
+      </c>
+      <c r="H203" t="n">
+        <v>0</v>
+      </c>
+      <c r="I203" t="n">
+        <v>1</v>
+      </c>
+      <c r="J203" t="inlineStr"/>
+      <c r="K203" t="inlineStr"/>
+      <c r="L203" t="inlineStr"/>
+      <c r="M203" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="204">
+      <c r="A204" s="1" t="n">
+        <v>202</v>
+      </c>
+      <c r="B204" t="n">
+        <v>11.8</v>
+      </c>
+      <c r="C204" t="n">
+        <v>11.7</v>
+      </c>
+      <c r="D204" t="n">
+        <v>11.8</v>
+      </c>
+      <c r="E204" t="n">
+        <v>11.7</v>
+      </c>
+      <c r="F204" t="n">
+        <v>41075.5745</v>
+      </c>
+      <c r="G204" t="n">
+        <v>4677839.26803253</v>
+      </c>
+      <c r="H204" t="n">
+        <v>0</v>
+      </c>
+      <c r="I204" t="n">
+        <v>1</v>
+      </c>
+      <c r="J204" t="inlineStr"/>
+      <c r="K204" t="inlineStr"/>
+      <c r="L204" t="inlineStr"/>
+      <c r="M204" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="205">
+      <c r="A205" s="1" t="n">
+        <v>203</v>
+      </c>
+      <c r="B205" t="n">
+        <v>11.7</v>
+      </c>
+      <c r="C205" t="n">
+        <v>11.7</v>
+      </c>
+      <c r="D205" t="n">
+        <v>11.7</v>
+      </c>
+      <c r="E205" t="n">
+        <v>11.7</v>
+      </c>
+      <c r="F205" t="n">
+        <v>106098.7638</v>
+      </c>
+      <c r="G205" t="n">
+        <v>4677839.26803253</v>
+      </c>
+      <c r="H205" t="n">
+        <v>0</v>
+      </c>
+      <c r="I205" t="n">
+        <v>0</v>
+      </c>
+      <c r="J205" t="inlineStr"/>
+      <c r="K205" t="inlineStr"/>
+      <c r="L205" t="inlineStr"/>
+      <c r="M205" t="n">
         <v>1</v>
       </c>
     </row>

--- a/BackTest/2019-11-21 BackTest ORBS.xlsx
+++ b/BackTest/2019-11-21 BackTest ORBS.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M205"/>
+  <dimension ref="A1:N163"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -427,28 +427,33 @@
           <t>Profits</t>
         </is>
       </c>
+      <c r="N1" s="1" t="inlineStr">
+        <is>
+          <t>Price_point</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>11.3</v>
+        <v>11.6</v>
       </c>
       <c r="C2" t="n">
-        <v>11.3</v>
+        <v>11.6</v>
       </c>
       <c r="D2" t="n">
-        <v>11.3</v>
+        <v>11.6</v>
       </c>
       <c r="E2" t="n">
-        <v>11.3</v>
+        <v>11.6</v>
       </c>
       <c r="F2" t="n">
-        <v>238947.7055</v>
+        <v>11721</v>
       </c>
       <c r="G2" t="n">
-        <v>-411242.9847711343</v>
+        <v>11.55000000000001</v>
       </c>
       <c r="H2" t="n">
         <v>1</v>
@@ -462,28 +467,29 @@
       <c r="M2" t="n">
         <v>1</v>
       </c>
+      <c r="N2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>11.4</v>
+        <v>11.5</v>
       </c>
       <c r="C3" t="n">
-        <v>11.3</v>
+        <v>11.5</v>
       </c>
       <c r="D3" t="n">
-        <v>11.4</v>
+        <v>11.5</v>
       </c>
       <c r="E3" t="n">
-        <v>11.3</v>
+        <v>11.5</v>
       </c>
       <c r="F3" t="n">
-        <v>225.0001</v>
+        <v>1200</v>
       </c>
       <c r="G3" t="n">
-        <v>-411242.9847711343</v>
+        <v>11.55000000000001</v>
       </c>
       <c r="H3" t="n">
         <v>1</v>
@@ -492,39 +498,38 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>11.3</v>
-      </c>
-      <c r="K3" t="inlineStr"/>
-      <c r="L3" t="inlineStr">
-        <is>
-          <t>매수 체결</t>
-        </is>
-      </c>
+        <v>11.6</v>
+      </c>
+      <c r="K3" t="n">
+        <v>11.6</v>
+      </c>
+      <c r="L3" t="inlineStr"/>
       <c r="M3" t="n">
         <v>1</v>
       </c>
+      <c r="N3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>11.3</v>
+        <v>11.6</v>
       </c>
       <c r="C4" t="n">
-        <v>11.3</v>
+        <v>11.6</v>
       </c>
       <c r="D4" t="n">
-        <v>11.3</v>
+        <v>11.6</v>
       </c>
       <c r="E4" t="n">
-        <v>11.3</v>
+        <v>11.6</v>
       </c>
       <c r="F4" t="n">
-        <v>224.9999</v>
+        <v>39918</v>
       </c>
       <c r="G4" t="n">
-        <v>-411242.9847711343</v>
+        <v>11.55000000000001</v>
       </c>
       <c r="H4" t="n">
         <v>1</v>
@@ -533,39 +538,42 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>11.3</v>
-      </c>
-      <c r="K4" t="inlineStr"/>
+        <v>11.5</v>
+      </c>
+      <c r="K4" t="n">
+        <v>11.6</v>
+      </c>
       <c r="L4" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매수 대기</t>
         </is>
       </c>
       <c r="M4" t="n">
         <v>1</v>
       </c>
+      <c r="N4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>11.3</v>
+        <v>11.6</v>
       </c>
       <c r="C5" t="n">
-        <v>11.3</v>
+        <v>11.6</v>
       </c>
       <c r="D5" t="n">
-        <v>11.3</v>
+        <v>11.6</v>
       </c>
       <c r="E5" t="n">
-        <v>11.3</v>
+        <v>11.6</v>
       </c>
       <c r="F5" t="n">
-        <v>1196.5449</v>
+        <v>348.2436</v>
       </c>
       <c r="G5" t="n">
-        <v>-411242.9847711343</v>
+        <v>11.60000000000001</v>
       </c>
       <c r="H5" t="n">
         <v>1</v>
@@ -574,78 +582,82 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>11.3</v>
-      </c>
-      <c r="K5" t="inlineStr"/>
+        <v>11.6</v>
+      </c>
+      <c r="K5" t="n">
+        <v>11.6</v>
+      </c>
       <c r="L5" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매수 대기</t>
         </is>
       </c>
       <c r="M5" t="n">
         <v>1</v>
       </c>
+      <c r="N5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>11.3</v>
+        <v>11.7</v>
       </c>
       <c r="C6" t="n">
-        <v>11.3</v>
+        <v>11.7</v>
       </c>
       <c r="D6" t="n">
-        <v>11.3</v>
+        <v>11.7</v>
       </c>
       <c r="E6" t="n">
-        <v>11.3</v>
+        <v>11.7</v>
       </c>
       <c r="F6" t="n">
-        <v>15336.6987</v>
+        <v>234.8206</v>
       </c>
       <c r="G6" t="n">
-        <v>-411242.9847711343</v>
+        <v>11.65000000000001</v>
       </c>
       <c r="H6" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I6" t="n">
         <v>0</v>
       </c>
-      <c r="J6" t="inlineStr"/>
-      <c r="K6" t="inlineStr"/>
-      <c r="L6" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J6" t="n">
+        <v>11.6</v>
+      </c>
+      <c r="K6" t="n">
+        <v>11.6</v>
+      </c>
+      <c r="L6" t="inlineStr"/>
       <c r="M6" t="n">
         <v>1</v>
       </c>
+      <c r="N6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>11.3</v>
+        <v>11.7</v>
       </c>
       <c r="C7" t="n">
-        <v>11.3</v>
+        <v>11.7</v>
       </c>
       <c r="D7" t="n">
-        <v>11.3</v>
+        <v>11.7</v>
       </c>
       <c r="E7" t="n">
-        <v>11.3</v>
+        <v>11.7</v>
       </c>
       <c r="F7" t="n">
-        <v>69635.2056</v>
+        <v>60130.1794</v>
       </c>
       <c r="G7" t="n">
-        <v>-411242.9847711343</v>
+        <v>11.70000000000001</v>
       </c>
       <c r="H7" t="n">
         <v>1</v>
@@ -654,39 +666,42 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>11.3</v>
-      </c>
-      <c r="K7" t="inlineStr"/>
+        <v>11.7</v>
+      </c>
+      <c r="K7" t="n">
+        <v>11.6</v>
+      </c>
       <c r="L7" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매수 대기</t>
         </is>
       </c>
       <c r="M7" t="n">
         <v>1</v>
       </c>
+      <c r="N7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>11.4</v>
+        <v>11.7</v>
       </c>
       <c r="C8" t="n">
-        <v>11.4</v>
+        <v>11.7</v>
       </c>
       <c r="D8" t="n">
-        <v>11.4</v>
+        <v>11.7</v>
       </c>
       <c r="E8" t="n">
-        <v>11.4</v>
+        <v>11.7</v>
       </c>
       <c r="F8" t="n">
-        <v>25219.6044</v>
+        <v>3296.405</v>
       </c>
       <c r="G8" t="n">
-        <v>-386023.3803711343</v>
+        <v>11.7</v>
       </c>
       <c r="H8" t="n">
         <v>1</v>
@@ -695,39 +710,42 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>11.3</v>
-      </c>
-      <c r="K8" t="inlineStr"/>
+        <v>11.7</v>
+      </c>
+      <c r="K8" t="n">
+        <v>11.6</v>
+      </c>
       <c r="L8" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매수 대기</t>
         </is>
       </c>
       <c r="M8" t="n">
         <v>1</v>
       </c>
+      <c r="N8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>11.4</v>
+        <v>11.8</v>
       </c>
       <c r="C9" t="n">
-        <v>11.4</v>
+        <v>11.8</v>
       </c>
       <c r="D9" t="n">
-        <v>11.4</v>
+        <v>11.8</v>
       </c>
       <c r="E9" t="n">
-        <v>11.4</v>
+        <v>11.8</v>
       </c>
       <c r="F9" t="n">
-        <v>43750.2734</v>
+        <v>166602.5318</v>
       </c>
       <c r="G9" t="n">
-        <v>-386023.3803711343</v>
+        <v>11.75000000000001</v>
       </c>
       <c r="H9" t="n">
         <v>1</v>
@@ -736,39 +754,38 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>11.4</v>
-      </c>
-      <c r="K9" t="inlineStr"/>
-      <c r="L9" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>11.7</v>
+      </c>
+      <c r="K9" t="n">
+        <v>11.7</v>
+      </c>
+      <c r="L9" t="inlineStr"/>
       <c r="M9" t="n">
         <v>1</v>
       </c>
+      <c r="N9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>11.4</v>
+        <v>11.9</v>
       </c>
       <c r="C10" t="n">
-        <v>11.4</v>
+        <v>11.6</v>
       </c>
       <c r="D10" t="n">
-        <v>11.4</v>
+        <v>11.9</v>
       </c>
       <c r="E10" t="n">
-        <v>11.4</v>
+        <v>11.5</v>
       </c>
       <c r="F10" t="n">
-        <v>500</v>
+        <v>157159.5878</v>
       </c>
       <c r="G10" t="n">
-        <v>-386023.3803711343</v>
+        <v>11.7</v>
       </c>
       <c r="H10" t="n">
         <v>1</v>
@@ -777,50 +794,53 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>11.4</v>
-      </c>
-      <c r="K10" t="inlineStr"/>
+        <v>11.8</v>
+      </c>
+      <c r="K10" t="n">
+        <v>11.7</v>
+      </c>
       <c r="L10" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매수 체결</t>
         </is>
       </c>
       <c r="M10" t="n">
         <v>1</v>
       </c>
+      <c r="N10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n">
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>11.4</v>
+        <v>11.6</v>
       </c>
       <c r="C11" t="n">
-        <v>11.4</v>
+        <v>11.6</v>
       </c>
       <c r="D11" t="n">
-        <v>11.4</v>
+        <v>11.6</v>
       </c>
       <c r="E11" t="n">
-        <v>11.4</v>
+        <v>11.6</v>
       </c>
       <c r="F11" t="n">
-        <v>40191.6896</v>
+        <v>1546.1593</v>
       </c>
       <c r="G11" t="n">
-        <v>-386023.3803711343</v>
+        <v>11.6</v>
       </c>
       <c r="H11" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
       </c>
-      <c r="J11" t="n">
-        <v>11.4</v>
-      </c>
-      <c r="K11" t="inlineStr"/>
+      <c r="J11" t="inlineStr"/>
+      <c r="K11" t="n">
+        <v>11.7</v>
+      </c>
       <c r="L11" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -829,37 +849,42 @@
       <c r="M11" t="n">
         <v>1</v>
       </c>
+      <c r="N11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" s="1" t="n">
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>11.3</v>
+        <v>11.6</v>
       </c>
       <c r="C12" t="n">
-        <v>11.3</v>
+        <v>11.6</v>
       </c>
       <c r="D12" t="n">
-        <v>11.3</v>
+        <v>11.6</v>
       </c>
       <c r="E12" t="n">
-        <v>11.3</v>
+        <v>11.6</v>
       </c>
       <c r="F12" t="n">
-        <v>43750.2734</v>
+        <v>315.6044</v>
       </c>
       <c r="G12" t="n">
-        <v>-429773.6537711343</v>
+        <v>11.6</v>
       </c>
       <c r="H12" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I12" t="n">
         <v>0</v>
       </c>
-      <c r="J12" t="inlineStr"/>
-      <c r="K12" t="inlineStr"/>
+      <c r="J12" t="n">
+        <v>11.6</v>
+      </c>
+      <c r="K12" t="n">
+        <v>11.7</v>
+      </c>
       <c r="L12" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -868,37 +893,42 @@
       <c r="M12" t="n">
         <v>1</v>
       </c>
+      <c r="N12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" s="1" t="n">
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>11.3</v>
+        <v>11.6</v>
       </c>
       <c r="C13" t="n">
-        <v>11.3</v>
+        <v>11.6</v>
       </c>
       <c r="D13" t="n">
-        <v>11.3</v>
+        <v>11.6</v>
       </c>
       <c r="E13" t="n">
-        <v>11.3</v>
+        <v>11.6</v>
       </c>
       <c r="F13" t="n">
-        <v>40191.6896</v>
+        <v>19712.9732</v>
       </c>
       <c r="G13" t="n">
-        <v>-429773.6537711343</v>
+        <v>11.6</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
       </c>
-      <c r="J13" t="inlineStr"/>
-      <c r="K13" t="inlineStr"/>
+      <c r="J13" t="n">
+        <v>11.6</v>
+      </c>
+      <c r="K13" t="n">
+        <v>11.7</v>
+      </c>
       <c r="L13" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -907,37 +937,42 @@
       <c r="M13" t="n">
         <v>1</v>
       </c>
+      <c r="N13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" s="1" t="n">
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>11.4</v>
+        <v>11.6</v>
       </c>
       <c r="C14" t="n">
-        <v>11.4</v>
+        <v>11.6</v>
       </c>
       <c r="D14" t="n">
-        <v>11.4</v>
+        <v>11.6</v>
       </c>
       <c r="E14" t="n">
-        <v>11.4</v>
+        <v>11.6</v>
       </c>
       <c r="F14" t="n">
-        <v>125891.237</v>
+        <v>45319.1004</v>
       </c>
       <c r="G14" t="n">
-        <v>-303882.4167711344</v>
+        <v>11.6</v>
       </c>
       <c r="H14" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
       </c>
-      <c r="J14" t="inlineStr"/>
-      <c r="K14" t="inlineStr"/>
+      <c r="J14" t="n">
+        <v>11.6</v>
+      </c>
+      <c r="K14" t="n">
+        <v>11.7</v>
+      </c>
       <c r="L14" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -946,28 +981,29 @@
       <c r="M14" t="n">
         <v>1</v>
       </c>
+      <c r="N14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n">
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>11.3</v>
+        <v>11.5</v>
       </c>
       <c r="C15" t="n">
-        <v>11.3</v>
+        <v>11.5</v>
       </c>
       <c r="D15" t="n">
-        <v>11.3</v>
+        <v>11.5</v>
       </c>
       <c r="E15" t="n">
-        <v>11.3</v>
+        <v>11.5</v>
       </c>
       <c r="F15" t="n">
-        <v>130</v>
+        <v>39667.0323</v>
       </c>
       <c r="G15" t="n">
-        <v>-304012.4167711344</v>
+        <v>11.55</v>
       </c>
       <c r="H15" t="n">
         <v>0</v>
@@ -976,7 +1012,9 @@
         <v>0</v>
       </c>
       <c r="J15" t="inlineStr"/>
-      <c r="K15" t="inlineStr"/>
+      <c r="K15" t="n">
+        <v>11.7</v>
+      </c>
       <c r="L15" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -985,37 +1023,42 @@
       <c r="M15" t="n">
         <v>1</v>
       </c>
+      <c r="N15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" s="1" t="n">
         <v>14</v>
       </c>
       <c r="B16" t="n">
+        <v>11.7</v>
+      </c>
+      <c r="C16" t="n">
+        <v>11.7</v>
+      </c>
+      <c r="D16" t="n">
+        <v>11.7</v>
+      </c>
+      <c r="E16" t="n">
+        <v>11.7</v>
+      </c>
+      <c r="F16" t="n">
+        <v>12448.8178</v>
+      </c>
+      <c r="G16" t="n">
+        <v>11.6</v>
+      </c>
+      <c r="H16" t="n">
+        <v>1</v>
+      </c>
+      <c r="I16" t="n">
+        <v>0</v>
+      </c>
+      <c r="J16" t="n">
         <v>11.5</v>
       </c>
-      <c r="C16" t="n">
-        <v>11.5</v>
-      </c>
-      <c r="D16" t="n">
-        <v>11.5</v>
-      </c>
-      <c r="E16" t="n">
-        <v>11.5</v>
-      </c>
-      <c r="F16" t="n">
-        <v>50</v>
-      </c>
-      <c r="G16" t="n">
-        <v>-303962.4167711344</v>
-      </c>
-      <c r="H16" t="n">
-        <v>0</v>
-      </c>
-      <c r="I16" t="n">
-        <v>0</v>
-      </c>
-      <c r="J16" t="inlineStr"/>
-      <c r="K16" t="inlineStr"/>
+      <c r="K16" t="n">
+        <v>11.7</v>
+      </c>
       <c r="L16" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1024,37 +1067,42 @@
       <c r="M16" t="n">
         <v>1</v>
       </c>
+      <c r="N16" t="inlineStr"/>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n">
         <v>15</v>
       </c>
       <c r="B17" t="n">
-        <v>11.5</v>
+        <v>11.7</v>
       </c>
       <c r="C17" t="n">
-        <v>11.5</v>
+        <v>11.7</v>
       </c>
       <c r="D17" t="n">
-        <v>11.5</v>
+        <v>11.7</v>
       </c>
       <c r="E17" t="n">
-        <v>11.5</v>
+        <v>11.7</v>
       </c>
       <c r="F17" t="n">
-        <v>1988.8955</v>
+        <v>16129.033</v>
       </c>
       <c r="G17" t="n">
-        <v>-303962.4167711344</v>
+        <v>11.7</v>
       </c>
       <c r="H17" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
       </c>
-      <c r="J17" t="inlineStr"/>
-      <c r="K17" t="inlineStr"/>
+      <c r="J17" t="n">
+        <v>11.7</v>
+      </c>
+      <c r="K17" t="n">
+        <v>11.7</v>
+      </c>
       <c r="L17" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1063,28 +1111,29 @@
       <c r="M17" t="n">
         <v>1</v>
       </c>
+      <c r="N17" t="inlineStr"/>
     </row>
     <row r="18">
       <c r="A18" s="1" t="n">
         <v>16</v>
       </c>
       <c r="B18" t="n">
-        <v>11.5</v>
+        <v>11.6</v>
       </c>
       <c r="C18" t="n">
-        <v>11.5</v>
+        <v>11.6</v>
       </c>
       <c r="D18" t="n">
-        <v>11.5</v>
+        <v>11.6</v>
       </c>
       <c r="E18" t="n">
-        <v>11.5</v>
+        <v>11.6</v>
       </c>
       <c r="F18" t="n">
-        <v>8674</v>
+        <v>18850.881</v>
       </c>
       <c r="G18" t="n">
-        <v>-303962.4167711344</v>
+        <v>11.65</v>
       </c>
       <c r="H18" t="n">
         <v>0</v>
@@ -1093,7 +1142,9 @@
         <v>0</v>
       </c>
       <c r="J18" t="inlineStr"/>
-      <c r="K18" t="inlineStr"/>
+      <c r="K18" t="n">
+        <v>11.7</v>
+      </c>
       <c r="L18" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1102,28 +1153,29 @@
       <c r="M18" t="n">
         <v>1</v>
       </c>
+      <c r="N18" t="inlineStr"/>
     </row>
     <row r="19">
       <c r="A19" s="1" t="n">
         <v>17</v>
       </c>
       <c r="B19" t="n">
-        <v>11.5</v>
+        <v>11.6</v>
       </c>
       <c r="C19" t="n">
-        <v>11.5</v>
+        <v>11.6</v>
       </c>
       <c r="D19" t="n">
-        <v>11.5</v>
+        <v>11.6</v>
       </c>
       <c r="E19" t="n">
-        <v>11.5</v>
+        <v>11.6</v>
       </c>
       <c r="F19" t="n">
-        <v>176183.8331</v>
+        <v>87199.11900000001</v>
       </c>
       <c r="G19" t="n">
-        <v>-303962.4167711344</v>
+        <v>11.6</v>
       </c>
       <c r="H19" t="n">
         <v>1</v>
@@ -1132,9 +1184,11 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>11.5</v>
-      </c>
-      <c r="K19" t="inlineStr"/>
+        <v>11.6</v>
+      </c>
+      <c r="K19" t="n">
+        <v>11.7</v>
+      </c>
       <c r="L19" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1143,37 +1197,42 @@
       <c r="M19" t="n">
         <v>1</v>
       </c>
+      <c r="N19" t="inlineStr"/>
     </row>
     <row r="20">
       <c r="A20" s="1" t="n">
         <v>18</v>
       </c>
       <c r="B20" t="n">
-        <v>11.5</v>
+        <v>11.6</v>
       </c>
       <c r="C20" t="n">
-        <v>11.5</v>
+        <v>11.6</v>
       </c>
       <c r="D20" t="n">
-        <v>11.5</v>
+        <v>11.6</v>
       </c>
       <c r="E20" t="n">
-        <v>11.5</v>
+        <v>11.6</v>
       </c>
       <c r="F20" t="n">
-        <v>40665.2789</v>
+        <v>12800.881</v>
       </c>
       <c r="G20" t="n">
-        <v>-303962.4167711344</v>
+        <v>11.59999999999999</v>
       </c>
       <c r="H20" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
       </c>
-      <c r="J20" t="inlineStr"/>
-      <c r="K20" t="inlineStr"/>
+      <c r="J20" t="n">
+        <v>11.6</v>
+      </c>
+      <c r="K20" t="n">
+        <v>11.7</v>
+      </c>
       <c r="L20" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1182,37 +1241,42 @@
       <c r="M20" t="n">
         <v>1</v>
       </c>
+      <c r="N20" t="inlineStr"/>
     </row>
     <row r="21">
       <c r="A21" s="1" t="n">
         <v>19</v>
       </c>
       <c r="B21" t="n">
-        <v>11.5</v>
+        <v>11.7</v>
       </c>
       <c r="C21" t="n">
-        <v>11.6</v>
+        <v>11.7</v>
       </c>
       <c r="D21" t="n">
-        <v>11.6</v>
+        <v>11.7</v>
       </c>
       <c r="E21" t="n">
-        <v>11.4</v>
+        <v>11.7</v>
       </c>
       <c r="F21" t="n">
-        <v>99911.58106551724</v>
+        <v>85966.81789999999</v>
       </c>
       <c r="G21" t="n">
-        <v>-204050.8357056171</v>
+        <v>11.65</v>
       </c>
       <c r="H21" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I21" t="n">
         <v>0</v>
       </c>
-      <c r="J21" t="inlineStr"/>
-      <c r="K21" t="inlineStr"/>
+      <c r="J21" t="n">
+        <v>11.6</v>
+      </c>
+      <c r="K21" t="n">
+        <v>11.7</v>
+      </c>
       <c r="L21" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1221,28 +1285,29 @@
       <c r="M21" t="n">
         <v>1</v>
       </c>
+      <c r="N21" t="inlineStr"/>
     </row>
     <row r="22">
       <c r="A22" s="1" t="n">
         <v>20</v>
       </c>
       <c r="B22" t="n">
-        <v>11.6</v>
+        <v>11.7</v>
       </c>
       <c r="C22" t="n">
-        <v>11.6</v>
+        <v>11.7</v>
       </c>
       <c r="D22" t="n">
-        <v>11.6</v>
+        <v>11.7</v>
       </c>
       <c r="E22" t="n">
-        <v>11.6</v>
+        <v>11.7</v>
       </c>
       <c r="F22" t="n">
-        <v>104002.4714</v>
+        <v>13302038.8404</v>
       </c>
       <c r="G22" t="n">
-        <v>-204050.8357056171</v>
+        <v>11.69999999999999</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
@@ -1251,7 +1316,9 @@
         <v>0</v>
       </c>
       <c r="J22" t="inlineStr"/>
-      <c r="K22" t="inlineStr"/>
+      <c r="K22" t="n">
+        <v>11.7</v>
+      </c>
       <c r="L22" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1260,37 +1327,42 @@
       <c r="M22" t="n">
         <v>1</v>
       </c>
+      <c r="N22" t="inlineStr"/>
     </row>
     <row r="23">
       <c r="A23" s="1" t="n">
         <v>21</v>
       </c>
       <c r="B23" t="n">
-        <v>11.5</v>
+        <v>11.7</v>
       </c>
       <c r="C23" t="n">
-        <v>11.5</v>
+        <v>11.7</v>
       </c>
       <c r="D23" t="n">
-        <v>11.5</v>
+        <v>11.7</v>
       </c>
       <c r="E23" t="n">
-        <v>11.5</v>
+        <v>11.6</v>
       </c>
       <c r="F23" t="n">
-        <v>13685.4766</v>
+        <v>130065131.364</v>
       </c>
       <c r="G23" t="n">
-        <v>-217736.3123056171</v>
+        <v>11.69999999999999</v>
       </c>
       <c r="H23" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I23" t="n">
         <v>0</v>
       </c>
-      <c r="J23" t="inlineStr"/>
-      <c r="K23" t="inlineStr"/>
+      <c r="J23" t="n">
+        <v>11.7</v>
+      </c>
+      <c r="K23" t="n">
+        <v>11.7</v>
+      </c>
       <c r="L23" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1299,13 +1371,14 @@
       <c r="M23" t="n">
         <v>1</v>
       </c>
+      <c r="N23" t="inlineStr"/>
     </row>
     <row r="24">
       <c r="A24" s="1" t="n">
         <v>22</v>
       </c>
       <c r="B24" t="n">
-        <v>11.5</v>
+        <v>11.7</v>
       </c>
       <c r="C24" t="n">
         <v>11.7</v>
@@ -1314,22 +1387,26 @@
         <v>11.7</v>
       </c>
       <c r="E24" t="n">
-        <v>11.5</v>
+        <v>11.6</v>
       </c>
       <c r="F24" t="n">
-        <v>62854.34188034188</v>
+        <v>106001857.6074</v>
       </c>
       <c r="G24" t="n">
-        <v>-154881.9704252752</v>
+        <v>11.69999999999999</v>
       </c>
       <c r="H24" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I24" t="n">
         <v>0</v>
       </c>
-      <c r="J24" t="inlineStr"/>
-      <c r="K24" t="inlineStr"/>
+      <c r="J24" t="n">
+        <v>11.7</v>
+      </c>
+      <c r="K24" t="n">
+        <v>11.7</v>
+      </c>
       <c r="L24" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1338,37 +1415,42 @@
       <c r="M24" t="n">
         <v>1</v>
       </c>
+      <c r="N24" t="inlineStr"/>
     </row>
     <row r="25">
       <c r="A25" s="1" t="n">
         <v>23</v>
       </c>
       <c r="B25" t="n">
-        <v>11.5</v>
+        <v>11.7</v>
       </c>
       <c r="C25" t="n">
-        <v>11.5</v>
+        <v>11.7</v>
       </c>
       <c r="D25" t="n">
-        <v>11.5</v>
+        <v>11.7</v>
       </c>
       <c r="E25" t="n">
-        <v>11.5</v>
+        <v>11.7</v>
       </c>
       <c r="F25" t="n">
-        <v>629.5689</v>
+        <v>92703390.89920001</v>
       </c>
       <c r="G25" t="n">
-        <v>-155511.5393252753</v>
+        <v>11.69999999999999</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I25" t="n">
         <v>0</v>
       </c>
-      <c r="J25" t="inlineStr"/>
-      <c r="K25" t="inlineStr"/>
+      <c r="J25" t="n">
+        <v>11.7</v>
+      </c>
+      <c r="K25" t="n">
+        <v>11.7</v>
+      </c>
       <c r="L25" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1377,37 +1459,42 @@
       <c r="M25" t="n">
         <v>1</v>
       </c>
+      <c r="N25" t="inlineStr"/>
     </row>
     <row r="26">
       <c r="A26" s="1" t="n">
         <v>24</v>
       </c>
       <c r="B26" t="n">
-        <v>11.5</v>
+        <v>11.7</v>
       </c>
       <c r="C26" t="n">
-        <v>11.5</v>
+        <v>11.7</v>
       </c>
       <c r="D26" t="n">
-        <v>11.5</v>
+        <v>11.7</v>
       </c>
       <c r="E26" t="n">
-        <v>11.5</v>
+        <v>11.7</v>
       </c>
       <c r="F26" t="n">
-        <v>41123.5154</v>
+        <v>38036926.8492</v>
       </c>
       <c r="G26" t="n">
-        <v>-155511.5393252753</v>
+        <v>11.69999999999999</v>
       </c>
       <c r="H26" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I26" t="n">
         <v>0</v>
       </c>
-      <c r="J26" t="inlineStr"/>
-      <c r="K26" t="inlineStr"/>
+      <c r="J26" t="n">
+        <v>11.7</v>
+      </c>
+      <c r="K26" t="n">
+        <v>11.7</v>
+      </c>
       <c r="L26" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1416,37 +1503,42 @@
       <c r="M26" t="n">
         <v>1</v>
       </c>
+      <c r="N26" t="inlineStr"/>
     </row>
     <row r="27">
       <c r="A27" s="1" t="n">
         <v>25</v>
       </c>
       <c r="B27" t="n">
-        <v>11.5</v>
+        <v>11.7</v>
       </c>
       <c r="C27" t="n">
-        <v>11.5</v>
+        <v>11.7</v>
       </c>
       <c r="D27" t="n">
-        <v>11.5</v>
+        <v>11.7</v>
       </c>
       <c r="E27" t="n">
-        <v>11.5</v>
+        <v>11.7</v>
       </c>
       <c r="F27" t="n">
-        <v>4347.826086956522</v>
+        <v>8453362.104</v>
       </c>
       <c r="G27" t="n">
-        <v>-155511.5393252753</v>
+        <v>11.69999999999999</v>
       </c>
       <c r="H27" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I27" t="n">
         <v>0</v>
       </c>
-      <c r="J27" t="inlineStr"/>
-      <c r="K27" t="inlineStr"/>
+      <c r="J27" t="n">
+        <v>11.7</v>
+      </c>
+      <c r="K27" t="n">
+        <v>11.7</v>
+      </c>
       <c r="L27" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1455,37 +1547,42 @@
       <c r="M27" t="n">
         <v>1</v>
       </c>
+      <c r="N27" t="inlineStr"/>
     </row>
     <row r="28">
       <c r="A28" s="1" t="n">
         <v>26</v>
       </c>
       <c r="B28" t="n">
-        <v>11.5</v>
+        <v>11.7</v>
       </c>
       <c r="C28" t="n">
-        <v>11.5</v>
+        <v>11.7</v>
       </c>
       <c r="D28" t="n">
-        <v>11.5</v>
+        <v>11.7</v>
       </c>
       <c r="E28" t="n">
-        <v>11.5</v>
+        <v>11.7</v>
       </c>
       <c r="F28" t="n">
-        <v>19712.9732</v>
+        <v>156096310.7232</v>
       </c>
       <c r="G28" t="n">
-        <v>-155511.5393252753</v>
+        <v>11.69999999999999</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I28" t="n">
         <v>0</v>
       </c>
-      <c r="J28" t="inlineStr"/>
-      <c r="K28" t="inlineStr"/>
+      <c r="J28" t="n">
+        <v>11.7</v>
+      </c>
+      <c r="K28" t="n">
+        <v>11.7</v>
+      </c>
       <c r="L28" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1494,37 +1591,42 @@
       <c r="M28" t="n">
         <v>1</v>
       </c>
+      <c r="N28" t="inlineStr"/>
     </row>
     <row r="29">
       <c r="A29" s="1" t="n">
         <v>27</v>
       </c>
       <c r="B29" t="n">
-        <v>11.5</v>
+        <v>11.7</v>
       </c>
       <c r="C29" t="n">
-        <v>11.5</v>
+        <v>11.7</v>
       </c>
       <c r="D29" t="n">
-        <v>11.5</v>
+        <v>11.7</v>
       </c>
       <c r="E29" t="n">
-        <v>11.5</v>
+        <v>11.7</v>
       </c>
       <c r="F29" t="n">
-        <v>26021.841</v>
+        <v>195853126.5092</v>
       </c>
       <c r="G29" t="n">
-        <v>-155511.5393252753</v>
+        <v>11.69999999999999</v>
       </c>
       <c r="H29" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I29" t="n">
         <v>0</v>
       </c>
-      <c r="J29" t="inlineStr"/>
-      <c r="K29" t="inlineStr"/>
+      <c r="J29" t="n">
+        <v>11.7</v>
+      </c>
+      <c r="K29" t="n">
+        <v>11.7</v>
+      </c>
       <c r="L29" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1533,28 +1635,29 @@
       <c r="M29" t="n">
         <v>1</v>
       </c>
+      <c r="N29" t="inlineStr"/>
     </row>
     <row r="30">
       <c r="A30" s="1" t="n">
         <v>28</v>
       </c>
       <c r="B30" t="n">
-        <v>11.4</v>
+        <v>11.7</v>
       </c>
       <c r="C30" t="n">
-        <v>11.4</v>
+        <v>11.7</v>
       </c>
       <c r="D30" t="n">
-        <v>11.4</v>
+        <v>11.7</v>
       </c>
       <c r="E30" t="n">
-        <v>11.4</v>
+        <v>11.7</v>
       </c>
       <c r="F30" t="n">
-        <v>7800.302</v>
+        <v>158274385.0388</v>
       </c>
       <c r="G30" t="n">
-        <v>-163311.8413252753</v>
+        <v>11.69999999999999</v>
       </c>
       <c r="H30" t="n">
         <v>0</v>
@@ -1563,7 +1666,9 @@
         <v>0</v>
       </c>
       <c r="J30" t="inlineStr"/>
-      <c r="K30" t="inlineStr"/>
+      <c r="K30" t="n">
+        <v>11.7</v>
+      </c>
       <c r="L30" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1572,39 +1677,40 @@
       <c r="M30" t="n">
         <v>1</v>
       </c>
+      <c r="N30" t="inlineStr"/>
     </row>
     <row r="31">
       <c r="A31" s="1" t="n">
         <v>29</v>
       </c>
       <c r="B31" t="n">
-        <v>11.5</v>
+        <v>11.7</v>
       </c>
       <c r="C31" t="n">
-        <v>11.5</v>
+        <v>11.7</v>
       </c>
       <c r="D31" t="n">
-        <v>11.5</v>
+        <v>11.7</v>
       </c>
       <c r="E31" t="n">
-        <v>11.5</v>
+        <v>11.6</v>
       </c>
       <c r="F31" t="n">
-        <v>25059.84431304348</v>
+        <v>179923443.1154</v>
       </c>
       <c r="G31" t="n">
-        <v>-138251.9970122318</v>
+        <v>11.69999999999999</v>
       </c>
       <c r="H31" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
         <v>0</v>
       </c>
-      <c r="J31" t="n">
-        <v>11.4</v>
-      </c>
-      <c r="K31" t="inlineStr"/>
+      <c r="J31" t="inlineStr"/>
+      <c r="K31" t="n">
+        <v>11.7</v>
+      </c>
       <c r="L31" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1613,28 +1719,29 @@
       <c r="M31" t="n">
         <v>1</v>
       </c>
+      <c r="N31" t="inlineStr"/>
     </row>
     <row r="32">
       <c r="A32" s="1" t="n">
         <v>30</v>
       </c>
       <c r="B32" t="n">
-        <v>11.5</v>
+        <v>11.7</v>
       </c>
       <c r="C32" t="n">
-        <v>11.5</v>
+        <v>11.7</v>
       </c>
       <c r="D32" t="n">
-        <v>11.5</v>
+        <v>11.7</v>
       </c>
       <c r="E32" t="n">
-        <v>11.5</v>
+        <v>11.6</v>
       </c>
       <c r="F32" t="n">
-        <v>6472.514786956522</v>
+        <v>121746723.4606</v>
       </c>
       <c r="G32" t="n">
-        <v>-138251.9970122318</v>
+        <v>11.69999999999999</v>
       </c>
       <c r="H32" t="n">
         <v>0</v>
@@ -1643,7 +1750,9 @@
         <v>0</v>
       </c>
       <c r="J32" t="inlineStr"/>
-      <c r="K32" t="inlineStr"/>
+      <c r="K32" t="n">
+        <v>11.7</v>
+      </c>
       <c r="L32" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1652,28 +1761,29 @@
       <c r="M32" t="n">
         <v>1</v>
       </c>
+      <c r="N32" t="inlineStr"/>
     </row>
     <row r="33">
       <c r="A33" s="1" t="n">
         <v>31</v>
       </c>
       <c r="B33" t="n">
-        <v>11.4</v>
+        <v>11.7</v>
       </c>
       <c r="C33" t="n">
-        <v>11.4</v>
+        <v>11.7</v>
       </c>
       <c r="D33" t="n">
-        <v>11.4</v>
+        <v>11.7</v>
       </c>
       <c r="E33" t="n">
-        <v>11.4</v>
+        <v>11.7</v>
       </c>
       <c r="F33" t="n">
-        <v>3241.875</v>
+        <v>27976905.5353</v>
       </c>
       <c r="G33" t="n">
-        <v>-141493.8720122318</v>
+        <v>11.69999999999999</v>
       </c>
       <c r="H33" t="n">
         <v>0</v>
@@ -1682,7 +1792,9 @@
         <v>0</v>
       </c>
       <c r="J33" t="inlineStr"/>
-      <c r="K33" t="inlineStr"/>
+      <c r="K33" t="n">
+        <v>11.7</v>
+      </c>
       <c r="L33" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1691,28 +1803,29 @@
       <c r="M33" t="n">
         <v>1</v>
       </c>
+      <c r="N33" t="inlineStr"/>
     </row>
     <row r="34">
       <c r="A34" s="1" t="n">
         <v>32</v>
       </c>
       <c r="B34" t="n">
-        <v>11.4</v>
+        <v>11.7</v>
       </c>
       <c r="C34" t="n">
-        <v>11.4</v>
+        <v>11.7</v>
       </c>
       <c r="D34" t="n">
-        <v>11.4</v>
+        <v>11.7</v>
       </c>
       <c r="E34" t="n">
-        <v>11.4</v>
+        <v>11.6</v>
       </c>
       <c r="F34" t="n">
-        <v>26021.841</v>
+        <v>112470697.5007</v>
       </c>
       <c r="G34" t="n">
-        <v>-141493.8720122318</v>
+        <v>11.69999999999999</v>
       </c>
       <c r="H34" t="n">
         <v>0</v>
@@ -1721,7 +1834,9 @@
         <v>0</v>
       </c>
       <c r="J34" t="inlineStr"/>
-      <c r="K34" t="inlineStr"/>
+      <c r="K34" t="n">
+        <v>11.7</v>
+      </c>
       <c r="L34" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1730,28 +1845,29 @@
       <c r="M34" t="n">
         <v>1</v>
       </c>
+      <c r="N34" t="inlineStr"/>
     </row>
     <row r="35">
       <c r="A35" s="1" t="n">
         <v>33</v>
       </c>
       <c r="B35" t="n">
-        <v>11.4</v>
+        <v>11.7</v>
       </c>
       <c r="C35" t="n">
-        <v>11.4</v>
+        <v>11.7</v>
       </c>
       <c r="D35" t="n">
-        <v>11.4</v>
+        <v>11.7</v>
       </c>
       <c r="E35" t="n">
-        <v>11.4</v>
+        <v>11.7</v>
       </c>
       <c r="F35" t="n">
-        <v>100845.4887</v>
+        <v>186207290.4324</v>
       </c>
       <c r="G35" t="n">
-        <v>-141493.8720122318</v>
+        <v>11.69999999999999</v>
       </c>
       <c r="H35" t="n">
         <v>0</v>
@@ -1760,7 +1876,9 @@
         <v>0</v>
       </c>
       <c r="J35" t="inlineStr"/>
-      <c r="K35" t="inlineStr"/>
+      <c r="K35" t="n">
+        <v>11.7</v>
+      </c>
       <c r="L35" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1769,28 +1887,29 @@
       <c r="M35" t="n">
         <v>1</v>
       </c>
+      <c r="N35" t="inlineStr"/>
     </row>
     <row r="36">
       <c r="A36" s="1" t="n">
         <v>34</v>
       </c>
       <c r="B36" t="n">
-        <v>11.5</v>
+        <v>11.7</v>
       </c>
       <c r="C36" t="n">
-        <v>11.5</v>
+        <v>11.7</v>
       </c>
       <c r="D36" t="n">
-        <v>11.5</v>
+        <v>11.7</v>
       </c>
       <c r="E36" t="n">
-        <v>11.5</v>
+        <v>11.7</v>
       </c>
       <c r="F36" t="n">
-        <v>9556.8855</v>
+        <v>187632281.534</v>
       </c>
       <c r="G36" t="n">
-        <v>-131936.9865122318</v>
+        <v>11.69999999999999</v>
       </c>
       <c r="H36" t="n">
         <v>0</v>
@@ -1799,7 +1918,9 @@
         <v>0</v>
       </c>
       <c r="J36" t="inlineStr"/>
-      <c r="K36" t="inlineStr"/>
+      <c r="K36" t="n">
+        <v>11.7</v>
+      </c>
       <c r="L36" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1808,28 +1929,29 @@
       <c r="M36" t="n">
         <v>1</v>
       </c>
+      <c r="N36" t="inlineStr"/>
     </row>
     <row r="37">
       <c r="A37" s="1" t="n">
         <v>35</v>
       </c>
       <c r="B37" t="n">
-        <v>11.5</v>
+        <v>11.7</v>
       </c>
       <c r="C37" t="n">
-        <v>11.5</v>
+        <v>11.7</v>
       </c>
       <c r="D37" t="n">
-        <v>11.5</v>
+        <v>11.7</v>
       </c>
       <c r="E37" t="n">
-        <v>11.5</v>
+        <v>11.7</v>
       </c>
       <c r="F37" t="n">
-        <v>78995.1009</v>
+        <v>189037860.2988</v>
       </c>
       <c r="G37" t="n">
-        <v>-131936.9865122318</v>
+        <v>11.69999999999999</v>
       </c>
       <c r="H37" t="n">
         <v>0</v>
@@ -1838,7 +1960,9 @@
         <v>0</v>
       </c>
       <c r="J37" t="inlineStr"/>
-      <c r="K37" t="inlineStr"/>
+      <c r="K37" t="n">
+        <v>11.7</v>
+      </c>
       <c r="L37" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1847,28 +1971,29 @@
       <c r="M37" t="n">
         <v>1</v>
       </c>
+      <c r="N37" t="inlineStr"/>
     </row>
     <row r="38">
       <c r="A38" s="1" t="n">
         <v>36</v>
       </c>
       <c r="B38" t="n">
-        <v>11.6</v>
+        <v>11.7</v>
       </c>
       <c r="C38" t="n">
-        <v>11.6</v>
+        <v>11.7</v>
       </c>
       <c r="D38" t="n">
-        <v>11.6</v>
+        <v>11.7</v>
       </c>
       <c r="E38" t="n">
-        <v>11.6</v>
+        <v>11.7</v>
       </c>
       <c r="F38" t="n">
-        <v>10000</v>
+        <v>189738700.8229</v>
       </c>
       <c r="G38" t="n">
-        <v>-121936.9865122318</v>
+        <v>11.69999999999999</v>
       </c>
       <c r="H38" t="n">
         <v>0</v>
@@ -1877,7 +2002,9 @@
         <v>0</v>
       </c>
       <c r="J38" t="inlineStr"/>
-      <c r="K38" t="inlineStr"/>
+      <c r="K38" t="n">
+        <v>11.7</v>
+      </c>
       <c r="L38" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1886,28 +2013,29 @@
       <c r="M38" t="n">
         <v>1</v>
       </c>
+      <c r="N38" t="inlineStr"/>
     </row>
     <row r="39">
       <c r="A39" s="1" t="n">
         <v>37</v>
       </c>
       <c r="B39" t="n">
-        <v>11.5</v>
+        <v>11.7</v>
       </c>
       <c r="C39" t="n">
-        <v>11.5</v>
+        <v>11.7</v>
       </c>
       <c r="D39" t="n">
-        <v>11.5</v>
+        <v>11.7</v>
       </c>
       <c r="E39" t="n">
-        <v>11.5</v>
+        <v>11.7</v>
       </c>
       <c r="F39" t="n">
-        <v>2900</v>
+        <v>189733668.404</v>
       </c>
       <c r="G39" t="n">
-        <v>-124836.9865122318</v>
+        <v>11.69999999999999</v>
       </c>
       <c r="H39" t="n">
         <v>0</v>
@@ -1916,7 +2044,9 @@
         <v>0</v>
       </c>
       <c r="J39" t="inlineStr"/>
-      <c r="K39" t="inlineStr"/>
+      <c r="K39" t="n">
+        <v>11.7</v>
+      </c>
       <c r="L39" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1925,28 +2055,29 @@
       <c r="M39" t="n">
         <v>1</v>
       </c>
+      <c r="N39" t="inlineStr"/>
     </row>
     <row r="40">
       <c r="A40" s="1" t="n">
         <v>38</v>
       </c>
       <c r="B40" t="n">
-        <v>11.5</v>
+        <v>11.7</v>
       </c>
       <c r="C40" t="n">
-        <v>11.5</v>
+        <v>11.7</v>
       </c>
       <c r="D40" t="n">
-        <v>11.5</v>
+        <v>11.7</v>
       </c>
       <c r="E40" t="n">
-        <v>11.5</v>
+        <v>11.7</v>
       </c>
       <c r="F40" t="n">
-        <v>27100</v>
+        <v>179900005.3512</v>
       </c>
       <c r="G40" t="n">
-        <v>-124836.9865122318</v>
+        <v>11.69999999999999</v>
       </c>
       <c r="H40" t="n">
         <v>0</v>
@@ -1955,7 +2086,9 @@
         <v>0</v>
       </c>
       <c r="J40" t="inlineStr"/>
-      <c r="K40" t="inlineStr"/>
+      <c r="K40" t="n">
+        <v>11.7</v>
+      </c>
       <c r="L40" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1964,39 +2097,40 @@
       <c r="M40" t="n">
         <v>1</v>
       </c>
+      <c r="N40" t="inlineStr"/>
     </row>
     <row r="41">
       <c r="A41" s="1" t="n">
         <v>39</v>
       </c>
       <c r="B41" t="n">
-        <v>11.6</v>
+        <v>11.7</v>
       </c>
       <c r="C41" t="n">
-        <v>11.6</v>
+        <v>11.7</v>
       </c>
       <c r="D41" t="n">
-        <v>11.6</v>
+        <v>11.7</v>
       </c>
       <c r="E41" t="n">
-        <v>11.6</v>
+        <v>11.7</v>
       </c>
       <c r="F41" t="n">
-        <v>20920</v>
+        <v>186907693.1443</v>
       </c>
       <c r="G41" t="n">
-        <v>-103916.9865122318</v>
+        <v>11.69999999999999</v>
       </c>
       <c r="H41" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I41" t="n">
         <v>0</v>
       </c>
-      <c r="J41" t="n">
-        <v>11.5</v>
-      </c>
-      <c r="K41" t="inlineStr"/>
+      <c r="J41" t="inlineStr"/>
+      <c r="K41" t="n">
+        <v>11.7</v>
+      </c>
       <c r="L41" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2005,28 +2139,29 @@
       <c r="M41" t="n">
         <v>1</v>
       </c>
+      <c r="N41" t="inlineStr"/>
     </row>
     <row r="42">
       <c r="A42" s="1" t="n">
         <v>40</v>
       </c>
       <c r="B42" t="n">
-        <v>11.6</v>
+        <v>11.7</v>
       </c>
       <c r="C42" t="n">
-        <v>11.6</v>
+        <v>11.7</v>
       </c>
       <c r="D42" t="n">
-        <v>11.6</v>
+        <v>11.7</v>
       </c>
       <c r="E42" t="n">
-        <v>11.6</v>
+        <v>11.7</v>
       </c>
       <c r="F42" t="n">
-        <v>3250</v>
+        <v>189019743.1377</v>
       </c>
       <c r="G42" t="n">
-        <v>-103916.9865122318</v>
+        <v>11.69999999999999</v>
       </c>
       <c r="H42" t="n">
         <v>0</v>
@@ -2035,7 +2170,9 @@
         <v>0</v>
       </c>
       <c r="J42" t="inlineStr"/>
-      <c r="K42" t="inlineStr"/>
+      <c r="K42" t="n">
+        <v>11.7</v>
+      </c>
       <c r="L42" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2044,28 +2181,29 @@
       <c r="M42" t="n">
         <v>1</v>
       </c>
+      <c r="N42" t="inlineStr"/>
     </row>
     <row r="43">
       <c r="A43" s="1" t="n">
         <v>41</v>
       </c>
       <c r="B43" t="n">
-        <v>11.5</v>
+        <v>11.7</v>
       </c>
       <c r="C43" t="n">
-        <v>11.5</v>
+        <v>11.7</v>
       </c>
       <c r="D43" t="n">
-        <v>11.5</v>
+        <v>11.7</v>
       </c>
       <c r="E43" t="n">
-        <v>11.5</v>
+        <v>11.7</v>
       </c>
       <c r="F43" t="n">
-        <v>4604</v>
+        <v>186909832.5976</v>
       </c>
       <c r="G43" t="n">
-        <v>-108520.9865122318</v>
+        <v>11.69999999999999</v>
       </c>
       <c r="H43" t="n">
         <v>0</v>
@@ -2074,7 +2212,9 @@
         <v>0</v>
       </c>
       <c r="J43" t="inlineStr"/>
-      <c r="K43" t="inlineStr"/>
+      <c r="K43" t="n">
+        <v>11.7</v>
+      </c>
       <c r="L43" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2083,28 +2223,29 @@
       <c r="M43" t="n">
         <v>1</v>
       </c>
+      <c r="N43" t="inlineStr"/>
     </row>
     <row r="44">
       <c r="A44" s="1" t="n">
         <v>42</v>
       </c>
       <c r="B44" t="n">
-        <v>11.6</v>
+        <v>11.7</v>
       </c>
       <c r="C44" t="n">
-        <v>11.6</v>
+        <v>11.7</v>
       </c>
       <c r="D44" t="n">
-        <v>11.6</v>
+        <v>11.7</v>
       </c>
       <c r="E44" t="n">
-        <v>11.6</v>
+        <v>11.7</v>
       </c>
       <c r="F44" t="n">
-        <v>11721</v>
+        <v>191151814.6144</v>
       </c>
       <c r="G44" t="n">
-        <v>-96799.98651223176</v>
+        <v>11.69999999999999</v>
       </c>
       <c r="H44" t="n">
         <v>0</v>
@@ -2113,7 +2254,9 @@
         <v>0</v>
       </c>
       <c r="J44" t="inlineStr"/>
-      <c r="K44" t="inlineStr"/>
+      <c r="K44" t="n">
+        <v>11.7</v>
+      </c>
       <c r="L44" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2122,28 +2265,29 @@
       <c r="M44" t="n">
         <v>1</v>
       </c>
+      <c r="N44" t="inlineStr"/>
     </row>
     <row r="45">
       <c r="A45" s="1" t="n">
         <v>43</v>
       </c>
       <c r="B45" t="n">
-        <v>11.5</v>
+        <v>11.7</v>
       </c>
       <c r="C45" t="n">
-        <v>11.5</v>
+        <v>11.7</v>
       </c>
       <c r="D45" t="n">
-        <v>11.5</v>
+        <v>11.7</v>
       </c>
       <c r="E45" t="n">
-        <v>11.5</v>
+        <v>11.7</v>
       </c>
       <c r="F45" t="n">
-        <v>1200</v>
+        <v>105400215.78</v>
       </c>
       <c r="G45" t="n">
-        <v>-97999.98651223176</v>
+        <v>11.69999999999999</v>
       </c>
       <c r="H45" t="n">
         <v>0</v>
@@ -2152,7 +2296,9 @@
         <v>0</v>
       </c>
       <c r="J45" t="inlineStr"/>
-      <c r="K45" t="inlineStr"/>
+      <c r="K45" t="n">
+        <v>11.7</v>
+      </c>
       <c r="L45" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2161,28 +2307,29 @@
       <c r="M45" t="n">
         <v>1</v>
       </c>
+      <c r="N45" t="inlineStr"/>
     </row>
     <row r="46">
       <c r="A46" s="1" t="n">
         <v>44</v>
       </c>
       <c r="B46" t="n">
-        <v>11.6</v>
+        <v>11.7</v>
       </c>
       <c r="C46" t="n">
-        <v>11.6</v>
+        <v>11.7</v>
       </c>
       <c r="D46" t="n">
-        <v>11.6</v>
+        <v>11.7</v>
       </c>
       <c r="E46" t="n">
-        <v>11.6</v>
+        <v>11.7</v>
       </c>
       <c r="F46" t="n">
-        <v>39918</v>
+        <v>178811966.5981</v>
       </c>
       <c r="G46" t="n">
-        <v>-58081.98651223176</v>
+        <v>11.69999999999999</v>
       </c>
       <c r="H46" t="n">
         <v>0</v>
@@ -2191,7 +2338,9 @@
         <v>0</v>
       </c>
       <c r="J46" t="inlineStr"/>
-      <c r="K46" t="inlineStr"/>
+      <c r="K46" t="n">
+        <v>11.7</v>
+      </c>
       <c r="L46" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2200,28 +2349,29 @@
       <c r="M46" t="n">
         <v>1</v>
       </c>
+      <c r="N46" t="inlineStr"/>
     </row>
     <row r="47">
       <c r="A47" s="1" t="n">
         <v>45</v>
       </c>
       <c r="B47" t="n">
-        <v>11.6</v>
+        <v>11.7</v>
       </c>
       <c r="C47" t="n">
-        <v>11.6</v>
+        <v>11.7</v>
       </c>
       <c r="D47" t="n">
-        <v>11.6</v>
+        <v>11.7</v>
       </c>
       <c r="E47" t="n">
-        <v>11.6</v>
+        <v>11.7</v>
       </c>
       <c r="F47" t="n">
-        <v>348.2436</v>
+        <v>190423056.5092</v>
       </c>
       <c r="G47" t="n">
-        <v>-58081.98651223176</v>
+        <v>11.69999999999999</v>
       </c>
       <c r="H47" t="n">
         <v>0</v>
@@ -2230,7 +2380,9 @@
         <v>0</v>
       </c>
       <c r="J47" t="inlineStr"/>
-      <c r="K47" t="inlineStr"/>
+      <c r="K47" t="n">
+        <v>11.7</v>
+      </c>
       <c r="L47" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2239,6 +2391,7 @@
       <c r="M47" t="n">
         <v>1</v>
       </c>
+      <c r="N47" t="inlineStr"/>
     </row>
     <row r="48">
       <c r="A48" s="1" t="n">
@@ -2257,10 +2410,10 @@
         <v>11.7</v>
       </c>
       <c r="F48" t="n">
-        <v>234.8206</v>
+        <v>189720388.404</v>
       </c>
       <c r="G48" t="n">
-        <v>-57847.16591223176</v>
+        <v>11.69999999999999</v>
       </c>
       <c r="H48" t="n">
         <v>0</v>
@@ -2269,7 +2422,9 @@
         <v>0</v>
       </c>
       <c r="J48" t="inlineStr"/>
-      <c r="K48" t="inlineStr"/>
+      <c r="K48" t="n">
+        <v>11.7</v>
+      </c>
       <c r="L48" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2278,6 +2433,7 @@
       <c r="M48" t="n">
         <v>1</v>
       </c>
+      <c r="N48" t="inlineStr"/>
     </row>
     <row r="49">
       <c r="A49" s="1" t="n">
@@ -2287,19 +2443,19 @@
         <v>11.7</v>
       </c>
       <c r="C49" t="n">
-        <v>11.7</v>
+        <v>11.8</v>
       </c>
       <c r="D49" t="n">
-        <v>11.7</v>
+        <v>11.8</v>
       </c>
       <c r="E49" t="n">
         <v>11.7</v>
       </c>
       <c r="F49" t="n">
-        <v>60130.1794</v>
+        <v>5599959.6117</v>
       </c>
       <c r="G49" t="n">
-        <v>-57847.16591223176</v>
+        <v>11.74999999999999</v>
       </c>
       <c r="H49" t="n">
         <v>0</v>
@@ -2308,7 +2464,9 @@
         <v>0</v>
       </c>
       <c r="J49" t="inlineStr"/>
-      <c r="K49" t="inlineStr"/>
+      <c r="K49" t="n">
+        <v>11.7</v>
+      </c>
       <c r="L49" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2317,28 +2475,29 @@
       <c r="M49" t="n">
         <v>1</v>
       </c>
+      <c r="N49" t="inlineStr"/>
     </row>
     <row r="50">
       <c r="A50" s="1" t="n">
         <v>48</v>
       </c>
       <c r="B50" t="n">
-        <v>11.7</v>
+        <v>11.8</v>
       </c>
       <c r="C50" t="n">
-        <v>11.7</v>
+        <v>11.8</v>
       </c>
       <c r="D50" t="n">
-        <v>11.7</v>
+        <v>11.8</v>
       </c>
       <c r="E50" t="n">
-        <v>11.7</v>
+        <v>11.8</v>
       </c>
       <c r="F50" t="n">
-        <v>3296.405</v>
+        <v>4891.0665</v>
       </c>
       <c r="G50" t="n">
-        <v>-57847.16591223176</v>
+        <v>11.79999999999999</v>
       </c>
       <c r="H50" t="n">
         <v>0</v>
@@ -2347,7 +2506,9 @@
         <v>0</v>
       </c>
       <c r="J50" t="inlineStr"/>
-      <c r="K50" t="inlineStr"/>
+      <c r="K50" t="n">
+        <v>11.7</v>
+      </c>
       <c r="L50" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2356,6 +2517,7 @@
       <c r="M50" t="n">
         <v>1</v>
       </c>
+      <c r="N50" t="inlineStr"/>
     </row>
     <row r="51">
       <c r="A51" s="1" t="n">
@@ -2374,10 +2536,10 @@
         <v>11.8</v>
       </c>
       <c r="F51" t="n">
-        <v>166602.5318</v>
+        <v>100000</v>
       </c>
       <c r="G51" t="n">
-        <v>108755.3658877682</v>
+        <v>11.79999999999999</v>
       </c>
       <c r="H51" t="n">
         <v>0</v>
@@ -2386,7 +2548,9 @@
         <v>0</v>
       </c>
       <c r="J51" t="inlineStr"/>
-      <c r="K51" t="inlineStr"/>
+      <c r="K51" t="n">
+        <v>11.7</v>
+      </c>
       <c r="L51" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2395,28 +2559,29 @@
       <c r="M51" t="n">
         <v>1</v>
       </c>
+      <c r="N51" t="inlineStr"/>
     </row>
     <row r="52">
       <c r="A52" s="1" t="n">
         <v>50</v>
       </c>
       <c r="B52" t="n">
-        <v>11.9</v>
+        <v>11.8</v>
       </c>
       <c r="C52" t="n">
-        <v>11.6</v>
+        <v>11.8</v>
       </c>
       <c r="D52" t="n">
-        <v>11.9</v>
+        <v>11.8</v>
       </c>
       <c r="E52" t="n">
-        <v>11.5</v>
+        <v>11.8</v>
       </c>
       <c r="F52" t="n">
-        <v>157159.5878</v>
+        <v>2000</v>
       </c>
       <c r="G52" t="n">
-        <v>-48404.22191223176</v>
+        <v>11.79999999999999</v>
       </c>
       <c r="H52" t="n">
         <v>0</v>
@@ -2425,7 +2590,9 @@
         <v>0</v>
       </c>
       <c r="J52" t="inlineStr"/>
-      <c r="K52" t="inlineStr"/>
+      <c r="K52" t="n">
+        <v>11.7</v>
+      </c>
       <c r="L52" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2434,28 +2601,29 @@
       <c r="M52" t="n">
         <v>1</v>
       </c>
+      <c r="N52" t="inlineStr"/>
     </row>
     <row r="53">
       <c r="A53" s="1" t="n">
         <v>51</v>
       </c>
       <c r="B53" t="n">
-        <v>11.6</v>
+        <v>11.9</v>
       </c>
       <c r="C53" t="n">
-        <v>11.6</v>
+        <v>11.9</v>
       </c>
       <c r="D53" t="n">
-        <v>11.6</v>
+        <v>11.9</v>
       </c>
       <c r="E53" t="n">
-        <v>11.6</v>
+        <v>11.9</v>
       </c>
       <c r="F53" t="n">
-        <v>1546.1593</v>
+        <v>251.3883</v>
       </c>
       <c r="G53" t="n">
-        <v>-48404.22191223176</v>
+        <v>11.84999999999999</v>
       </c>
       <c r="H53" t="n">
         <v>0</v>
@@ -2464,7 +2632,9 @@
         <v>0</v>
       </c>
       <c r="J53" t="inlineStr"/>
-      <c r="K53" t="inlineStr"/>
+      <c r="K53" t="n">
+        <v>11.7</v>
+      </c>
       <c r="L53" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2473,28 +2643,29 @@
       <c r="M53" t="n">
         <v>1</v>
       </c>
+      <c r="N53" t="inlineStr"/>
     </row>
     <row r="54">
       <c r="A54" s="1" t="n">
         <v>52</v>
       </c>
       <c r="B54" t="n">
-        <v>11.6</v>
+        <v>11.9</v>
       </c>
       <c r="C54" t="n">
-        <v>11.6</v>
+        <v>11.9</v>
       </c>
       <c r="D54" t="n">
-        <v>11.6</v>
+        <v>11.9</v>
       </c>
       <c r="E54" t="n">
-        <v>11.6</v>
+        <v>11.9</v>
       </c>
       <c r="F54" t="n">
-        <v>315.6044</v>
+        <v>4201.680672268908</v>
       </c>
       <c r="G54" t="n">
-        <v>-48404.22191223176</v>
+        <v>11.89999999999999</v>
       </c>
       <c r="H54" t="n">
         <v>0</v>
@@ -2503,7 +2674,9 @@
         <v>0</v>
       </c>
       <c r="J54" t="inlineStr"/>
-      <c r="K54" t="inlineStr"/>
+      <c r="K54" t="n">
+        <v>11.7</v>
+      </c>
       <c r="L54" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2512,28 +2685,29 @@
       <c r="M54" t="n">
         <v>1</v>
       </c>
+      <c r="N54" t="inlineStr"/>
     </row>
     <row r="55">
       <c r="A55" s="1" t="n">
         <v>53</v>
       </c>
       <c r="B55" t="n">
-        <v>11.6</v>
+        <v>11.8</v>
       </c>
       <c r="C55" t="n">
-        <v>11.6</v>
+        <v>11.8</v>
       </c>
       <c r="D55" t="n">
-        <v>11.6</v>
+        <v>11.8</v>
       </c>
       <c r="E55" t="n">
-        <v>11.6</v>
+        <v>11.8</v>
       </c>
       <c r="F55" t="n">
-        <v>19712.9732</v>
+        <v>1733.9769</v>
       </c>
       <c r="G55" t="n">
-        <v>-48404.22191223176</v>
+        <v>11.84999999999999</v>
       </c>
       <c r="H55" t="n">
         <v>0</v>
@@ -2542,7 +2716,9 @@
         <v>0</v>
       </c>
       <c r="J55" t="inlineStr"/>
-      <c r="K55" t="inlineStr"/>
+      <c r="K55" t="n">
+        <v>11.7</v>
+      </c>
       <c r="L55" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2551,28 +2727,29 @@
       <c r="M55" t="n">
         <v>1</v>
       </c>
+      <c r="N55" t="inlineStr"/>
     </row>
     <row r="56">
       <c r="A56" s="1" t="n">
         <v>54</v>
       </c>
       <c r="B56" t="n">
-        <v>11.6</v>
+        <v>11.7</v>
       </c>
       <c r="C56" t="n">
-        <v>11.6</v>
+        <v>11.7</v>
       </c>
       <c r="D56" t="n">
-        <v>11.6</v>
+        <v>11.7</v>
       </c>
       <c r="E56" t="n">
-        <v>11.6</v>
+        <v>11.7</v>
       </c>
       <c r="F56" t="n">
-        <v>45319.1004</v>
+        <v>58830</v>
       </c>
       <c r="G56" t="n">
-        <v>-48404.22191223176</v>
+        <v>11.75</v>
       </c>
       <c r="H56" t="n">
         <v>0</v>
@@ -2581,7 +2758,9 @@
         <v>0</v>
       </c>
       <c r="J56" t="inlineStr"/>
-      <c r="K56" t="inlineStr"/>
+      <c r="K56" t="n">
+        <v>11.7</v>
+      </c>
       <c r="L56" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2590,28 +2769,29 @@
       <c r="M56" t="n">
         <v>1</v>
       </c>
+      <c r="N56" t="inlineStr"/>
     </row>
     <row r="57">
       <c r="A57" s="1" t="n">
         <v>55</v>
       </c>
       <c r="B57" t="n">
-        <v>11.5</v>
+        <v>11.8</v>
       </c>
       <c r="C57" t="n">
-        <v>11.5</v>
+        <v>11.8</v>
       </c>
       <c r="D57" t="n">
-        <v>11.5</v>
+        <v>11.8</v>
       </c>
       <c r="E57" t="n">
-        <v>11.5</v>
+        <v>11.8</v>
       </c>
       <c r="F57" t="n">
-        <v>39667.0323</v>
+        <v>123789.0642</v>
       </c>
       <c r="G57" t="n">
-        <v>-88071.25421223175</v>
+        <v>11.75</v>
       </c>
       <c r="H57" t="n">
         <v>0</v>
@@ -2620,7 +2800,9 @@
         <v>0</v>
       </c>
       <c r="J57" t="inlineStr"/>
-      <c r="K57" t="inlineStr"/>
+      <c r="K57" t="n">
+        <v>11.7</v>
+      </c>
       <c r="L57" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2629,28 +2811,29 @@
       <c r="M57" t="n">
         <v>1</v>
       </c>
+      <c r="N57" t="inlineStr"/>
     </row>
     <row r="58">
       <c r="A58" s="1" t="n">
         <v>56</v>
       </c>
       <c r="B58" t="n">
-        <v>11.7</v>
+        <v>11.9</v>
       </c>
       <c r="C58" t="n">
-        <v>11.7</v>
+        <v>11.9</v>
       </c>
       <c r="D58" t="n">
-        <v>11.7</v>
+        <v>11.9</v>
       </c>
       <c r="E58" t="n">
-        <v>11.7</v>
+        <v>11.9</v>
       </c>
       <c r="F58" t="n">
-        <v>12448.8178</v>
+        <v>89823.7029</v>
       </c>
       <c r="G58" t="n">
-        <v>-75622.43641223175</v>
+        <v>11.85</v>
       </c>
       <c r="H58" t="n">
         <v>0</v>
@@ -2659,7 +2842,9 @@
         <v>0</v>
       </c>
       <c r="J58" t="inlineStr"/>
-      <c r="K58" t="inlineStr"/>
+      <c r="K58" t="n">
+        <v>11.7</v>
+      </c>
       <c r="L58" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2668,28 +2853,29 @@
       <c r="M58" t="n">
         <v>1</v>
       </c>
+      <c r="N58" t="inlineStr"/>
     </row>
     <row r="59">
       <c r="A59" s="1" t="n">
         <v>57</v>
       </c>
       <c r="B59" t="n">
-        <v>11.7</v>
+        <v>11.9</v>
       </c>
       <c r="C59" t="n">
-        <v>11.7</v>
+        <v>11.9</v>
       </c>
       <c r="D59" t="n">
-        <v>11.7</v>
+        <v>11.9</v>
       </c>
       <c r="E59" t="n">
-        <v>11.7</v>
+        <v>11.9</v>
       </c>
       <c r="F59" t="n">
-        <v>16129.033</v>
+        <v>49.9214</v>
       </c>
       <c r="G59" t="n">
-        <v>-75622.43641223175</v>
+        <v>11.9</v>
       </c>
       <c r="H59" t="n">
         <v>0</v>
@@ -2698,7 +2884,9 @@
         <v>0</v>
       </c>
       <c r="J59" t="inlineStr"/>
-      <c r="K59" t="inlineStr"/>
+      <c r="K59" t="n">
+        <v>11.7</v>
+      </c>
       <c r="L59" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2707,28 +2895,29 @@
       <c r="M59" t="n">
         <v>1</v>
       </c>
+      <c r="N59" t="inlineStr"/>
     </row>
     <row r="60">
       <c r="A60" s="1" t="n">
         <v>58</v>
       </c>
       <c r="B60" t="n">
-        <v>11.6</v>
+        <v>11.9</v>
       </c>
       <c r="C60" t="n">
-        <v>11.6</v>
+        <v>12.1</v>
       </c>
       <c r="D60" t="n">
-        <v>11.6</v>
+        <v>12.1</v>
       </c>
       <c r="E60" t="n">
-        <v>11.6</v>
+        <v>11.9</v>
       </c>
       <c r="F60" t="n">
-        <v>18850.881</v>
+        <v>154646.1387492187</v>
       </c>
       <c r="G60" t="n">
-        <v>-94473.31741223176</v>
+        <v>12</v>
       </c>
       <c r="H60" t="n">
         <v>0</v>
@@ -2737,7 +2926,9 @@
         <v>0</v>
       </c>
       <c r="J60" t="inlineStr"/>
-      <c r="K60" t="inlineStr"/>
+      <c r="K60" t="n">
+        <v>11.7</v>
+      </c>
       <c r="L60" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2746,28 +2937,29 @@
       <c r="M60" t="n">
         <v>1</v>
       </c>
+      <c r="N60" t="inlineStr"/>
     </row>
     <row r="61">
       <c r="A61" s="1" t="n">
         <v>59</v>
       </c>
       <c r="B61" t="n">
-        <v>11.6</v>
+        <v>12.1</v>
       </c>
       <c r="C61" t="n">
-        <v>11.6</v>
+        <v>12.1</v>
       </c>
       <c r="D61" t="n">
-        <v>11.6</v>
+        <v>12.1</v>
       </c>
       <c r="E61" t="n">
-        <v>11.6</v>
+        <v>12.1</v>
       </c>
       <c r="F61" t="n">
-        <v>87199.11900000001</v>
+        <v>1980.0993</v>
       </c>
       <c r="G61" t="n">
-        <v>-94473.31741223176</v>
+        <v>12.1</v>
       </c>
       <c r="H61" t="n">
         <v>0</v>
@@ -2776,7 +2968,9 @@
         <v>0</v>
       </c>
       <c r="J61" t="inlineStr"/>
-      <c r="K61" t="inlineStr"/>
+      <c r="K61" t="n">
+        <v>11.7</v>
+      </c>
       <c r="L61" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2785,28 +2979,29 @@
       <c r="M61" t="n">
         <v>1</v>
       </c>
+      <c r="N61" t="inlineStr"/>
     </row>
     <row r="62">
       <c r="A62" s="1" t="n">
         <v>60</v>
       </c>
       <c r="B62" t="n">
-        <v>11.6</v>
+        <v>12</v>
       </c>
       <c r="C62" t="n">
-        <v>11.6</v>
+        <v>12</v>
       </c>
       <c r="D62" t="n">
-        <v>11.6</v>
+        <v>12</v>
       </c>
       <c r="E62" t="n">
-        <v>11.6</v>
+        <v>12</v>
       </c>
       <c r="F62" t="n">
-        <v>12800.881</v>
+        <v>134024.0411</v>
       </c>
       <c r="G62" t="n">
-        <v>-94473.31741223176</v>
+        <v>12.05</v>
       </c>
       <c r="H62" t="n">
         <v>0</v>
@@ -2815,7 +3010,9 @@
         <v>0</v>
       </c>
       <c r="J62" t="inlineStr"/>
-      <c r="K62" t="inlineStr"/>
+      <c r="K62" t="n">
+        <v>11.7</v>
+      </c>
       <c r="L62" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2824,28 +3021,29 @@
       <c r="M62" t="n">
         <v>1</v>
       </c>
+      <c r="N62" t="inlineStr"/>
     </row>
     <row r="63">
       <c r="A63" s="1" t="n">
         <v>61</v>
       </c>
       <c r="B63" t="n">
-        <v>11.7</v>
+        <v>12</v>
       </c>
       <c r="C63" t="n">
-        <v>11.7</v>
+        <v>12</v>
       </c>
       <c r="D63" t="n">
-        <v>11.7</v>
+        <v>12</v>
       </c>
       <c r="E63" t="n">
-        <v>11.7</v>
+        <v>12</v>
       </c>
       <c r="F63" t="n">
-        <v>85966.81789999999</v>
+        <v>1000</v>
       </c>
       <c r="G63" t="n">
-        <v>-8506.499512231763</v>
+        <v>12</v>
       </c>
       <c r="H63" t="n">
         <v>0</v>
@@ -2854,7 +3052,9 @@
         <v>0</v>
       </c>
       <c r="J63" t="inlineStr"/>
-      <c r="K63" t="inlineStr"/>
+      <c r="K63" t="n">
+        <v>11.7</v>
+      </c>
       <c r="L63" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2863,28 +3063,29 @@
       <c r="M63" t="n">
         <v>1</v>
       </c>
+      <c r="N63" t="inlineStr"/>
     </row>
     <row r="64">
       <c r="A64" s="1" t="n">
         <v>62</v>
       </c>
       <c r="B64" t="n">
-        <v>11.7</v>
+        <v>12</v>
       </c>
       <c r="C64" t="n">
-        <v>11.7</v>
+        <v>12</v>
       </c>
       <c r="D64" t="n">
-        <v>11.7</v>
+        <v>12</v>
       </c>
       <c r="E64" t="n">
-        <v>11.7</v>
+        <v>12</v>
       </c>
       <c r="F64" t="n">
-        <v>13302038.8404</v>
+        <v>41487.3614</v>
       </c>
       <c r="G64" t="n">
-        <v>-8506.499512231763</v>
+        <v>12</v>
       </c>
       <c r="H64" t="n">
         <v>0</v>
@@ -2893,7 +3094,9 @@
         <v>0</v>
       </c>
       <c r="J64" t="inlineStr"/>
-      <c r="K64" t="inlineStr"/>
+      <c r="K64" t="n">
+        <v>11.7</v>
+      </c>
       <c r="L64" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2902,28 +3105,29 @@
       <c r="M64" t="n">
         <v>1</v>
       </c>
+      <c r="N64" t="inlineStr"/>
     </row>
     <row r="65">
       <c r="A65" s="1" t="n">
         <v>63</v>
       </c>
       <c r="B65" t="n">
-        <v>11.7</v>
+        <v>12.1</v>
       </c>
       <c r="C65" t="n">
-        <v>11.7</v>
+        <v>12.1</v>
       </c>
       <c r="D65" t="n">
-        <v>11.7</v>
+        <v>12.1</v>
       </c>
       <c r="E65" t="n">
-        <v>11.6</v>
+        <v>12.1</v>
       </c>
       <c r="F65" t="n">
-        <v>130065131.364</v>
+        <v>11937.9435</v>
       </c>
       <c r="G65" t="n">
-        <v>-8506.499512231763</v>
+        <v>12.05</v>
       </c>
       <c r="H65" t="n">
         <v>0</v>
@@ -2932,7 +3136,9 @@
         <v>0</v>
       </c>
       <c r="J65" t="inlineStr"/>
-      <c r="K65" t="inlineStr"/>
+      <c r="K65" t="n">
+        <v>11.7</v>
+      </c>
       <c r="L65" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2941,28 +3147,29 @@
       <c r="M65" t="n">
         <v>1</v>
       </c>
+      <c r="N65" t="inlineStr"/>
     </row>
     <row r="66">
       <c r="A66" s="1" t="n">
         <v>64</v>
       </c>
       <c r="B66" t="n">
-        <v>11.7</v>
+        <v>12.1</v>
       </c>
       <c r="C66" t="n">
-        <v>11.7</v>
+        <v>12.1</v>
       </c>
       <c r="D66" t="n">
-        <v>11.7</v>
+        <v>12.1</v>
       </c>
       <c r="E66" t="n">
-        <v>11.6</v>
+        <v>12.1</v>
       </c>
       <c r="F66" t="n">
-        <v>106001857.6074</v>
+        <v>17840.68947851239</v>
       </c>
       <c r="G66" t="n">
-        <v>-8506.499512231763</v>
+        <v>12.1</v>
       </c>
       <c r="H66" t="n">
         <v>0</v>
@@ -2971,7 +3178,9 @@
         <v>0</v>
       </c>
       <c r="J66" t="inlineStr"/>
-      <c r="K66" t="inlineStr"/>
+      <c r="K66" t="n">
+        <v>11.7</v>
+      </c>
       <c r="L66" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2980,28 +3189,29 @@
       <c r="M66" t="n">
         <v>1</v>
       </c>
+      <c r="N66" t="inlineStr"/>
     </row>
     <row r="67">
       <c r="A67" s="1" t="n">
         <v>65</v>
       </c>
       <c r="B67" t="n">
-        <v>11.7</v>
+        <v>12.2</v>
       </c>
       <c r="C67" t="n">
-        <v>11.7</v>
+        <v>12.1</v>
       </c>
       <c r="D67" t="n">
-        <v>11.7</v>
+        <v>12.2</v>
       </c>
       <c r="E67" t="n">
-        <v>11.7</v>
+        <v>12.1</v>
       </c>
       <c r="F67" t="n">
-        <v>92703390.89920001</v>
+        <v>85476.65089999999</v>
       </c>
       <c r="G67" t="n">
-        <v>-8506.499512231763</v>
+        <v>12.1</v>
       </c>
       <c r="H67" t="n">
         <v>0</v>
@@ -3010,7 +3220,9 @@
         <v>0</v>
       </c>
       <c r="J67" t="inlineStr"/>
-      <c r="K67" t="inlineStr"/>
+      <c r="K67" t="n">
+        <v>11.7</v>
+      </c>
       <c r="L67" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3019,28 +3231,29 @@
       <c r="M67" t="n">
         <v>1</v>
       </c>
+      <c r="N67" t="inlineStr"/>
     </row>
     <row r="68">
       <c r="A68" s="1" t="n">
         <v>66</v>
       </c>
       <c r="B68" t="n">
-        <v>11.7</v>
+        <v>12.2</v>
       </c>
       <c r="C68" t="n">
-        <v>11.7</v>
+        <v>12.2</v>
       </c>
       <c r="D68" t="n">
-        <v>11.7</v>
+        <v>12.2</v>
       </c>
       <c r="E68" t="n">
-        <v>11.7</v>
+        <v>12.2</v>
       </c>
       <c r="F68" t="n">
-        <v>38036926.8492</v>
+        <v>102072.4842</v>
       </c>
       <c r="G68" t="n">
-        <v>-8506.499512231763</v>
+        <v>12.15</v>
       </c>
       <c r="H68" t="n">
         <v>0</v>
@@ -3049,7 +3262,9 @@
         <v>0</v>
       </c>
       <c r="J68" t="inlineStr"/>
-      <c r="K68" t="inlineStr"/>
+      <c r="K68" t="n">
+        <v>11.7</v>
+      </c>
       <c r="L68" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3058,28 +3273,29 @@
       <c r="M68" t="n">
         <v>1</v>
       </c>
+      <c r="N68" t="inlineStr"/>
     </row>
     <row r="69">
       <c r="A69" s="1" t="n">
         <v>67</v>
       </c>
       <c r="B69" t="n">
-        <v>11.7</v>
+        <v>12.1</v>
       </c>
       <c r="C69" t="n">
-        <v>11.7</v>
+        <v>12.1</v>
       </c>
       <c r="D69" t="n">
-        <v>11.7</v>
+        <v>12.1</v>
       </c>
       <c r="E69" t="n">
-        <v>11.7</v>
+        <v>12.1</v>
       </c>
       <c r="F69" t="n">
-        <v>8453362.104</v>
+        <v>3539</v>
       </c>
       <c r="G69" t="n">
-        <v>-8506.499512231763</v>
+        <v>12.15</v>
       </c>
       <c r="H69" t="n">
         <v>0</v>
@@ -3088,7 +3304,9 @@
         <v>0</v>
       </c>
       <c r="J69" t="inlineStr"/>
-      <c r="K69" t="inlineStr"/>
+      <c r="K69" t="n">
+        <v>11.7</v>
+      </c>
       <c r="L69" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3097,28 +3315,29 @@
       <c r="M69" t="n">
         <v>1</v>
       </c>
+      <c r="N69" t="inlineStr"/>
     </row>
     <row r="70">
       <c r="A70" s="1" t="n">
         <v>68</v>
       </c>
       <c r="B70" t="n">
-        <v>11.7</v>
+        <v>12.3</v>
       </c>
       <c r="C70" t="n">
-        <v>11.7</v>
+        <v>12.3</v>
       </c>
       <c r="D70" t="n">
-        <v>11.7</v>
+        <v>12.3</v>
       </c>
       <c r="E70" t="n">
-        <v>11.7</v>
+        <v>12.3</v>
       </c>
       <c r="F70" t="n">
-        <v>156096310.7232</v>
+        <v>41</v>
       </c>
       <c r="G70" t="n">
-        <v>-8506.499512231763</v>
+        <v>12.2</v>
       </c>
       <c r="H70" t="n">
         <v>0</v>
@@ -3127,7 +3346,9 @@
         <v>0</v>
       </c>
       <c r="J70" t="inlineStr"/>
-      <c r="K70" t="inlineStr"/>
+      <c r="K70" t="n">
+        <v>11.7</v>
+      </c>
       <c r="L70" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3136,28 +3357,29 @@
       <c r="M70" t="n">
         <v>1</v>
       </c>
+      <c r="N70" t="inlineStr"/>
     </row>
     <row r="71">
       <c r="A71" s="1" t="n">
         <v>69</v>
       </c>
       <c r="B71" t="n">
-        <v>11.7</v>
+        <v>12.3</v>
       </c>
       <c r="C71" t="n">
-        <v>11.7</v>
+        <v>12.3</v>
       </c>
       <c r="D71" t="n">
-        <v>11.7</v>
+        <v>12.3</v>
       </c>
       <c r="E71" t="n">
-        <v>11.7</v>
+        <v>12.3</v>
       </c>
       <c r="F71" t="n">
-        <v>195853126.5092</v>
+        <v>47091.4205</v>
       </c>
       <c r="G71" t="n">
-        <v>-8506.499512231763</v>
+        <v>12.3</v>
       </c>
       <c r="H71" t="n">
         <v>0</v>
@@ -3166,7 +3388,9 @@
         <v>0</v>
       </c>
       <c r="J71" t="inlineStr"/>
-      <c r="K71" t="inlineStr"/>
+      <c r="K71" t="n">
+        <v>11.7</v>
+      </c>
       <c r="L71" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3175,28 +3399,29 @@
       <c r="M71" t="n">
         <v>1</v>
       </c>
+      <c r="N71" t="inlineStr"/>
     </row>
     <row r="72">
       <c r="A72" s="1" t="n">
         <v>70</v>
       </c>
       <c r="B72" t="n">
-        <v>11.7</v>
+        <v>12.1</v>
       </c>
       <c r="C72" t="n">
-        <v>11.7</v>
+        <v>12.1</v>
       </c>
       <c r="D72" t="n">
-        <v>11.7</v>
+        <v>12.1</v>
       </c>
       <c r="E72" t="n">
-        <v>11.7</v>
+        <v>12.1</v>
       </c>
       <c r="F72" t="n">
-        <v>158274385.0388</v>
+        <v>2500</v>
       </c>
       <c r="G72" t="n">
-        <v>-8506.499512231763</v>
+        <v>12.2</v>
       </c>
       <c r="H72" t="n">
         <v>0</v>
@@ -3205,7 +3430,9 @@
         <v>0</v>
       </c>
       <c r="J72" t="inlineStr"/>
-      <c r="K72" t="inlineStr"/>
+      <c r="K72" t="n">
+        <v>11.7</v>
+      </c>
       <c r="L72" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3214,28 +3441,29 @@
       <c r="M72" t="n">
         <v>1</v>
       </c>
+      <c r="N72" t="inlineStr"/>
     </row>
     <row r="73">
       <c r="A73" s="1" t="n">
         <v>71</v>
       </c>
       <c r="B73" t="n">
-        <v>11.7</v>
+        <v>12.1</v>
       </c>
       <c r="C73" t="n">
-        <v>11.7</v>
+        <v>12</v>
       </c>
       <c r="D73" t="n">
-        <v>11.7</v>
+        <v>12.1</v>
       </c>
       <c r="E73" t="n">
-        <v>11.6</v>
+        <v>12</v>
       </c>
       <c r="F73" t="n">
-        <v>179923443.1154</v>
+        <v>69267.75992148761</v>
       </c>
       <c r="G73" t="n">
-        <v>-8506.499512231763</v>
+        <v>12.05</v>
       </c>
       <c r="H73" t="n">
         <v>0</v>
@@ -3244,7 +3472,9 @@
         <v>0</v>
       </c>
       <c r="J73" t="inlineStr"/>
-      <c r="K73" t="inlineStr"/>
+      <c r="K73" t="n">
+        <v>11.7</v>
+      </c>
       <c r="L73" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3253,28 +3483,29 @@
       <c r="M73" t="n">
         <v>1</v>
       </c>
+      <c r="N73" t="inlineStr"/>
     </row>
     <row r="74">
       <c r="A74" s="1" t="n">
         <v>72</v>
       </c>
       <c r="B74" t="n">
-        <v>11.7</v>
+        <v>12</v>
       </c>
       <c r="C74" t="n">
-        <v>11.7</v>
+        <v>12</v>
       </c>
       <c r="D74" t="n">
-        <v>11.7</v>
+        <v>12</v>
       </c>
       <c r="E74" t="n">
-        <v>11.6</v>
+        <v>12</v>
       </c>
       <c r="F74" t="n">
-        <v>121746723.4606</v>
+        <v>3350</v>
       </c>
       <c r="G74" t="n">
-        <v>-8506.499512231763</v>
+        <v>12</v>
       </c>
       <c r="H74" t="n">
         <v>0</v>
@@ -3283,7 +3514,9 @@
         <v>0</v>
       </c>
       <c r="J74" t="inlineStr"/>
-      <c r="K74" t="inlineStr"/>
+      <c r="K74" t="n">
+        <v>11.7</v>
+      </c>
       <c r="L74" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3292,28 +3525,29 @@
       <c r="M74" t="n">
         <v>1</v>
       </c>
+      <c r="N74" t="inlineStr"/>
     </row>
     <row r="75">
       <c r="A75" s="1" t="n">
         <v>73</v>
       </c>
       <c r="B75" t="n">
-        <v>11.7</v>
+        <v>12</v>
       </c>
       <c r="C75" t="n">
-        <v>11.7</v>
+        <v>11.9</v>
       </c>
       <c r="D75" t="n">
-        <v>11.7</v>
+        <v>12</v>
       </c>
       <c r="E75" t="n">
-        <v>11.7</v>
+        <v>11.9</v>
       </c>
       <c r="F75" t="n">
-        <v>27976905.5353</v>
+        <v>25869.7773</v>
       </c>
       <c r="G75" t="n">
-        <v>-8506.499512231763</v>
+        <v>11.95</v>
       </c>
       <c r="H75" t="n">
         <v>0</v>
@@ -3322,7 +3556,9 @@
         <v>0</v>
       </c>
       <c r="J75" t="inlineStr"/>
-      <c r="K75" t="inlineStr"/>
+      <c r="K75" t="n">
+        <v>11.7</v>
+      </c>
       <c r="L75" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3331,28 +3567,29 @@
       <c r="M75" t="n">
         <v>1</v>
       </c>
+      <c r="N75" t="inlineStr"/>
     </row>
     <row r="76">
       <c r="A76" s="1" t="n">
         <v>74</v>
       </c>
       <c r="B76" t="n">
-        <v>11.7</v>
+        <v>12.1</v>
       </c>
       <c r="C76" t="n">
-        <v>11.7</v>
+        <v>12.1</v>
       </c>
       <c r="D76" t="n">
-        <v>11.7</v>
+        <v>12.1</v>
       </c>
       <c r="E76" t="n">
-        <v>11.6</v>
+        <v>12.1</v>
       </c>
       <c r="F76" t="n">
-        <v>112470697.5007</v>
+        <v>2303.2476</v>
       </c>
       <c r="G76" t="n">
-        <v>-8506.499512231763</v>
+        <v>12</v>
       </c>
       <c r="H76" t="n">
         <v>0</v>
@@ -3361,7 +3598,9 @@
         <v>0</v>
       </c>
       <c r="J76" t="inlineStr"/>
-      <c r="K76" t="inlineStr"/>
+      <c r="K76" t="n">
+        <v>11.7</v>
+      </c>
       <c r="L76" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3370,28 +3609,29 @@
       <c r="M76" t="n">
         <v>1</v>
       </c>
+      <c r="N76" t="inlineStr"/>
     </row>
     <row r="77">
       <c r="A77" s="1" t="n">
         <v>75</v>
       </c>
       <c r="B77" t="n">
-        <v>11.7</v>
+        <v>12.1</v>
       </c>
       <c r="C77" t="n">
-        <v>11.7</v>
+        <v>12.1</v>
       </c>
       <c r="D77" t="n">
-        <v>11.7</v>
+        <v>12.1</v>
       </c>
       <c r="E77" t="n">
-        <v>11.7</v>
+        <v>12.1</v>
       </c>
       <c r="F77" t="n">
-        <v>186207290.4324</v>
+        <v>5819.577</v>
       </c>
       <c r="G77" t="n">
-        <v>-8506.499512231763</v>
+        <v>12.1</v>
       </c>
       <c r="H77" t="n">
         <v>0</v>
@@ -3400,7 +3640,9 @@
         <v>0</v>
       </c>
       <c r="J77" t="inlineStr"/>
-      <c r="K77" t="inlineStr"/>
+      <c r="K77" t="n">
+        <v>11.7</v>
+      </c>
       <c r="L77" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3409,28 +3651,29 @@
       <c r="M77" t="n">
         <v>1</v>
       </c>
+      <c r="N77" t="inlineStr"/>
     </row>
     <row r="78">
       <c r="A78" s="1" t="n">
         <v>76</v>
       </c>
       <c r="B78" t="n">
-        <v>11.7</v>
+        <v>12</v>
       </c>
       <c r="C78" t="n">
-        <v>11.7</v>
+        <v>11.9</v>
       </c>
       <c r="D78" t="n">
-        <v>11.7</v>
+        <v>12</v>
       </c>
       <c r="E78" t="n">
-        <v>11.7</v>
+        <v>11.9</v>
       </c>
       <c r="F78" t="n">
-        <v>187632281.534</v>
+        <v>189553.5962</v>
       </c>
       <c r="G78" t="n">
-        <v>-8506.499512231763</v>
+        <v>12</v>
       </c>
       <c r="H78" t="n">
         <v>0</v>
@@ -3439,7 +3682,9 @@
         <v>0</v>
       </c>
       <c r="J78" t="inlineStr"/>
-      <c r="K78" t="inlineStr"/>
+      <c r="K78" t="n">
+        <v>11.7</v>
+      </c>
       <c r="L78" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3448,28 +3693,29 @@
       <c r="M78" t="n">
         <v>1</v>
       </c>
+      <c r="N78" t="inlineStr"/>
     </row>
     <row r="79">
       <c r="A79" s="1" t="n">
         <v>77</v>
       </c>
       <c r="B79" t="n">
-        <v>11.7</v>
+        <v>11.9</v>
       </c>
       <c r="C79" t="n">
-        <v>11.7</v>
+        <v>11.9</v>
       </c>
       <c r="D79" t="n">
-        <v>11.7</v>
+        <v>11.9</v>
       </c>
       <c r="E79" t="n">
-        <v>11.7</v>
+        <v>11.9</v>
       </c>
       <c r="F79" t="n">
-        <v>189037860.2988</v>
+        <v>9946.4038</v>
       </c>
       <c r="G79" t="n">
-        <v>-8506.499512231763</v>
+        <v>11.9</v>
       </c>
       <c r="H79" t="n">
         <v>0</v>
@@ -3478,7 +3724,9 @@
         <v>0</v>
       </c>
       <c r="J79" t="inlineStr"/>
-      <c r="K79" t="inlineStr"/>
+      <c r="K79" t="n">
+        <v>11.7</v>
+      </c>
       <c r="L79" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3487,28 +3735,29 @@
       <c r="M79" t="n">
         <v>1</v>
       </c>
+      <c r="N79" t="inlineStr"/>
     </row>
     <row r="80">
       <c r="A80" s="1" t="n">
         <v>78</v>
       </c>
       <c r="B80" t="n">
-        <v>11.7</v>
+        <v>12.1</v>
       </c>
       <c r="C80" t="n">
-        <v>11.7</v>
+        <v>12.1</v>
       </c>
       <c r="D80" t="n">
-        <v>11.7</v>
+        <v>12.1</v>
       </c>
       <c r="E80" t="n">
-        <v>11.7</v>
+        <v>12.1</v>
       </c>
       <c r="F80" t="n">
-        <v>189738700.8229</v>
+        <v>210</v>
       </c>
       <c r="G80" t="n">
-        <v>-8506.499512231763</v>
+        <v>12</v>
       </c>
       <c r="H80" t="n">
         <v>0</v>
@@ -3517,7 +3766,9 @@
         <v>0</v>
       </c>
       <c r="J80" t="inlineStr"/>
-      <c r="K80" t="inlineStr"/>
+      <c r="K80" t="n">
+        <v>11.7</v>
+      </c>
       <c r="L80" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3526,28 +3777,29 @@
       <c r="M80" t="n">
         <v>1</v>
       </c>
+      <c r="N80" t="inlineStr"/>
     </row>
     <row r="81">
       <c r="A81" s="1" t="n">
         <v>79</v>
       </c>
       <c r="B81" t="n">
-        <v>11.7</v>
+        <v>12</v>
       </c>
       <c r="C81" t="n">
-        <v>11.7</v>
+        <v>12</v>
       </c>
       <c r="D81" t="n">
-        <v>11.7</v>
+        <v>12</v>
       </c>
       <c r="E81" t="n">
-        <v>11.7</v>
+        <v>12</v>
       </c>
       <c r="F81" t="n">
-        <v>189733668.404</v>
+        <v>80376.11629999999</v>
       </c>
       <c r="G81" t="n">
-        <v>-8506.499512231763</v>
+        <v>12.05</v>
       </c>
       <c r="H81" t="n">
         <v>0</v>
@@ -3556,7 +3808,9 @@
         <v>0</v>
       </c>
       <c r="J81" t="inlineStr"/>
-      <c r="K81" t="inlineStr"/>
+      <c r="K81" t="n">
+        <v>11.7</v>
+      </c>
       <c r="L81" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3565,28 +3819,29 @@
       <c r="M81" t="n">
         <v>1</v>
       </c>
+      <c r="N81" t="inlineStr"/>
     </row>
     <row r="82">
       <c r="A82" s="1" t="n">
         <v>80</v>
       </c>
       <c r="B82" t="n">
-        <v>11.7</v>
+        <v>12</v>
       </c>
       <c r="C82" t="n">
-        <v>11.7</v>
+        <v>12.1</v>
       </c>
       <c r="D82" t="n">
-        <v>11.7</v>
+        <v>12.1</v>
       </c>
       <c r="E82" t="n">
-        <v>11.7</v>
+        <v>12</v>
       </c>
       <c r="F82" t="n">
-        <v>179900005.3512</v>
+        <v>42788.99898677686</v>
       </c>
       <c r="G82" t="n">
-        <v>-8506.499512231763</v>
+        <v>12.05</v>
       </c>
       <c r="H82" t="n">
         <v>0</v>
@@ -3595,7 +3850,9 @@
         <v>0</v>
       </c>
       <c r="J82" t="inlineStr"/>
-      <c r="K82" t="inlineStr"/>
+      <c r="K82" t="n">
+        <v>11.7</v>
+      </c>
       <c r="L82" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3604,28 +3861,29 @@
       <c r="M82" t="n">
         <v>1</v>
       </c>
+      <c r="N82" t="inlineStr"/>
     </row>
     <row r="83">
       <c r="A83" s="1" t="n">
         <v>81</v>
       </c>
       <c r="B83" t="n">
-        <v>11.7</v>
+        <v>12.1</v>
       </c>
       <c r="C83" t="n">
-        <v>11.7</v>
+        <v>12.1</v>
       </c>
       <c r="D83" t="n">
-        <v>11.7</v>
+        <v>12.1</v>
       </c>
       <c r="E83" t="n">
-        <v>11.7</v>
+        <v>12.1</v>
       </c>
       <c r="F83" t="n">
-        <v>186907693.1443</v>
+        <v>31119.63199173554</v>
       </c>
       <c r="G83" t="n">
-        <v>-8506.499512231763</v>
+        <v>12.1</v>
       </c>
       <c r="H83" t="n">
         <v>0</v>
@@ -3634,7 +3892,9 @@
         <v>0</v>
       </c>
       <c r="J83" t="inlineStr"/>
-      <c r="K83" t="inlineStr"/>
+      <c r="K83" t="n">
+        <v>11.7</v>
+      </c>
       <c r="L83" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3643,28 +3903,29 @@
       <c r="M83" t="n">
         <v>1</v>
       </c>
+      <c r="N83" t="inlineStr"/>
     </row>
     <row r="84">
       <c r="A84" s="1" t="n">
         <v>82</v>
       </c>
       <c r="B84" t="n">
-        <v>11.7</v>
+        <v>12.1</v>
       </c>
       <c r="C84" t="n">
-        <v>11.7</v>
+        <v>12</v>
       </c>
       <c r="D84" t="n">
-        <v>11.7</v>
+        <v>12.1</v>
       </c>
       <c r="E84" t="n">
-        <v>11.7</v>
+        <v>11.9</v>
       </c>
       <c r="F84" t="n">
-        <v>189019743.1377</v>
+        <v>63340.8259</v>
       </c>
       <c r="G84" t="n">
-        <v>-8506.499512231763</v>
+        <v>12.05</v>
       </c>
       <c r="H84" t="n">
         <v>0</v>
@@ -3673,7 +3934,9 @@
         <v>0</v>
       </c>
       <c r="J84" t="inlineStr"/>
-      <c r="K84" t="inlineStr"/>
+      <c r="K84" t="n">
+        <v>11.7</v>
+      </c>
       <c r="L84" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3682,28 +3945,29 @@
       <c r="M84" t="n">
         <v>1</v>
       </c>
+      <c r="N84" t="inlineStr"/>
     </row>
     <row r="85">
       <c r="A85" s="1" t="n">
         <v>83</v>
       </c>
       <c r="B85" t="n">
-        <v>11.7</v>
+        <v>11.9</v>
       </c>
       <c r="C85" t="n">
-        <v>11.7</v>
+        <v>11.9</v>
       </c>
       <c r="D85" t="n">
-        <v>11.7</v>
+        <v>11.9</v>
       </c>
       <c r="E85" t="n">
-        <v>11.7</v>
+        <v>11.9</v>
       </c>
       <c r="F85" t="n">
-        <v>186909832.5976</v>
+        <v>29649.5695</v>
       </c>
       <c r="G85" t="n">
-        <v>-8506.499512231763</v>
+        <v>11.95</v>
       </c>
       <c r="H85" t="n">
         <v>0</v>
@@ -3712,7 +3976,9 @@
         <v>0</v>
       </c>
       <c r="J85" t="inlineStr"/>
-      <c r="K85" t="inlineStr"/>
+      <c r="K85" t="n">
+        <v>11.7</v>
+      </c>
       <c r="L85" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3721,28 +3987,29 @@
       <c r="M85" t="n">
         <v>1</v>
       </c>
+      <c r="N85" t="inlineStr"/>
     </row>
     <row r="86">
       <c r="A86" s="1" t="n">
         <v>84</v>
       </c>
       <c r="B86" t="n">
-        <v>11.7</v>
+        <v>11.9</v>
       </c>
       <c r="C86" t="n">
-        <v>11.7</v>
+        <v>11.9</v>
       </c>
       <c r="D86" t="n">
-        <v>11.7</v>
+        <v>11.9</v>
       </c>
       <c r="E86" t="n">
-        <v>11.7</v>
+        <v>11.9</v>
       </c>
       <c r="F86" t="n">
-        <v>191151814.6144</v>
+        <v>23602.5531</v>
       </c>
       <c r="G86" t="n">
-        <v>-8506.499512231763</v>
+        <v>11.9</v>
       </c>
       <c r="H86" t="n">
         <v>0</v>
@@ -3751,7 +4018,9 @@
         <v>0</v>
       </c>
       <c r="J86" t="inlineStr"/>
-      <c r="K86" t="inlineStr"/>
+      <c r="K86" t="n">
+        <v>11.7</v>
+      </c>
       <c r="L86" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3760,28 +4029,29 @@
       <c r="M86" t="n">
         <v>1</v>
       </c>
+      <c r="N86" t="inlineStr"/>
     </row>
     <row r="87">
       <c r="A87" s="1" t="n">
         <v>85</v>
       </c>
       <c r="B87" t="n">
-        <v>11.7</v>
+        <v>11.9</v>
       </c>
       <c r="C87" t="n">
-        <v>11.7</v>
+        <v>11.9</v>
       </c>
       <c r="D87" t="n">
-        <v>11.7</v>
+        <v>11.9</v>
       </c>
       <c r="E87" t="n">
-        <v>11.7</v>
+        <v>11.9</v>
       </c>
       <c r="F87" t="n">
-        <v>105400215.78</v>
+        <v>24718.9033</v>
       </c>
       <c r="G87" t="n">
-        <v>-8506.499512231763</v>
+        <v>11.9</v>
       </c>
       <c r="H87" t="n">
         <v>0</v>
@@ -3790,7 +4060,9 @@
         <v>0</v>
       </c>
       <c r="J87" t="inlineStr"/>
-      <c r="K87" t="inlineStr"/>
+      <c r="K87" t="n">
+        <v>11.7</v>
+      </c>
       <c r="L87" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3799,28 +4071,29 @@
       <c r="M87" t="n">
         <v>1</v>
       </c>
+      <c r="N87" t="inlineStr"/>
     </row>
     <row r="88">
       <c r="A88" s="1" t="n">
         <v>86</v>
       </c>
       <c r="B88" t="n">
-        <v>11.7</v>
+        <v>11.9</v>
       </c>
       <c r="C88" t="n">
-        <v>11.7</v>
+        <v>11.9</v>
       </c>
       <c r="D88" t="n">
-        <v>11.7</v>
+        <v>11.9</v>
       </c>
       <c r="E88" t="n">
-        <v>11.7</v>
+        <v>11.9</v>
       </c>
       <c r="F88" t="n">
-        <v>178811966.5981</v>
+        <v>25652.1657</v>
       </c>
       <c r="G88" t="n">
-        <v>-8506.499512231763</v>
+        <v>11.9</v>
       </c>
       <c r="H88" t="n">
         <v>0</v>
@@ -3829,7 +4102,9 @@
         <v>0</v>
       </c>
       <c r="J88" t="inlineStr"/>
-      <c r="K88" t="inlineStr"/>
+      <c r="K88" t="n">
+        <v>11.7</v>
+      </c>
       <c r="L88" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3838,28 +4113,29 @@
       <c r="M88" t="n">
         <v>1</v>
       </c>
+      <c r="N88" t="inlineStr"/>
     </row>
     <row r="89">
       <c r="A89" s="1" t="n">
         <v>87</v>
       </c>
       <c r="B89" t="n">
-        <v>11.7</v>
+        <v>12</v>
       </c>
       <c r="C89" t="n">
-        <v>11.7</v>
+        <v>12</v>
       </c>
       <c r="D89" t="n">
-        <v>11.7</v>
+        <v>12</v>
       </c>
       <c r="E89" t="n">
-        <v>11.7</v>
+        <v>12</v>
       </c>
       <c r="F89" t="n">
-        <v>190423056.5092</v>
+        <v>8333.3334</v>
       </c>
       <c r="G89" t="n">
-        <v>-8506.499512231763</v>
+        <v>11.95</v>
       </c>
       <c r="H89" t="n">
         <v>0</v>
@@ -3868,7 +4144,9 @@
         <v>0</v>
       </c>
       <c r="J89" t="inlineStr"/>
-      <c r="K89" t="inlineStr"/>
+      <c r="K89" t="n">
+        <v>11.7</v>
+      </c>
       <c r="L89" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3877,28 +4155,29 @@
       <c r="M89" t="n">
         <v>1</v>
       </c>
+      <c r="N89" t="inlineStr"/>
     </row>
     <row r="90">
       <c r="A90" s="1" t="n">
         <v>88</v>
       </c>
       <c r="B90" t="n">
-        <v>11.7</v>
+        <v>11.9</v>
       </c>
       <c r="C90" t="n">
-        <v>11.7</v>
+        <v>11.9</v>
       </c>
       <c r="D90" t="n">
-        <v>11.7</v>
+        <v>11.9</v>
       </c>
       <c r="E90" t="n">
-        <v>11.7</v>
+        <v>11.9</v>
       </c>
       <c r="F90" t="n">
-        <v>189720388.404</v>
+        <v>1591.9618</v>
       </c>
       <c r="G90" t="n">
-        <v>-8506.499512231763</v>
+        <v>11.95</v>
       </c>
       <c r="H90" t="n">
         <v>0</v>
@@ -3907,7 +4186,9 @@
         <v>0</v>
       </c>
       <c r="J90" t="inlineStr"/>
-      <c r="K90" t="inlineStr"/>
+      <c r="K90" t="n">
+        <v>11.7</v>
+      </c>
       <c r="L90" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3916,28 +4197,29 @@
       <c r="M90" t="n">
         <v>1</v>
       </c>
+      <c r="N90" t="inlineStr"/>
     </row>
     <row r="91">
       <c r="A91" s="1" t="n">
         <v>89</v>
       </c>
       <c r="B91" t="n">
-        <v>11.7</v>
+        <v>11.9</v>
       </c>
       <c r="C91" t="n">
-        <v>11.8</v>
+        <v>11.9</v>
       </c>
       <c r="D91" t="n">
-        <v>11.8</v>
+        <v>11.9</v>
       </c>
       <c r="E91" t="n">
-        <v>11.7</v>
+        <v>11.9</v>
       </c>
       <c r="F91" t="n">
-        <v>5599959.6117</v>
+        <v>117.7310924369748</v>
       </c>
       <c r="G91" t="n">
-        <v>5591453.112187768</v>
+        <v>11.9</v>
       </c>
       <c r="H91" t="n">
         <v>0</v>
@@ -3946,7 +4228,9 @@
         <v>0</v>
       </c>
       <c r="J91" t="inlineStr"/>
-      <c r="K91" t="inlineStr"/>
+      <c r="K91" t="n">
+        <v>11.7</v>
+      </c>
       <c r="L91" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3955,28 +4239,29 @@
       <c r="M91" t="n">
         <v>1</v>
       </c>
+      <c r="N91" t="inlineStr"/>
     </row>
     <row r="92">
       <c r="A92" s="1" t="n">
         <v>90</v>
       </c>
       <c r="B92" t="n">
-        <v>11.8</v>
+        <v>11.9</v>
       </c>
       <c r="C92" t="n">
-        <v>11.8</v>
+        <v>11.9</v>
       </c>
       <c r="D92" t="n">
-        <v>11.8</v>
+        <v>11.9</v>
       </c>
       <c r="E92" t="n">
-        <v>11.8</v>
+        <v>11.9</v>
       </c>
       <c r="F92" t="n">
-        <v>4891.0665</v>
+        <v>117.8151260504202</v>
       </c>
       <c r="G92" t="n">
-        <v>5591453.112187768</v>
+        <v>11.9</v>
       </c>
       <c r="H92" t="n">
         <v>0</v>
@@ -3985,7 +4270,9 @@
         <v>0</v>
       </c>
       <c r="J92" t="inlineStr"/>
-      <c r="K92" t="inlineStr"/>
+      <c r="K92" t="n">
+        <v>11.7</v>
+      </c>
       <c r="L92" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3994,6 +4281,7 @@
       <c r="M92" t="n">
         <v>1</v>
       </c>
+      <c r="N92" t="inlineStr"/>
     </row>
     <row r="93">
       <c r="A93" s="1" t="n">
@@ -4012,10 +4300,10 @@
         <v>11.8</v>
       </c>
       <c r="F93" t="n">
-        <v>100000</v>
+        <v>4948.4236</v>
       </c>
       <c r="G93" t="n">
-        <v>5591453.112187768</v>
+        <v>11.85</v>
       </c>
       <c r="H93" t="n">
         <v>0</v>
@@ -4024,7 +4312,9 @@
         <v>0</v>
       </c>
       <c r="J93" t="inlineStr"/>
-      <c r="K93" t="inlineStr"/>
+      <c r="K93" t="n">
+        <v>11.7</v>
+      </c>
       <c r="L93" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4033,6 +4323,7 @@
       <c r="M93" t="n">
         <v>1</v>
       </c>
+      <c r="N93" t="inlineStr"/>
     </row>
     <row r="94">
       <c r="A94" s="1" t="n">
@@ -4051,10 +4342,10 @@
         <v>11.8</v>
       </c>
       <c r="F94" t="n">
-        <v>2000</v>
+        <v>146865</v>
       </c>
       <c r="G94" t="n">
-        <v>5591453.112187768</v>
+        <v>11.80000000000001</v>
       </c>
       <c r="H94" t="n">
         <v>0</v>
@@ -4063,7 +4354,9 @@
         <v>0</v>
       </c>
       <c r="J94" t="inlineStr"/>
-      <c r="K94" t="inlineStr"/>
+      <c r="K94" t="n">
+        <v>11.7</v>
+      </c>
       <c r="L94" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4072,28 +4365,29 @@
       <c r="M94" t="n">
         <v>1</v>
       </c>
+      <c r="N94" t="inlineStr"/>
     </row>
     <row r="95">
       <c r="A95" s="1" t="n">
         <v>93</v>
       </c>
       <c r="B95" t="n">
-        <v>11.9</v>
+        <v>11.8</v>
       </c>
       <c r="C95" t="n">
-        <v>11.9</v>
+        <v>11.7</v>
       </c>
       <c r="D95" t="n">
-        <v>11.9</v>
+        <v>11.8</v>
       </c>
       <c r="E95" t="n">
-        <v>11.9</v>
+        <v>11.7</v>
       </c>
       <c r="F95" t="n">
-        <v>251.3883</v>
+        <v>270316.671</v>
       </c>
       <c r="G95" t="n">
-        <v>5591704.500487768</v>
+        <v>11.75000000000001</v>
       </c>
       <c r="H95" t="n">
         <v>0</v>
@@ -4102,7 +4396,9 @@
         <v>0</v>
       </c>
       <c r="J95" t="inlineStr"/>
-      <c r="K95" t="inlineStr"/>
+      <c r="K95" t="n">
+        <v>11.7</v>
+      </c>
       <c r="L95" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4111,28 +4407,29 @@
       <c r="M95" t="n">
         <v>1</v>
       </c>
+      <c r="N95" t="inlineStr"/>
     </row>
     <row r="96">
       <c r="A96" s="1" t="n">
         <v>94</v>
       </c>
       <c r="B96" t="n">
-        <v>11.9</v>
+        <v>11.7</v>
       </c>
       <c r="C96" t="n">
-        <v>11.9</v>
+        <v>11.7</v>
       </c>
       <c r="D96" t="n">
-        <v>11.9</v>
+        <v>11.7</v>
       </c>
       <c r="E96" t="n">
-        <v>11.9</v>
+        <v>11.7</v>
       </c>
       <c r="F96" t="n">
-        <v>4201.680672268908</v>
+        <v>100000</v>
       </c>
       <c r="G96" t="n">
-        <v>5591704.500487768</v>
+        <v>11.7</v>
       </c>
       <c r="H96" t="n">
         <v>0</v>
@@ -4141,7 +4438,9 @@
         <v>0</v>
       </c>
       <c r="J96" t="inlineStr"/>
-      <c r="K96" t="inlineStr"/>
+      <c r="K96" t="n">
+        <v>11.7</v>
+      </c>
       <c r="L96" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4150,28 +4449,29 @@
       <c r="M96" t="n">
         <v>1</v>
       </c>
+      <c r="N96" t="inlineStr"/>
     </row>
     <row r="97">
       <c r="A97" s="1" t="n">
         <v>95</v>
       </c>
       <c r="B97" t="n">
-        <v>11.8</v>
+        <v>11.7</v>
       </c>
       <c r="C97" t="n">
-        <v>11.8</v>
+        <v>11.7</v>
       </c>
       <c r="D97" t="n">
-        <v>11.8</v>
+        <v>11.7</v>
       </c>
       <c r="E97" t="n">
-        <v>11.8</v>
+        <v>11.7</v>
       </c>
       <c r="F97" t="n">
-        <v>1733.9769</v>
+        <v>100000</v>
       </c>
       <c r="G97" t="n">
-        <v>5589970.523587768</v>
+        <v>11.7</v>
       </c>
       <c r="H97" t="n">
         <v>0</v>
@@ -4180,7 +4480,9 @@
         <v>0</v>
       </c>
       <c r="J97" t="inlineStr"/>
-      <c r="K97" t="inlineStr"/>
+      <c r="K97" t="n">
+        <v>11.7</v>
+      </c>
       <c r="L97" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4189,6 +4491,7 @@
       <c r="M97" t="n">
         <v>1</v>
       </c>
+      <c r="N97" t="inlineStr"/>
     </row>
     <row r="98">
       <c r="A98" s="1" t="n">
@@ -4207,10 +4510,10 @@
         <v>11.7</v>
       </c>
       <c r="F98" t="n">
-        <v>58830</v>
+        <v>74084.7746</v>
       </c>
       <c r="G98" t="n">
-        <v>5531140.523587768</v>
+        <v>11.7</v>
       </c>
       <c r="H98" t="n">
         <v>0</v>
@@ -4219,7 +4522,9 @@
         <v>0</v>
       </c>
       <c r="J98" t="inlineStr"/>
-      <c r="K98" t="inlineStr"/>
+      <c r="K98" t="n">
+        <v>11.7</v>
+      </c>
       <c r="L98" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4228,6 +4533,7 @@
       <c r="M98" t="n">
         <v>1</v>
       </c>
+      <c r="N98" t="inlineStr"/>
     </row>
     <row r="99">
       <c r="A99" s="1" t="n">
@@ -4246,10 +4552,10 @@
         <v>11.8</v>
       </c>
       <c r="F99" t="n">
-        <v>123789.0642</v>
+        <v>9014.7901</v>
       </c>
       <c r="G99" t="n">
-        <v>5654929.587787768</v>
+        <v>11.75000000000001</v>
       </c>
       <c r="H99" t="n">
         <v>0</v>
@@ -4258,7 +4564,9 @@
         <v>0</v>
       </c>
       <c r="J99" t="inlineStr"/>
-      <c r="K99" t="inlineStr"/>
+      <c r="K99" t="n">
+        <v>11.7</v>
+      </c>
       <c r="L99" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4267,28 +4575,29 @@
       <c r="M99" t="n">
         <v>1</v>
       </c>
+      <c r="N99" t="inlineStr"/>
     </row>
     <row r="100">
       <c r="A100" s="1" t="n">
         <v>98</v>
       </c>
       <c r="B100" t="n">
-        <v>11.9</v>
+        <v>11.8</v>
       </c>
       <c r="C100" t="n">
-        <v>11.9</v>
+        <v>11.8</v>
       </c>
       <c r="D100" t="n">
-        <v>11.9</v>
+        <v>11.8</v>
       </c>
       <c r="E100" t="n">
-        <v>11.9</v>
+        <v>11.8</v>
       </c>
       <c r="F100" t="n">
-        <v>89823.7029</v>
+        <v>100</v>
       </c>
       <c r="G100" t="n">
-        <v>5744753.290687768</v>
+        <v>11.80000000000001</v>
       </c>
       <c r="H100" t="n">
         <v>0</v>
@@ -4297,7 +4606,9 @@
         <v>0</v>
       </c>
       <c r="J100" t="inlineStr"/>
-      <c r="K100" t="inlineStr"/>
+      <c r="K100" t="n">
+        <v>11.7</v>
+      </c>
       <c r="L100" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4306,28 +4617,29 @@
       <c r="M100" t="n">
         <v>1</v>
       </c>
+      <c r="N100" t="inlineStr"/>
     </row>
     <row r="101">
       <c r="A101" s="1" t="n">
         <v>99</v>
       </c>
       <c r="B101" t="n">
-        <v>11.9</v>
+        <v>11.8</v>
       </c>
       <c r="C101" t="n">
-        <v>11.9</v>
+        <v>11.8</v>
       </c>
       <c r="D101" t="n">
-        <v>11.9</v>
+        <v>11.8</v>
       </c>
       <c r="E101" t="n">
-        <v>11.9</v>
+        <v>11.8</v>
       </c>
       <c r="F101" t="n">
-        <v>49.9214</v>
+        <v>3360</v>
       </c>
       <c r="G101" t="n">
-        <v>5744753.290687768</v>
+        <v>11.80000000000001</v>
       </c>
       <c r="H101" t="n">
         <v>0</v>
@@ -4336,7 +4648,9 @@
         <v>0</v>
       </c>
       <c r="J101" t="inlineStr"/>
-      <c r="K101" t="inlineStr"/>
+      <c r="K101" t="n">
+        <v>11.7</v>
+      </c>
       <c r="L101" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4345,28 +4659,29 @@
       <c r="M101" t="n">
         <v>1</v>
       </c>
+      <c r="N101" t="inlineStr"/>
     </row>
     <row r="102">
       <c r="A102" s="1" t="n">
         <v>100</v>
       </c>
       <c r="B102" t="n">
-        <v>11.9</v>
+        <v>11.8</v>
       </c>
       <c r="C102" t="n">
-        <v>12.1</v>
+        <v>11.7</v>
       </c>
       <c r="D102" t="n">
-        <v>12.1</v>
+        <v>11.8</v>
       </c>
       <c r="E102" t="n">
-        <v>11.9</v>
+        <v>11.7</v>
       </c>
       <c r="F102" t="n">
-        <v>154646.1387492187</v>
+        <v>8301.961799999999</v>
       </c>
       <c r="G102" t="n">
-        <v>5899399.429436986</v>
+        <v>11.75000000000001</v>
       </c>
       <c r="H102" t="n">
         <v>0</v>
@@ -4375,7 +4690,9 @@
         <v>0</v>
       </c>
       <c r="J102" t="inlineStr"/>
-      <c r="K102" t="inlineStr"/>
+      <c r="K102" t="n">
+        <v>11.7</v>
+      </c>
       <c r="L102" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4384,28 +4701,29 @@
       <c r="M102" t="n">
         <v>1</v>
       </c>
+      <c r="N102" t="inlineStr"/>
     </row>
     <row r="103">
       <c r="A103" s="1" t="n">
         <v>101</v>
       </c>
       <c r="B103" t="n">
-        <v>12.1</v>
+        <v>11.8</v>
       </c>
       <c r="C103" t="n">
-        <v>12.1</v>
+        <v>11.8</v>
       </c>
       <c r="D103" t="n">
-        <v>12.1</v>
+        <v>11.8</v>
       </c>
       <c r="E103" t="n">
-        <v>12.1</v>
+        <v>11.8</v>
       </c>
       <c r="F103" t="n">
-        <v>1980.0993</v>
+        <v>1590</v>
       </c>
       <c r="G103" t="n">
-        <v>5899399.429436986</v>
+        <v>11.75000000000001</v>
       </c>
       <c r="H103" t="n">
         <v>0</v>
@@ -4414,7 +4732,9 @@
         <v>0</v>
       </c>
       <c r="J103" t="inlineStr"/>
-      <c r="K103" t="inlineStr"/>
+      <c r="K103" t="n">
+        <v>11.7</v>
+      </c>
       <c r="L103" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4423,28 +4743,29 @@
       <c r="M103" t="n">
         <v>1</v>
       </c>
+      <c r="N103" t="inlineStr"/>
     </row>
     <row r="104">
       <c r="A104" s="1" t="n">
         <v>102</v>
       </c>
       <c r="B104" t="n">
-        <v>12</v>
+        <v>11.8</v>
       </c>
       <c r="C104" t="n">
-        <v>12</v>
+        <v>11.8</v>
       </c>
       <c r="D104" t="n">
-        <v>12</v>
+        <v>11.8</v>
       </c>
       <c r="E104" t="n">
-        <v>12</v>
+        <v>11.8</v>
       </c>
       <c r="F104" t="n">
-        <v>134024.0411</v>
+        <v>100000</v>
       </c>
       <c r="G104" t="n">
-        <v>5765375.388336986</v>
+        <v>11.80000000000001</v>
       </c>
       <c r="H104" t="n">
         <v>0</v>
@@ -4453,7 +4774,9 @@
         <v>0</v>
       </c>
       <c r="J104" t="inlineStr"/>
-      <c r="K104" t="inlineStr"/>
+      <c r="K104" t="n">
+        <v>11.7</v>
+      </c>
       <c r="L104" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4462,28 +4785,29 @@
       <c r="M104" t="n">
         <v>1</v>
       </c>
+      <c r="N104" t="inlineStr"/>
     </row>
     <row r="105">
       <c r="A105" s="1" t="n">
         <v>103</v>
       </c>
       <c r="B105" t="n">
-        <v>12</v>
+        <v>11.7</v>
       </c>
       <c r="C105" t="n">
-        <v>12</v>
+        <v>11.7</v>
       </c>
       <c r="D105" t="n">
-        <v>12</v>
+        <v>11.7</v>
       </c>
       <c r="E105" t="n">
-        <v>12</v>
+        <v>11.7</v>
       </c>
       <c r="F105" t="n">
-        <v>1000</v>
+        <v>21436.8989</v>
       </c>
       <c r="G105" t="n">
-        <v>5765375.388336986</v>
+        <v>11.75000000000001</v>
       </c>
       <c r="H105" t="n">
         <v>0</v>
@@ -4492,7 +4816,9 @@
         <v>0</v>
       </c>
       <c r="J105" t="inlineStr"/>
-      <c r="K105" t="inlineStr"/>
+      <c r="K105" t="n">
+        <v>11.7</v>
+      </c>
       <c r="L105" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4501,28 +4827,29 @@
       <c r="M105" t="n">
         <v>1</v>
       </c>
+      <c r="N105" t="inlineStr"/>
     </row>
     <row r="106">
       <c r="A106" s="1" t="n">
         <v>104</v>
       </c>
       <c r="B106" t="n">
-        <v>12</v>
+        <v>11.7</v>
       </c>
       <c r="C106" t="n">
-        <v>12</v>
+        <v>11.7</v>
       </c>
       <c r="D106" t="n">
-        <v>12</v>
+        <v>11.7</v>
       </c>
       <c r="E106" t="n">
-        <v>12</v>
+        <v>11.7</v>
       </c>
       <c r="F106" t="n">
-        <v>41487.3614</v>
+        <v>80546.3033</v>
       </c>
       <c r="G106" t="n">
-        <v>5765375.388336986</v>
+        <v>11.7</v>
       </c>
       <c r="H106" t="n">
         <v>0</v>
@@ -4531,7 +4858,9 @@
         <v>0</v>
       </c>
       <c r="J106" t="inlineStr"/>
-      <c r="K106" t="inlineStr"/>
+      <c r="K106" t="n">
+        <v>11.7</v>
+      </c>
       <c r="L106" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4540,28 +4869,29 @@
       <c r="M106" t="n">
         <v>1</v>
       </c>
+      <c r="N106" t="inlineStr"/>
     </row>
     <row r="107">
       <c r="A107" s="1" t="n">
         <v>105</v>
       </c>
       <c r="B107" t="n">
-        <v>12.1</v>
+        <v>11.6</v>
       </c>
       <c r="C107" t="n">
-        <v>12.1</v>
+        <v>11.6</v>
       </c>
       <c r="D107" t="n">
-        <v>12.1</v>
+        <v>11.6</v>
       </c>
       <c r="E107" t="n">
-        <v>12.1</v>
+        <v>11.6</v>
       </c>
       <c r="F107" t="n">
-        <v>11937.9435</v>
+        <v>235.5462</v>
       </c>
       <c r="G107" t="n">
-        <v>5777313.331836986</v>
+        <v>11.65</v>
       </c>
       <c r="H107" t="n">
         <v>0</v>
@@ -4570,7 +4900,9 @@
         <v>0</v>
       </c>
       <c r="J107" t="inlineStr"/>
-      <c r="K107" t="inlineStr"/>
+      <c r="K107" t="n">
+        <v>11.7</v>
+      </c>
       <c r="L107" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4579,28 +4911,29 @@
       <c r="M107" t="n">
         <v>1</v>
       </c>
+      <c r="N107" t="inlineStr"/>
     </row>
     <row r="108">
       <c r="A108" s="1" t="n">
         <v>106</v>
       </c>
       <c r="B108" t="n">
-        <v>12.1</v>
+        <v>11.6</v>
       </c>
       <c r="C108" t="n">
-        <v>12.1</v>
+        <v>11.6</v>
       </c>
       <c r="D108" t="n">
-        <v>12.1</v>
+        <v>11.6</v>
       </c>
       <c r="E108" t="n">
-        <v>12.1</v>
+        <v>11.6</v>
       </c>
       <c r="F108" t="n">
-        <v>17840.68947851239</v>
+        <v>8696.2371</v>
       </c>
       <c r="G108" t="n">
-        <v>5777313.331836986</v>
+        <v>11.6</v>
       </c>
       <c r="H108" t="n">
         <v>0</v>
@@ -4609,7 +4942,9 @@
         <v>0</v>
       </c>
       <c r="J108" t="inlineStr"/>
-      <c r="K108" t="inlineStr"/>
+      <c r="K108" t="n">
+        <v>11.7</v>
+      </c>
       <c r="L108" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4618,28 +4953,29 @@
       <c r="M108" t="n">
         <v>1</v>
       </c>
+      <c r="N108" t="inlineStr"/>
     </row>
     <row r="109">
       <c r="A109" s="1" t="n">
         <v>107</v>
       </c>
       <c r="B109" t="n">
-        <v>12.2</v>
+        <v>11.7</v>
       </c>
       <c r="C109" t="n">
-        <v>12.1</v>
+        <v>11.6</v>
       </c>
       <c r="D109" t="n">
-        <v>12.2</v>
+        <v>11.7</v>
       </c>
       <c r="E109" t="n">
-        <v>12.1</v>
+        <v>11.6</v>
       </c>
       <c r="F109" t="n">
-        <v>85476.65089999999</v>
+        <v>75906.85980000001</v>
       </c>
       <c r="G109" t="n">
-        <v>5777313.331836986</v>
+        <v>11.6</v>
       </c>
       <c r="H109" t="n">
         <v>0</v>
@@ -4648,7 +4984,9 @@
         <v>0</v>
       </c>
       <c r="J109" t="inlineStr"/>
-      <c r="K109" t="inlineStr"/>
+      <c r="K109" t="n">
+        <v>11.7</v>
+      </c>
       <c r="L109" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4657,28 +4995,29 @@
       <c r="M109" t="n">
         <v>1</v>
       </c>
+      <c r="N109" t="inlineStr"/>
     </row>
     <row r="110">
       <c r="A110" s="1" t="n">
         <v>108</v>
       </c>
       <c r="B110" t="n">
-        <v>12.2</v>
+        <v>11.6</v>
       </c>
       <c r="C110" t="n">
-        <v>12.2</v>
+        <v>11.6</v>
       </c>
       <c r="D110" t="n">
-        <v>12.2</v>
+        <v>11.6</v>
       </c>
       <c r="E110" t="n">
-        <v>12.2</v>
+        <v>11.6</v>
       </c>
       <c r="F110" t="n">
-        <v>102072.4842</v>
+        <v>4201.6807</v>
       </c>
       <c r="G110" t="n">
-        <v>5879385.816036986</v>
+        <v>11.6</v>
       </c>
       <c r="H110" t="n">
         <v>0</v>
@@ -4687,7 +5026,9 @@
         <v>0</v>
       </c>
       <c r="J110" t="inlineStr"/>
-      <c r="K110" t="inlineStr"/>
+      <c r="K110" t="n">
+        <v>11.7</v>
+      </c>
       <c r="L110" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4696,28 +5037,29 @@
       <c r="M110" t="n">
         <v>1</v>
       </c>
+      <c r="N110" t="inlineStr"/>
     </row>
     <row r="111">
       <c r="A111" s="1" t="n">
         <v>109</v>
       </c>
       <c r="B111" t="n">
-        <v>12.1</v>
+        <v>11.8</v>
       </c>
       <c r="C111" t="n">
-        <v>12.1</v>
+        <v>11.8</v>
       </c>
       <c r="D111" t="n">
-        <v>12.1</v>
+        <v>11.8</v>
       </c>
       <c r="E111" t="n">
-        <v>12.1</v>
+        <v>11.8</v>
       </c>
       <c r="F111" t="n">
-        <v>3539</v>
+        <v>5000</v>
       </c>
       <c r="G111" t="n">
-        <v>5875846.816036986</v>
+        <v>11.7</v>
       </c>
       <c r="H111" t="n">
         <v>0</v>
@@ -4726,7 +5068,9 @@
         <v>0</v>
       </c>
       <c r="J111" t="inlineStr"/>
-      <c r="K111" t="inlineStr"/>
+      <c r="K111" t="n">
+        <v>11.7</v>
+      </c>
       <c r="L111" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4735,28 +5079,29 @@
       <c r="M111" t="n">
         <v>1</v>
       </c>
+      <c r="N111" t="inlineStr"/>
     </row>
     <row r="112">
       <c r="A112" s="1" t="n">
         <v>110</v>
       </c>
       <c r="B112" t="n">
-        <v>12.3</v>
+        <v>11.8</v>
       </c>
       <c r="C112" t="n">
-        <v>12.3</v>
+        <v>11.8</v>
       </c>
       <c r="D112" t="n">
-        <v>12.3</v>
+        <v>11.8</v>
       </c>
       <c r="E112" t="n">
-        <v>12.3</v>
+        <v>11.8</v>
       </c>
       <c r="F112" t="n">
-        <v>41</v>
+        <v>13163.9409</v>
       </c>
       <c r="G112" t="n">
-        <v>5875887.816036986</v>
+        <v>11.8</v>
       </c>
       <c r="H112" t="n">
         <v>0</v>
@@ -4765,7 +5110,9 @@
         <v>0</v>
       </c>
       <c r="J112" t="inlineStr"/>
-      <c r="K112" t="inlineStr"/>
+      <c r="K112" t="n">
+        <v>11.7</v>
+      </c>
       <c r="L112" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4774,28 +5121,29 @@
       <c r="M112" t="n">
         <v>1</v>
       </c>
+      <c r="N112" t="inlineStr"/>
     </row>
     <row r="113">
       <c r="A113" s="1" t="n">
         <v>111</v>
       </c>
       <c r="B113" t="n">
-        <v>12.3</v>
+        <v>11.8</v>
       </c>
       <c r="C113" t="n">
-        <v>12.3</v>
+        <v>11.8</v>
       </c>
       <c r="D113" t="n">
-        <v>12.3</v>
+        <v>11.8</v>
       </c>
       <c r="E113" t="n">
-        <v>12.3</v>
+        <v>11.8</v>
       </c>
       <c r="F113" t="n">
-        <v>47091.4205</v>
+        <v>33000</v>
       </c>
       <c r="G113" t="n">
-        <v>5875887.816036986</v>
+        <v>11.8</v>
       </c>
       <c r="H113" t="n">
         <v>0</v>
@@ -4804,7 +5152,9 @@
         <v>0</v>
       </c>
       <c r="J113" t="inlineStr"/>
-      <c r="K113" t="inlineStr"/>
+      <c r="K113" t="n">
+        <v>11.7</v>
+      </c>
       <c r="L113" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4813,65 +5163,71 @@
       <c r="M113" t="n">
         <v>1</v>
       </c>
+      <c r="N113" t="inlineStr"/>
     </row>
     <row r="114">
       <c r="A114" s="1" t="n">
         <v>112</v>
       </c>
       <c r="B114" t="n">
-        <v>12.1</v>
+        <v>11.8</v>
       </c>
       <c r="C114" t="n">
-        <v>12.1</v>
+        <v>11.8</v>
       </c>
       <c r="D114" t="n">
-        <v>12.1</v>
+        <v>11.8</v>
       </c>
       <c r="E114" t="n">
-        <v>12.1</v>
+        <v>11.8</v>
       </c>
       <c r="F114" t="n">
-        <v>2500</v>
+        <v>10950.3295</v>
       </c>
       <c r="G114" t="n">
-        <v>5873387.816036986</v>
+        <v>11.8</v>
       </c>
       <c r="H114" t="n">
         <v>0</v>
       </c>
       <c r="I114" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J114" t="inlineStr"/>
-      <c r="K114" t="inlineStr"/>
+      <c r="K114" t="n">
+        <v>11.7</v>
+      </c>
       <c r="L114" t="inlineStr">
         <is>
-          <t>매도 체결</t>
-        </is>
-      </c>
-      <c r="M114" t="inlineStr"/>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M114" t="n">
+        <v>1</v>
+      </c>
+      <c r="N114" t="inlineStr"/>
     </row>
     <row r="115">
       <c r="A115" s="1" t="n">
         <v>113</v>
       </c>
       <c r="B115" t="n">
-        <v>12.1</v>
+        <v>11.7</v>
       </c>
       <c r="C115" t="n">
-        <v>12</v>
+        <v>11.6</v>
       </c>
       <c r="D115" t="n">
-        <v>12.1</v>
+        <v>11.7</v>
       </c>
       <c r="E115" t="n">
-        <v>12</v>
+        <v>11.6</v>
       </c>
       <c r="F115" t="n">
-        <v>69267.75992148761</v>
+        <v>177882.793</v>
       </c>
       <c r="G115" t="n">
-        <v>5804120.056115499</v>
+        <v>11.7</v>
       </c>
       <c r="H115" t="n">
         <v>0</v>
@@ -4880,33 +5236,40 @@
         <v>0</v>
       </c>
       <c r="J115" t="inlineStr"/>
-      <c r="K115" t="inlineStr"/>
-      <c r="L115" t="inlineStr"/>
+      <c r="K115" t="n">
+        <v>11.7</v>
+      </c>
+      <c r="L115" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M115" t="n">
         <v>1</v>
       </c>
+      <c r="N115" t="inlineStr"/>
     </row>
     <row r="116">
       <c r="A116" s="1" t="n">
         <v>114</v>
       </c>
       <c r="B116" t="n">
-        <v>12</v>
+        <v>11.6</v>
       </c>
       <c r="C116" t="n">
-        <v>12</v>
+        <v>11.6</v>
       </c>
       <c r="D116" t="n">
-        <v>12</v>
+        <v>11.6</v>
       </c>
       <c r="E116" t="n">
-        <v>12</v>
+        <v>11.6</v>
       </c>
       <c r="F116" t="n">
-        <v>3350</v>
+        <v>4300</v>
       </c>
       <c r="G116" t="n">
-        <v>5804120.056115499</v>
+        <v>11.6</v>
       </c>
       <c r="H116" t="n">
         <v>0</v>
@@ -4915,33 +5278,40 @@
         <v>0</v>
       </c>
       <c r="J116" t="inlineStr"/>
-      <c r="K116" t="inlineStr"/>
-      <c r="L116" t="inlineStr"/>
+      <c r="K116" t="n">
+        <v>11.7</v>
+      </c>
+      <c r="L116" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M116" t="n">
         <v>1</v>
       </c>
+      <c r="N116" t="inlineStr"/>
     </row>
     <row r="117">
       <c r="A117" s="1" t="n">
         <v>115</v>
       </c>
       <c r="B117" t="n">
-        <v>12</v>
+        <v>11.7</v>
       </c>
       <c r="C117" t="n">
-        <v>11.9</v>
+        <v>11.7</v>
       </c>
       <c r="D117" t="n">
-        <v>12</v>
+        <v>11.7</v>
       </c>
       <c r="E117" t="n">
-        <v>11.9</v>
+        <v>11.7</v>
       </c>
       <c r="F117" t="n">
-        <v>25869.7773</v>
+        <v>1100</v>
       </c>
       <c r="G117" t="n">
-        <v>5778250.278815499</v>
+        <v>11.65</v>
       </c>
       <c r="H117" t="n">
         <v>0</v>
@@ -4950,33 +5320,40 @@
         <v>0</v>
       </c>
       <c r="J117" t="inlineStr"/>
-      <c r="K117" t="inlineStr"/>
-      <c r="L117" t="inlineStr"/>
+      <c r="K117" t="n">
+        <v>11.7</v>
+      </c>
+      <c r="L117" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M117" t="n">
         <v>1</v>
       </c>
+      <c r="N117" t="inlineStr"/>
     </row>
     <row r="118">
       <c r="A118" s="1" t="n">
         <v>116</v>
       </c>
       <c r="B118" t="n">
-        <v>12.1</v>
+        <v>11.7</v>
       </c>
       <c r="C118" t="n">
-        <v>12.1</v>
+        <v>11.7</v>
       </c>
       <c r="D118" t="n">
-        <v>12.1</v>
+        <v>11.7</v>
       </c>
       <c r="E118" t="n">
-        <v>12.1</v>
+        <v>11.7</v>
       </c>
       <c r="F118" t="n">
-        <v>2303.2476</v>
+        <v>97127.8533</v>
       </c>
       <c r="G118" t="n">
-        <v>5780553.526415499</v>
+        <v>11.7</v>
       </c>
       <c r="H118" t="n">
         <v>0</v>
@@ -4985,33 +5362,40 @@
         <v>0</v>
       </c>
       <c r="J118" t="inlineStr"/>
-      <c r="K118" t="inlineStr"/>
-      <c r="L118" t="inlineStr"/>
+      <c r="K118" t="n">
+        <v>11.7</v>
+      </c>
+      <c r="L118" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M118" t="n">
         <v>1</v>
       </c>
+      <c r="N118" t="inlineStr"/>
     </row>
     <row r="119">
       <c r="A119" s="1" t="n">
         <v>117</v>
       </c>
       <c r="B119" t="n">
-        <v>12.1</v>
+        <v>11.8</v>
       </c>
       <c r="C119" t="n">
-        <v>12.1</v>
+        <v>11.8</v>
       </c>
       <c r="D119" t="n">
-        <v>12.1</v>
+        <v>11.8</v>
       </c>
       <c r="E119" t="n">
-        <v>12.1</v>
+        <v>11.8</v>
       </c>
       <c r="F119" t="n">
-        <v>5819.577</v>
+        <v>11170</v>
       </c>
       <c r="G119" t="n">
-        <v>5780553.526415499</v>
+        <v>11.75</v>
       </c>
       <c r="H119" t="n">
         <v>0</v>
@@ -5020,68 +5404,82 @@
         <v>0</v>
       </c>
       <c r="J119" t="inlineStr"/>
-      <c r="K119" t="inlineStr"/>
-      <c r="L119" t="inlineStr"/>
+      <c r="K119" t="n">
+        <v>11.7</v>
+      </c>
+      <c r="L119" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M119" t="n">
         <v>1</v>
       </c>
+      <c r="N119" t="inlineStr"/>
     </row>
     <row r="120">
       <c r="A120" s="1" t="n">
         <v>118</v>
       </c>
       <c r="B120" t="n">
-        <v>12</v>
+        <v>11.9</v>
       </c>
       <c r="C120" t="n">
         <v>11.9</v>
       </c>
       <c r="D120" t="n">
-        <v>12</v>
+        <v>11.9</v>
       </c>
       <c r="E120" t="n">
         <v>11.9</v>
       </c>
       <c r="F120" t="n">
-        <v>189553.5962</v>
+        <v>80906.7314</v>
       </c>
       <c r="G120" t="n">
-        <v>5590999.930215499</v>
+        <v>11.85</v>
       </c>
       <c r="H120" t="n">
         <v>0</v>
       </c>
       <c r="I120" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J120" t="inlineStr"/>
-      <c r="K120" t="inlineStr"/>
-      <c r="L120" t="inlineStr"/>
+      <c r="K120" t="n">
+        <v>11.7</v>
+      </c>
+      <c r="L120" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M120" t="n">
         <v>1</v>
       </c>
+      <c r="N120" t="inlineStr"/>
     </row>
     <row r="121">
       <c r="A121" s="1" t="n">
         <v>119</v>
       </c>
       <c r="B121" t="n">
-        <v>11.9</v>
+        <v>11.7</v>
       </c>
       <c r="C121" t="n">
-        <v>11.9</v>
+        <v>11.7</v>
       </c>
       <c r="D121" t="n">
-        <v>11.9</v>
+        <v>11.7</v>
       </c>
       <c r="E121" t="n">
-        <v>11.9</v>
+        <v>11.7</v>
       </c>
       <c r="F121" t="n">
-        <v>9946.4038</v>
+        <v>100</v>
       </c>
       <c r="G121" t="n">
-        <v>5590999.930215499</v>
+        <v>11.8</v>
       </c>
       <c r="H121" t="n">
         <v>0</v>
@@ -5090,33 +5488,40 @@
         <v>0</v>
       </c>
       <c r="J121" t="inlineStr"/>
-      <c r="K121" t="inlineStr"/>
-      <c r="L121" t="inlineStr"/>
+      <c r="K121" t="n">
+        <v>11.7</v>
+      </c>
+      <c r="L121" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M121" t="n">
         <v>1</v>
       </c>
+      <c r="N121" t="inlineStr"/>
     </row>
     <row r="122">
       <c r="A122" s="1" t="n">
         <v>120</v>
       </c>
       <c r="B122" t="n">
-        <v>12.1</v>
+        <v>11.7</v>
       </c>
       <c r="C122" t="n">
-        <v>12.1</v>
+        <v>11.7</v>
       </c>
       <c r="D122" t="n">
-        <v>12.1</v>
+        <v>11.7</v>
       </c>
       <c r="E122" t="n">
-        <v>12.1</v>
+        <v>11.7</v>
       </c>
       <c r="F122" t="n">
-        <v>210</v>
+        <v>1000</v>
       </c>
       <c r="G122" t="n">
-        <v>5591209.930215499</v>
+        <v>11.7</v>
       </c>
       <c r="H122" t="n">
         <v>0</v>
@@ -5125,151 +5530,186 @@
         <v>0</v>
       </c>
       <c r="J122" t="inlineStr"/>
-      <c r="K122" t="inlineStr"/>
-      <c r="L122" t="inlineStr"/>
+      <c r="K122" t="n">
+        <v>11.7</v>
+      </c>
+      <c r="L122" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M122" t="n">
         <v>1</v>
       </c>
+      <c r="N122" t="inlineStr"/>
     </row>
     <row r="123">
       <c r="A123" s="1" t="n">
         <v>121</v>
       </c>
       <c r="B123" t="n">
-        <v>12</v>
+        <v>11.7</v>
       </c>
       <c r="C123" t="n">
-        <v>12</v>
+        <v>11.7</v>
       </c>
       <c r="D123" t="n">
-        <v>12</v>
+        <v>11.7</v>
       </c>
       <c r="E123" t="n">
-        <v>12</v>
+        <v>11.7</v>
       </c>
       <c r="F123" t="n">
-        <v>80376.11629999999</v>
+        <v>18228.795</v>
       </c>
       <c r="G123" t="n">
-        <v>5510833.813915499</v>
+        <v>11.7</v>
       </c>
       <c r="H123" t="n">
         <v>0</v>
       </c>
       <c r="I123" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J123" t="inlineStr"/>
-      <c r="K123" t="inlineStr"/>
-      <c r="L123" t="inlineStr"/>
+      <c r="K123" t="n">
+        <v>11.7</v>
+      </c>
+      <c r="L123" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M123" t="n">
         <v>1</v>
       </c>
+      <c r="N123" t="inlineStr"/>
     </row>
     <row r="124">
       <c r="A124" s="1" t="n">
         <v>122</v>
       </c>
       <c r="B124" t="n">
-        <v>12</v>
+        <v>11.7</v>
       </c>
       <c r="C124" t="n">
-        <v>12.1</v>
+        <v>11.7</v>
       </c>
       <c r="D124" t="n">
-        <v>12.1</v>
+        <v>11.7</v>
       </c>
       <c r="E124" t="n">
-        <v>12</v>
+        <v>11.7</v>
       </c>
       <c r="F124" t="n">
-        <v>42788.99898677686</v>
+        <v>21771.205</v>
       </c>
       <c r="G124" t="n">
-        <v>5553622.812902276</v>
+        <v>11.7</v>
       </c>
       <c r="H124" t="n">
         <v>0</v>
       </c>
       <c r="I124" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J124" t="inlineStr"/>
-      <c r="K124" t="inlineStr"/>
-      <c r="L124" t="inlineStr"/>
+      <c r="K124" t="n">
+        <v>11.7</v>
+      </c>
+      <c r="L124" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M124" t="n">
         <v>1</v>
       </c>
+      <c r="N124" t="inlineStr"/>
     </row>
     <row r="125">
       <c r="A125" s="1" t="n">
         <v>123</v>
       </c>
       <c r="B125" t="n">
-        <v>12.1</v>
+        <v>11.8</v>
       </c>
       <c r="C125" t="n">
-        <v>12.1</v>
+        <v>11.8</v>
       </c>
       <c r="D125" t="n">
-        <v>12.1</v>
+        <v>11.8</v>
       </c>
       <c r="E125" t="n">
-        <v>12.1</v>
+        <v>11.8</v>
       </c>
       <c r="F125" t="n">
-        <v>31119.63199173554</v>
+        <v>2200</v>
       </c>
       <c r="G125" t="n">
-        <v>5553622.812902276</v>
+        <v>11.75000000000001</v>
       </c>
       <c r="H125" t="n">
         <v>0</v>
       </c>
       <c r="I125" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J125" t="inlineStr"/>
-      <c r="K125" t="inlineStr"/>
-      <c r="L125" t="inlineStr"/>
+      <c r="K125" t="n">
+        <v>11.7</v>
+      </c>
+      <c r="L125" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M125" t="n">
         <v>1</v>
       </c>
+      <c r="N125" t="inlineStr"/>
     </row>
     <row r="126">
       <c r="A126" s="1" t="n">
         <v>124</v>
       </c>
       <c r="B126" t="n">
-        <v>12.1</v>
+        <v>11.8</v>
       </c>
       <c r="C126" t="n">
-        <v>12</v>
+        <v>11.8</v>
       </c>
       <c r="D126" t="n">
-        <v>12.1</v>
+        <v>11.8</v>
       </c>
       <c r="E126" t="n">
-        <v>11.9</v>
+        <v>11.8</v>
       </c>
       <c r="F126" t="n">
-        <v>63340.8259</v>
+        <v>908.5016000000001</v>
       </c>
       <c r="G126" t="n">
-        <v>5490281.987002277</v>
+        <v>11.80000000000001</v>
       </c>
       <c r="H126" t="n">
         <v>0</v>
       </c>
       <c r="I126" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J126" t="inlineStr"/>
-      <c r="K126" t="inlineStr"/>
-      <c r="L126" t="inlineStr"/>
+      <c r="K126" t="n">
+        <v>11.7</v>
+      </c>
+      <c r="L126" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M126" t="n">
         <v>1</v>
       </c>
+      <c r="N126" t="inlineStr"/>
     </row>
     <row r="127">
       <c r="A127" s="1" t="n">
@@ -5288,23 +5728,30 @@
         <v>11.9</v>
       </c>
       <c r="F127" t="n">
-        <v>29649.5695</v>
+        <v>346.3635</v>
       </c>
       <c r="G127" t="n">
-        <v>5460632.417502277</v>
+        <v>11.85000000000001</v>
       </c>
       <c r="H127" t="n">
         <v>0</v>
       </c>
       <c r="I127" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J127" t="inlineStr"/>
-      <c r="K127" t="inlineStr"/>
-      <c r="L127" t="inlineStr"/>
+      <c r="K127" t="n">
+        <v>11.7</v>
+      </c>
+      <c r="L127" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M127" t="n">
         <v>1</v>
       </c>
+      <c r="N127" t="inlineStr"/>
     </row>
     <row r="128">
       <c r="A128" s="1" t="n">
@@ -5323,45 +5770,52 @@
         <v>11.9</v>
       </c>
       <c r="F128" t="n">
-        <v>23602.5531</v>
+        <v>215067.6921</v>
       </c>
       <c r="G128" t="n">
-        <v>5460632.417502277</v>
+        <v>11.90000000000001</v>
       </c>
       <c r="H128" t="n">
         <v>0</v>
       </c>
       <c r="I128" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J128" t="inlineStr"/>
-      <c r="K128" t="inlineStr"/>
-      <c r="L128" t="inlineStr"/>
+      <c r="K128" t="n">
+        <v>11.7</v>
+      </c>
+      <c r="L128" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M128" t="n">
         <v>1</v>
       </c>
+      <c r="N128" t="inlineStr"/>
     </row>
     <row r="129">
       <c r="A129" s="1" t="n">
         <v>127</v>
       </c>
       <c r="B129" t="n">
-        <v>11.9</v>
+        <v>11.8</v>
       </c>
       <c r="C129" t="n">
-        <v>11.9</v>
+        <v>11.8</v>
       </c>
       <c r="D129" t="n">
-        <v>11.9</v>
+        <v>11.8</v>
       </c>
       <c r="E129" t="n">
-        <v>11.9</v>
+        <v>11.8</v>
       </c>
       <c r="F129" t="n">
-        <v>24718.9033</v>
+        <v>234400.0556</v>
       </c>
       <c r="G129" t="n">
-        <v>5460632.417502277</v>
+        <v>11.85000000000001</v>
       </c>
       <c r="H129" t="n">
         <v>0</v>
@@ -5370,33 +5824,40 @@
         <v>0</v>
       </c>
       <c r="J129" t="inlineStr"/>
-      <c r="K129" t="inlineStr"/>
-      <c r="L129" t="inlineStr"/>
+      <c r="K129" t="n">
+        <v>11.7</v>
+      </c>
+      <c r="L129" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M129" t="n">
         <v>1</v>
       </c>
+      <c r="N129" t="inlineStr"/>
     </row>
     <row r="130">
       <c r="A130" s="1" t="n">
         <v>128</v>
       </c>
       <c r="B130" t="n">
-        <v>11.9</v>
+        <v>11.8</v>
       </c>
       <c r="C130" t="n">
-        <v>11.9</v>
+        <v>11.8</v>
       </c>
       <c r="D130" t="n">
-        <v>11.9</v>
+        <v>11.8</v>
       </c>
       <c r="E130" t="n">
-        <v>11.9</v>
+        <v>11.8</v>
       </c>
       <c r="F130" t="n">
-        <v>25652.1657</v>
+        <v>38611.1969</v>
       </c>
       <c r="G130" t="n">
-        <v>5460632.417502277</v>
+        <v>11.80000000000001</v>
       </c>
       <c r="H130" t="n">
         <v>0</v>
@@ -5405,46 +5866,60 @@
         <v>0</v>
       </c>
       <c r="J130" t="inlineStr"/>
-      <c r="K130" t="inlineStr"/>
-      <c r="L130" t="inlineStr"/>
+      <c r="K130" t="n">
+        <v>11.7</v>
+      </c>
+      <c r="L130" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M130" t="n">
         <v>1</v>
       </c>
+      <c r="N130" t="inlineStr"/>
     </row>
     <row r="131">
       <c r="A131" s="1" t="n">
         <v>129</v>
       </c>
       <c r="B131" t="n">
-        <v>12</v>
+        <v>11.9</v>
       </c>
       <c r="C131" t="n">
-        <v>12</v>
+        <v>11.9</v>
       </c>
       <c r="D131" t="n">
-        <v>12</v>
+        <v>11.9</v>
       </c>
       <c r="E131" t="n">
-        <v>12</v>
+        <v>11.9</v>
       </c>
       <c r="F131" t="n">
-        <v>8333.3334</v>
+        <v>97673.49099999999</v>
       </c>
       <c r="G131" t="n">
-        <v>5468965.750902276</v>
+        <v>11.85000000000001</v>
       </c>
       <c r="H131" t="n">
         <v>0</v>
       </c>
       <c r="I131" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J131" t="inlineStr"/>
-      <c r="K131" t="inlineStr"/>
-      <c r="L131" t="inlineStr"/>
+      <c r="K131" t="n">
+        <v>11.7</v>
+      </c>
+      <c r="L131" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M131" t="n">
         <v>1</v>
       </c>
+      <c r="N131" t="inlineStr"/>
     </row>
     <row r="132">
       <c r="A132" s="1" t="n">
@@ -5463,23 +5938,30 @@
         <v>11.9</v>
       </c>
       <c r="F132" t="n">
-        <v>1591.9618</v>
+        <v>32236.2036</v>
       </c>
       <c r="G132" t="n">
-        <v>5467373.789102277</v>
+        <v>11.90000000000001</v>
       </c>
       <c r="H132" t="n">
         <v>0</v>
       </c>
       <c r="I132" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J132" t="inlineStr"/>
-      <c r="K132" t="inlineStr"/>
-      <c r="L132" t="inlineStr"/>
+      <c r="K132" t="n">
+        <v>11.7</v>
+      </c>
+      <c r="L132" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M132" t="n">
         <v>1</v>
       </c>
+      <c r="N132" t="inlineStr"/>
     </row>
     <row r="133">
       <c r="A133" s="1" t="n">
@@ -5498,58 +5980,72 @@
         <v>11.9</v>
       </c>
       <c r="F133" t="n">
-        <v>117.7310924369748</v>
+        <v>4201.680672268908</v>
       </c>
       <c r="G133" t="n">
-        <v>5467373.789102277</v>
+        <v>11.90000000000001</v>
       </c>
       <c r="H133" t="n">
         <v>0</v>
       </c>
       <c r="I133" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J133" t="inlineStr"/>
-      <c r="K133" t="inlineStr"/>
-      <c r="L133" t="inlineStr"/>
+      <c r="K133" t="n">
+        <v>11.7</v>
+      </c>
+      <c r="L133" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M133" t="n">
         <v>1</v>
       </c>
+      <c r="N133" t="inlineStr"/>
     </row>
     <row r="134">
       <c r="A134" s="1" t="n">
         <v>132</v>
       </c>
       <c r="B134" t="n">
-        <v>11.9</v>
+        <v>11.8</v>
       </c>
       <c r="C134" t="n">
-        <v>11.9</v>
+        <v>11.8</v>
       </c>
       <c r="D134" t="n">
-        <v>11.9</v>
+        <v>11.8</v>
       </c>
       <c r="E134" t="n">
-        <v>11.9</v>
+        <v>11.8</v>
       </c>
       <c r="F134" t="n">
-        <v>117.8151260504202</v>
+        <v>25000</v>
       </c>
       <c r="G134" t="n">
-        <v>5467373.789102277</v>
+        <v>11.85000000000001</v>
       </c>
       <c r="H134" t="n">
         <v>0</v>
       </c>
       <c r="I134" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J134" t="inlineStr"/>
-      <c r="K134" t="inlineStr"/>
-      <c r="L134" t="inlineStr"/>
+      <c r="K134" t="n">
+        <v>11.7</v>
+      </c>
+      <c r="L134" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M134" t="n">
         <v>1</v>
       </c>
+      <c r="N134" t="inlineStr"/>
     </row>
     <row r="135">
       <c r="A135" s="1" t="n">
@@ -5568,10 +6064,10 @@
         <v>11.8</v>
       </c>
       <c r="F135" t="n">
-        <v>4948.4236</v>
+        <v>26673.5393</v>
       </c>
       <c r="G135" t="n">
-        <v>5462425.365502276</v>
+        <v>11.80000000000001</v>
       </c>
       <c r="H135" t="n">
         <v>0</v>
@@ -5580,33 +6076,40 @@
         <v>0</v>
       </c>
       <c r="J135" t="inlineStr"/>
-      <c r="K135" t="inlineStr"/>
-      <c r="L135" t="inlineStr"/>
+      <c r="K135" t="n">
+        <v>11.7</v>
+      </c>
+      <c r="L135" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M135" t="n">
         <v>1</v>
       </c>
+      <c r="N135" t="inlineStr"/>
     </row>
     <row r="136">
       <c r="A136" s="1" t="n">
         <v>134</v>
       </c>
       <c r="B136" t="n">
-        <v>11.8</v>
+        <v>11.7</v>
       </c>
       <c r="C136" t="n">
-        <v>11.8</v>
+        <v>11.7</v>
       </c>
       <c r="D136" t="n">
-        <v>11.8</v>
+        <v>11.7</v>
       </c>
       <c r="E136" t="n">
-        <v>11.8</v>
+        <v>11.7</v>
       </c>
       <c r="F136" t="n">
-        <v>146865</v>
+        <v>100</v>
       </c>
       <c r="G136" t="n">
-        <v>5462425.365502276</v>
+        <v>11.75000000000001</v>
       </c>
       <c r="H136" t="n">
         <v>0</v>
@@ -5615,33 +6118,40 @@
         <v>0</v>
       </c>
       <c r="J136" t="inlineStr"/>
-      <c r="K136" t="inlineStr"/>
-      <c r="L136" t="inlineStr"/>
+      <c r="K136" t="n">
+        <v>11.7</v>
+      </c>
+      <c r="L136" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M136" t="n">
         <v>1</v>
       </c>
+      <c r="N136" t="inlineStr"/>
     </row>
     <row r="137">
       <c r="A137" s="1" t="n">
         <v>135</v>
       </c>
       <c r="B137" t="n">
-        <v>11.8</v>
+        <v>11.7</v>
       </c>
       <c r="C137" t="n">
         <v>11.7</v>
       </c>
       <c r="D137" t="n">
-        <v>11.8</v>
+        <v>11.7</v>
       </c>
       <c r="E137" t="n">
         <v>11.7</v>
       </c>
       <c r="F137" t="n">
-        <v>270316.671</v>
+        <v>4201.6807</v>
       </c>
       <c r="G137" t="n">
-        <v>5192108.694502276</v>
+        <v>11.70000000000001</v>
       </c>
       <c r="H137" t="n">
         <v>0</v>
@@ -5650,33 +6160,40 @@
         <v>0</v>
       </c>
       <c r="J137" t="inlineStr"/>
-      <c r="K137" t="inlineStr"/>
-      <c r="L137" t="inlineStr"/>
+      <c r="K137" t="n">
+        <v>11.7</v>
+      </c>
+      <c r="L137" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M137" t="n">
         <v>1</v>
       </c>
+      <c r="N137" t="inlineStr"/>
     </row>
     <row r="138">
       <c r="A138" s="1" t="n">
         <v>136</v>
       </c>
       <c r="B138" t="n">
-        <v>11.7</v>
+        <v>11.8</v>
       </c>
       <c r="C138" t="n">
-        <v>11.7</v>
+        <v>11.8</v>
       </c>
       <c r="D138" t="n">
-        <v>11.7</v>
+        <v>11.8</v>
       </c>
       <c r="E138" t="n">
-        <v>11.7</v>
+        <v>11.8</v>
       </c>
       <c r="F138" t="n">
-        <v>100000</v>
+        <v>18152.8312</v>
       </c>
       <c r="G138" t="n">
-        <v>5192108.694502276</v>
+        <v>11.75000000000001</v>
       </c>
       <c r="H138" t="n">
         <v>0</v>
@@ -5685,33 +6202,40 @@
         <v>0</v>
       </c>
       <c r="J138" t="inlineStr"/>
-      <c r="K138" t="inlineStr"/>
-      <c r="L138" t="inlineStr"/>
+      <c r="K138" t="n">
+        <v>11.7</v>
+      </c>
+      <c r="L138" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M138" t="n">
         <v>1</v>
       </c>
+      <c r="N138" t="inlineStr"/>
     </row>
     <row r="139">
       <c r="A139" s="1" t="n">
         <v>137</v>
       </c>
       <c r="B139" t="n">
-        <v>11.7</v>
+        <v>11.8</v>
       </c>
       <c r="C139" t="n">
-        <v>11.7</v>
+        <v>11.8</v>
       </c>
       <c r="D139" t="n">
-        <v>11.7</v>
+        <v>11.8</v>
       </c>
       <c r="E139" t="n">
-        <v>11.7</v>
+        <v>11.8</v>
       </c>
       <c r="F139" t="n">
-        <v>100000</v>
+        <v>88371.85649999999</v>
       </c>
       <c r="G139" t="n">
-        <v>5192108.694502276</v>
+        <v>11.80000000000001</v>
       </c>
       <c r="H139" t="n">
         <v>0</v>
@@ -5720,68 +6244,82 @@
         <v>0</v>
       </c>
       <c r="J139" t="inlineStr"/>
-      <c r="K139" t="inlineStr"/>
-      <c r="L139" t="inlineStr"/>
+      <c r="K139" t="n">
+        <v>11.7</v>
+      </c>
+      <c r="L139" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M139" t="n">
         <v>1</v>
       </c>
+      <c r="N139" t="inlineStr"/>
     </row>
     <row r="140">
       <c r="A140" s="1" t="n">
         <v>138</v>
       </c>
       <c r="B140" t="n">
-        <v>11.7</v>
+        <v>11.8</v>
       </c>
       <c r="C140" t="n">
-        <v>11.7</v>
+        <v>11.8</v>
       </c>
       <c r="D140" t="n">
-        <v>11.7</v>
+        <v>11.8</v>
       </c>
       <c r="E140" t="n">
-        <v>11.7</v>
+        <v>11.8</v>
       </c>
       <c r="F140" t="n">
-        <v>74084.7746</v>
+        <v>45978.7097</v>
       </c>
       <c r="G140" t="n">
-        <v>5192108.694502276</v>
+        <v>11.80000000000001</v>
       </c>
       <c r="H140" t="n">
         <v>0</v>
       </c>
       <c r="I140" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J140" t="inlineStr"/>
-      <c r="K140" t="inlineStr"/>
-      <c r="L140" t="inlineStr"/>
+      <c r="K140" t="n">
+        <v>11.7</v>
+      </c>
+      <c r="L140" t="inlineStr">
+        <is>
+          <t>매도 체결</t>
+        </is>
+      </c>
       <c r="M140" t="n">
-        <v>1</v>
-      </c>
+        <v>1.003547008547009</v>
+      </c>
+      <c r="N140" t="inlineStr"/>
     </row>
     <row r="141">
       <c r="A141" s="1" t="n">
         <v>139</v>
       </c>
       <c r="B141" t="n">
-        <v>11.8</v>
+        <v>11.7</v>
       </c>
       <c r="C141" t="n">
-        <v>11.8</v>
+        <v>11.7</v>
       </c>
       <c r="D141" t="n">
-        <v>11.8</v>
+        <v>11.7</v>
       </c>
       <c r="E141" t="n">
-        <v>11.8</v>
+        <v>11.7</v>
       </c>
       <c r="F141" t="n">
-        <v>9014.7901</v>
+        <v>23959.5487</v>
       </c>
       <c r="G141" t="n">
-        <v>5201123.484602276</v>
+        <v>11.75000000000001</v>
       </c>
       <c r="H141" t="n">
         <v>0</v>
@@ -5795,34 +6333,35 @@
       <c r="M141" t="n">
         <v>1</v>
       </c>
+      <c r="N141" t="inlineStr"/>
     </row>
     <row r="142">
       <c r="A142" s="1" t="n">
         <v>140</v>
       </c>
       <c r="B142" t="n">
-        <v>11.8</v>
+        <v>11.7</v>
       </c>
       <c r="C142" t="n">
-        <v>11.8</v>
+        <v>11.7</v>
       </c>
       <c r="D142" t="n">
-        <v>11.8</v>
+        <v>11.7</v>
       </c>
       <c r="E142" t="n">
-        <v>11.8</v>
+        <v>11.7</v>
       </c>
       <c r="F142" t="n">
-        <v>100</v>
+        <v>24965.0007</v>
       </c>
       <c r="G142" t="n">
-        <v>5201123.484602276</v>
+        <v>11.70000000000001</v>
       </c>
       <c r="H142" t="n">
         <v>0</v>
       </c>
       <c r="I142" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J142" t="inlineStr"/>
       <c r="K142" t="inlineStr"/>
@@ -5830,6 +6369,7 @@
       <c r="M142" t="n">
         <v>1</v>
       </c>
+      <c r="N142" t="inlineStr"/>
     </row>
     <row r="143">
       <c r="A143" s="1" t="n">
@@ -5848,16 +6388,16 @@
         <v>11.8</v>
       </c>
       <c r="F143" t="n">
-        <v>3360</v>
+        <v>4226.6613</v>
       </c>
       <c r="G143" t="n">
-        <v>5201123.484602276</v>
+        <v>11.75000000000001</v>
       </c>
       <c r="H143" t="n">
         <v>0</v>
       </c>
       <c r="I143" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J143" t="inlineStr"/>
       <c r="K143" t="inlineStr"/>
@@ -5865,6 +6405,7 @@
       <c r="M143" t="n">
         <v>1</v>
       </c>
+      <c r="N143" t="inlineStr"/>
     </row>
     <row r="144">
       <c r="A144" s="1" t="n">
@@ -5874,25 +6415,25 @@
         <v>11.8</v>
       </c>
       <c r="C144" t="n">
-        <v>11.7</v>
+        <v>11.8</v>
       </c>
       <c r="D144" t="n">
         <v>11.8</v>
       </c>
       <c r="E144" t="n">
-        <v>11.7</v>
+        <v>11.8</v>
       </c>
       <c r="F144" t="n">
-        <v>8301.961799999999</v>
+        <v>6079.6567</v>
       </c>
       <c r="G144" t="n">
-        <v>5192821.522802277</v>
+        <v>11.80000000000001</v>
       </c>
       <c r="H144" t="n">
         <v>0</v>
       </c>
       <c r="I144" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J144" t="inlineStr"/>
       <c r="K144" t="inlineStr"/>
@@ -5900,6 +6441,7 @@
       <c r="M144" t="n">
         <v>1</v>
       </c>
+      <c r="N144" t="inlineStr"/>
     </row>
     <row r="145">
       <c r="A145" s="1" t="n">
@@ -5918,10 +6460,10 @@
         <v>11.8</v>
       </c>
       <c r="F145" t="n">
-        <v>1590</v>
+        <v>4360</v>
       </c>
       <c r="G145" t="n">
-        <v>5194411.522802277</v>
+        <v>11.80000000000001</v>
       </c>
       <c r="H145" t="n">
         <v>0</v>
@@ -5935,6 +6477,7 @@
       <c r="M145" t="n">
         <v>1</v>
       </c>
+      <c r="N145" t="inlineStr"/>
     </row>
     <row r="146">
       <c r="A146" s="1" t="n">
@@ -5953,10 +6496,10 @@
         <v>11.8</v>
       </c>
       <c r="F146" t="n">
-        <v>100000</v>
+        <v>298792.3166</v>
       </c>
       <c r="G146" t="n">
-        <v>5194411.522802277</v>
+        <v>11.80000000000001</v>
       </c>
       <c r="H146" t="n">
         <v>0</v>
@@ -5970,28 +6513,29 @@
       <c r="M146" t="n">
         <v>1</v>
       </c>
+      <c r="N146" t="inlineStr"/>
     </row>
     <row r="147">
       <c r="A147" s="1" t="n">
         <v>145</v>
       </c>
       <c r="B147" t="n">
-        <v>11.7</v>
+        <v>11.8</v>
       </c>
       <c r="C147" t="n">
-        <v>11.7</v>
+        <v>11.8</v>
       </c>
       <c r="D147" t="n">
-        <v>11.7</v>
+        <v>11.8</v>
       </c>
       <c r="E147" t="n">
-        <v>11.7</v>
+        <v>11.8</v>
       </c>
       <c r="F147" t="n">
-        <v>21436.8989</v>
+        <v>63287.2407</v>
       </c>
       <c r="G147" t="n">
-        <v>5172974.623902276</v>
+        <v>11.80000000000001</v>
       </c>
       <c r="H147" t="n">
         <v>0</v>
@@ -6005,28 +6549,29 @@
       <c r="M147" t="n">
         <v>1</v>
       </c>
+      <c r="N147" t="inlineStr"/>
     </row>
     <row r="148">
       <c r="A148" s="1" t="n">
         <v>146</v>
       </c>
       <c r="B148" t="n">
-        <v>11.7</v>
+        <v>11.8</v>
       </c>
       <c r="C148" t="n">
-        <v>11.7</v>
+        <v>11.9</v>
       </c>
       <c r="D148" t="n">
-        <v>11.7</v>
+        <v>11.9</v>
       </c>
       <c r="E148" t="n">
-        <v>11.7</v>
+        <v>11.8</v>
       </c>
       <c r="F148" t="n">
-        <v>80546.3033</v>
+        <v>30773.29091512605</v>
       </c>
       <c r="G148" t="n">
-        <v>5172974.623902276</v>
+        <v>11.85000000000001</v>
       </c>
       <c r="H148" t="n">
         <v>0</v>
@@ -6040,28 +6585,29 @@
       <c r="M148" t="n">
         <v>1</v>
       </c>
+      <c r="N148" t="inlineStr"/>
     </row>
     <row r="149">
       <c r="A149" s="1" t="n">
         <v>147</v>
       </c>
       <c r="B149" t="n">
-        <v>11.6</v>
+        <v>11.9</v>
       </c>
       <c r="C149" t="n">
-        <v>11.6</v>
+        <v>11.8</v>
       </c>
       <c r="D149" t="n">
-        <v>11.6</v>
+        <v>11.9</v>
       </c>
       <c r="E149" t="n">
-        <v>11.6</v>
+        <v>11.8</v>
       </c>
       <c r="F149" t="n">
-        <v>235.5462</v>
+        <v>123781.9023848739</v>
       </c>
       <c r="G149" t="n">
-        <v>5172739.077702276</v>
+        <v>11.85000000000001</v>
       </c>
       <c r="H149" t="n">
         <v>0</v>
@@ -6075,34 +6621,35 @@
       <c r="M149" t="n">
         <v>1</v>
       </c>
+      <c r="N149" t="inlineStr"/>
     </row>
     <row r="150">
       <c r="A150" s="1" t="n">
         <v>148</v>
       </c>
       <c r="B150" t="n">
-        <v>11.6</v>
+        <v>11.8</v>
       </c>
       <c r="C150" t="n">
-        <v>11.6</v>
+        <v>11.8</v>
       </c>
       <c r="D150" t="n">
-        <v>11.6</v>
+        <v>11.8</v>
       </c>
       <c r="E150" t="n">
-        <v>11.6</v>
+        <v>11.8</v>
       </c>
       <c r="F150" t="n">
-        <v>8696.2371</v>
+        <v>171836.0471</v>
       </c>
       <c r="G150" t="n">
-        <v>5172739.077702276</v>
+        <v>11.80000000000001</v>
       </c>
       <c r="H150" t="n">
         <v>0</v>
       </c>
       <c r="I150" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J150" t="inlineStr"/>
       <c r="K150" t="inlineStr"/>
@@ -6110,28 +6657,29 @@
       <c r="M150" t="n">
         <v>1</v>
       </c>
+      <c r="N150" t="inlineStr"/>
     </row>
     <row r="151">
       <c r="A151" s="1" t="n">
         <v>149</v>
       </c>
       <c r="B151" t="n">
-        <v>11.7</v>
+        <v>11.8</v>
       </c>
       <c r="C151" t="n">
-        <v>11.6</v>
+        <v>11.8</v>
       </c>
       <c r="D151" t="n">
-        <v>11.7</v>
+        <v>11.8</v>
       </c>
       <c r="E151" t="n">
-        <v>11.6</v>
+        <v>11.8</v>
       </c>
       <c r="F151" t="n">
-        <v>75906.85980000001</v>
+        <v>1.5126050420168e-05</v>
       </c>
       <c r="G151" t="n">
-        <v>5172739.077702276</v>
+        <v>11.80000000000002</v>
       </c>
       <c r="H151" t="n">
         <v>0</v>
@@ -6145,34 +6693,35 @@
       <c r="M151" t="n">
         <v>1</v>
       </c>
+      <c r="N151" t="inlineStr"/>
     </row>
     <row r="152">
       <c r="A152" s="1" t="n">
         <v>150</v>
       </c>
       <c r="B152" t="n">
-        <v>11.6</v>
+        <v>11.8</v>
       </c>
       <c r="C152" t="n">
-        <v>11.6</v>
+        <v>11.8</v>
       </c>
       <c r="D152" t="n">
-        <v>11.6</v>
+        <v>11.8</v>
       </c>
       <c r="E152" t="n">
-        <v>11.6</v>
+        <v>11.8</v>
       </c>
       <c r="F152" t="n">
-        <v>4201.6807</v>
+        <v>19132.62628487395</v>
       </c>
       <c r="G152" t="n">
-        <v>5172739.077702276</v>
+        <v>11.80000000000002</v>
       </c>
       <c r="H152" t="n">
         <v>0</v>
       </c>
       <c r="I152" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J152" t="inlineStr"/>
       <c r="K152" t="inlineStr"/>
@@ -6180,34 +6729,35 @@
       <c r="M152" t="n">
         <v>1</v>
       </c>
+      <c r="N152" t="inlineStr"/>
     </row>
     <row r="153">
       <c r="A153" s="1" t="n">
         <v>151</v>
       </c>
       <c r="B153" t="n">
-        <v>11.8</v>
+        <v>11.9</v>
       </c>
       <c r="C153" t="n">
-        <v>11.8</v>
+        <v>11.9</v>
       </c>
       <c r="D153" t="n">
-        <v>11.8</v>
+        <v>11.9</v>
       </c>
       <c r="E153" t="n">
         <v>11.8</v>
       </c>
       <c r="F153" t="n">
-        <v>5000</v>
+        <v>21072.6183</v>
       </c>
       <c r="G153" t="n">
-        <v>5177739.077702276</v>
+        <v>11.85000000000002</v>
       </c>
       <c r="H153" t="n">
         <v>0</v>
       </c>
       <c r="I153" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J153" t="inlineStr"/>
       <c r="K153" t="inlineStr"/>
@@ -6215,34 +6765,35 @@
       <c r="M153" t="n">
         <v>1</v>
       </c>
+      <c r="N153" t="inlineStr"/>
     </row>
     <row r="154">
       <c r="A154" s="1" t="n">
         <v>152</v>
       </c>
       <c r="B154" t="n">
-        <v>11.8</v>
+        <v>11.9</v>
       </c>
       <c r="C154" t="n">
-        <v>11.8</v>
+        <v>11.9</v>
       </c>
       <c r="D154" t="n">
-        <v>11.8</v>
+        <v>11.9</v>
       </c>
       <c r="E154" t="n">
-        <v>11.8</v>
+        <v>11.9</v>
       </c>
       <c r="F154" t="n">
-        <v>13163.9409</v>
+        <v>6899.4078</v>
       </c>
       <c r="G154" t="n">
-        <v>5177739.077702276</v>
+        <v>11.90000000000002</v>
       </c>
       <c r="H154" t="n">
         <v>0</v>
       </c>
       <c r="I154" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J154" t="inlineStr"/>
       <c r="K154" t="inlineStr"/>
@@ -6250,34 +6801,35 @@
       <c r="M154" t="n">
         <v>1</v>
       </c>
+      <c r="N154" t="inlineStr"/>
     </row>
     <row r="155">
       <c r="A155" s="1" t="n">
         <v>153</v>
       </c>
       <c r="B155" t="n">
-        <v>11.8</v>
+        <v>12</v>
       </c>
       <c r="C155" t="n">
-        <v>11.8</v>
+        <v>11.9</v>
       </c>
       <c r="D155" t="n">
-        <v>11.8</v>
+        <v>12</v>
       </c>
       <c r="E155" t="n">
         <v>11.8</v>
       </c>
       <c r="F155" t="n">
-        <v>33000</v>
+        <v>86491.4749</v>
       </c>
       <c r="G155" t="n">
-        <v>5177739.077702276</v>
+        <v>11.90000000000002</v>
       </c>
       <c r="H155" t="n">
         <v>0</v>
       </c>
       <c r="I155" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J155" t="inlineStr"/>
       <c r="K155" t="inlineStr"/>
@@ -6285,34 +6837,35 @@
       <c r="M155" t="n">
         <v>1</v>
       </c>
+      <c r="N155" t="inlineStr"/>
     </row>
     <row r="156">
       <c r="A156" s="1" t="n">
         <v>154</v>
       </c>
       <c r="B156" t="n">
-        <v>11.8</v>
+        <v>11.9</v>
       </c>
       <c r="C156" t="n">
         <v>11.8</v>
       </c>
       <c r="D156" t="n">
-        <v>11.8</v>
+        <v>11.9</v>
       </c>
       <c r="E156" t="n">
         <v>11.8</v>
       </c>
       <c r="F156" t="n">
-        <v>10950.3295</v>
+        <v>176106.8292</v>
       </c>
       <c r="G156" t="n">
-        <v>5177739.077702276</v>
+        <v>11.85000000000002</v>
       </c>
       <c r="H156" t="n">
         <v>0</v>
       </c>
       <c r="I156" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J156" t="inlineStr"/>
       <c r="K156" t="inlineStr"/>
@@ -6320,34 +6873,35 @@
       <c r="M156" t="n">
         <v>1</v>
       </c>
+      <c r="N156" t="inlineStr"/>
     </row>
     <row r="157">
       <c r="A157" s="1" t="n">
         <v>155</v>
       </c>
       <c r="B157" t="n">
-        <v>11.7</v>
+        <v>11.9</v>
       </c>
       <c r="C157" t="n">
-        <v>11.6</v>
+        <v>11.9</v>
       </c>
       <c r="D157" t="n">
-        <v>11.7</v>
+        <v>11.9</v>
       </c>
       <c r="E157" t="n">
-        <v>11.6</v>
+        <v>11.9</v>
       </c>
       <c r="F157" t="n">
-        <v>177882.793</v>
+        <v>43635.9061</v>
       </c>
       <c r="G157" t="n">
-        <v>4999856.284702277</v>
+        <v>11.85000000000002</v>
       </c>
       <c r="H157" t="n">
         <v>0</v>
       </c>
       <c r="I157" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J157" t="inlineStr"/>
       <c r="K157" t="inlineStr"/>
@@ -6355,34 +6909,35 @@
       <c r="M157" t="n">
         <v>1</v>
       </c>
+      <c r="N157" t="inlineStr"/>
     </row>
     <row r="158">
       <c r="A158" s="1" t="n">
         <v>156</v>
       </c>
       <c r="B158" t="n">
-        <v>11.6</v>
+        <v>12</v>
       </c>
       <c r="C158" t="n">
-        <v>11.6</v>
+        <v>12</v>
       </c>
       <c r="D158" t="n">
-        <v>11.6</v>
+        <v>12</v>
       </c>
       <c r="E158" t="n">
-        <v>11.6</v>
+        <v>12</v>
       </c>
       <c r="F158" t="n">
-        <v>4300</v>
+        <v>80</v>
       </c>
       <c r="G158" t="n">
-        <v>4999856.284702277</v>
+        <v>11.95000000000002</v>
       </c>
       <c r="H158" t="n">
         <v>0</v>
       </c>
       <c r="I158" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J158" t="inlineStr"/>
       <c r="K158" t="inlineStr"/>
@@ -6390,34 +6945,35 @@
       <c r="M158" t="n">
         <v>1</v>
       </c>
+      <c r="N158" t="inlineStr"/>
     </row>
     <row r="159">
       <c r="A159" s="1" t="n">
         <v>157</v>
       </c>
       <c r="B159" t="n">
-        <v>11.7</v>
+        <v>11.9</v>
       </c>
       <c r="C159" t="n">
-        <v>11.7</v>
+        <v>11.9</v>
       </c>
       <c r="D159" t="n">
-        <v>11.7</v>
+        <v>11.9</v>
       </c>
       <c r="E159" t="n">
-        <v>11.7</v>
+        <v>11.9</v>
       </c>
       <c r="F159" t="n">
-        <v>1100</v>
+        <v>8831</v>
       </c>
       <c r="G159" t="n">
-        <v>5000956.284702277</v>
+        <v>11.95000000000002</v>
       </c>
       <c r="H159" t="n">
         <v>0</v>
       </c>
       <c r="I159" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J159" t="inlineStr"/>
       <c r="K159" t="inlineStr"/>
@@ -6425,34 +6981,35 @@
       <c r="M159" t="n">
         <v>1</v>
       </c>
+      <c r="N159" t="inlineStr"/>
     </row>
     <row r="160">
       <c r="A160" s="1" t="n">
         <v>158</v>
       </c>
       <c r="B160" t="n">
-        <v>11.7</v>
+        <v>11.9</v>
       </c>
       <c r="C160" t="n">
-        <v>11.7</v>
+        <v>11.9</v>
       </c>
       <c r="D160" t="n">
-        <v>11.7</v>
+        <v>11.9</v>
       </c>
       <c r="E160" t="n">
-        <v>11.7</v>
+        <v>11.9</v>
       </c>
       <c r="F160" t="n">
-        <v>97127.8533</v>
+        <v>982.0187</v>
       </c>
       <c r="G160" t="n">
-        <v>5000956.284702277</v>
+        <v>11.90000000000002</v>
       </c>
       <c r="H160" t="n">
         <v>0</v>
       </c>
       <c r="I160" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J160" t="inlineStr"/>
       <c r="K160" t="inlineStr"/>
@@ -6460,34 +7017,35 @@
       <c r="M160" t="n">
         <v>1</v>
       </c>
+      <c r="N160" t="inlineStr"/>
     </row>
     <row r="161">
       <c r="A161" s="1" t="n">
         <v>159</v>
       </c>
       <c r="B161" t="n">
-        <v>11.8</v>
+        <v>11.9</v>
       </c>
       <c r="C161" t="n">
-        <v>11.8</v>
+        <v>11.9</v>
       </c>
       <c r="D161" t="n">
-        <v>11.8</v>
+        <v>11.9</v>
       </c>
       <c r="E161" t="n">
-        <v>11.8</v>
+        <v>11.9</v>
       </c>
       <c r="F161" t="n">
-        <v>11170</v>
+        <v>20000</v>
       </c>
       <c r="G161" t="n">
-        <v>5012126.284702277</v>
+        <v>11.90000000000002</v>
       </c>
       <c r="H161" t="n">
         <v>0</v>
       </c>
       <c r="I161" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J161" t="inlineStr"/>
       <c r="K161" t="inlineStr"/>
@@ -6495,34 +7053,35 @@
       <c r="M161" t="n">
         <v>1</v>
       </c>
+      <c r="N161" t="inlineStr"/>
     </row>
     <row r="162">
       <c r="A162" s="1" t="n">
         <v>160</v>
       </c>
       <c r="B162" t="n">
-        <v>11.9</v>
+        <v>11.8</v>
       </c>
       <c r="C162" t="n">
-        <v>11.9</v>
+        <v>11.7</v>
       </c>
       <c r="D162" t="n">
-        <v>11.9</v>
+        <v>11.8</v>
       </c>
       <c r="E162" t="n">
-        <v>11.9</v>
+        <v>11.7</v>
       </c>
       <c r="F162" t="n">
-        <v>80906.7314</v>
+        <v>41075.5745</v>
       </c>
       <c r="G162" t="n">
-        <v>5093033.016102277</v>
+        <v>11.80000000000002</v>
       </c>
       <c r="H162" t="n">
         <v>0</v>
       </c>
       <c r="I162" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J162" t="inlineStr"/>
       <c r="K162" t="inlineStr"/>
@@ -6530,6 +7089,7 @@
       <c r="M162" t="n">
         <v>1</v>
       </c>
+      <c r="N162" t="inlineStr"/>
     </row>
     <row r="163">
       <c r="A163" s="1" t="n">
@@ -6548,16 +7108,16 @@
         <v>11.7</v>
       </c>
       <c r="F163" t="n">
-        <v>100</v>
+        <v>106098.7638</v>
       </c>
       <c r="G163" t="n">
-        <v>5092933.016102277</v>
+        <v>11.70000000000002</v>
       </c>
       <c r="H163" t="n">
         <v>0</v>
       </c>
       <c r="I163" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J163" t="inlineStr"/>
       <c r="K163" t="inlineStr"/>
@@ -6565,1476 +7125,7 @@
       <c r="M163" t="n">
         <v>1</v>
       </c>
-    </row>
-    <row r="164">
-      <c r="A164" s="1" t="n">
-        <v>162</v>
-      </c>
-      <c r="B164" t="n">
-        <v>11.7</v>
-      </c>
-      <c r="C164" t="n">
-        <v>11.7</v>
-      </c>
-      <c r="D164" t="n">
-        <v>11.7</v>
-      </c>
-      <c r="E164" t="n">
-        <v>11.7</v>
-      </c>
-      <c r="F164" t="n">
-        <v>1000</v>
-      </c>
-      <c r="G164" t="n">
-        <v>5092933.016102277</v>
-      </c>
-      <c r="H164" t="n">
-        <v>0</v>
-      </c>
-      <c r="I164" t="n">
-        <v>0</v>
-      </c>
-      <c r="J164" t="inlineStr"/>
-      <c r="K164" t="inlineStr"/>
-      <c r="L164" t="inlineStr"/>
-      <c r="M164" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="165">
-      <c r="A165" s="1" t="n">
-        <v>163</v>
-      </c>
-      <c r="B165" t="n">
-        <v>11.7</v>
-      </c>
-      <c r="C165" t="n">
-        <v>11.7</v>
-      </c>
-      <c r="D165" t="n">
-        <v>11.7</v>
-      </c>
-      <c r="E165" t="n">
-        <v>11.7</v>
-      </c>
-      <c r="F165" t="n">
-        <v>18228.795</v>
-      </c>
-      <c r="G165" t="n">
-        <v>5092933.016102277</v>
-      </c>
-      <c r="H165" t="n">
-        <v>0</v>
-      </c>
-      <c r="I165" t="n">
-        <v>0</v>
-      </c>
-      <c r="J165" t="inlineStr"/>
-      <c r="K165" t="inlineStr"/>
-      <c r="L165" t="inlineStr"/>
-      <c r="M165" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="166">
-      <c r="A166" s="1" t="n">
-        <v>164</v>
-      </c>
-      <c r="B166" t="n">
-        <v>11.7</v>
-      </c>
-      <c r="C166" t="n">
-        <v>11.7</v>
-      </c>
-      <c r="D166" t="n">
-        <v>11.7</v>
-      </c>
-      <c r="E166" t="n">
-        <v>11.7</v>
-      </c>
-      <c r="F166" t="n">
-        <v>21771.205</v>
-      </c>
-      <c r="G166" t="n">
-        <v>5092933.016102277</v>
-      </c>
-      <c r="H166" t="n">
-        <v>0</v>
-      </c>
-      <c r="I166" t="n">
-        <v>0</v>
-      </c>
-      <c r="J166" t="inlineStr"/>
-      <c r="K166" t="inlineStr"/>
-      <c r="L166" t="inlineStr"/>
-      <c r="M166" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="167">
-      <c r="A167" s="1" t="n">
-        <v>165</v>
-      </c>
-      <c r="B167" t="n">
-        <v>11.8</v>
-      </c>
-      <c r="C167" t="n">
-        <v>11.8</v>
-      </c>
-      <c r="D167" t="n">
-        <v>11.8</v>
-      </c>
-      <c r="E167" t="n">
-        <v>11.8</v>
-      </c>
-      <c r="F167" t="n">
-        <v>2200</v>
-      </c>
-      <c r="G167" t="n">
-        <v>5095133.016102277</v>
-      </c>
-      <c r="H167" t="n">
-        <v>0</v>
-      </c>
-      <c r="I167" t="n">
-        <v>0</v>
-      </c>
-      <c r="J167" t="inlineStr"/>
-      <c r="K167" t="inlineStr"/>
-      <c r="L167" t="inlineStr"/>
-      <c r="M167" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="168">
-      <c r="A168" s="1" t="n">
-        <v>166</v>
-      </c>
-      <c r="B168" t="n">
-        <v>11.8</v>
-      </c>
-      <c r="C168" t="n">
-        <v>11.8</v>
-      </c>
-      <c r="D168" t="n">
-        <v>11.8</v>
-      </c>
-      <c r="E168" t="n">
-        <v>11.8</v>
-      </c>
-      <c r="F168" t="n">
-        <v>908.5016000000001</v>
-      </c>
-      <c r="G168" t="n">
-        <v>5095133.016102277</v>
-      </c>
-      <c r="H168" t="n">
-        <v>0</v>
-      </c>
-      <c r="I168" t="n">
-        <v>0</v>
-      </c>
-      <c r="J168" t="inlineStr"/>
-      <c r="K168" t="inlineStr"/>
-      <c r="L168" t="inlineStr"/>
-      <c r="M168" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="169">
-      <c r="A169" s="1" t="n">
-        <v>167</v>
-      </c>
-      <c r="B169" t="n">
-        <v>11.9</v>
-      </c>
-      <c r="C169" t="n">
-        <v>11.9</v>
-      </c>
-      <c r="D169" t="n">
-        <v>11.9</v>
-      </c>
-      <c r="E169" t="n">
-        <v>11.9</v>
-      </c>
-      <c r="F169" t="n">
-        <v>346.3635</v>
-      </c>
-      <c r="G169" t="n">
-        <v>5095479.379602277</v>
-      </c>
-      <c r="H169" t="n">
-        <v>0</v>
-      </c>
-      <c r="I169" t="n">
-        <v>0</v>
-      </c>
-      <c r="J169" t="inlineStr"/>
-      <c r="K169" t="inlineStr"/>
-      <c r="L169" t="inlineStr"/>
-      <c r="M169" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="170">
-      <c r="A170" s="1" t="n">
-        <v>168</v>
-      </c>
-      <c r="B170" t="n">
-        <v>11.9</v>
-      </c>
-      <c r="C170" t="n">
-        <v>11.9</v>
-      </c>
-      <c r="D170" t="n">
-        <v>11.9</v>
-      </c>
-      <c r="E170" t="n">
-        <v>11.9</v>
-      </c>
-      <c r="F170" t="n">
-        <v>215067.6921</v>
-      </c>
-      <c r="G170" t="n">
-        <v>5095479.379602277</v>
-      </c>
-      <c r="H170" t="n">
-        <v>0</v>
-      </c>
-      <c r="I170" t="n">
-        <v>1</v>
-      </c>
-      <c r="J170" t="inlineStr"/>
-      <c r="K170" t="inlineStr"/>
-      <c r="L170" t="inlineStr"/>
-      <c r="M170" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="171">
-      <c r="A171" s="1" t="n">
-        <v>169</v>
-      </c>
-      <c r="B171" t="n">
-        <v>11.8</v>
-      </c>
-      <c r="C171" t="n">
-        <v>11.8</v>
-      </c>
-      <c r="D171" t="n">
-        <v>11.8</v>
-      </c>
-      <c r="E171" t="n">
-        <v>11.8</v>
-      </c>
-      <c r="F171" t="n">
-        <v>234400.0556</v>
-      </c>
-      <c r="G171" t="n">
-        <v>4861079.324002277</v>
-      </c>
-      <c r="H171" t="n">
-        <v>0</v>
-      </c>
-      <c r="I171" t="n">
-        <v>1</v>
-      </c>
-      <c r="J171" t="inlineStr"/>
-      <c r="K171" t="inlineStr"/>
-      <c r="L171" t="inlineStr"/>
-      <c r="M171" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="172">
-      <c r="A172" s="1" t="n">
-        <v>170</v>
-      </c>
-      <c r="B172" t="n">
-        <v>11.8</v>
-      </c>
-      <c r="C172" t="n">
-        <v>11.8</v>
-      </c>
-      <c r="D172" t="n">
-        <v>11.8</v>
-      </c>
-      <c r="E172" t="n">
-        <v>11.8</v>
-      </c>
-      <c r="F172" t="n">
-        <v>38611.1969</v>
-      </c>
-      <c r="G172" t="n">
-        <v>4861079.324002277</v>
-      </c>
-      <c r="H172" t="n">
-        <v>0</v>
-      </c>
-      <c r="I172" t="n">
-        <v>1</v>
-      </c>
-      <c r="J172" t="inlineStr"/>
-      <c r="K172" t="inlineStr"/>
-      <c r="L172" t="inlineStr"/>
-      <c r="M172" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="173">
-      <c r="A173" s="1" t="n">
-        <v>171</v>
-      </c>
-      <c r="B173" t="n">
-        <v>11.9</v>
-      </c>
-      <c r="C173" t="n">
-        <v>11.9</v>
-      </c>
-      <c r="D173" t="n">
-        <v>11.9</v>
-      </c>
-      <c r="E173" t="n">
-        <v>11.9</v>
-      </c>
-      <c r="F173" t="n">
-        <v>97673.49099999999</v>
-      </c>
-      <c r="G173" t="n">
-        <v>4958752.815002277</v>
-      </c>
-      <c r="H173" t="n">
-        <v>0</v>
-      </c>
-      <c r="I173" t="n">
-        <v>1</v>
-      </c>
-      <c r="J173" t="inlineStr"/>
-      <c r="K173" t="inlineStr"/>
-      <c r="L173" t="inlineStr"/>
-      <c r="M173" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="174">
-      <c r="A174" s="1" t="n">
-        <v>172</v>
-      </c>
-      <c r="B174" t="n">
-        <v>11.9</v>
-      </c>
-      <c r="C174" t="n">
-        <v>11.9</v>
-      </c>
-      <c r="D174" t="n">
-        <v>11.9</v>
-      </c>
-      <c r="E174" t="n">
-        <v>11.9</v>
-      </c>
-      <c r="F174" t="n">
-        <v>32236.2036</v>
-      </c>
-      <c r="G174" t="n">
-        <v>4958752.815002277</v>
-      </c>
-      <c r="H174" t="n">
-        <v>0</v>
-      </c>
-      <c r="I174" t="n">
-        <v>1</v>
-      </c>
-      <c r="J174" t="inlineStr"/>
-      <c r="K174" t="inlineStr"/>
-      <c r="L174" t="inlineStr"/>
-      <c r="M174" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="175">
-      <c r="A175" s="1" t="n">
-        <v>173</v>
-      </c>
-      <c r="B175" t="n">
-        <v>11.9</v>
-      </c>
-      <c r="C175" t="n">
-        <v>11.9</v>
-      </c>
-      <c r="D175" t="n">
-        <v>11.9</v>
-      </c>
-      <c r="E175" t="n">
-        <v>11.9</v>
-      </c>
-      <c r="F175" t="n">
-        <v>4201.680672268908</v>
-      </c>
-      <c r="G175" t="n">
-        <v>4958752.815002277</v>
-      </c>
-      <c r="H175" t="n">
-        <v>0</v>
-      </c>
-      <c r="I175" t="n">
-        <v>1</v>
-      </c>
-      <c r="J175" t="inlineStr"/>
-      <c r="K175" t="inlineStr"/>
-      <c r="L175" t="inlineStr"/>
-      <c r="M175" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="176">
-      <c r="A176" s="1" t="n">
-        <v>174</v>
-      </c>
-      <c r="B176" t="n">
-        <v>11.8</v>
-      </c>
-      <c r="C176" t="n">
-        <v>11.8</v>
-      </c>
-      <c r="D176" t="n">
-        <v>11.8</v>
-      </c>
-      <c r="E176" t="n">
-        <v>11.8</v>
-      </c>
-      <c r="F176" t="n">
-        <v>25000</v>
-      </c>
-      <c r="G176" t="n">
-        <v>4933752.815002277</v>
-      </c>
-      <c r="H176" t="n">
-        <v>0</v>
-      </c>
-      <c r="I176" t="n">
-        <v>1</v>
-      </c>
-      <c r="J176" t="inlineStr"/>
-      <c r="K176" t="inlineStr"/>
-      <c r="L176" t="inlineStr"/>
-      <c r="M176" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="177">
-      <c r="A177" s="1" t="n">
-        <v>175</v>
-      </c>
-      <c r="B177" t="n">
-        <v>11.8</v>
-      </c>
-      <c r="C177" t="n">
-        <v>11.8</v>
-      </c>
-      <c r="D177" t="n">
-        <v>11.8</v>
-      </c>
-      <c r="E177" t="n">
-        <v>11.8</v>
-      </c>
-      <c r="F177" t="n">
-        <v>26673.5393</v>
-      </c>
-      <c r="G177" t="n">
-        <v>4933752.815002277</v>
-      </c>
-      <c r="H177" t="n">
-        <v>0</v>
-      </c>
-      <c r="I177" t="n">
-        <v>1</v>
-      </c>
-      <c r="J177" t="inlineStr"/>
-      <c r="K177" t="inlineStr"/>
-      <c r="L177" t="inlineStr"/>
-      <c r="M177" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="178">
-      <c r="A178" s="1" t="n">
-        <v>176</v>
-      </c>
-      <c r="B178" t="n">
-        <v>11.7</v>
-      </c>
-      <c r="C178" t="n">
-        <v>11.7</v>
-      </c>
-      <c r="D178" t="n">
-        <v>11.7</v>
-      </c>
-      <c r="E178" t="n">
-        <v>11.7</v>
-      </c>
-      <c r="F178" t="n">
-        <v>100</v>
-      </c>
-      <c r="G178" t="n">
-        <v>4933652.815002277</v>
-      </c>
-      <c r="H178" t="n">
-        <v>0</v>
-      </c>
-      <c r="I178" t="n">
-        <v>0</v>
-      </c>
-      <c r="J178" t="inlineStr"/>
-      <c r="K178" t="inlineStr"/>
-      <c r="L178" t="inlineStr"/>
-      <c r="M178" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="179">
-      <c r="A179" s="1" t="n">
-        <v>177</v>
-      </c>
-      <c r="B179" t="n">
-        <v>11.7</v>
-      </c>
-      <c r="C179" t="n">
-        <v>11.7</v>
-      </c>
-      <c r="D179" t="n">
-        <v>11.7</v>
-      </c>
-      <c r="E179" t="n">
-        <v>11.7</v>
-      </c>
-      <c r="F179" t="n">
-        <v>4201.6807</v>
-      </c>
-      <c r="G179" t="n">
-        <v>4933652.815002277</v>
-      </c>
-      <c r="H179" t="n">
-        <v>0</v>
-      </c>
-      <c r="I179" t="n">
-        <v>0</v>
-      </c>
-      <c r="J179" t="inlineStr"/>
-      <c r="K179" t="inlineStr"/>
-      <c r="L179" t="inlineStr"/>
-      <c r="M179" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="180">
-      <c r="A180" s="1" t="n">
-        <v>178</v>
-      </c>
-      <c r="B180" t="n">
-        <v>11.8</v>
-      </c>
-      <c r="C180" t="n">
-        <v>11.8</v>
-      </c>
-      <c r="D180" t="n">
-        <v>11.8</v>
-      </c>
-      <c r="E180" t="n">
-        <v>11.8</v>
-      </c>
-      <c r="F180" t="n">
-        <v>18152.8312</v>
-      </c>
-      <c r="G180" t="n">
-        <v>4951805.646202277</v>
-      </c>
-      <c r="H180" t="n">
-        <v>0</v>
-      </c>
-      <c r="I180" t="n">
-        <v>0</v>
-      </c>
-      <c r="J180" t="inlineStr"/>
-      <c r="K180" t="inlineStr"/>
-      <c r="L180" t="inlineStr"/>
-      <c r="M180" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="181">
-      <c r="A181" s="1" t="n">
-        <v>179</v>
-      </c>
-      <c r="B181" t="n">
-        <v>11.8</v>
-      </c>
-      <c r="C181" t="n">
-        <v>11.8</v>
-      </c>
-      <c r="D181" t="n">
-        <v>11.8</v>
-      </c>
-      <c r="E181" t="n">
-        <v>11.8</v>
-      </c>
-      <c r="F181" t="n">
-        <v>88371.85649999999</v>
-      </c>
-      <c r="G181" t="n">
-        <v>4951805.646202277</v>
-      </c>
-      <c r="H181" t="n">
-        <v>0</v>
-      </c>
-      <c r="I181" t="n">
-        <v>0</v>
-      </c>
-      <c r="J181" t="inlineStr"/>
-      <c r="K181" t="inlineStr"/>
-      <c r="L181" t="inlineStr"/>
-      <c r="M181" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="182">
-      <c r="A182" s="1" t="n">
-        <v>180</v>
-      </c>
-      <c r="B182" t="n">
-        <v>11.8</v>
-      </c>
-      <c r="C182" t="n">
-        <v>11.8</v>
-      </c>
-      <c r="D182" t="n">
-        <v>11.8</v>
-      </c>
-      <c r="E182" t="n">
-        <v>11.8</v>
-      </c>
-      <c r="F182" t="n">
-        <v>45978.7097</v>
-      </c>
-      <c r="G182" t="n">
-        <v>4951805.646202277</v>
-      </c>
-      <c r="H182" t="n">
-        <v>0</v>
-      </c>
-      <c r="I182" t="n">
-        <v>0</v>
-      </c>
-      <c r="J182" t="inlineStr"/>
-      <c r="K182" t="inlineStr"/>
-      <c r="L182" t="inlineStr"/>
-      <c r="M182" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="183">
-      <c r="A183" s="1" t="n">
-        <v>181</v>
-      </c>
-      <c r="B183" t="n">
-        <v>11.7</v>
-      </c>
-      <c r="C183" t="n">
-        <v>11.7</v>
-      </c>
-      <c r="D183" t="n">
-        <v>11.7</v>
-      </c>
-      <c r="E183" t="n">
-        <v>11.7</v>
-      </c>
-      <c r="F183" t="n">
-        <v>23959.5487</v>
-      </c>
-      <c r="G183" t="n">
-        <v>4927846.097502277</v>
-      </c>
-      <c r="H183" t="n">
-        <v>0</v>
-      </c>
-      <c r="I183" t="n">
-        <v>1</v>
-      </c>
-      <c r="J183" t="inlineStr"/>
-      <c r="K183" t="inlineStr"/>
-      <c r="L183" t="inlineStr"/>
-      <c r="M183" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="184">
-      <c r="A184" s="1" t="n">
-        <v>182</v>
-      </c>
-      <c r="B184" t="n">
-        <v>11.7</v>
-      </c>
-      <c r="C184" t="n">
-        <v>11.7</v>
-      </c>
-      <c r="D184" t="n">
-        <v>11.7</v>
-      </c>
-      <c r="E184" t="n">
-        <v>11.7</v>
-      </c>
-      <c r="F184" t="n">
-        <v>24965.0007</v>
-      </c>
-      <c r="G184" t="n">
-        <v>4927846.097502277</v>
-      </c>
-      <c r="H184" t="n">
-        <v>0</v>
-      </c>
-      <c r="I184" t="n">
-        <v>0</v>
-      </c>
-      <c r="J184" t="inlineStr"/>
-      <c r="K184" t="inlineStr"/>
-      <c r="L184" t="inlineStr"/>
-      <c r="M184" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="185">
-      <c r="A185" s="1" t="n">
-        <v>183</v>
-      </c>
-      <c r="B185" t="n">
-        <v>11.8</v>
-      </c>
-      <c r="C185" t="n">
-        <v>11.8</v>
-      </c>
-      <c r="D185" t="n">
-        <v>11.8</v>
-      </c>
-      <c r="E185" t="n">
-        <v>11.8</v>
-      </c>
-      <c r="F185" t="n">
-        <v>4226.6613</v>
-      </c>
-      <c r="G185" t="n">
-        <v>4932072.758802277</v>
-      </c>
-      <c r="H185" t="n">
-        <v>0</v>
-      </c>
-      <c r="I185" t="n">
-        <v>0</v>
-      </c>
-      <c r="J185" t="inlineStr"/>
-      <c r="K185" t="inlineStr"/>
-      <c r="L185" t="inlineStr"/>
-      <c r="M185" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="186">
-      <c r="A186" s="1" t="n">
-        <v>184</v>
-      </c>
-      <c r="B186" t="n">
-        <v>11.8</v>
-      </c>
-      <c r="C186" t="n">
-        <v>11.8</v>
-      </c>
-      <c r="D186" t="n">
-        <v>11.8</v>
-      </c>
-      <c r="E186" t="n">
-        <v>11.8</v>
-      </c>
-      <c r="F186" t="n">
-        <v>6079.6567</v>
-      </c>
-      <c r="G186" t="n">
-        <v>4932072.758802277</v>
-      </c>
-      <c r="H186" t="n">
-        <v>0</v>
-      </c>
-      <c r="I186" t="n">
-        <v>0</v>
-      </c>
-      <c r="J186" t="inlineStr"/>
-      <c r="K186" t="inlineStr"/>
-      <c r="L186" t="inlineStr"/>
-      <c r="M186" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="187">
-      <c r="A187" s="1" t="n">
-        <v>185</v>
-      </c>
-      <c r="B187" t="n">
-        <v>11.8</v>
-      </c>
-      <c r="C187" t="n">
-        <v>11.8</v>
-      </c>
-      <c r="D187" t="n">
-        <v>11.8</v>
-      </c>
-      <c r="E187" t="n">
-        <v>11.8</v>
-      </c>
-      <c r="F187" t="n">
-        <v>4360</v>
-      </c>
-      <c r="G187" t="n">
-        <v>4932072.758802277</v>
-      </c>
-      <c r="H187" t="n">
-        <v>0</v>
-      </c>
-      <c r="I187" t="n">
-        <v>0</v>
-      </c>
-      <c r="J187" t="inlineStr"/>
-      <c r="K187" t="inlineStr"/>
-      <c r="L187" t="inlineStr"/>
-      <c r="M187" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="188">
-      <c r="A188" s="1" t="n">
-        <v>186</v>
-      </c>
-      <c r="B188" t="n">
-        <v>11.8</v>
-      </c>
-      <c r="C188" t="n">
-        <v>11.8</v>
-      </c>
-      <c r="D188" t="n">
-        <v>11.8</v>
-      </c>
-      <c r="E188" t="n">
-        <v>11.8</v>
-      </c>
-      <c r="F188" t="n">
-        <v>298792.3166</v>
-      </c>
-      <c r="G188" t="n">
-        <v>4932072.758802277</v>
-      </c>
-      <c r="H188" t="n">
-        <v>0</v>
-      </c>
-      <c r="I188" t="n">
-        <v>0</v>
-      </c>
-      <c r="J188" t="inlineStr"/>
-      <c r="K188" t="inlineStr"/>
-      <c r="L188" t="inlineStr"/>
-      <c r="M188" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="189">
-      <c r="A189" s="1" t="n">
-        <v>187</v>
-      </c>
-      <c r="B189" t="n">
-        <v>11.8</v>
-      </c>
-      <c r="C189" t="n">
-        <v>11.8</v>
-      </c>
-      <c r="D189" t="n">
-        <v>11.8</v>
-      </c>
-      <c r="E189" t="n">
-        <v>11.8</v>
-      </c>
-      <c r="F189" t="n">
-        <v>63287.2407</v>
-      </c>
-      <c r="G189" t="n">
-        <v>4932072.758802277</v>
-      </c>
-      <c r="H189" t="n">
-        <v>0</v>
-      </c>
-      <c r="I189" t="n">
-        <v>0</v>
-      </c>
-      <c r="J189" t="inlineStr"/>
-      <c r="K189" t="inlineStr"/>
-      <c r="L189" t="inlineStr"/>
-      <c r="M189" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="190">
-      <c r="A190" s="1" t="n">
-        <v>188</v>
-      </c>
-      <c r="B190" t="n">
-        <v>11.8</v>
-      </c>
-      <c r="C190" t="n">
-        <v>11.9</v>
-      </c>
-      <c r="D190" t="n">
-        <v>11.9</v>
-      </c>
-      <c r="E190" t="n">
-        <v>11.8</v>
-      </c>
-      <c r="F190" t="n">
-        <v>30773.29091512605</v>
-      </c>
-      <c r="G190" t="n">
-        <v>4962846.049717403</v>
-      </c>
-      <c r="H190" t="n">
-        <v>0</v>
-      </c>
-      <c r="I190" t="n">
-        <v>0</v>
-      </c>
-      <c r="J190" t="inlineStr"/>
-      <c r="K190" t="inlineStr"/>
-      <c r="L190" t="inlineStr"/>
-      <c r="M190" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="191">
-      <c r="A191" s="1" t="n">
-        <v>189</v>
-      </c>
-      <c r="B191" t="n">
-        <v>11.9</v>
-      </c>
-      <c r="C191" t="n">
-        <v>11.8</v>
-      </c>
-      <c r="D191" t="n">
-        <v>11.9</v>
-      </c>
-      <c r="E191" t="n">
-        <v>11.8</v>
-      </c>
-      <c r="F191" t="n">
-        <v>123781.9023848739</v>
-      </c>
-      <c r="G191" t="n">
-        <v>4839064.14733253</v>
-      </c>
-      <c r="H191" t="n">
-        <v>0</v>
-      </c>
-      <c r="I191" t="n">
-        <v>0</v>
-      </c>
-      <c r="J191" t="inlineStr"/>
-      <c r="K191" t="inlineStr"/>
-      <c r="L191" t="inlineStr"/>
-      <c r="M191" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="192">
-      <c r="A192" s="1" t="n">
-        <v>190</v>
-      </c>
-      <c r="B192" t="n">
-        <v>11.8</v>
-      </c>
-      <c r="C192" t="n">
-        <v>11.8</v>
-      </c>
-      <c r="D192" t="n">
-        <v>11.8</v>
-      </c>
-      <c r="E192" t="n">
-        <v>11.8</v>
-      </c>
-      <c r="F192" t="n">
-        <v>171836.0471</v>
-      </c>
-      <c r="G192" t="n">
-        <v>4839064.14733253</v>
-      </c>
-      <c r="H192" t="n">
-        <v>0</v>
-      </c>
-      <c r="I192" t="n">
-        <v>1</v>
-      </c>
-      <c r="J192" t="inlineStr"/>
-      <c r="K192" t="inlineStr"/>
-      <c r="L192" t="inlineStr"/>
-      <c r="M192" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="193">
-      <c r="A193" s="1" t="n">
-        <v>191</v>
-      </c>
-      <c r="B193" t="n">
-        <v>11.8</v>
-      </c>
-      <c r="C193" t="n">
-        <v>11.8</v>
-      </c>
-      <c r="D193" t="n">
-        <v>11.8</v>
-      </c>
-      <c r="E193" t="n">
-        <v>11.8</v>
-      </c>
-      <c r="F193" t="n">
-        <v>1.5126050420168e-05</v>
-      </c>
-      <c r="G193" t="n">
-        <v>4839064.14733253</v>
-      </c>
-      <c r="H193" t="n">
-        <v>0</v>
-      </c>
-      <c r="I193" t="n">
-        <v>0</v>
-      </c>
-      <c r="J193" t="inlineStr"/>
-      <c r="K193" t="inlineStr"/>
-      <c r="L193" t="inlineStr"/>
-      <c r="M193" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="194">
-      <c r="A194" s="1" t="n">
-        <v>192</v>
-      </c>
-      <c r="B194" t="n">
-        <v>11.8</v>
-      </c>
-      <c r="C194" t="n">
-        <v>11.8</v>
-      </c>
-      <c r="D194" t="n">
-        <v>11.8</v>
-      </c>
-      <c r="E194" t="n">
-        <v>11.8</v>
-      </c>
-      <c r="F194" t="n">
-        <v>19132.62628487395</v>
-      </c>
-      <c r="G194" t="n">
-        <v>4839064.14733253</v>
-      </c>
-      <c r="H194" t="n">
-        <v>0</v>
-      </c>
-      <c r="I194" t="n">
-        <v>0</v>
-      </c>
-      <c r="J194" t="inlineStr"/>
-      <c r="K194" t="inlineStr"/>
-      <c r="L194" t="inlineStr"/>
-      <c r="M194" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="195">
-      <c r="A195" s="1" t="n">
-        <v>193</v>
-      </c>
-      <c r="B195" t="n">
-        <v>11.9</v>
-      </c>
-      <c r="C195" t="n">
-        <v>11.9</v>
-      </c>
-      <c r="D195" t="n">
-        <v>11.9</v>
-      </c>
-      <c r="E195" t="n">
-        <v>11.8</v>
-      </c>
-      <c r="F195" t="n">
-        <v>21072.6183</v>
-      </c>
-      <c r="G195" t="n">
-        <v>4860136.76563253</v>
-      </c>
-      <c r="H195" t="n">
-        <v>0</v>
-      </c>
-      <c r="I195" t="n">
-        <v>0</v>
-      </c>
-      <c r="J195" t="inlineStr"/>
-      <c r="K195" t="inlineStr"/>
-      <c r="L195" t="inlineStr"/>
-      <c r="M195" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="196">
-      <c r="A196" s="1" t="n">
-        <v>194</v>
-      </c>
-      <c r="B196" t="n">
-        <v>11.9</v>
-      </c>
-      <c r="C196" t="n">
-        <v>11.9</v>
-      </c>
-      <c r="D196" t="n">
-        <v>11.9</v>
-      </c>
-      <c r="E196" t="n">
-        <v>11.9</v>
-      </c>
-      <c r="F196" t="n">
-        <v>6899.4078</v>
-      </c>
-      <c r="G196" t="n">
-        <v>4860136.76563253</v>
-      </c>
-      <c r="H196" t="n">
-        <v>0</v>
-      </c>
-      <c r="I196" t="n">
-        <v>0</v>
-      </c>
-      <c r="J196" t="inlineStr"/>
-      <c r="K196" t="inlineStr"/>
-      <c r="L196" t="inlineStr"/>
-      <c r="M196" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="197">
-      <c r="A197" s="1" t="n">
-        <v>195</v>
-      </c>
-      <c r="B197" t="n">
-        <v>12</v>
-      </c>
-      <c r="C197" t="n">
-        <v>11.9</v>
-      </c>
-      <c r="D197" t="n">
-        <v>12</v>
-      </c>
-      <c r="E197" t="n">
-        <v>11.8</v>
-      </c>
-      <c r="F197" t="n">
-        <v>86491.4749</v>
-      </c>
-      <c r="G197" t="n">
-        <v>4860136.76563253</v>
-      </c>
-      <c r="H197" t="n">
-        <v>0</v>
-      </c>
-      <c r="I197" t="n">
-        <v>1</v>
-      </c>
-      <c r="J197" t="inlineStr"/>
-      <c r="K197" t="inlineStr"/>
-      <c r="L197" t="inlineStr"/>
-      <c r="M197" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="198">
-      <c r="A198" s="1" t="n">
-        <v>196</v>
-      </c>
-      <c r="B198" t="n">
-        <v>11.9</v>
-      </c>
-      <c r="C198" t="n">
-        <v>11.8</v>
-      </c>
-      <c r="D198" t="n">
-        <v>11.9</v>
-      </c>
-      <c r="E198" t="n">
-        <v>11.8</v>
-      </c>
-      <c r="F198" t="n">
-        <v>176106.8292</v>
-      </c>
-      <c r="G198" t="n">
-        <v>4684029.93643253</v>
-      </c>
-      <c r="H198" t="n">
-        <v>0</v>
-      </c>
-      <c r="I198" t="n">
-        <v>1</v>
-      </c>
-      <c r="J198" t="inlineStr"/>
-      <c r="K198" t="inlineStr"/>
-      <c r="L198" t="inlineStr"/>
-      <c r="M198" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="199">
-      <c r="A199" s="1" t="n">
-        <v>197</v>
-      </c>
-      <c r="B199" t="n">
-        <v>11.9</v>
-      </c>
-      <c r="C199" t="n">
-        <v>11.9</v>
-      </c>
-      <c r="D199" t="n">
-        <v>11.9</v>
-      </c>
-      <c r="E199" t="n">
-        <v>11.9</v>
-      </c>
-      <c r="F199" t="n">
-        <v>43635.9061</v>
-      </c>
-      <c r="G199" t="n">
-        <v>4727665.84253253</v>
-      </c>
-      <c r="H199" t="n">
-        <v>0</v>
-      </c>
-      <c r="I199" t="n">
-        <v>0</v>
-      </c>
-      <c r="J199" t="inlineStr"/>
-      <c r="K199" t="inlineStr"/>
-      <c r="L199" t="inlineStr"/>
-      <c r="M199" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="200">
-      <c r="A200" s="1" t="n">
-        <v>198</v>
-      </c>
-      <c r="B200" t="n">
-        <v>12</v>
-      </c>
-      <c r="C200" t="n">
-        <v>12</v>
-      </c>
-      <c r="D200" t="n">
-        <v>12</v>
-      </c>
-      <c r="E200" t="n">
-        <v>12</v>
-      </c>
-      <c r="F200" t="n">
-        <v>80</v>
-      </c>
-      <c r="G200" t="n">
-        <v>4727745.84253253</v>
-      </c>
-      <c r="H200" t="n">
-        <v>0</v>
-      </c>
-      <c r="I200" t="n">
-        <v>1</v>
-      </c>
-      <c r="J200" t="inlineStr"/>
-      <c r="K200" t="inlineStr"/>
-      <c r="L200" t="inlineStr"/>
-      <c r="M200" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="201">
-      <c r="A201" s="1" t="n">
-        <v>199</v>
-      </c>
-      <c r="B201" t="n">
-        <v>11.9</v>
-      </c>
-      <c r="C201" t="n">
-        <v>11.9</v>
-      </c>
-      <c r="D201" t="n">
-        <v>11.9</v>
-      </c>
-      <c r="E201" t="n">
-        <v>11.9</v>
-      </c>
-      <c r="F201" t="n">
-        <v>8831</v>
-      </c>
-      <c r="G201" t="n">
-        <v>4718914.84253253</v>
-      </c>
-      <c r="H201" t="n">
-        <v>0</v>
-      </c>
-      <c r="I201" t="n">
-        <v>1</v>
-      </c>
-      <c r="J201" t="inlineStr"/>
-      <c r="K201" t="inlineStr"/>
-      <c r="L201" t="inlineStr"/>
-      <c r="M201" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="202">
-      <c r="A202" s="1" t="n">
-        <v>200</v>
-      </c>
-      <c r="B202" t="n">
-        <v>11.9</v>
-      </c>
-      <c r="C202" t="n">
-        <v>11.9</v>
-      </c>
-      <c r="D202" t="n">
-        <v>11.9</v>
-      </c>
-      <c r="E202" t="n">
-        <v>11.9</v>
-      </c>
-      <c r="F202" t="n">
-        <v>982.0187</v>
-      </c>
-      <c r="G202" t="n">
-        <v>4718914.84253253</v>
-      </c>
-      <c r="H202" t="n">
-        <v>0</v>
-      </c>
-      <c r="I202" t="n">
-        <v>1</v>
-      </c>
-      <c r="J202" t="inlineStr"/>
-      <c r="K202" t="inlineStr"/>
-      <c r="L202" t="inlineStr"/>
-      <c r="M202" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="203">
-      <c r="A203" s="1" t="n">
-        <v>201</v>
-      </c>
-      <c r="B203" t="n">
-        <v>11.9</v>
-      </c>
-      <c r="C203" t="n">
-        <v>11.9</v>
-      </c>
-      <c r="D203" t="n">
-        <v>11.9</v>
-      </c>
-      <c r="E203" t="n">
-        <v>11.9</v>
-      </c>
-      <c r="F203" t="n">
-        <v>20000</v>
-      </c>
-      <c r="G203" t="n">
-        <v>4718914.84253253</v>
-      </c>
-      <c r="H203" t="n">
-        <v>0</v>
-      </c>
-      <c r="I203" t="n">
-        <v>1</v>
-      </c>
-      <c r="J203" t="inlineStr"/>
-      <c r="K203" t="inlineStr"/>
-      <c r="L203" t="inlineStr"/>
-      <c r="M203" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="204">
-      <c r="A204" s="1" t="n">
-        <v>202</v>
-      </c>
-      <c r="B204" t="n">
-        <v>11.8</v>
-      </c>
-      <c r="C204" t="n">
-        <v>11.7</v>
-      </c>
-      <c r="D204" t="n">
-        <v>11.8</v>
-      </c>
-      <c r="E204" t="n">
-        <v>11.7</v>
-      </c>
-      <c r="F204" t="n">
-        <v>41075.5745</v>
-      </c>
-      <c r="G204" t="n">
-        <v>4677839.26803253</v>
-      </c>
-      <c r="H204" t="n">
-        <v>0</v>
-      </c>
-      <c r="I204" t="n">
-        <v>1</v>
-      </c>
-      <c r="J204" t="inlineStr"/>
-      <c r="K204" t="inlineStr"/>
-      <c r="L204" t="inlineStr"/>
-      <c r="M204" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="205">
-      <c r="A205" s="1" t="n">
-        <v>203</v>
-      </c>
-      <c r="B205" t="n">
-        <v>11.7</v>
-      </c>
-      <c r="C205" t="n">
-        <v>11.7</v>
-      </c>
-      <c r="D205" t="n">
-        <v>11.7</v>
-      </c>
-      <c r="E205" t="n">
-        <v>11.7</v>
-      </c>
-      <c r="F205" t="n">
-        <v>106098.7638</v>
-      </c>
-      <c r="G205" t="n">
-        <v>4677839.26803253</v>
-      </c>
-      <c r="H205" t="n">
-        <v>0</v>
-      </c>
-      <c r="I205" t="n">
-        <v>0</v>
-      </c>
-      <c r="J205" t="inlineStr"/>
-      <c r="K205" t="inlineStr"/>
-      <c r="L205" t="inlineStr"/>
-      <c r="M205" t="n">
-        <v>1</v>
-      </c>
+      <c r="N163" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>

--- a/BackTest/2019-11-21 BackTest ORBS.xlsx
+++ b/BackTest/2019-11-21 BackTest ORBS.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N163"/>
+  <dimension ref="A1:N234"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -438,25 +438,25 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>11.6</v>
+        <v>11.4</v>
       </c>
       <c r="C2" t="n">
-        <v>11.6</v>
+        <v>11.4</v>
       </c>
       <c r="D2" t="n">
-        <v>11.6</v>
+        <v>11.4</v>
       </c>
       <c r="E2" t="n">
-        <v>11.6</v>
+        <v>11.4</v>
       </c>
       <c r="F2" t="n">
-        <v>11721</v>
+        <v>8326.356900000001</v>
       </c>
       <c r="G2" t="n">
-        <v>11.55000000000001</v>
+        <v>572186.3044288657</v>
       </c>
       <c r="H2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -474,35 +474,31 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>11.5</v>
+        <v>11.4</v>
       </c>
       <c r="C3" t="n">
-        <v>11.5</v>
+        <v>11.2</v>
       </c>
       <c r="D3" t="n">
-        <v>11.5</v>
+        <v>11.4</v>
       </c>
       <c r="E3" t="n">
-        <v>11.5</v>
+        <v>11.2</v>
       </c>
       <c r="F3" t="n">
-        <v>1200</v>
+        <v>499999</v>
       </c>
       <c r="G3" t="n">
-        <v>11.55000000000001</v>
+        <v>72187.30442886567</v>
       </c>
       <c r="H3" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
       </c>
-      <c r="J3" t="n">
-        <v>11.6</v>
-      </c>
-      <c r="K3" t="n">
-        <v>11.6</v>
-      </c>
+      <c r="J3" t="inlineStr"/>
+      <c r="K3" t="inlineStr"/>
       <c r="L3" t="inlineStr"/>
       <c r="M3" t="n">
         <v>1</v>
@@ -514,40 +510,32 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>11.6</v>
+        <v>11.3</v>
       </c>
       <c r="C4" t="n">
-        <v>11.6</v>
+        <v>11.2</v>
       </c>
       <c r="D4" t="n">
-        <v>11.6</v>
+        <v>11.3</v>
       </c>
       <c r="E4" t="n">
-        <v>11.6</v>
+        <v>11.2</v>
       </c>
       <c r="F4" t="n">
-        <v>39918</v>
+        <v>42778.0987</v>
       </c>
       <c r="G4" t="n">
-        <v>11.55000000000001</v>
+        <v>72187.30442886567</v>
       </c>
       <c r="H4" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
       </c>
-      <c r="J4" t="n">
-        <v>11.5</v>
-      </c>
-      <c r="K4" t="n">
-        <v>11.6</v>
-      </c>
-      <c r="L4" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+      <c r="J4" t="inlineStr"/>
+      <c r="K4" t="inlineStr"/>
+      <c r="L4" t="inlineStr"/>
       <c r="M4" t="n">
         <v>1</v>
       </c>
@@ -558,40 +546,32 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>11.6</v>
+        <v>11.4</v>
       </c>
       <c r="C5" t="n">
-        <v>11.6</v>
+        <v>11.4</v>
       </c>
       <c r="D5" t="n">
-        <v>11.6</v>
+        <v>11.4</v>
       </c>
       <c r="E5" t="n">
-        <v>11.6</v>
+        <v>11.4</v>
       </c>
       <c r="F5" t="n">
-        <v>348.2436</v>
+        <v>5597</v>
       </c>
       <c r="G5" t="n">
-        <v>11.60000000000001</v>
+        <v>77784.30442886567</v>
       </c>
       <c r="H5" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
       </c>
-      <c r="J5" t="n">
-        <v>11.6</v>
-      </c>
-      <c r="K5" t="n">
-        <v>11.6</v>
-      </c>
-      <c r="L5" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+      <c r="J5" t="inlineStr"/>
+      <c r="K5" t="inlineStr"/>
+      <c r="L5" t="inlineStr"/>
       <c r="M5" t="n">
         <v>1</v>
       </c>
@@ -602,35 +582,31 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>11.7</v>
+        <v>11.4</v>
       </c>
       <c r="C6" t="n">
-        <v>11.7</v>
+        <v>11.3</v>
       </c>
       <c r="D6" t="n">
-        <v>11.7</v>
+        <v>11.4</v>
       </c>
       <c r="E6" t="n">
-        <v>11.7</v>
+        <v>11.3</v>
       </c>
       <c r="F6" t="n">
-        <v>234.8206</v>
+        <v>56537.4222</v>
       </c>
       <c r="G6" t="n">
-        <v>11.65000000000001</v>
+        <v>21246.88222886567</v>
       </c>
       <c r="H6" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I6" t="n">
         <v>0</v>
       </c>
-      <c r="J6" t="n">
-        <v>11.6</v>
-      </c>
-      <c r="K6" t="n">
-        <v>11.6</v>
-      </c>
+      <c r="J6" t="inlineStr"/>
+      <c r="K6" t="inlineStr"/>
       <c r="L6" t="inlineStr"/>
       <c r="M6" t="n">
         <v>1</v>
@@ -642,40 +618,32 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>11.7</v>
+        <v>11.3</v>
       </c>
       <c r="C7" t="n">
-        <v>11.7</v>
+        <v>11.4</v>
       </c>
       <c r="D7" t="n">
-        <v>11.7</v>
+        <v>11.4</v>
       </c>
       <c r="E7" t="n">
-        <v>11.7</v>
+        <v>11.3</v>
       </c>
       <c r="F7" t="n">
-        <v>60130.1794</v>
+        <v>24582.6844</v>
       </c>
       <c r="G7" t="n">
-        <v>11.70000000000001</v>
+        <v>45829.56662886566</v>
       </c>
       <c r="H7" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
         <v>0</v>
       </c>
-      <c r="J7" t="n">
-        <v>11.7</v>
-      </c>
-      <c r="K7" t="n">
-        <v>11.6</v>
-      </c>
-      <c r="L7" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+      <c r="J7" t="inlineStr"/>
+      <c r="K7" t="inlineStr"/>
+      <c r="L7" t="inlineStr"/>
       <c r="M7" t="n">
         <v>1</v>
       </c>
@@ -686,22 +654,22 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>11.7</v>
+        <v>11.4</v>
       </c>
       <c r="C8" t="n">
-        <v>11.7</v>
+        <v>11.4</v>
       </c>
       <c r="D8" t="n">
-        <v>11.7</v>
+        <v>11.4</v>
       </c>
       <c r="E8" t="n">
-        <v>11.7</v>
+        <v>11.4</v>
       </c>
       <c r="F8" t="n">
-        <v>3296.405</v>
+        <v>807.4595</v>
       </c>
       <c r="G8" t="n">
-        <v>11.7</v>
+        <v>45829.56662886566</v>
       </c>
       <c r="H8" t="n">
         <v>1</v>
@@ -710,16 +678,12 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>11.7</v>
+        <v>11.4</v>
       </c>
       <c r="K8" t="n">
-        <v>11.6</v>
-      </c>
-      <c r="L8" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+        <v>11.4</v>
+      </c>
+      <c r="L8" t="inlineStr"/>
       <c r="M8" t="n">
         <v>1</v>
       </c>
@@ -730,36 +694,38 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>11.8</v>
+        <v>11.3</v>
       </c>
       <c r="C9" t="n">
-        <v>11.8</v>
+        <v>11.3</v>
       </c>
       <c r="D9" t="n">
-        <v>11.8</v>
+        <v>11.3</v>
       </c>
       <c r="E9" t="n">
-        <v>11.8</v>
+        <v>11.3</v>
       </c>
       <c r="F9" t="n">
-        <v>166602.5318</v>
+        <v>32645</v>
       </c>
       <c r="G9" t="n">
-        <v>11.75000000000001</v>
+        <v>13184.56662886566</v>
       </c>
       <c r="H9" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I9" t="n">
         <v>0</v>
       </c>
-      <c r="J9" t="n">
-        <v>11.7</v>
-      </c>
+      <c r="J9" t="inlineStr"/>
       <c r="K9" t="n">
-        <v>11.7</v>
-      </c>
-      <c r="L9" t="inlineStr"/>
+        <v>11.4</v>
+      </c>
+      <c r="L9" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="M9" t="n">
         <v>1</v>
       </c>
@@ -770,38 +736,36 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>11.9</v>
+        <v>11.3</v>
       </c>
       <c r="C10" t="n">
-        <v>11.6</v>
+        <v>11.3</v>
       </c>
       <c r="D10" t="n">
-        <v>11.9</v>
+        <v>11.3</v>
       </c>
       <c r="E10" t="n">
-        <v>11.5</v>
+        <v>11.3</v>
       </c>
       <c r="F10" t="n">
-        <v>157159.5878</v>
+        <v>8073</v>
       </c>
       <c r="G10" t="n">
-        <v>11.7</v>
+        <v>13184.56662886566</v>
       </c>
       <c r="H10" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
         <v>0</v>
       </c>
-      <c r="J10" t="n">
-        <v>11.8</v>
-      </c>
+      <c r="J10" t="inlineStr"/>
       <c r="K10" t="n">
-        <v>11.7</v>
+        <v>11.4</v>
       </c>
       <c r="L10" t="inlineStr">
         <is>
-          <t>매수 체결</t>
+          <t>매수 대기</t>
         </is>
       </c>
       <c r="M10" t="n">
@@ -814,22 +778,22 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>11.6</v>
+        <v>11.3</v>
       </c>
       <c r="C11" t="n">
-        <v>11.6</v>
+        <v>11.3</v>
       </c>
       <c r="D11" t="n">
-        <v>11.6</v>
+        <v>11.3</v>
       </c>
       <c r="E11" t="n">
-        <v>11.6</v>
+        <v>11.3</v>
       </c>
       <c r="F11" t="n">
-        <v>1546.1593</v>
+        <v>24305.407</v>
       </c>
       <c r="G11" t="n">
-        <v>11.6</v>
+        <v>13184.56662886566</v>
       </c>
       <c r="H11" t="n">
         <v>0</v>
@@ -838,14 +802,8 @@
         <v>0</v>
       </c>
       <c r="J11" t="inlineStr"/>
-      <c r="K11" t="n">
-        <v>11.7</v>
-      </c>
-      <c r="L11" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K11" t="inlineStr"/>
+      <c r="L11" t="inlineStr"/>
       <c r="M11" t="n">
         <v>1</v>
       </c>
@@ -856,22 +814,22 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>11.6</v>
+        <v>11.4</v>
       </c>
       <c r="C12" t="n">
-        <v>11.6</v>
+        <v>11.4</v>
       </c>
       <c r="D12" t="n">
-        <v>11.6</v>
+        <v>11.4</v>
       </c>
       <c r="E12" t="n">
-        <v>11.6</v>
+        <v>11.4</v>
       </c>
       <c r="F12" t="n">
-        <v>315.6044</v>
+        <v>1375.5024</v>
       </c>
       <c r="G12" t="n">
-        <v>11.6</v>
+        <v>14560.06902886566</v>
       </c>
       <c r="H12" t="n">
         <v>1</v>
@@ -880,16 +838,12 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>11.6</v>
+        <v>11.3</v>
       </c>
       <c r="K12" t="n">
-        <v>11.7</v>
-      </c>
-      <c r="L12" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>11.3</v>
+      </c>
+      <c r="L12" t="inlineStr"/>
       <c r="M12" t="n">
         <v>1</v>
       </c>
@@ -900,22 +854,22 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>11.6</v>
+        <v>11.4</v>
       </c>
       <c r="C13" t="n">
-        <v>11.6</v>
+        <v>11.4</v>
       </c>
       <c r="D13" t="n">
-        <v>11.6</v>
+        <v>11.4</v>
       </c>
       <c r="E13" t="n">
-        <v>11.6</v>
+        <v>11.4</v>
       </c>
       <c r="F13" t="n">
-        <v>19712.9732</v>
+        <v>2679.1378</v>
       </c>
       <c r="G13" t="n">
-        <v>11.6</v>
+        <v>14560.06902886566</v>
       </c>
       <c r="H13" t="n">
         <v>1</v>
@@ -924,14 +878,14 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>11.6</v>
+        <v>11.4</v>
       </c>
       <c r="K13" t="n">
-        <v>11.7</v>
+        <v>11.3</v>
       </c>
       <c r="L13" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매수 대기</t>
         </is>
       </c>
       <c r="M13" t="n">
@@ -944,22 +898,22 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>11.6</v>
+        <v>11.3</v>
       </c>
       <c r="C14" t="n">
-        <v>11.6</v>
+        <v>11.3</v>
       </c>
       <c r="D14" t="n">
-        <v>11.6</v>
+        <v>11.3</v>
       </c>
       <c r="E14" t="n">
-        <v>11.6</v>
+        <v>11.3</v>
       </c>
       <c r="F14" t="n">
-        <v>45319.1004</v>
+        <v>107298.5777</v>
       </c>
       <c r="G14" t="n">
-        <v>11.6</v>
+        <v>-92738.50867113433</v>
       </c>
       <c r="H14" t="n">
         <v>1</v>
@@ -968,14 +922,14 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>11.6</v>
+        <v>11.4</v>
       </c>
       <c r="K14" t="n">
-        <v>11.7</v>
+        <v>11.3</v>
       </c>
       <c r="L14" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매수 대기</t>
         </is>
       </c>
       <c r="M14" t="n">
@@ -988,38 +942,36 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>11.5</v>
+        <v>11.3</v>
       </c>
       <c r="C15" t="n">
-        <v>11.5</v>
+        <v>11.3</v>
       </c>
       <c r="D15" t="n">
-        <v>11.5</v>
+        <v>11.3</v>
       </c>
       <c r="E15" t="n">
-        <v>11.5</v>
+        <v>11.3</v>
       </c>
       <c r="F15" t="n">
-        <v>39667.0323</v>
+        <v>48631.578</v>
       </c>
       <c r="G15" t="n">
-        <v>11.55</v>
+        <v>-92738.50867113433</v>
       </c>
       <c r="H15" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I15" t="n">
         <v>0</v>
       </c>
-      <c r="J15" t="inlineStr"/>
+      <c r="J15" t="n">
+        <v>11.3</v>
+      </c>
       <c r="K15" t="n">
-        <v>11.7</v>
-      </c>
-      <c r="L15" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>11.3</v>
+      </c>
+      <c r="L15" t="inlineStr"/>
       <c r="M15" t="n">
         <v>1</v>
       </c>
@@ -1030,22 +982,22 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>11.7</v>
+        <v>11.4</v>
       </c>
       <c r="C16" t="n">
-        <v>11.7</v>
+        <v>11.4</v>
       </c>
       <c r="D16" t="n">
-        <v>11.7</v>
+        <v>11.4</v>
       </c>
       <c r="E16" t="n">
-        <v>11.7</v>
+        <v>11.4</v>
       </c>
       <c r="F16" t="n">
-        <v>12448.8178</v>
+        <v>2500</v>
       </c>
       <c r="G16" t="n">
-        <v>11.6</v>
+        <v>-90238.50867113433</v>
       </c>
       <c r="H16" t="n">
         <v>1</v>
@@ -1054,14 +1006,14 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>11.5</v>
+        <v>11.3</v>
       </c>
       <c r="K16" t="n">
-        <v>11.7</v>
+        <v>11.3</v>
       </c>
       <c r="L16" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매수 대기</t>
         </is>
       </c>
       <c r="M16" t="n">
@@ -1074,22 +1026,22 @@
         <v>15</v>
       </c>
       <c r="B17" t="n">
-        <v>11.7</v>
+        <v>11.4</v>
       </c>
       <c r="C17" t="n">
-        <v>11.7</v>
+        <v>11.4</v>
       </c>
       <c r="D17" t="n">
-        <v>11.7</v>
+        <v>11.4</v>
       </c>
       <c r="E17" t="n">
-        <v>11.7</v>
+        <v>11.4</v>
       </c>
       <c r="F17" t="n">
-        <v>16129.033</v>
+        <v>17299.9168</v>
       </c>
       <c r="G17" t="n">
-        <v>11.7</v>
+        <v>-90238.50867113433</v>
       </c>
       <c r="H17" t="n">
         <v>1</v>
@@ -1098,14 +1050,14 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>11.7</v>
+        <v>11.4</v>
       </c>
       <c r="K17" t="n">
-        <v>11.7</v>
+        <v>11.3</v>
       </c>
       <c r="L17" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매수 대기</t>
         </is>
       </c>
       <c r="M17" t="n">
@@ -1118,22 +1070,22 @@
         <v>16</v>
       </c>
       <c r="B18" t="n">
-        <v>11.6</v>
+        <v>11.3</v>
       </c>
       <c r="C18" t="n">
-        <v>11.6</v>
+        <v>11.3</v>
       </c>
       <c r="D18" t="n">
-        <v>11.6</v>
+        <v>11.3</v>
       </c>
       <c r="E18" t="n">
-        <v>11.6</v>
+        <v>11.3</v>
       </c>
       <c r="F18" t="n">
-        <v>18850.881</v>
+        <v>27039</v>
       </c>
       <c r="G18" t="n">
-        <v>11.65</v>
+        <v>-117277.5086711343</v>
       </c>
       <c r="H18" t="n">
         <v>0</v>
@@ -1142,14 +1094,8 @@
         <v>0</v>
       </c>
       <c r="J18" t="inlineStr"/>
-      <c r="K18" t="n">
-        <v>11.7</v>
-      </c>
-      <c r="L18" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K18" t="inlineStr"/>
+      <c r="L18" t="inlineStr"/>
       <c r="M18" t="n">
         <v>1</v>
       </c>
@@ -1160,22 +1106,22 @@
         <v>17</v>
       </c>
       <c r="B19" t="n">
-        <v>11.6</v>
+        <v>11.3</v>
       </c>
       <c r="C19" t="n">
-        <v>11.6</v>
+        <v>11.3</v>
       </c>
       <c r="D19" t="n">
-        <v>11.6</v>
+        <v>11.3</v>
       </c>
       <c r="E19" t="n">
-        <v>11.6</v>
+        <v>11.3</v>
       </c>
       <c r="F19" t="n">
-        <v>87199.11900000001</v>
+        <v>15228.602</v>
       </c>
       <c r="G19" t="n">
-        <v>11.6</v>
+        <v>-117277.5086711343</v>
       </c>
       <c r="H19" t="n">
         <v>1</v>
@@ -1184,16 +1130,12 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>11.6</v>
+        <v>11.3</v>
       </c>
       <c r="K19" t="n">
-        <v>11.7</v>
-      </c>
-      <c r="L19" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>11.3</v>
+      </c>
+      <c r="L19" t="inlineStr"/>
       <c r="M19" t="n">
         <v>1</v>
       </c>
@@ -1204,22 +1146,22 @@
         <v>18</v>
       </c>
       <c r="B20" t="n">
-        <v>11.6</v>
+        <v>11.3</v>
       </c>
       <c r="C20" t="n">
-        <v>11.6</v>
+        <v>11.3</v>
       </c>
       <c r="D20" t="n">
-        <v>11.6</v>
+        <v>11.3</v>
       </c>
       <c r="E20" t="n">
-        <v>11.6</v>
+        <v>11.3</v>
       </c>
       <c r="F20" t="n">
-        <v>12800.881</v>
+        <v>1234.472</v>
       </c>
       <c r="G20" t="n">
-        <v>11.59999999999999</v>
+        <v>-117277.5086711343</v>
       </c>
       <c r="H20" t="n">
         <v>1</v>
@@ -1228,14 +1170,14 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>11.6</v>
+        <v>11.3</v>
       </c>
       <c r="K20" t="n">
-        <v>11.7</v>
+        <v>11.3</v>
       </c>
       <c r="L20" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매수 대기</t>
         </is>
       </c>
       <c r="M20" t="n">
@@ -1248,22 +1190,22 @@
         <v>19</v>
       </c>
       <c r="B21" t="n">
-        <v>11.7</v>
+        <v>11.3</v>
       </c>
       <c r="C21" t="n">
-        <v>11.7</v>
+        <v>11.3</v>
       </c>
       <c r="D21" t="n">
-        <v>11.7</v>
+        <v>11.3</v>
       </c>
       <c r="E21" t="n">
-        <v>11.7</v>
+        <v>11.3</v>
       </c>
       <c r="F21" t="n">
-        <v>85966.81789999999</v>
+        <v>2107.8893</v>
       </c>
       <c r="G21" t="n">
-        <v>11.65</v>
+        <v>-117277.5086711343</v>
       </c>
       <c r="H21" t="n">
         <v>1</v>
@@ -1272,14 +1214,14 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>11.6</v>
+        <v>11.3</v>
       </c>
       <c r="K21" t="n">
-        <v>11.7</v>
+        <v>11.3</v>
       </c>
       <c r="L21" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매수 대기</t>
         </is>
       </c>
       <c r="M21" t="n">
@@ -1292,38 +1234,36 @@
         <v>20</v>
       </c>
       <c r="B22" t="n">
-        <v>11.7</v>
+        <v>11.3</v>
       </c>
       <c r="C22" t="n">
-        <v>11.7</v>
+        <v>11.3</v>
       </c>
       <c r="D22" t="n">
-        <v>11.7</v>
+        <v>11.3</v>
       </c>
       <c r="E22" t="n">
-        <v>11.7</v>
+        <v>11.3</v>
       </c>
       <c r="F22" t="n">
-        <v>13302038.8404</v>
+        <v>897.278</v>
       </c>
       <c r="G22" t="n">
-        <v>11.69999999999999</v>
+        <v>-117277.5086711343</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I22" t="n">
         <v>0</v>
       </c>
-      <c r="J22" t="inlineStr"/>
+      <c r="J22" t="n">
+        <v>11.3</v>
+      </c>
       <c r="K22" t="n">
-        <v>11.7</v>
-      </c>
-      <c r="L22" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>11.3</v>
+      </c>
+      <c r="L22" t="inlineStr"/>
       <c r="M22" t="n">
         <v>1</v>
       </c>
@@ -1334,22 +1274,22 @@
         <v>21</v>
       </c>
       <c r="B23" t="n">
-        <v>11.7</v>
+        <v>11.3</v>
       </c>
       <c r="C23" t="n">
-        <v>11.7</v>
+        <v>11.3</v>
       </c>
       <c r="D23" t="n">
-        <v>11.7</v>
+        <v>11.3</v>
       </c>
       <c r="E23" t="n">
-        <v>11.6</v>
+        <v>11.3</v>
       </c>
       <c r="F23" t="n">
-        <v>130065131.364</v>
+        <v>25806.7562</v>
       </c>
       <c r="G23" t="n">
-        <v>11.69999999999999</v>
+        <v>-117277.5086711343</v>
       </c>
       <c r="H23" t="n">
         <v>1</v>
@@ -1358,14 +1298,14 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>11.7</v>
+        <v>11.3</v>
       </c>
       <c r="K23" t="n">
-        <v>11.7</v>
+        <v>11.3</v>
       </c>
       <c r="L23" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매수 대기</t>
         </is>
       </c>
       <c r="M23" t="n">
@@ -1378,22 +1318,22 @@
         <v>22</v>
       </c>
       <c r="B24" t="n">
-        <v>11.7</v>
+        <v>11.3</v>
       </c>
       <c r="C24" t="n">
-        <v>11.7</v>
+        <v>11.3</v>
       </c>
       <c r="D24" t="n">
-        <v>11.7</v>
+        <v>11.3</v>
       </c>
       <c r="E24" t="n">
-        <v>11.6</v>
+        <v>11.3</v>
       </c>
       <c r="F24" t="n">
-        <v>106001857.6074</v>
+        <v>725.3665</v>
       </c>
       <c r="G24" t="n">
-        <v>11.69999999999999</v>
+        <v>-117277.5086711343</v>
       </c>
       <c r="H24" t="n">
         <v>1</v>
@@ -1402,14 +1342,14 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>11.7</v>
+        <v>11.3</v>
       </c>
       <c r="K24" t="n">
-        <v>11.7</v>
+        <v>11.3</v>
       </c>
       <c r="L24" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매수 대기</t>
         </is>
       </c>
       <c r="M24" t="n">
@@ -1422,22 +1362,22 @@
         <v>23</v>
       </c>
       <c r="B25" t="n">
-        <v>11.7</v>
+        <v>11.3</v>
       </c>
       <c r="C25" t="n">
-        <v>11.7</v>
+        <v>11.3</v>
       </c>
       <c r="D25" t="n">
-        <v>11.7</v>
+        <v>11.3</v>
       </c>
       <c r="E25" t="n">
-        <v>11.7</v>
+        <v>11.3</v>
       </c>
       <c r="F25" t="n">
-        <v>92703390.89920001</v>
+        <v>2673.2721</v>
       </c>
       <c r="G25" t="n">
-        <v>11.69999999999999</v>
+        <v>-117277.5086711343</v>
       </c>
       <c r="H25" t="n">
         <v>1</v>
@@ -1446,16 +1386,12 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>11.7</v>
+        <v>11.3</v>
       </c>
       <c r="K25" t="n">
-        <v>11.7</v>
-      </c>
-      <c r="L25" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>11.3</v>
+      </c>
+      <c r="L25" t="inlineStr"/>
       <c r="M25" t="n">
         <v>1</v>
       </c>
@@ -1466,22 +1402,22 @@
         <v>24</v>
       </c>
       <c r="B26" t="n">
-        <v>11.7</v>
+        <v>11.3</v>
       </c>
       <c r="C26" t="n">
-        <v>11.7</v>
+        <v>11.3</v>
       </c>
       <c r="D26" t="n">
-        <v>11.7</v>
+        <v>11.3</v>
       </c>
       <c r="E26" t="n">
-        <v>11.7</v>
+        <v>11.3</v>
       </c>
       <c r="F26" t="n">
-        <v>38036926.8492</v>
+        <v>5266</v>
       </c>
       <c r="G26" t="n">
-        <v>11.69999999999999</v>
+        <v>-117277.5086711343</v>
       </c>
       <c r="H26" t="n">
         <v>1</v>
@@ -1490,14 +1426,14 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>11.7</v>
+        <v>11.3</v>
       </c>
       <c r="K26" t="n">
-        <v>11.7</v>
+        <v>11.3</v>
       </c>
       <c r="L26" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매수 대기</t>
         </is>
       </c>
       <c r="M26" t="n">
@@ -1510,22 +1446,22 @@
         <v>25</v>
       </c>
       <c r="B27" t="n">
-        <v>11.7</v>
+        <v>11.4</v>
       </c>
       <c r="C27" t="n">
-        <v>11.7</v>
+        <v>11.4</v>
       </c>
       <c r="D27" t="n">
-        <v>11.7</v>
+        <v>11.4</v>
       </c>
       <c r="E27" t="n">
-        <v>11.7</v>
+        <v>11.4</v>
       </c>
       <c r="F27" t="n">
-        <v>8453362.104</v>
+        <v>27211.7556</v>
       </c>
       <c r="G27" t="n">
-        <v>11.69999999999999</v>
+        <v>-90065.75307113433</v>
       </c>
       <c r="H27" t="n">
         <v>1</v>
@@ -1534,14 +1470,14 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>11.7</v>
+        <v>11.3</v>
       </c>
       <c r="K27" t="n">
-        <v>11.7</v>
+        <v>11.3</v>
       </c>
       <c r="L27" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매수 대기</t>
         </is>
       </c>
       <c r="M27" t="n">
@@ -1554,22 +1490,22 @@
         <v>26</v>
       </c>
       <c r="B28" t="n">
-        <v>11.7</v>
+        <v>11.3</v>
       </c>
       <c r="C28" t="n">
-        <v>11.7</v>
+        <v>11.3</v>
       </c>
       <c r="D28" t="n">
-        <v>11.7</v>
+        <v>11.3</v>
       </c>
       <c r="E28" t="n">
-        <v>11.7</v>
+        <v>11.3</v>
       </c>
       <c r="F28" t="n">
-        <v>156096310.7232</v>
+        <v>83125.51949999999</v>
       </c>
       <c r="G28" t="n">
-        <v>11.69999999999999</v>
+        <v>-173191.2725711343</v>
       </c>
       <c r="H28" t="n">
         <v>1</v>
@@ -1578,16 +1514,12 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>11.7</v>
+        <v>11.4</v>
       </c>
       <c r="K28" t="n">
-        <v>11.7</v>
-      </c>
-      <c r="L28" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>11.4</v>
+      </c>
+      <c r="L28" t="inlineStr"/>
       <c r="M28" t="n">
         <v>1</v>
       </c>
@@ -1598,22 +1530,22 @@
         <v>27</v>
       </c>
       <c r="B29" t="n">
-        <v>11.7</v>
+        <v>11.3</v>
       </c>
       <c r="C29" t="n">
-        <v>11.7</v>
+        <v>11.3</v>
       </c>
       <c r="D29" t="n">
-        <v>11.7</v>
+        <v>11.3</v>
       </c>
       <c r="E29" t="n">
-        <v>11.7</v>
+        <v>11.3</v>
       </c>
       <c r="F29" t="n">
-        <v>195853126.5092</v>
+        <v>23087</v>
       </c>
       <c r="G29" t="n">
-        <v>11.69999999999999</v>
+        <v>-173191.2725711343</v>
       </c>
       <c r="H29" t="n">
         <v>1</v>
@@ -1622,14 +1554,14 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>11.7</v>
+        <v>11.3</v>
       </c>
       <c r="K29" t="n">
-        <v>11.7</v>
+        <v>11.4</v>
       </c>
       <c r="L29" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매수 대기</t>
         </is>
       </c>
       <c r="M29" t="n">
@@ -1642,36 +1574,38 @@
         <v>28</v>
       </c>
       <c r="B30" t="n">
-        <v>11.7</v>
+        <v>11.4</v>
       </c>
       <c r="C30" t="n">
-        <v>11.7</v>
+        <v>11.4</v>
       </c>
       <c r="D30" t="n">
-        <v>11.7</v>
+        <v>11.4</v>
       </c>
       <c r="E30" t="n">
-        <v>11.7</v>
+        <v>11.4</v>
       </c>
       <c r="F30" t="n">
-        <v>158274385.0388</v>
+        <v>895.9933</v>
       </c>
       <c r="G30" t="n">
-        <v>11.69999999999999</v>
+        <v>-172295.2792711343</v>
       </c>
       <c r="H30" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I30" t="n">
         <v>0</v>
       </c>
-      <c r="J30" t="inlineStr"/>
+      <c r="J30" t="n">
+        <v>11.3</v>
+      </c>
       <c r="K30" t="n">
-        <v>11.7</v>
+        <v>11.4</v>
       </c>
       <c r="L30" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매수 대기</t>
         </is>
       </c>
       <c r="M30" t="n">
@@ -1684,38 +1618,36 @@
         <v>29</v>
       </c>
       <c r="B31" t="n">
-        <v>11.7</v>
+        <v>11.3</v>
       </c>
       <c r="C31" t="n">
-        <v>11.7</v>
+        <v>11.3</v>
       </c>
       <c r="D31" t="n">
-        <v>11.7</v>
+        <v>11.3</v>
       </c>
       <c r="E31" t="n">
-        <v>11.6</v>
+        <v>11.3</v>
       </c>
       <c r="F31" t="n">
-        <v>179923443.1154</v>
+        <v>238947.7055</v>
       </c>
       <c r="G31" t="n">
-        <v>11.69999999999999</v>
+        <v>-411242.9847711343</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I31" t="n">
         <v>0</v>
       </c>
-      <c r="J31" t="inlineStr"/>
+      <c r="J31" t="n">
+        <v>11.4</v>
+      </c>
       <c r="K31" t="n">
-        <v>11.7</v>
-      </c>
-      <c r="L31" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>11.4</v>
+      </c>
+      <c r="L31" t="inlineStr"/>
       <c r="M31" t="n">
         <v>1</v>
       </c>
@@ -1726,36 +1658,38 @@
         <v>30</v>
       </c>
       <c r="B32" t="n">
-        <v>11.7</v>
+        <v>11.4</v>
       </c>
       <c r="C32" t="n">
-        <v>11.7</v>
+        <v>11.3</v>
       </c>
       <c r="D32" t="n">
-        <v>11.7</v>
+        <v>11.4</v>
       </c>
       <c r="E32" t="n">
-        <v>11.6</v>
+        <v>11.3</v>
       </c>
       <c r="F32" t="n">
-        <v>121746723.4606</v>
+        <v>225.0001</v>
       </c>
       <c r="G32" t="n">
-        <v>11.69999999999999</v>
+        <v>-411242.9847711343</v>
       </c>
       <c r="H32" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I32" t="n">
         <v>0</v>
       </c>
-      <c r="J32" t="inlineStr"/>
+      <c r="J32" t="n">
+        <v>11.3</v>
+      </c>
       <c r="K32" t="n">
-        <v>11.7</v>
+        <v>11.4</v>
       </c>
       <c r="L32" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매수 체결</t>
         </is>
       </c>
       <c r="M32" t="n">
@@ -1768,32 +1702,34 @@
         <v>31</v>
       </c>
       <c r="B33" t="n">
-        <v>11.7</v>
+        <v>11.3</v>
       </c>
       <c r="C33" t="n">
-        <v>11.7</v>
+        <v>11.3</v>
       </c>
       <c r="D33" t="n">
-        <v>11.7</v>
+        <v>11.3</v>
       </c>
       <c r="E33" t="n">
-        <v>11.7</v>
+        <v>11.3</v>
       </c>
       <c r="F33" t="n">
-        <v>27976905.5353</v>
+        <v>224.9999</v>
       </c>
       <c r="G33" t="n">
-        <v>11.69999999999999</v>
+        <v>-411242.9847711343</v>
       </c>
       <c r="H33" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I33" t="n">
         <v>0</v>
       </c>
-      <c r="J33" t="inlineStr"/>
+      <c r="J33" t="n">
+        <v>11.3</v>
+      </c>
       <c r="K33" t="n">
-        <v>11.7</v>
+        <v>11.4</v>
       </c>
       <c r="L33" t="inlineStr">
         <is>
@@ -1810,32 +1746,34 @@
         <v>32</v>
       </c>
       <c r="B34" t="n">
-        <v>11.7</v>
+        <v>11.3</v>
       </c>
       <c r="C34" t="n">
-        <v>11.7</v>
+        <v>11.3</v>
       </c>
       <c r="D34" t="n">
-        <v>11.7</v>
+        <v>11.3</v>
       </c>
       <c r="E34" t="n">
-        <v>11.6</v>
+        <v>11.3</v>
       </c>
       <c r="F34" t="n">
-        <v>112470697.5007</v>
+        <v>1196.5449</v>
       </c>
       <c r="G34" t="n">
-        <v>11.69999999999999</v>
+        <v>-411242.9847711343</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I34" t="n">
         <v>0</v>
       </c>
-      <c r="J34" t="inlineStr"/>
+      <c r="J34" t="n">
+        <v>11.3</v>
+      </c>
       <c r="K34" t="n">
-        <v>11.7</v>
+        <v>11.4</v>
       </c>
       <c r="L34" t="inlineStr">
         <is>
@@ -1852,32 +1790,34 @@
         <v>33</v>
       </c>
       <c r="B35" t="n">
-        <v>11.7</v>
+        <v>11.3</v>
       </c>
       <c r="C35" t="n">
-        <v>11.7</v>
+        <v>11.3</v>
       </c>
       <c r="D35" t="n">
-        <v>11.7</v>
+        <v>11.3</v>
       </c>
       <c r="E35" t="n">
-        <v>11.7</v>
+        <v>11.3</v>
       </c>
       <c r="F35" t="n">
-        <v>186207290.4324</v>
+        <v>15336.6987</v>
       </c>
       <c r="G35" t="n">
-        <v>11.69999999999999</v>
+        <v>-411242.9847711343</v>
       </c>
       <c r="H35" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I35" t="n">
         <v>0</v>
       </c>
-      <c r="J35" t="inlineStr"/>
+      <c r="J35" t="n">
+        <v>11.3</v>
+      </c>
       <c r="K35" t="n">
-        <v>11.7</v>
+        <v>11.4</v>
       </c>
       <c r="L35" t="inlineStr">
         <is>
@@ -1894,32 +1834,34 @@
         <v>34</v>
       </c>
       <c r="B36" t="n">
-        <v>11.7</v>
+        <v>11.3</v>
       </c>
       <c r="C36" t="n">
-        <v>11.7</v>
+        <v>11.3</v>
       </c>
       <c r="D36" t="n">
-        <v>11.7</v>
+        <v>11.3</v>
       </c>
       <c r="E36" t="n">
-        <v>11.7</v>
+        <v>11.3</v>
       </c>
       <c r="F36" t="n">
-        <v>187632281.534</v>
+        <v>69635.2056</v>
       </c>
       <c r="G36" t="n">
-        <v>11.69999999999999</v>
+        <v>-411242.9847711343</v>
       </c>
       <c r="H36" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I36" t="n">
         <v>0</v>
       </c>
-      <c r="J36" t="inlineStr"/>
+      <c r="J36" t="n">
+        <v>11.3</v>
+      </c>
       <c r="K36" t="n">
-        <v>11.7</v>
+        <v>11.4</v>
       </c>
       <c r="L36" t="inlineStr">
         <is>
@@ -1936,32 +1878,34 @@
         <v>35</v>
       </c>
       <c r="B37" t="n">
-        <v>11.7</v>
+        <v>11.4</v>
       </c>
       <c r="C37" t="n">
-        <v>11.7</v>
+        <v>11.4</v>
       </c>
       <c r="D37" t="n">
-        <v>11.7</v>
+        <v>11.4</v>
       </c>
       <c r="E37" t="n">
-        <v>11.7</v>
+        <v>11.4</v>
       </c>
       <c r="F37" t="n">
-        <v>189037860.2988</v>
+        <v>25219.6044</v>
       </c>
       <c r="G37" t="n">
-        <v>11.69999999999999</v>
+        <v>-386023.3803711343</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I37" t="n">
         <v>0</v>
       </c>
-      <c r="J37" t="inlineStr"/>
+      <c r="J37" t="n">
+        <v>11.3</v>
+      </c>
       <c r="K37" t="n">
-        <v>11.7</v>
+        <v>11.4</v>
       </c>
       <c r="L37" t="inlineStr">
         <is>
@@ -1978,32 +1922,34 @@
         <v>36</v>
       </c>
       <c r="B38" t="n">
-        <v>11.7</v>
+        <v>11.4</v>
       </c>
       <c r="C38" t="n">
-        <v>11.7</v>
+        <v>11.4</v>
       </c>
       <c r="D38" t="n">
-        <v>11.7</v>
+        <v>11.4</v>
       </c>
       <c r="E38" t="n">
-        <v>11.7</v>
+        <v>11.4</v>
       </c>
       <c r="F38" t="n">
-        <v>189738700.8229</v>
+        <v>43750.2734</v>
       </c>
       <c r="G38" t="n">
-        <v>11.69999999999999</v>
+        <v>-386023.3803711343</v>
       </c>
       <c r="H38" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I38" t="n">
         <v>0</v>
       </c>
-      <c r="J38" t="inlineStr"/>
+      <c r="J38" t="n">
+        <v>11.4</v>
+      </c>
       <c r="K38" t="n">
-        <v>11.7</v>
+        <v>11.4</v>
       </c>
       <c r="L38" t="inlineStr">
         <is>
@@ -2020,32 +1966,34 @@
         <v>37</v>
       </c>
       <c r="B39" t="n">
-        <v>11.7</v>
+        <v>11.4</v>
       </c>
       <c r="C39" t="n">
-        <v>11.7</v>
+        <v>11.4</v>
       </c>
       <c r="D39" t="n">
-        <v>11.7</v>
+        <v>11.4</v>
       </c>
       <c r="E39" t="n">
-        <v>11.7</v>
+        <v>11.4</v>
       </c>
       <c r="F39" t="n">
-        <v>189733668.404</v>
+        <v>500</v>
       </c>
       <c r="G39" t="n">
-        <v>11.69999999999999</v>
+        <v>-386023.3803711343</v>
       </c>
       <c r="H39" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I39" t="n">
         <v>0</v>
       </c>
-      <c r="J39" t="inlineStr"/>
+      <c r="J39" t="n">
+        <v>11.4</v>
+      </c>
       <c r="K39" t="n">
-        <v>11.7</v>
+        <v>11.4</v>
       </c>
       <c r="L39" t="inlineStr">
         <is>
@@ -2062,32 +2010,34 @@
         <v>38</v>
       </c>
       <c r="B40" t="n">
-        <v>11.7</v>
+        <v>11.4</v>
       </c>
       <c r="C40" t="n">
-        <v>11.7</v>
+        <v>11.4</v>
       </c>
       <c r="D40" t="n">
-        <v>11.7</v>
+        <v>11.4</v>
       </c>
       <c r="E40" t="n">
-        <v>11.7</v>
+        <v>11.4</v>
       </c>
       <c r="F40" t="n">
-        <v>179900005.3512</v>
+        <v>40191.6896</v>
       </c>
       <c r="G40" t="n">
-        <v>11.69999999999999</v>
+        <v>-386023.3803711343</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I40" t="n">
         <v>0</v>
       </c>
-      <c r="J40" t="inlineStr"/>
+      <c r="J40" t="n">
+        <v>11.4</v>
+      </c>
       <c r="K40" t="n">
-        <v>11.7</v>
+        <v>11.4</v>
       </c>
       <c r="L40" t="inlineStr">
         <is>
@@ -2104,32 +2054,34 @@
         <v>39</v>
       </c>
       <c r="B41" t="n">
-        <v>11.7</v>
+        <v>11.3</v>
       </c>
       <c r="C41" t="n">
-        <v>11.7</v>
+        <v>11.3</v>
       </c>
       <c r="D41" t="n">
-        <v>11.7</v>
+        <v>11.3</v>
       </c>
       <c r="E41" t="n">
-        <v>11.7</v>
+        <v>11.3</v>
       </c>
       <c r="F41" t="n">
-        <v>186907693.1443</v>
+        <v>43750.2734</v>
       </c>
       <c r="G41" t="n">
-        <v>11.69999999999999</v>
+        <v>-429773.6537711343</v>
       </c>
       <c r="H41" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I41" t="n">
         <v>0</v>
       </c>
-      <c r="J41" t="inlineStr"/>
+      <c r="J41" t="n">
+        <v>11.4</v>
+      </c>
       <c r="K41" t="n">
-        <v>11.7</v>
+        <v>11.4</v>
       </c>
       <c r="L41" t="inlineStr">
         <is>
@@ -2146,32 +2098,34 @@
         <v>40</v>
       </c>
       <c r="B42" t="n">
-        <v>11.7</v>
+        <v>11.3</v>
       </c>
       <c r="C42" t="n">
-        <v>11.7</v>
+        <v>11.3</v>
       </c>
       <c r="D42" t="n">
-        <v>11.7</v>
+        <v>11.3</v>
       </c>
       <c r="E42" t="n">
-        <v>11.7</v>
+        <v>11.3</v>
       </c>
       <c r="F42" t="n">
-        <v>189019743.1377</v>
+        <v>40191.6896</v>
       </c>
       <c r="G42" t="n">
-        <v>11.69999999999999</v>
+        <v>-429773.6537711343</v>
       </c>
       <c r="H42" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I42" t="n">
         <v>0</v>
       </c>
-      <c r="J42" t="inlineStr"/>
+      <c r="J42" t="n">
+        <v>11.3</v>
+      </c>
       <c r="K42" t="n">
-        <v>11.7</v>
+        <v>11.4</v>
       </c>
       <c r="L42" t="inlineStr">
         <is>
@@ -2188,32 +2142,34 @@
         <v>41</v>
       </c>
       <c r="B43" t="n">
-        <v>11.7</v>
+        <v>11.4</v>
       </c>
       <c r="C43" t="n">
-        <v>11.7</v>
+        <v>11.4</v>
       </c>
       <c r="D43" t="n">
-        <v>11.7</v>
+        <v>11.4</v>
       </c>
       <c r="E43" t="n">
-        <v>11.7</v>
+        <v>11.4</v>
       </c>
       <c r="F43" t="n">
-        <v>186909832.5976</v>
+        <v>125891.237</v>
       </c>
       <c r="G43" t="n">
-        <v>11.69999999999999</v>
+        <v>-303882.4167711344</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I43" t="n">
         <v>0</v>
       </c>
-      <c r="J43" t="inlineStr"/>
+      <c r="J43" t="n">
+        <v>11.3</v>
+      </c>
       <c r="K43" t="n">
-        <v>11.7</v>
+        <v>11.4</v>
       </c>
       <c r="L43" t="inlineStr">
         <is>
@@ -2230,32 +2186,34 @@
         <v>42</v>
       </c>
       <c r="B44" t="n">
-        <v>11.7</v>
+        <v>11.3</v>
       </c>
       <c r="C44" t="n">
-        <v>11.7</v>
+        <v>11.3</v>
       </c>
       <c r="D44" t="n">
-        <v>11.7</v>
+        <v>11.3</v>
       </c>
       <c r="E44" t="n">
-        <v>11.7</v>
+        <v>11.3</v>
       </c>
       <c r="F44" t="n">
-        <v>191151814.6144</v>
+        <v>130</v>
       </c>
       <c r="G44" t="n">
-        <v>11.69999999999999</v>
+        <v>-304012.4167711344</v>
       </c>
       <c r="H44" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I44" t="n">
         <v>0</v>
       </c>
-      <c r="J44" t="inlineStr"/>
+      <c r="J44" t="n">
+        <v>11.4</v>
+      </c>
       <c r="K44" t="n">
-        <v>11.7</v>
+        <v>11.4</v>
       </c>
       <c r="L44" t="inlineStr">
         <is>
@@ -2272,22 +2230,22 @@
         <v>43</v>
       </c>
       <c r="B45" t="n">
-        <v>11.7</v>
+        <v>11.5</v>
       </c>
       <c r="C45" t="n">
-        <v>11.7</v>
+        <v>11.5</v>
       </c>
       <c r="D45" t="n">
-        <v>11.7</v>
+        <v>11.5</v>
       </c>
       <c r="E45" t="n">
-        <v>11.7</v>
+        <v>11.5</v>
       </c>
       <c r="F45" t="n">
-        <v>105400215.78</v>
+        <v>50</v>
       </c>
       <c r="G45" t="n">
-        <v>11.69999999999999</v>
+        <v>-303962.4167711344</v>
       </c>
       <c r="H45" t="n">
         <v>0</v>
@@ -2297,7 +2255,7 @@
       </c>
       <c r="J45" t="inlineStr"/>
       <c r="K45" t="n">
-        <v>11.7</v>
+        <v>11.4</v>
       </c>
       <c r="L45" t="inlineStr">
         <is>
@@ -2314,22 +2272,22 @@
         <v>44</v>
       </c>
       <c r="B46" t="n">
-        <v>11.7</v>
+        <v>11.5</v>
       </c>
       <c r="C46" t="n">
-        <v>11.7</v>
+        <v>11.5</v>
       </c>
       <c r="D46" t="n">
-        <v>11.7</v>
+        <v>11.5</v>
       </c>
       <c r="E46" t="n">
-        <v>11.7</v>
+        <v>11.5</v>
       </c>
       <c r="F46" t="n">
-        <v>178811966.5981</v>
+        <v>1988.8955</v>
       </c>
       <c r="G46" t="n">
-        <v>11.69999999999999</v>
+        <v>-303962.4167711344</v>
       </c>
       <c r="H46" t="n">
         <v>0</v>
@@ -2339,7 +2297,7 @@
       </c>
       <c r="J46" t="inlineStr"/>
       <c r="K46" t="n">
-        <v>11.7</v>
+        <v>11.4</v>
       </c>
       <c r="L46" t="inlineStr">
         <is>
@@ -2356,22 +2314,22 @@
         <v>45</v>
       </c>
       <c r="B47" t="n">
-        <v>11.7</v>
+        <v>11.5</v>
       </c>
       <c r="C47" t="n">
-        <v>11.7</v>
+        <v>11.5</v>
       </c>
       <c r="D47" t="n">
-        <v>11.7</v>
+        <v>11.5</v>
       </c>
       <c r="E47" t="n">
-        <v>11.7</v>
+        <v>11.5</v>
       </c>
       <c r="F47" t="n">
-        <v>190423056.5092</v>
+        <v>8674</v>
       </c>
       <c r="G47" t="n">
-        <v>11.69999999999999</v>
+        <v>-303962.4167711344</v>
       </c>
       <c r="H47" t="n">
         <v>0</v>
@@ -2381,7 +2339,7 @@
       </c>
       <c r="J47" t="inlineStr"/>
       <c r="K47" t="n">
-        <v>11.7</v>
+        <v>11.4</v>
       </c>
       <c r="L47" t="inlineStr">
         <is>
@@ -2398,22 +2356,22 @@
         <v>46</v>
       </c>
       <c r="B48" t="n">
-        <v>11.7</v>
+        <v>11.5</v>
       </c>
       <c r="C48" t="n">
-        <v>11.7</v>
+        <v>11.5</v>
       </c>
       <c r="D48" t="n">
-        <v>11.7</v>
+        <v>11.5</v>
       </c>
       <c r="E48" t="n">
-        <v>11.7</v>
+        <v>11.5</v>
       </c>
       <c r="F48" t="n">
-        <v>189720388.404</v>
+        <v>176183.8331</v>
       </c>
       <c r="G48" t="n">
-        <v>11.69999999999999</v>
+        <v>-303962.4167711344</v>
       </c>
       <c r="H48" t="n">
         <v>0</v>
@@ -2423,7 +2381,7 @@
       </c>
       <c r="J48" t="inlineStr"/>
       <c r="K48" t="n">
-        <v>11.7</v>
+        <v>11.4</v>
       </c>
       <c r="L48" t="inlineStr">
         <is>
@@ -2440,22 +2398,22 @@
         <v>47</v>
       </c>
       <c r="B49" t="n">
-        <v>11.7</v>
+        <v>11.5</v>
       </c>
       <c r="C49" t="n">
-        <v>11.8</v>
+        <v>11.5</v>
       </c>
       <c r="D49" t="n">
-        <v>11.8</v>
+        <v>11.5</v>
       </c>
       <c r="E49" t="n">
-        <v>11.7</v>
+        <v>11.5</v>
       </c>
       <c r="F49" t="n">
-        <v>5599959.6117</v>
+        <v>40665.2789</v>
       </c>
       <c r="G49" t="n">
-        <v>11.74999999999999</v>
+        <v>-303962.4167711344</v>
       </c>
       <c r="H49" t="n">
         <v>0</v>
@@ -2465,7 +2423,7 @@
       </c>
       <c r="J49" t="inlineStr"/>
       <c r="K49" t="n">
-        <v>11.7</v>
+        <v>11.4</v>
       </c>
       <c r="L49" t="inlineStr">
         <is>
@@ -2482,22 +2440,22 @@
         <v>48</v>
       </c>
       <c r="B50" t="n">
-        <v>11.8</v>
+        <v>11.5</v>
       </c>
       <c r="C50" t="n">
-        <v>11.8</v>
+        <v>11.6</v>
       </c>
       <c r="D50" t="n">
-        <v>11.8</v>
+        <v>11.6</v>
       </c>
       <c r="E50" t="n">
-        <v>11.8</v>
+        <v>11.4</v>
       </c>
       <c r="F50" t="n">
-        <v>4891.0665</v>
+        <v>99911.58106551724</v>
       </c>
       <c r="G50" t="n">
-        <v>11.79999999999999</v>
+        <v>-204050.8357056171</v>
       </c>
       <c r="H50" t="n">
         <v>0</v>
@@ -2507,7 +2465,7 @@
       </c>
       <c r="J50" t="inlineStr"/>
       <c r="K50" t="n">
-        <v>11.7</v>
+        <v>11.4</v>
       </c>
       <c r="L50" t="inlineStr">
         <is>
@@ -2524,22 +2482,22 @@
         <v>49</v>
       </c>
       <c r="B51" t="n">
-        <v>11.8</v>
+        <v>11.6</v>
       </c>
       <c r="C51" t="n">
-        <v>11.8</v>
+        <v>11.6</v>
       </c>
       <c r="D51" t="n">
-        <v>11.8</v>
+        <v>11.6</v>
       </c>
       <c r="E51" t="n">
-        <v>11.8</v>
+        <v>11.6</v>
       </c>
       <c r="F51" t="n">
-        <v>100000</v>
+        <v>104002.4714</v>
       </c>
       <c r="G51" t="n">
-        <v>11.79999999999999</v>
+        <v>-204050.8357056171</v>
       </c>
       <c r="H51" t="n">
         <v>0</v>
@@ -2549,7 +2507,7 @@
       </c>
       <c r="J51" t="inlineStr"/>
       <c r="K51" t="n">
-        <v>11.7</v>
+        <v>11.4</v>
       </c>
       <c r="L51" t="inlineStr">
         <is>
@@ -2566,22 +2524,22 @@
         <v>50</v>
       </c>
       <c r="B52" t="n">
-        <v>11.8</v>
+        <v>11.5</v>
       </c>
       <c r="C52" t="n">
-        <v>11.8</v>
+        <v>11.5</v>
       </c>
       <c r="D52" t="n">
-        <v>11.8</v>
+        <v>11.5</v>
       </c>
       <c r="E52" t="n">
-        <v>11.8</v>
+        <v>11.5</v>
       </c>
       <c r="F52" t="n">
-        <v>2000</v>
+        <v>13685.4766</v>
       </c>
       <c r="G52" t="n">
-        <v>11.79999999999999</v>
+        <v>-217736.3123056171</v>
       </c>
       <c r="H52" t="n">
         <v>0</v>
@@ -2591,7 +2549,7 @@
       </c>
       <c r="J52" t="inlineStr"/>
       <c r="K52" t="n">
-        <v>11.7</v>
+        <v>11.4</v>
       </c>
       <c r="L52" t="inlineStr">
         <is>
@@ -2608,22 +2566,22 @@
         <v>51</v>
       </c>
       <c r="B53" t="n">
-        <v>11.9</v>
+        <v>11.5</v>
       </c>
       <c r="C53" t="n">
-        <v>11.9</v>
+        <v>11.7</v>
       </c>
       <c r="D53" t="n">
-        <v>11.9</v>
+        <v>11.7</v>
       </c>
       <c r="E53" t="n">
-        <v>11.9</v>
+        <v>11.5</v>
       </c>
       <c r="F53" t="n">
-        <v>251.3883</v>
+        <v>62854.34188034188</v>
       </c>
       <c r="G53" t="n">
-        <v>11.84999999999999</v>
+        <v>-154881.9704252752</v>
       </c>
       <c r="H53" t="n">
         <v>0</v>
@@ -2633,7 +2591,7 @@
       </c>
       <c r="J53" t="inlineStr"/>
       <c r="K53" t="n">
-        <v>11.7</v>
+        <v>11.4</v>
       </c>
       <c r="L53" t="inlineStr">
         <is>
@@ -2650,22 +2608,22 @@
         <v>52</v>
       </c>
       <c r="B54" t="n">
-        <v>11.9</v>
+        <v>11.5</v>
       </c>
       <c r="C54" t="n">
-        <v>11.9</v>
+        <v>11.5</v>
       </c>
       <c r="D54" t="n">
-        <v>11.9</v>
+        <v>11.5</v>
       </c>
       <c r="E54" t="n">
-        <v>11.9</v>
+        <v>11.5</v>
       </c>
       <c r="F54" t="n">
-        <v>4201.680672268908</v>
+        <v>629.5689</v>
       </c>
       <c r="G54" t="n">
-        <v>11.89999999999999</v>
+        <v>-155511.5393252753</v>
       </c>
       <c r="H54" t="n">
         <v>0</v>
@@ -2675,7 +2633,7 @@
       </c>
       <c r="J54" t="inlineStr"/>
       <c r="K54" t="n">
-        <v>11.7</v>
+        <v>11.4</v>
       </c>
       <c r="L54" t="inlineStr">
         <is>
@@ -2692,22 +2650,22 @@
         <v>53</v>
       </c>
       <c r="B55" t="n">
-        <v>11.8</v>
+        <v>11.5</v>
       </c>
       <c r="C55" t="n">
-        <v>11.8</v>
+        <v>11.5</v>
       </c>
       <c r="D55" t="n">
-        <v>11.8</v>
+        <v>11.5</v>
       </c>
       <c r="E55" t="n">
-        <v>11.8</v>
+        <v>11.5</v>
       </c>
       <c r="F55" t="n">
-        <v>1733.9769</v>
+        <v>41123.5154</v>
       </c>
       <c r="G55" t="n">
-        <v>11.84999999999999</v>
+        <v>-155511.5393252753</v>
       </c>
       <c r="H55" t="n">
         <v>0</v>
@@ -2717,7 +2675,7 @@
       </c>
       <c r="J55" t="inlineStr"/>
       <c r="K55" t="n">
-        <v>11.7</v>
+        <v>11.4</v>
       </c>
       <c r="L55" t="inlineStr">
         <is>
@@ -2734,32 +2692,34 @@
         <v>54</v>
       </c>
       <c r="B56" t="n">
-        <v>11.7</v>
+        <v>11.5</v>
       </c>
       <c r="C56" t="n">
-        <v>11.7</v>
+        <v>11.5</v>
       </c>
       <c r="D56" t="n">
-        <v>11.7</v>
+        <v>11.5</v>
       </c>
       <c r="E56" t="n">
-        <v>11.7</v>
+        <v>11.5</v>
       </c>
       <c r="F56" t="n">
-        <v>58830</v>
+        <v>4347.826086956522</v>
       </c>
       <c r="G56" t="n">
-        <v>11.75</v>
+        <v>-155511.5393252753</v>
       </c>
       <c r="H56" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I56" t="n">
         <v>0</v>
       </c>
-      <c r="J56" t="inlineStr"/>
+      <c r="J56" t="n">
+        <v>11.5</v>
+      </c>
       <c r="K56" t="n">
-        <v>11.7</v>
+        <v>11.4</v>
       </c>
       <c r="L56" t="inlineStr">
         <is>
@@ -2776,32 +2736,34 @@
         <v>55</v>
       </c>
       <c r="B57" t="n">
-        <v>11.8</v>
+        <v>11.5</v>
       </c>
       <c r="C57" t="n">
-        <v>11.8</v>
+        <v>11.5</v>
       </c>
       <c r="D57" t="n">
-        <v>11.8</v>
+        <v>11.5</v>
       </c>
       <c r="E57" t="n">
-        <v>11.8</v>
+        <v>11.5</v>
       </c>
       <c r="F57" t="n">
-        <v>123789.0642</v>
+        <v>19712.9732</v>
       </c>
       <c r="G57" t="n">
-        <v>11.75</v>
+        <v>-155511.5393252753</v>
       </c>
       <c r="H57" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I57" t="n">
         <v>0</v>
       </c>
-      <c r="J57" t="inlineStr"/>
+      <c r="J57" t="n">
+        <v>11.5</v>
+      </c>
       <c r="K57" t="n">
-        <v>11.7</v>
+        <v>11.4</v>
       </c>
       <c r="L57" t="inlineStr">
         <is>
@@ -2818,22 +2780,22 @@
         <v>56</v>
       </c>
       <c r="B58" t="n">
-        <v>11.9</v>
+        <v>11.5</v>
       </c>
       <c r="C58" t="n">
-        <v>11.9</v>
+        <v>11.5</v>
       </c>
       <c r="D58" t="n">
-        <v>11.9</v>
+        <v>11.5</v>
       </c>
       <c r="E58" t="n">
-        <v>11.9</v>
+        <v>11.5</v>
       </c>
       <c r="F58" t="n">
-        <v>89823.7029</v>
+        <v>26021.841</v>
       </c>
       <c r="G58" t="n">
-        <v>11.85</v>
+        <v>-155511.5393252753</v>
       </c>
       <c r="H58" t="n">
         <v>0</v>
@@ -2843,7 +2805,7 @@
       </c>
       <c r="J58" t="inlineStr"/>
       <c r="K58" t="n">
-        <v>11.7</v>
+        <v>11.4</v>
       </c>
       <c r="L58" t="inlineStr">
         <is>
@@ -2860,32 +2822,34 @@
         <v>57</v>
       </c>
       <c r="B59" t="n">
-        <v>11.9</v>
+        <v>11.4</v>
       </c>
       <c r="C59" t="n">
-        <v>11.9</v>
+        <v>11.4</v>
       </c>
       <c r="D59" t="n">
-        <v>11.9</v>
+        <v>11.4</v>
       </c>
       <c r="E59" t="n">
-        <v>11.9</v>
+        <v>11.4</v>
       </c>
       <c r="F59" t="n">
-        <v>49.9214</v>
+        <v>7800.302</v>
       </c>
       <c r="G59" t="n">
-        <v>11.9</v>
+        <v>-163311.8413252753</v>
       </c>
       <c r="H59" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I59" t="n">
         <v>0</v>
       </c>
-      <c r="J59" t="inlineStr"/>
+      <c r="J59" t="n">
+        <v>11.5</v>
+      </c>
       <c r="K59" t="n">
-        <v>11.7</v>
+        <v>11.4</v>
       </c>
       <c r="L59" t="inlineStr">
         <is>
@@ -2902,32 +2866,34 @@
         <v>58</v>
       </c>
       <c r="B60" t="n">
-        <v>11.9</v>
+        <v>11.5</v>
       </c>
       <c r="C60" t="n">
-        <v>12.1</v>
+        <v>11.5</v>
       </c>
       <c r="D60" t="n">
-        <v>12.1</v>
+        <v>11.5</v>
       </c>
       <c r="E60" t="n">
-        <v>11.9</v>
+        <v>11.5</v>
       </c>
       <c r="F60" t="n">
-        <v>154646.1387492187</v>
+        <v>25059.84431304348</v>
       </c>
       <c r="G60" t="n">
-        <v>12</v>
+        <v>-138251.9970122318</v>
       </c>
       <c r="H60" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I60" t="n">
         <v>0</v>
       </c>
-      <c r="J60" t="inlineStr"/>
+      <c r="J60" t="n">
+        <v>11.4</v>
+      </c>
       <c r="K60" t="n">
-        <v>11.7</v>
+        <v>11.4</v>
       </c>
       <c r="L60" t="inlineStr">
         <is>
@@ -2944,32 +2910,34 @@
         <v>59</v>
       </c>
       <c r="B61" t="n">
-        <v>12.1</v>
+        <v>11.5</v>
       </c>
       <c r="C61" t="n">
-        <v>12.1</v>
+        <v>11.5</v>
       </c>
       <c r="D61" t="n">
-        <v>12.1</v>
+        <v>11.5</v>
       </c>
       <c r="E61" t="n">
-        <v>12.1</v>
+        <v>11.5</v>
       </c>
       <c r="F61" t="n">
-        <v>1980.0993</v>
+        <v>6472.514786956522</v>
       </c>
       <c r="G61" t="n">
-        <v>12.1</v>
+        <v>-138251.9970122318</v>
       </c>
       <c r="H61" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I61" t="n">
         <v>0</v>
       </c>
-      <c r="J61" t="inlineStr"/>
+      <c r="J61" t="n">
+        <v>11.5</v>
+      </c>
       <c r="K61" t="n">
-        <v>11.7</v>
+        <v>11.4</v>
       </c>
       <c r="L61" t="inlineStr">
         <is>
@@ -2986,32 +2954,34 @@
         <v>60</v>
       </c>
       <c r="B62" t="n">
-        <v>12</v>
+        <v>11.4</v>
       </c>
       <c r="C62" t="n">
-        <v>12</v>
+        <v>11.4</v>
       </c>
       <c r="D62" t="n">
-        <v>12</v>
+        <v>11.4</v>
       </c>
       <c r="E62" t="n">
-        <v>12</v>
+        <v>11.4</v>
       </c>
       <c r="F62" t="n">
-        <v>134024.0411</v>
+        <v>3241.875</v>
       </c>
       <c r="G62" t="n">
-        <v>12.05</v>
+        <v>-141493.8720122318</v>
       </c>
       <c r="H62" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I62" t="n">
         <v>0</v>
       </c>
-      <c r="J62" t="inlineStr"/>
+      <c r="J62" t="n">
+        <v>11.5</v>
+      </c>
       <c r="K62" t="n">
-        <v>11.7</v>
+        <v>11.4</v>
       </c>
       <c r="L62" t="inlineStr">
         <is>
@@ -3028,32 +2998,34 @@
         <v>61</v>
       </c>
       <c r="B63" t="n">
-        <v>12</v>
+        <v>11.4</v>
       </c>
       <c r="C63" t="n">
-        <v>12</v>
+        <v>11.4</v>
       </c>
       <c r="D63" t="n">
-        <v>12</v>
+        <v>11.4</v>
       </c>
       <c r="E63" t="n">
-        <v>12</v>
+        <v>11.4</v>
       </c>
       <c r="F63" t="n">
-        <v>1000</v>
+        <v>26021.841</v>
       </c>
       <c r="G63" t="n">
-        <v>12</v>
+        <v>-141493.8720122318</v>
       </c>
       <c r="H63" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I63" t="n">
         <v>0</v>
       </c>
-      <c r="J63" t="inlineStr"/>
+      <c r="J63" t="n">
+        <v>11.4</v>
+      </c>
       <c r="K63" t="n">
-        <v>11.7</v>
+        <v>11.4</v>
       </c>
       <c r="L63" t="inlineStr">
         <is>
@@ -3070,32 +3042,34 @@
         <v>62</v>
       </c>
       <c r="B64" t="n">
-        <v>12</v>
+        <v>11.4</v>
       </c>
       <c r="C64" t="n">
-        <v>12</v>
+        <v>11.4</v>
       </c>
       <c r="D64" t="n">
-        <v>12</v>
+        <v>11.4</v>
       </c>
       <c r="E64" t="n">
-        <v>12</v>
+        <v>11.4</v>
       </c>
       <c r="F64" t="n">
-        <v>41487.3614</v>
+        <v>100845.4887</v>
       </c>
       <c r="G64" t="n">
-        <v>12</v>
+        <v>-141493.8720122318</v>
       </c>
       <c r="H64" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I64" t="n">
         <v>0</v>
       </c>
-      <c r="J64" t="inlineStr"/>
+      <c r="J64" t="n">
+        <v>11.4</v>
+      </c>
       <c r="K64" t="n">
-        <v>11.7</v>
+        <v>11.4</v>
       </c>
       <c r="L64" t="inlineStr">
         <is>
@@ -3112,32 +3086,34 @@
         <v>63</v>
       </c>
       <c r="B65" t="n">
-        <v>12.1</v>
+        <v>11.5</v>
       </c>
       <c r="C65" t="n">
-        <v>12.1</v>
+        <v>11.5</v>
       </c>
       <c r="D65" t="n">
-        <v>12.1</v>
+        <v>11.5</v>
       </c>
       <c r="E65" t="n">
-        <v>12.1</v>
+        <v>11.5</v>
       </c>
       <c r="F65" t="n">
-        <v>11937.9435</v>
+        <v>9556.8855</v>
       </c>
       <c r="G65" t="n">
-        <v>12.05</v>
+        <v>-131936.9865122318</v>
       </c>
       <c r="H65" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I65" t="n">
         <v>0</v>
       </c>
-      <c r="J65" t="inlineStr"/>
+      <c r="J65" t="n">
+        <v>11.4</v>
+      </c>
       <c r="K65" t="n">
-        <v>11.7</v>
+        <v>11.4</v>
       </c>
       <c r="L65" t="inlineStr">
         <is>
@@ -3154,32 +3130,34 @@
         <v>64</v>
       </c>
       <c r="B66" t="n">
-        <v>12.1</v>
+        <v>11.5</v>
       </c>
       <c r="C66" t="n">
-        <v>12.1</v>
+        <v>11.5</v>
       </c>
       <c r="D66" t="n">
-        <v>12.1</v>
+        <v>11.5</v>
       </c>
       <c r="E66" t="n">
-        <v>12.1</v>
+        <v>11.5</v>
       </c>
       <c r="F66" t="n">
-        <v>17840.68947851239</v>
+        <v>78995.1009</v>
       </c>
       <c r="G66" t="n">
-        <v>12.1</v>
+        <v>-131936.9865122318</v>
       </c>
       <c r="H66" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I66" t="n">
         <v>0</v>
       </c>
-      <c r="J66" t="inlineStr"/>
+      <c r="J66" t="n">
+        <v>11.5</v>
+      </c>
       <c r="K66" t="n">
-        <v>11.7</v>
+        <v>11.4</v>
       </c>
       <c r="L66" t="inlineStr">
         <is>
@@ -3196,32 +3174,34 @@
         <v>65</v>
       </c>
       <c r="B67" t="n">
-        <v>12.2</v>
+        <v>11.6</v>
       </c>
       <c r="C67" t="n">
-        <v>12.1</v>
+        <v>11.6</v>
       </c>
       <c r="D67" t="n">
-        <v>12.2</v>
+        <v>11.6</v>
       </c>
       <c r="E67" t="n">
-        <v>12.1</v>
+        <v>11.6</v>
       </c>
       <c r="F67" t="n">
-        <v>85476.65089999999</v>
+        <v>10000</v>
       </c>
       <c r="G67" t="n">
-        <v>12.1</v>
+        <v>-121936.9865122318</v>
       </c>
       <c r="H67" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I67" t="n">
         <v>0</v>
       </c>
-      <c r="J67" t="inlineStr"/>
+      <c r="J67" t="n">
+        <v>11.5</v>
+      </c>
       <c r="K67" t="n">
-        <v>11.7</v>
+        <v>11.4</v>
       </c>
       <c r="L67" t="inlineStr">
         <is>
@@ -3238,32 +3218,34 @@
         <v>66</v>
       </c>
       <c r="B68" t="n">
-        <v>12.2</v>
+        <v>11.5</v>
       </c>
       <c r="C68" t="n">
-        <v>12.2</v>
+        <v>11.5</v>
       </c>
       <c r="D68" t="n">
-        <v>12.2</v>
+        <v>11.5</v>
       </c>
       <c r="E68" t="n">
-        <v>12.2</v>
+        <v>11.5</v>
       </c>
       <c r="F68" t="n">
-        <v>102072.4842</v>
+        <v>2900</v>
       </c>
       <c r="G68" t="n">
-        <v>12.15</v>
+        <v>-124836.9865122318</v>
       </c>
       <c r="H68" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I68" t="n">
         <v>0</v>
       </c>
-      <c r="J68" t="inlineStr"/>
+      <c r="J68" t="n">
+        <v>11.6</v>
+      </c>
       <c r="K68" t="n">
-        <v>11.7</v>
+        <v>11.4</v>
       </c>
       <c r="L68" t="inlineStr">
         <is>
@@ -3280,32 +3262,34 @@
         <v>67</v>
       </c>
       <c r="B69" t="n">
-        <v>12.1</v>
+        <v>11.5</v>
       </c>
       <c r="C69" t="n">
-        <v>12.1</v>
+        <v>11.5</v>
       </c>
       <c r="D69" t="n">
-        <v>12.1</v>
+        <v>11.5</v>
       </c>
       <c r="E69" t="n">
-        <v>12.1</v>
+        <v>11.5</v>
       </c>
       <c r="F69" t="n">
-        <v>3539</v>
+        <v>27100</v>
       </c>
       <c r="G69" t="n">
-        <v>12.15</v>
+        <v>-124836.9865122318</v>
       </c>
       <c r="H69" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I69" t="n">
         <v>0</v>
       </c>
-      <c r="J69" t="inlineStr"/>
+      <c r="J69" t="n">
+        <v>11.5</v>
+      </c>
       <c r="K69" t="n">
-        <v>11.7</v>
+        <v>11.4</v>
       </c>
       <c r="L69" t="inlineStr">
         <is>
@@ -3322,32 +3306,34 @@
         <v>68</v>
       </c>
       <c r="B70" t="n">
-        <v>12.3</v>
+        <v>11.6</v>
       </c>
       <c r="C70" t="n">
-        <v>12.3</v>
+        <v>11.6</v>
       </c>
       <c r="D70" t="n">
-        <v>12.3</v>
+        <v>11.6</v>
       </c>
       <c r="E70" t="n">
-        <v>12.3</v>
+        <v>11.6</v>
       </c>
       <c r="F70" t="n">
-        <v>41</v>
+        <v>20920</v>
       </c>
       <c r="G70" t="n">
-        <v>12.2</v>
+        <v>-103916.9865122318</v>
       </c>
       <c r="H70" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I70" t="n">
         <v>0</v>
       </c>
-      <c r="J70" t="inlineStr"/>
+      <c r="J70" t="n">
+        <v>11.5</v>
+      </c>
       <c r="K70" t="n">
-        <v>11.7</v>
+        <v>11.4</v>
       </c>
       <c r="L70" t="inlineStr">
         <is>
@@ -3364,32 +3350,34 @@
         <v>69</v>
       </c>
       <c r="B71" t="n">
-        <v>12.3</v>
+        <v>11.6</v>
       </c>
       <c r="C71" t="n">
-        <v>12.3</v>
+        <v>11.6</v>
       </c>
       <c r="D71" t="n">
-        <v>12.3</v>
+        <v>11.6</v>
       </c>
       <c r="E71" t="n">
-        <v>12.3</v>
+        <v>11.6</v>
       </c>
       <c r="F71" t="n">
-        <v>47091.4205</v>
+        <v>3250</v>
       </c>
       <c r="G71" t="n">
-        <v>12.3</v>
+        <v>-103916.9865122318</v>
       </c>
       <c r="H71" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I71" t="n">
         <v>0</v>
       </c>
-      <c r="J71" t="inlineStr"/>
+      <c r="J71" t="n">
+        <v>11.6</v>
+      </c>
       <c r="K71" t="n">
-        <v>11.7</v>
+        <v>11.4</v>
       </c>
       <c r="L71" t="inlineStr">
         <is>
@@ -3406,32 +3394,34 @@
         <v>70</v>
       </c>
       <c r="B72" t="n">
-        <v>12.1</v>
+        <v>11.5</v>
       </c>
       <c r="C72" t="n">
-        <v>12.1</v>
+        <v>11.5</v>
       </c>
       <c r="D72" t="n">
-        <v>12.1</v>
+        <v>11.5</v>
       </c>
       <c r="E72" t="n">
-        <v>12.1</v>
+        <v>11.5</v>
       </c>
       <c r="F72" t="n">
-        <v>2500</v>
+        <v>4604</v>
       </c>
       <c r="G72" t="n">
-        <v>12.2</v>
+        <v>-108520.9865122318</v>
       </c>
       <c r="H72" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I72" t="n">
         <v>0</v>
       </c>
-      <c r="J72" t="inlineStr"/>
+      <c r="J72" t="n">
+        <v>11.6</v>
+      </c>
       <c r="K72" t="n">
-        <v>11.7</v>
+        <v>11.4</v>
       </c>
       <c r="L72" t="inlineStr">
         <is>
@@ -3448,32 +3438,34 @@
         <v>71</v>
       </c>
       <c r="B73" t="n">
-        <v>12.1</v>
+        <v>11.6</v>
       </c>
       <c r="C73" t="n">
-        <v>12</v>
+        <v>11.6</v>
       </c>
       <c r="D73" t="n">
-        <v>12.1</v>
+        <v>11.6</v>
       </c>
       <c r="E73" t="n">
-        <v>12</v>
+        <v>11.6</v>
       </c>
       <c r="F73" t="n">
-        <v>69267.75992148761</v>
+        <v>11721</v>
       </c>
       <c r="G73" t="n">
-        <v>12.05</v>
+        <v>-96799.98651223176</v>
       </c>
       <c r="H73" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I73" t="n">
         <v>0</v>
       </c>
-      <c r="J73" t="inlineStr"/>
+      <c r="J73" t="n">
+        <v>11.5</v>
+      </c>
       <c r="K73" t="n">
-        <v>11.7</v>
+        <v>11.4</v>
       </c>
       <c r="L73" t="inlineStr">
         <is>
@@ -3490,22 +3482,22 @@
         <v>72</v>
       </c>
       <c r="B74" t="n">
-        <v>12</v>
+        <v>11.5</v>
       </c>
       <c r="C74" t="n">
-        <v>12</v>
+        <v>11.5</v>
       </c>
       <c r="D74" t="n">
-        <v>12</v>
+        <v>11.5</v>
       </c>
       <c r="E74" t="n">
-        <v>12</v>
+        <v>11.5</v>
       </c>
       <c r="F74" t="n">
-        <v>3350</v>
+        <v>1200</v>
       </c>
       <c r="G74" t="n">
-        <v>12</v>
+        <v>-97999.98651223176</v>
       </c>
       <c r="H74" t="n">
         <v>0</v>
@@ -3515,7 +3507,7 @@
       </c>
       <c r="J74" t="inlineStr"/>
       <c r="K74" t="n">
-        <v>11.7</v>
+        <v>11.4</v>
       </c>
       <c r="L74" t="inlineStr">
         <is>
@@ -3532,32 +3524,34 @@
         <v>73</v>
       </c>
       <c r="B75" t="n">
-        <v>12</v>
+        <v>11.6</v>
       </c>
       <c r="C75" t="n">
-        <v>11.9</v>
+        <v>11.6</v>
       </c>
       <c r="D75" t="n">
-        <v>12</v>
+        <v>11.6</v>
       </c>
       <c r="E75" t="n">
-        <v>11.9</v>
+        <v>11.6</v>
       </c>
       <c r="F75" t="n">
-        <v>25869.7773</v>
+        <v>39918</v>
       </c>
       <c r="G75" t="n">
-        <v>11.95</v>
+        <v>-58081.98651223176</v>
       </c>
       <c r="H75" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I75" t="n">
         <v>0</v>
       </c>
-      <c r="J75" t="inlineStr"/>
+      <c r="J75" t="n">
+        <v>11.5</v>
+      </c>
       <c r="K75" t="n">
-        <v>11.7</v>
+        <v>11.4</v>
       </c>
       <c r="L75" t="inlineStr">
         <is>
@@ -3574,22 +3568,22 @@
         <v>74</v>
       </c>
       <c r="B76" t="n">
-        <v>12.1</v>
+        <v>11.6</v>
       </c>
       <c r="C76" t="n">
-        <v>12.1</v>
+        <v>11.6</v>
       </c>
       <c r="D76" t="n">
-        <v>12.1</v>
+        <v>11.6</v>
       </c>
       <c r="E76" t="n">
-        <v>12.1</v>
+        <v>11.6</v>
       </c>
       <c r="F76" t="n">
-        <v>2303.2476</v>
+        <v>348.2436</v>
       </c>
       <c r="G76" t="n">
-        <v>12</v>
+        <v>-58081.98651223176</v>
       </c>
       <c r="H76" t="n">
         <v>0</v>
@@ -3599,7 +3593,7 @@
       </c>
       <c r="J76" t="inlineStr"/>
       <c r="K76" t="n">
-        <v>11.7</v>
+        <v>11.4</v>
       </c>
       <c r="L76" t="inlineStr">
         <is>
@@ -3616,22 +3610,22 @@
         <v>75</v>
       </c>
       <c r="B77" t="n">
-        <v>12.1</v>
+        <v>11.7</v>
       </c>
       <c r="C77" t="n">
-        <v>12.1</v>
+        <v>11.7</v>
       </c>
       <c r="D77" t="n">
-        <v>12.1</v>
+        <v>11.7</v>
       </c>
       <c r="E77" t="n">
-        <v>12.1</v>
+        <v>11.7</v>
       </c>
       <c r="F77" t="n">
-        <v>5819.577</v>
+        <v>234.8206</v>
       </c>
       <c r="G77" t="n">
-        <v>12.1</v>
+        <v>-57847.16591223176</v>
       </c>
       <c r="H77" t="n">
         <v>0</v>
@@ -3641,7 +3635,7 @@
       </c>
       <c r="J77" t="inlineStr"/>
       <c r="K77" t="n">
-        <v>11.7</v>
+        <v>11.4</v>
       </c>
       <c r="L77" t="inlineStr">
         <is>
@@ -3658,22 +3652,22 @@
         <v>76</v>
       </c>
       <c r="B78" t="n">
-        <v>12</v>
+        <v>11.7</v>
       </c>
       <c r="C78" t="n">
-        <v>11.9</v>
+        <v>11.7</v>
       </c>
       <c r="D78" t="n">
-        <v>12</v>
+        <v>11.7</v>
       </c>
       <c r="E78" t="n">
-        <v>11.9</v>
+        <v>11.7</v>
       </c>
       <c r="F78" t="n">
-        <v>189553.5962</v>
+        <v>60130.1794</v>
       </c>
       <c r="G78" t="n">
-        <v>12</v>
+        <v>-57847.16591223176</v>
       </c>
       <c r="H78" t="n">
         <v>0</v>
@@ -3683,7 +3677,7 @@
       </c>
       <c r="J78" t="inlineStr"/>
       <c r="K78" t="n">
-        <v>11.7</v>
+        <v>11.4</v>
       </c>
       <c r="L78" t="inlineStr">
         <is>
@@ -3700,22 +3694,22 @@
         <v>77</v>
       </c>
       <c r="B79" t="n">
-        <v>11.9</v>
+        <v>11.7</v>
       </c>
       <c r="C79" t="n">
-        <v>11.9</v>
+        <v>11.7</v>
       </c>
       <c r="D79" t="n">
-        <v>11.9</v>
+        <v>11.7</v>
       </c>
       <c r="E79" t="n">
-        <v>11.9</v>
+        <v>11.7</v>
       </c>
       <c r="F79" t="n">
-        <v>9946.4038</v>
+        <v>3296.405</v>
       </c>
       <c r="G79" t="n">
-        <v>11.9</v>
+        <v>-57847.16591223176</v>
       </c>
       <c r="H79" t="n">
         <v>0</v>
@@ -3725,7 +3719,7 @@
       </c>
       <c r="J79" t="inlineStr"/>
       <c r="K79" t="n">
-        <v>11.7</v>
+        <v>11.4</v>
       </c>
       <c r="L79" t="inlineStr">
         <is>
@@ -3742,22 +3736,22 @@
         <v>78</v>
       </c>
       <c r="B80" t="n">
-        <v>12.1</v>
+        <v>11.8</v>
       </c>
       <c r="C80" t="n">
-        <v>12.1</v>
+        <v>11.8</v>
       </c>
       <c r="D80" t="n">
-        <v>12.1</v>
+        <v>11.8</v>
       </c>
       <c r="E80" t="n">
-        <v>12.1</v>
+        <v>11.8</v>
       </c>
       <c r="F80" t="n">
-        <v>210</v>
+        <v>166602.5318</v>
       </c>
       <c r="G80" t="n">
-        <v>12</v>
+        <v>108755.3658877682</v>
       </c>
       <c r="H80" t="n">
         <v>0</v>
@@ -3767,7 +3761,7 @@
       </c>
       <c r="J80" t="inlineStr"/>
       <c r="K80" t="n">
-        <v>11.7</v>
+        <v>11.4</v>
       </c>
       <c r="L80" t="inlineStr">
         <is>
@@ -3784,22 +3778,22 @@
         <v>79</v>
       </c>
       <c r="B81" t="n">
-        <v>12</v>
+        <v>11.9</v>
       </c>
       <c r="C81" t="n">
-        <v>12</v>
+        <v>11.6</v>
       </c>
       <c r="D81" t="n">
-        <v>12</v>
+        <v>11.9</v>
       </c>
       <c r="E81" t="n">
-        <v>12</v>
+        <v>11.5</v>
       </c>
       <c r="F81" t="n">
-        <v>80376.11629999999</v>
+        <v>157159.5878</v>
       </c>
       <c r="G81" t="n">
-        <v>12.05</v>
+        <v>-48404.22191223176</v>
       </c>
       <c r="H81" t="n">
         <v>0</v>
@@ -3809,7 +3803,7 @@
       </c>
       <c r="J81" t="inlineStr"/>
       <c r="K81" t="n">
-        <v>11.7</v>
+        <v>11.4</v>
       </c>
       <c r="L81" t="inlineStr">
         <is>
@@ -3826,22 +3820,22 @@
         <v>80</v>
       </c>
       <c r="B82" t="n">
-        <v>12</v>
+        <v>11.6</v>
       </c>
       <c r="C82" t="n">
-        <v>12.1</v>
+        <v>11.6</v>
       </c>
       <c r="D82" t="n">
-        <v>12.1</v>
+        <v>11.6</v>
       </c>
       <c r="E82" t="n">
-        <v>12</v>
+        <v>11.6</v>
       </c>
       <c r="F82" t="n">
-        <v>42788.99898677686</v>
+        <v>1546.1593</v>
       </c>
       <c r="G82" t="n">
-        <v>12.05</v>
+        <v>-48404.22191223176</v>
       </c>
       <c r="H82" t="n">
         <v>0</v>
@@ -3851,7 +3845,7 @@
       </c>
       <c r="J82" t="inlineStr"/>
       <c r="K82" t="n">
-        <v>11.7</v>
+        <v>11.4</v>
       </c>
       <c r="L82" t="inlineStr">
         <is>
@@ -3868,22 +3862,22 @@
         <v>81</v>
       </c>
       <c r="B83" t="n">
-        <v>12.1</v>
+        <v>11.6</v>
       </c>
       <c r="C83" t="n">
-        <v>12.1</v>
+        <v>11.6</v>
       </c>
       <c r="D83" t="n">
-        <v>12.1</v>
+        <v>11.6</v>
       </c>
       <c r="E83" t="n">
-        <v>12.1</v>
+        <v>11.6</v>
       </c>
       <c r="F83" t="n">
-        <v>31119.63199173554</v>
+        <v>315.6044</v>
       </c>
       <c r="G83" t="n">
-        <v>12.1</v>
+        <v>-48404.22191223176</v>
       </c>
       <c r="H83" t="n">
         <v>0</v>
@@ -3893,7 +3887,7 @@
       </c>
       <c r="J83" t="inlineStr"/>
       <c r="K83" t="n">
-        <v>11.7</v>
+        <v>11.4</v>
       </c>
       <c r="L83" t="inlineStr">
         <is>
@@ -3910,22 +3904,22 @@
         <v>82</v>
       </c>
       <c r="B84" t="n">
-        <v>12.1</v>
+        <v>11.6</v>
       </c>
       <c r="C84" t="n">
-        <v>12</v>
+        <v>11.6</v>
       </c>
       <c r="D84" t="n">
-        <v>12.1</v>
+        <v>11.6</v>
       </c>
       <c r="E84" t="n">
-        <v>11.9</v>
+        <v>11.6</v>
       </c>
       <c r="F84" t="n">
-        <v>63340.8259</v>
+        <v>19712.9732</v>
       </c>
       <c r="G84" t="n">
-        <v>12.05</v>
+        <v>-48404.22191223176</v>
       </c>
       <c r="H84" t="n">
         <v>0</v>
@@ -3935,7 +3929,7 @@
       </c>
       <c r="J84" t="inlineStr"/>
       <c r="K84" t="n">
-        <v>11.7</v>
+        <v>11.4</v>
       </c>
       <c r="L84" t="inlineStr">
         <is>
@@ -3952,22 +3946,22 @@
         <v>83</v>
       </c>
       <c r="B85" t="n">
-        <v>11.9</v>
+        <v>11.6</v>
       </c>
       <c r="C85" t="n">
-        <v>11.9</v>
+        <v>11.6</v>
       </c>
       <c r="D85" t="n">
-        <v>11.9</v>
+        <v>11.6</v>
       </c>
       <c r="E85" t="n">
-        <v>11.9</v>
+        <v>11.6</v>
       </c>
       <c r="F85" t="n">
-        <v>29649.5695</v>
+        <v>45319.1004</v>
       </c>
       <c r="G85" t="n">
-        <v>11.95</v>
+        <v>-48404.22191223176</v>
       </c>
       <c r="H85" t="n">
         <v>0</v>
@@ -3977,7 +3971,7 @@
       </c>
       <c r="J85" t="inlineStr"/>
       <c r="K85" t="n">
-        <v>11.7</v>
+        <v>11.4</v>
       </c>
       <c r="L85" t="inlineStr">
         <is>
@@ -3994,22 +3988,22 @@
         <v>84</v>
       </c>
       <c r="B86" t="n">
-        <v>11.9</v>
+        <v>11.5</v>
       </c>
       <c r="C86" t="n">
-        <v>11.9</v>
+        <v>11.5</v>
       </c>
       <c r="D86" t="n">
-        <v>11.9</v>
+        <v>11.5</v>
       </c>
       <c r="E86" t="n">
-        <v>11.9</v>
+        <v>11.5</v>
       </c>
       <c r="F86" t="n">
-        <v>23602.5531</v>
+        <v>39667.0323</v>
       </c>
       <c r="G86" t="n">
-        <v>11.9</v>
+        <v>-88071.25421223175</v>
       </c>
       <c r="H86" t="n">
         <v>0</v>
@@ -4019,7 +4013,7 @@
       </c>
       <c r="J86" t="inlineStr"/>
       <c r="K86" t="n">
-        <v>11.7</v>
+        <v>11.4</v>
       </c>
       <c r="L86" t="inlineStr">
         <is>
@@ -4036,22 +4030,22 @@
         <v>85</v>
       </c>
       <c r="B87" t="n">
-        <v>11.9</v>
+        <v>11.7</v>
       </c>
       <c r="C87" t="n">
-        <v>11.9</v>
+        <v>11.7</v>
       </c>
       <c r="D87" t="n">
-        <v>11.9</v>
+        <v>11.7</v>
       </c>
       <c r="E87" t="n">
-        <v>11.9</v>
+        <v>11.7</v>
       </c>
       <c r="F87" t="n">
-        <v>24718.9033</v>
+        <v>12448.8178</v>
       </c>
       <c r="G87" t="n">
-        <v>11.9</v>
+        <v>-75622.43641223175</v>
       </c>
       <c r="H87" t="n">
         <v>0</v>
@@ -4061,7 +4055,7 @@
       </c>
       <c r="J87" t="inlineStr"/>
       <c r="K87" t="n">
-        <v>11.7</v>
+        <v>11.4</v>
       </c>
       <c r="L87" t="inlineStr">
         <is>
@@ -4078,22 +4072,22 @@
         <v>86</v>
       </c>
       <c r="B88" t="n">
-        <v>11.9</v>
+        <v>11.7</v>
       </c>
       <c r="C88" t="n">
-        <v>11.9</v>
+        <v>11.7</v>
       </c>
       <c r="D88" t="n">
-        <v>11.9</v>
+        <v>11.7</v>
       </c>
       <c r="E88" t="n">
-        <v>11.9</v>
+        <v>11.7</v>
       </c>
       <c r="F88" t="n">
-        <v>25652.1657</v>
+        <v>16129.033</v>
       </c>
       <c r="G88" t="n">
-        <v>11.9</v>
+        <v>-75622.43641223175</v>
       </c>
       <c r="H88" t="n">
         <v>0</v>
@@ -4103,7 +4097,7 @@
       </c>
       <c r="J88" t="inlineStr"/>
       <c r="K88" t="n">
-        <v>11.7</v>
+        <v>11.4</v>
       </c>
       <c r="L88" t="inlineStr">
         <is>
@@ -4120,22 +4114,22 @@
         <v>87</v>
       </c>
       <c r="B89" t="n">
-        <v>12</v>
+        <v>11.6</v>
       </c>
       <c r="C89" t="n">
-        <v>12</v>
+        <v>11.6</v>
       </c>
       <c r="D89" t="n">
-        <v>12</v>
+        <v>11.6</v>
       </c>
       <c r="E89" t="n">
-        <v>12</v>
+        <v>11.6</v>
       </c>
       <c r="F89" t="n">
-        <v>8333.3334</v>
+        <v>18850.881</v>
       </c>
       <c r="G89" t="n">
-        <v>11.95</v>
+        <v>-94473.31741223176</v>
       </c>
       <c r="H89" t="n">
         <v>0</v>
@@ -4145,7 +4139,7 @@
       </c>
       <c r="J89" t="inlineStr"/>
       <c r="K89" t="n">
-        <v>11.7</v>
+        <v>11.4</v>
       </c>
       <c r="L89" t="inlineStr">
         <is>
@@ -4162,22 +4156,22 @@
         <v>88</v>
       </c>
       <c r="B90" t="n">
-        <v>11.9</v>
+        <v>11.6</v>
       </c>
       <c r="C90" t="n">
-        <v>11.9</v>
+        <v>11.6</v>
       </c>
       <c r="D90" t="n">
-        <v>11.9</v>
+        <v>11.6</v>
       </c>
       <c r="E90" t="n">
-        <v>11.9</v>
+        <v>11.6</v>
       </c>
       <c r="F90" t="n">
-        <v>1591.9618</v>
+        <v>87199.11900000001</v>
       </c>
       <c r="G90" t="n">
-        <v>11.95</v>
+        <v>-94473.31741223176</v>
       </c>
       <c r="H90" t="n">
         <v>0</v>
@@ -4187,7 +4181,7 @@
       </c>
       <c r="J90" t="inlineStr"/>
       <c r="K90" t="n">
-        <v>11.7</v>
+        <v>11.4</v>
       </c>
       <c r="L90" t="inlineStr">
         <is>
@@ -4204,22 +4198,22 @@
         <v>89</v>
       </c>
       <c r="B91" t="n">
-        <v>11.9</v>
+        <v>11.6</v>
       </c>
       <c r="C91" t="n">
-        <v>11.9</v>
+        <v>11.6</v>
       </c>
       <c r="D91" t="n">
-        <v>11.9</v>
+        <v>11.6</v>
       </c>
       <c r="E91" t="n">
-        <v>11.9</v>
+        <v>11.6</v>
       </c>
       <c r="F91" t="n">
-        <v>117.7310924369748</v>
+        <v>12800.881</v>
       </c>
       <c r="G91" t="n">
-        <v>11.9</v>
+        <v>-94473.31741223176</v>
       </c>
       <c r="H91" t="n">
         <v>0</v>
@@ -4229,7 +4223,7 @@
       </c>
       <c r="J91" t="inlineStr"/>
       <c r="K91" t="n">
-        <v>11.7</v>
+        <v>11.4</v>
       </c>
       <c r="L91" t="inlineStr">
         <is>
@@ -4246,22 +4240,22 @@
         <v>90</v>
       </c>
       <c r="B92" t="n">
-        <v>11.9</v>
+        <v>11.7</v>
       </c>
       <c r="C92" t="n">
-        <v>11.9</v>
+        <v>11.7</v>
       </c>
       <c r="D92" t="n">
-        <v>11.9</v>
+        <v>11.7</v>
       </c>
       <c r="E92" t="n">
-        <v>11.9</v>
+        <v>11.7</v>
       </c>
       <c r="F92" t="n">
-        <v>117.8151260504202</v>
+        <v>85966.81789999999</v>
       </c>
       <c r="G92" t="n">
-        <v>11.9</v>
+        <v>-8506.499512231763</v>
       </c>
       <c r="H92" t="n">
         <v>0</v>
@@ -4271,7 +4265,7 @@
       </c>
       <c r="J92" t="inlineStr"/>
       <c r="K92" t="n">
-        <v>11.7</v>
+        <v>11.4</v>
       </c>
       <c r="L92" t="inlineStr">
         <is>
@@ -4288,22 +4282,22 @@
         <v>91</v>
       </c>
       <c r="B93" t="n">
-        <v>11.8</v>
+        <v>11.7</v>
       </c>
       <c r="C93" t="n">
-        <v>11.8</v>
+        <v>11.7</v>
       </c>
       <c r="D93" t="n">
-        <v>11.8</v>
+        <v>11.7</v>
       </c>
       <c r="E93" t="n">
-        <v>11.8</v>
+        <v>11.7</v>
       </c>
       <c r="F93" t="n">
-        <v>4948.4236</v>
+        <v>13302038.8404</v>
       </c>
       <c r="G93" t="n">
-        <v>11.85</v>
+        <v>-8506.499512231763</v>
       </c>
       <c r="H93" t="n">
         <v>0</v>
@@ -4313,7 +4307,7 @@
       </c>
       <c r="J93" t="inlineStr"/>
       <c r="K93" t="n">
-        <v>11.7</v>
+        <v>11.4</v>
       </c>
       <c r="L93" t="inlineStr">
         <is>
@@ -4330,22 +4324,22 @@
         <v>92</v>
       </c>
       <c r="B94" t="n">
-        <v>11.8</v>
+        <v>11.7</v>
       </c>
       <c r="C94" t="n">
-        <v>11.8</v>
+        <v>11.7</v>
       </c>
       <c r="D94" t="n">
-        <v>11.8</v>
+        <v>11.7</v>
       </c>
       <c r="E94" t="n">
-        <v>11.8</v>
+        <v>11.6</v>
       </c>
       <c r="F94" t="n">
-        <v>146865</v>
+        <v>130065131.364</v>
       </c>
       <c r="G94" t="n">
-        <v>11.80000000000001</v>
+        <v>-8506.499512231763</v>
       </c>
       <c r="H94" t="n">
         <v>0</v>
@@ -4355,7 +4349,7 @@
       </c>
       <c r="J94" t="inlineStr"/>
       <c r="K94" t="n">
-        <v>11.7</v>
+        <v>11.4</v>
       </c>
       <c r="L94" t="inlineStr">
         <is>
@@ -4372,22 +4366,22 @@
         <v>93</v>
       </c>
       <c r="B95" t="n">
-        <v>11.8</v>
+        <v>11.7</v>
       </c>
       <c r="C95" t="n">
         <v>11.7</v>
       </c>
       <c r="D95" t="n">
-        <v>11.8</v>
+        <v>11.7</v>
       </c>
       <c r="E95" t="n">
-        <v>11.7</v>
+        <v>11.6</v>
       </c>
       <c r="F95" t="n">
-        <v>270316.671</v>
+        <v>106001857.6074</v>
       </c>
       <c r="G95" t="n">
-        <v>11.75000000000001</v>
+        <v>-8506.499512231763</v>
       </c>
       <c r="H95" t="n">
         <v>0</v>
@@ -4397,7 +4391,7 @@
       </c>
       <c r="J95" t="inlineStr"/>
       <c r="K95" t="n">
-        <v>11.7</v>
+        <v>11.4</v>
       </c>
       <c r="L95" t="inlineStr">
         <is>
@@ -4426,10 +4420,10 @@
         <v>11.7</v>
       </c>
       <c r="F96" t="n">
-        <v>100000</v>
+        <v>92703390.89920001</v>
       </c>
       <c r="G96" t="n">
-        <v>11.7</v>
+        <v>-8506.499512231763</v>
       </c>
       <c r="H96" t="n">
         <v>0</v>
@@ -4439,7 +4433,7 @@
       </c>
       <c r="J96" t="inlineStr"/>
       <c r="K96" t="n">
-        <v>11.7</v>
+        <v>11.4</v>
       </c>
       <c r="L96" t="inlineStr">
         <is>
@@ -4468,10 +4462,10 @@
         <v>11.7</v>
       </c>
       <c r="F97" t="n">
-        <v>100000</v>
+        <v>38036926.8492</v>
       </c>
       <c r="G97" t="n">
-        <v>11.7</v>
+        <v>-8506.499512231763</v>
       </c>
       <c r="H97" t="n">
         <v>0</v>
@@ -4481,7 +4475,7 @@
       </c>
       <c r="J97" t="inlineStr"/>
       <c r="K97" t="n">
-        <v>11.7</v>
+        <v>11.4</v>
       </c>
       <c r="L97" t="inlineStr">
         <is>
@@ -4510,10 +4504,10 @@
         <v>11.7</v>
       </c>
       <c r="F98" t="n">
-        <v>74084.7746</v>
+        <v>8453362.104</v>
       </c>
       <c r="G98" t="n">
-        <v>11.7</v>
+        <v>-8506.499512231763</v>
       </c>
       <c r="H98" t="n">
         <v>0</v>
@@ -4523,7 +4517,7 @@
       </c>
       <c r="J98" t="inlineStr"/>
       <c r="K98" t="n">
-        <v>11.7</v>
+        <v>11.4</v>
       </c>
       <c r="L98" t="inlineStr">
         <is>
@@ -4540,22 +4534,22 @@
         <v>97</v>
       </c>
       <c r="B99" t="n">
-        <v>11.8</v>
+        <v>11.7</v>
       </c>
       <c r="C99" t="n">
-        <v>11.8</v>
+        <v>11.7</v>
       </c>
       <c r="D99" t="n">
-        <v>11.8</v>
+        <v>11.7</v>
       </c>
       <c r="E99" t="n">
-        <v>11.8</v>
+        <v>11.7</v>
       </c>
       <c r="F99" t="n">
-        <v>9014.7901</v>
+        <v>156096310.7232</v>
       </c>
       <c r="G99" t="n">
-        <v>11.75000000000001</v>
+        <v>-8506.499512231763</v>
       </c>
       <c r="H99" t="n">
         <v>0</v>
@@ -4565,7 +4559,7 @@
       </c>
       <c r="J99" t="inlineStr"/>
       <c r="K99" t="n">
-        <v>11.7</v>
+        <v>11.4</v>
       </c>
       <c r="L99" t="inlineStr">
         <is>
@@ -4582,22 +4576,22 @@
         <v>98</v>
       </c>
       <c r="B100" t="n">
-        <v>11.8</v>
+        <v>11.7</v>
       </c>
       <c r="C100" t="n">
-        <v>11.8</v>
+        <v>11.7</v>
       </c>
       <c r="D100" t="n">
-        <v>11.8</v>
+        <v>11.7</v>
       </c>
       <c r="E100" t="n">
-        <v>11.8</v>
+        <v>11.7</v>
       </c>
       <c r="F100" t="n">
-        <v>100</v>
+        <v>195853126.5092</v>
       </c>
       <c r="G100" t="n">
-        <v>11.80000000000001</v>
+        <v>-8506.499512231763</v>
       </c>
       <c r="H100" t="n">
         <v>0</v>
@@ -4607,7 +4601,7 @@
       </c>
       <c r="J100" t="inlineStr"/>
       <c r="K100" t="n">
-        <v>11.7</v>
+        <v>11.4</v>
       </c>
       <c r="L100" t="inlineStr">
         <is>
@@ -4624,22 +4618,22 @@
         <v>99</v>
       </c>
       <c r="B101" t="n">
-        <v>11.8</v>
+        <v>11.7</v>
       </c>
       <c r="C101" t="n">
-        <v>11.8</v>
+        <v>11.7</v>
       </c>
       <c r="D101" t="n">
-        <v>11.8</v>
+        <v>11.7</v>
       </c>
       <c r="E101" t="n">
-        <v>11.8</v>
+        <v>11.7</v>
       </c>
       <c r="F101" t="n">
-        <v>3360</v>
+        <v>158274385.0388</v>
       </c>
       <c r="G101" t="n">
-        <v>11.80000000000001</v>
+        <v>-8506.499512231763</v>
       </c>
       <c r="H101" t="n">
         <v>0</v>
@@ -4649,7 +4643,7 @@
       </c>
       <c r="J101" t="inlineStr"/>
       <c r="K101" t="n">
-        <v>11.7</v>
+        <v>11.4</v>
       </c>
       <c r="L101" t="inlineStr">
         <is>
@@ -4666,22 +4660,22 @@
         <v>100</v>
       </c>
       <c r="B102" t="n">
-        <v>11.8</v>
+        <v>11.7</v>
       </c>
       <c r="C102" t="n">
         <v>11.7</v>
       </c>
       <c r="D102" t="n">
-        <v>11.8</v>
+        <v>11.7</v>
       </c>
       <c r="E102" t="n">
-        <v>11.7</v>
+        <v>11.6</v>
       </c>
       <c r="F102" t="n">
-        <v>8301.961799999999</v>
+        <v>179923443.1154</v>
       </c>
       <c r="G102" t="n">
-        <v>11.75000000000001</v>
+        <v>-8506.499512231763</v>
       </c>
       <c r="H102" t="n">
         <v>0</v>
@@ -4691,7 +4685,7 @@
       </c>
       <c r="J102" t="inlineStr"/>
       <c r="K102" t="n">
-        <v>11.7</v>
+        <v>11.4</v>
       </c>
       <c r="L102" t="inlineStr">
         <is>
@@ -4708,22 +4702,22 @@
         <v>101</v>
       </c>
       <c r="B103" t="n">
-        <v>11.8</v>
+        <v>11.7</v>
       </c>
       <c r="C103" t="n">
-        <v>11.8</v>
+        <v>11.7</v>
       </c>
       <c r="D103" t="n">
-        <v>11.8</v>
+        <v>11.7</v>
       </c>
       <c r="E103" t="n">
-        <v>11.8</v>
+        <v>11.6</v>
       </c>
       <c r="F103" t="n">
-        <v>1590</v>
+        <v>121746723.4606</v>
       </c>
       <c r="G103" t="n">
-        <v>11.75000000000001</v>
+        <v>-8506.499512231763</v>
       </c>
       <c r="H103" t="n">
         <v>0</v>
@@ -4733,7 +4727,7 @@
       </c>
       <c r="J103" t="inlineStr"/>
       <c r="K103" t="n">
-        <v>11.7</v>
+        <v>11.4</v>
       </c>
       <c r="L103" t="inlineStr">
         <is>
@@ -4750,22 +4744,22 @@
         <v>102</v>
       </c>
       <c r="B104" t="n">
-        <v>11.8</v>
+        <v>11.7</v>
       </c>
       <c r="C104" t="n">
-        <v>11.8</v>
+        <v>11.7</v>
       </c>
       <c r="D104" t="n">
-        <v>11.8</v>
+        <v>11.7</v>
       </c>
       <c r="E104" t="n">
-        <v>11.8</v>
+        <v>11.7</v>
       </c>
       <c r="F104" t="n">
-        <v>100000</v>
+        <v>27976905.5353</v>
       </c>
       <c r="G104" t="n">
-        <v>11.80000000000001</v>
+        <v>-8506.499512231763</v>
       </c>
       <c r="H104" t="n">
         <v>0</v>
@@ -4775,7 +4769,7 @@
       </c>
       <c r="J104" t="inlineStr"/>
       <c r="K104" t="n">
-        <v>11.7</v>
+        <v>11.4</v>
       </c>
       <c r="L104" t="inlineStr">
         <is>
@@ -4801,13 +4795,13 @@
         <v>11.7</v>
       </c>
       <c r="E105" t="n">
-        <v>11.7</v>
+        <v>11.6</v>
       </c>
       <c r="F105" t="n">
-        <v>21436.8989</v>
+        <v>112470697.5007</v>
       </c>
       <c r="G105" t="n">
-        <v>11.75000000000001</v>
+        <v>-8506.499512231763</v>
       </c>
       <c r="H105" t="n">
         <v>0</v>
@@ -4817,7 +4811,7 @@
       </c>
       <c r="J105" t="inlineStr"/>
       <c r="K105" t="n">
-        <v>11.7</v>
+        <v>11.4</v>
       </c>
       <c r="L105" t="inlineStr">
         <is>
@@ -4846,10 +4840,10 @@
         <v>11.7</v>
       </c>
       <c r="F106" t="n">
-        <v>80546.3033</v>
+        <v>186207290.4324</v>
       </c>
       <c r="G106" t="n">
-        <v>11.7</v>
+        <v>-8506.499512231763</v>
       </c>
       <c r="H106" t="n">
         <v>0</v>
@@ -4859,7 +4853,7 @@
       </c>
       <c r="J106" t="inlineStr"/>
       <c r="K106" t="n">
-        <v>11.7</v>
+        <v>11.4</v>
       </c>
       <c r="L106" t="inlineStr">
         <is>
@@ -4876,22 +4870,22 @@
         <v>105</v>
       </c>
       <c r="B107" t="n">
-        <v>11.6</v>
+        <v>11.7</v>
       </c>
       <c r="C107" t="n">
-        <v>11.6</v>
+        <v>11.7</v>
       </c>
       <c r="D107" t="n">
-        <v>11.6</v>
+        <v>11.7</v>
       </c>
       <c r="E107" t="n">
-        <v>11.6</v>
+        <v>11.7</v>
       </c>
       <c r="F107" t="n">
-        <v>235.5462</v>
+        <v>187632281.534</v>
       </c>
       <c r="G107" t="n">
-        <v>11.65</v>
+        <v>-8506.499512231763</v>
       </c>
       <c r="H107" t="n">
         <v>0</v>
@@ -4901,7 +4895,7 @@
       </c>
       <c r="J107" t="inlineStr"/>
       <c r="K107" t="n">
-        <v>11.7</v>
+        <v>11.4</v>
       </c>
       <c r="L107" t="inlineStr">
         <is>
@@ -4918,22 +4912,22 @@
         <v>106</v>
       </c>
       <c r="B108" t="n">
-        <v>11.6</v>
+        <v>11.7</v>
       </c>
       <c r="C108" t="n">
-        <v>11.6</v>
+        <v>11.7</v>
       </c>
       <c r="D108" t="n">
-        <v>11.6</v>
+        <v>11.7</v>
       </c>
       <c r="E108" t="n">
-        <v>11.6</v>
+        <v>11.7</v>
       </c>
       <c r="F108" t="n">
-        <v>8696.2371</v>
+        <v>189037860.2988</v>
       </c>
       <c r="G108" t="n">
-        <v>11.6</v>
+        <v>-8506.499512231763</v>
       </c>
       <c r="H108" t="n">
         <v>0</v>
@@ -4943,7 +4937,7 @@
       </c>
       <c r="J108" t="inlineStr"/>
       <c r="K108" t="n">
-        <v>11.7</v>
+        <v>11.4</v>
       </c>
       <c r="L108" t="inlineStr">
         <is>
@@ -4963,19 +4957,19 @@
         <v>11.7</v>
       </c>
       <c r="C109" t="n">
-        <v>11.6</v>
+        <v>11.7</v>
       </c>
       <c r="D109" t="n">
         <v>11.7</v>
       </c>
       <c r="E109" t="n">
-        <v>11.6</v>
+        <v>11.7</v>
       </c>
       <c r="F109" t="n">
-        <v>75906.85980000001</v>
+        <v>189738700.8229</v>
       </c>
       <c r="G109" t="n">
-        <v>11.6</v>
+        <v>-8506.499512231763</v>
       </c>
       <c r="H109" t="n">
         <v>0</v>
@@ -4985,7 +4979,7 @@
       </c>
       <c r="J109" t="inlineStr"/>
       <c r="K109" t="n">
-        <v>11.7</v>
+        <v>11.4</v>
       </c>
       <c r="L109" t="inlineStr">
         <is>
@@ -5002,22 +4996,22 @@
         <v>108</v>
       </c>
       <c r="B110" t="n">
-        <v>11.6</v>
+        <v>11.7</v>
       </c>
       <c r="C110" t="n">
-        <v>11.6</v>
+        <v>11.7</v>
       </c>
       <c r="D110" t="n">
-        <v>11.6</v>
+        <v>11.7</v>
       </c>
       <c r="E110" t="n">
-        <v>11.6</v>
+        <v>11.7</v>
       </c>
       <c r="F110" t="n">
-        <v>4201.6807</v>
+        <v>189733668.404</v>
       </c>
       <c r="G110" t="n">
-        <v>11.6</v>
+        <v>-8506.499512231763</v>
       </c>
       <c r="H110" t="n">
         <v>0</v>
@@ -5027,7 +5021,7 @@
       </c>
       <c r="J110" t="inlineStr"/>
       <c r="K110" t="n">
-        <v>11.7</v>
+        <v>11.4</v>
       </c>
       <c r="L110" t="inlineStr">
         <is>
@@ -5044,22 +5038,22 @@
         <v>109</v>
       </c>
       <c r="B111" t="n">
-        <v>11.8</v>
+        <v>11.7</v>
       </c>
       <c r="C111" t="n">
-        <v>11.8</v>
+        <v>11.7</v>
       </c>
       <c r="D111" t="n">
-        <v>11.8</v>
+        <v>11.7</v>
       </c>
       <c r="E111" t="n">
-        <v>11.8</v>
+        <v>11.7</v>
       </c>
       <c r="F111" t="n">
-        <v>5000</v>
+        <v>179900005.3512</v>
       </c>
       <c r="G111" t="n">
-        <v>11.7</v>
+        <v>-8506.499512231763</v>
       </c>
       <c r="H111" t="n">
         <v>0</v>
@@ -5069,7 +5063,7 @@
       </c>
       <c r="J111" t="inlineStr"/>
       <c r="K111" t="n">
-        <v>11.7</v>
+        <v>11.4</v>
       </c>
       <c r="L111" t="inlineStr">
         <is>
@@ -5086,22 +5080,22 @@
         <v>110</v>
       </c>
       <c r="B112" t="n">
-        <v>11.8</v>
+        <v>11.7</v>
       </c>
       <c r="C112" t="n">
-        <v>11.8</v>
+        <v>11.7</v>
       </c>
       <c r="D112" t="n">
-        <v>11.8</v>
+        <v>11.7</v>
       </c>
       <c r="E112" t="n">
-        <v>11.8</v>
+        <v>11.7</v>
       </c>
       <c r="F112" t="n">
-        <v>13163.9409</v>
+        <v>186907693.1443</v>
       </c>
       <c r="G112" t="n">
-        <v>11.8</v>
+        <v>-8506.499512231763</v>
       </c>
       <c r="H112" t="n">
         <v>0</v>
@@ -5111,7 +5105,7 @@
       </c>
       <c r="J112" t="inlineStr"/>
       <c r="K112" t="n">
-        <v>11.7</v>
+        <v>11.4</v>
       </c>
       <c r="L112" t="inlineStr">
         <is>
@@ -5128,22 +5122,22 @@
         <v>111</v>
       </c>
       <c r="B113" t="n">
-        <v>11.8</v>
+        <v>11.7</v>
       </c>
       <c r="C113" t="n">
-        <v>11.8</v>
+        <v>11.7</v>
       </c>
       <c r="D113" t="n">
-        <v>11.8</v>
+        <v>11.7</v>
       </c>
       <c r="E113" t="n">
-        <v>11.8</v>
+        <v>11.7</v>
       </c>
       <c r="F113" t="n">
-        <v>33000</v>
+        <v>189019743.1377</v>
       </c>
       <c r="G113" t="n">
-        <v>11.8</v>
+        <v>-8506.499512231763</v>
       </c>
       <c r="H113" t="n">
         <v>0</v>
@@ -5153,7 +5147,7 @@
       </c>
       <c r="J113" t="inlineStr"/>
       <c r="K113" t="n">
-        <v>11.7</v>
+        <v>11.4</v>
       </c>
       <c r="L113" t="inlineStr">
         <is>
@@ -5170,22 +5164,22 @@
         <v>112</v>
       </c>
       <c r="B114" t="n">
-        <v>11.8</v>
+        <v>11.7</v>
       </c>
       <c r="C114" t="n">
-        <v>11.8</v>
+        <v>11.7</v>
       </c>
       <c r="D114" t="n">
-        <v>11.8</v>
+        <v>11.7</v>
       </c>
       <c r="E114" t="n">
-        <v>11.8</v>
+        <v>11.7</v>
       </c>
       <c r="F114" t="n">
-        <v>10950.3295</v>
+        <v>186909832.5976</v>
       </c>
       <c r="G114" t="n">
-        <v>11.8</v>
+        <v>-8506.499512231763</v>
       </c>
       <c r="H114" t="n">
         <v>0</v>
@@ -5195,7 +5189,7 @@
       </c>
       <c r="J114" t="inlineStr"/>
       <c r="K114" t="n">
-        <v>11.7</v>
+        <v>11.4</v>
       </c>
       <c r="L114" t="inlineStr">
         <is>
@@ -5215,19 +5209,19 @@
         <v>11.7</v>
       </c>
       <c r="C115" t="n">
-        <v>11.6</v>
+        <v>11.7</v>
       </c>
       <c r="D115" t="n">
         <v>11.7</v>
       </c>
       <c r="E115" t="n">
-        <v>11.6</v>
+        <v>11.7</v>
       </c>
       <c r="F115" t="n">
-        <v>177882.793</v>
+        <v>191151814.6144</v>
       </c>
       <c r="G115" t="n">
-        <v>11.7</v>
+        <v>-8506.499512231763</v>
       </c>
       <c r="H115" t="n">
         <v>0</v>
@@ -5237,7 +5231,7 @@
       </c>
       <c r="J115" t="inlineStr"/>
       <c r="K115" t="n">
-        <v>11.7</v>
+        <v>11.4</v>
       </c>
       <c r="L115" t="inlineStr">
         <is>
@@ -5254,22 +5248,22 @@
         <v>114</v>
       </c>
       <c r="B116" t="n">
-        <v>11.6</v>
+        <v>11.7</v>
       </c>
       <c r="C116" t="n">
-        <v>11.6</v>
+        <v>11.7</v>
       </c>
       <c r="D116" t="n">
-        <v>11.6</v>
+        <v>11.7</v>
       </c>
       <c r="E116" t="n">
-        <v>11.6</v>
+        <v>11.7</v>
       </c>
       <c r="F116" t="n">
-        <v>4300</v>
+        <v>105400215.78</v>
       </c>
       <c r="G116" t="n">
-        <v>11.6</v>
+        <v>-8506.499512231763</v>
       </c>
       <c r="H116" t="n">
         <v>0</v>
@@ -5279,7 +5273,7 @@
       </c>
       <c r="J116" t="inlineStr"/>
       <c r="K116" t="n">
-        <v>11.7</v>
+        <v>11.4</v>
       </c>
       <c r="L116" t="inlineStr">
         <is>
@@ -5308,10 +5302,10 @@
         <v>11.7</v>
       </c>
       <c r="F117" t="n">
-        <v>1100</v>
+        <v>178811966.5981</v>
       </c>
       <c r="G117" t="n">
-        <v>11.65</v>
+        <v>-8506.499512231763</v>
       </c>
       <c r="H117" t="n">
         <v>0</v>
@@ -5321,7 +5315,7 @@
       </c>
       <c r="J117" t="inlineStr"/>
       <c r="K117" t="n">
-        <v>11.7</v>
+        <v>11.4</v>
       </c>
       <c r="L117" t="inlineStr">
         <is>
@@ -5350,10 +5344,10 @@
         <v>11.7</v>
       </c>
       <c r="F118" t="n">
-        <v>97127.8533</v>
+        <v>190423056.5092</v>
       </c>
       <c r="G118" t="n">
-        <v>11.7</v>
+        <v>-8506.499512231763</v>
       </c>
       <c r="H118" t="n">
         <v>0</v>
@@ -5363,7 +5357,7 @@
       </c>
       <c r="J118" t="inlineStr"/>
       <c r="K118" t="n">
-        <v>11.7</v>
+        <v>11.4</v>
       </c>
       <c r="L118" t="inlineStr">
         <is>
@@ -5380,22 +5374,22 @@
         <v>117</v>
       </c>
       <c r="B119" t="n">
-        <v>11.8</v>
+        <v>11.7</v>
       </c>
       <c r="C119" t="n">
-        <v>11.8</v>
+        <v>11.7</v>
       </c>
       <c r="D119" t="n">
-        <v>11.8</v>
+        <v>11.7</v>
       </c>
       <c r="E119" t="n">
-        <v>11.8</v>
+        <v>11.7</v>
       </c>
       <c r="F119" t="n">
-        <v>11170</v>
+        <v>189720388.404</v>
       </c>
       <c r="G119" t="n">
-        <v>11.75</v>
+        <v>-8506.499512231763</v>
       </c>
       <c r="H119" t="n">
         <v>0</v>
@@ -5405,7 +5399,7 @@
       </c>
       <c r="J119" t="inlineStr"/>
       <c r="K119" t="n">
-        <v>11.7</v>
+        <v>11.4</v>
       </c>
       <c r="L119" t="inlineStr">
         <is>
@@ -5422,22 +5416,22 @@
         <v>118</v>
       </c>
       <c r="B120" t="n">
-        <v>11.9</v>
+        <v>11.7</v>
       </c>
       <c r="C120" t="n">
-        <v>11.9</v>
+        <v>11.8</v>
       </c>
       <c r="D120" t="n">
-        <v>11.9</v>
+        <v>11.8</v>
       </c>
       <c r="E120" t="n">
-        <v>11.9</v>
+        <v>11.7</v>
       </c>
       <c r="F120" t="n">
-        <v>80906.7314</v>
+        <v>5599959.6117</v>
       </c>
       <c r="G120" t="n">
-        <v>11.85</v>
+        <v>5591453.112187768</v>
       </c>
       <c r="H120" t="n">
         <v>0</v>
@@ -5447,7 +5441,7 @@
       </c>
       <c r="J120" t="inlineStr"/>
       <c r="K120" t="n">
-        <v>11.7</v>
+        <v>11.4</v>
       </c>
       <c r="L120" t="inlineStr">
         <is>
@@ -5464,22 +5458,22 @@
         <v>119</v>
       </c>
       <c r="B121" t="n">
-        <v>11.7</v>
+        <v>11.8</v>
       </c>
       <c r="C121" t="n">
-        <v>11.7</v>
+        <v>11.8</v>
       </c>
       <c r="D121" t="n">
-        <v>11.7</v>
+        <v>11.8</v>
       </c>
       <c r="E121" t="n">
-        <v>11.7</v>
+        <v>11.8</v>
       </c>
       <c r="F121" t="n">
-        <v>100</v>
+        <v>4891.0665</v>
       </c>
       <c r="G121" t="n">
-        <v>11.8</v>
+        <v>5591453.112187768</v>
       </c>
       <c r="H121" t="n">
         <v>0</v>
@@ -5489,7 +5483,7 @@
       </c>
       <c r="J121" t="inlineStr"/>
       <c r="K121" t="n">
-        <v>11.7</v>
+        <v>11.4</v>
       </c>
       <c r="L121" t="inlineStr">
         <is>
@@ -5506,22 +5500,22 @@
         <v>120</v>
       </c>
       <c r="B122" t="n">
-        <v>11.7</v>
+        <v>11.8</v>
       </c>
       <c r="C122" t="n">
-        <v>11.7</v>
+        <v>11.8</v>
       </c>
       <c r="D122" t="n">
-        <v>11.7</v>
+        <v>11.8</v>
       </c>
       <c r="E122" t="n">
-        <v>11.7</v>
+        <v>11.8</v>
       </c>
       <c r="F122" t="n">
-        <v>1000</v>
+        <v>100000</v>
       </c>
       <c r="G122" t="n">
-        <v>11.7</v>
+        <v>5591453.112187768</v>
       </c>
       <c r="H122" t="n">
         <v>0</v>
@@ -5531,7 +5525,7 @@
       </c>
       <c r="J122" t="inlineStr"/>
       <c r="K122" t="n">
-        <v>11.7</v>
+        <v>11.4</v>
       </c>
       <c r="L122" t="inlineStr">
         <is>
@@ -5548,22 +5542,22 @@
         <v>121</v>
       </c>
       <c r="B123" t="n">
-        <v>11.7</v>
+        <v>11.8</v>
       </c>
       <c r="C123" t="n">
-        <v>11.7</v>
+        <v>11.8</v>
       </c>
       <c r="D123" t="n">
-        <v>11.7</v>
+        <v>11.8</v>
       </c>
       <c r="E123" t="n">
-        <v>11.7</v>
+        <v>11.8</v>
       </c>
       <c r="F123" t="n">
-        <v>18228.795</v>
+        <v>2000</v>
       </c>
       <c r="G123" t="n">
-        <v>11.7</v>
+        <v>5591453.112187768</v>
       </c>
       <c r="H123" t="n">
         <v>0</v>
@@ -5573,7 +5567,7 @@
       </c>
       <c r="J123" t="inlineStr"/>
       <c r="K123" t="n">
-        <v>11.7</v>
+        <v>11.4</v>
       </c>
       <c r="L123" t="inlineStr">
         <is>
@@ -5590,22 +5584,22 @@
         <v>122</v>
       </c>
       <c r="B124" t="n">
-        <v>11.7</v>
+        <v>11.9</v>
       </c>
       <c r="C124" t="n">
-        <v>11.7</v>
+        <v>11.9</v>
       </c>
       <c r="D124" t="n">
-        <v>11.7</v>
+        <v>11.9</v>
       </c>
       <c r="E124" t="n">
-        <v>11.7</v>
+        <v>11.9</v>
       </c>
       <c r="F124" t="n">
-        <v>21771.205</v>
+        <v>251.3883</v>
       </c>
       <c r="G124" t="n">
-        <v>11.7</v>
+        <v>5591704.500487768</v>
       </c>
       <c r="H124" t="n">
         <v>0</v>
@@ -5615,7 +5609,7 @@
       </c>
       <c r="J124" t="inlineStr"/>
       <c r="K124" t="n">
-        <v>11.7</v>
+        <v>11.4</v>
       </c>
       <c r="L124" t="inlineStr">
         <is>
@@ -5632,22 +5626,22 @@
         <v>123</v>
       </c>
       <c r="B125" t="n">
-        <v>11.8</v>
+        <v>11.9</v>
       </c>
       <c r="C125" t="n">
-        <v>11.8</v>
+        <v>11.9</v>
       </c>
       <c r="D125" t="n">
-        <v>11.8</v>
+        <v>11.9</v>
       </c>
       <c r="E125" t="n">
-        <v>11.8</v>
+        <v>11.9</v>
       </c>
       <c r="F125" t="n">
-        <v>2200</v>
+        <v>4201.680672268908</v>
       </c>
       <c r="G125" t="n">
-        <v>11.75000000000001</v>
+        <v>5591704.500487768</v>
       </c>
       <c r="H125" t="n">
         <v>0</v>
@@ -5657,7 +5651,7 @@
       </c>
       <c r="J125" t="inlineStr"/>
       <c r="K125" t="n">
-        <v>11.7</v>
+        <v>11.4</v>
       </c>
       <c r="L125" t="inlineStr">
         <is>
@@ -5686,10 +5680,10 @@
         <v>11.8</v>
       </c>
       <c r="F126" t="n">
-        <v>908.5016000000001</v>
+        <v>1733.9769</v>
       </c>
       <c r="G126" t="n">
-        <v>11.80000000000001</v>
+        <v>5589970.523587768</v>
       </c>
       <c r="H126" t="n">
         <v>0</v>
@@ -5699,7 +5693,7 @@
       </c>
       <c r="J126" t="inlineStr"/>
       <c r="K126" t="n">
-        <v>11.7</v>
+        <v>11.4</v>
       </c>
       <c r="L126" t="inlineStr">
         <is>
@@ -5716,22 +5710,22 @@
         <v>125</v>
       </c>
       <c r="B127" t="n">
-        <v>11.9</v>
+        <v>11.7</v>
       </c>
       <c r="C127" t="n">
-        <v>11.9</v>
+        <v>11.7</v>
       </c>
       <c r="D127" t="n">
-        <v>11.9</v>
+        <v>11.7</v>
       </c>
       <c r="E127" t="n">
-        <v>11.9</v>
+        <v>11.7</v>
       </c>
       <c r="F127" t="n">
-        <v>346.3635</v>
+        <v>58830</v>
       </c>
       <c r="G127" t="n">
-        <v>11.85000000000001</v>
+        <v>5531140.523587768</v>
       </c>
       <c r="H127" t="n">
         <v>0</v>
@@ -5741,7 +5735,7 @@
       </c>
       <c r="J127" t="inlineStr"/>
       <c r="K127" t="n">
-        <v>11.7</v>
+        <v>11.4</v>
       </c>
       <c r="L127" t="inlineStr">
         <is>
@@ -5758,22 +5752,22 @@
         <v>126</v>
       </c>
       <c r="B128" t="n">
-        <v>11.9</v>
+        <v>11.8</v>
       </c>
       <c r="C128" t="n">
-        <v>11.9</v>
+        <v>11.8</v>
       </c>
       <c r="D128" t="n">
-        <v>11.9</v>
+        <v>11.8</v>
       </c>
       <c r="E128" t="n">
-        <v>11.9</v>
+        <v>11.8</v>
       </c>
       <c r="F128" t="n">
-        <v>215067.6921</v>
+        <v>123789.0642</v>
       </c>
       <c r="G128" t="n">
-        <v>11.90000000000001</v>
+        <v>5654929.587787768</v>
       </c>
       <c r="H128" t="n">
         <v>0</v>
@@ -5783,7 +5777,7 @@
       </c>
       <c r="J128" t="inlineStr"/>
       <c r="K128" t="n">
-        <v>11.7</v>
+        <v>11.4</v>
       </c>
       <c r="L128" t="inlineStr">
         <is>
@@ -5800,22 +5794,22 @@
         <v>127</v>
       </c>
       <c r="B129" t="n">
-        <v>11.8</v>
+        <v>11.9</v>
       </c>
       <c r="C129" t="n">
-        <v>11.8</v>
+        <v>11.9</v>
       </c>
       <c r="D129" t="n">
-        <v>11.8</v>
+        <v>11.9</v>
       </c>
       <c r="E129" t="n">
-        <v>11.8</v>
+        <v>11.9</v>
       </c>
       <c r="F129" t="n">
-        <v>234400.0556</v>
+        <v>89823.7029</v>
       </c>
       <c r="G129" t="n">
-        <v>11.85000000000001</v>
+        <v>5744753.290687768</v>
       </c>
       <c r="H129" t="n">
         <v>0</v>
@@ -5825,7 +5819,7 @@
       </c>
       <c r="J129" t="inlineStr"/>
       <c r="K129" t="n">
-        <v>11.7</v>
+        <v>11.4</v>
       </c>
       <c r="L129" t="inlineStr">
         <is>
@@ -5842,22 +5836,22 @@
         <v>128</v>
       </c>
       <c r="B130" t="n">
-        <v>11.8</v>
+        <v>11.9</v>
       </c>
       <c r="C130" t="n">
-        <v>11.8</v>
+        <v>11.9</v>
       </c>
       <c r="D130" t="n">
-        <v>11.8</v>
+        <v>11.9</v>
       </c>
       <c r="E130" t="n">
-        <v>11.8</v>
+        <v>11.9</v>
       </c>
       <c r="F130" t="n">
-        <v>38611.1969</v>
+        <v>49.9214</v>
       </c>
       <c r="G130" t="n">
-        <v>11.80000000000001</v>
+        <v>5744753.290687768</v>
       </c>
       <c r="H130" t="n">
         <v>0</v>
@@ -5867,7 +5861,7 @@
       </c>
       <c r="J130" t="inlineStr"/>
       <c r="K130" t="n">
-        <v>11.7</v>
+        <v>11.4</v>
       </c>
       <c r="L130" t="inlineStr">
         <is>
@@ -5887,19 +5881,19 @@
         <v>11.9</v>
       </c>
       <c r="C131" t="n">
-        <v>11.9</v>
+        <v>12.1</v>
       </c>
       <c r="D131" t="n">
-        <v>11.9</v>
+        <v>12.1</v>
       </c>
       <c r="E131" t="n">
         <v>11.9</v>
       </c>
       <c r="F131" t="n">
-        <v>97673.49099999999</v>
+        <v>154646.1387492187</v>
       </c>
       <c r="G131" t="n">
-        <v>11.85000000000001</v>
+        <v>5899399.429436986</v>
       </c>
       <c r="H131" t="n">
         <v>0</v>
@@ -5909,7 +5903,7 @@
       </c>
       <c r="J131" t="inlineStr"/>
       <c r="K131" t="n">
-        <v>11.7</v>
+        <v>11.4</v>
       </c>
       <c r="L131" t="inlineStr">
         <is>
@@ -5926,22 +5920,22 @@
         <v>130</v>
       </c>
       <c r="B132" t="n">
-        <v>11.9</v>
+        <v>12.1</v>
       </c>
       <c r="C132" t="n">
-        <v>11.9</v>
+        <v>12.1</v>
       </c>
       <c r="D132" t="n">
-        <v>11.9</v>
+        <v>12.1</v>
       </c>
       <c r="E132" t="n">
-        <v>11.9</v>
+        <v>12.1</v>
       </c>
       <c r="F132" t="n">
-        <v>32236.2036</v>
+        <v>1980.0993</v>
       </c>
       <c r="G132" t="n">
-        <v>11.90000000000001</v>
+        <v>5899399.429436986</v>
       </c>
       <c r="H132" t="n">
         <v>0</v>
@@ -5951,7 +5945,7 @@
       </c>
       <c r="J132" t="inlineStr"/>
       <c r="K132" t="n">
-        <v>11.7</v>
+        <v>11.4</v>
       </c>
       <c r="L132" t="inlineStr">
         <is>
@@ -5968,22 +5962,22 @@
         <v>131</v>
       </c>
       <c r="B133" t="n">
-        <v>11.9</v>
+        <v>12</v>
       </c>
       <c r="C133" t="n">
-        <v>11.9</v>
+        <v>12</v>
       </c>
       <c r="D133" t="n">
-        <v>11.9</v>
+        <v>12</v>
       </c>
       <c r="E133" t="n">
-        <v>11.9</v>
+        <v>12</v>
       </c>
       <c r="F133" t="n">
-        <v>4201.680672268908</v>
+        <v>134024.0411</v>
       </c>
       <c r="G133" t="n">
-        <v>11.90000000000001</v>
+        <v>5765375.388336986</v>
       </c>
       <c r="H133" t="n">
         <v>0</v>
@@ -5993,7 +5987,7 @@
       </c>
       <c r="J133" t="inlineStr"/>
       <c r="K133" t="n">
-        <v>11.7</v>
+        <v>11.4</v>
       </c>
       <c r="L133" t="inlineStr">
         <is>
@@ -6010,22 +6004,22 @@
         <v>132</v>
       </c>
       <c r="B134" t="n">
-        <v>11.8</v>
+        <v>12</v>
       </c>
       <c r="C134" t="n">
-        <v>11.8</v>
+        <v>12</v>
       </c>
       <c r="D134" t="n">
-        <v>11.8</v>
+        <v>12</v>
       </c>
       <c r="E134" t="n">
-        <v>11.8</v>
+        <v>12</v>
       </c>
       <c r="F134" t="n">
-        <v>25000</v>
+        <v>1000</v>
       </c>
       <c r="G134" t="n">
-        <v>11.85000000000001</v>
+        <v>5765375.388336986</v>
       </c>
       <c r="H134" t="n">
         <v>0</v>
@@ -6035,7 +6029,7 @@
       </c>
       <c r="J134" t="inlineStr"/>
       <c r="K134" t="n">
-        <v>11.7</v>
+        <v>11.4</v>
       </c>
       <c r="L134" t="inlineStr">
         <is>
@@ -6052,22 +6046,22 @@
         <v>133</v>
       </c>
       <c r="B135" t="n">
-        <v>11.8</v>
+        <v>12</v>
       </c>
       <c r="C135" t="n">
-        <v>11.8</v>
+        <v>12</v>
       </c>
       <c r="D135" t="n">
-        <v>11.8</v>
+        <v>12</v>
       </c>
       <c r="E135" t="n">
-        <v>11.8</v>
+        <v>12</v>
       </c>
       <c r="F135" t="n">
-        <v>26673.5393</v>
+        <v>41487.3614</v>
       </c>
       <c r="G135" t="n">
-        <v>11.80000000000001</v>
+        <v>5765375.388336986</v>
       </c>
       <c r="H135" t="n">
         <v>0</v>
@@ -6077,7 +6071,7 @@
       </c>
       <c r="J135" t="inlineStr"/>
       <c r="K135" t="n">
-        <v>11.7</v>
+        <v>11.4</v>
       </c>
       <c r="L135" t="inlineStr">
         <is>
@@ -6094,22 +6088,22 @@
         <v>134</v>
       </c>
       <c r="B136" t="n">
-        <v>11.7</v>
+        <v>12.1</v>
       </c>
       <c r="C136" t="n">
-        <v>11.7</v>
+        <v>12.1</v>
       </c>
       <c r="D136" t="n">
-        <v>11.7</v>
+        <v>12.1</v>
       </c>
       <c r="E136" t="n">
-        <v>11.7</v>
+        <v>12.1</v>
       </c>
       <c r="F136" t="n">
-        <v>100</v>
+        <v>11937.9435</v>
       </c>
       <c r="G136" t="n">
-        <v>11.75000000000001</v>
+        <v>5777313.331836986</v>
       </c>
       <c r="H136" t="n">
         <v>0</v>
@@ -6119,7 +6113,7 @@
       </c>
       <c r="J136" t="inlineStr"/>
       <c r="K136" t="n">
-        <v>11.7</v>
+        <v>11.4</v>
       </c>
       <c r="L136" t="inlineStr">
         <is>
@@ -6136,22 +6130,22 @@
         <v>135</v>
       </c>
       <c r="B137" t="n">
-        <v>11.7</v>
+        <v>12.1</v>
       </c>
       <c r="C137" t="n">
-        <v>11.7</v>
+        <v>12.1</v>
       </c>
       <c r="D137" t="n">
-        <v>11.7</v>
+        <v>12.1</v>
       </c>
       <c r="E137" t="n">
-        <v>11.7</v>
+        <v>12.1</v>
       </c>
       <c r="F137" t="n">
-        <v>4201.6807</v>
+        <v>17840.68947851239</v>
       </c>
       <c r="G137" t="n">
-        <v>11.70000000000001</v>
+        <v>5777313.331836986</v>
       </c>
       <c r="H137" t="n">
         <v>0</v>
@@ -6161,7 +6155,7 @@
       </c>
       <c r="J137" t="inlineStr"/>
       <c r="K137" t="n">
-        <v>11.7</v>
+        <v>11.4</v>
       </c>
       <c r="L137" t="inlineStr">
         <is>
@@ -6178,22 +6172,22 @@
         <v>136</v>
       </c>
       <c r="B138" t="n">
-        <v>11.8</v>
+        <v>12.2</v>
       </c>
       <c r="C138" t="n">
-        <v>11.8</v>
+        <v>12.1</v>
       </c>
       <c r="D138" t="n">
-        <v>11.8</v>
+        <v>12.2</v>
       </c>
       <c r="E138" t="n">
-        <v>11.8</v>
+        <v>12.1</v>
       </c>
       <c r="F138" t="n">
-        <v>18152.8312</v>
+        <v>85476.65089999999</v>
       </c>
       <c r="G138" t="n">
-        <v>11.75000000000001</v>
+        <v>5777313.331836986</v>
       </c>
       <c r="H138" t="n">
         <v>0</v>
@@ -6203,7 +6197,7 @@
       </c>
       <c r="J138" t="inlineStr"/>
       <c r="K138" t="n">
-        <v>11.7</v>
+        <v>11.4</v>
       </c>
       <c r="L138" t="inlineStr">
         <is>
@@ -6220,22 +6214,22 @@
         <v>137</v>
       </c>
       <c r="B139" t="n">
-        <v>11.8</v>
+        <v>12.2</v>
       </c>
       <c r="C139" t="n">
-        <v>11.8</v>
+        <v>12.2</v>
       </c>
       <c r="D139" t="n">
-        <v>11.8</v>
+        <v>12.2</v>
       </c>
       <c r="E139" t="n">
-        <v>11.8</v>
+        <v>12.2</v>
       </c>
       <c r="F139" t="n">
-        <v>88371.85649999999</v>
+        <v>102072.4842</v>
       </c>
       <c r="G139" t="n">
-        <v>11.80000000000001</v>
+        <v>5879385.816036986</v>
       </c>
       <c r="H139" t="n">
         <v>0</v>
@@ -6245,7 +6239,7 @@
       </c>
       <c r="J139" t="inlineStr"/>
       <c r="K139" t="n">
-        <v>11.7</v>
+        <v>11.4</v>
       </c>
       <c r="L139" t="inlineStr">
         <is>
@@ -6262,40 +6256,40 @@
         <v>138</v>
       </c>
       <c r="B140" t="n">
-        <v>11.8</v>
+        <v>12.1</v>
       </c>
       <c r="C140" t="n">
-        <v>11.8</v>
+        <v>12.1</v>
       </c>
       <c r="D140" t="n">
-        <v>11.8</v>
+        <v>12.1</v>
       </c>
       <c r="E140" t="n">
-        <v>11.8</v>
+        <v>12.1</v>
       </c>
       <c r="F140" t="n">
-        <v>45978.7097</v>
+        <v>3539</v>
       </c>
       <c r="G140" t="n">
-        <v>11.80000000000001</v>
+        <v>5875846.816036986</v>
       </c>
       <c r="H140" t="n">
         <v>0</v>
       </c>
       <c r="I140" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J140" t="inlineStr"/>
       <c r="K140" t="n">
-        <v>11.7</v>
+        <v>11.4</v>
       </c>
       <c r="L140" t="inlineStr">
         <is>
-          <t>매도 체결</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="M140" t="n">
-        <v>1.003547008547009</v>
+        <v>1</v>
       </c>
       <c r="N140" t="inlineStr"/>
     </row>
@@ -6304,22 +6298,22 @@
         <v>139</v>
       </c>
       <c r="B141" t="n">
-        <v>11.7</v>
+        <v>12.3</v>
       </c>
       <c r="C141" t="n">
-        <v>11.7</v>
+        <v>12.3</v>
       </c>
       <c r="D141" t="n">
-        <v>11.7</v>
+        <v>12.3</v>
       </c>
       <c r="E141" t="n">
-        <v>11.7</v>
+        <v>12.3</v>
       </c>
       <c r="F141" t="n">
-        <v>23959.5487</v>
+        <v>41</v>
       </c>
       <c r="G141" t="n">
-        <v>11.75000000000001</v>
+        <v>5875887.816036986</v>
       </c>
       <c r="H141" t="n">
         <v>0</v>
@@ -6328,8 +6322,14 @@
         <v>0</v>
       </c>
       <c r="J141" t="inlineStr"/>
-      <c r="K141" t="inlineStr"/>
-      <c r="L141" t="inlineStr"/>
+      <c r="K141" t="n">
+        <v>11.4</v>
+      </c>
+      <c r="L141" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M141" t="n">
         <v>1</v>
       </c>
@@ -6340,64 +6340,72 @@
         <v>140</v>
       </c>
       <c r="B142" t="n">
-        <v>11.7</v>
+        <v>12.3</v>
       </c>
       <c r="C142" t="n">
-        <v>11.7</v>
+        <v>12.3</v>
       </c>
       <c r="D142" t="n">
-        <v>11.7</v>
+        <v>12.3</v>
       </c>
       <c r="E142" t="n">
-        <v>11.7</v>
+        <v>12.3</v>
       </c>
       <c r="F142" t="n">
-        <v>24965.0007</v>
+        <v>47091.4205</v>
       </c>
       <c r="G142" t="n">
-        <v>11.70000000000001</v>
+        <v>5875887.816036986</v>
       </c>
       <c r="H142" t="n">
         <v>0</v>
       </c>
       <c r="I142" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J142" t="inlineStr"/>
-      <c r="K142" t="inlineStr"/>
-      <c r="L142" t="inlineStr"/>
+      <c r="K142" t="n">
+        <v>11.4</v>
+      </c>
+      <c r="L142" t="inlineStr">
+        <is>
+          <t>매도 체결</t>
+        </is>
+      </c>
       <c r="M142" t="n">
-        <v>1</v>
-      </c>
-      <c r="N142" t="inlineStr"/>
+        <v>1.073947368421053</v>
+      </c>
+      <c r="N142" t="n">
+        <v>1.017857142857143</v>
+      </c>
     </row>
     <row r="143">
       <c r="A143" s="1" t="n">
         <v>141</v>
       </c>
       <c r="B143" t="n">
-        <v>11.8</v>
+        <v>12.1</v>
       </c>
       <c r="C143" t="n">
-        <v>11.8</v>
+        <v>12.1</v>
       </c>
       <c r="D143" t="n">
-        <v>11.8</v>
+        <v>12.1</v>
       </c>
       <c r="E143" t="n">
-        <v>11.8</v>
+        <v>12.1</v>
       </c>
       <c r="F143" t="n">
-        <v>4226.6613</v>
+        <v>2500</v>
       </c>
       <c r="G143" t="n">
-        <v>11.75000000000001</v>
+        <v>5873387.816036986</v>
       </c>
       <c r="H143" t="n">
         <v>0</v>
       </c>
       <c r="I143" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J143" t="inlineStr"/>
       <c r="K143" t="inlineStr"/>
@@ -6412,28 +6420,28 @@
         <v>142</v>
       </c>
       <c r="B144" t="n">
-        <v>11.8</v>
+        <v>12.1</v>
       </c>
       <c r="C144" t="n">
-        <v>11.8</v>
+        <v>12</v>
       </c>
       <c r="D144" t="n">
-        <v>11.8</v>
+        <v>12.1</v>
       </c>
       <c r="E144" t="n">
-        <v>11.8</v>
+        <v>12</v>
       </c>
       <c r="F144" t="n">
-        <v>6079.6567</v>
+        <v>69267.75992148761</v>
       </c>
       <c r="G144" t="n">
-        <v>11.80000000000001</v>
+        <v>5804120.056115499</v>
       </c>
       <c r="H144" t="n">
         <v>0</v>
       </c>
       <c r="I144" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J144" t="inlineStr"/>
       <c r="K144" t="inlineStr"/>
@@ -6448,22 +6456,22 @@
         <v>143</v>
       </c>
       <c r="B145" t="n">
-        <v>11.8</v>
+        <v>12</v>
       </c>
       <c r="C145" t="n">
-        <v>11.8</v>
+        <v>12</v>
       </c>
       <c r="D145" t="n">
-        <v>11.8</v>
+        <v>12</v>
       </c>
       <c r="E145" t="n">
-        <v>11.8</v>
+        <v>12</v>
       </c>
       <c r="F145" t="n">
-        <v>4360</v>
+        <v>3350</v>
       </c>
       <c r="G145" t="n">
-        <v>11.80000000000001</v>
+        <v>5804120.056115499</v>
       </c>
       <c r="H145" t="n">
         <v>0</v>
@@ -6484,22 +6492,22 @@
         <v>144</v>
       </c>
       <c r="B146" t="n">
-        <v>11.8</v>
+        <v>12</v>
       </c>
       <c r="C146" t="n">
-        <v>11.8</v>
+        <v>11.9</v>
       </c>
       <c r="D146" t="n">
-        <v>11.8</v>
+        <v>12</v>
       </c>
       <c r="E146" t="n">
-        <v>11.8</v>
+        <v>11.9</v>
       </c>
       <c r="F146" t="n">
-        <v>298792.3166</v>
+        <v>25869.7773</v>
       </c>
       <c r="G146" t="n">
-        <v>11.80000000000001</v>
+        <v>5778250.278815499</v>
       </c>
       <c r="H146" t="n">
         <v>0</v>
@@ -6520,22 +6528,22 @@
         <v>145</v>
       </c>
       <c r="B147" t="n">
-        <v>11.8</v>
+        <v>12.1</v>
       </c>
       <c r="C147" t="n">
-        <v>11.8</v>
+        <v>12.1</v>
       </c>
       <c r="D147" t="n">
-        <v>11.8</v>
+        <v>12.1</v>
       </c>
       <c r="E147" t="n">
-        <v>11.8</v>
+        <v>12.1</v>
       </c>
       <c r="F147" t="n">
-        <v>63287.2407</v>
+        <v>2303.2476</v>
       </c>
       <c r="G147" t="n">
-        <v>11.80000000000001</v>
+        <v>5780553.526415499</v>
       </c>
       <c r="H147" t="n">
         <v>0</v>
@@ -6556,22 +6564,22 @@
         <v>146</v>
       </c>
       <c r="B148" t="n">
-        <v>11.8</v>
+        <v>12.1</v>
       </c>
       <c r="C148" t="n">
-        <v>11.9</v>
+        <v>12.1</v>
       </c>
       <c r="D148" t="n">
-        <v>11.9</v>
+        <v>12.1</v>
       </c>
       <c r="E148" t="n">
-        <v>11.8</v>
+        <v>12.1</v>
       </c>
       <c r="F148" t="n">
-        <v>30773.29091512605</v>
+        <v>5819.577</v>
       </c>
       <c r="G148" t="n">
-        <v>11.85000000000001</v>
+        <v>5780553.526415499</v>
       </c>
       <c r="H148" t="n">
         <v>0</v>
@@ -6592,22 +6600,22 @@
         <v>147</v>
       </c>
       <c r="B149" t="n">
-        <v>11.9</v>
+        <v>12</v>
       </c>
       <c r="C149" t="n">
-        <v>11.8</v>
+        <v>11.9</v>
       </c>
       <c r="D149" t="n">
-        <v>11.9</v>
+        <v>12</v>
       </c>
       <c r="E149" t="n">
-        <v>11.8</v>
+        <v>11.9</v>
       </c>
       <c r="F149" t="n">
-        <v>123781.9023848739</v>
+        <v>189553.5962</v>
       </c>
       <c r="G149" t="n">
-        <v>11.85000000000001</v>
+        <v>5590999.930215499</v>
       </c>
       <c r="H149" t="n">
         <v>0</v>
@@ -6628,22 +6636,22 @@
         <v>148</v>
       </c>
       <c r="B150" t="n">
-        <v>11.8</v>
+        <v>11.9</v>
       </c>
       <c r="C150" t="n">
-        <v>11.8</v>
+        <v>11.9</v>
       </c>
       <c r="D150" t="n">
-        <v>11.8</v>
+        <v>11.9</v>
       </c>
       <c r="E150" t="n">
-        <v>11.8</v>
+        <v>11.9</v>
       </c>
       <c r="F150" t="n">
-        <v>171836.0471</v>
+        <v>9946.4038</v>
       </c>
       <c r="G150" t="n">
-        <v>11.80000000000001</v>
+        <v>5590999.930215499</v>
       </c>
       <c r="H150" t="n">
         <v>0</v>
@@ -6664,22 +6672,22 @@
         <v>149</v>
       </c>
       <c r="B151" t="n">
-        <v>11.8</v>
+        <v>12.1</v>
       </c>
       <c r="C151" t="n">
-        <v>11.8</v>
+        <v>12.1</v>
       </c>
       <c r="D151" t="n">
-        <v>11.8</v>
+        <v>12.1</v>
       </c>
       <c r="E151" t="n">
-        <v>11.8</v>
+        <v>12.1</v>
       </c>
       <c r="F151" t="n">
-        <v>1.5126050420168e-05</v>
+        <v>210</v>
       </c>
       <c r="G151" t="n">
-        <v>11.80000000000002</v>
+        <v>5591209.930215499</v>
       </c>
       <c r="H151" t="n">
         <v>0</v>
@@ -6700,22 +6708,22 @@
         <v>150</v>
       </c>
       <c r="B152" t="n">
-        <v>11.8</v>
+        <v>12</v>
       </c>
       <c r="C152" t="n">
-        <v>11.8</v>
+        <v>12</v>
       </c>
       <c r="D152" t="n">
-        <v>11.8</v>
+        <v>12</v>
       </c>
       <c r="E152" t="n">
-        <v>11.8</v>
+        <v>12</v>
       </c>
       <c r="F152" t="n">
-        <v>19132.62628487395</v>
+        <v>80376.11629999999</v>
       </c>
       <c r="G152" t="n">
-        <v>11.80000000000002</v>
+        <v>5510833.813915499</v>
       </c>
       <c r="H152" t="n">
         <v>0</v>
@@ -6736,22 +6744,22 @@
         <v>151</v>
       </c>
       <c r="B153" t="n">
-        <v>11.9</v>
+        <v>12</v>
       </c>
       <c r="C153" t="n">
-        <v>11.9</v>
+        <v>12.1</v>
       </c>
       <c r="D153" t="n">
-        <v>11.9</v>
+        <v>12.1</v>
       </c>
       <c r="E153" t="n">
-        <v>11.8</v>
+        <v>12</v>
       </c>
       <c r="F153" t="n">
-        <v>21072.6183</v>
+        <v>42788.99898677686</v>
       </c>
       <c r="G153" t="n">
-        <v>11.85000000000002</v>
+        <v>5553622.812902276</v>
       </c>
       <c r="H153" t="n">
         <v>0</v>
@@ -6772,22 +6780,22 @@
         <v>152</v>
       </c>
       <c r="B154" t="n">
-        <v>11.9</v>
+        <v>12.1</v>
       </c>
       <c r="C154" t="n">
-        <v>11.9</v>
+        <v>12.1</v>
       </c>
       <c r="D154" t="n">
-        <v>11.9</v>
+        <v>12.1</v>
       </c>
       <c r="E154" t="n">
-        <v>11.9</v>
+        <v>12.1</v>
       </c>
       <c r="F154" t="n">
-        <v>6899.4078</v>
+        <v>31119.63199173554</v>
       </c>
       <c r="G154" t="n">
-        <v>11.90000000000002</v>
+        <v>5553622.812902276</v>
       </c>
       <c r="H154" t="n">
         <v>0</v>
@@ -6808,22 +6816,22 @@
         <v>153</v>
       </c>
       <c r="B155" t="n">
+        <v>12.1</v>
+      </c>
+      <c r="C155" t="n">
         <v>12</v>
       </c>
-      <c r="C155" t="n">
-        <v>11.9</v>
-      </c>
       <c r="D155" t="n">
-        <v>12</v>
+        <v>12.1</v>
       </c>
       <c r="E155" t="n">
-        <v>11.8</v>
+        <v>11.9</v>
       </c>
       <c r="F155" t="n">
-        <v>86491.4749</v>
+        <v>63340.8259</v>
       </c>
       <c r="G155" t="n">
-        <v>11.90000000000002</v>
+        <v>5490281.987002277</v>
       </c>
       <c r="H155" t="n">
         <v>0</v>
@@ -6847,19 +6855,19 @@
         <v>11.9</v>
       </c>
       <c r="C156" t="n">
-        <v>11.8</v>
+        <v>11.9</v>
       </c>
       <c r="D156" t="n">
         <v>11.9</v>
       </c>
       <c r="E156" t="n">
-        <v>11.8</v>
+        <v>11.9</v>
       </c>
       <c r="F156" t="n">
-        <v>176106.8292</v>
+        <v>29649.5695</v>
       </c>
       <c r="G156" t="n">
-        <v>11.85000000000002</v>
+        <v>5460632.417502277</v>
       </c>
       <c r="H156" t="n">
         <v>0</v>
@@ -6892,16 +6900,16 @@
         <v>11.9</v>
       </c>
       <c r="F157" t="n">
-        <v>43635.9061</v>
+        <v>23602.5531</v>
       </c>
       <c r="G157" t="n">
-        <v>11.85000000000002</v>
+        <v>5460632.417502277</v>
       </c>
       <c r="H157" t="n">
         <v>0</v>
       </c>
       <c r="I157" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J157" t="inlineStr"/>
       <c r="K157" t="inlineStr"/>
@@ -6916,22 +6924,22 @@
         <v>156</v>
       </c>
       <c r="B158" t="n">
-        <v>12</v>
+        <v>11.9</v>
       </c>
       <c r="C158" t="n">
-        <v>12</v>
+        <v>11.9</v>
       </c>
       <c r="D158" t="n">
-        <v>12</v>
+        <v>11.9</v>
       </c>
       <c r="E158" t="n">
-        <v>12</v>
+        <v>11.9</v>
       </c>
       <c r="F158" t="n">
-        <v>80</v>
+        <v>24718.9033</v>
       </c>
       <c r="G158" t="n">
-        <v>11.95000000000002</v>
+        <v>5460632.417502277</v>
       </c>
       <c r="H158" t="n">
         <v>0</v>
@@ -6964,10 +6972,10 @@
         <v>11.9</v>
       </c>
       <c r="F159" t="n">
-        <v>8831</v>
+        <v>25652.1657</v>
       </c>
       <c r="G159" t="n">
-        <v>11.95000000000002</v>
+        <v>5460632.417502277</v>
       </c>
       <c r="H159" t="n">
         <v>0</v>
@@ -6988,28 +6996,28 @@
         <v>158</v>
       </c>
       <c r="B160" t="n">
-        <v>11.9</v>
+        <v>12</v>
       </c>
       <c r="C160" t="n">
-        <v>11.9</v>
+        <v>12</v>
       </c>
       <c r="D160" t="n">
-        <v>11.9</v>
+        <v>12</v>
       </c>
       <c r="E160" t="n">
-        <v>11.9</v>
+        <v>12</v>
       </c>
       <c r="F160" t="n">
-        <v>982.0187</v>
+        <v>8333.3334</v>
       </c>
       <c r="G160" t="n">
-        <v>11.90000000000002</v>
+        <v>5468965.750902276</v>
       </c>
       <c r="H160" t="n">
         <v>0</v>
       </c>
       <c r="I160" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J160" t="inlineStr"/>
       <c r="K160" t="inlineStr"/>
@@ -7036,10 +7044,10 @@
         <v>11.9</v>
       </c>
       <c r="F161" t="n">
-        <v>20000</v>
+        <v>1591.9618</v>
       </c>
       <c r="G161" t="n">
-        <v>11.90000000000002</v>
+        <v>5467373.789102277</v>
       </c>
       <c r="H161" t="n">
         <v>0</v>
@@ -7060,22 +7068,22 @@
         <v>160</v>
       </c>
       <c r="B162" t="n">
-        <v>11.8</v>
+        <v>11.9</v>
       </c>
       <c r="C162" t="n">
-        <v>11.7</v>
+        <v>11.9</v>
       </c>
       <c r="D162" t="n">
-        <v>11.8</v>
+        <v>11.9</v>
       </c>
       <c r="E162" t="n">
-        <v>11.7</v>
+        <v>11.9</v>
       </c>
       <c r="F162" t="n">
-        <v>41075.5745</v>
+        <v>117.7310924369748</v>
       </c>
       <c r="G162" t="n">
-        <v>11.80000000000002</v>
+        <v>5467373.789102277</v>
       </c>
       <c r="H162" t="n">
         <v>0</v>
@@ -7096,22 +7104,22 @@
         <v>161</v>
       </c>
       <c r="B163" t="n">
-        <v>11.7</v>
+        <v>11.9</v>
       </c>
       <c r="C163" t="n">
-        <v>11.7</v>
+        <v>11.9</v>
       </c>
       <c r="D163" t="n">
-        <v>11.7</v>
+        <v>11.9</v>
       </c>
       <c r="E163" t="n">
-        <v>11.7</v>
+        <v>11.9</v>
       </c>
       <c r="F163" t="n">
-        <v>106098.7638</v>
+        <v>117.8151260504202</v>
       </c>
       <c r="G163" t="n">
-        <v>11.70000000000002</v>
+        <v>5467373.789102277</v>
       </c>
       <c r="H163" t="n">
         <v>0</v>
@@ -7127,6 +7135,2562 @@
       </c>
       <c r="N163" t="inlineStr"/>
     </row>
+    <row r="164">
+      <c r="A164" s="1" t="n">
+        <v>162</v>
+      </c>
+      <c r="B164" t="n">
+        <v>11.8</v>
+      </c>
+      <c r="C164" t="n">
+        <v>11.8</v>
+      </c>
+      <c r="D164" t="n">
+        <v>11.8</v>
+      </c>
+      <c r="E164" t="n">
+        <v>11.8</v>
+      </c>
+      <c r="F164" t="n">
+        <v>4948.4236</v>
+      </c>
+      <c r="G164" t="n">
+        <v>5462425.365502276</v>
+      </c>
+      <c r="H164" t="n">
+        <v>0</v>
+      </c>
+      <c r="I164" t="n">
+        <v>1</v>
+      </c>
+      <c r="J164" t="inlineStr"/>
+      <c r="K164" t="inlineStr"/>
+      <c r="L164" t="inlineStr"/>
+      <c r="M164" t="n">
+        <v>1</v>
+      </c>
+      <c r="N164" t="inlineStr"/>
+    </row>
+    <row r="165">
+      <c r="A165" s="1" t="n">
+        <v>163</v>
+      </c>
+      <c r="B165" t="n">
+        <v>11.8</v>
+      </c>
+      <c r="C165" t="n">
+        <v>11.8</v>
+      </c>
+      <c r="D165" t="n">
+        <v>11.8</v>
+      </c>
+      <c r="E165" t="n">
+        <v>11.8</v>
+      </c>
+      <c r="F165" t="n">
+        <v>146865</v>
+      </c>
+      <c r="G165" t="n">
+        <v>5462425.365502276</v>
+      </c>
+      <c r="H165" t="n">
+        <v>0</v>
+      </c>
+      <c r="I165" t="n">
+        <v>1</v>
+      </c>
+      <c r="J165" t="inlineStr"/>
+      <c r="K165" t="inlineStr"/>
+      <c r="L165" t="inlineStr"/>
+      <c r="M165" t="n">
+        <v>1</v>
+      </c>
+      <c r="N165" t="inlineStr"/>
+    </row>
+    <row r="166">
+      <c r="A166" s="1" t="n">
+        <v>164</v>
+      </c>
+      <c r="B166" t="n">
+        <v>11.8</v>
+      </c>
+      <c r="C166" t="n">
+        <v>11.7</v>
+      </c>
+      <c r="D166" t="n">
+        <v>11.8</v>
+      </c>
+      <c r="E166" t="n">
+        <v>11.7</v>
+      </c>
+      <c r="F166" t="n">
+        <v>270316.671</v>
+      </c>
+      <c r="G166" t="n">
+        <v>5192108.694502276</v>
+      </c>
+      <c r="H166" t="n">
+        <v>0</v>
+      </c>
+      <c r="I166" t="n">
+        <v>1</v>
+      </c>
+      <c r="J166" t="inlineStr"/>
+      <c r="K166" t="inlineStr"/>
+      <c r="L166" t="inlineStr"/>
+      <c r="M166" t="n">
+        <v>1</v>
+      </c>
+      <c r="N166" t="inlineStr"/>
+    </row>
+    <row r="167">
+      <c r="A167" s="1" t="n">
+        <v>165</v>
+      </c>
+      <c r="B167" t="n">
+        <v>11.7</v>
+      </c>
+      <c r="C167" t="n">
+        <v>11.7</v>
+      </c>
+      <c r="D167" t="n">
+        <v>11.7</v>
+      </c>
+      <c r="E167" t="n">
+        <v>11.7</v>
+      </c>
+      <c r="F167" t="n">
+        <v>100000</v>
+      </c>
+      <c r="G167" t="n">
+        <v>5192108.694502276</v>
+      </c>
+      <c r="H167" t="n">
+        <v>0</v>
+      </c>
+      <c r="I167" t="n">
+        <v>0</v>
+      </c>
+      <c r="J167" t="inlineStr"/>
+      <c r="K167" t="inlineStr"/>
+      <c r="L167" t="inlineStr"/>
+      <c r="M167" t="n">
+        <v>1</v>
+      </c>
+      <c r="N167" t="inlineStr"/>
+    </row>
+    <row r="168">
+      <c r="A168" s="1" t="n">
+        <v>166</v>
+      </c>
+      <c r="B168" t="n">
+        <v>11.7</v>
+      </c>
+      <c r="C168" t="n">
+        <v>11.7</v>
+      </c>
+      <c r="D168" t="n">
+        <v>11.7</v>
+      </c>
+      <c r="E168" t="n">
+        <v>11.7</v>
+      </c>
+      <c r="F168" t="n">
+        <v>100000</v>
+      </c>
+      <c r="G168" t="n">
+        <v>5192108.694502276</v>
+      </c>
+      <c r="H168" t="n">
+        <v>0</v>
+      </c>
+      <c r="I168" t="n">
+        <v>0</v>
+      </c>
+      <c r="J168" t="inlineStr"/>
+      <c r="K168" t="inlineStr"/>
+      <c r="L168" t="inlineStr"/>
+      <c r="M168" t="n">
+        <v>1</v>
+      </c>
+      <c r="N168" t="inlineStr"/>
+    </row>
+    <row r="169">
+      <c r="A169" s="1" t="n">
+        <v>167</v>
+      </c>
+      <c r="B169" t="n">
+        <v>11.7</v>
+      </c>
+      <c r="C169" t="n">
+        <v>11.7</v>
+      </c>
+      <c r="D169" t="n">
+        <v>11.7</v>
+      </c>
+      <c r="E169" t="n">
+        <v>11.7</v>
+      </c>
+      <c r="F169" t="n">
+        <v>74084.7746</v>
+      </c>
+      <c r="G169" t="n">
+        <v>5192108.694502276</v>
+      </c>
+      <c r="H169" t="n">
+        <v>0</v>
+      </c>
+      <c r="I169" t="n">
+        <v>0</v>
+      </c>
+      <c r="J169" t="inlineStr"/>
+      <c r="K169" t="inlineStr"/>
+      <c r="L169" t="inlineStr"/>
+      <c r="M169" t="n">
+        <v>1</v>
+      </c>
+      <c r="N169" t="inlineStr"/>
+    </row>
+    <row r="170">
+      <c r="A170" s="1" t="n">
+        <v>168</v>
+      </c>
+      <c r="B170" t="n">
+        <v>11.8</v>
+      </c>
+      <c r="C170" t="n">
+        <v>11.8</v>
+      </c>
+      <c r="D170" t="n">
+        <v>11.8</v>
+      </c>
+      <c r="E170" t="n">
+        <v>11.8</v>
+      </c>
+      <c r="F170" t="n">
+        <v>9014.7901</v>
+      </c>
+      <c r="G170" t="n">
+        <v>5201123.484602276</v>
+      </c>
+      <c r="H170" t="n">
+        <v>0</v>
+      </c>
+      <c r="I170" t="n">
+        <v>0</v>
+      </c>
+      <c r="J170" t="inlineStr"/>
+      <c r="K170" t="inlineStr"/>
+      <c r="L170" t="inlineStr"/>
+      <c r="M170" t="n">
+        <v>1</v>
+      </c>
+      <c r="N170" t="inlineStr"/>
+    </row>
+    <row r="171">
+      <c r="A171" s="1" t="n">
+        <v>169</v>
+      </c>
+      <c r="B171" t="n">
+        <v>11.8</v>
+      </c>
+      <c r="C171" t="n">
+        <v>11.8</v>
+      </c>
+      <c r="D171" t="n">
+        <v>11.8</v>
+      </c>
+      <c r="E171" t="n">
+        <v>11.8</v>
+      </c>
+      <c r="F171" t="n">
+        <v>100</v>
+      </c>
+      <c r="G171" t="n">
+        <v>5201123.484602276</v>
+      </c>
+      <c r="H171" t="n">
+        <v>0</v>
+      </c>
+      <c r="I171" t="n">
+        <v>0</v>
+      </c>
+      <c r="J171" t="inlineStr"/>
+      <c r="K171" t="inlineStr"/>
+      <c r="L171" t="inlineStr"/>
+      <c r="M171" t="n">
+        <v>1</v>
+      </c>
+      <c r="N171" t="inlineStr"/>
+    </row>
+    <row r="172">
+      <c r="A172" s="1" t="n">
+        <v>170</v>
+      </c>
+      <c r="B172" t="n">
+        <v>11.8</v>
+      </c>
+      <c r="C172" t="n">
+        <v>11.8</v>
+      </c>
+      <c r="D172" t="n">
+        <v>11.8</v>
+      </c>
+      <c r="E172" t="n">
+        <v>11.8</v>
+      </c>
+      <c r="F172" t="n">
+        <v>3360</v>
+      </c>
+      <c r="G172" t="n">
+        <v>5201123.484602276</v>
+      </c>
+      <c r="H172" t="n">
+        <v>0</v>
+      </c>
+      <c r="I172" t="n">
+        <v>1</v>
+      </c>
+      <c r="J172" t="inlineStr"/>
+      <c r="K172" t="inlineStr"/>
+      <c r="L172" t="inlineStr"/>
+      <c r="M172" t="n">
+        <v>1</v>
+      </c>
+      <c r="N172" t="inlineStr"/>
+    </row>
+    <row r="173">
+      <c r="A173" s="1" t="n">
+        <v>171</v>
+      </c>
+      <c r="B173" t="n">
+        <v>11.8</v>
+      </c>
+      <c r="C173" t="n">
+        <v>11.7</v>
+      </c>
+      <c r="D173" t="n">
+        <v>11.8</v>
+      </c>
+      <c r="E173" t="n">
+        <v>11.7</v>
+      </c>
+      <c r="F173" t="n">
+        <v>8301.961799999999</v>
+      </c>
+      <c r="G173" t="n">
+        <v>5192821.522802277</v>
+      </c>
+      <c r="H173" t="n">
+        <v>0</v>
+      </c>
+      <c r="I173" t="n">
+        <v>1</v>
+      </c>
+      <c r="J173" t="inlineStr"/>
+      <c r="K173" t="inlineStr"/>
+      <c r="L173" t="inlineStr"/>
+      <c r="M173" t="n">
+        <v>1</v>
+      </c>
+      <c r="N173" t="inlineStr"/>
+    </row>
+    <row r="174">
+      <c r="A174" s="1" t="n">
+        <v>172</v>
+      </c>
+      <c r="B174" t="n">
+        <v>11.8</v>
+      </c>
+      <c r="C174" t="n">
+        <v>11.8</v>
+      </c>
+      <c r="D174" t="n">
+        <v>11.8</v>
+      </c>
+      <c r="E174" t="n">
+        <v>11.8</v>
+      </c>
+      <c r="F174" t="n">
+        <v>1590</v>
+      </c>
+      <c r="G174" t="n">
+        <v>5194411.522802277</v>
+      </c>
+      <c r="H174" t="n">
+        <v>0</v>
+      </c>
+      <c r="I174" t="n">
+        <v>1</v>
+      </c>
+      <c r="J174" t="inlineStr"/>
+      <c r="K174" t="inlineStr"/>
+      <c r="L174" t="inlineStr"/>
+      <c r="M174" t="n">
+        <v>1</v>
+      </c>
+      <c r="N174" t="inlineStr"/>
+    </row>
+    <row r="175">
+      <c r="A175" s="1" t="n">
+        <v>173</v>
+      </c>
+      <c r="B175" t="n">
+        <v>11.8</v>
+      </c>
+      <c r="C175" t="n">
+        <v>11.8</v>
+      </c>
+      <c r="D175" t="n">
+        <v>11.8</v>
+      </c>
+      <c r="E175" t="n">
+        <v>11.8</v>
+      </c>
+      <c r="F175" t="n">
+        <v>100000</v>
+      </c>
+      <c r="G175" t="n">
+        <v>5194411.522802277</v>
+      </c>
+      <c r="H175" t="n">
+        <v>0</v>
+      </c>
+      <c r="I175" t="n">
+        <v>1</v>
+      </c>
+      <c r="J175" t="inlineStr"/>
+      <c r="K175" t="inlineStr"/>
+      <c r="L175" t="inlineStr"/>
+      <c r="M175" t="n">
+        <v>1</v>
+      </c>
+      <c r="N175" t="inlineStr"/>
+    </row>
+    <row r="176">
+      <c r="A176" s="1" t="n">
+        <v>174</v>
+      </c>
+      <c r="B176" t="n">
+        <v>11.7</v>
+      </c>
+      <c r="C176" t="n">
+        <v>11.7</v>
+      </c>
+      <c r="D176" t="n">
+        <v>11.7</v>
+      </c>
+      <c r="E176" t="n">
+        <v>11.7</v>
+      </c>
+      <c r="F176" t="n">
+        <v>21436.8989</v>
+      </c>
+      <c r="G176" t="n">
+        <v>5172974.623902276</v>
+      </c>
+      <c r="H176" t="n">
+        <v>0</v>
+      </c>
+      <c r="I176" t="n">
+        <v>1</v>
+      </c>
+      <c r="J176" t="inlineStr"/>
+      <c r="K176" t="inlineStr"/>
+      <c r="L176" t="inlineStr"/>
+      <c r="M176" t="n">
+        <v>1</v>
+      </c>
+      <c r="N176" t="inlineStr"/>
+    </row>
+    <row r="177">
+      <c r="A177" s="1" t="n">
+        <v>175</v>
+      </c>
+      <c r="B177" t="n">
+        <v>11.7</v>
+      </c>
+      <c r="C177" t="n">
+        <v>11.7</v>
+      </c>
+      <c r="D177" t="n">
+        <v>11.7</v>
+      </c>
+      <c r="E177" t="n">
+        <v>11.7</v>
+      </c>
+      <c r="F177" t="n">
+        <v>80546.3033</v>
+      </c>
+      <c r="G177" t="n">
+        <v>5172974.623902276</v>
+      </c>
+      <c r="H177" t="n">
+        <v>0</v>
+      </c>
+      <c r="I177" t="n">
+        <v>0</v>
+      </c>
+      <c r="J177" t="inlineStr"/>
+      <c r="K177" t="inlineStr"/>
+      <c r="L177" t="inlineStr"/>
+      <c r="M177" t="n">
+        <v>1</v>
+      </c>
+      <c r="N177" t="inlineStr"/>
+    </row>
+    <row r="178">
+      <c r="A178" s="1" t="n">
+        <v>176</v>
+      </c>
+      <c r="B178" t="n">
+        <v>11.6</v>
+      </c>
+      <c r="C178" t="n">
+        <v>11.6</v>
+      </c>
+      <c r="D178" t="n">
+        <v>11.6</v>
+      </c>
+      <c r="E178" t="n">
+        <v>11.6</v>
+      </c>
+      <c r="F178" t="n">
+        <v>235.5462</v>
+      </c>
+      <c r="G178" t="n">
+        <v>5172739.077702276</v>
+      </c>
+      <c r="H178" t="n">
+        <v>0</v>
+      </c>
+      <c r="I178" t="n">
+        <v>0</v>
+      </c>
+      <c r="J178" t="inlineStr"/>
+      <c r="K178" t="inlineStr"/>
+      <c r="L178" t="inlineStr"/>
+      <c r="M178" t="n">
+        <v>1</v>
+      </c>
+      <c r="N178" t="inlineStr"/>
+    </row>
+    <row r="179">
+      <c r="A179" s="1" t="n">
+        <v>177</v>
+      </c>
+      <c r="B179" t="n">
+        <v>11.6</v>
+      </c>
+      <c r="C179" t="n">
+        <v>11.6</v>
+      </c>
+      <c r="D179" t="n">
+        <v>11.6</v>
+      </c>
+      <c r="E179" t="n">
+        <v>11.6</v>
+      </c>
+      <c r="F179" t="n">
+        <v>8696.2371</v>
+      </c>
+      <c r="G179" t="n">
+        <v>5172739.077702276</v>
+      </c>
+      <c r="H179" t="n">
+        <v>0</v>
+      </c>
+      <c r="I179" t="n">
+        <v>0</v>
+      </c>
+      <c r="J179" t="inlineStr"/>
+      <c r="K179" t="inlineStr"/>
+      <c r="L179" t="inlineStr"/>
+      <c r="M179" t="n">
+        <v>1</v>
+      </c>
+      <c r="N179" t="inlineStr"/>
+    </row>
+    <row r="180">
+      <c r="A180" s="1" t="n">
+        <v>178</v>
+      </c>
+      <c r="B180" t="n">
+        <v>11.7</v>
+      </c>
+      <c r="C180" t="n">
+        <v>11.6</v>
+      </c>
+      <c r="D180" t="n">
+        <v>11.7</v>
+      </c>
+      <c r="E180" t="n">
+        <v>11.6</v>
+      </c>
+      <c r="F180" t="n">
+        <v>75906.85980000001</v>
+      </c>
+      <c r="G180" t="n">
+        <v>5172739.077702276</v>
+      </c>
+      <c r="H180" t="n">
+        <v>0</v>
+      </c>
+      <c r="I180" t="n">
+        <v>0</v>
+      </c>
+      <c r="J180" t="inlineStr"/>
+      <c r="K180" t="inlineStr"/>
+      <c r="L180" t="inlineStr"/>
+      <c r="M180" t="n">
+        <v>1</v>
+      </c>
+      <c r="N180" t="inlineStr"/>
+    </row>
+    <row r="181">
+      <c r="A181" s="1" t="n">
+        <v>179</v>
+      </c>
+      <c r="B181" t="n">
+        <v>11.6</v>
+      </c>
+      <c r="C181" t="n">
+        <v>11.6</v>
+      </c>
+      <c r="D181" t="n">
+        <v>11.6</v>
+      </c>
+      <c r="E181" t="n">
+        <v>11.6</v>
+      </c>
+      <c r="F181" t="n">
+        <v>4201.6807</v>
+      </c>
+      <c r="G181" t="n">
+        <v>5172739.077702276</v>
+      </c>
+      <c r="H181" t="n">
+        <v>0</v>
+      </c>
+      <c r="I181" t="n">
+        <v>0</v>
+      </c>
+      <c r="J181" t="inlineStr"/>
+      <c r="K181" t="inlineStr"/>
+      <c r="L181" t="inlineStr"/>
+      <c r="M181" t="n">
+        <v>1</v>
+      </c>
+      <c r="N181" t="inlineStr"/>
+    </row>
+    <row r="182">
+      <c r="A182" s="1" t="n">
+        <v>180</v>
+      </c>
+      <c r="B182" t="n">
+        <v>11.8</v>
+      </c>
+      <c r="C182" t="n">
+        <v>11.8</v>
+      </c>
+      <c r="D182" t="n">
+        <v>11.8</v>
+      </c>
+      <c r="E182" t="n">
+        <v>11.8</v>
+      </c>
+      <c r="F182" t="n">
+        <v>5000</v>
+      </c>
+      <c r="G182" t="n">
+        <v>5177739.077702276</v>
+      </c>
+      <c r="H182" t="n">
+        <v>0</v>
+      </c>
+      <c r="I182" t="n">
+        <v>0</v>
+      </c>
+      <c r="J182" t="inlineStr"/>
+      <c r="K182" t="inlineStr"/>
+      <c r="L182" t="inlineStr"/>
+      <c r="M182" t="n">
+        <v>1</v>
+      </c>
+      <c r="N182" t="inlineStr"/>
+    </row>
+    <row r="183">
+      <c r="A183" s="1" t="n">
+        <v>181</v>
+      </c>
+      <c r="B183" t="n">
+        <v>11.8</v>
+      </c>
+      <c r="C183" t="n">
+        <v>11.8</v>
+      </c>
+      <c r="D183" t="n">
+        <v>11.8</v>
+      </c>
+      <c r="E183" t="n">
+        <v>11.8</v>
+      </c>
+      <c r="F183" t="n">
+        <v>13163.9409</v>
+      </c>
+      <c r="G183" t="n">
+        <v>5177739.077702276</v>
+      </c>
+      <c r="H183" t="n">
+        <v>0</v>
+      </c>
+      <c r="I183" t="n">
+        <v>0</v>
+      </c>
+      <c r="J183" t="inlineStr"/>
+      <c r="K183" t="inlineStr"/>
+      <c r="L183" t="inlineStr"/>
+      <c r="M183" t="n">
+        <v>1</v>
+      </c>
+      <c r="N183" t="inlineStr"/>
+    </row>
+    <row r="184">
+      <c r="A184" s="1" t="n">
+        <v>182</v>
+      </c>
+      <c r="B184" t="n">
+        <v>11.8</v>
+      </c>
+      <c r="C184" t="n">
+        <v>11.8</v>
+      </c>
+      <c r="D184" t="n">
+        <v>11.8</v>
+      </c>
+      <c r="E184" t="n">
+        <v>11.8</v>
+      </c>
+      <c r="F184" t="n">
+        <v>33000</v>
+      </c>
+      <c r="G184" t="n">
+        <v>5177739.077702276</v>
+      </c>
+      <c r="H184" t="n">
+        <v>0</v>
+      </c>
+      <c r="I184" t="n">
+        <v>0</v>
+      </c>
+      <c r="J184" t="inlineStr"/>
+      <c r="K184" t="inlineStr"/>
+      <c r="L184" t="inlineStr"/>
+      <c r="M184" t="n">
+        <v>1</v>
+      </c>
+      <c r="N184" t="inlineStr"/>
+    </row>
+    <row r="185">
+      <c r="A185" s="1" t="n">
+        <v>183</v>
+      </c>
+      <c r="B185" t="n">
+        <v>11.8</v>
+      </c>
+      <c r="C185" t="n">
+        <v>11.8</v>
+      </c>
+      <c r="D185" t="n">
+        <v>11.8</v>
+      </c>
+      <c r="E185" t="n">
+        <v>11.8</v>
+      </c>
+      <c r="F185" t="n">
+        <v>10950.3295</v>
+      </c>
+      <c r="G185" t="n">
+        <v>5177739.077702276</v>
+      </c>
+      <c r="H185" t="n">
+        <v>0</v>
+      </c>
+      <c r="I185" t="n">
+        <v>0</v>
+      </c>
+      <c r="J185" t="inlineStr"/>
+      <c r="K185" t="inlineStr"/>
+      <c r="L185" t="inlineStr"/>
+      <c r="M185" t="n">
+        <v>1</v>
+      </c>
+      <c r="N185" t="inlineStr"/>
+    </row>
+    <row r="186">
+      <c r="A186" s="1" t="n">
+        <v>184</v>
+      </c>
+      <c r="B186" t="n">
+        <v>11.7</v>
+      </c>
+      <c r="C186" t="n">
+        <v>11.6</v>
+      </c>
+      <c r="D186" t="n">
+        <v>11.7</v>
+      </c>
+      <c r="E186" t="n">
+        <v>11.6</v>
+      </c>
+      <c r="F186" t="n">
+        <v>177882.793</v>
+      </c>
+      <c r="G186" t="n">
+        <v>4999856.284702277</v>
+      </c>
+      <c r="H186" t="n">
+        <v>0</v>
+      </c>
+      <c r="I186" t="n">
+        <v>0</v>
+      </c>
+      <c r="J186" t="inlineStr"/>
+      <c r="K186" t="inlineStr"/>
+      <c r="L186" t="inlineStr"/>
+      <c r="M186" t="n">
+        <v>1</v>
+      </c>
+      <c r="N186" t="inlineStr"/>
+    </row>
+    <row r="187">
+      <c r="A187" s="1" t="n">
+        <v>185</v>
+      </c>
+      <c r="B187" t="n">
+        <v>11.6</v>
+      </c>
+      <c r="C187" t="n">
+        <v>11.6</v>
+      </c>
+      <c r="D187" t="n">
+        <v>11.6</v>
+      </c>
+      <c r="E187" t="n">
+        <v>11.6</v>
+      </c>
+      <c r="F187" t="n">
+        <v>4300</v>
+      </c>
+      <c r="G187" t="n">
+        <v>4999856.284702277</v>
+      </c>
+      <c r="H187" t="n">
+        <v>0</v>
+      </c>
+      <c r="I187" t="n">
+        <v>0</v>
+      </c>
+      <c r="J187" t="inlineStr"/>
+      <c r="K187" t="inlineStr"/>
+      <c r="L187" t="inlineStr"/>
+      <c r="M187" t="n">
+        <v>1</v>
+      </c>
+      <c r="N187" t="inlineStr"/>
+    </row>
+    <row r="188">
+      <c r="A188" s="1" t="n">
+        <v>186</v>
+      </c>
+      <c r="B188" t="n">
+        <v>11.7</v>
+      </c>
+      <c r="C188" t="n">
+        <v>11.7</v>
+      </c>
+      <c r="D188" t="n">
+        <v>11.7</v>
+      </c>
+      <c r="E188" t="n">
+        <v>11.7</v>
+      </c>
+      <c r="F188" t="n">
+        <v>1100</v>
+      </c>
+      <c r="G188" t="n">
+        <v>5000956.284702277</v>
+      </c>
+      <c r="H188" t="n">
+        <v>0</v>
+      </c>
+      <c r="I188" t="n">
+        <v>0</v>
+      </c>
+      <c r="J188" t="inlineStr"/>
+      <c r="K188" t="inlineStr"/>
+      <c r="L188" t="inlineStr"/>
+      <c r="M188" t="n">
+        <v>1</v>
+      </c>
+      <c r="N188" t="inlineStr"/>
+    </row>
+    <row r="189">
+      <c r="A189" s="1" t="n">
+        <v>187</v>
+      </c>
+      <c r="B189" t="n">
+        <v>11.7</v>
+      </c>
+      <c r="C189" t="n">
+        <v>11.7</v>
+      </c>
+      <c r="D189" t="n">
+        <v>11.7</v>
+      </c>
+      <c r="E189" t="n">
+        <v>11.7</v>
+      </c>
+      <c r="F189" t="n">
+        <v>97127.8533</v>
+      </c>
+      <c r="G189" t="n">
+        <v>5000956.284702277</v>
+      </c>
+      <c r="H189" t="n">
+        <v>0</v>
+      </c>
+      <c r="I189" t="n">
+        <v>0</v>
+      </c>
+      <c r="J189" t="inlineStr"/>
+      <c r="K189" t="inlineStr"/>
+      <c r="L189" t="inlineStr"/>
+      <c r="M189" t="n">
+        <v>1</v>
+      </c>
+      <c r="N189" t="inlineStr"/>
+    </row>
+    <row r="190">
+      <c r="A190" s="1" t="n">
+        <v>188</v>
+      </c>
+      <c r="B190" t="n">
+        <v>11.8</v>
+      </c>
+      <c r="C190" t="n">
+        <v>11.8</v>
+      </c>
+      <c r="D190" t="n">
+        <v>11.8</v>
+      </c>
+      <c r="E190" t="n">
+        <v>11.8</v>
+      </c>
+      <c r="F190" t="n">
+        <v>11170</v>
+      </c>
+      <c r="G190" t="n">
+        <v>5012126.284702277</v>
+      </c>
+      <c r="H190" t="n">
+        <v>0</v>
+      </c>
+      <c r="I190" t="n">
+        <v>0</v>
+      </c>
+      <c r="J190" t="inlineStr"/>
+      <c r="K190" t="inlineStr"/>
+      <c r="L190" t="inlineStr"/>
+      <c r="M190" t="n">
+        <v>1</v>
+      </c>
+      <c r="N190" t="inlineStr"/>
+    </row>
+    <row r="191">
+      <c r="A191" s="1" t="n">
+        <v>189</v>
+      </c>
+      <c r="B191" t="n">
+        <v>11.9</v>
+      </c>
+      <c r="C191" t="n">
+        <v>11.9</v>
+      </c>
+      <c r="D191" t="n">
+        <v>11.9</v>
+      </c>
+      <c r="E191" t="n">
+        <v>11.9</v>
+      </c>
+      <c r="F191" t="n">
+        <v>80906.7314</v>
+      </c>
+      <c r="G191" t="n">
+        <v>5093033.016102277</v>
+      </c>
+      <c r="H191" t="n">
+        <v>0</v>
+      </c>
+      <c r="I191" t="n">
+        <v>0</v>
+      </c>
+      <c r="J191" t="inlineStr"/>
+      <c r="K191" t="inlineStr"/>
+      <c r="L191" t="inlineStr"/>
+      <c r="M191" t="n">
+        <v>1</v>
+      </c>
+      <c r="N191" t="inlineStr"/>
+    </row>
+    <row r="192">
+      <c r="A192" s="1" t="n">
+        <v>190</v>
+      </c>
+      <c r="B192" t="n">
+        <v>11.7</v>
+      </c>
+      <c r="C192" t="n">
+        <v>11.7</v>
+      </c>
+      <c r="D192" t="n">
+        <v>11.7</v>
+      </c>
+      <c r="E192" t="n">
+        <v>11.7</v>
+      </c>
+      <c r="F192" t="n">
+        <v>100</v>
+      </c>
+      <c r="G192" t="n">
+        <v>5092933.016102277</v>
+      </c>
+      <c r="H192" t="n">
+        <v>0</v>
+      </c>
+      <c r="I192" t="n">
+        <v>0</v>
+      </c>
+      <c r="J192" t="inlineStr"/>
+      <c r="K192" t="inlineStr"/>
+      <c r="L192" t="inlineStr"/>
+      <c r="M192" t="n">
+        <v>1</v>
+      </c>
+      <c r="N192" t="inlineStr"/>
+    </row>
+    <row r="193">
+      <c r="A193" s="1" t="n">
+        <v>191</v>
+      </c>
+      <c r="B193" t="n">
+        <v>11.7</v>
+      </c>
+      <c r="C193" t="n">
+        <v>11.7</v>
+      </c>
+      <c r="D193" t="n">
+        <v>11.7</v>
+      </c>
+      <c r="E193" t="n">
+        <v>11.7</v>
+      </c>
+      <c r="F193" t="n">
+        <v>1000</v>
+      </c>
+      <c r="G193" t="n">
+        <v>5092933.016102277</v>
+      </c>
+      <c r="H193" t="n">
+        <v>0</v>
+      </c>
+      <c r="I193" t="n">
+        <v>0</v>
+      </c>
+      <c r="J193" t="inlineStr"/>
+      <c r="K193" t="inlineStr"/>
+      <c r="L193" t="inlineStr"/>
+      <c r="M193" t="n">
+        <v>1</v>
+      </c>
+      <c r="N193" t="inlineStr"/>
+    </row>
+    <row r="194">
+      <c r="A194" s="1" t="n">
+        <v>192</v>
+      </c>
+      <c r="B194" t="n">
+        <v>11.7</v>
+      </c>
+      <c r="C194" t="n">
+        <v>11.7</v>
+      </c>
+      <c r="D194" t="n">
+        <v>11.7</v>
+      </c>
+      <c r="E194" t="n">
+        <v>11.7</v>
+      </c>
+      <c r="F194" t="n">
+        <v>18228.795</v>
+      </c>
+      <c r="G194" t="n">
+        <v>5092933.016102277</v>
+      </c>
+      <c r="H194" t="n">
+        <v>0</v>
+      </c>
+      <c r="I194" t="n">
+        <v>0</v>
+      </c>
+      <c r="J194" t="inlineStr"/>
+      <c r="K194" t="inlineStr"/>
+      <c r="L194" t="inlineStr"/>
+      <c r="M194" t="n">
+        <v>1</v>
+      </c>
+      <c r="N194" t="inlineStr"/>
+    </row>
+    <row r="195">
+      <c r="A195" s="1" t="n">
+        <v>193</v>
+      </c>
+      <c r="B195" t="n">
+        <v>11.7</v>
+      </c>
+      <c r="C195" t="n">
+        <v>11.7</v>
+      </c>
+      <c r="D195" t="n">
+        <v>11.7</v>
+      </c>
+      <c r="E195" t="n">
+        <v>11.7</v>
+      </c>
+      <c r="F195" t="n">
+        <v>21771.205</v>
+      </c>
+      <c r="G195" t="n">
+        <v>5092933.016102277</v>
+      </c>
+      <c r="H195" t="n">
+        <v>0</v>
+      </c>
+      <c r="I195" t="n">
+        <v>0</v>
+      </c>
+      <c r="J195" t="inlineStr"/>
+      <c r="K195" t="inlineStr"/>
+      <c r="L195" t="inlineStr"/>
+      <c r="M195" t="n">
+        <v>1</v>
+      </c>
+      <c r="N195" t="inlineStr"/>
+    </row>
+    <row r="196">
+      <c r="A196" s="1" t="n">
+        <v>194</v>
+      </c>
+      <c r="B196" t="n">
+        <v>11.8</v>
+      </c>
+      <c r="C196" t="n">
+        <v>11.8</v>
+      </c>
+      <c r="D196" t="n">
+        <v>11.8</v>
+      </c>
+      <c r="E196" t="n">
+        <v>11.8</v>
+      </c>
+      <c r="F196" t="n">
+        <v>2200</v>
+      </c>
+      <c r="G196" t="n">
+        <v>5095133.016102277</v>
+      </c>
+      <c r="H196" t="n">
+        <v>0</v>
+      </c>
+      <c r="I196" t="n">
+        <v>0</v>
+      </c>
+      <c r="J196" t="inlineStr"/>
+      <c r="K196" t="inlineStr"/>
+      <c r="L196" t="inlineStr"/>
+      <c r="M196" t="n">
+        <v>1</v>
+      </c>
+      <c r="N196" t="inlineStr"/>
+    </row>
+    <row r="197">
+      <c r="A197" s="1" t="n">
+        <v>195</v>
+      </c>
+      <c r="B197" t="n">
+        <v>11.8</v>
+      </c>
+      <c r="C197" t="n">
+        <v>11.8</v>
+      </c>
+      <c r="D197" t="n">
+        <v>11.8</v>
+      </c>
+      <c r="E197" t="n">
+        <v>11.8</v>
+      </c>
+      <c r="F197" t="n">
+        <v>908.5016000000001</v>
+      </c>
+      <c r="G197" t="n">
+        <v>5095133.016102277</v>
+      </c>
+      <c r="H197" t="n">
+        <v>0</v>
+      </c>
+      <c r="I197" t="n">
+        <v>0</v>
+      </c>
+      <c r="J197" t="inlineStr"/>
+      <c r="K197" t="inlineStr"/>
+      <c r="L197" t="inlineStr"/>
+      <c r="M197" t="n">
+        <v>1</v>
+      </c>
+      <c r="N197" t="inlineStr"/>
+    </row>
+    <row r="198">
+      <c r="A198" s="1" t="n">
+        <v>196</v>
+      </c>
+      <c r="B198" t="n">
+        <v>11.9</v>
+      </c>
+      <c r="C198" t="n">
+        <v>11.9</v>
+      </c>
+      <c r="D198" t="n">
+        <v>11.9</v>
+      </c>
+      <c r="E198" t="n">
+        <v>11.9</v>
+      </c>
+      <c r="F198" t="n">
+        <v>346.3635</v>
+      </c>
+      <c r="G198" t="n">
+        <v>5095479.379602277</v>
+      </c>
+      <c r="H198" t="n">
+        <v>0</v>
+      </c>
+      <c r="I198" t="n">
+        <v>0</v>
+      </c>
+      <c r="J198" t="inlineStr"/>
+      <c r="K198" t="inlineStr"/>
+      <c r="L198" t="inlineStr"/>
+      <c r="M198" t="n">
+        <v>1</v>
+      </c>
+      <c r="N198" t="inlineStr"/>
+    </row>
+    <row r="199">
+      <c r="A199" s="1" t="n">
+        <v>197</v>
+      </c>
+      <c r="B199" t="n">
+        <v>11.9</v>
+      </c>
+      <c r="C199" t="n">
+        <v>11.9</v>
+      </c>
+      <c r="D199" t="n">
+        <v>11.9</v>
+      </c>
+      <c r="E199" t="n">
+        <v>11.9</v>
+      </c>
+      <c r="F199" t="n">
+        <v>215067.6921</v>
+      </c>
+      <c r="G199" t="n">
+        <v>5095479.379602277</v>
+      </c>
+      <c r="H199" t="n">
+        <v>0</v>
+      </c>
+      <c r="I199" t="n">
+        <v>0</v>
+      </c>
+      <c r="J199" t="inlineStr"/>
+      <c r="K199" t="inlineStr"/>
+      <c r="L199" t="inlineStr"/>
+      <c r="M199" t="n">
+        <v>1</v>
+      </c>
+      <c r="N199" t="inlineStr"/>
+    </row>
+    <row r="200">
+      <c r="A200" s="1" t="n">
+        <v>198</v>
+      </c>
+      <c r="B200" t="n">
+        <v>11.8</v>
+      </c>
+      <c r="C200" t="n">
+        <v>11.8</v>
+      </c>
+      <c r="D200" t="n">
+        <v>11.8</v>
+      </c>
+      <c r="E200" t="n">
+        <v>11.8</v>
+      </c>
+      <c r="F200" t="n">
+        <v>234400.0556</v>
+      </c>
+      <c r="G200" t="n">
+        <v>4861079.324002277</v>
+      </c>
+      <c r="H200" t="n">
+        <v>0</v>
+      </c>
+      <c r="I200" t="n">
+        <v>0</v>
+      </c>
+      <c r="J200" t="inlineStr"/>
+      <c r="K200" t="inlineStr"/>
+      <c r="L200" t="inlineStr"/>
+      <c r="M200" t="n">
+        <v>1</v>
+      </c>
+      <c r="N200" t="inlineStr"/>
+    </row>
+    <row r="201">
+      <c r="A201" s="1" t="n">
+        <v>199</v>
+      </c>
+      <c r="B201" t="n">
+        <v>11.8</v>
+      </c>
+      <c r="C201" t="n">
+        <v>11.8</v>
+      </c>
+      <c r="D201" t="n">
+        <v>11.8</v>
+      </c>
+      <c r="E201" t="n">
+        <v>11.8</v>
+      </c>
+      <c r="F201" t="n">
+        <v>38611.1969</v>
+      </c>
+      <c r="G201" t="n">
+        <v>4861079.324002277</v>
+      </c>
+      <c r="H201" t="n">
+        <v>0</v>
+      </c>
+      <c r="I201" t="n">
+        <v>0</v>
+      </c>
+      <c r="J201" t="inlineStr"/>
+      <c r="K201" t="inlineStr"/>
+      <c r="L201" t="inlineStr"/>
+      <c r="M201" t="n">
+        <v>1</v>
+      </c>
+      <c r="N201" t="inlineStr"/>
+    </row>
+    <row r="202">
+      <c r="A202" s="1" t="n">
+        <v>200</v>
+      </c>
+      <c r="B202" t="n">
+        <v>11.9</v>
+      </c>
+      <c r="C202" t="n">
+        <v>11.9</v>
+      </c>
+      <c r="D202" t="n">
+        <v>11.9</v>
+      </c>
+      <c r="E202" t="n">
+        <v>11.9</v>
+      </c>
+      <c r="F202" t="n">
+        <v>97673.49099999999</v>
+      </c>
+      <c r="G202" t="n">
+        <v>4958752.815002277</v>
+      </c>
+      <c r="H202" t="n">
+        <v>0</v>
+      </c>
+      <c r="I202" t="n">
+        <v>0</v>
+      </c>
+      <c r="J202" t="inlineStr"/>
+      <c r="K202" t="inlineStr"/>
+      <c r="L202" t="inlineStr"/>
+      <c r="M202" t="n">
+        <v>1</v>
+      </c>
+      <c r="N202" t="inlineStr"/>
+    </row>
+    <row r="203">
+      <c r="A203" s="1" t="n">
+        <v>201</v>
+      </c>
+      <c r="B203" t="n">
+        <v>11.9</v>
+      </c>
+      <c r="C203" t="n">
+        <v>11.9</v>
+      </c>
+      <c r="D203" t="n">
+        <v>11.9</v>
+      </c>
+      <c r="E203" t="n">
+        <v>11.9</v>
+      </c>
+      <c r="F203" t="n">
+        <v>32236.2036</v>
+      </c>
+      <c r="G203" t="n">
+        <v>4958752.815002277</v>
+      </c>
+      <c r="H203" t="n">
+        <v>0</v>
+      </c>
+      <c r="I203" t="n">
+        <v>1</v>
+      </c>
+      <c r="J203" t="inlineStr"/>
+      <c r="K203" t="inlineStr"/>
+      <c r="L203" t="inlineStr"/>
+      <c r="M203" t="n">
+        <v>1</v>
+      </c>
+      <c r="N203" t="inlineStr"/>
+    </row>
+    <row r="204">
+      <c r="A204" s="1" t="n">
+        <v>202</v>
+      </c>
+      <c r="B204" t="n">
+        <v>11.9</v>
+      </c>
+      <c r="C204" t="n">
+        <v>11.9</v>
+      </c>
+      <c r="D204" t="n">
+        <v>11.9</v>
+      </c>
+      <c r="E204" t="n">
+        <v>11.9</v>
+      </c>
+      <c r="F204" t="n">
+        <v>4201.680672268908</v>
+      </c>
+      <c r="G204" t="n">
+        <v>4958752.815002277</v>
+      </c>
+      <c r="H204" t="n">
+        <v>0</v>
+      </c>
+      <c r="I204" t="n">
+        <v>0</v>
+      </c>
+      <c r="J204" t="inlineStr"/>
+      <c r="K204" t="inlineStr"/>
+      <c r="L204" t="inlineStr"/>
+      <c r="M204" t="n">
+        <v>1</v>
+      </c>
+      <c r="N204" t="inlineStr"/>
+    </row>
+    <row r="205">
+      <c r="A205" s="1" t="n">
+        <v>203</v>
+      </c>
+      <c r="B205" t="n">
+        <v>11.8</v>
+      </c>
+      <c r="C205" t="n">
+        <v>11.8</v>
+      </c>
+      <c r="D205" t="n">
+        <v>11.8</v>
+      </c>
+      <c r="E205" t="n">
+        <v>11.8</v>
+      </c>
+      <c r="F205" t="n">
+        <v>25000</v>
+      </c>
+      <c r="G205" t="n">
+        <v>4933752.815002277</v>
+      </c>
+      <c r="H205" t="n">
+        <v>0</v>
+      </c>
+      <c r="I205" t="n">
+        <v>1</v>
+      </c>
+      <c r="J205" t="inlineStr"/>
+      <c r="K205" t="inlineStr"/>
+      <c r="L205" t="inlineStr"/>
+      <c r="M205" t="n">
+        <v>1</v>
+      </c>
+      <c r="N205" t="inlineStr"/>
+    </row>
+    <row r="206">
+      <c r="A206" s="1" t="n">
+        <v>204</v>
+      </c>
+      <c r="B206" t="n">
+        <v>11.8</v>
+      </c>
+      <c r="C206" t="n">
+        <v>11.8</v>
+      </c>
+      <c r="D206" t="n">
+        <v>11.8</v>
+      </c>
+      <c r="E206" t="n">
+        <v>11.8</v>
+      </c>
+      <c r="F206" t="n">
+        <v>26673.5393</v>
+      </c>
+      <c r="G206" t="n">
+        <v>4933752.815002277</v>
+      </c>
+      <c r="H206" t="n">
+        <v>0</v>
+      </c>
+      <c r="I206" t="n">
+        <v>0</v>
+      </c>
+      <c r="J206" t="inlineStr"/>
+      <c r="K206" t="inlineStr"/>
+      <c r="L206" t="inlineStr"/>
+      <c r="M206" t="n">
+        <v>1</v>
+      </c>
+      <c r="N206" t="inlineStr"/>
+    </row>
+    <row r="207">
+      <c r="A207" s="1" t="n">
+        <v>205</v>
+      </c>
+      <c r="B207" t="n">
+        <v>11.7</v>
+      </c>
+      <c r="C207" t="n">
+        <v>11.7</v>
+      </c>
+      <c r="D207" t="n">
+        <v>11.7</v>
+      </c>
+      <c r="E207" t="n">
+        <v>11.7</v>
+      </c>
+      <c r="F207" t="n">
+        <v>100</v>
+      </c>
+      <c r="G207" t="n">
+        <v>4933652.815002277</v>
+      </c>
+      <c r="H207" t="n">
+        <v>0</v>
+      </c>
+      <c r="I207" t="n">
+        <v>0</v>
+      </c>
+      <c r="J207" t="inlineStr"/>
+      <c r="K207" t="inlineStr"/>
+      <c r="L207" t="inlineStr"/>
+      <c r="M207" t="n">
+        <v>1</v>
+      </c>
+      <c r="N207" t="inlineStr"/>
+    </row>
+    <row r="208">
+      <c r="A208" s="1" t="n">
+        <v>206</v>
+      </c>
+      <c r="B208" t="n">
+        <v>11.7</v>
+      </c>
+      <c r="C208" t="n">
+        <v>11.7</v>
+      </c>
+      <c r="D208" t="n">
+        <v>11.7</v>
+      </c>
+      <c r="E208" t="n">
+        <v>11.7</v>
+      </c>
+      <c r="F208" t="n">
+        <v>4201.6807</v>
+      </c>
+      <c r="G208" t="n">
+        <v>4933652.815002277</v>
+      </c>
+      <c r="H208" t="n">
+        <v>0</v>
+      </c>
+      <c r="I208" t="n">
+        <v>0</v>
+      </c>
+      <c r="J208" t="inlineStr"/>
+      <c r="K208" t="inlineStr"/>
+      <c r="L208" t="inlineStr"/>
+      <c r="M208" t="n">
+        <v>1</v>
+      </c>
+      <c r="N208" t="inlineStr"/>
+    </row>
+    <row r="209">
+      <c r="A209" s="1" t="n">
+        <v>207</v>
+      </c>
+      <c r="B209" t="n">
+        <v>11.8</v>
+      </c>
+      <c r="C209" t="n">
+        <v>11.8</v>
+      </c>
+      <c r="D209" t="n">
+        <v>11.8</v>
+      </c>
+      <c r="E209" t="n">
+        <v>11.8</v>
+      </c>
+      <c r="F209" t="n">
+        <v>18152.8312</v>
+      </c>
+      <c r="G209" t="n">
+        <v>4951805.646202277</v>
+      </c>
+      <c r="H209" t="n">
+        <v>0</v>
+      </c>
+      <c r="I209" t="n">
+        <v>0</v>
+      </c>
+      <c r="J209" t="inlineStr"/>
+      <c r="K209" t="inlineStr"/>
+      <c r="L209" t="inlineStr"/>
+      <c r="M209" t="n">
+        <v>1</v>
+      </c>
+      <c r="N209" t="inlineStr"/>
+    </row>
+    <row r="210">
+      <c r="A210" s="1" t="n">
+        <v>208</v>
+      </c>
+      <c r="B210" t="n">
+        <v>11.8</v>
+      </c>
+      <c r="C210" t="n">
+        <v>11.8</v>
+      </c>
+      <c r="D210" t="n">
+        <v>11.8</v>
+      </c>
+      <c r="E210" t="n">
+        <v>11.8</v>
+      </c>
+      <c r="F210" t="n">
+        <v>88371.85649999999</v>
+      </c>
+      <c r="G210" t="n">
+        <v>4951805.646202277</v>
+      </c>
+      <c r="H210" t="n">
+        <v>0</v>
+      </c>
+      <c r="I210" t="n">
+        <v>0</v>
+      </c>
+      <c r="J210" t="inlineStr"/>
+      <c r="K210" t="inlineStr"/>
+      <c r="L210" t="inlineStr"/>
+      <c r="M210" t="n">
+        <v>1</v>
+      </c>
+      <c r="N210" t="inlineStr"/>
+    </row>
+    <row r="211">
+      <c r="A211" s="1" t="n">
+        <v>209</v>
+      </c>
+      <c r="B211" t="n">
+        <v>11.8</v>
+      </c>
+      <c r="C211" t="n">
+        <v>11.8</v>
+      </c>
+      <c r="D211" t="n">
+        <v>11.8</v>
+      </c>
+      <c r="E211" t="n">
+        <v>11.8</v>
+      </c>
+      <c r="F211" t="n">
+        <v>45978.7097</v>
+      </c>
+      <c r="G211" t="n">
+        <v>4951805.646202277</v>
+      </c>
+      <c r="H211" t="n">
+        <v>0</v>
+      </c>
+      <c r="I211" t="n">
+        <v>0</v>
+      </c>
+      <c r="J211" t="inlineStr"/>
+      <c r="K211" t="inlineStr"/>
+      <c r="L211" t="inlineStr"/>
+      <c r="M211" t="n">
+        <v>1</v>
+      </c>
+      <c r="N211" t="inlineStr"/>
+    </row>
+    <row r="212">
+      <c r="A212" s="1" t="n">
+        <v>210</v>
+      </c>
+      <c r="B212" t="n">
+        <v>11.7</v>
+      </c>
+      <c r="C212" t="n">
+        <v>11.7</v>
+      </c>
+      <c r="D212" t="n">
+        <v>11.7</v>
+      </c>
+      <c r="E212" t="n">
+        <v>11.7</v>
+      </c>
+      <c r="F212" t="n">
+        <v>23959.5487</v>
+      </c>
+      <c r="G212" t="n">
+        <v>4927846.097502277</v>
+      </c>
+      <c r="H212" t="n">
+        <v>0</v>
+      </c>
+      <c r="I212" t="n">
+        <v>0</v>
+      </c>
+      <c r="J212" t="inlineStr"/>
+      <c r="K212" t="inlineStr"/>
+      <c r="L212" t="inlineStr"/>
+      <c r="M212" t="n">
+        <v>1</v>
+      </c>
+      <c r="N212" t="inlineStr"/>
+    </row>
+    <row r="213">
+      <c r="A213" s="1" t="n">
+        <v>211</v>
+      </c>
+      <c r="B213" t="n">
+        <v>11.7</v>
+      </c>
+      <c r="C213" t="n">
+        <v>11.7</v>
+      </c>
+      <c r="D213" t="n">
+        <v>11.7</v>
+      </c>
+      <c r="E213" t="n">
+        <v>11.7</v>
+      </c>
+      <c r="F213" t="n">
+        <v>24965.0007</v>
+      </c>
+      <c r="G213" t="n">
+        <v>4927846.097502277</v>
+      </c>
+      <c r="H213" t="n">
+        <v>0</v>
+      </c>
+      <c r="I213" t="n">
+        <v>0</v>
+      </c>
+      <c r="J213" t="inlineStr"/>
+      <c r="K213" t="inlineStr"/>
+      <c r="L213" t="inlineStr"/>
+      <c r="M213" t="n">
+        <v>1</v>
+      </c>
+      <c r="N213" t="inlineStr"/>
+    </row>
+    <row r="214">
+      <c r="A214" s="1" t="n">
+        <v>212</v>
+      </c>
+      <c r="B214" t="n">
+        <v>11.8</v>
+      </c>
+      <c r="C214" t="n">
+        <v>11.8</v>
+      </c>
+      <c r="D214" t="n">
+        <v>11.8</v>
+      </c>
+      <c r="E214" t="n">
+        <v>11.8</v>
+      </c>
+      <c r="F214" t="n">
+        <v>4226.6613</v>
+      </c>
+      <c r="G214" t="n">
+        <v>4932072.758802277</v>
+      </c>
+      <c r="H214" t="n">
+        <v>0</v>
+      </c>
+      <c r="I214" t="n">
+        <v>0</v>
+      </c>
+      <c r="J214" t="inlineStr"/>
+      <c r="K214" t="inlineStr"/>
+      <c r="L214" t="inlineStr"/>
+      <c r="M214" t="n">
+        <v>1</v>
+      </c>
+      <c r="N214" t="inlineStr"/>
+    </row>
+    <row r="215">
+      <c r="A215" s="1" t="n">
+        <v>213</v>
+      </c>
+      <c r="B215" t="n">
+        <v>11.8</v>
+      </c>
+      <c r="C215" t="n">
+        <v>11.8</v>
+      </c>
+      <c r="D215" t="n">
+        <v>11.8</v>
+      </c>
+      <c r="E215" t="n">
+        <v>11.8</v>
+      </c>
+      <c r="F215" t="n">
+        <v>6079.6567</v>
+      </c>
+      <c r="G215" t="n">
+        <v>4932072.758802277</v>
+      </c>
+      <c r="H215" t="n">
+        <v>0</v>
+      </c>
+      <c r="I215" t="n">
+        <v>0</v>
+      </c>
+      <c r="J215" t="inlineStr"/>
+      <c r="K215" t="inlineStr"/>
+      <c r="L215" t="inlineStr"/>
+      <c r="M215" t="n">
+        <v>1</v>
+      </c>
+      <c r="N215" t="inlineStr"/>
+    </row>
+    <row r="216">
+      <c r="A216" s="1" t="n">
+        <v>214</v>
+      </c>
+      <c r="B216" t="n">
+        <v>11.8</v>
+      </c>
+      <c r="C216" t="n">
+        <v>11.8</v>
+      </c>
+      <c r="D216" t="n">
+        <v>11.8</v>
+      </c>
+      <c r="E216" t="n">
+        <v>11.8</v>
+      </c>
+      <c r="F216" t="n">
+        <v>4360</v>
+      </c>
+      <c r="G216" t="n">
+        <v>4932072.758802277</v>
+      </c>
+      <c r="H216" t="n">
+        <v>0</v>
+      </c>
+      <c r="I216" t="n">
+        <v>0</v>
+      </c>
+      <c r="J216" t="inlineStr"/>
+      <c r="K216" t="inlineStr"/>
+      <c r="L216" t="inlineStr"/>
+      <c r="M216" t="n">
+        <v>1</v>
+      </c>
+      <c r="N216" t="inlineStr"/>
+    </row>
+    <row r="217">
+      <c r="A217" s="1" t="n">
+        <v>215</v>
+      </c>
+      <c r="B217" t="n">
+        <v>11.8</v>
+      </c>
+      <c r="C217" t="n">
+        <v>11.8</v>
+      </c>
+      <c r="D217" t="n">
+        <v>11.8</v>
+      </c>
+      <c r="E217" t="n">
+        <v>11.8</v>
+      </c>
+      <c r="F217" t="n">
+        <v>298792.3166</v>
+      </c>
+      <c r="G217" t="n">
+        <v>4932072.758802277</v>
+      </c>
+      <c r="H217" t="n">
+        <v>0</v>
+      </c>
+      <c r="I217" t="n">
+        <v>1</v>
+      </c>
+      <c r="J217" t="inlineStr"/>
+      <c r="K217" t="inlineStr"/>
+      <c r="L217" t="inlineStr"/>
+      <c r="M217" t="n">
+        <v>1</v>
+      </c>
+      <c r="N217" t="inlineStr"/>
+    </row>
+    <row r="218">
+      <c r="A218" s="1" t="n">
+        <v>216</v>
+      </c>
+      <c r="B218" t="n">
+        <v>11.8</v>
+      </c>
+      <c r="C218" t="n">
+        <v>11.8</v>
+      </c>
+      <c r="D218" t="n">
+        <v>11.8</v>
+      </c>
+      <c r="E218" t="n">
+        <v>11.8</v>
+      </c>
+      <c r="F218" t="n">
+        <v>63287.2407</v>
+      </c>
+      <c r="G218" t="n">
+        <v>4932072.758802277</v>
+      </c>
+      <c r="H218" t="n">
+        <v>0</v>
+      </c>
+      <c r="I218" t="n">
+        <v>0</v>
+      </c>
+      <c r="J218" t="inlineStr"/>
+      <c r="K218" t="inlineStr"/>
+      <c r="L218" t="inlineStr"/>
+      <c r="M218" t="n">
+        <v>1</v>
+      </c>
+      <c r="N218" t="inlineStr"/>
+    </row>
+    <row r="219">
+      <c r="A219" s="1" t="n">
+        <v>217</v>
+      </c>
+      <c r="B219" t="n">
+        <v>11.8</v>
+      </c>
+      <c r="C219" t="n">
+        <v>11.9</v>
+      </c>
+      <c r="D219" t="n">
+        <v>11.9</v>
+      </c>
+      <c r="E219" t="n">
+        <v>11.8</v>
+      </c>
+      <c r="F219" t="n">
+        <v>30773.29091512605</v>
+      </c>
+      <c r="G219" t="n">
+        <v>4962846.049717403</v>
+      </c>
+      <c r="H219" t="n">
+        <v>0</v>
+      </c>
+      <c r="I219" t="n">
+        <v>1</v>
+      </c>
+      <c r="J219" t="inlineStr"/>
+      <c r="K219" t="inlineStr"/>
+      <c r="L219" t="inlineStr"/>
+      <c r="M219" t="n">
+        <v>1</v>
+      </c>
+      <c r="N219" t="inlineStr"/>
+    </row>
+    <row r="220">
+      <c r="A220" s="1" t="n">
+        <v>218</v>
+      </c>
+      <c r="B220" t="n">
+        <v>11.9</v>
+      </c>
+      <c r="C220" t="n">
+        <v>11.8</v>
+      </c>
+      <c r="D220" t="n">
+        <v>11.9</v>
+      </c>
+      <c r="E220" t="n">
+        <v>11.8</v>
+      </c>
+      <c r="F220" t="n">
+        <v>123781.9023848739</v>
+      </c>
+      <c r="G220" t="n">
+        <v>4839064.14733253</v>
+      </c>
+      <c r="H220" t="n">
+        <v>0</v>
+      </c>
+      <c r="I220" t="n">
+        <v>0</v>
+      </c>
+      <c r="J220" t="inlineStr"/>
+      <c r="K220" t="inlineStr"/>
+      <c r="L220" t="inlineStr"/>
+      <c r="M220" t="n">
+        <v>1</v>
+      </c>
+      <c r="N220" t="inlineStr"/>
+    </row>
+    <row r="221">
+      <c r="A221" s="1" t="n">
+        <v>219</v>
+      </c>
+      <c r="B221" t="n">
+        <v>11.8</v>
+      </c>
+      <c r="C221" t="n">
+        <v>11.8</v>
+      </c>
+      <c r="D221" t="n">
+        <v>11.8</v>
+      </c>
+      <c r="E221" t="n">
+        <v>11.8</v>
+      </c>
+      <c r="F221" t="n">
+        <v>171836.0471</v>
+      </c>
+      <c r="G221" t="n">
+        <v>4839064.14733253</v>
+      </c>
+      <c r="H221" t="n">
+        <v>0</v>
+      </c>
+      <c r="I221" t="n">
+        <v>1</v>
+      </c>
+      <c r="J221" t="inlineStr"/>
+      <c r="K221" t="inlineStr"/>
+      <c r="L221" t="inlineStr"/>
+      <c r="M221" t="n">
+        <v>1</v>
+      </c>
+      <c r="N221" t="inlineStr"/>
+    </row>
+    <row r="222">
+      <c r="A222" s="1" t="n">
+        <v>220</v>
+      </c>
+      <c r="B222" t="n">
+        <v>11.8</v>
+      </c>
+      <c r="C222" t="n">
+        <v>11.8</v>
+      </c>
+      <c r="D222" t="n">
+        <v>11.8</v>
+      </c>
+      <c r="E222" t="n">
+        <v>11.8</v>
+      </c>
+      <c r="F222" t="n">
+        <v>1.5126050420168e-05</v>
+      </c>
+      <c r="G222" t="n">
+        <v>4839064.14733253</v>
+      </c>
+      <c r="H222" t="n">
+        <v>0</v>
+      </c>
+      <c r="I222" t="n">
+        <v>0</v>
+      </c>
+      <c r="J222" t="inlineStr"/>
+      <c r="K222" t="inlineStr"/>
+      <c r="L222" t="inlineStr"/>
+      <c r="M222" t="n">
+        <v>1</v>
+      </c>
+      <c r="N222" t="inlineStr"/>
+    </row>
+    <row r="223">
+      <c r="A223" s="1" t="n">
+        <v>221</v>
+      </c>
+      <c r="B223" t="n">
+        <v>11.8</v>
+      </c>
+      <c r="C223" t="n">
+        <v>11.8</v>
+      </c>
+      <c r="D223" t="n">
+        <v>11.8</v>
+      </c>
+      <c r="E223" t="n">
+        <v>11.8</v>
+      </c>
+      <c r="F223" t="n">
+        <v>19132.62628487395</v>
+      </c>
+      <c r="G223" t="n">
+        <v>4839064.14733253</v>
+      </c>
+      <c r="H223" t="n">
+        <v>0</v>
+      </c>
+      <c r="I223" t="n">
+        <v>1</v>
+      </c>
+      <c r="J223" t="inlineStr"/>
+      <c r="K223" t="inlineStr"/>
+      <c r="L223" t="inlineStr"/>
+      <c r="M223" t="n">
+        <v>1</v>
+      </c>
+      <c r="N223" t="inlineStr"/>
+    </row>
+    <row r="224">
+      <c r="A224" s="1" t="n">
+        <v>222</v>
+      </c>
+      <c r="B224" t="n">
+        <v>11.9</v>
+      </c>
+      <c r="C224" t="n">
+        <v>11.9</v>
+      </c>
+      <c r="D224" t="n">
+        <v>11.9</v>
+      </c>
+      <c r="E224" t="n">
+        <v>11.8</v>
+      </c>
+      <c r="F224" t="n">
+        <v>21072.6183</v>
+      </c>
+      <c r="G224" t="n">
+        <v>4860136.76563253</v>
+      </c>
+      <c r="H224" t="n">
+        <v>0</v>
+      </c>
+      <c r="I224" t="n">
+        <v>0</v>
+      </c>
+      <c r="J224" t="inlineStr"/>
+      <c r="K224" t="inlineStr"/>
+      <c r="L224" t="inlineStr"/>
+      <c r="M224" t="n">
+        <v>1</v>
+      </c>
+      <c r="N224" t="inlineStr"/>
+    </row>
+    <row r="225">
+      <c r="A225" s="1" t="n">
+        <v>223</v>
+      </c>
+      <c r="B225" t="n">
+        <v>11.9</v>
+      </c>
+      <c r="C225" t="n">
+        <v>11.9</v>
+      </c>
+      <c r="D225" t="n">
+        <v>11.9</v>
+      </c>
+      <c r="E225" t="n">
+        <v>11.9</v>
+      </c>
+      <c r="F225" t="n">
+        <v>6899.4078</v>
+      </c>
+      <c r="G225" t="n">
+        <v>4860136.76563253</v>
+      </c>
+      <c r="H225" t="n">
+        <v>0</v>
+      </c>
+      <c r="I225" t="n">
+        <v>1</v>
+      </c>
+      <c r="J225" t="inlineStr"/>
+      <c r="K225" t="inlineStr"/>
+      <c r="L225" t="inlineStr"/>
+      <c r="M225" t="n">
+        <v>1</v>
+      </c>
+      <c r="N225" t="inlineStr"/>
+    </row>
+    <row r="226">
+      <c r="A226" s="1" t="n">
+        <v>224</v>
+      </c>
+      <c r="B226" t="n">
+        <v>12</v>
+      </c>
+      <c r="C226" t="n">
+        <v>11.9</v>
+      </c>
+      <c r="D226" t="n">
+        <v>12</v>
+      </c>
+      <c r="E226" t="n">
+        <v>11.8</v>
+      </c>
+      <c r="F226" t="n">
+        <v>86491.4749</v>
+      </c>
+      <c r="G226" t="n">
+        <v>4860136.76563253</v>
+      </c>
+      <c r="H226" t="n">
+        <v>0</v>
+      </c>
+      <c r="I226" t="n">
+        <v>1</v>
+      </c>
+      <c r="J226" t="inlineStr"/>
+      <c r="K226" t="inlineStr"/>
+      <c r="L226" t="inlineStr"/>
+      <c r="M226" t="n">
+        <v>1</v>
+      </c>
+      <c r="N226" t="inlineStr"/>
+    </row>
+    <row r="227">
+      <c r="A227" s="1" t="n">
+        <v>225</v>
+      </c>
+      <c r="B227" t="n">
+        <v>11.9</v>
+      </c>
+      <c r="C227" t="n">
+        <v>11.8</v>
+      </c>
+      <c r="D227" t="n">
+        <v>11.9</v>
+      </c>
+      <c r="E227" t="n">
+        <v>11.8</v>
+      </c>
+      <c r="F227" t="n">
+        <v>176106.8292</v>
+      </c>
+      <c r="G227" t="n">
+        <v>4684029.93643253</v>
+      </c>
+      <c r="H227" t="n">
+        <v>0</v>
+      </c>
+      <c r="I227" t="n">
+        <v>1</v>
+      </c>
+      <c r="J227" t="inlineStr"/>
+      <c r="K227" t="inlineStr"/>
+      <c r="L227" t="inlineStr"/>
+      <c r="M227" t="n">
+        <v>1</v>
+      </c>
+      <c r="N227" t="inlineStr"/>
+    </row>
+    <row r="228">
+      <c r="A228" s="1" t="n">
+        <v>226</v>
+      </c>
+      <c r="B228" t="n">
+        <v>11.9</v>
+      </c>
+      <c r="C228" t="n">
+        <v>11.9</v>
+      </c>
+      <c r="D228" t="n">
+        <v>11.9</v>
+      </c>
+      <c r="E228" t="n">
+        <v>11.9</v>
+      </c>
+      <c r="F228" t="n">
+        <v>43635.9061</v>
+      </c>
+      <c r="G228" t="n">
+        <v>4727665.84253253</v>
+      </c>
+      <c r="H228" t="n">
+        <v>0</v>
+      </c>
+      <c r="I228" t="n">
+        <v>1</v>
+      </c>
+      <c r="J228" t="inlineStr"/>
+      <c r="K228" t="inlineStr"/>
+      <c r="L228" t="inlineStr"/>
+      <c r="M228" t="n">
+        <v>1</v>
+      </c>
+      <c r="N228" t="inlineStr"/>
+    </row>
+    <row r="229">
+      <c r="A229" s="1" t="n">
+        <v>227</v>
+      </c>
+      <c r="B229" t="n">
+        <v>12</v>
+      </c>
+      <c r="C229" t="n">
+        <v>12</v>
+      </c>
+      <c r="D229" t="n">
+        <v>12</v>
+      </c>
+      <c r="E229" t="n">
+        <v>12</v>
+      </c>
+      <c r="F229" t="n">
+        <v>80</v>
+      </c>
+      <c r="G229" t="n">
+        <v>4727745.84253253</v>
+      </c>
+      <c r="H229" t="n">
+        <v>0</v>
+      </c>
+      <c r="I229" t="n">
+        <v>1</v>
+      </c>
+      <c r="J229" t="inlineStr"/>
+      <c r="K229" t="inlineStr"/>
+      <c r="L229" t="inlineStr"/>
+      <c r="M229" t="n">
+        <v>1</v>
+      </c>
+      <c r="N229" t="inlineStr"/>
+    </row>
+    <row r="230">
+      <c r="A230" s="1" t="n">
+        <v>228</v>
+      </c>
+      <c r="B230" t="n">
+        <v>11.9</v>
+      </c>
+      <c r="C230" t="n">
+        <v>11.9</v>
+      </c>
+      <c r="D230" t="n">
+        <v>11.9</v>
+      </c>
+      <c r="E230" t="n">
+        <v>11.9</v>
+      </c>
+      <c r="F230" t="n">
+        <v>8831</v>
+      </c>
+      <c r="G230" t="n">
+        <v>4718914.84253253</v>
+      </c>
+      <c r="H230" t="n">
+        <v>0</v>
+      </c>
+      <c r="I230" t="n">
+        <v>1</v>
+      </c>
+      <c r="J230" t="inlineStr"/>
+      <c r="K230" t="inlineStr"/>
+      <c r="L230" t="inlineStr"/>
+      <c r="M230" t="n">
+        <v>1</v>
+      </c>
+      <c r="N230" t="inlineStr"/>
+    </row>
+    <row r="231">
+      <c r="A231" s="1" t="n">
+        <v>229</v>
+      </c>
+      <c r="B231" t="n">
+        <v>11.9</v>
+      </c>
+      <c r="C231" t="n">
+        <v>11.9</v>
+      </c>
+      <c r="D231" t="n">
+        <v>11.9</v>
+      </c>
+      <c r="E231" t="n">
+        <v>11.9</v>
+      </c>
+      <c r="F231" t="n">
+        <v>982.0187</v>
+      </c>
+      <c r="G231" t="n">
+        <v>4718914.84253253</v>
+      </c>
+      <c r="H231" t="n">
+        <v>0</v>
+      </c>
+      <c r="I231" t="n">
+        <v>1</v>
+      </c>
+      <c r="J231" t="inlineStr"/>
+      <c r="K231" t="inlineStr"/>
+      <c r="L231" t="inlineStr"/>
+      <c r="M231" t="n">
+        <v>1</v>
+      </c>
+      <c r="N231" t="inlineStr"/>
+    </row>
+    <row r="232">
+      <c r="A232" s="1" t="n">
+        <v>230</v>
+      </c>
+      <c r="B232" t="n">
+        <v>11.9</v>
+      </c>
+      <c r="C232" t="n">
+        <v>11.9</v>
+      </c>
+      <c r="D232" t="n">
+        <v>11.9</v>
+      </c>
+      <c r="E232" t="n">
+        <v>11.9</v>
+      </c>
+      <c r="F232" t="n">
+        <v>20000</v>
+      </c>
+      <c r="G232" t="n">
+        <v>4718914.84253253</v>
+      </c>
+      <c r="H232" t="n">
+        <v>0</v>
+      </c>
+      <c r="I232" t="n">
+        <v>1</v>
+      </c>
+      <c r="J232" t="inlineStr"/>
+      <c r="K232" t="inlineStr"/>
+      <c r="L232" t="inlineStr"/>
+      <c r="M232" t="n">
+        <v>1</v>
+      </c>
+      <c r="N232" t="inlineStr"/>
+    </row>
+    <row r="233">
+      <c r="A233" s="1" t="n">
+        <v>231</v>
+      </c>
+      <c r="B233" t="n">
+        <v>11.8</v>
+      </c>
+      <c r="C233" t="n">
+        <v>11.7</v>
+      </c>
+      <c r="D233" t="n">
+        <v>11.8</v>
+      </c>
+      <c r="E233" t="n">
+        <v>11.7</v>
+      </c>
+      <c r="F233" t="n">
+        <v>41075.5745</v>
+      </c>
+      <c r="G233" t="n">
+        <v>4677839.26803253</v>
+      </c>
+      <c r="H233" t="n">
+        <v>0</v>
+      </c>
+      <c r="I233" t="n">
+        <v>1</v>
+      </c>
+      <c r="J233" t="inlineStr"/>
+      <c r="K233" t="inlineStr"/>
+      <c r="L233" t="inlineStr"/>
+      <c r="M233" t="n">
+        <v>1</v>
+      </c>
+      <c r="N233" t="inlineStr"/>
+    </row>
+    <row r="234">
+      <c r="A234" s="1" t="n">
+        <v>232</v>
+      </c>
+      <c r="B234" t="n">
+        <v>11.7</v>
+      </c>
+      <c r="C234" t="n">
+        <v>11.7</v>
+      </c>
+      <c r="D234" t="n">
+        <v>11.7</v>
+      </c>
+      <c r="E234" t="n">
+        <v>11.7</v>
+      </c>
+      <c r="F234" t="n">
+        <v>106098.7638</v>
+      </c>
+      <c r="G234" t="n">
+        <v>4677839.26803253</v>
+      </c>
+      <c r="H234" t="n">
+        <v>0</v>
+      </c>
+      <c r="I234" t="n">
+        <v>1</v>
+      </c>
+      <c r="J234" t="inlineStr"/>
+      <c r="K234" t="inlineStr"/>
+      <c r="L234" t="inlineStr"/>
+      <c r="M234" t="n">
+        <v>1</v>
+      </c>
+      <c r="N234" t="inlineStr"/>
+    </row>
   </sheetData>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>

--- a/BackTest/2019-11-21 BackTest ORBS.xlsx
+++ b/BackTest/2019-11-21 BackTest ORBS.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -54,18 +54,18 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
 </styleSheet>
 </file>
 
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N234"/>
+  <dimension ref="A1:M234"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -399,35 +399,30 @@
       </c>
       <c r="H1" s="1" t="inlineStr">
         <is>
-          <t>low_check</t>
+          <t>trade_state</t>
         </is>
       </c>
       <c r="I1" s="1" t="inlineStr">
-        <is>
-          <t>high_check</t>
-        </is>
-      </c>
-      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>BuyPrice</t>
         </is>
       </c>
-      <c r="K1" s="1" t="inlineStr">
+      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>bprelay</t>
         </is>
       </c>
-      <c r="L1" s="1" t="inlineStr">
+      <c r="K1" s="1" t="inlineStr">
         <is>
           <t>Condition</t>
         </is>
       </c>
-      <c r="M1" s="1" t="inlineStr">
+      <c r="L1" s="1" t="inlineStr">
         <is>
           <t>Profits</t>
         </is>
       </c>
-      <c r="N1" s="1" t="inlineStr">
+      <c r="M1" s="1" t="inlineStr">
         <is>
           <t>Price_point</t>
         </is>
@@ -458,16 +453,13 @@
       <c r="H2" t="n">
         <v>0</v>
       </c>
-      <c r="I2" t="n">
-        <v>0</v>
-      </c>
+      <c r="I2" t="inlineStr"/>
       <c r="J2" t="inlineStr"/>
       <c r="K2" t="inlineStr"/>
-      <c r="L2" t="inlineStr"/>
-      <c r="M2" t="n">
-        <v>1</v>
-      </c>
-      <c r="N2" t="inlineStr"/>
+      <c r="L2" t="n">
+        <v>1</v>
+      </c>
+      <c r="M2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
@@ -494,16 +486,13 @@
       <c r="H3" t="n">
         <v>0</v>
       </c>
-      <c r="I3" t="n">
-        <v>0</v>
-      </c>
+      <c r="I3" t="inlineStr"/>
       <c r="J3" t="inlineStr"/>
       <c r="K3" t="inlineStr"/>
-      <c r="L3" t="inlineStr"/>
-      <c r="M3" t="n">
-        <v>1</v>
-      </c>
-      <c r="N3" t="inlineStr"/>
+      <c r="L3" t="n">
+        <v>1</v>
+      </c>
+      <c r="M3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
@@ -530,16 +519,13 @@
       <c r="H4" t="n">
         <v>0</v>
       </c>
-      <c r="I4" t="n">
-        <v>0</v>
-      </c>
+      <c r="I4" t="inlineStr"/>
       <c r="J4" t="inlineStr"/>
       <c r="K4" t="inlineStr"/>
-      <c r="L4" t="inlineStr"/>
-      <c r="M4" t="n">
-        <v>1</v>
-      </c>
-      <c r="N4" t="inlineStr"/>
+      <c r="L4" t="n">
+        <v>1</v>
+      </c>
+      <c r="M4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
@@ -566,16 +552,13 @@
       <c r="H5" t="n">
         <v>0</v>
       </c>
-      <c r="I5" t="n">
-        <v>0</v>
-      </c>
+      <c r="I5" t="inlineStr"/>
       <c r="J5" t="inlineStr"/>
       <c r="K5" t="inlineStr"/>
-      <c r="L5" t="inlineStr"/>
-      <c r="M5" t="n">
-        <v>1</v>
-      </c>
-      <c r="N5" t="inlineStr"/>
+      <c r="L5" t="n">
+        <v>1</v>
+      </c>
+      <c r="M5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
@@ -602,16 +585,13 @@
       <c r="H6" t="n">
         <v>0</v>
       </c>
-      <c r="I6" t="n">
-        <v>0</v>
-      </c>
+      <c r="I6" t="inlineStr"/>
       <c r="J6" t="inlineStr"/>
       <c r="K6" t="inlineStr"/>
-      <c r="L6" t="inlineStr"/>
-      <c r="M6" t="n">
-        <v>1</v>
-      </c>
-      <c r="N6" t="inlineStr"/>
+      <c r="L6" t="n">
+        <v>1</v>
+      </c>
+      <c r="M6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
@@ -638,16 +618,13 @@
       <c r="H7" t="n">
         <v>0</v>
       </c>
-      <c r="I7" t="n">
-        <v>0</v>
-      </c>
+      <c r="I7" t="inlineStr"/>
       <c r="J7" t="inlineStr"/>
       <c r="K7" t="inlineStr"/>
-      <c r="L7" t="inlineStr"/>
-      <c r="M7" t="n">
-        <v>1</v>
-      </c>
-      <c r="N7" t="inlineStr"/>
+      <c r="L7" t="n">
+        <v>1</v>
+      </c>
+      <c r="M7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
@@ -672,22 +649,15 @@
         <v>45829.56662886566</v>
       </c>
       <c r="H8" t="n">
-        <v>1</v>
-      </c>
-      <c r="I8" t="n">
-        <v>0</v>
-      </c>
-      <c r="J8" t="n">
-        <v>11.4</v>
-      </c>
-      <c r="K8" t="n">
-        <v>11.4</v>
-      </c>
-      <c r="L8" t="inlineStr"/>
-      <c r="M8" t="n">
-        <v>1</v>
-      </c>
-      <c r="N8" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I8" t="inlineStr"/>
+      <c r="J8" t="inlineStr"/>
+      <c r="K8" t="inlineStr"/>
+      <c r="L8" t="n">
+        <v>1</v>
+      </c>
+      <c r="M8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
@@ -714,2196 +684,1822 @@
       <c r="H9" t="n">
         <v>0</v>
       </c>
-      <c r="I9" t="n">
-        <v>0</v>
-      </c>
+      <c r="I9" t="inlineStr"/>
       <c r="J9" t="inlineStr"/>
-      <c r="K9" t="n">
-        <v>11.4</v>
-      </c>
-      <c r="L9" t="inlineStr">
+      <c r="K9" t="inlineStr"/>
+      <c r="L9" t="n">
+        <v>1</v>
+      </c>
+      <c r="M9" t="inlineStr"/>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="n">
+        <v>11.3</v>
+      </c>
+      <c r="C10" t="n">
+        <v>11.3</v>
+      </c>
+      <c r="D10" t="n">
+        <v>11.3</v>
+      </c>
+      <c r="E10" t="n">
+        <v>11.3</v>
+      </c>
+      <c r="F10" t="n">
+        <v>8073</v>
+      </c>
+      <c r="G10" t="n">
+        <v>13184.56662886566</v>
+      </c>
+      <c r="H10" t="n">
+        <v>0</v>
+      </c>
+      <c r="I10" t="inlineStr"/>
+      <c r="J10" t="inlineStr"/>
+      <c r="K10" t="inlineStr"/>
+      <c r="L10" t="n">
+        <v>1</v>
+      </c>
+      <c r="M10" t="inlineStr"/>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="n">
+        <v>11.3</v>
+      </c>
+      <c r="C11" t="n">
+        <v>11.3</v>
+      </c>
+      <c r="D11" t="n">
+        <v>11.3</v>
+      </c>
+      <c r="E11" t="n">
+        <v>11.3</v>
+      </c>
+      <c r="F11" t="n">
+        <v>24305.407</v>
+      </c>
+      <c r="G11" t="n">
+        <v>13184.56662886566</v>
+      </c>
+      <c r="H11" t="n">
+        <v>0</v>
+      </c>
+      <c r="I11" t="inlineStr"/>
+      <c r="J11" t="inlineStr"/>
+      <c r="K11" t="inlineStr"/>
+      <c r="L11" t="n">
+        <v>1</v>
+      </c>
+      <c r="M11" t="inlineStr"/>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="n">
+        <v>11.4</v>
+      </c>
+      <c r="C12" t="n">
+        <v>11.4</v>
+      </c>
+      <c r="D12" t="n">
+        <v>11.4</v>
+      </c>
+      <c r="E12" t="n">
+        <v>11.4</v>
+      </c>
+      <c r="F12" t="n">
+        <v>1375.5024</v>
+      </c>
+      <c r="G12" t="n">
+        <v>14560.06902886566</v>
+      </c>
+      <c r="H12" t="n">
+        <v>0</v>
+      </c>
+      <c r="I12" t="inlineStr"/>
+      <c r="J12" t="inlineStr"/>
+      <c r="K12" t="inlineStr"/>
+      <c r="L12" t="n">
+        <v>1</v>
+      </c>
+      <c r="M12" t="inlineStr"/>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="n">
+        <v>11.4</v>
+      </c>
+      <c r="C13" t="n">
+        <v>11.4</v>
+      </c>
+      <c r="D13" t="n">
+        <v>11.4</v>
+      </c>
+      <c r="E13" t="n">
+        <v>11.4</v>
+      </c>
+      <c r="F13" t="n">
+        <v>2679.1378</v>
+      </c>
+      <c r="G13" t="n">
+        <v>14560.06902886566</v>
+      </c>
+      <c r="H13" t="n">
+        <v>0</v>
+      </c>
+      <c r="I13" t="inlineStr"/>
+      <c r="J13" t="inlineStr"/>
+      <c r="K13" t="inlineStr"/>
+      <c r="L13" t="n">
+        <v>1</v>
+      </c>
+      <c r="M13" t="inlineStr"/>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="n">
+        <v>11.3</v>
+      </c>
+      <c r="C14" t="n">
+        <v>11.3</v>
+      </c>
+      <c r="D14" t="n">
+        <v>11.3</v>
+      </c>
+      <c r="E14" t="n">
+        <v>11.3</v>
+      </c>
+      <c r="F14" t="n">
+        <v>107298.5777</v>
+      </c>
+      <c r="G14" t="n">
+        <v>-92738.50867113433</v>
+      </c>
+      <c r="H14" t="n">
+        <v>2</v>
+      </c>
+      <c r="I14" t="n">
+        <v>11.4</v>
+      </c>
+      <c r="J14" t="n">
+        <v>11.4</v>
+      </c>
+      <c r="K14" t="inlineStr"/>
+      <c r="L14" t="n">
+        <v>1</v>
+      </c>
+      <c r="M14" t="inlineStr"/>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="n">
+        <v>11.3</v>
+      </c>
+      <c r="C15" t="n">
+        <v>11.3</v>
+      </c>
+      <c r="D15" t="n">
+        <v>11.3</v>
+      </c>
+      <c r="E15" t="n">
+        <v>11.3</v>
+      </c>
+      <c r="F15" t="n">
+        <v>48631.578</v>
+      </c>
+      <c r="G15" t="n">
+        <v>-92738.50867113433</v>
+      </c>
+      <c r="H15" t="n">
+        <v>0</v>
+      </c>
+      <c r="I15" t="inlineStr"/>
+      <c r="J15" t="n">
+        <v>11.4</v>
+      </c>
+      <c r="K15" t="inlineStr">
         <is>
           <t>매수 대기</t>
         </is>
       </c>
-      <c r="M9" t="n">
-        <v>1</v>
-      </c>
-      <c r="N9" t="inlineStr"/>
-    </row>
-    <row r="10">
-      <c r="A10" s="1" t="n">
-        <v>8</v>
-      </c>
-      <c r="B10" t="n">
-        <v>11.3</v>
-      </c>
-      <c r="C10" t="n">
-        <v>11.3</v>
-      </c>
-      <c r="D10" t="n">
-        <v>11.3</v>
-      </c>
-      <c r="E10" t="n">
-        <v>11.3</v>
-      </c>
-      <c r="F10" t="n">
-        <v>8073</v>
-      </c>
-      <c r="G10" t="n">
-        <v>13184.56662886566</v>
-      </c>
-      <c r="H10" t="n">
-        <v>0</v>
-      </c>
-      <c r="I10" t="n">
-        <v>0</v>
-      </c>
-      <c r="J10" t="inlineStr"/>
-      <c r="K10" t="n">
-        <v>11.4</v>
-      </c>
-      <c r="L10" t="inlineStr">
+      <c r="L15" t="n">
+        <v>1</v>
+      </c>
+      <c r="M15" t="inlineStr"/>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="n">
+        <v>11.4</v>
+      </c>
+      <c r="C16" t="n">
+        <v>11.4</v>
+      </c>
+      <c r="D16" t="n">
+        <v>11.4</v>
+      </c>
+      <c r="E16" t="n">
+        <v>11.4</v>
+      </c>
+      <c r="F16" t="n">
+        <v>2500</v>
+      </c>
+      <c r="G16" t="n">
+        <v>-90238.50867113433</v>
+      </c>
+      <c r="H16" t="n">
+        <v>0</v>
+      </c>
+      <c r="I16" t="inlineStr"/>
+      <c r="J16" t="n">
+        <v>11.4</v>
+      </c>
+      <c r="K16" t="inlineStr">
         <is>
           <t>매수 대기</t>
         </is>
       </c>
-      <c r="M10" t="n">
-        <v>1</v>
-      </c>
-      <c r="N10" t="inlineStr"/>
-    </row>
-    <row r="11">
-      <c r="A11" s="1" t="n">
-        <v>9</v>
-      </c>
-      <c r="B11" t="n">
-        <v>11.3</v>
-      </c>
-      <c r="C11" t="n">
-        <v>11.3</v>
-      </c>
-      <c r="D11" t="n">
-        <v>11.3</v>
-      </c>
-      <c r="E11" t="n">
-        <v>11.3</v>
-      </c>
-      <c r="F11" t="n">
-        <v>24305.407</v>
-      </c>
-      <c r="G11" t="n">
-        <v>13184.56662886566</v>
-      </c>
-      <c r="H11" t="n">
-        <v>0</v>
-      </c>
-      <c r="I11" t="n">
-        <v>0</v>
-      </c>
-      <c r="J11" t="inlineStr"/>
-      <c r="K11" t="inlineStr"/>
-      <c r="L11" t="inlineStr"/>
-      <c r="M11" t="n">
-        <v>1</v>
-      </c>
-      <c r="N11" t="inlineStr"/>
-    </row>
-    <row r="12">
-      <c r="A12" s="1" t="n">
-        <v>10</v>
-      </c>
-      <c r="B12" t="n">
-        <v>11.4</v>
-      </c>
-      <c r="C12" t="n">
-        <v>11.4</v>
-      </c>
-      <c r="D12" t="n">
-        <v>11.4</v>
-      </c>
-      <c r="E12" t="n">
-        <v>11.4</v>
-      </c>
-      <c r="F12" t="n">
-        <v>1375.5024</v>
-      </c>
-      <c r="G12" t="n">
-        <v>14560.06902886566</v>
-      </c>
-      <c r="H12" t="n">
-        <v>1</v>
-      </c>
-      <c r="I12" t="n">
-        <v>0</v>
-      </c>
-      <c r="J12" t="n">
-        <v>11.3</v>
-      </c>
-      <c r="K12" t="n">
-        <v>11.3</v>
-      </c>
-      <c r="L12" t="inlineStr"/>
-      <c r="M12" t="n">
-        <v>1</v>
-      </c>
-      <c r="N12" t="inlineStr"/>
-    </row>
-    <row r="13">
-      <c r="A13" s="1" t="n">
-        <v>11</v>
-      </c>
-      <c r="B13" t="n">
-        <v>11.4</v>
-      </c>
-      <c r="C13" t="n">
-        <v>11.4</v>
-      </c>
-      <c r="D13" t="n">
-        <v>11.4</v>
-      </c>
-      <c r="E13" t="n">
-        <v>11.4</v>
-      </c>
-      <c r="F13" t="n">
-        <v>2679.1378</v>
-      </c>
-      <c r="G13" t="n">
-        <v>14560.06902886566</v>
-      </c>
-      <c r="H13" t="n">
-        <v>1</v>
-      </c>
-      <c r="I13" t="n">
-        <v>0</v>
-      </c>
-      <c r="J13" t="n">
-        <v>11.4</v>
-      </c>
-      <c r="K13" t="n">
-        <v>11.3</v>
-      </c>
-      <c r="L13" t="inlineStr">
+      <c r="L16" t="n">
+        <v>1</v>
+      </c>
+      <c r="M16" t="inlineStr"/>
+    </row>
+    <row r="17">
+      <c r="A17" s="1" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="n">
+        <v>11.4</v>
+      </c>
+      <c r="C17" t="n">
+        <v>11.4</v>
+      </c>
+      <c r="D17" t="n">
+        <v>11.4</v>
+      </c>
+      <c r="E17" t="n">
+        <v>11.4</v>
+      </c>
+      <c r="F17" t="n">
+        <v>17299.9168</v>
+      </c>
+      <c r="G17" t="n">
+        <v>-90238.50867113433</v>
+      </c>
+      <c r="H17" t="n">
+        <v>2</v>
+      </c>
+      <c r="I17" t="n">
+        <v>11.4</v>
+      </c>
+      <c r="J17" t="n">
+        <v>11.4</v>
+      </c>
+      <c r="K17" t="inlineStr"/>
+      <c r="L17" t="n">
+        <v>1</v>
+      </c>
+      <c r="M17" t="inlineStr"/>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="n">
+        <v>11.3</v>
+      </c>
+      <c r="C18" t="n">
+        <v>11.3</v>
+      </c>
+      <c r="D18" t="n">
+        <v>11.3</v>
+      </c>
+      <c r="E18" t="n">
+        <v>11.3</v>
+      </c>
+      <c r="F18" t="n">
+        <v>27039</v>
+      </c>
+      <c r="G18" t="n">
+        <v>-117277.5086711343</v>
+      </c>
+      <c r="H18" t="n">
+        <v>0</v>
+      </c>
+      <c r="I18" t="inlineStr"/>
+      <c r="J18" t="n">
+        <v>11.4</v>
+      </c>
+      <c r="K18" t="inlineStr">
         <is>
           <t>매수 대기</t>
         </is>
       </c>
-      <c r="M13" t="n">
-        <v>1</v>
-      </c>
-      <c r="N13" t="inlineStr"/>
-    </row>
-    <row r="14">
-      <c r="A14" s="1" t="n">
-        <v>12</v>
-      </c>
-      <c r="B14" t="n">
-        <v>11.3</v>
-      </c>
-      <c r="C14" t="n">
-        <v>11.3</v>
-      </c>
-      <c r="D14" t="n">
-        <v>11.3</v>
-      </c>
-      <c r="E14" t="n">
-        <v>11.3</v>
-      </c>
-      <c r="F14" t="n">
-        <v>107298.5777</v>
-      </c>
-      <c r="G14" t="n">
-        <v>-92738.50867113433</v>
-      </c>
-      <c r="H14" t="n">
-        <v>1</v>
-      </c>
-      <c r="I14" t="n">
-        <v>0</v>
-      </c>
-      <c r="J14" t="n">
-        <v>11.4</v>
-      </c>
-      <c r="K14" t="n">
-        <v>11.3</v>
-      </c>
-      <c r="L14" t="inlineStr">
+      <c r="L18" t="n">
+        <v>1</v>
+      </c>
+      <c r="M18" t="inlineStr"/>
+    </row>
+    <row r="19">
+      <c r="A19" s="1" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="n">
+        <v>11.3</v>
+      </c>
+      <c r="C19" t="n">
+        <v>11.3</v>
+      </c>
+      <c r="D19" t="n">
+        <v>11.3</v>
+      </c>
+      <c r="E19" t="n">
+        <v>11.3</v>
+      </c>
+      <c r="F19" t="n">
+        <v>15228.602</v>
+      </c>
+      <c r="G19" t="n">
+        <v>-117277.5086711343</v>
+      </c>
+      <c r="H19" t="n">
+        <v>0</v>
+      </c>
+      <c r="I19" t="inlineStr"/>
+      <c r="J19" t="n">
+        <v>11.4</v>
+      </c>
+      <c r="K19" t="inlineStr">
         <is>
           <t>매수 대기</t>
         </is>
       </c>
-      <c r="M14" t="n">
-        <v>1</v>
-      </c>
-      <c r="N14" t="inlineStr"/>
-    </row>
-    <row r="15">
-      <c r="A15" s="1" t="n">
-        <v>13</v>
-      </c>
-      <c r="B15" t="n">
-        <v>11.3</v>
-      </c>
-      <c r="C15" t="n">
-        <v>11.3</v>
-      </c>
-      <c r="D15" t="n">
-        <v>11.3</v>
-      </c>
-      <c r="E15" t="n">
-        <v>11.3</v>
-      </c>
-      <c r="F15" t="n">
-        <v>48631.578</v>
-      </c>
-      <c r="G15" t="n">
-        <v>-92738.50867113433</v>
-      </c>
-      <c r="H15" t="n">
-        <v>1</v>
-      </c>
-      <c r="I15" t="n">
-        <v>0</v>
-      </c>
-      <c r="J15" t="n">
-        <v>11.3</v>
-      </c>
-      <c r="K15" t="n">
-        <v>11.3</v>
-      </c>
-      <c r="L15" t="inlineStr"/>
-      <c r="M15" t="n">
-        <v>1</v>
-      </c>
-      <c r="N15" t="inlineStr"/>
-    </row>
-    <row r="16">
-      <c r="A16" s="1" t="n">
-        <v>14</v>
-      </c>
-      <c r="B16" t="n">
-        <v>11.4</v>
-      </c>
-      <c r="C16" t="n">
-        <v>11.4</v>
-      </c>
-      <c r="D16" t="n">
-        <v>11.4</v>
-      </c>
-      <c r="E16" t="n">
-        <v>11.4</v>
-      </c>
-      <c r="F16" t="n">
-        <v>2500</v>
-      </c>
-      <c r="G16" t="n">
-        <v>-90238.50867113433</v>
-      </c>
-      <c r="H16" t="n">
-        <v>1</v>
-      </c>
-      <c r="I16" t="n">
-        <v>0</v>
-      </c>
-      <c r="J16" t="n">
-        <v>11.3</v>
-      </c>
-      <c r="K16" t="n">
-        <v>11.3</v>
-      </c>
-      <c r="L16" t="inlineStr">
+      <c r="L19" t="n">
+        <v>1</v>
+      </c>
+      <c r="M19" t="inlineStr"/>
+    </row>
+    <row r="20">
+      <c r="A20" s="1" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="n">
+        <v>11.3</v>
+      </c>
+      <c r="C20" t="n">
+        <v>11.3</v>
+      </c>
+      <c r="D20" t="n">
+        <v>11.3</v>
+      </c>
+      <c r="E20" t="n">
+        <v>11.3</v>
+      </c>
+      <c r="F20" t="n">
+        <v>1234.472</v>
+      </c>
+      <c r="G20" t="n">
+        <v>-117277.5086711343</v>
+      </c>
+      <c r="H20" t="n">
+        <v>0</v>
+      </c>
+      <c r="I20" t="inlineStr"/>
+      <c r="J20" t="inlineStr"/>
+      <c r="K20" t="inlineStr"/>
+      <c r="L20" t="n">
+        <v>1</v>
+      </c>
+      <c r="M20" t="inlineStr"/>
+    </row>
+    <row r="21">
+      <c r="A21" s="1" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="n">
+        <v>11.3</v>
+      </c>
+      <c r="C21" t="n">
+        <v>11.3</v>
+      </c>
+      <c r="D21" t="n">
+        <v>11.3</v>
+      </c>
+      <c r="E21" t="n">
+        <v>11.3</v>
+      </c>
+      <c r="F21" t="n">
+        <v>2107.8893</v>
+      </c>
+      <c r="G21" t="n">
+        <v>-117277.5086711343</v>
+      </c>
+      <c r="H21" t="n">
+        <v>0</v>
+      </c>
+      <c r="I21" t="inlineStr"/>
+      <c r="J21" t="inlineStr"/>
+      <c r="K21" t="inlineStr"/>
+      <c r="L21" t="n">
+        <v>1</v>
+      </c>
+      <c r="M21" t="inlineStr"/>
+    </row>
+    <row r="22">
+      <c r="A22" s="1" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="n">
+        <v>11.3</v>
+      </c>
+      <c r="C22" t="n">
+        <v>11.3</v>
+      </c>
+      <c r="D22" t="n">
+        <v>11.3</v>
+      </c>
+      <c r="E22" t="n">
+        <v>11.3</v>
+      </c>
+      <c r="F22" t="n">
+        <v>897.278</v>
+      </c>
+      <c r="G22" t="n">
+        <v>-117277.5086711343</v>
+      </c>
+      <c r="H22" t="n">
+        <v>0</v>
+      </c>
+      <c r="I22" t="inlineStr"/>
+      <c r="J22" t="inlineStr"/>
+      <c r="K22" t="inlineStr"/>
+      <c r="L22" t="n">
+        <v>1</v>
+      </c>
+      <c r="M22" t="inlineStr"/>
+    </row>
+    <row r="23">
+      <c r="A23" s="1" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="n">
+        <v>11.3</v>
+      </c>
+      <c r="C23" t="n">
+        <v>11.3</v>
+      </c>
+      <c r="D23" t="n">
+        <v>11.3</v>
+      </c>
+      <c r="E23" t="n">
+        <v>11.3</v>
+      </c>
+      <c r="F23" t="n">
+        <v>25806.7562</v>
+      </c>
+      <c r="G23" t="n">
+        <v>-117277.5086711343</v>
+      </c>
+      <c r="H23" t="n">
+        <v>0</v>
+      </c>
+      <c r="I23" t="inlineStr"/>
+      <c r="J23" t="inlineStr"/>
+      <c r="K23" t="inlineStr"/>
+      <c r="L23" t="n">
+        <v>1</v>
+      </c>
+      <c r="M23" t="inlineStr"/>
+    </row>
+    <row r="24">
+      <c r="A24" s="1" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="n">
+        <v>11.3</v>
+      </c>
+      <c r="C24" t="n">
+        <v>11.3</v>
+      </c>
+      <c r="D24" t="n">
+        <v>11.3</v>
+      </c>
+      <c r="E24" t="n">
+        <v>11.3</v>
+      </c>
+      <c r="F24" t="n">
+        <v>725.3665</v>
+      </c>
+      <c r="G24" t="n">
+        <v>-117277.5086711343</v>
+      </c>
+      <c r="H24" t="n">
+        <v>0</v>
+      </c>
+      <c r="I24" t="inlineStr"/>
+      <c r="J24" t="inlineStr"/>
+      <c r="K24" t="inlineStr"/>
+      <c r="L24" t="n">
+        <v>1</v>
+      </c>
+      <c r="M24" t="inlineStr"/>
+    </row>
+    <row r="25">
+      <c r="A25" s="1" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="n">
+        <v>11.3</v>
+      </c>
+      <c r="C25" t="n">
+        <v>11.3</v>
+      </c>
+      <c r="D25" t="n">
+        <v>11.3</v>
+      </c>
+      <c r="E25" t="n">
+        <v>11.3</v>
+      </c>
+      <c r="F25" t="n">
+        <v>2673.2721</v>
+      </c>
+      <c r="G25" t="n">
+        <v>-117277.5086711343</v>
+      </c>
+      <c r="H25" t="n">
+        <v>0</v>
+      </c>
+      <c r="I25" t="inlineStr"/>
+      <c r="J25" t="inlineStr"/>
+      <c r="K25" t="inlineStr"/>
+      <c r="L25" t="n">
+        <v>1</v>
+      </c>
+      <c r="M25" t="inlineStr"/>
+    </row>
+    <row r="26">
+      <c r="A26" s="1" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="n">
+        <v>11.3</v>
+      </c>
+      <c r="C26" t="n">
+        <v>11.3</v>
+      </c>
+      <c r="D26" t="n">
+        <v>11.3</v>
+      </c>
+      <c r="E26" t="n">
+        <v>11.3</v>
+      </c>
+      <c r="F26" t="n">
+        <v>5266</v>
+      </c>
+      <c r="G26" t="n">
+        <v>-117277.5086711343</v>
+      </c>
+      <c r="H26" t="n">
+        <v>0</v>
+      </c>
+      <c r="I26" t="inlineStr"/>
+      <c r="J26" t="inlineStr"/>
+      <c r="K26" t="inlineStr"/>
+      <c r="L26" t="n">
+        <v>1</v>
+      </c>
+      <c r="M26" t="inlineStr"/>
+    </row>
+    <row r="27">
+      <c r="A27" s="1" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="n">
+        <v>11.4</v>
+      </c>
+      <c r="C27" t="n">
+        <v>11.4</v>
+      </c>
+      <c r="D27" t="n">
+        <v>11.4</v>
+      </c>
+      <c r="E27" t="n">
+        <v>11.4</v>
+      </c>
+      <c r="F27" t="n">
+        <v>27211.7556</v>
+      </c>
+      <c r="G27" t="n">
+        <v>-90065.75307113433</v>
+      </c>
+      <c r="H27" t="n">
+        <v>2</v>
+      </c>
+      <c r="I27" t="n">
+        <v>11.3</v>
+      </c>
+      <c r="J27" t="n">
+        <v>11.3</v>
+      </c>
+      <c r="K27" t="inlineStr"/>
+      <c r="L27" t="n">
+        <v>1</v>
+      </c>
+      <c r="M27" t="inlineStr"/>
+    </row>
+    <row r="28">
+      <c r="A28" s="1" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="n">
+        <v>11.3</v>
+      </c>
+      <c r="C28" t="n">
+        <v>11.3</v>
+      </c>
+      <c r="D28" t="n">
+        <v>11.3</v>
+      </c>
+      <c r="E28" t="n">
+        <v>11.3</v>
+      </c>
+      <c r="F28" t="n">
+        <v>83125.51949999999</v>
+      </c>
+      <c r="G28" t="n">
+        <v>-173191.2725711343</v>
+      </c>
+      <c r="H28" t="n">
+        <v>2</v>
+      </c>
+      <c r="I28" t="n">
+        <v>11.4</v>
+      </c>
+      <c r="J28" t="n">
+        <v>11.3</v>
+      </c>
+      <c r="K28" t="inlineStr">
         <is>
           <t>매수 대기</t>
         </is>
       </c>
-      <c r="M16" t="n">
-        <v>1</v>
-      </c>
-      <c r="N16" t="inlineStr"/>
-    </row>
-    <row r="17">
-      <c r="A17" s="1" t="n">
-        <v>15</v>
-      </c>
-      <c r="B17" t="n">
-        <v>11.4</v>
-      </c>
-      <c r="C17" t="n">
-        <v>11.4</v>
-      </c>
-      <c r="D17" t="n">
-        <v>11.4</v>
-      </c>
-      <c r="E17" t="n">
-        <v>11.4</v>
-      </c>
-      <c r="F17" t="n">
-        <v>17299.9168</v>
-      </c>
-      <c r="G17" t="n">
-        <v>-90238.50867113433</v>
-      </c>
-      <c r="H17" t="n">
-        <v>1</v>
-      </c>
-      <c r="I17" t="n">
-        <v>0</v>
-      </c>
-      <c r="J17" t="n">
-        <v>11.4</v>
-      </c>
-      <c r="K17" t="n">
-        <v>11.3</v>
-      </c>
-      <c r="L17" t="inlineStr">
+      <c r="L28" t="n">
+        <v>1</v>
+      </c>
+      <c r="M28" t="inlineStr"/>
+    </row>
+    <row r="29">
+      <c r="A29" s="1" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="n">
+        <v>11.3</v>
+      </c>
+      <c r="C29" t="n">
+        <v>11.3</v>
+      </c>
+      <c r="D29" t="n">
+        <v>11.3</v>
+      </c>
+      <c r="E29" t="n">
+        <v>11.3</v>
+      </c>
+      <c r="F29" t="n">
+        <v>23087</v>
+      </c>
+      <c r="G29" t="n">
+        <v>-173191.2725711343</v>
+      </c>
+      <c r="H29" t="n">
+        <v>0</v>
+      </c>
+      <c r="I29" t="inlineStr"/>
+      <c r="J29" t="n">
+        <v>11.3</v>
+      </c>
+      <c r="K29" t="inlineStr">
         <is>
           <t>매수 대기</t>
         </is>
       </c>
-      <c r="M17" t="n">
-        <v>1</v>
-      </c>
-      <c r="N17" t="inlineStr"/>
-    </row>
-    <row r="18">
-      <c r="A18" s="1" t="n">
-        <v>16</v>
-      </c>
-      <c r="B18" t="n">
-        <v>11.3</v>
-      </c>
-      <c r="C18" t="n">
-        <v>11.3</v>
-      </c>
-      <c r="D18" t="n">
-        <v>11.3</v>
-      </c>
-      <c r="E18" t="n">
-        <v>11.3</v>
-      </c>
-      <c r="F18" t="n">
-        <v>27039</v>
-      </c>
-      <c r="G18" t="n">
-        <v>-117277.5086711343</v>
-      </c>
-      <c r="H18" t="n">
-        <v>0</v>
-      </c>
-      <c r="I18" t="n">
-        <v>0</v>
-      </c>
-      <c r="J18" t="inlineStr"/>
-      <c r="K18" t="inlineStr"/>
-      <c r="L18" t="inlineStr"/>
-      <c r="M18" t="n">
-        <v>1</v>
-      </c>
-      <c r="N18" t="inlineStr"/>
-    </row>
-    <row r="19">
-      <c r="A19" s="1" t="n">
-        <v>17</v>
-      </c>
-      <c r="B19" t="n">
-        <v>11.3</v>
-      </c>
-      <c r="C19" t="n">
-        <v>11.3</v>
-      </c>
-      <c r="D19" t="n">
-        <v>11.3</v>
-      </c>
-      <c r="E19" t="n">
-        <v>11.3</v>
-      </c>
-      <c r="F19" t="n">
-        <v>15228.602</v>
-      </c>
-      <c r="G19" t="n">
-        <v>-117277.5086711343</v>
-      </c>
-      <c r="H19" t="n">
-        <v>1</v>
-      </c>
-      <c r="I19" t="n">
-        <v>0</v>
-      </c>
-      <c r="J19" t="n">
-        <v>11.3</v>
-      </c>
-      <c r="K19" t="n">
-        <v>11.3</v>
-      </c>
-      <c r="L19" t="inlineStr"/>
-      <c r="M19" t="n">
-        <v>1</v>
-      </c>
-      <c r="N19" t="inlineStr"/>
-    </row>
-    <row r="20">
-      <c r="A20" s="1" t="n">
-        <v>18</v>
-      </c>
-      <c r="B20" t="n">
-        <v>11.3</v>
-      </c>
-      <c r="C20" t="n">
-        <v>11.3</v>
-      </c>
-      <c r="D20" t="n">
-        <v>11.3</v>
-      </c>
-      <c r="E20" t="n">
-        <v>11.3</v>
-      </c>
-      <c r="F20" t="n">
-        <v>1234.472</v>
-      </c>
-      <c r="G20" t="n">
-        <v>-117277.5086711343</v>
-      </c>
-      <c r="H20" t="n">
-        <v>1</v>
-      </c>
-      <c r="I20" t="n">
-        <v>0</v>
-      </c>
-      <c r="J20" t="n">
-        <v>11.3</v>
-      </c>
-      <c r="K20" t="n">
-        <v>11.3</v>
-      </c>
-      <c r="L20" t="inlineStr">
+      <c r="L29" t="n">
+        <v>1</v>
+      </c>
+      <c r="M29" t="inlineStr"/>
+    </row>
+    <row r="30">
+      <c r="A30" s="1" t="n">
+        <v>28</v>
+      </c>
+      <c r="B30" t="n">
+        <v>11.4</v>
+      </c>
+      <c r="C30" t="n">
+        <v>11.4</v>
+      </c>
+      <c r="D30" t="n">
+        <v>11.4</v>
+      </c>
+      <c r="E30" t="n">
+        <v>11.4</v>
+      </c>
+      <c r="F30" t="n">
+        <v>895.9933</v>
+      </c>
+      <c r="G30" t="n">
+        <v>-172295.2792711343</v>
+      </c>
+      <c r="H30" t="n">
+        <v>0</v>
+      </c>
+      <c r="I30" t="inlineStr"/>
+      <c r="J30" t="inlineStr"/>
+      <c r="K30" t="inlineStr"/>
+      <c r="L30" t="n">
+        <v>1</v>
+      </c>
+      <c r="M30" t="inlineStr"/>
+    </row>
+    <row r="31">
+      <c r="A31" s="1" t="n">
+        <v>29</v>
+      </c>
+      <c r="B31" t="n">
+        <v>11.3</v>
+      </c>
+      <c r="C31" t="n">
+        <v>11.3</v>
+      </c>
+      <c r="D31" t="n">
+        <v>11.3</v>
+      </c>
+      <c r="E31" t="n">
+        <v>11.3</v>
+      </c>
+      <c r="F31" t="n">
+        <v>238947.7055</v>
+      </c>
+      <c r="G31" t="n">
+        <v>-411242.9847711343</v>
+      </c>
+      <c r="H31" t="n">
+        <v>0</v>
+      </c>
+      <c r="I31" t="inlineStr"/>
+      <c r="J31" t="inlineStr"/>
+      <c r="K31" t="inlineStr"/>
+      <c r="L31" t="n">
+        <v>1</v>
+      </c>
+      <c r="M31" t="inlineStr"/>
+    </row>
+    <row r="32">
+      <c r="A32" s="1" t="n">
+        <v>30</v>
+      </c>
+      <c r="B32" t="n">
+        <v>11.4</v>
+      </c>
+      <c r="C32" t="n">
+        <v>11.3</v>
+      </c>
+      <c r="D32" t="n">
+        <v>11.4</v>
+      </c>
+      <c r="E32" t="n">
+        <v>11.3</v>
+      </c>
+      <c r="F32" t="n">
+        <v>225.0001</v>
+      </c>
+      <c r="G32" t="n">
+        <v>-411242.9847711343</v>
+      </c>
+      <c r="H32" t="n">
+        <v>0</v>
+      </c>
+      <c r="I32" t="inlineStr"/>
+      <c r="J32" t="inlineStr"/>
+      <c r="K32" t="inlineStr"/>
+      <c r="L32" t="n">
+        <v>1</v>
+      </c>
+      <c r="M32" t="inlineStr"/>
+    </row>
+    <row r="33">
+      <c r="A33" s="1" t="n">
+        <v>31</v>
+      </c>
+      <c r="B33" t="n">
+        <v>11.3</v>
+      </c>
+      <c r="C33" t="n">
+        <v>11.3</v>
+      </c>
+      <c r="D33" t="n">
+        <v>11.3</v>
+      </c>
+      <c r="E33" t="n">
+        <v>11.3</v>
+      </c>
+      <c r="F33" t="n">
+        <v>224.9999</v>
+      </c>
+      <c r="G33" t="n">
+        <v>-411242.9847711343</v>
+      </c>
+      <c r="H33" t="n">
+        <v>2</v>
+      </c>
+      <c r="I33" t="n">
+        <v>11.3</v>
+      </c>
+      <c r="J33" t="n">
+        <v>11.3</v>
+      </c>
+      <c r="K33" t="inlineStr"/>
+      <c r="L33" t="n">
+        <v>1</v>
+      </c>
+      <c r="M33" t="inlineStr"/>
+    </row>
+    <row r="34">
+      <c r="A34" s="1" t="n">
+        <v>32</v>
+      </c>
+      <c r="B34" t="n">
+        <v>11.3</v>
+      </c>
+      <c r="C34" t="n">
+        <v>11.3</v>
+      </c>
+      <c r="D34" t="n">
+        <v>11.3</v>
+      </c>
+      <c r="E34" t="n">
+        <v>11.3</v>
+      </c>
+      <c r="F34" t="n">
+        <v>1196.5449</v>
+      </c>
+      <c r="G34" t="n">
+        <v>-411242.9847711343</v>
+      </c>
+      <c r="H34" t="n">
+        <v>0</v>
+      </c>
+      <c r="I34" t="inlineStr"/>
+      <c r="J34" t="n">
+        <v>11.3</v>
+      </c>
+      <c r="K34" t="inlineStr">
         <is>
           <t>매수 대기</t>
         </is>
       </c>
-      <c r="M20" t="n">
-        <v>1</v>
-      </c>
-      <c r="N20" t="inlineStr"/>
-    </row>
-    <row r="21">
-      <c r="A21" s="1" t="n">
-        <v>19</v>
-      </c>
-      <c r="B21" t="n">
-        <v>11.3</v>
-      </c>
-      <c r="C21" t="n">
-        <v>11.3</v>
-      </c>
-      <c r="D21" t="n">
-        <v>11.3</v>
-      </c>
-      <c r="E21" t="n">
-        <v>11.3</v>
-      </c>
-      <c r="F21" t="n">
-        <v>2107.8893</v>
-      </c>
-      <c r="G21" t="n">
-        <v>-117277.5086711343</v>
-      </c>
-      <c r="H21" t="n">
-        <v>1</v>
-      </c>
-      <c r="I21" t="n">
-        <v>0</v>
-      </c>
-      <c r="J21" t="n">
-        <v>11.3</v>
-      </c>
-      <c r="K21" t="n">
-        <v>11.3</v>
-      </c>
-      <c r="L21" t="inlineStr">
+      <c r="L34" t="n">
+        <v>1</v>
+      </c>
+      <c r="M34" t="inlineStr"/>
+    </row>
+    <row r="35">
+      <c r="A35" s="1" t="n">
+        <v>33</v>
+      </c>
+      <c r="B35" t="n">
+        <v>11.3</v>
+      </c>
+      <c r="C35" t="n">
+        <v>11.3</v>
+      </c>
+      <c r="D35" t="n">
+        <v>11.3</v>
+      </c>
+      <c r="E35" t="n">
+        <v>11.3</v>
+      </c>
+      <c r="F35" t="n">
+        <v>15336.6987</v>
+      </c>
+      <c r="G35" t="n">
+        <v>-411242.9847711343</v>
+      </c>
+      <c r="H35" t="n">
+        <v>2</v>
+      </c>
+      <c r="I35" t="n">
+        <v>11.3</v>
+      </c>
+      <c r="J35" t="n">
+        <v>11.3</v>
+      </c>
+      <c r="K35" t="inlineStr">
         <is>
           <t>매수 대기</t>
         </is>
       </c>
-      <c r="M21" t="n">
-        <v>1</v>
-      </c>
-      <c r="N21" t="inlineStr"/>
-    </row>
-    <row r="22">
-      <c r="A22" s="1" t="n">
-        <v>20</v>
-      </c>
-      <c r="B22" t="n">
-        <v>11.3</v>
-      </c>
-      <c r="C22" t="n">
-        <v>11.3</v>
-      </c>
-      <c r="D22" t="n">
-        <v>11.3</v>
-      </c>
-      <c r="E22" t="n">
-        <v>11.3</v>
-      </c>
-      <c r="F22" t="n">
-        <v>897.278</v>
-      </c>
-      <c r="G22" t="n">
-        <v>-117277.5086711343</v>
-      </c>
-      <c r="H22" t="n">
-        <v>1</v>
-      </c>
-      <c r="I22" t="n">
-        <v>0</v>
-      </c>
-      <c r="J22" t="n">
-        <v>11.3</v>
-      </c>
-      <c r="K22" t="n">
-        <v>11.3</v>
-      </c>
-      <c r="L22" t="inlineStr"/>
-      <c r="M22" t="n">
-        <v>1</v>
-      </c>
-      <c r="N22" t="inlineStr"/>
-    </row>
-    <row r="23">
-      <c r="A23" s="1" t="n">
-        <v>21</v>
-      </c>
-      <c r="B23" t="n">
-        <v>11.3</v>
-      </c>
-      <c r="C23" t="n">
-        <v>11.3</v>
-      </c>
-      <c r="D23" t="n">
-        <v>11.3</v>
-      </c>
-      <c r="E23" t="n">
-        <v>11.3</v>
-      </c>
-      <c r="F23" t="n">
-        <v>25806.7562</v>
-      </c>
-      <c r="G23" t="n">
-        <v>-117277.5086711343</v>
-      </c>
-      <c r="H23" t="n">
-        <v>1</v>
-      </c>
-      <c r="I23" t="n">
-        <v>0</v>
-      </c>
-      <c r="J23" t="n">
-        <v>11.3</v>
-      </c>
-      <c r="K23" t="n">
-        <v>11.3</v>
-      </c>
-      <c r="L23" t="inlineStr">
+      <c r="L35" t="n">
+        <v>1</v>
+      </c>
+      <c r="M35" t="inlineStr"/>
+    </row>
+    <row r="36">
+      <c r="A36" s="1" t="n">
+        <v>34</v>
+      </c>
+      <c r="B36" t="n">
+        <v>11.3</v>
+      </c>
+      <c r="C36" t="n">
+        <v>11.3</v>
+      </c>
+      <c r="D36" t="n">
+        <v>11.3</v>
+      </c>
+      <c r="E36" t="n">
+        <v>11.3</v>
+      </c>
+      <c r="F36" t="n">
+        <v>69635.2056</v>
+      </c>
+      <c r="G36" t="n">
+        <v>-411242.9847711343</v>
+      </c>
+      <c r="H36" t="n">
+        <v>0</v>
+      </c>
+      <c r="I36" t="inlineStr"/>
+      <c r="J36" t="inlineStr"/>
+      <c r="K36" t="inlineStr"/>
+      <c r="L36" t="n">
+        <v>1</v>
+      </c>
+      <c r="M36" t="inlineStr"/>
+    </row>
+    <row r="37">
+      <c r="A37" s="1" t="n">
+        <v>35</v>
+      </c>
+      <c r="B37" t="n">
+        <v>11.4</v>
+      </c>
+      <c r="C37" t="n">
+        <v>11.4</v>
+      </c>
+      <c r="D37" t="n">
+        <v>11.4</v>
+      </c>
+      <c r="E37" t="n">
+        <v>11.4</v>
+      </c>
+      <c r="F37" t="n">
+        <v>25219.6044</v>
+      </c>
+      <c r="G37" t="n">
+        <v>-386023.3803711343</v>
+      </c>
+      <c r="H37" t="n">
+        <v>0</v>
+      </c>
+      <c r="I37" t="inlineStr"/>
+      <c r="J37" t="inlineStr"/>
+      <c r="K37" t="inlineStr"/>
+      <c r="L37" t="n">
+        <v>1</v>
+      </c>
+      <c r="M37" t="inlineStr"/>
+    </row>
+    <row r="38">
+      <c r="A38" s="1" t="n">
+        <v>36</v>
+      </c>
+      <c r="B38" t="n">
+        <v>11.4</v>
+      </c>
+      <c r="C38" t="n">
+        <v>11.4</v>
+      </c>
+      <c r="D38" t="n">
+        <v>11.4</v>
+      </c>
+      <c r="E38" t="n">
+        <v>11.4</v>
+      </c>
+      <c r="F38" t="n">
+        <v>43750.2734</v>
+      </c>
+      <c r="G38" t="n">
+        <v>-386023.3803711343</v>
+      </c>
+      <c r="H38" t="n">
+        <v>0</v>
+      </c>
+      <c r="I38" t="inlineStr"/>
+      <c r="J38" t="inlineStr"/>
+      <c r="K38" t="inlineStr"/>
+      <c r="L38" t="n">
+        <v>1</v>
+      </c>
+      <c r="M38" t="inlineStr"/>
+    </row>
+    <row r="39">
+      <c r="A39" s="1" t="n">
+        <v>37</v>
+      </c>
+      <c r="B39" t="n">
+        <v>11.4</v>
+      </c>
+      <c r="C39" t="n">
+        <v>11.4</v>
+      </c>
+      <c r="D39" t="n">
+        <v>11.4</v>
+      </c>
+      <c r="E39" t="n">
+        <v>11.4</v>
+      </c>
+      <c r="F39" t="n">
+        <v>500</v>
+      </c>
+      <c r="G39" t="n">
+        <v>-386023.3803711343</v>
+      </c>
+      <c r="H39" t="n">
+        <v>0</v>
+      </c>
+      <c r="I39" t="inlineStr"/>
+      <c r="J39" t="inlineStr"/>
+      <c r="K39" t="inlineStr"/>
+      <c r="L39" t="n">
+        <v>1</v>
+      </c>
+      <c r="M39" t="inlineStr"/>
+    </row>
+    <row r="40">
+      <c r="A40" s="1" t="n">
+        <v>38</v>
+      </c>
+      <c r="B40" t="n">
+        <v>11.4</v>
+      </c>
+      <c r="C40" t="n">
+        <v>11.4</v>
+      </c>
+      <c r="D40" t="n">
+        <v>11.4</v>
+      </c>
+      <c r="E40" t="n">
+        <v>11.4</v>
+      </c>
+      <c r="F40" t="n">
+        <v>40191.6896</v>
+      </c>
+      <c r="G40" t="n">
+        <v>-386023.3803711343</v>
+      </c>
+      <c r="H40" t="n">
+        <v>0</v>
+      </c>
+      <c r="I40" t="inlineStr"/>
+      <c r="J40" t="inlineStr"/>
+      <c r="K40" t="inlineStr"/>
+      <c r="L40" t="n">
+        <v>1</v>
+      </c>
+      <c r="M40" t="inlineStr"/>
+    </row>
+    <row r="41">
+      <c r="A41" s="1" t="n">
+        <v>39</v>
+      </c>
+      <c r="B41" t="n">
+        <v>11.3</v>
+      </c>
+      <c r="C41" t="n">
+        <v>11.3</v>
+      </c>
+      <c r="D41" t="n">
+        <v>11.3</v>
+      </c>
+      <c r="E41" t="n">
+        <v>11.3</v>
+      </c>
+      <c r="F41" t="n">
+        <v>43750.2734</v>
+      </c>
+      <c r="G41" t="n">
+        <v>-429773.6537711343</v>
+      </c>
+      <c r="H41" t="n">
+        <v>2</v>
+      </c>
+      <c r="I41" t="n">
+        <v>11.4</v>
+      </c>
+      <c r="J41" t="n">
+        <v>11.4</v>
+      </c>
+      <c r="K41" t="inlineStr"/>
+      <c r="L41" t="n">
+        <v>1</v>
+      </c>
+      <c r="M41" t="inlineStr"/>
+    </row>
+    <row r="42">
+      <c r="A42" s="1" t="n">
+        <v>40</v>
+      </c>
+      <c r="B42" t="n">
+        <v>11.3</v>
+      </c>
+      <c r="C42" t="n">
+        <v>11.3</v>
+      </c>
+      <c r="D42" t="n">
+        <v>11.3</v>
+      </c>
+      <c r="E42" t="n">
+        <v>11.3</v>
+      </c>
+      <c r="F42" t="n">
+        <v>40191.6896</v>
+      </c>
+      <c r="G42" t="n">
+        <v>-429773.6537711343</v>
+      </c>
+      <c r="H42" t="n">
+        <v>2</v>
+      </c>
+      <c r="I42" t="n">
+        <v>11.3</v>
+      </c>
+      <c r="J42" t="n">
+        <v>11.4</v>
+      </c>
+      <c r="K42" t="inlineStr">
         <is>
           <t>매수 대기</t>
         </is>
       </c>
-      <c r="M23" t="n">
-        <v>1</v>
-      </c>
-      <c r="N23" t="inlineStr"/>
-    </row>
-    <row r="24">
-      <c r="A24" s="1" t="n">
-        <v>22</v>
-      </c>
-      <c r="B24" t="n">
-        <v>11.3</v>
-      </c>
-      <c r="C24" t="n">
-        <v>11.3</v>
-      </c>
-      <c r="D24" t="n">
-        <v>11.3</v>
-      </c>
-      <c r="E24" t="n">
-        <v>11.3</v>
-      </c>
-      <c r="F24" t="n">
-        <v>725.3665</v>
-      </c>
-      <c r="G24" t="n">
-        <v>-117277.5086711343</v>
-      </c>
-      <c r="H24" t="n">
-        <v>1</v>
-      </c>
-      <c r="I24" t="n">
-        <v>0</v>
-      </c>
-      <c r="J24" t="n">
-        <v>11.3</v>
-      </c>
-      <c r="K24" t="n">
-        <v>11.3</v>
-      </c>
-      <c r="L24" t="inlineStr">
+      <c r="L42" t="n">
+        <v>1</v>
+      </c>
+      <c r="M42" t="inlineStr"/>
+    </row>
+    <row r="43">
+      <c r="A43" s="1" t="n">
+        <v>41</v>
+      </c>
+      <c r="B43" t="n">
+        <v>11.4</v>
+      </c>
+      <c r="C43" t="n">
+        <v>11.4</v>
+      </c>
+      <c r="D43" t="n">
+        <v>11.4</v>
+      </c>
+      <c r="E43" t="n">
+        <v>11.4</v>
+      </c>
+      <c r="F43" t="n">
+        <v>125891.237</v>
+      </c>
+      <c r="G43" t="n">
+        <v>-303882.4167711344</v>
+      </c>
+      <c r="H43" t="n">
+        <v>0</v>
+      </c>
+      <c r="I43" t="inlineStr"/>
+      <c r="J43" t="n">
+        <v>11.4</v>
+      </c>
+      <c r="K43" t="inlineStr">
         <is>
           <t>매수 대기</t>
         </is>
       </c>
-      <c r="M24" t="n">
-        <v>1</v>
-      </c>
-      <c r="N24" t="inlineStr"/>
-    </row>
-    <row r="25">
-      <c r="A25" s="1" t="n">
-        <v>23</v>
-      </c>
-      <c r="B25" t="n">
-        <v>11.3</v>
-      </c>
-      <c r="C25" t="n">
-        <v>11.3</v>
-      </c>
-      <c r="D25" t="n">
-        <v>11.3</v>
-      </c>
-      <c r="E25" t="n">
-        <v>11.3</v>
-      </c>
-      <c r="F25" t="n">
-        <v>2673.2721</v>
-      </c>
-      <c r="G25" t="n">
-        <v>-117277.5086711343</v>
-      </c>
-      <c r="H25" t="n">
-        <v>1</v>
-      </c>
-      <c r="I25" t="n">
-        <v>0</v>
-      </c>
-      <c r="J25" t="n">
-        <v>11.3</v>
-      </c>
-      <c r="K25" t="n">
-        <v>11.3</v>
-      </c>
-      <c r="L25" t="inlineStr"/>
-      <c r="M25" t="n">
-        <v>1</v>
-      </c>
-      <c r="N25" t="inlineStr"/>
-    </row>
-    <row r="26">
-      <c r="A26" s="1" t="n">
-        <v>24</v>
-      </c>
-      <c r="B26" t="n">
-        <v>11.3</v>
-      </c>
-      <c r="C26" t="n">
-        <v>11.3</v>
-      </c>
-      <c r="D26" t="n">
-        <v>11.3</v>
-      </c>
-      <c r="E26" t="n">
-        <v>11.3</v>
-      </c>
-      <c r="F26" t="n">
-        <v>5266</v>
-      </c>
-      <c r="G26" t="n">
-        <v>-117277.5086711343</v>
-      </c>
-      <c r="H26" t="n">
-        <v>1</v>
-      </c>
-      <c r="I26" t="n">
-        <v>0</v>
-      </c>
-      <c r="J26" t="n">
-        <v>11.3</v>
-      </c>
-      <c r="K26" t="n">
-        <v>11.3</v>
-      </c>
-      <c r="L26" t="inlineStr">
+      <c r="L43" t="n">
+        <v>1</v>
+      </c>
+      <c r="M43" t="inlineStr"/>
+    </row>
+    <row r="44">
+      <c r="A44" s="1" t="n">
+        <v>42</v>
+      </c>
+      <c r="B44" t="n">
+        <v>11.3</v>
+      </c>
+      <c r="C44" t="n">
+        <v>11.3</v>
+      </c>
+      <c r="D44" t="n">
+        <v>11.3</v>
+      </c>
+      <c r="E44" t="n">
+        <v>11.3</v>
+      </c>
+      <c r="F44" t="n">
+        <v>130</v>
+      </c>
+      <c r="G44" t="n">
+        <v>-304012.4167711344</v>
+      </c>
+      <c r="H44" t="n">
+        <v>0</v>
+      </c>
+      <c r="I44" t="inlineStr"/>
+      <c r="J44" t="inlineStr"/>
+      <c r="K44" t="inlineStr"/>
+      <c r="L44" t="n">
+        <v>1</v>
+      </c>
+      <c r="M44" t="inlineStr"/>
+    </row>
+    <row r="45">
+      <c r="A45" s="1" t="n">
+        <v>43</v>
+      </c>
+      <c r="B45" t="n">
+        <v>11.5</v>
+      </c>
+      <c r="C45" t="n">
+        <v>11.5</v>
+      </c>
+      <c r="D45" t="n">
+        <v>11.5</v>
+      </c>
+      <c r="E45" t="n">
+        <v>11.5</v>
+      </c>
+      <c r="F45" t="n">
+        <v>50</v>
+      </c>
+      <c r="G45" t="n">
+        <v>-303962.4167711344</v>
+      </c>
+      <c r="H45" t="n">
+        <v>0</v>
+      </c>
+      <c r="I45" t="inlineStr"/>
+      <c r="J45" t="inlineStr"/>
+      <c r="K45" t="inlineStr"/>
+      <c r="L45" t="n">
+        <v>1</v>
+      </c>
+      <c r="M45" t="inlineStr"/>
+    </row>
+    <row r="46">
+      <c r="A46" s="1" t="n">
+        <v>44</v>
+      </c>
+      <c r="B46" t="n">
+        <v>11.5</v>
+      </c>
+      <c r="C46" t="n">
+        <v>11.5</v>
+      </c>
+      <c r="D46" t="n">
+        <v>11.5</v>
+      </c>
+      <c r="E46" t="n">
+        <v>11.5</v>
+      </c>
+      <c r="F46" t="n">
+        <v>1988.8955</v>
+      </c>
+      <c r="G46" t="n">
+        <v>-303962.4167711344</v>
+      </c>
+      <c r="H46" t="n">
+        <v>0</v>
+      </c>
+      <c r="I46" t="inlineStr"/>
+      <c r="J46" t="inlineStr"/>
+      <c r="K46" t="inlineStr"/>
+      <c r="L46" t="n">
+        <v>1</v>
+      </c>
+      <c r="M46" t="inlineStr"/>
+    </row>
+    <row r="47">
+      <c r="A47" s="1" t="n">
+        <v>45</v>
+      </c>
+      <c r="B47" t="n">
+        <v>11.5</v>
+      </c>
+      <c r="C47" t="n">
+        <v>11.5</v>
+      </c>
+      <c r="D47" t="n">
+        <v>11.5</v>
+      </c>
+      <c r="E47" t="n">
+        <v>11.5</v>
+      </c>
+      <c r="F47" t="n">
+        <v>8674</v>
+      </c>
+      <c r="G47" t="n">
+        <v>-303962.4167711344</v>
+      </c>
+      <c r="H47" t="n">
+        <v>0</v>
+      </c>
+      <c r="I47" t="inlineStr"/>
+      <c r="J47" t="inlineStr"/>
+      <c r="K47" t="inlineStr"/>
+      <c r="L47" t="n">
+        <v>1</v>
+      </c>
+      <c r="M47" t="inlineStr"/>
+    </row>
+    <row r="48">
+      <c r="A48" s="1" t="n">
+        <v>46</v>
+      </c>
+      <c r="B48" t="n">
+        <v>11.5</v>
+      </c>
+      <c r="C48" t="n">
+        <v>11.5</v>
+      </c>
+      <c r="D48" t="n">
+        <v>11.5</v>
+      </c>
+      <c r="E48" t="n">
+        <v>11.5</v>
+      </c>
+      <c r="F48" t="n">
+        <v>176183.8331</v>
+      </c>
+      <c r="G48" t="n">
+        <v>-303962.4167711344</v>
+      </c>
+      <c r="H48" t="n">
+        <v>0</v>
+      </c>
+      <c r="I48" t="inlineStr"/>
+      <c r="J48" t="inlineStr"/>
+      <c r="K48" t="inlineStr"/>
+      <c r="L48" t="n">
+        <v>1</v>
+      </c>
+      <c r="M48" t="inlineStr"/>
+    </row>
+    <row r="49">
+      <c r="A49" s="1" t="n">
+        <v>47</v>
+      </c>
+      <c r="B49" t="n">
+        <v>11.5</v>
+      </c>
+      <c r="C49" t="n">
+        <v>11.5</v>
+      </c>
+      <c r="D49" t="n">
+        <v>11.5</v>
+      </c>
+      <c r="E49" t="n">
+        <v>11.5</v>
+      </c>
+      <c r="F49" t="n">
+        <v>40665.2789</v>
+      </c>
+      <c r="G49" t="n">
+        <v>-303962.4167711344</v>
+      </c>
+      <c r="H49" t="n">
+        <v>0</v>
+      </c>
+      <c r="I49" t="inlineStr"/>
+      <c r="J49" t="inlineStr"/>
+      <c r="K49" t="inlineStr"/>
+      <c r="L49" t="n">
+        <v>1</v>
+      </c>
+      <c r="M49" t="inlineStr"/>
+    </row>
+    <row r="50">
+      <c r="A50" s="1" t="n">
+        <v>48</v>
+      </c>
+      <c r="B50" t="n">
+        <v>11.5</v>
+      </c>
+      <c r="C50" t="n">
+        <v>11.6</v>
+      </c>
+      <c r="D50" t="n">
+        <v>11.6</v>
+      </c>
+      <c r="E50" t="n">
+        <v>11.4</v>
+      </c>
+      <c r="F50" t="n">
+        <v>99911.58106551724</v>
+      </c>
+      <c r="G50" t="n">
+        <v>-204050.8357056171</v>
+      </c>
+      <c r="H50" t="n">
+        <v>0</v>
+      </c>
+      <c r="I50" t="inlineStr"/>
+      <c r="J50" t="inlineStr"/>
+      <c r="K50" t="inlineStr"/>
+      <c r="L50" t="n">
+        <v>1</v>
+      </c>
+      <c r="M50" t="inlineStr"/>
+    </row>
+    <row r="51">
+      <c r="A51" s="1" t="n">
+        <v>49</v>
+      </c>
+      <c r="B51" t="n">
+        <v>11.6</v>
+      </c>
+      <c r="C51" t="n">
+        <v>11.6</v>
+      </c>
+      <c r="D51" t="n">
+        <v>11.6</v>
+      </c>
+      <c r="E51" t="n">
+        <v>11.6</v>
+      </c>
+      <c r="F51" t="n">
+        <v>104002.4714</v>
+      </c>
+      <c r="G51" t="n">
+        <v>-204050.8357056171</v>
+      </c>
+      <c r="H51" t="n">
+        <v>0</v>
+      </c>
+      <c r="I51" t="inlineStr"/>
+      <c r="J51" t="inlineStr"/>
+      <c r="K51" t="inlineStr"/>
+      <c r="L51" t="n">
+        <v>1</v>
+      </c>
+      <c r="M51" t="inlineStr"/>
+    </row>
+    <row r="52">
+      <c r="A52" s="1" t="n">
+        <v>50</v>
+      </c>
+      <c r="B52" t="n">
+        <v>11.5</v>
+      </c>
+      <c r="C52" t="n">
+        <v>11.5</v>
+      </c>
+      <c r="D52" t="n">
+        <v>11.5</v>
+      </c>
+      <c r="E52" t="n">
+        <v>11.5</v>
+      </c>
+      <c r="F52" t="n">
+        <v>13685.4766</v>
+      </c>
+      <c r="G52" t="n">
+        <v>-217736.3123056171</v>
+      </c>
+      <c r="H52" t="n">
+        <v>0</v>
+      </c>
+      <c r="I52" t="inlineStr"/>
+      <c r="J52" t="inlineStr"/>
+      <c r="K52" t="inlineStr"/>
+      <c r="L52" t="n">
+        <v>1</v>
+      </c>
+      <c r="M52" t="inlineStr"/>
+    </row>
+    <row r="53">
+      <c r="A53" s="1" t="n">
+        <v>51</v>
+      </c>
+      <c r="B53" t="n">
+        <v>11.5</v>
+      </c>
+      <c r="C53" t="n">
+        <v>11.7</v>
+      </c>
+      <c r="D53" t="n">
+        <v>11.7</v>
+      </c>
+      <c r="E53" t="n">
+        <v>11.5</v>
+      </c>
+      <c r="F53" t="n">
+        <v>62854.34188034188</v>
+      </c>
+      <c r="G53" t="n">
+        <v>-154881.9704252752</v>
+      </c>
+      <c r="H53" t="n">
+        <v>0</v>
+      </c>
+      <c r="I53" t="inlineStr"/>
+      <c r="J53" t="inlineStr"/>
+      <c r="K53" t="inlineStr"/>
+      <c r="L53" t="n">
+        <v>1</v>
+      </c>
+      <c r="M53" t="inlineStr"/>
+    </row>
+    <row r="54">
+      <c r="A54" s="1" t="n">
+        <v>52</v>
+      </c>
+      <c r="B54" t="n">
+        <v>11.5</v>
+      </c>
+      <c r="C54" t="n">
+        <v>11.5</v>
+      </c>
+      <c r="D54" t="n">
+        <v>11.5</v>
+      </c>
+      <c r="E54" t="n">
+        <v>11.5</v>
+      </c>
+      <c r="F54" t="n">
+        <v>629.5689</v>
+      </c>
+      <c r="G54" t="n">
+        <v>-155511.5393252753</v>
+      </c>
+      <c r="H54" t="n">
+        <v>0</v>
+      </c>
+      <c r="I54" t="inlineStr"/>
+      <c r="J54" t="inlineStr"/>
+      <c r="K54" t="inlineStr"/>
+      <c r="L54" t="n">
+        <v>1</v>
+      </c>
+      <c r="M54" t="inlineStr"/>
+    </row>
+    <row r="55">
+      <c r="A55" s="1" t="n">
+        <v>53</v>
+      </c>
+      <c r="B55" t="n">
+        <v>11.5</v>
+      </c>
+      <c r="C55" t="n">
+        <v>11.5</v>
+      </c>
+      <c r="D55" t="n">
+        <v>11.5</v>
+      </c>
+      <c r="E55" t="n">
+        <v>11.5</v>
+      </c>
+      <c r="F55" t="n">
+        <v>41123.5154</v>
+      </c>
+      <c r="G55" t="n">
+        <v>-155511.5393252753</v>
+      </c>
+      <c r="H55" t="n">
+        <v>2</v>
+      </c>
+      <c r="I55" t="n">
+        <v>11.5</v>
+      </c>
+      <c r="J55" t="n">
+        <v>11.5</v>
+      </c>
+      <c r="K55" t="inlineStr"/>
+      <c r="L55" t="n">
+        <v>1</v>
+      </c>
+      <c r="M55" t="inlineStr"/>
+    </row>
+    <row r="56">
+      <c r="A56" s="1" t="n">
+        <v>54</v>
+      </c>
+      <c r="B56" t="n">
+        <v>11.5</v>
+      </c>
+      <c r="C56" t="n">
+        <v>11.5</v>
+      </c>
+      <c r="D56" t="n">
+        <v>11.5</v>
+      </c>
+      <c r="E56" t="n">
+        <v>11.5</v>
+      </c>
+      <c r="F56" t="n">
+        <v>4347.826086956522</v>
+      </c>
+      <c r="G56" t="n">
+        <v>-155511.5393252753</v>
+      </c>
+      <c r="H56" t="n">
+        <v>2</v>
+      </c>
+      <c r="I56" t="n">
+        <v>11.5</v>
+      </c>
+      <c r="J56" t="n">
+        <v>11.5</v>
+      </c>
+      <c r="K56" t="inlineStr">
         <is>
           <t>매수 대기</t>
         </is>
       </c>
-      <c r="M26" t="n">
-        <v>1</v>
-      </c>
-      <c r="N26" t="inlineStr"/>
-    </row>
-    <row r="27">
-      <c r="A27" s="1" t="n">
-        <v>25</v>
-      </c>
-      <c r="B27" t="n">
-        <v>11.4</v>
-      </c>
-      <c r="C27" t="n">
-        <v>11.4</v>
-      </c>
-      <c r="D27" t="n">
-        <v>11.4</v>
-      </c>
-      <c r="E27" t="n">
-        <v>11.4</v>
-      </c>
-      <c r="F27" t="n">
-        <v>27211.7556</v>
-      </c>
-      <c r="G27" t="n">
-        <v>-90065.75307113433</v>
-      </c>
-      <c r="H27" t="n">
-        <v>1</v>
-      </c>
-      <c r="I27" t="n">
-        <v>0</v>
-      </c>
-      <c r="J27" t="n">
-        <v>11.3</v>
-      </c>
-      <c r="K27" t="n">
-        <v>11.3</v>
-      </c>
-      <c r="L27" t="inlineStr">
+      <c r="L56" t="n">
+        <v>1</v>
+      </c>
+      <c r="M56" t="inlineStr"/>
+    </row>
+    <row r="57">
+      <c r="A57" s="1" t="n">
+        <v>55</v>
+      </c>
+      <c r="B57" t="n">
+        <v>11.5</v>
+      </c>
+      <c r="C57" t="n">
+        <v>11.5</v>
+      </c>
+      <c r="D57" t="n">
+        <v>11.5</v>
+      </c>
+      <c r="E57" t="n">
+        <v>11.5</v>
+      </c>
+      <c r="F57" t="n">
+        <v>19712.9732</v>
+      </c>
+      <c r="G57" t="n">
+        <v>-155511.5393252753</v>
+      </c>
+      <c r="H57" t="n">
+        <v>2</v>
+      </c>
+      <c r="I57" t="n">
+        <v>11.5</v>
+      </c>
+      <c r="J57" t="n">
+        <v>11.5</v>
+      </c>
+      <c r="K57" t="inlineStr">
         <is>
           <t>매수 대기</t>
         </is>
       </c>
-      <c r="M27" t="n">
-        <v>1</v>
-      </c>
-      <c r="N27" t="inlineStr"/>
-    </row>
-    <row r="28">
-      <c r="A28" s="1" t="n">
-        <v>26</v>
-      </c>
-      <c r="B28" t="n">
-        <v>11.3</v>
-      </c>
-      <c r="C28" t="n">
-        <v>11.3</v>
-      </c>
-      <c r="D28" t="n">
-        <v>11.3</v>
-      </c>
-      <c r="E28" t="n">
-        <v>11.3</v>
-      </c>
-      <c r="F28" t="n">
-        <v>83125.51949999999</v>
-      </c>
-      <c r="G28" t="n">
-        <v>-173191.2725711343</v>
-      </c>
-      <c r="H28" t="n">
-        <v>1</v>
-      </c>
-      <c r="I28" t="n">
-        <v>0</v>
-      </c>
-      <c r="J28" t="n">
-        <v>11.4</v>
-      </c>
-      <c r="K28" t="n">
-        <v>11.4</v>
-      </c>
-      <c r="L28" t="inlineStr"/>
-      <c r="M28" t="n">
-        <v>1</v>
-      </c>
-      <c r="N28" t="inlineStr"/>
-    </row>
-    <row r="29">
-      <c r="A29" s="1" t="n">
-        <v>27</v>
-      </c>
-      <c r="B29" t="n">
-        <v>11.3</v>
-      </c>
-      <c r="C29" t="n">
-        <v>11.3</v>
-      </c>
-      <c r="D29" t="n">
-        <v>11.3</v>
-      </c>
-      <c r="E29" t="n">
-        <v>11.3</v>
-      </c>
-      <c r="F29" t="n">
-        <v>23087</v>
-      </c>
-      <c r="G29" t="n">
-        <v>-173191.2725711343</v>
-      </c>
-      <c r="H29" t="n">
-        <v>1</v>
-      </c>
-      <c r="I29" t="n">
-        <v>0</v>
-      </c>
-      <c r="J29" t="n">
-        <v>11.3</v>
-      </c>
-      <c r="K29" t="n">
-        <v>11.4</v>
-      </c>
-      <c r="L29" t="inlineStr">
+      <c r="L57" t="n">
+        <v>1</v>
+      </c>
+      <c r="M57" t="inlineStr"/>
+    </row>
+    <row r="58">
+      <c r="A58" s="1" t="n">
+        <v>56</v>
+      </c>
+      <c r="B58" t="n">
+        <v>11.5</v>
+      </c>
+      <c r="C58" t="n">
+        <v>11.5</v>
+      </c>
+      <c r="D58" t="n">
+        <v>11.5</v>
+      </c>
+      <c r="E58" t="n">
+        <v>11.5</v>
+      </c>
+      <c r="F58" t="n">
+        <v>26021.841</v>
+      </c>
+      <c r="G58" t="n">
+        <v>-155511.5393252753</v>
+      </c>
+      <c r="H58" t="n">
+        <v>2</v>
+      </c>
+      <c r="I58" t="n">
+        <v>11.5</v>
+      </c>
+      <c r="J58" t="n">
+        <v>11.5</v>
+      </c>
+      <c r="K58" t="inlineStr"/>
+      <c r="L58" t="n">
+        <v>1</v>
+      </c>
+      <c r="M58" t="inlineStr"/>
+    </row>
+    <row r="59">
+      <c r="A59" s="1" t="n">
+        <v>57</v>
+      </c>
+      <c r="B59" t="n">
+        <v>11.4</v>
+      </c>
+      <c r="C59" t="n">
+        <v>11.4</v>
+      </c>
+      <c r="D59" t="n">
+        <v>11.4</v>
+      </c>
+      <c r="E59" t="n">
+        <v>11.4</v>
+      </c>
+      <c r="F59" t="n">
+        <v>7800.302</v>
+      </c>
+      <c r="G59" t="n">
+        <v>-163311.8413252753</v>
+      </c>
+      <c r="H59" t="n">
+        <v>2</v>
+      </c>
+      <c r="I59" t="n">
+        <v>11.5</v>
+      </c>
+      <c r="J59" t="n">
+        <v>11.5</v>
+      </c>
+      <c r="K59" t="inlineStr">
         <is>
           <t>매수 대기</t>
         </is>
       </c>
-      <c r="M29" t="n">
-        <v>1</v>
-      </c>
-      <c r="N29" t="inlineStr"/>
-    </row>
-    <row r="30">
-      <c r="A30" s="1" t="n">
-        <v>28</v>
-      </c>
-      <c r="B30" t="n">
-        <v>11.4</v>
-      </c>
-      <c r="C30" t="n">
-        <v>11.4</v>
-      </c>
-      <c r="D30" t="n">
-        <v>11.4</v>
-      </c>
-      <c r="E30" t="n">
-        <v>11.4</v>
-      </c>
-      <c r="F30" t="n">
-        <v>895.9933</v>
-      </c>
-      <c r="G30" t="n">
-        <v>-172295.2792711343</v>
-      </c>
-      <c r="H30" t="n">
-        <v>1</v>
-      </c>
-      <c r="I30" t="n">
-        <v>0</v>
-      </c>
-      <c r="J30" t="n">
-        <v>11.3</v>
-      </c>
-      <c r="K30" t="n">
-        <v>11.4</v>
-      </c>
-      <c r="L30" t="inlineStr">
+      <c r="L59" t="n">
+        <v>1</v>
+      </c>
+      <c r="M59" t="inlineStr"/>
+    </row>
+    <row r="60">
+      <c r="A60" s="1" t="n">
+        <v>58</v>
+      </c>
+      <c r="B60" t="n">
+        <v>11.5</v>
+      </c>
+      <c r="C60" t="n">
+        <v>11.5</v>
+      </c>
+      <c r="D60" t="n">
+        <v>11.5</v>
+      </c>
+      <c r="E60" t="n">
+        <v>11.5</v>
+      </c>
+      <c r="F60" t="n">
+        <v>25059.84431304348</v>
+      </c>
+      <c r="G60" t="n">
+        <v>-138251.9970122318</v>
+      </c>
+      <c r="H60" t="n">
+        <v>2</v>
+      </c>
+      <c r="I60" t="n">
+        <v>11.4</v>
+      </c>
+      <c r="J60" t="n">
+        <v>11.5</v>
+      </c>
+      <c r="K60" t="inlineStr">
         <is>
           <t>매수 대기</t>
         </is>
       </c>
-      <c r="M30" t="n">
-        <v>1</v>
-      </c>
-      <c r="N30" t="inlineStr"/>
-    </row>
-    <row r="31">
-      <c r="A31" s="1" t="n">
-        <v>29</v>
-      </c>
-      <c r="B31" t="n">
-        <v>11.3</v>
-      </c>
-      <c r="C31" t="n">
-        <v>11.3</v>
-      </c>
-      <c r="D31" t="n">
-        <v>11.3</v>
-      </c>
-      <c r="E31" t="n">
-        <v>11.3</v>
-      </c>
-      <c r="F31" t="n">
-        <v>238947.7055</v>
-      </c>
-      <c r="G31" t="n">
-        <v>-411242.9847711343</v>
-      </c>
-      <c r="H31" t="n">
-        <v>1</v>
-      </c>
-      <c r="I31" t="n">
-        <v>0</v>
-      </c>
-      <c r="J31" t="n">
-        <v>11.4</v>
-      </c>
-      <c r="K31" t="n">
-        <v>11.4</v>
-      </c>
-      <c r="L31" t="inlineStr"/>
-      <c r="M31" t="n">
-        <v>1</v>
-      </c>
-      <c r="N31" t="inlineStr"/>
-    </row>
-    <row r="32">
-      <c r="A32" s="1" t="n">
-        <v>30</v>
-      </c>
-      <c r="B32" t="n">
-        <v>11.4</v>
-      </c>
-      <c r="C32" t="n">
-        <v>11.3</v>
-      </c>
-      <c r="D32" t="n">
-        <v>11.4</v>
-      </c>
-      <c r="E32" t="n">
-        <v>11.3</v>
-      </c>
-      <c r="F32" t="n">
-        <v>225.0001</v>
-      </c>
-      <c r="G32" t="n">
-        <v>-411242.9847711343</v>
-      </c>
-      <c r="H32" t="n">
-        <v>1</v>
-      </c>
-      <c r="I32" t="n">
-        <v>0</v>
-      </c>
-      <c r="J32" t="n">
-        <v>11.3</v>
-      </c>
-      <c r="K32" t="n">
-        <v>11.4</v>
-      </c>
-      <c r="L32" t="inlineStr">
-        <is>
-          <t>매수 체결</t>
-        </is>
-      </c>
-      <c r="M32" t="n">
-        <v>1</v>
-      </c>
-      <c r="N32" t="inlineStr"/>
-    </row>
-    <row r="33">
-      <c r="A33" s="1" t="n">
-        <v>31</v>
-      </c>
-      <c r="B33" t="n">
-        <v>11.3</v>
-      </c>
-      <c r="C33" t="n">
-        <v>11.3</v>
-      </c>
-      <c r="D33" t="n">
-        <v>11.3</v>
-      </c>
-      <c r="E33" t="n">
-        <v>11.3</v>
-      </c>
-      <c r="F33" t="n">
-        <v>224.9999</v>
-      </c>
-      <c r="G33" t="n">
-        <v>-411242.9847711343</v>
-      </c>
-      <c r="H33" t="n">
-        <v>1</v>
-      </c>
-      <c r="I33" t="n">
-        <v>0</v>
-      </c>
-      <c r="J33" t="n">
-        <v>11.3</v>
-      </c>
-      <c r="K33" t="n">
-        <v>11.4</v>
-      </c>
-      <c r="L33" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M33" t="n">
-        <v>1</v>
-      </c>
-      <c r="N33" t="inlineStr"/>
-    </row>
-    <row r="34">
-      <c r="A34" s="1" t="n">
-        <v>32</v>
-      </c>
-      <c r="B34" t="n">
-        <v>11.3</v>
-      </c>
-      <c r="C34" t="n">
-        <v>11.3</v>
-      </c>
-      <c r="D34" t="n">
-        <v>11.3</v>
-      </c>
-      <c r="E34" t="n">
-        <v>11.3</v>
-      </c>
-      <c r="F34" t="n">
-        <v>1196.5449</v>
-      </c>
-      <c r="G34" t="n">
-        <v>-411242.9847711343</v>
-      </c>
-      <c r="H34" t="n">
-        <v>1</v>
-      </c>
-      <c r="I34" t="n">
-        <v>0</v>
-      </c>
-      <c r="J34" t="n">
-        <v>11.3</v>
-      </c>
-      <c r="K34" t="n">
-        <v>11.4</v>
-      </c>
-      <c r="L34" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M34" t="n">
-        <v>1</v>
-      </c>
-      <c r="N34" t="inlineStr"/>
-    </row>
-    <row r="35">
-      <c r="A35" s="1" t="n">
-        <v>33</v>
-      </c>
-      <c r="B35" t="n">
-        <v>11.3</v>
-      </c>
-      <c r="C35" t="n">
-        <v>11.3</v>
-      </c>
-      <c r="D35" t="n">
-        <v>11.3</v>
-      </c>
-      <c r="E35" t="n">
-        <v>11.3</v>
-      </c>
-      <c r="F35" t="n">
-        <v>15336.6987</v>
-      </c>
-      <c r="G35" t="n">
-        <v>-411242.9847711343</v>
-      </c>
-      <c r="H35" t="n">
-        <v>1</v>
-      </c>
-      <c r="I35" t="n">
-        <v>0</v>
-      </c>
-      <c r="J35" t="n">
-        <v>11.3</v>
-      </c>
-      <c r="K35" t="n">
-        <v>11.4</v>
-      </c>
-      <c r="L35" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M35" t="n">
-        <v>1</v>
-      </c>
-      <c r="N35" t="inlineStr"/>
-    </row>
-    <row r="36">
-      <c r="A36" s="1" t="n">
-        <v>34</v>
-      </c>
-      <c r="B36" t="n">
-        <v>11.3</v>
-      </c>
-      <c r="C36" t="n">
-        <v>11.3</v>
-      </c>
-      <c r="D36" t="n">
-        <v>11.3</v>
-      </c>
-      <c r="E36" t="n">
-        <v>11.3</v>
-      </c>
-      <c r="F36" t="n">
-        <v>69635.2056</v>
-      </c>
-      <c r="G36" t="n">
-        <v>-411242.9847711343</v>
-      </c>
-      <c r="H36" t="n">
-        <v>1</v>
-      </c>
-      <c r="I36" t="n">
-        <v>0</v>
-      </c>
-      <c r="J36" t="n">
-        <v>11.3</v>
-      </c>
-      <c r="K36" t="n">
-        <v>11.4</v>
-      </c>
-      <c r="L36" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M36" t="n">
-        <v>1</v>
-      </c>
-      <c r="N36" t="inlineStr"/>
-    </row>
-    <row r="37">
-      <c r="A37" s="1" t="n">
-        <v>35</v>
-      </c>
-      <c r="B37" t="n">
-        <v>11.4</v>
-      </c>
-      <c r="C37" t="n">
-        <v>11.4</v>
-      </c>
-      <c r="D37" t="n">
-        <v>11.4</v>
-      </c>
-      <c r="E37" t="n">
-        <v>11.4</v>
-      </c>
-      <c r="F37" t="n">
-        <v>25219.6044</v>
-      </c>
-      <c r="G37" t="n">
-        <v>-386023.3803711343</v>
-      </c>
-      <c r="H37" t="n">
-        <v>1</v>
-      </c>
-      <c r="I37" t="n">
-        <v>0</v>
-      </c>
-      <c r="J37" t="n">
-        <v>11.3</v>
-      </c>
-      <c r="K37" t="n">
-        <v>11.4</v>
-      </c>
-      <c r="L37" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M37" t="n">
-        <v>1</v>
-      </c>
-      <c r="N37" t="inlineStr"/>
-    </row>
-    <row r="38">
-      <c r="A38" s="1" t="n">
-        <v>36</v>
-      </c>
-      <c r="B38" t="n">
-        <v>11.4</v>
-      </c>
-      <c r="C38" t="n">
-        <v>11.4</v>
-      </c>
-      <c r="D38" t="n">
-        <v>11.4</v>
-      </c>
-      <c r="E38" t="n">
-        <v>11.4</v>
-      </c>
-      <c r="F38" t="n">
-        <v>43750.2734</v>
-      </c>
-      <c r="G38" t="n">
-        <v>-386023.3803711343</v>
-      </c>
-      <c r="H38" t="n">
-        <v>1</v>
-      </c>
-      <c r="I38" t="n">
-        <v>0</v>
-      </c>
-      <c r="J38" t="n">
-        <v>11.4</v>
-      </c>
-      <c r="K38" t="n">
-        <v>11.4</v>
-      </c>
-      <c r="L38" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M38" t="n">
-        <v>1</v>
-      </c>
-      <c r="N38" t="inlineStr"/>
-    </row>
-    <row r="39">
-      <c r="A39" s="1" t="n">
-        <v>37</v>
-      </c>
-      <c r="B39" t="n">
-        <v>11.4</v>
-      </c>
-      <c r="C39" t="n">
-        <v>11.4</v>
-      </c>
-      <c r="D39" t="n">
-        <v>11.4</v>
-      </c>
-      <c r="E39" t="n">
-        <v>11.4</v>
-      </c>
-      <c r="F39" t="n">
-        <v>500</v>
-      </c>
-      <c r="G39" t="n">
-        <v>-386023.3803711343</v>
-      </c>
-      <c r="H39" t="n">
-        <v>1</v>
-      </c>
-      <c r="I39" t="n">
-        <v>0</v>
-      </c>
-      <c r="J39" t="n">
-        <v>11.4</v>
-      </c>
-      <c r="K39" t="n">
-        <v>11.4</v>
-      </c>
-      <c r="L39" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M39" t="n">
-        <v>1</v>
-      </c>
-      <c r="N39" t="inlineStr"/>
-    </row>
-    <row r="40">
-      <c r="A40" s="1" t="n">
-        <v>38</v>
-      </c>
-      <c r="B40" t="n">
-        <v>11.4</v>
-      </c>
-      <c r="C40" t="n">
-        <v>11.4</v>
-      </c>
-      <c r="D40" t="n">
-        <v>11.4</v>
-      </c>
-      <c r="E40" t="n">
-        <v>11.4</v>
-      </c>
-      <c r="F40" t="n">
-        <v>40191.6896</v>
-      </c>
-      <c r="G40" t="n">
-        <v>-386023.3803711343</v>
-      </c>
-      <c r="H40" t="n">
-        <v>1</v>
-      </c>
-      <c r="I40" t="n">
-        <v>0</v>
-      </c>
-      <c r="J40" t="n">
-        <v>11.4</v>
-      </c>
-      <c r="K40" t="n">
-        <v>11.4</v>
-      </c>
-      <c r="L40" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M40" t="n">
-        <v>1</v>
-      </c>
-      <c r="N40" t="inlineStr"/>
-    </row>
-    <row r="41">
-      <c r="A41" s="1" t="n">
-        <v>39</v>
-      </c>
-      <c r="B41" t="n">
-        <v>11.3</v>
-      </c>
-      <c r="C41" t="n">
-        <v>11.3</v>
-      </c>
-      <c r="D41" t="n">
-        <v>11.3</v>
-      </c>
-      <c r="E41" t="n">
-        <v>11.3</v>
-      </c>
-      <c r="F41" t="n">
-        <v>43750.2734</v>
-      </c>
-      <c r="G41" t="n">
-        <v>-429773.6537711343</v>
-      </c>
-      <c r="H41" t="n">
-        <v>1</v>
-      </c>
-      <c r="I41" t="n">
-        <v>0</v>
-      </c>
-      <c r="J41" t="n">
-        <v>11.4</v>
-      </c>
-      <c r="K41" t="n">
-        <v>11.4</v>
-      </c>
-      <c r="L41" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M41" t="n">
-        <v>1</v>
-      </c>
-      <c r="N41" t="inlineStr"/>
-    </row>
-    <row r="42">
-      <c r="A42" s="1" t="n">
-        <v>40</v>
-      </c>
-      <c r="B42" t="n">
-        <v>11.3</v>
-      </c>
-      <c r="C42" t="n">
-        <v>11.3</v>
-      </c>
-      <c r="D42" t="n">
-        <v>11.3</v>
-      </c>
-      <c r="E42" t="n">
-        <v>11.3</v>
-      </c>
-      <c r="F42" t="n">
-        <v>40191.6896</v>
-      </c>
-      <c r="G42" t="n">
-        <v>-429773.6537711343</v>
-      </c>
-      <c r="H42" t="n">
-        <v>1</v>
-      </c>
-      <c r="I42" t="n">
-        <v>0</v>
-      </c>
-      <c r="J42" t="n">
-        <v>11.3</v>
-      </c>
-      <c r="K42" t="n">
-        <v>11.4</v>
-      </c>
-      <c r="L42" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M42" t="n">
-        <v>1</v>
-      </c>
-      <c r="N42" t="inlineStr"/>
-    </row>
-    <row r="43">
-      <c r="A43" s="1" t="n">
-        <v>41</v>
-      </c>
-      <c r="B43" t="n">
-        <v>11.4</v>
-      </c>
-      <c r="C43" t="n">
-        <v>11.4</v>
-      </c>
-      <c r="D43" t="n">
-        <v>11.4</v>
-      </c>
-      <c r="E43" t="n">
-        <v>11.4</v>
-      </c>
-      <c r="F43" t="n">
-        <v>125891.237</v>
-      </c>
-      <c r="G43" t="n">
-        <v>-303882.4167711344</v>
-      </c>
-      <c r="H43" t="n">
-        <v>1</v>
-      </c>
-      <c r="I43" t="n">
-        <v>0</v>
-      </c>
-      <c r="J43" t="n">
-        <v>11.3</v>
-      </c>
-      <c r="K43" t="n">
-        <v>11.4</v>
-      </c>
-      <c r="L43" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M43" t="n">
-        <v>1</v>
-      </c>
-      <c r="N43" t="inlineStr"/>
-    </row>
-    <row r="44">
-      <c r="A44" s="1" t="n">
-        <v>42</v>
-      </c>
-      <c r="B44" t="n">
-        <v>11.3</v>
-      </c>
-      <c r="C44" t="n">
-        <v>11.3</v>
-      </c>
-      <c r="D44" t="n">
-        <v>11.3</v>
-      </c>
-      <c r="E44" t="n">
-        <v>11.3</v>
-      </c>
-      <c r="F44" t="n">
-        <v>130</v>
-      </c>
-      <c r="G44" t="n">
-        <v>-304012.4167711344</v>
-      </c>
-      <c r="H44" t="n">
-        <v>1</v>
-      </c>
-      <c r="I44" t="n">
-        <v>0</v>
-      </c>
-      <c r="J44" t="n">
-        <v>11.4</v>
-      </c>
-      <c r="K44" t="n">
-        <v>11.4</v>
-      </c>
-      <c r="L44" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M44" t="n">
-        <v>1</v>
-      </c>
-      <c r="N44" t="inlineStr"/>
-    </row>
-    <row r="45">
-      <c r="A45" s="1" t="n">
-        <v>43</v>
-      </c>
-      <c r="B45" t="n">
-        <v>11.5</v>
-      </c>
-      <c r="C45" t="n">
-        <v>11.5</v>
-      </c>
-      <c r="D45" t="n">
-        <v>11.5</v>
-      </c>
-      <c r="E45" t="n">
-        <v>11.5</v>
-      </c>
-      <c r="F45" t="n">
-        <v>50</v>
-      </c>
-      <c r="G45" t="n">
-        <v>-303962.4167711344</v>
-      </c>
-      <c r="H45" t="n">
-        <v>0</v>
-      </c>
-      <c r="I45" t="n">
-        <v>0</v>
-      </c>
-      <c r="J45" t="inlineStr"/>
-      <c r="K45" t="n">
-        <v>11.4</v>
-      </c>
-      <c r="L45" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M45" t="n">
-        <v>1</v>
-      </c>
-      <c r="N45" t="inlineStr"/>
-    </row>
-    <row r="46">
-      <c r="A46" s="1" t="n">
-        <v>44</v>
-      </c>
-      <c r="B46" t="n">
-        <v>11.5</v>
-      </c>
-      <c r="C46" t="n">
-        <v>11.5</v>
-      </c>
-      <c r="D46" t="n">
-        <v>11.5</v>
-      </c>
-      <c r="E46" t="n">
-        <v>11.5</v>
-      </c>
-      <c r="F46" t="n">
-        <v>1988.8955</v>
-      </c>
-      <c r="G46" t="n">
-        <v>-303962.4167711344</v>
-      </c>
-      <c r="H46" t="n">
-        <v>0</v>
-      </c>
-      <c r="I46" t="n">
-        <v>0</v>
-      </c>
-      <c r="J46" t="inlineStr"/>
-      <c r="K46" t="n">
-        <v>11.4</v>
-      </c>
-      <c r="L46" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M46" t="n">
-        <v>1</v>
-      </c>
-      <c r="N46" t="inlineStr"/>
-    </row>
-    <row r="47">
-      <c r="A47" s="1" t="n">
-        <v>45</v>
-      </c>
-      <c r="B47" t="n">
-        <v>11.5</v>
-      </c>
-      <c r="C47" t="n">
-        <v>11.5</v>
-      </c>
-      <c r="D47" t="n">
-        <v>11.5</v>
-      </c>
-      <c r="E47" t="n">
-        <v>11.5</v>
-      </c>
-      <c r="F47" t="n">
-        <v>8674</v>
-      </c>
-      <c r="G47" t="n">
-        <v>-303962.4167711344</v>
-      </c>
-      <c r="H47" t="n">
-        <v>0</v>
-      </c>
-      <c r="I47" t="n">
-        <v>0</v>
-      </c>
-      <c r="J47" t="inlineStr"/>
-      <c r="K47" t="n">
-        <v>11.4</v>
-      </c>
-      <c r="L47" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M47" t="n">
-        <v>1</v>
-      </c>
-      <c r="N47" t="inlineStr"/>
-    </row>
-    <row r="48">
-      <c r="A48" s="1" t="n">
-        <v>46</v>
-      </c>
-      <c r="B48" t="n">
-        <v>11.5</v>
-      </c>
-      <c r="C48" t="n">
-        <v>11.5</v>
-      </c>
-      <c r="D48" t="n">
-        <v>11.5</v>
-      </c>
-      <c r="E48" t="n">
-        <v>11.5</v>
-      </c>
-      <c r="F48" t="n">
-        <v>176183.8331</v>
-      </c>
-      <c r="G48" t="n">
-        <v>-303962.4167711344</v>
-      </c>
-      <c r="H48" t="n">
-        <v>0</v>
-      </c>
-      <c r="I48" t="n">
-        <v>0</v>
-      </c>
-      <c r="J48" t="inlineStr"/>
-      <c r="K48" t="n">
-        <v>11.4</v>
-      </c>
-      <c r="L48" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M48" t="n">
-        <v>1</v>
-      </c>
-      <c r="N48" t="inlineStr"/>
-    </row>
-    <row r="49">
-      <c r="A49" s="1" t="n">
-        <v>47</v>
-      </c>
-      <c r="B49" t="n">
-        <v>11.5</v>
-      </c>
-      <c r="C49" t="n">
-        <v>11.5</v>
-      </c>
-      <c r="D49" t="n">
-        <v>11.5</v>
-      </c>
-      <c r="E49" t="n">
-        <v>11.5</v>
-      </c>
-      <c r="F49" t="n">
-        <v>40665.2789</v>
-      </c>
-      <c r="G49" t="n">
-        <v>-303962.4167711344</v>
-      </c>
-      <c r="H49" t="n">
-        <v>0</v>
-      </c>
-      <c r="I49" t="n">
-        <v>0</v>
-      </c>
-      <c r="J49" t="inlineStr"/>
-      <c r="K49" t="n">
-        <v>11.4</v>
-      </c>
-      <c r="L49" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M49" t="n">
-        <v>1</v>
-      </c>
-      <c r="N49" t="inlineStr"/>
-    </row>
-    <row r="50">
-      <c r="A50" s="1" t="n">
-        <v>48</v>
-      </c>
-      <c r="B50" t="n">
-        <v>11.5</v>
-      </c>
-      <c r="C50" t="n">
-        <v>11.6</v>
-      </c>
-      <c r="D50" t="n">
-        <v>11.6</v>
-      </c>
-      <c r="E50" t="n">
-        <v>11.4</v>
-      </c>
-      <c r="F50" t="n">
-        <v>99911.58106551724</v>
-      </c>
-      <c r="G50" t="n">
-        <v>-204050.8357056171</v>
-      </c>
-      <c r="H50" t="n">
-        <v>0</v>
-      </c>
-      <c r="I50" t="n">
-        <v>0</v>
-      </c>
-      <c r="J50" t="inlineStr"/>
-      <c r="K50" t="n">
-        <v>11.4</v>
-      </c>
-      <c r="L50" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M50" t="n">
-        <v>1</v>
-      </c>
-      <c r="N50" t="inlineStr"/>
-    </row>
-    <row r="51">
-      <c r="A51" s="1" t="n">
-        <v>49</v>
-      </c>
-      <c r="B51" t="n">
-        <v>11.6</v>
-      </c>
-      <c r="C51" t="n">
-        <v>11.6</v>
-      </c>
-      <c r="D51" t="n">
-        <v>11.6</v>
-      </c>
-      <c r="E51" t="n">
-        <v>11.6</v>
-      </c>
-      <c r="F51" t="n">
-        <v>104002.4714</v>
-      </c>
-      <c r="G51" t="n">
-        <v>-204050.8357056171</v>
-      </c>
-      <c r="H51" t="n">
-        <v>0</v>
-      </c>
-      <c r="I51" t="n">
-        <v>0</v>
-      </c>
-      <c r="J51" t="inlineStr"/>
-      <c r="K51" t="n">
-        <v>11.4</v>
-      </c>
-      <c r="L51" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M51" t="n">
-        <v>1</v>
-      </c>
-      <c r="N51" t="inlineStr"/>
-    </row>
-    <row r="52">
-      <c r="A52" s="1" t="n">
-        <v>50</v>
-      </c>
-      <c r="B52" t="n">
-        <v>11.5</v>
-      </c>
-      <c r="C52" t="n">
-        <v>11.5</v>
-      </c>
-      <c r="D52" t="n">
-        <v>11.5</v>
-      </c>
-      <c r="E52" t="n">
-        <v>11.5</v>
-      </c>
-      <c r="F52" t="n">
-        <v>13685.4766</v>
-      </c>
-      <c r="G52" t="n">
-        <v>-217736.3123056171</v>
-      </c>
-      <c r="H52" t="n">
-        <v>0</v>
-      </c>
-      <c r="I52" t="n">
-        <v>0</v>
-      </c>
-      <c r="J52" t="inlineStr"/>
-      <c r="K52" t="n">
-        <v>11.4</v>
-      </c>
-      <c r="L52" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M52" t="n">
-        <v>1</v>
-      </c>
-      <c r="N52" t="inlineStr"/>
-    </row>
-    <row r="53">
-      <c r="A53" s="1" t="n">
-        <v>51</v>
-      </c>
-      <c r="B53" t="n">
-        <v>11.5</v>
-      </c>
-      <c r="C53" t="n">
-        <v>11.7</v>
-      </c>
-      <c r="D53" t="n">
-        <v>11.7</v>
-      </c>
-      <c r="E53" t="n">
-        <v>11.5</v>
-      </c>
-      <c r="F53" t="n">
-        <v>62854.34188034188</v>
-      </c>
-      <c r="G53" t="n">
-        <v>-154881.9704252752</v>
-      </c>
-      <c r="H53" t="n">
-        <v>0</v>
-      </c>
-      <c r="I53" t="n">
-        <v>0</v>
-      </c>
-      <c r="J53" t="inlineStr"/>
-      <c r="K53" t="n">
-        <v>11.4</v>
-      </c>
-      <c r="L53" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M53" t="n">
-        <v>1</v>
-      </c>
-      <c r="N53" t="inlineStr"/>
-    </row>
-    <row r="54">
-      <c r="A54" s="1" t="n">
-        <v>52</v>
-      </c>
-      <c r="B54" t="n">
-        <v>11.5</v>
-      </c>
-      <c r="C54" t="n">
-        <v>11.5</v>
-      </c>
-      <c r="D54" t="n">
-        <v>11.5</v>
-      </c>
-      <c r="E54" t="n">
-        <v>11.5</v>
-      </c>
-      <c r="F54" t="n">
-        <v>629.5689</v>
-      </c>
-      <c r="G54" t="n">
-        <v>-155511.5393252753</v>
-      </c>
-      <c r="H54" t="n">
-        <v>0</v>
-      </c>
-      <c r="I54" t="n">
-        <v>0</v>
-      </c>
-      <c r="J54" t="inlineStr"/>
-      <c r="K54" t="n">
-        <v>11.4</v>
-      </c>
-      <c r="L54" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M54" t="n">
-        <v>1</v>
-      </c>
-      <c r="N54" t="inlineStr"/>
-    </row>
-    <row r="55">
-      <c r="A55" s="1" t="n">
-        <v>53</v>
-      </c>
-      <c r="B55" t="n">
-        <v>11.5</v>
-      </c>
-      <c r="C55" t="n">
-        <v>11.5</v>
-      </c>
-      <c r="D55" t="n">
-        <v>11.5</v>
-      </c>
-      <c r="E55" t="n">
-        <v>11.5</v>
-      </c>
-      <c r="F55" t="n">
-        <v>41123.5154</v>
-      </c>
-      <c r="G55" t="n">
-        <v>-155511.5393252753</v>
-      </c>
-      <c r="H55" t="n">
-        <v>0</v>
-      </c>
-      <c r="I55" t="n">
-        <v>0</v>
-      </c>
-      <c r="J55" t="inlineStr"/>
-      <c r="K55" t="n">
-        <v>11.4</v>
-      </c>
-      <c r="L55" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M55" t="n">
-        <v>1</v>
-      </c>
-      <c r="N55" t="inlineStr"/>
-    </row>
-    <row r="56">
-      <c r="A56" s="1" t="n">
-        <v>54</v>
-      </c>
-      <c r="B56" t="n">
-        <v>11.5</v>
-      </c>
-      <c r="C56" t="n">
-        <v>11.5</v>
-      </c>
-      <c r="D56" t="n">
-        <v>11.5</v>
-      </c>
-      <c r="E56" t="n">
-        <v>11.5</v>
-      </c>
-      <c r="F56" t="n">
-        <v>4347.826086956522</v>
-      </c>
-      <c r="G56" t="n">
-        <v>-155511.5393252753</v>
-      </c>
-      <c r="H56" t="n">
-        <v>1</v>
-      </c>
-      <c r="I56" t="n">
-        <v>0</v>
-      </c>
-      <c r="J56" t="n">
-        <v>11.5</v>
-      </c>
-      <c r="K56" t="n">
-        <v>11.4</v>
-      </c>
-      <c r="L56" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M56" t="n">
-        <v>1</v>
-      </c>
-      <c r="N56" t="inlineStr"/>
-    </row>
-    <row r="57">
-      <c r="A57" s="1" t="n">
-        <v>55</v>
-      </c>
-      <c r="B57" t="n">
-        <v>11.5</v>
-      </c>
-      <c r="C57" t="n">
-        <v>11.5</v>
-      </c>
-      <c r="D57" t="n">
-        <v>11.5</v>
-      </c>
-      <c r="E57" t="n">
-        <v>11.5</v>
-      </c>
-      <c r="F57" t="n">
-        <v>19712.9732</v>
-      </c>
-      <c r="G57" t="n">
-        <v>-155511.5393252753</v>
-      </c>
-      <c r="H57" t="n">
-        <v>1</v>
-      </c>
-      <c r="I57" t="n">
-        <v>0</v>
-      </c>
-      <c r="J57" t="n">
-        <v>11.5</v>
-      </c>
-      <c r="K57" t="n">
-        <v>11.4</v>
-      </c>
-      <c r="L57" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M57" t="n">
-        <v>1</v>
-      </c>
-      <c r="N57" t="inlineStr"/>
-    </row>
-    <row r="58">
-      <c r="A58" s="1" t="n">
-        <v>56</v>
-      </c>
-      <c r="B58" t="n">
-        <v>11.5</v>
-      </c>
-      <c r="C58" t="n">
-        <v>11.5</v>
-      </c>
-      <c r="D58" t="n">
-        <v>11.5</v>
-      </c>
-      <c r="E58" t="n">
-        <v>11.5</v>
-      </c>
-      <c r="F58" t="n">
-        <v>26021.841</v>
-      </c>
-      <c r="G58" t="n">
-        <v>-155511.5393252753</v>
-      </c>
-      <c r="H58" t="n">
-        <v>0</v>
-      </c>
-      <c r="I58" t="n">
-        <v>0</v>
-      </c>
-      <c r="J58" t="inlineStr"/>
-      <c r="K58" t="n">
-        <v>11.4</v>
-      </c>
-      <c r="L58" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M58" t="n">
-        <v>1</v>
-      </c>
-      <c r="N58" t="inlineStr"/>
-    </row>
-    <row r="59">
-      <c r="A59" s="1" t="n">
-        <v>57</v>
-      </c>
-      <c r="B59" t="n">
-        <v>11.4</v>
-      </c>
-      <c r="C59" t="n">
-        <v>11.4</v>
-      </c>
-      <c r="D59" t="n">
-        <v>11.4</v>
-      </c>
-      <c r="E59" t="n">
-        <v>11.4</v>
-      </c>
-      <c r="F59" t="n">
-        <v>7800.302</v>
-      </c>
-      <c r="G59" t="n">
-        <v>-163311.8413252753</v>
-      </c>
-      <c r="H59" t="n">
-        <v>1</v>
-      </c>
-      <c r="I59" t="n">
-        <v>0</v>
-      </c>
-      <c r="J59" t="n">
-        <v>11.5</v>
-      </c>
-      <c r="K59" t="n">
-        <v>11.4</v>
-      </c>
-      <c r="L59" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M59" t="n">
-        <v>1</v>
-      </c>
-      <c r="N59" t="inlineStr"/>
-    </row>
-    <row r="60">
-      <c r="A60" s="1" t="n">
-        <v>58</v>
-      </c>
-      <c r="B60" t="n">
-        <v>11.5</v>
-      </c>
-      <c r="C60" t="n">
-        <v>11.5</v>
-      </c>
-      <c r="D60" t="n">
-        <v>11.5</v>
-      </c>
-      <c r="E60" t="n">
-        <v>11.5</v>
-      </c>
-      <c r="F60" t="n">
-        <v>25059.84431304348</v>
-      </c>
-      <c r="G60" t="n">
-        <v>-138251.9970122318</v>
-      </c>
-      <c r="H60" t="n">
-        <v>1</v>
-      </c>
-      <c r="I60" t="n">
-        <v>0</v>
-      </c>
-      <c r="J60" t="n">
-        <v>11.4</v>
-      </c>
-      <c r="K60" t="n">
-        <v>11.4</v>
-      </c>
-      <c r="L60" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M60" t="n">
-        <v>1</v>
-      </c>
-      <c r="N60" t="inlineStr"/>
+      <c r="L60" t="n">
+        <v>1</v>
+      </c>
+      <c r="M60" t="inlineStr"/>
     </row>
     <row r="61">
       <c r="A61" s="1" t="n">
@@ -2928,26 +2524,19 @@
         <v>-138251.9970122318</v>
       </c>
       <c r="H61" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I61" t="n">
-        <v>0</v>
+        <v>11.5</v>
       </c>
       <c r="J61" t="n">
         <v>11.5</v>
       </c>
-      <c r="K61" t="n">
-        <v>11.4</v>
-      </c>
-      <c r="L61" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M61" t="n">
-        <v>1</v>
-      </c>
-      <c r="N61" t="inlineStr"/>
+      <c r="K61" t="inlineStr"/>
+      <c r="L61" t="n">
+        <v>1</v>
+      </c>
+      <c r="M61" t="inlineStr"/>
     </row>
     <row r="62">
       <c r="A62" s="1" t="n">
@@ -2972,26 +2561,23 @@
         <v>-141493.8720122318</v>
       </c>
       <c r="H62" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I62" t="n">
-        <v>0</v>
+        <v>11.5</v>
       </c>
       <c r="J62" t="n">
         <v>11.5</v>
       </c>
-      <c r="K62" t="n">
-        <v>11.4</v>
-      </c>
-      <c r="L62" t="inlineStr">
+      <c r="K62" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매수 대기</t>
         </is>
       </c>
-      <c r="M62" t="n">
-        <v>1</v>
-      </c>
-      <c r="N62" t="inlineStr"/>
+      <c r="L62" t="n">
+        <v>1</v>
+      </c>
+      <c r="M62" t="inlineStr"/>
     </row>
     <row r="63">
       <c r="A63" s="1" t="n">
@@ -3016,26 +2602,23 @@
         <v>-141493.8720122318</v>
       </c>
       <c r="H63" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I63" t="n">
-        <v>0</v>
+        <v>11.4</v>
       </c>
       <c r="J63" t="n">
-        <v>11.4</v>
-      </c>
-      <c r="K63" t="n">
-        <v>11.4</v>
-      </c>
-      <c r="L63" t="inlineStr">
+        <v>11.5</v>
+      </c>
+      <c r="K63" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매수 대기</t>
         </is>
       </c>
-      <c r="M63" t="n">
-        <v>1</v>
-      </c>
-      <c r="N63" t="inlineStr"/>
+      <c r="L63" t="n">
+        <v>1</v>
+      </c>
+      <c r="M63" t="inlineStr"/>
     </row>
     <row r="64">
       <c r="A64" s="1" t="n">
@@ -3060,26 +2643,19 @@
         <v>-141493.8720122318</v>
       </c>
       <c r="H64" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I64" t="n">
-        <v>0</v>
+        <v>11.4</v>
       </c>
       <c r="J64" t="n">
         <v>11.4</v>
       </c>
-      <c r="K64" t="n">
-        <v>11.4</v>
-      </c>
-      <c r="L64" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M64" t="n">
-        <v>1</v>
-      </c>
-      <c r="N64" t="inlineStr"/>
+      <c r="K64" t="inlineStr"/>
+      <c r="L64" t="n">
+        <v>1</v>
+      </c>
+      <c r="M64" t="inlineStr"/>
     </row>
     <row r="65">
       <c r="A65" s="1" t="n">
@@ -3104,26 +2680,23 @@
         <v>-131936.9865122318</v>
       </c>
       <c r="H65" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I65" t="n">
-        <v>0</v>
+        <v>11.4</v>
       </c>
       <c r="J65" t="n">
         <v>11.4</v>
       </c>
-      <c r="K65" t="n">
-        <v>11.4</v>
-      </c>
-      <c r="L65" t="inlineStr">
+      <c r="K65" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매수 대기</t>
         </is>
       </c>
-      <c r="M65" t="n">
-        <v>1</v>
-      </c>
-      <c r="N65" t="inlineStr"/>
+      <c r="L65" t="n">
+        <v>1</v>
+      </c>
+      <c r="M65" t="inlineStr"/>
     </row>
     <row r="66">
       <c r="A66" s="1" t="n">
@@ -3148,26 +2721,23 @@
         <v>-131936.9865122318</v>
       </c>
       <c r="H66" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I66" t="n">
-        <v>0</v>
+        <v>11.5</v>
       </c>
       <c r="J66" t="n">
-        <v>11.5</v>
-      </c>
-      <c r="K66" t="n">
-        <v>11.4</v>
-      </c>
-      <c r="L66" t="inlineStr">
+        <v>11.4</v>
+      </c>
+      <c r="K66" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매수 대기</t>
         </is>
       </c>
-      <c r="M66" t="n">
-        <v>1</v>
-      </c>
-      <c r="N66" t="inlineStr"/>
+      <c r="L66" t="n">
+        <v>1</v>
+      </c>
+      <c r="M66" t="inlineStr"/>
     </row>
     <row r="67">
       <c r="A67" s="1" t="n">
@@ -3192,26 +2762,19 @@
         <v>-121936.9865122318</v>
       </c>
       <c r="H67" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I67" t="n">
-        <v>0</v>
+        <v>11.5</v>
       </c>
       <c r="J67" t="n">
         <v>11.5</v>
       </c>
-      <c r="K67" t="n">
-        <v>11.4</v>
-      </c>
-      <c r="L67" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M67" t="n">
-        <v>1</v>
-      </c>
-      <c r="N67" t="inlineStr"/>
+      <c r="K67" t="inlineStr"/>
+      <c r="L67" t="n">
+        <v>1</v>
+      </c>
+      <c r="M67" t="inlineStr"/>
     </row>
     <row r="68">
       <c r="A68" s="1" t="n">
@@ -3236,26 +2799,21 @@
         <v>-124836.9865122318</v>
       </c>
       <c r="H68" t="n">
-        <v>1</v>
-      </c>
-      <c r="I68" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I68" t="inlineStr"/>
       <c r="J68" t="n">
-        <v>11.6</v>
-      </c>
-      <c r="K68" t="n">
-        <v>11.4</v>
-      </c>
-      <c r="L68" t="inlineStr">
+        <v>11.5</v>
+      </c>
+      <c r="K68" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매수 대기</t>
         </is>
       </c>
-      <c r="M68" t="n">
-        <v>1</v>
-      </c>
-      <c r="N68" t="inlineStr"/>
+      <c r="L68" t="n">
+        <v>1</v>
+      </c>
+      <c r="M68" t="inlineStr"/>
     </row>
     <row r="69">
       <c r="A69" s="1" t="n">
@@ -3280,26 +2838,21 @@
         <v>-124836.9865122318</v>
       </c>
       <c r="H69" t="n">
-        <v>1</v>
-      </c>
-      <c r="I69" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I69" t="inlineStr"/>
       <c r="J69" t="n">
         <v>11.5</v>
       </c>
-      <c r="K69" t="n">
-        <v>11.4</v>
-      </c>
-      <c r="L69" t="inlineStr">
+      <c r="K69" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매수 대기</t>
         </is>
       </c>
-      <c r="M69" t="n">
-        <v>1</v>
-      </c>
-      <c r="N69" t="inlineStr"/>
+      <c r="L69" t="n">
+        <v>1</v>
+      </c>
+      <c r="M69" t="inlineStr"/>
     </row>
     <row r="70">
       <c r="A70" s="1" t="n">
@@ -3324,26 +2877,19 @@
         <v>-103916.9865122318</v>
       </c>
       <c r="H70" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I70" t="n">
-        <v>0</v>
+        <v>11.5</v>
       </c>
       <c r="J70" t="n">
         <v>11.5</v>
       </c>
-      <c r="K70" t="n">
-        <v>11.4</v>
-      </c>
-      <c r="L70" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M70" t="n">
-        <v>1</v>
-      </c>
-      <c r="N70" t="inlineStr"/>
+      <c r="K70" t="inlineStr"/>
+      <c r="L70" t="n">
+        <v>1</v>
+      </c>
+      <c r="M70" t="inlineStr"/>
     </row>
     <row r="71">
       <c r="A71" s="1" t="n">
@@ -3368,26 +2914,23 @@
         <v>-103916.9865122318</v>
       </c>
       <c r="H71" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I71" t="n">
-        <v>0</v>
+        <v>11.6</v>
       </c>
       <c r="J71" t="n">
-        <v>11.6</v>
-      </c>
-      <c r="K71" t="n">
-        <v>11.4</v>
-      </c>
-      <c r="L71" t="inlineStr">
+        <v>11.5</v>
+      </c>
+      <c r="K71" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매수 대기</t>
         </is>
       </c>
-      <c r="M71" t="n">
-        <v>1</v>
-      </c>
-      <c r="N71" t="inlineStr"/>
+      <c r="L71" t="n">
+        <v>1</v>
+      </c>
+      <c r="M71" t="inlineStr"/>
     </row>
     <row r="72">
       <c r="A72" s="1" t="n">
@@ -3412,26 +2955,23 @@
         <v>-108520.9865122318</v>
       </c>
       <c r="H72" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I72" t="n">
-        <v>0</v>
+        <v>11.6</v>
       </c>
       <c r="J72" t="n">
-        <v>11.6</v>
-      </c>
-      <c r="K72" t="n">
-        <v>11.4</v>
-      </c>
-      <c r="L72" t="inlineStr">
+        <v>11.5</v>
+      </c>
+      <c r="K72" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매수 대기</t>
         </is>
       </c>
-      <c r="M72" t="n">
-        <v>1</v>
-      </c>
-      <c r="N72" t="inlineStr"/>
+      <c r="L72" t="n">
+        <v>1</v>
+      </c>
+      <c r="M72" t="inlineStr"/>
     </row>
     <row r="73">
       <c r="A73" s="1" t="n">
@@ -3456,26 +2996,15 @@
         <v>-96799.98651223176</v>
       </c>
       <c r="H73" t="n">
-        <v>1</v>
-      </c>
-      <c r="I73" t="n">
-        <v>0</v>
-      </c>
-      <c r="J73" t="n">
-        <v>11.5</v>
-      </c>
-      <c r="K73" t="n">
-        <v>11.4</v>
-      </c>
-      <c r="L73" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M73" t="n">
-        <v>1</v>
-      </c>
-      <c r="N73" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I73" t="inlineStr"/>
+      <c r="J73" t="inlineStr"/>
+      <c r="K73" t="inlineStr"/>
+      <c r="L73" t="n">
+        <v>1</v>
+      </c>
+      <c r="M73" t="inlineStr"/>
     </row>
     <row r="74">
       <c r="A74" s="1" t="n">
@@ -3502,22 +3031,13 @@
       <c r="H74" t="n">
         <v>0</v>
       </c>
-      <c r="I74" t="n">
-        <v>0</v>
-      </c>
+      <c r="I74" t="inlineStr"/>
       <c r="J74" t="inlineStr"/>
-      <c r="K74" t="n">
-        <v>11.4</v>
-      </c>
-      <c r="L74" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M74" t="n">
-        <v>1</v>
-      </c>
-      <c r="N74" t="inlineStr"/>
+      <c r="K74" t="inlineStr"/>
+      <c r="L74" t="n">
+        <v>1</v>
+      </c>
+      <c r="M74" t="inlineStr"/>
     </row>
     <row r="75">
       <c r="A75" s="1" t="n">
@@ -3542,26 +3062,15 @@
         <v>-58081.98651223176</v>
       </c>
       <c r="H75" t="n">
-        <v>1</v>
-      </c>
-      <c r="I75" t="n">
-        <v>0</v>
-      </c>
-      <c r="J75" t="n">
-        <v>11.5</v>
-      </c>
-      <c r="K75" t="n">
-        <v>11.4</v>
-      </c>
-      <c r="L75" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M75" t="n">
-        <v>1</v>
-      </c>
-      <c r="N75" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I75" t="inlineStr"/>
+      <c r="J75" t="inlineStr"/>
+      <c r="K75" t="inlineStr"/>
+      <c r="L75" t="n">
+        <v>1</v>
+      </c>
+      <c r="M75" t="inlineStr"/>
     </row>
     <row r="76">
       <c r="A76" s="1" t="n">
@@ -3586,24 +3095,19 @@
         <v>-58081.98651223176</v>
       </c>
       <c r="H76" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I76" t="n">
-        <v>0</v>
-      </c>
-      <c r="J76" t="inlineStr"/>
-      <c r="K76" t="n">
-        <v>11.4</v>
-      </c>
-      <c r="L76" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M76" t="n">
-        <v>1</v>
-      </c>
-      <c r="N76" t="inlineStr"/>
+        <v>11.6</v>
+      </c>
+      <c r="J76" t="n">
+        <v>11.6</v>
+      </c>
+      <c r="K76" t="inlineStr"/>
+      <c r="L76" t="n">
+        <v>1</v>
+      </c>
+      <c r="M76" t="inlineStr"/>
     </row>
     <row r="77">
       <c r="A77" s="1" t="n">
@@ -3630,22 +3134,19 @@
       <c r="H77" t="n">
         <v>0</v>
       </c>
-      <c r="I77" t="n">
-        <v>0</v>
-      </c>
-      <c r="J77" t="inlineStr"/>
-      <c r="K77" t="n">
-        <v>11.4</v>
-      </c>
-      <c r="L77" t="inlineStr">
+      <c r="I77" t="inlineStr"/>
+      <c r="J77" t="n">
+        <v>11.6</v>
+      </c>
+      <c r="K77" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매수 대기</t>
         </is>
       </c>
-      <c r="M77" t="n">
-        <v>1</v>
-      </c>
-      <c r="N77" t="inlineStr"/>
+      <c r="L77" t="n">
+        <v>1</v>
+      </c>
+      <c r="M77" t="inlineStr"/>
     </row>
     <row r="78">
       <c r="A78" s="1" t="n">
@@ -3672,22 +3173,19 @@
       <c r="H78" t="n">
         <v>0</v>
       </c>
-      <c r="I78" t="n">
-        <v>0</v>
-      </c>
-      <c r="J78" t="inlineStr"/>
-      <c r="K78" t="n">
-        <v>11.4</v>
-      </c>
-      <c r="L78" t="inlineStr">
+      <c r="I78" t="inlineStr"/>
+      <c r="J78" t="n">
+        <v>11.6</v>
+      </c>
+      <c r="K78" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매수 대기</t>
         </is>
       </c>
-      <c r="M78" t="n">
-        <v>1</v>
-      </c>
-      <c r="N78" t="inlineStr"/>
+      <c r="L78" t="n">
+        <v>1</v>
+      </c>
+      <c r="M78" t="inlineStr"/>
     </row>
     <row r="79">
       <c r="A79" s="1" t="n">
@@ -3714,22 +3212,13 @@
       <c r="H79" t="n">
         <v>0</v>
       </c>
-      <c r="I79" t="n">
-        <v>0</v>
-      </c>
+      <c r="I79" t="inlineStr"/>
       <c r="J79" t="inlineStr"/>
-      <c r="K79" t="n">
-        <v>11.4</v>
-      </c>
-      <c r="L79" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M79" t="n">
-        <v>1</v>
-      </c>
-      <c r="N79" t="inlineStr"/>
+      <c r="K79" t="inlineStr"/>
+      <c r="L79" t="n">
+        <v>1</v>
+      </c>
+      <c r="M79" t="inlineStr"/>
     </row>
     <row r="80">
       <c r="A80" s="1" t="n">
@@ -3756,22 +3245,13 @@
       <c r="H80" t="n">
         <v>0</v>
       </c>
-      <c r="I80" t="n">
-        <v>0</v>
-      </c>
+      <c r="I80" t="inlineStr"/>
       <c r="J80" t="inlineStr"/>
-      <c r="K80" t="n">
-        <v>11.4</v>
-      </c>
-      <c r="L80" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M80" t="n">
-        <v>1</v>
-      </c>
-      <c r="N80" t="inlineStr"/>
+      <c r="K80" t="inlineStr"/>
+      <c r="L80" t="n">
+        <v>1</v>
+      </c>
+      <c r="M80" t="inlineStr"/>
     </row>
     <row r="81">
       <c r="A81" s="1" t="n">
@@ -3798,22 +3278,13 @@
       <c r="H81" t="n">
         <v>0</v>
       </c>
-      <c r="I81" t="n">
-        <v>0</v>
-      </c>
+      <c r="I81" t="inlineStr"/>
       <c r="J81" t="inlineStr"/>
-      <c r="K81" t="n">
-        <v>11.4</v>
-      </c>
-      <c r="L81" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M81" t="n">
-        <v>1</v>
-      </c>
-      <c r="N81" t="inlineStr"/>
+      <c r="K81" t="inlineStr"/>
+      <c r="L81" t="n">
+        <v>1</v>
+      </c>
+      <c r="M81" t="inlineStr"/>
     </row>
     <row r="82">
       <c r="A82" s="1" t="n">
@@ -3840,22 +3311,13 @@
       <c r="H82" t="n">
         <v>0</v>
       </c>
-      <c r="I82" t="n">
-        <v>0</v>
-      </c>
+      <c r="I82" t="inlineStr"/>
       <c r="J82" t="inlineStr"/>
-      <c r="K82" t="n">
-        <v>11.4</v>
-      </c>
-      <c r="L82" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M82" t="n">
-        <v>1</v>
-      </c>
-      <c r="N82" t="inlineStr"/>
+      <c r="K82" t="inlineStr"/>
+      <c r="L82" t="n">
+        <v>1</v>
+      </c>
+      <c r="M82" t="inlineStr"/>
     </row>
     <row r="83">
       <c r="A83" s="1" t="n">
@@ -3882,22 +3344,13 @@
       <c r="H83" t="n">
         <v>0</v>
       </c>
-      <c r="I83" t="n">
-        <v>0</v>
-      </c>
+      <c r="I83" t="inlineStr"/>
       <c r="J83" t="inlineStr"/>
-      <c r="K83" t="n">
-        <v>11.4</v>
-      </c>
-      <c r="L83" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M83" t="n">
-        <v>1</v>
-      </c>
-      <c r="N83" t="inlineStr"/>
+      <c r="K83" t="inlineStr"/>
+      <c r="L83" t="n">
+        <v>1</v>
+      </c>
+      <c r="M83" t="inlineStr"/>
     </row>
     <row r="84">
       <c r="A84" s="1" t="n">
@@ -3922,24 +3375,19 @@
         <v>-48404.22191223176</v>
       </c>
       <c r="H84" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I84" t="n">
-        <v>0</v>
-      </c>
-      <c r="J84" t="inlineStr"/>
-      <c r="K84" t="n">
-        <v>11.4</v>
-      </c>
-      <c r="L84" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M84" t="n">
-        <v>1</v>
-      </c>
-      <c r="N84" t="inlineStr"/>
+        <v>11.6</v>
+      </c>
+      <c r="J84" t="n">
+        <v>11.6</v>
+      </c>
+      <c r="K84" t="inlineStr"/>
+      <c r="L84" t="n">
+        <v>1</v>
+      </c>
+      <c r="M84" t="inlineStr"/>
     </row>
     <row r="85">
       <c r="A85" s="1" t="n">
@@ -3964,24 +3412,23 @@
         <v>-48404.22191223176</v>
       </c>
       <c r="H85" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I85" t="n">
-        <v>0</v>
-      </c>
-      <c r="J85" t="inlineStr"/>
-      <c r="K85" t="n">
-        <v>11.4</v>
-      </c>
-      <c r="L85" t="inlineStr">
+        <v>11.6</v>
+      </c>
+      <c r="J85" t="n">
+        <v>11.6</v>
+      </c>
+      <c r="K85" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매수 대기</t>
         </is>
       </c>
-      <c r="M85" t="n">
-        <v>1</v>
-      </c>
-      <c r="N85" t="inlineStr"/>
+      <c r="L85" t="n">
+        <v>1</v>
+      </c>
+      <c r="M85" t="inlineStr"/>
     </row>
     <row r="86">
       <c r="A86" s="1" t="n">
@@ -4006,24 +3453,23 @@
         <v>-88071.25421223175</v>
       </c>
       <c r="H86" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I86" t="n">
-        <v>0</v>
-      </c>
-      <c r="J86" t="inlineStr"/>
-      <c r="K86" t="n">
-        <v>11.4</v>
-      </c>
-      <c r="L86" t="inlineStr">
+        <v>11.6</v>
+      </c>
+      <c r="J86" t="n">
+        <v>11.6</v>
+      </c>
+      <c r="K86" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매수 대기</t>
         </is>
       </c>
-      <c r="M86" t="n">
-        <v>1</v>
-      </c>
-      <c r="N86" t="inlineStr"/>
+      <c r="L86" t="n">
+        <v>1</v>
+      </c>
+      <c r="M86" t="inlineStr"/>
     </row>
     <row r="87">
       <c r="A87" s="1" t="n">
@@ -4048,24 +3494,19 @@
         <v>-75622.43641223175</v>
       </c>
       <c r="H87" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I87" t="n">
-        <v>0</v>
-      </c>
-      <c r="J87" t="inlineStr"/>
-      <c r="K87" t="n">
-        <v>11.4</v>
-      </c>
-      <c r="L87" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M87" t="n">
-        <v>1</v>
-      </c>
-      <c r="N87" t="inlineStr"/>
+        <v>11.5</v>
+      </c>
+      <c r="J87" t="n">
+        <v>11.5</v>
+      </c>
+      <c r="K87" t="inlineStr"/>
+      <c r="L87" t="n">
+        <v>1</v>
+      </c>
+      <c r="M87" t="inlineStr"/>
     </row>
     <row r="88">
       <c r="A88" s="1" t="n">
@@ -4090,24 +3531,23 @@
         <v>-75622.43641223175</v>
       </c>
       <c r="H88" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I88" t="n">
-        <v>0</v>
-      </c>
-      <c r="J88" t="inlineStr"/>
-      <c r="K88" t="n">
-        <v>11.4</v>
-      </c>
-      <c r="L88" t="inlineStr">
+        <v>11.7</v>
+      </c>
+      <c r="J88" t="n">
+        <v>11.5</v>
+      </c>
+      <c r="K88" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매수 대기</t>
         </is>
       </c>
-      <c r="M88" t="n">
-        <v>1</v>
-      </c>
-      <c r="N88" t="inlineStr"/>
+      <c r="L88" t="n">
+        <v>1</v>
+      </c>
+      <c r="M88" t="inlineStr"/>
     </row>
     <row r="89">
       <c r="A89" s="1" t="n">
@@ -4132,24 +3572,23 @@
         <v>-94473.31741223176</v>
       </c>
       <c r="H89" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I89" t="n">
-        <v>0</v>
-      </c>
-      <c r="J89" t="inlineStr"/>
-      <c r="K89" t="n">
-        <v>11.4</v>
-      </c>
-      <c r="L89" t="inlineStr">
+        <v>11.7</v>
+      </c>
+      <c r="J89" t="n">
+        <v>11.5</v>
+      </c>
+      <c r="K89" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매수 대기</t>
         </is>
       </c>
-      <c r="M89" t="n">
-        <v>1</v>
-      </c>
-      <c r="N89" t="inlineStr"/>
+      <c r="L89" t="n">
+        <v>1</v>
+      </c>
+      <c r="M89" t="inlineStr"/>
     </row>
     <row r="90">
       <c r="A90" s="1" t="n">
@@ -4174,24 +3613,19 @@
         <v>-94473.31741223176</v>
       </c>
       <c r="H90" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I90" t="n">
-        <v>0</v>
-      </c>
-      <c r="J90" t="inlineStr"/>
-      <c r="K90" t="n">
-        <v>11.4</v>
-      </c>
-      <c r="L90" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M90" t="n">
-        <v>1</v>
-      </c>
-      <c r="N90" t="inlineStr"/>
+        <v>11.6</v>
+      </c>
+      <c r="J90" t="n">
+        <v>11.6</v>
+      </c>
+      <c r="K90" t="inlineStr"/>
+      <c r="L90" t="n">
+        <v>1</v>
+      </c>
+      <c r="M90" t="inlineStr"/>
     </row>
     <row r="91">
       <c r="A91" s="1" t="n">
@@ -4216,24 +3650,23 @@
         <v>-94473.31741223176</v>
       </c>
       <c r="H91" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I91" t="n">
-        <v>0</v>
-      </c>
-      <c r="J91" t="inlineStr"/>
-      <c r="K91" t="n">
-        <v>11.4</v>
-      </c>
-      <c r="L91" t="inlineStr">
+        <v>11.6</v>
+      </c>
+      <c r="J91" t="n">
+        <v>11.6</v>
+      </c>
+      <c r="K91" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매수 대기</t>
         </is>
       </c>
-      <c r="M91" t="n">
-        <v>1</v>
-      </c>
-      <c r="N91" t="inlineStr"/>
+      <c r="L91" t="n">
+        <v>1</v>
+      </c>
+      <c r="M91" t="inlineStr"/>
     </row>
     <row r="92">
       <c r="A92" s="1" t="n">
@@ -4258,24 +3691,23 @@
         <v>-8506.499512231763</v>
       </c>
       <c r="H92" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I92" t="n">
-        <v>0</v>
-      </c>
-      <c r="J92" t="inlineStr"/>
-      <c r="K92" t="n">
-        <v>11.4</v>
-      </c>
-      <c r="L92" t="inlineStr">
+        <v>11.6</v>
+      </c>
+      <c r="J92" t="n">
+        <v>11.6</v>
+      </c>
+      <c r="K92" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매수 대기</t>
         </is>
       </c>
-      <c r="M92" t="n">
-        <v>1</v>
-      </c>
-      <c r="N92" t="inlineStr"/>
+      <c r="L92" t="n">
+        <v>1</v>
+      </c>
+      <c r="M92" t="inlineStr"/>
     </row>
     <row r="93">
       <c r="A93" s="1" t="n">
@@ -4302,22 +3734,13 @@
       <c r="H93" t="n">
         <v>0</v>
       </c>
-      <c r="I93" t="n">
-        <v>0</v>
-      </c>
+      <c r="I93" t="inlineStr"/>
       <c r="J93" t="inlineStr"/>
-      <c r="K93" t="n">
-        <v>11.4</v>
-      </c>
-      <c r="L93" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M93" t="n">
-        <v>1</v>
-      </c>
-      <c r="N93" t="inlineStr"/>
+      <c r="K93" t="inlineStr"/>
+      <c r="L93" t="n">
+        <v>1</v>
+      </c>
+      <c r="M93" t="inlineStr"/>
     </row>
     <row r="94">
       <c r="A94" s="1" t="n">
@@ -4344,22 +3767,13 @@
       <c r="H94" t="n">
         <v>0</v>
       </c>
-      <c r="I94" t="n">
-        <v>0</v>
-      </c>
+      <c r="I94" t="inlineStr"/>
       <c r="J94" t="inlineStr"/>
-      <c r="K94" t="n">
-        <v>11.4</v>
-      </c>
-      <c r="L94" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M94" t="n">
-        <v>1</v>
-      </c>
-      <c r="N94" t="inlineStr"/>
+      <c r="K94" t="inlineStr"/>
+      <c r="L94" t="n">
+        <v>1</v>
+      </c>
+      <c r="M94" t="inlineStr"/>
     </row>
     <row r="95">
       <c r="A95" s="1" t="n">
@@ -4386,22 +3800,13 @@
       <c r="H95" t="n">
         <v>0</v>
       </c>
-      <c r="I95" t="n">
-        <v>0</v>
-      </c>
+      <c r="I95" t="inlineStr"/>
       <c r="J95" t="inlineStr"/>
-      <c r="K95" t="n">
-        <v>11.4</v>
-      </c>
-      <c r="L95" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M95" t="n">
-        <v>1</v>
-      </c>
-      <c r="N95" t="inlineStr"/>
+      <c r="K95" t="inlineStr"/>
+      <c r="L95" t="n">
+        <v>1</v>
+      </c>
+      <c r="M95" t="inlineStr"/>
     </row>
     <row r="96">
       <c r="A96" s="1" t="n">
@@ -4428,22 +3833,13 @@
       <c r="H96" t="n">
         <v>0</v>
       </c>
-      <c r="I96" t="n">
-        <v>0</v>
-      </c>
+      <c r="I96" t="inlineStr"/>
       <c r="J96" t="inlineStr"/>
-      <c r="K96" t="n">
-        <v>11.4</v>
-      </c>
-      <c r="L96" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M96" t="n">
-        <v>1</v>
-      </c>
-      <c r="N96" t="inlineStr"/>
+      <c r="K96" t="inlineStr"/>
+      <c r="L96" t="n">
+        <v>1</v>
+      </c>
+      <c r="M96" t="inlineStr"/>
     </row>
     <row r="97">
       <c r="A97" s="1" t="n">
@@ -4470,22 +3866,13 @@
       <c r="H97" t="n">
         <v>0</v>
       </c>
-      <c r="I97" t="n">
-        <v>0</v>
-      </c>
+      <c r="I97" t="inlineStr"/>
       <c r="J97" t="inlineStr"/>
-      <c r="K97" t="n">
-        <v>11.4</v>
-      </c>
-      <c r="L97" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M97" t="n">
-        <v>1</v>
-      </c>
-      <c r="N97" t="inlineStr"/>
+      <c r="K97" t="inlineStr"/>
+      <c r="L97" t="n">
+        <v>1</v>
+      </c>
+      <c r="M97" t="inlineStr"/>
     </row>
     <row r="98">
       <c r="A98" s="1" t="n">
@@ -4512,22 +3899,13 @@
       <c r="H98" t="n">
         <v>0</v>
       </c>
-      <c r="I98" t="n">
-        <v>0</v>
-      </c>
+      <c r="I98" t="inlineStr"/>
       <c r="J98" t="inlineStr"/>
-      <c r="K98" t="n">
-        <v>11.4</v>
-      </c>
-      <c r="L98" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M98" t="n">
-        <v>1</v>
-      </c>
-      <c r="N98" t="inlineStr"/>
+      <c r="K98" t="inlineStr"/>
+      <c r="L98" t="n">
+        <v>1</v>
+      </c>
+      <c r="M98" t="inlineStr"/>
     </row>
     <row r="99">
       <c r="A99" s="1" t="n">
@@ -4554,22 +3932,13 @@
       <c r="H99" t="n">
         <v>0</v>
       </c>
-      <c r="I99" t="n">
-        <v>0</v>
-      </c>
+      <c r="I99" t="inlineStr"/>
       <c r="J99" t="inlineStr"/>
-      <c r="K99" t="n">
-        <v>11.4</v>
-      </c>
-      <c r="L99" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M99" t="n">
-        <v>1</v>
-      </c>
-      <c r="N99" t="inlineStr"/>
+      <c r="K99" t="inlineStr"/>
+      <c r="L99" t="n">
+        <v>1</v>
+      </c>
+      <c r="M99" t="inlineStr"/>
     </row>
     <row r="100">
       <c r="A100" s="1" t="n">
@@ -4596,22 +3965,13 @@
       <c r="H100" t="n">
         <v>0</v>
       </c>
-      <c r="I100" t="n">
-        <v>0</v>
-      </c>
+      <c r="I100" t="inlineStr"/>
       <c r="J100" t="inlineStr"/>
-      <c r="K100" t="n">
-        <v>11.4</v>
-      </c>
-      <c r="L100" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M100" t="n">
-        <v>1</v>
-      </c>
-      <c r="N100" t="inlineStr"/>
+      <c r="K100" t="inlineStr"/>
+      <c r="L100" t="n">
+        <v>1</v>
+      </c>
+      <c r="M100" t="inlineStr"/>
     </row>
     <row r="101">
       <c r="A101" s="1" t="n">
@@ -4638,22 +3998,13 @@
       <c r="H101" t="n">
         <v>0</v>
       </c>
-      <c r="I101" t="n">
-        <v>0</v>
-      </c>
+      <c r="I101" t="inlineStr"/>
       <c r="J101" t="inlineStr"/>
-      <c r="K101" t="n">
-        <v>11.4</v>
-      </c>
-      <c r="L101" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M101" t="n">
-        <v>1</v>
-      </c>
-      <c r="N101" t="inlineStr"/>
+      <c r="K101" t="inlineStr"/>
+      <c r="L101" t="n">
+        <v>1</v>
+      </c>
+      <c r="M101" t="inlineStr"/>
     </row>
     <row r="102">
       <c r="A102" s="1" t="n">
@@ -4680,22 +4031,13 @@
       <c r="H102" t="n">
         <v>0</v>
       </c>
-      <c r="I102" t="n">
-        <v>0</v>
-      </c>
+      <c r="I102" t="inlineStr"/>
       <c r="J102" t="inlineStr"/>
-      <c r="K102" t="n">
-        <v>11.4</v>
-      </c>
-      <c r="L102" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M102" t="n">
-        <v>1</v>
-      </c>
-      <c r="N102" t="inlineStr"/>
+      <c r="K102" t="inlineStr"/>
+      <c r="L102" t="n">
+        <v>1</v>
+      </c>
+      <c r="M102" t="inlineStr"/>
     </row>
     <row r="103">
       <c r="A103" s="1" t="n">
@@ -4722,22 +4064,13 @@
       <c r="H103" t="n">
         <v>0</v>
       </c>
-      <c r="I103" t="n">
-        <v>0</v>
-      </c>
+      <c r="I103" t="inlineStr"/>
       <c r="J103" t="inlineStr"/>
-      <c r="K103" t="n">
-        <v>11.4</v>
-      </c>
-      <c r="L103" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M103" t="n">
-        <v>1</v>
-      </c>
-      <c r="N103" t="inlineStr"/>
+      <c r="K103" t="inlineStr"/>
+      <c r="L103" t="n">
+        <v>1</v>
+      </c>
+      <c r="M103" t="inlineStr"/>
     </row>
     <row r="104">
       <c r="A104" s="1" t="n">
@@ -4764,22 +4097,13 @@
       <c r="H104" t="n">
         <v>0</v>
       </c>
-      <c r="I104" t="n">
-        <v>0</v>
-      </c>
+      <c r="I104" t="inlineStr"/>
       <c r="J104" t="inlineStr"/>
-      <c r="K104" t="n">
-        <v>11.4</v>
-      </c>
-      <c r="L104" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M104" t="n">
-        <v>1</v>
-      </c>
-      <c r="N104" t="inlineStr"/>
+      <c r="K104" t="inlineStr"/>
+      <c r="L104" t="n">
+        <v>1</v>
+      </c>
+      <c r="M104" t="inlineStr"/>
     </row>
     <row r="105">
       <c r="A105" s="1" t="n">
@@ -4806,22 +4130,13 @@
       <c r="H105" t="n">
         <v>0</v>
       </c>
-      <c r="I105" t="n">
-        <v>0</v>
-      </c>
+      <c r="I105" t="inlineStr"/>
       <c r="J105" t="inlineStr"/>
-      <c r="K105" t="n">
-        <v>11.4</v>
-      </c>
-      <c r="L105" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M105" t="n">
-        <v>1</v>
-      </c>
-      <c r="N105" t="inlineStr"/>
+      <c r="K105" t="inlineStr"/>
+      <c r="L105" t="n">
+        <v>1</v>
+      </c>
+      <c r="M105" t="inlineStr"/>
     </row>
     <row r="106">
       <c r="A106" s="1" t="n">
@@ -4848,22 +4163,13 @@
       <c r="H106" t="n">
         <v>0</v>
       </c>
-      <c r="I106" t="n">
-        <v>0</v>
-      </c>
+      <c r="I106" t="inlineStr"/>
       <c r="J106" t="inlineStr"/>
-      <c r="K106" t="n">
-        <v>11.4</v>
-      </c>
-      <c r="L106" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M106" t="n">
-        <v>1</v>
-      </c>
-      <c r="N106" t="inlineStr"/>
+      <c r="K106" t="inlineStr"/>
+      <c r="L106" t="n">
+        <v>1</v>
+      </c>
+      <c r="M106" t="inlineStr"/>
     </row>
     <row r="107">
       <c r="A107" s="1" t="n">
@@ -4890,22 +4196,13 @@
       <c r="H107" t="n">
         <v>0</v>
       </c>
-      <c r="I107" t="n">
-        <v>0</v>
-      </c>
+      <c r="I107" t="inlineStr"/>
       <c r="J107" t="inlineStr"/>
-      <c r="K107" t="n">
-        <v>11.4</v>
-      </c>
-      <c r="L107" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M107" t="n">
-        <v>1</v>
-      </c>
-      <c r="N107" t="inlineStr"/>
+      <c r="K107" t="inlineStr"/>
+      <c r="L107" t="n">
+        <v>1</v>
+      </c>
+      <c r="M107" t="inlineStr"/>
     </row>
     <row r="108">
       <c r="A108" s="1" t="n">
@@ -4932,22 +4229,13 @@
       <c r="H108" t="n">
         <v>0</v>
       </c>
-      <c r="I108" t="n">
-        <v>0</v>
-      </c>
+      <c r="I108" t="inlineStr"/>
       <c r="J108" t="inlineStr"/>
-      <c r="K108" t="n">
-        <v>11.4</v>
-      </c>
-      <c r="L108" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M108" t="n">
-        <v>1</v>
-      </c>
-      <c r="N108" t="inlineStr"/>
+      <c r="K108" t="inlineStr"/>
+      <c r="L108" t="n">
+        <v>1</v>
+      </c>
+      <c r="M108" t="inlineStr"/>
     </row>
     <row r="109">
       <c r="A109" s="1" t="n">
@@ -4974,22 +4262,13 @@
       <c r="H109" t="n">
         <v>0</v>
       </c>
-      <c r="I109" t="n">
-        <v>0</v>
-      </c>
+      <c r="I109" t="inlineStr"/>
       <c r="J109" t="inlineStr"/>
-      <c r="K109" t="n">
-        <v>11.4</v>
-      </c>
-      <c r="L109" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M109" t="n">
-        <v>1</v>
-      </c>
-      <c r="N109" t="inlineStr"/>
+      <c r="K109" t="inlineStr"/>
+      <c r="L109" t="n">
+        <v>1</v>
+      </c>
+      <c r="M109" t="inlineStr"/>
     </row>
     <row r="110">
       <c r="A110" s="1" t="n">
@@ -5016,22 +4295,13 @@
       <c r="H110" t="n">
         <v>0</v>
       </c>
-      <c r="I110" t="n">
-        <v>0</v>
-      </c>
+      <c r="I110" t="inlineStr"/>
       <c r="J110" t="inlineStr"/>
-      <c r="K110" t="n">
-        <v>11.4</v>
-      </c>
-      <c r="L110" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M110" t="n">
-        <v>1</v>
-      </c>
-      <c r="N110" t="inlineStr"/>
+      <c r="K110" t="inlineStr"/>
+      <c r="L110" t="n">
+        <v>1</v>
+      </c>
+      <c r="M110" t="inlineStr"/>
     </row>
     <row r="111">
       <c r="A111" s="1" t="n">
@@ -5058,22 +4328,13 @@
       <c r="H111" t="n">
         <v>0</v>
       </c>
-      <c r="I111" t="n">
-        <v>0</v>
-      </c>
+      <c r="I111" t="inlineStr"/>
       <c r="J111" t="inlineStr"/>
-      <c r="K111" t="n">
-        <v>11.4</v>
-      </c>
-      <c r="L111" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M111" t="n">
-        <v>1</v>
-      </c>
-      <c r="N111" t="inlineStr"/>
+      <c r="K111" t="inlineStr"/>
+      <c r="L111" t="n">
+        <v>1</v>
+      </c>
+      <c r="M111" t="inlineStr"/>
     </row>
     <row r="112">
       <c r="A112" s="1" t="n">
@@ -5100,22 +4361,13 @@
       <c r="H112" t="n">
         <v>0</v>
       </c>
-      <c r="I112" t="n">
-        <v>0</v>
-      </c>
+      <c r="I112" t="inlineStr"/>
       <c r="J112" t="inlineStr"/>
-      <c r="K112" t="n">
-        <v>11.4</v>
-      </c>
-      <c r="L112" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M112" t="n">
-        <v>1</v>
-      </c>
-      <c r="N112" t="inlineStr"/>
+      <c r="K112" t="inlineStr"/>
+      <c r="L112" t="n">
+        <v>1</v>
+      </c>
+      <c r="M112" t="inlineStr"/>
     </row>
     <row r="113">
       <c r="A113" s="1" t="n">
@@ -5142,22 +4394,13 @@
       <c r="H113" t="n">
         <v>0</v>
       </c>
-      <c r="I113" t="n">
-        <v>0</v>
-      </c>
+      <c r="I113" t="inlineStr"/>
       <c r="J113" t="inlineStr"/>
-      <c r="K113" t="n">
-        <v>11.4</v>
-      </c>
-      <c r="L113" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M113" t="n">
-        <v>1</v>
-      </c>
-      <c r="N113" t="inlineStr"/>
+      <c r="K113" t="inlineStr"/>
+      <c r="L113" t="n">
+        <v>1</v>
+      </c>
+      <c r="M113" t="inlineStr"/>
     </row>
     <row r="114">
       <c r="A114" s="1" t="n">
@@ -5184,22 +4427,13 @@
       <c r="H114" t="n">
         <v>0</v>
       </c>
-      <c r="I114" t="n">
-        <v>0</v>
-      </c>
+      <c r="I114" t="inlineStr"/>
       <c r="J114" t="inlineStr"/>
-      <c r="K114" t="n">
-        <v>11.4</v>
-      </c>
-      <c r="L114" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M114" t="n">
-        <v>1</v>
-      </c>
-      <c r="N114" t="inlineStr"/>
+      <c r="K114" t="inlineStr"/>
+      <c r="L114" t="n">
+        <v>1</v>
+      </c>
+      <c r="M114" t="inlineStr"/>
     </row>
     <row r="115">
       <c r="A115" s="1" t="n">
@@ -5226,22 +4460,13 @@
       <c r="H115" t="n">
         <v>0</v>
       </c>
-      <c r="I115" t="n">
-        <v>0</v>
-      </c>
+      <c r="I115" t="inlineStr"/>
       <c r="J115" t="inlineStr"/>
-      <c r="K115" t="n">
-        <v>11.4</v>
-      </c>
-      <c r="L115" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M115" t="n">
-        <v>1</v>
-      </c>
-      <c r="N115" t="inlineStr"/>
+      <c r="K115" t="inlineStr"/>
+      <c r="L115" t="n">
+        <v>1</v>
+      </c>
+      <c r="M115" t="inlineStr"/>
     </row>
     <row r="116">
       <c r="A116" s="1" t="n">
@@ -5268,22 +4493,13 @@
       <c r="H116" t="n">
         <v>0</v>
       </c>
-      <c r="I116" t="n">
-        <v>0</v>
-      </c>
+      <c r="I116" t="inlineStr"/>
       <c r="J116" t="inlineStr"/>
-      <c r="K116" t="n">
-        <v>11.4</v>
-      </c>
-      <c r="L116" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M116" t="n">
-        <v>1</v>
-      </c>
-      <c r="N116" t="inlineStr"/>
+      <c r="K116" t="inlineStr"/>
+      <c r="L116" t="n">
+        <v>1</v>
+      </c>
+      <c r="M116" t="inlineStr"/>
     </row>
     <row r="117">
       <c r="A117" s="1" t="n">
@@ -5310,22 +4526,13 @@
       <c r="H117" t="n">
         <v>0</v>
       </c>
-      <c r="I117" t="n">
-        <v>0</v>
-      </c>
+      <c r="I117" t="inlineStr"/>
       <c r="J117" t="inlineStr"/>
-      <c r="K117" t="n">
-        <v>11.4</v>
-      </c>
-      <c r="L117" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M117" t="n">
-        <v>1</v>
-      </c>
-      <c r="N117" t="inlineStr"/>
+      <c r="K117" t="inlineStr"/>
+      <c r="L117" t="n">
+        <v>1</v>
+      </c>
+      <c r="M117" t="inlineStr"/>
     </row>
     <row r="118">
       <c r="A118" s="1" t="n">
@@ -5352,22 +4559,13 @@
       <c r="H118" t="n">
         <v>0</v>
       </c>
-      <c r="I118" t="n">
-        <v>0</v>
-      </c>
+      <c r="I118" t="inlineStr"/>
       <c r="J118" t="inlineStr"/>
-      <c r="K118" t="n">
-        <v>11.4</v>
-      </c>
-      <c r="L118" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M118" t="n">
-        <v>1</v>
-      </c>
-      <c r="N118" t="inlineStr"/>
+      <c r="K118" t="inlineStr"/>
+      <c r="L118" t="n">
+        <v>1</v>
+      </c>
+      <c r="M118" t="inlineStr"/>
     </row>
     <row r="119">
       <c r="A119" s="1" t="n">
@@ -5394,22 +4592,13 @@
       <c r="H119" t="n">
         <v>0</v>
       </c>
-      <c r="I119" t="n">
-        <v>0</v>
-      </c>
+      <c r="I119" t="inlineStr"/>
       <c r="J119" t="inlineStr"/>
-      <c r="K119" t="n">
-        <v>11.4</v>
-      </c>
-      <c r="L119" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M119" t="n">
-        <v>1</v>
-      </c>
-      <c r="N119" t="inlineStr"/>
+      <c r="K119" t="inlineStr"/>
+      <c r="L119" t="n">
+        <v>1</v>
+      </c>
+      <c r="M119" t="inlineStr"/>
     </row>
     <row r="120">
       <c r="A120" s="1" t="n">
@@ -5436,22 +4625,13 @@
       <c r="H120" t="n">
         <v>0</v>
       </c>
-      <c r="I120" t="n">
-        <v>0</v>
-      </c>
+      <c r="I120" t="inlineStr"/>
       <c r="J120" t="inlineStr"/>
-      <c r="K120" t="n">
-        <v>11.4</v>
-      </c>
-      <c r="L120" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M120" t="n">
-        <v>1</v>
-      </c>
-      <c r="N120" t="inlineStr"/>
+      <c r="K120" t="inlineStr"/>
+      <c r="L120" t="n">
+        <v>1</v>
+      </c>
+      <c r="M120" t="inlineStr"/>
     </row>
     <row r="121">
       <c r="A121" s="1" t="n">
@@ -5478,22 +4658,13 @@
       <c r="H121" t="n">
         <v>0</v>
       </c>
-      <c r="I121" t="n">
-        <v>0</v>
-      </c>
+      <c r="I121" t="inlineStr"/>
       <c r="J121" t="inlineStr"/>
-      <c r="K121" t="n">
-        <v>11.4</v>
-      </c>
-      <c r="L121" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M121" t="n">
-        <v>1</v>
-      </c>
-      <c r="N121" t="inlineStr"/>
+      <c r="K121" t="inlineStr"/>
+      <c r="L121" t="n">
+        <v>1</v>
+      </c>
+      <c r="M121" t="inlineStr"/>
     </row>
     <row r="122">
       <c r="A122" s="1" t="n">
@@ -5520,22 +4691,13 @@
       <c r="H122" t="n">
         <v>0</v>
       </c>
-      <c r="I122" t="n">
-        <v>0</v>
-      </c>
+      <c r="I122" t="inlineStr"/>
       <c r="J122" t="inlineStr"/>
-      <c r="K122" t="n">
-        <v>11.4</v>
-      </c>
-      <c r="L122" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M122" t="n">
-        <v>1</v>
-      </c>
-      <c r="N122" t="inlineStr"/>
+      <c r="K122" t="inlineStr"/>
+      <c r="L122" t="n">
+        <v>1</v>
+      </c>
+      <c r="M122" t="inlineStr"/>
     </row>
     <row r="123">
       <c r="A123" s="1" t="n">
@@ -5562,22 +4724,13 @@
       <c r="H123" t="n">
         <v>0</v>
       </c>
-      <c r="I123" t="n">
-        <v>0</v>
-      </c>
+      <c r="I123" t="inlineStr"/>
       <c r="J123" t="inlineStr"/>
-      <c r="K123" t="n">
-        <v>11.4</v>
-      </c>
-      <c r="L123" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M123" t="n">
-        <v>1</v>
-      </c>
-      <c r="N123" t="inlineStr"/>
+      <c r="K123" t="inlineStr"/>
+      <c r="L123" t="n">
+        <v>1</v>
+      </c>
+      <c r="M123" t="inlineStr"/>
     </row>
     <row r="124">
       <c r="A124" s="1" t="n">
@@ -5604,22 +4757,13 @@
       <c r="H124" t="n">
         <v>0</v>
       </c>
-      <c r="I124" t="n">
-        <v>0</v>
-      </c>
+      <c r="I124" t="inlineStr"/>
       <c r="J124" t="inlineStr"/>
-      <c r="K124" t="n">
-        <v>11.4</v>
-      </c>
-      <c r="L124" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M124" t="n">
-        <v>1</v>
-      </c>
-      <c r="N124" t="inlineStr"/>
+      <c r="K124" t="inlineStr"/>
+      <c r="L124" t="n">
+        <v>1</v>
+      </c>
+      <c r="M124" t="inlineStr"/>
     </row>
     <row r="125">
       <c r="A125" s="1" t="n">
@@ -5646,22 +4790,13 @@
       <c r="H125" t="n">
         <v>0</v>
       </c>
-      <c r="I125" t="n">
-        <v>0</v>
-      </c>
+      <c r="I125" t="inlineStr"/>
       <c r="J125" t="inlineStr"/>
-      <c r="K125" t="n">
-        <v>11.4</v>
-      </c>
-      <c r="L125" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M125" t="n">
-        <v>1</v>
-      </c>
-      <c r="N125" t="inlineStr"/>
+      <c r="K125" t="inlineStr"/>
+      <c r="L125" t="n">
+        <v>1</v>
+      </c>
+      <c r="M125" t="inlineStr"/>
     </row>
     <row r="126">
       <c r="A126" s="1" t="n">
@@ -5688,22 +4823,13 @@
       <c r="H126" t="n">
         <v>0</v>
       </c>
-      <c r="I126" t="n">
-        <v>0</v>
-      </c>
+      <c r="I126" t="inlineStr"/>
       <c r="J126" t="inlineStr"/>
-      <c r="K126" t="n">
-        <v>11.4</v>
-      </c>
-      <c r="L126" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M126" t="n">
-        <v>1</v>
-      </c>
-      <c r="N126" t="inlineStr"/>
+      <c r="K126" t="inlineStr"/>
+      <c r="L126" t="n">
+        <v>1</v>
+      </c>
+      <c r="M126" t="inlineStr"/>
     </row>
     <row r="127">
       <c r="A127" s="1" t="n">
@@ -5730,22 +4856,13 @@
       <c r="H127" t="n">
         <v>0</v>
       </c>
-      <c r="I127" t="n">
-        <v>0</v>
-      </c>
+      <c r="I127" t="inlineStr"/>
       <c r="J127" t="inlineStr"/>
-      <c r="K127" t="n">
-        <v>11.4</v>
-      </c>
-      <c r="L127" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M127" t="n">
-        <v>1</v>
-      </c>
-      <c r="N127" t="inlineStr"/>
+      <c r="K127" t="inlineStr"/>
+      <c r="L127" t="n">
+        <v>1</v>
+      </c>
+      <c r="M127" t="inlineStr"/>
     </row>
     <row r="128">
       <c r="A128" s="1" t="n">
@@ -5772,22 +4889,13 @@
       <c r="H128" t="n">
         <v>0</v>
       </c>
-      <c r="I128" t="n">
-        <v>0</v>
-      </c>
+      <c r="I128" t="inlineStr"/>
       <c r="J128" t="inlineStr"/>
-      <c r="K128" t="n">
-        <v>11.4</v>
-      </c>
-      <c r="L128" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M128" t="n">
-        <v>1</v>
-      </c>
-      <c r="N128" t="inlineStr"/>
+      <c r="K128" t="inlineStr"/>
+      <c r="L128" t="n">
+        <v>1</v>
+      </c>
+      <c r="M128" t="inlineStr"/>
     </row>
     <row r="129">
       <c r="A129" s="1" t="n">
@@ -5814,22 +4922,13 @@
       <c r="H129" t="n">
         <v>0</v>
       </c>
-      <c r="I129" t="n">
-        <v>0</v>
-      </c>
+      <c r="I129" t="inlineStr"/>
       <c r="J129" t="inlineStr"/>
-      <c r="K129" t="n">
-        <v>11.4</v>
-      </c>
-      <c r="L129" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M129" t="n">
-        <v>1</v>
-      </c>
-      <c r="N129" t="inlineStr"/>
+      <c r="K129" t="inlineStr"/>
+      <c r="L129" t="n">
+        <v>1</v>
+      </c>
+      <c r="M129" t="inlineStr"/>
     </row>
     <row r="130">
       <c r="A130" s="1" t="n">
@@ -5856,22 +4955,13 @@
       <c r="H130" t="n">
         <v>0</v>
       </c>
-      <c r="I130" t="n">
-        <v>0</v>
-      </c>
+      <c r="I130" t="inlineStr"/>
       <c r="J130" t="inlineStr"/>
-      <c r="K130" t="n">
-        <v>11.4</v>
-      </c>
-      <c r="L130" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M130" t="n">
-        <v>1</v>
-      </c>
-      <c r="N130" t="inlineStr"/>
+      <c r="K130" t="inlineStr"/>
+      <c r="L130" t="n">
+        <v>1</v>
+      </c>
+      <c r="M130" t="inlineStr"/>
     </row>
     <row r="131">
       <c r="A131" s="1" t="n">
@@ -5898,22 +4988,13 @@
       <c r="H131" t="n">
         <v>0</v>
       </c>
-      <c r="I131" t="n">
-        <v>0</v>
-      </c>
+      <c r="I131" t="inlineStr"/>
       <c r="J131" t="inlineStr"/>
-      <c r="K131" t="n">
-        <v>11.4</v>
-      </c>
-      <c r="L131" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M131" t="n">
-        <v>1</v>
-      </c>
-      <c r="N131" t="inlineStr"/>
+      <c r="K131" t="inlineStr"/>
+      <c r="L131" t="n">
+        <v>1</v>
+      </c>
+      <c r="M131" t="inlineStr"/>
     </row>
     <row r="132">
       <c r="A132" s="1" t="n">
@@ -5940,22 +5021,13 @@
       <c r="H132" t="n">
         <v>0</v>
       </c>
-      <c r="I132" t="n">
-        <v>0</v>
-      </c>
+      <c r="I132" t="inlineStr"/>
       <c r="J132" t="inlineStr"/>
-      <c r="K132" t="n">
-        <v>11.4</v>
-      </c>
-      <c r="L132" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M132" t="n">
-        <v>1</v>
-      </c>
-      <c r="N132" t="inlineStr"/>
+      <c r="K132" t="inlineStr"/>
+      <c r="L132" t="n">
+        <v>1</v>
+      </c>
+      <c r="M132" t="inlineStr"/>
     </row>
     <row r="133">
       <c r="A133" s="1" t="n">
@@ -5982,22 +5054,13 @@
       <c r="H133" t="n">
         <v>0</v>
       </c>
-      <c r="I133" t="n">
-        <v>0</v>
-      </c>
+      <c r="I133" t="inlineStr"/>
       <c r="J133" t="inlineStr"/>
-      <c r="K133" t="n">
-        <v>11.4</v>
-      </c>
-      <c r="L133" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M133" t="n">
-        <v>1</v>
-      </c>
-      <c r="N133" t="inlineStr"/>
+      <c r="K133" t="inlineStr"/>
+      <c r="L133" t="n">
+        <v>1</v>
+      </c>
+      <c r="M133" t="inlineStr"/>
     </row>
     <row r="134">
       <c r="A134" s="1" t="n">
@@ -6024,22 +5087,13 @@
       <c r="H134" t="n">
         <v>0</v>
       </c>
-      <c r="I134" t="n">
-        <v>0</v>
-      </c>
+      <c r="I134" t="inlineStr"/>
       <c r="J134" t="inlineStr"/>
-      <c r="K134" t="n">
-        <v>11.4</v>
-      </c>
-      <c r="L134" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M134" t="n">
-        <v>1</v>
-      </c>
-      <c r="N134" t="inlineStr"/>
+      <c r="K134" t="inlineStr"/>
+      <c r="L134" t="n">
+        <v>1</v>
+      </c>
+      <c r="M134" t="inlineStr"/>
     </row>
     <row r="135">
       <c r="A135" s="1" t="n">
@@ -6066,22 +5120,13 @@
       <c r="H135" t="n">
         <v>0</v>
       </c>
-      <c r="I135" t="n">
-        <v>0</v>
-      </c>
+      <c r="I135" t="inlineStr"/>
       <c r="J135" t="inlineStr"/>
-      <c r="K135" t="n">
-        <v>11.4</v>
-      </c>
-      <c r="L135" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M135" t="n">
-        <v>1</v>
-      </c>
-      <c r="N135" t="inlineStr"/>
+      <c r="K135" t="inlineStr"/>
+      <c r="L135" t="n">
+        <v>1</v>
+      </c>
+      <c r="M135" t="inlineStr"/>
     </row>
     <row r="136">
       <c r="A136" s="1" t="n">
@@ -6108,22 +5153,13 @@
       <c r="H136" t="n">
         <v>0</v>
       </c>
-      <c r="I136" t="n">
-        <v>0</v>
-      </c>
+      <c r="I136" t="inlineStr"/>
       <c r="J136" t="inlineStr"/>
-      <c r="K136" t="n">
-        <v>11.4</v>
-      </c>
-      <c r="L136" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M136" t="n">
-        <v>1</v>
-      </c>
-      <c r="N136" t="inlineStr"/>
+      <c r="K136" t="inlineStr"/>
+      <c r="L136" t="n">
+        <v>1</v>
+      </c>
+      <c r="M136" t="inlineStr"/>
     </row>
     <row r="137">
       <c r="A137" s="1" t="n">
@@ -6150,22 +5186,13 @@
       <c r="H137" t="n">
         <v>0</v>
       </c>
-      <c r="I137" t="n">
-        <v>0</v>
-      </c>
+      <c r="I137" t="inlineStr"/>
       <c r="J137" t="inlineStr"/>
-      <c r="K137" t="n">
-        <v>11.4</v>
-      </c>
-      <c r="L137" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M137" t="n">
-        <v>1</v>
-      </c>
-      <c r="N137" t="inlineStr"/>
+      <c r="K137" t="inlineStr"/>
+      <c r="L137" t="n">
+        <v>1</v>
+      </c>
+      <c r="M137" t="inlineStr"/>
     </row>
     <row r="138">
       <c r="A138" s="1" t="n">
@@ -6192,22 +5219,13 @@
       <c r="H138" t="n">
         <v>0</v>
       </c>
-      <c r="I138" t="n">
-        <v>0</v>
-      </c>
+      <c r="I138" t="inlineStr"/>
       <c r="J138" t="inlineStr"/>
-      <c r="K138" t="n">
-        <v>11.4</v>
-      </c>
-      <c r="L138" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M138" t="n">
-        <v>1</v>
-      </c>
-      <c r="N138" t="inlineStr"/>
+      <c r="K138" t="inlineStr"/>
+      <c r="L138" t="n">
+        <v>1</v>
+      </c>
+      <c r="M138" t="inlineStr"/>
     </row>
     <row r="139">
       <c r="A139" s="1" t="n">
@@ -6234,22 +5252,13 @@
       <c r="H139" t="n">
         <v>0</v>
       </c>
-      <c r="I139" t="n">
-        <v>0</v>
-      </c>
+      <c r="I139" t="inlineStr"/>
       <c r="J139" t="inlineStr"/>
-      <c r="K139" t="n">
-        <v>11.4</v>
-      </c>
-      <c r="L139" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M139" t="n">
-        <v>1</v>
-      </c>
-      <c r="N139" t="inlineStr"/>
+      <c r="K139" t="inlineStr"/>
+      <c r="L139" t="n">
+        <v>1</v>
+      </c>
+      <c r="M139" t="inlineStr"/>
     </row>
     <row r="140">
       <c r="A140" s="1" t="n">
@@ -6276,22 +5285,13 @@
       <c r="H140" t="n">
         <v>0</v>
       </c>
-      <c r="I140" t="n">
-        <v>0</v>
-      </c>
+      <c r="I140" t="inlineStr"/>
       <c r="J140" t="inlineStr"/>
-      <c r="K140" t="n">
-        <v>11.4</v>
-      </c>
-      <c r="L140" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M140" t="n">
-        <v>1</v>
-      </c>
-      <c r="N140" t="inlineStr"/>
+      <c r="K140" t="inlineStr"/>
+      <c r="L140" t="n">
+        <v>1</v>
+      </c>
+      <c r="M140" t="inlineStr"/>
     </row>
     <row r="141">
       <c r="A141" s="1" t="n">
@@ -6316,24 +5316,15 @@
         <v>5875887.816036986</v>
       </c>
       <c r="H141" t="n">
-        <v>0</v>
-      </c>
-      <c r="I141" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I141" t="inlineStr"/>
       <c r="J141" t="inlineStr"/>
-      <c r="K141" t="n">
-        <v>11.4</v>
-      </c>
-      <c r="L141" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M141" t="n">
-        <v>1</v>
-      </c>
-      <c r="N141" t="inlineStr"/>
+      <c r="K141" t="inlineStr"/>
+      <c r="L141" t="n">
+        <v>1</v>
+      </c>
+      <c r="M141" t="inlineStr"/>
     </row>
     <row r="142">
       <c r="A142" s="1" t="n">
@@ -6358,26 +5349,15 @@
         <v>5875887.816036986</v>
       </c>
       <c r="H142" t="n">
-        <v>0</v>
-      </c>
-      <c r="I142" t="n">
-        <v>1</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I142" t="inlineStr"/>
       <c r="J142" t="inlineStr"/>
-      <c r="K142" t="n">
-        <v>11.4</v>
-      </c>
-      <c r="L142" t="inlineStr">
-        <is>
-          <t>매도 체결</t>
-        </is>
-      </c>
-      <c r="M142" t="n">
-        <v>1.073947368421053</v>
-      </c>
-      <c r="N142" t="n">
-        <v>1.017857142857143</v>
-      </c>
+      <c r="K142" t="inlineStr"/>
+      <c r="L142" t="n">
+        <v>1</v>
+      </c>
+      <c r="M142" t="inlineStr"/>
     </row>
     <row r="143">
       <c r="A143" s="1" t="n">
@@ -6402,18 +5382,15 @@
         <v>5873387.816036986</v>
       </c>
       <c r="H143" t="n">
-        <v>0</v>
-      </c>
-      <c r="I143" t="n">
-        <v>1</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I143" t="inlineStr"/>
       <c r="J143" t="inlineStr"/>
       <c r="K143" t="inlineStr"/>
-      <c r="L143" t="inlineStr"/>
-      <c r="M143" t="n">
-        <v>1</v>
-      </c>
-      <c r="N143" t="inlineStr"/>
+      <c r="L143" t="n">
+        <v>1</v>
+      </c>
+      <c r="M143" t="inlineStr"/>
     </row>
     <row r="144">
       <c r="A144" s="1" t="n">
@@ -6438,18 +5415,15 @@
         <v>5804120.056115499</v>
       </c>
       <c r="H144" t="n">
-        <v>0</v>
-      </c>
-      <c r="I144" t="n">
-        <v>1</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I144" t="inlineStr"/>
       <c r="J144" t="inlineStr"/>
       <c r="K144" t="inlineStr"/>
-      <c r="L144" t="inlineStr"/>
-      <c r="M144" t="n">
-        <v>1</v>
-      </c>
-      <c r="N144" t="inlineStr"/>
+      <c r="L144" t="n">
+        <v>1</v>
+      </c>
+      <c r="M144" t="inlineStr"/>
     </row>
     <row r="145">
       <c r="A145" s="1" t="n">
@@ -6474,18 +5448,15 @@
         <v>5804120.056115499</v>
       </c>
       <c r="H145" t="n">
-        <v>0</v>
-      </c>
-      <c r="I145" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I145" t="inlineStr"/>
       <c r="J145" t="inlineStr"/>
       <c r="K145" t="inlineStr"/>
-      <c r="L145" t="inlineStr"/>
-      <c r="M145" t="n">
-        <v>1</v>
-      </c>
-      <c r="N145" t="inlineStr"/>
+      <c r="L145" t="n">
+        <v>1</v>
+      </c>
+      <c r="M145" t="inlineStr"/>
     </row>
     <row r="146">
       <c r="A146" s="1" t="n">
@@ -6512,16 +5483,13 @@
       <c r="H146" t="n">
         <v>0</v>
       </c>
-      <c r="I146" t="n">
-        <v>0</v>
-      </c>
+      <c r="I146" t="inlineStr"/>
       <c r="J146" t="inlineStr"/>
       <c r="K146" t="inlineStr"/>
-      <c r="L146" t="inlineStr"/>
-      <c r="M146" t="n">
-        <v>1</v>
-      </c>
-      <c r="N146" t="inlineStr"/>
+      <c r="L146" t="n">
+        <v>1</v>
+      </c>
+      <c r="M146" t="inlineStr"/>
     </row>
     <row r="147">
       <c r="A147" s="1" t="n">
@@ -6546,18 +5514,15 @@
         <v>5780553.526415499</v>
       </c>
       <c r="H147" t="n">
-        <v>0</v>
-      </c>
-      <c r="I147" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I147" t="inlineStr"/>
       <c r="J147" t="inlineStr"/>
       <c r="K147" t="inlineStr"/>
-      <c r="L147" t="inlineStr"/>
-      <c r="M147" t="n">
-        <v>1</v>
-      </c>
-      <c r="N147" t="inlineStr"/>
+      <c r="L147" t="n">
+        <v>1</v>
+      </c>
+      <c r="M147" t="inlineStr"/>
     </row>
     <row r="148">
       <c r="A148" s="1" t="n">
@@ -6584,16 +5549,13 @@
       <c r="H148" t="n">
         <v>0</v>
       </c>
-      <c r="I148" t="n">
-        <v>0</v>
-      </c>
+      <c r="I148" t="inlineStr"/>
       <c r="J148" t="inlineStr"/>
       <c r="K148" t="inlineStr"/>
-      <c r="L148" t="inlineStr"/>
-      <c r="M148" t="n">
-        <v>1</v>
-      </c>
-      <c r="N148" t="inlineStr"/>
+      <c r="L148" t="n">
+        <v>1</v>
+      </c>
+      <c r="M148" t="inlineStr"/>
     </row>
     <row r="149">
       <c r="A149" s="1" t="n">
@@ -6620,16 +5582,13 @@
       <c r="H149" t="n">
         <v>0</v>
       </c>
-      <c r="I149" t="n">
-        <v>0</v>
-      </c>
+      <c r="I149" t="inlineStr"/>
       <c r="J149" t="inlineStr"/>
       <c r="K149" t="inlineStr"/>
-      <c r="L149" t="inlineStr"/>
-      <c r="M149" t="n">
-        <v>1</v>
-      </c>
-      <c r="N149" t="inlineStr"/>
+      <c r="L149" t="n">
+        <v>1</v>
+      </c>
+      <c r="M149" t="inlineStr"/>
     </row>
     <row r="150">
       <c r="A150" s="1" t="n">
@@ -6656,16 +5615,13 @@
       <c r="H150" t="n">
         <v>0</v>
       </c>
-      <c r="I150" t="n">
-        <v>1</v>
-      </c>
+      <c r="I150" t="inlineStr"/>
       <c r="J150" t="inlineStr"/>
       <c r="K150" t="inlineStr"/>
-      <c r="L150" t="inlineStr"/>
-      <c r="M150" t="n">
-        <v>1</v>
-      </c>
-      <c r="N150" t="inlineStr"/>
+      <c r="L150" t="n">
+        <v>1</v>
+      </c>
+      <c r="M150" t="inlineStr"/>
     </row>
     <row r="151">
       <c r="A151" s="1" t="n">
@@ -6692,16 +5648,13 @@
       <c r="H151" t="n">
         <v>0</v>
       </c>
-      <c r="I151" t="n">
-        <v>0</v>
-      </c>
+      <c r="I151" t="inlineStr"/>
       <c r="J151" t="inlineStr"/>
       <c r="K151" t="inlineStr"/>
-      <c r="L151" t="inlineStr"/>
-      <c r="M151" t="n">
-        <v>1</v>
-      </c>
-      <c r="N151" t="inlineStr"/>
+      <c r="L151" t="n">
+        <v>1</v>
+      </c>
+      <c r="M151" t="inlineStr"/>
     </row>
     <row r="152">
       <c r="A152" s="1" t="n">
@@ -6728,16 +5681,13 @@
       <c r="H152" t="n">
         <v>0</v>
       </c>
-      <c r="I152" t="n">
-        <v>1</v>
-      </c>
+      <c r="I152" t="inlineStr"/>
       <c r="J152" t="inlineStr"/>
       <c r="K152" t="inlineStr"/>
-      <c r="L152" t="inlineStr"/>
-      <c r="M152" t="n">
-        <v>1</v>
-      </c>
-      <c r="N152" t="inlineStr"/>
+      <c r="L152" t="n">
+        <v>1</v>
+      </c>
+      <c r="M152" t="inlineStr"/>
     </row>
     <row r="153">
       <c r="A153" s="1" t="n">
@@ -6764,16 +5714,13 @@
       <c r="H153" t="n">
         <v>0</v>
       </c>
-      <c r="I153" t="n">
-        <v>1</v>
-      </c>
+      <c r="I153" t="inlineStr"/>
       <c r="J153" t="inlineStr"/>
       <c r="K153" t="inlineStr"/>
-      <c r="L153" t="inlineStr"/>
-      <c r="M153" t="n">
-        <v>1</v>
-      </c>
-      <c r="N153" t="inlineStr"/>
+      <c r="L153" t="n">
+        <v>1</v>
+      </c>
+      <c r="M153" t="inlineStr"/>
     </row>
     <row r="154">
       <c r="A154" s="1" t="n">
@@ -6800,16 +5747,13 @@
       <c r="H154" t="n">
         <v>0</v>
       </c>
-      <c r="I154" t="n">
-        <v>1</v>
-      </c>
+      <c r="I154" t="inlineStr"/>
       <c r="J154" t="inlineStr"/>
       <c r="K154" t="inlineStr"/>
-      <c r="L154" t="inlineStr"/>
-      <c r="M154" t="n">
-        <v>1</v>
-      </c>
-      <c r="N154" t="inlineStr"/>
+      <c r="L154" t="n">
+        <v>1</v>
+      </c>
+      <c r="M154" t="inlineStr"/>
     </row>
     <row r="155">
       <c r="A155" s="1" t="n">
@@ -6836,16 +5780,13 @@
       <c r="H155" t="n">
         <v>0</v>
       </c>
-      <c r="I155" t="n">
-        <v>1</v>
-      </c>
+      <c r="I155" t="inlineStr"/>
       <c r="J155" t="inlineStr"/>
       <c r="K155" t="inlineStr"/>
-      <c r="L155" t="inlineStr"/>
-      <c r="M155" t="n">
-        <v>1</v>
-      </c>
-      <c r="N155" t="inlineStr"/>
+      <c r="L155" t="n">
+        <v>1</v>
+      </c>
+      <c r="M155" t="inlineStr"/>
     </row>
     <row r="156">
       <c r="A156" s="1" t="n">
@@ -6872,16 +5813,13 @@
       <c r="H156" t="n">
         <v>0</v>
       </c>
-      <c r="I156" t="n">
-        <v>1</v>
-      </c>
+      <c r="I156" t="inlineStr"/>
       <c r="J156" t="inlineStr"/>
       <c r="K156" t="inlineStr"/>
-      <c r="L156" t="inlineStr"/>
-      <c r="M156" t="n">
-        <v>1</v>
-      </c>
-      <c r="N156" t="inlineStr"/>
+      <c r="L156" t="n">
+        <v>1</v>
+      </c>
+      <c r="M156" t="inlineStr"/>
     </row>
     <row r="157">
       <c r="A157" s="1" t="n">
@@ -6908,16 +5846,13 @@
       <c r="H157" t="n">
         <v>0</v>
       </c>
-      <c r="I157" t="n">
-        <v>0</v>
-      </c>
+      <c r="I157" t="inlineStr"/>
       <c r="J157" t="inlineStr"/>
       <c r="K157" t="inlineStr"/>
-      <c r="L157" t="inlineStr"/>
-      <c r="M157" t="n">
-        <v>1</v>
-      </c>
-      <c r="N157" t="inlineStr"/>
+      <c r="L157" t="n">
+        <v>1</v>
+      </c>
+      <c r="M157" t="inlineStr"/>
     </row>
     <row r="158">
       <c r="A158" s="1" t="n">
@@ -6944,16 +5879,13 @@
       <c r="H158" t="n">
         <v>0</v>
       </c>
-      <c r="I158" t="n">
-        <v>1</v>
-      </c>
+      <c r="I158" t="inlineStr"/>
       <c r="J158" t="inlineStr"/>
       <c r="K158" t="inlineStr"/>
-      <c r="L158" t="inlineStr"/>
-      <c r="M158" t="n">
-        <v>1</v>
-      </c>
-      <c r="N158" t="inlineStr"/>
+      <c r="L158" t="n">
+        <v>1</v>
+      </c>
+      <c r="M158" t="inlineStr"/>
     </row>
     <row r="159">
       <c r="A159" s="1" t="n">
@@ -6980,16 +5912,13 @@
       <c r="H159" t="n">
         <v>0</v>
       </c>
-      <c r="I159" t="n">
-        <v>1</v>
-      </c>
+      <c r="I159" t="inlineStr"/>
       <c r="J159" t="inlineStr"/>
       <c r="K159" t="inlineStr"/>
-      <c r="L159" t="inlineStr"/>
-      <c r="M159" t="n">
-        <v>1</v>
-      </c>
-      <c r="N159" t="inlineStr"/>
+      <c r="L159" t="n">
+        <v>1</v>
+      </c>
+      <c r="M159" t="inlineStr"/>
     </row>
     <row r="160">
       <c r="A160" s="1" t="n">
@@ -7016,16 +5945,13 @@
       <c r="H160" t="n">
         <v>0</v>
       </c>
-      <c r="I160" t="n">
-        <v>0</v>
-      </c>
+      <c r="I160" t="inlineStr"/>
       <c r="J160" t="inlineStr"/>
       <c r="K160" t="inlineStr"/>
-      <c r="L160" t="inlineStr"/>
-      <c r="M160" t="n">
-        <v>1</v>
-      </c>
-      <c r="N160" t="inlineStr"/>
+      <c r="L160" t="n">
+        <v>1</v>
+      </c>
+      <c r="M160" t="inlineStr"/>
     </row>
     <row r="161">
       <c r="A161" s="1" t="n">
@@ -7052,16 +5978,13 @@
       <c r="H161" t="n">
         <v>0</v>
       </c>
-      <c r="I161" t="n">
-        <v>1</v>
-      </c>
+      <c r="I161" t="inlineStr"/>
       <c r="J161" t="inlineStr"/>
       <c r="K161" t="inlineStr"/>
-      <c r="L161" t="inlineStr"/>
-      <c r="M161" t="n">
-        <v>1</v>
-      </c>
-      <c r="N161" t="inlineStr"/>
+      <c r="L161" t="n">
+        <v>1</v>
+      </c>
+      <c r="M161" t="inlineStr"/>
     </row>
     <row r="162">
       <c r="A162" s="1" t="n">
@@ -7088,16 +6011,13 @@
       <c r="H162" t="n">
         <v>0</v>
       </c>
-      <c r="I162" t="n">
-        <v>1</v>
-      </c>
+      <c r="I162" t="inlineStr"/>
       <c r="J162" t="inlineStr"/>
       <c r="K162" t="inlineStr"/>
-      <c r="L162" t="inlineStr"/>
-      <c r="M162" t="n">
-        <v>1</v>
-      </c>
-      <c r="N162" t="inlineStr"/>
+      <c r="L162" t="n">
+        <v>1</v>
+      </c>
+      <c r="M162" t="inlineStr"/>
     </row>
     <row r="163">
       <c r="A163" s="1" t="n">
@@ -7124,16 +6044,13 @@
       <c r="H163" t="n">
         <v>0</v>
       </c>
-      <c r="I163" t="n">
-        <v>1</v>
-      </c>
+      <c r="I163" t="inlineStr"/>
       <c r="J163" t="inlineStr"/>
       <c r="K163" t="inlineStr"/>
-      <c r="L163" t="inlineStr"/>
-      <c r="M163" t="n">
-        <v>1</v>
-      </c>
-      <c r="N163" t="inlineStr"/>
+      <c r="L163" t="n">
+        <v>1</v>
+      </c>
+      <c r="M163" t="inlineStr"/>
     </row>
     <row r="164">
       <c r="A164" s="1" t="n">
@@ -7160,16 +6077,13 @@
       <c r="H164" t="n">
         <v>0</v>
       </c>
-      <c r="I164" t="n">
-        <v>1</v>
-      </c>
+      <c r="I164" t="inlineStr"/>
       <c r="J164" t="inlineStr"/>
       <c r="K164" t="inlineStr"/>
-      <c r="L164" t="inlineStr"/>
-      <c r="M164" t="n">
-        <v>1</v>
-      </c>
-      <c r="N164" t="inlineStr"/>
+      <c r="L164" t="n">
+        <v>1</v>
+      </c>
+      <c r="M164" t="inlineStr"/>
     </row>
     <row r="165">
       <c r="A165" s="1" t="n">
@@ -7196,16 +6110,13 @@
       <c r="H165" t="n">
         <v>0</v>
       </c>
-      <c r="I165" t="n">
-        <v>1</v>
-      </c>
+      <c r="I165" t="inlineStr"/>
       <c r="J165" t="inlineStr"/>
       <c r="K165" t="inlineStr"/>
-      <c r="L165" t="inlineStr"/>
-      <c r="M165" t="n">
-        <v>1</v>
-      </c>
-      <c r="N165" t="inlineStr"/>
+      <c r="L165" t="n">
+        <v>1</v>
+      </c>
+      <c r="M165" t="inlineStr"/>
     </row>
     <row r="166">
       <c r="A166" s="1" t="n">
@@ -7232,16 +6143,13 @@
       <c r="H166" t="n">
         <v>0</v>
       </c>
-      <c r="I166" t="n">
-        <v>1</v>
-      </c>
+      <c r="I166" t="inlineStr"/>
       <c r="J166" t="inlineStr"/>
       <c r="K166" t="inlineStr"/>
-      <c r="L166" t="inlineStr"/>
-      <c r="M166" t="n">
-        <v>1</v>
-      </c>
-      <c r="N166" t="inlineStr"/>
+      <c r="L166" t="n">
+        <v>1</v>
+      </c>
+      <c r="M166" t="inlineStr"/>
     </row>
     <row r="167">
       <c r="A167" s="1" t="n">
@@ -7268,16 +6176,13 @@
       <c r="H167" t="n">
         <v>0</v>
       </c>
-      <c r="I167" t="n">
-        <v>0</v>
-      </c>
+      <c r="I167" t="inlineStr"/>
       <c r="J167" t="inlineStr"/>
       <c r="K167" t="inlineStr"/>
-      <c r="L167" t="inlineStr"/>
-      <c r="M167" t="n">
-        <v>1</v>
-      </c>
-      <c r="N167" t="inlineStr"/>
+      <c r="L167" t="n">
+        <v>1</v>
+      </c>
+      <c r="M167" t="inlineStr"/>
     </row>
     <row r="168">
       <c r="A168" s="1" t="n">
@@ -7304,16 +6209,13 @@
       <c r="H168" t="n">
         <v>0</v>
       </c>
-      <c r="I168" t="n">
-        <v>0</v>
-      </c>
+      <c r="I168" t="inlineStr"/>
       <c r="J168" t="inlineStr"/>
       <c r="K168" t="inlineStr"/>
-      <c r="L168" t="inlineStr"/>
-      <c r="M168" t="n">
-        <v>1</v>
-      </c>
-      <c r="N168" t="inlineStr"/>
+      <c r="L168" t="n">
+        <v>1</v>
+      </c>
+      <c r="M168" t="inlineStr"/>
     </row>
     <row r="169">
       <c r="A169" s="1" t="n">
@@ -7340,16 +6242,13 @@
       <c r="H169" t="n">
         <v>0</v>
       </c>
-      <c r="I169" t="n">
-        <v>0</v>
-      </c>
+      <c r="I169" t="inlineStr"/>
       <c r="J169" t="inlineStr"/>
       <c r="K169" t="inlineStr"/>
-      <c r="L169" t="inlineStr"/>
-      <c r="M169" t="n">
-        <v>1</v>
-      </c>
-      <c r="N169" t="inlineStr"/>
+      <c r="L169" t="n">
+        <v>1</v>
+      </c>
+      <c r="M169" t="inlineStr"/>
     </row>
     <row r="170">
       <c r="A170" s="1" t="n">
@@ -7376,16 +6275,13 @@
       <c r="H170" t="n">
         <v>0</v>
       </c>
-      <c r="I170" t="n">
-        <v>0</v>
-      </c>
+      <c r="I170" t="inlineStr"/>
       <c r="J170" t="inlineStr"/>
       <c r="K170" t="inlineStr"/>
-      <c r="L170" t="inlineStr"/>
-      <c r="M170" t="n">
-        <v>1</v>
-      </c>
-      <c r="N170" t="inlineStr"/>
+      <c r="L170" t="n">
+        <v>1</v>
+      </c>
+      <c r="M170" t="inlineStr"/>
     </row>
     <row r="171">
       <c r="A171" s="1" t="n">
@@ -7412,16 +6308,13 @@
       <c r="H171" t="n">
         <v>0</v>
       </c>
-      <c r="I171" t="n">
-        <v>0</v>
-      </c>
+      <c r="I171" t="inlineStr"/>
       <c r="J171" t="inlineStr"/>
       <c r="K171" t="inlineStr"/>
-      <c r="L171" t="inlineStr"/>
-      <c r="M171" t="n">
-        <v>1</v>
-      </c>
-      <c r="N171" t="inlineStr"/>
+      <c r="L171" t="n">
+        <v>1</v>
+      </c>
+      <c r="M171" t="inlineStr"/>
     </row>
     <row r="172">
       <c r="A172" s="1" t="n">
@@ -7448,16 +6341,13 @@
       <c r="H172" t="n">
         <v>0</v>
       </c>
-      <c r="I172" t="n">
-        <v>1</v>
-      </c>
+      <c r="I172" t="inlineStr"/>
       <c r="J172" t="inlineStr"/>
       <c r="K172" t="inlineStr"/>
-      <c r="L172" t="inlineStr"/>
-      <c r="M172" t="n">
-        <v>1</v>
-      </c>
-      <c r="N172" t="inlineStr"/>
+      <c r="L172" t="n">
+        <v>1</v>
+      </c>
+      <c r="M172" t="inlineStr"/>
     </row>
     <row r="173">
       <c r="A173" s="1" t="n">
@@ -7482,18 +6372,15 @@
         <v>5192821.522802277</v>
       </c>
       <c r="H173" t="n">
-        <v>0</v>
-      </c>
-      <c r="I173" t="n">
-        <v>1</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I173" t="inlineStr"/>
       <c r="J173" t="inlineStr"/>
       <c r="K173" t="inlineStr"/>
-      <c r="L173" t="inlineStr"/>
-      <c r="M173" t="n">
-        <v>1</v>
-      </c>
-      <c r="N173" t="inlineStr"/>
+      <c r="L173" t="n">
+        <v>1</v>
+      </c>
+      <c r="M173" t="inlineStr"/>
     </row>
     <row r="174">
       <c r="A174" s="1" t="n">
@@ -7520,16 +6407,13 @@
       <c r="H174" t="n">
         <v>0</v>
       </c>
-      <c r="I174" t="n">
-        <v>1</v>
-      </c>
+      <c r="I174" t="inlineStr"/>
       <c r="J174" t="inlineStr"/>
       <c r="K174" t="inlineStr"/>
-      <c r="L174" t="inlineStr"/>
-      <c r="M174" t="n">
-        <v>1</v>
-      </c>
-      <c r="N174" t="inlineStr"/>
+      <c r="L174" t="n">
+        <v>1</v>
+      </c>
+      <c r="M174" t="inlineStr"/>
     </row>
     <row r="175">
       <c r="A175" s="1" t="n">
@@ -7556,16 +6440,13 @@
       <c r="H175" t="n">
         <v>0</v>
       </c>
-      <c r="I175" t="n">
-        <v>1</v>
-      </c>
+      <c r="I175" t="inlineStr"/>
       <c r="J175" t="inlineStr"/>
       <c r="K175" t="inlineStr"/>
-      <c r="L175" t="inlineStr"/>
-      <c r="M175" t="n">
-        <v>1</v>
-      </c>
-      <c r="N175" t="inlineStr"/>
+      <c r="L175" t="n">
+        <v>1</v>
+      </c>
+      <c r="M175" t="inlineStr"/>
     </row>
     <row r="176">
       <c r="A176" s="1" t="n">
@@ -7592,16 +6473,13 @@
       <c r="H176" t="n">
         <v>0</v>
       </c>
-      <c r="I176" t="n">
-        <v>1</v>
-      </c>
+      <c r="I176" t="inlineStr"/>
       <c r="J176" t="inlineStr"/>
       <c r="K176" t="inlineStr"/>
-      <c r="L176" t="inlineStr"/>
-      <c r="M176" t="n">
-        <v>1</v>
-      </c>
-      <c r="N176" t="inlineStr"/>
+      <c r="L176" t="n">
+        <v>1</v>
+      </c>
+      <c r="M176" t="inlineStr"/>
     </row>
     <row r="177">
       <c r="A177" s="1" t="n">
@@ -7628,16 +6506,13 @@
       <c r="H177" t="n">
         <v>0</v>
       </c>
-      <c r="I177" t="n">
-        <v>0</v>
-      </c>
+      <c r="I177" t="inlineStr"/>
       <c r="J177" t="inlineStr"/>
       <c r="K177" t="inlineStr"/>
-      <c r="L177" t="inlineStr"/>
-      <c r="M177" t="n">
-        <v>1</v>
-      </c>
-      <c r="N177" t="inlineStr"/>
+      <c r="L177" t="n">
+        <v>1</v>
+      </c>
+      <c r="M177" t="inlineStr"/>
     </row>
     <row r="178">
       <c r="A178" s="1" t="n">
@@ -7664,16 +6539,13 @@
       <c r="H178" t="n">
         <v>0</v>
       </c>
-      <c r="I178" t="n">
-        <v>0</v>
-      </c>
+      <c r="I178" t="inlineStr"/>
       <c r="J178" t="inlineStr"/>
       <c r="K178" t="inlineStr"/>
-      <c r="L178" t="inlineStr"/>
-      <c r="M178" t="n">
-        <v>1</v>
-      </c>
-      <c r="N178" t="inlineStr"/>
+      <c r="L178" t="n">
+        <v>1</v>
+      </c>
+      <c r="M178" t="inlineStr"/>
     </row>
     <row r="179">
       <c r="A179" s="1" t="n">
@@ -7700,16 +6572,13 @@
       <c r="H179" t="n">
         <v>0</v>
       </c>
-      <c r="I179" t="n">
-        <v>0</v>
-      </c>
+      <c r="I179" t="inlineStr"/>
       <c r="J179" t="inlineStr"/>
       <c r="K179" t="inlineStr"/>
-      <c r="L179" t="inlineStr"/>
-      <c r="M179" t="n">
-        <v>1</v>
-      </c>
-      <c r="N179" t="inlineStr"/>
+      <c r="L179" t="n">
+        <v>1</v>
+      </c>
+      <c r="M179" t="inlineStr"/>
     </row>
     <row r="180">
       <c r="A180" s="1" t="n">
@@ -7734,18 +6603,15 @@
         <v>5172739.077702276</v>
       </c>
       <c r="H180" t="n">
-        <v>0</v>
-      </c>
-      <c r="I180" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I180" t="inlineStr"/>
       <c r="J180" t="inlineStr"/>
       <c r="K180" t="inlineStr"/>
-      <c r="L180" t="inlineStr"/>
-      <c r="M180" t="n">
-        <v>1</v>
-      </c>
-      <c r="N180" t="inlineStr"/>
+      <c r="L180" t="n">
+        <v>1</v>
+      </c>
+      <c r="M180" t="inlineStr"/>
     </row>
     <row r="181">
       <c r="A181" s="1" t="n">
@@ -7770,18 +6636,15 @@
         <v>5172739.077702276</v>
       </c>
       <c r="H181" t="n">
-        <v>0</v>
-      </c>
-      <c r="I181" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I181" t="inlineStr"/>
       <c r="J181" t="inlineStr"/>
       <c r="K181" t="inlineStr"/>
-      <c r="L181" t="inlineStr"/>
-      <c r="M181" t="n">
-        <v>1</v>
-      </c>
-      <c r="N181" t="inlineStr"/>
+      <c r="L181" t="n">
+        <v>1</v>
+      </c>
+      <c r="M181" t="inlineStr"/>
     </row>
     <row r="182">
       <c r="A182" s="1" t="n">
@@ -7806,18 +6669,15 @@
         <v>5177739.077702276</v>
       </c>
       <c r="H182" t="n">
-        <v>0</v>
-      </c>
-      <c r="I182" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I182" t="inlineStr"/>
       <c r="J182" t="inlineStr"/>
       <c r="K182" t="inlineStr"/>
-      <c r="L182" t="inlineStr"/>
-      <c r="M182" t="n">
-        <v>1</v>
-      </c>
-      <c r="N182" t="inlineStr"/>
+      <c r="L182" t="n">
+        <v>1</v>
+      </c>
+      <c r="M182" t="inlineStr"/>
     </row>
     <row r="183">
       <c r="A183" s="1" t="n">
@@ -7842,18 +6702,15 @@
         <v>5177739.077702276</v>
       </c>
       <c r="H183" t="n">
-        <v>0</v>
-      </c>
-      <c r="I183" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I183" t="inlineStr"/>
       <c r="J183" t="inlineStr"/>
       <c r="K183" t="inlineStr"/>
-      <c r="L183" t="inlineStr"/>
-      <c r="M183" t="n">
-        <v>1</v>
-      </c>
-      <c r="N183" t="inlineStr"/>
+      <c r="L183" t="n">
+        <v>1</v>
+      </c>
+      <c r="M183" t="inlineStr"/>
     </row>
     <row r="184">
       <c r="A184" s="1" t="n">
@@ -7880,16 +6737,13 @@
       <c r="H184" t="n">
         <v>0</v>
       </c>
-      <c r="I184" t="n">
-        <v>0</v>
-      </c>
+      <c r="I184" t="inlineStr"/>
       <c r="J184" t="inlineStr"/>
       <c r="K184" t="inlineStr"/>
-      <c r="L184" t="inlineStr"/>
-      <c r="M184" t="n">
-        <v>1</v>
-      </c>
-      <c r="N184" t="inlineStr"/>
+      <c r="L184" t="n">
+        <v>1</v>
+      </c>
+      <c r="M184" t="inlineStr"/>
     </row>
     <row r="185">
       <c r="A185" s="1" t="n">
@@ -7914,18 +6768,15 @@
         <v>5177739.077702276</v>
       </c>
       <c r="H185" t="n">
-        <v>0</v>
-      </c>
-      <c r="I185" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I185" t="inlineStr"/>
       <c r="J185" t="inlineStr"/>
       <c r="K185" t="inlineStr"/>
-      <c r="L185" t="inlineStr"/>
-      <c r="M185" t="n">
-        <v>1</v>
-      </c>
-      <c r="N185" t="inlineStr"/>
+      <c r="L185" t="n">
+        <v>1</v>
+      </c>
+      <c r="M185" t="inlineStr"/>
     </row>
     <row r="186">
       <c r="A186" s="1" t="n">
@@ -7952,16 +6803,13 @@
       <c r="H186" t="n">
         <v>0</v>
       </c>
-      <c r="I186" t="n">
-        <v>0</v>
-      </c>
+      <c r="I186" t="inlineStr"/>
       <c r="J186" t="inlineStr"/>
       <c r="K186" t="inlineStr"/>
-      <c r="L186" t="inlineStr"/>
-      <c r="M186" t="n">
-        <v>1</v>
-      </c>
-      <c r="N186" t="inlineStr"/>
+      <c r="L186" t="n">
+        <v>1</v>
+      </c>
+      <c r="M186" t="inlineStr"/>
     </row>
     <row r="187">
       <c r="A187" s="1" t="n">
@@ -7986,18 +6834,15 @@
         <v>4999856.284702277</v>
       </c>
       <c r="H187" t="n">
-        <v>0</v>
-      </c>
-      <c r="I187" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I187" t="inlineStr"/>
       <c r="J187" t="inlineStr"/>
       <c r="K187" t="inlineStr"/>
-      <c r="L187" t="inlineStr"/>
-      <c r="M187" t="n">
-        <v>1</v>
-      </c>
-      <c r="N187" t="inlineStr"/>
+      <c r="L187" t="n">
+        <v>1</v>
+      </c>
+      <c r="M187" t="inlineStr"/>
     </row>
     <row r="188">
       <c r="A188" s="1" t="n">
@@ -8024,16 +6869,13 @@
       <c r="H188" t="n">
         <v>0</v>
       </c>
-      <c r="I188" t="n">
-        <v>0</v>
-      </c>
+      <c r="I188" t="inlineStr"/>
       <c r="J188" t="inlineStr"/>
       <c r="K188" t="inlineStr"/>
-      <c r="L188" t="inlineStr"/>
-      <c r="M188" t="n">
-        <v>1</v>
-      </c>
-      <c r="N188" t="inlineStr"/>
+      <c r="L188" t="n">
+        <v>1</v>
+      </c>
+      <c r="M188" t="inlineStr"/>
     </row>
     <row r="189">
       <c r="A189" s="1" t="n">
@@ -8060,16 +6902,13 @@
       <c r="H189" t="n">
         <v>0</v>
       </c>
-      <c r="I189" t="n">
-        <v>0</v>
-      </c>
+      <c r="I189" t="inlineStr"/>
       <c r="J189" t="inlineStr"/>
       <c r="K189" t="inlineStr"/>
-      <c r="L189" t="inlineStr"/>
-      <c r="M189" t="n">
-        <v>1</v>
-      </c>
-      <c r="N189" t="inlineStr"/>
+      <c r="L189" t="n">
+        <v>1</v>
+      </c>
+      <c r="M189" t="inlineStr"/>
     </row>
     <row r="190">
       <c r="A190" s="1" t="n">
@@ -8094,18 +6933,15 @@
         <v>5012126.284702277</v>
       </c>
       <c r="H190" t="n">
-        <v>0</v>
-      </c>
-      <c r="I190" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I190" t="inlineStr"/>
       <c r="J190" t="inlineStr"/>
       <c r="K190" t="inlineStr"/>
-      <c r="L190" t="inlineStr"/>
-      <c r="M190" t="n">
-        <v>1</v>
-      </c>
-      <c r="N190" t="inlineStr"/>
+      <c r="L190" t="n">
+        <v>1</v>
+      </c>
+      <c r="M190" t="inlineStr"/>
     </row>
     <row r="191">
       <c r="A191" s="1" t="n">
@@ -8132,16 +6968,13 @@
       <c r="H191" t="n">
         <v>0</v>
       </c>
-      <c r="I191" t="n">
-        <v>0</v>
-      </c>
+      <c r="I191" t="inlineStr"/>
       <c r="J191" t="inlineStr"/>
       <c r="K191" t="inlineStr"/>
-      <c r="L191" t="inlineStr"/>
-      <c r="M191" t="n">
-        <v>1</v>
-      </c>
-      <c r="N191" t="inlineStr"/>
+      <c r="L191" t="n">
+        <v>1</v>
+      </c>
+      <c r="M191" t="inlineStr"/>
     </row>
     <row r="192">
       <c r="A192" s="1" t="n">
@@ -8168,16 +7001,13 @@
       <c r="H192" t="n">
         <v>0</v>
       </c>
-      <c r="I192" t="n">
-        <v>0</v>
-      </c>
+      <c r="I192" t="inlineStr"/>
       <c r="J192" t="inlineStr"/>
       <c r="K192" t="inlineStr"/>
-      <c r="L192" t="inlineStr"/>
-      <c r="M192" t="n">
-        <v>1</v>
-      </c>
-      <c r="N192" t="inlineStr"/>
+      <c r="L192" t="n">
+        <v>1</v>
+      </c>
+      <c r="M192" t="inlineStr"/>
     </row>
     <row r="193">
       <c r="A193" s="1" t="n">
@@ -8204,16 +7034,13 @@
       <c r="H193" t="n">
         <v>0</v>
       </c>
-      <c r="I193" t="n">
-        <v>0</v>
-      </c>
+      <c r="I193" t="inlineStr"/>
       <c r="J193" t="inlineStr"/>
       <c r="K193" t="inlineStr"/>
-      <c r="L193" t="inlineStr"/>
-      <c r="M193" t="n">
-        <v>1</v>
-      </c>
-      <c r="N193" t="inlineStr"/>
+      <c r="L193" t="n">
+        <v>1</v>
+      </c>
+      <c r="M193" t="inlineStr"/>
     </row>
     <row r="194">
       <c r="A194" s="1" t="n">
@@ -8240,16 +7067,13 @@
       <c r="H194" t="n">
         <v>0</v>
       </c>
-      <c r="I194" t="n">
-        <v>0</v>
-      </c>
+      <c r="I194" t="inlineStr"/>
       <c r="J194" t="inlineStr"/>
       <c r="K194" t="inlineStr"/>
-      <c r="L194" t="inlineStr"/>
-      <c r="M194" t="n">
-        <v>1</v>
-      </c>
-      <c r="N194" t="inlineStr"/>
+      <c r="L194" t="n">
+        <v>1</v>
+      </c>
+      <c r="M194" t="inlineStr"/>
     </row>
     <row r="195">
       <c r="A195" s="1" t="n">
@@ -8276,16 +7100,13 @@
       <c r="H195" t="n">
         <v>0</v>
       </c>
-      <c r="I195" t="n">
-        <v>0</v>
-      </c>
+      <c r="I195" t="inlineStr"/>
       <c r="J195" t="inlineStr"/>
       <c r="K195" t="inlineStr"/>
-      <c r="L195" t="inlineStr"/>
-      <c r="M195" t="n">
-        <v>1</v>
-      </c>
-      <c r="N195" t="inlineStr"/>
+      <c r="L195" t="n">
+        <v>1</v>
+      </c>
+      <c r="M195" t="inlineStr"/>
     </row>
     <row r="196">
       <c r="A196" s="1" t="n">
@@ -8312,16 +7133,13 @@
       <c r="H196" t="n">
         <v>0</v>
       </c>
-      <c r="I196" t="n">
-        <v>0</v>
-      </c>
+      <c r="I196" t="inlineStr"/>
       <c r="J196" t="inlineStr"/>
       <c r="K196" t="inlineStr"/>
-      <c r="L196" t="inlineStr"/>
-      <c r="M196" t="n">
-        <v>1</v>
-      </c>
-      <c r="N196" t="inlineStr"/>
+      <c r="L196" t="n">
+        <v>1</v>
+      </c>
+      <c r="M196" t="inlineStr"/>
     </row>
     <row r="197">
       <c r="A197" s="1" t="n">
@@ -8348,16 +7166,13 @@
       <c r="H197" t="n">
         <v>0</v>
       </c>
-      <c r="I197" t="n">
-        <v>0</v>
-      </c>
+      <c r="I197" t="inlineStr"/>
       <c r="J197" t="inlineStr"/>
       <c r="K197" t="inlineStr"/>
-      <c r="L197" t="inlineStr"/>
-      <c r="M197" t="n">
-        <v>1</v>
-      </c>
-      <c r="N197" t="inlineStr"/>
+      <c r="L197" t="n">
+        <v>1</v>
+      </c>
+      <c r="M197" t="inlineStr"/>
     </row>
     <row r="198">
       <c r="A198" s="1" t="n">
@@ -8384,16 +7199,13 @@
       <c r="H198" t="n">
         <v>0</v>
       </c>
-      <c r="I198" t="n">
-        <v>0</v>
-      </c>
+      <c r="I198" t="inlineStr"/>
       <c r="J198" t="inlineStr"/>
       <c r="K198" t="inlineStr"/>
-      <c r="L198" t="inlineStr"/>
-      <c r="M198" t="n">
-        <v>1</v>
-      </c>
-      <c r="N198" t="inlineStr"/>
+      <c r="L198" t="n">
+        <v>1</v>
+      </c>
+      <c r="M198" t="inlineStr"/>
     </row>
     <row r="199">
       <c r="A199" s="1" t="n">
@@ -8420,16 +7232,13 @@
       <c r="H199" t="n">
         <v>0</v>
       </c>
-      <c r="I199" t="n">
-        <v>0</v>
-      </c>
+      <c r="I199" t="inlineStr"/>
       <c r="J199" t="inlineStr"/>
       <c r="K199" t="inlineStr"/>
-      <c r="L199" t="inlineStr"/>
-      <c r="M199" t="n">
-        <v>1</v>
-      </c>
-      <c r="N199" t="inlineStr"/>
+      <c r="L199" t="n">
+        <v>1</v>
+      </c>
+      <c r="M199" t="inlineStr"/>
     </row>
     <row r="200">
       <c r="A200" s="1" t="n">
@@ -8456,16 +7265,13 @@
       <c r="H200" t="n">
         <v>0</v>
       </c>
-      <c r="I200" t="n">
-        <v>0</v>
-      </c>
+      <c r="I200" t="inlineStr"/>
       <c r="J200" t="inlineStr"/>
       <c r="K200" t="inlineStr"/>
-      <c r="L200" t="inlineStr"/>
-      <c r="M200" t="n">
-        <v>1</v>
-      </c>
-      <c r="N200" t="inlineStr"/>
+      <c r="L200" t="n">
+        <v>1</v>
+      </c>
+      <c r="M200" t="inlineStr"/>
     </row>
     <row r="201">
       <c r="A201" s="1" t="n">
@@ -8492,16 +7298,13 @@
       <c r="H201" t="n">
         <v>0</v>
       </c>
-      <c r="I201" t="n">
-        <v>0</v>
-      </c>
+      <c r="I201" t="inlineStr"/>
       <c r="J201" t="inlineStr"/>
       <c r="K201" t="inlineStr"/>
-      <c r="L201" t="inlineStr"/>
-      <c r="M201" t="n">
-        <v>1</v>
-      </c>
-      <c r="N201" t="inlineStr"/>
+      <c r="L201" t="n">
+        <v>1</v>
+      </c>
+      <c r="M201" t="inlineStr"/>
     </row>
     <row r="202">
       <c r="A202" s="1" t="n">
@@ -8528,16 +7331,13 @@
       <c r="H202" t="n">
         <v>0</v>
       </c>
-      <c r="I202" t="n">
-        <v>0</v>
-      </c>
+      <c r="I202" t="inlineStr"/>
       <c r="J202" t="inlineStr"/>
       <c r="K202" t="inlineStr"/>
-      <c r="L202" t="inlineStr"/>
-      <c r="M202" t="n">
-        <v>1</v>
-      </c>
-      <c r="N202" t="inlineStr"/>
+      <c r="L202" t="n">
+        <v>1</v>
+      </c>
+      <c r="M202" t="inlineStr"/>
     </row>
     <row r="203">
       <c r="A203" s="1" t="n">
@@ -8564,16 +7364,13 @@
       <c r="H203" t="n">
         <v>0</v>
       </c>
-      <c r="I203" t="n">
-        <v>1</v>
-      </c>
+      <c r="I203" t="inlineStr"/>
       <c r="J203" t="inlineStr"/>
       <c r="K203" t="inlineStr"/>
-      <c r="L203" t="inlineStr"/>
-      <c r="M203" t="n">
-        <v>1</v>
-      </c>
-      <c r="N203" t="inlineStr"/>
+      <c r="L203" t="n">
+        <v>1</v>
+      </c>
+      <c r="M203" t="inlineStr"/>
     </row>
     <row r="204">
       <c r="A204" s="1" t="n">
@@ -8600,16 +7397,13 @@
       <c r="H204" t="n">
         <v>0</v>
       </c>
-      <c r="I204" t="n">
-        <v>0</v>
-      </c>
+      <c r="I204" t="inlineStr"/>
       <c r="J204" t="inlineStr"/>
       <c r="K204" t="inlineStr"/>
-      <c r="L204" t="inlineStr"/>
-      <c r="M204" t="n">
-        <v>1</v>
-      </c>
-      <c r="N204" t="inlineStr"/>
+      <c r="L204" t="n">
+        <v>1</v>
+      </c>
+      <c r="M204" t="inlineStr"/>
     </row>
     <row r="205">
       <c r="A205" s="1" t="n">
@@ -8636,16 +7430,13 @@
       <c r="H205" t="n">
         <v>0</v>
       </c>
-      <c r="I205" t="n">
-        <v>1</v>
-      </c>
+      <c r="I205" t="inlineStr"/>
       <c r="J205" t="inlineStr"/>
       <c r="K205" t="inlineStr"/>
-      <c r="L205" t="inlineStr"/>
-      <c r="M205" t="n">
-        <v>1</v>
-      </c>
-      <c r="N205" t="inlineStr"/>
+      <c r="L205" t="n">
+        <v>1</v>
+      </c>
+      <c r="M205" t="inlineStr"/>
     </row>
     <row r="206">
       <c r="A206" s="1" t="n">
@@ -8672,16 +7463,13 @@
       <c r="H206" t="n">
         <v>0</v>
       </c>
-      <c r="I206" t="n">
-        <v>0</v>
-      </c>
+      <c r="I206" t="inlineStr"/>
       <c r="J206" t="inlineStr"/>
       <c r="K206" t="inlineStr"/>
-      <c r="L206" t="inlineStr"/>
-      <c r="M206" t="n">
-        <v>1</v>
-      </c>
-      <c r="N206" t="inlineStr"/>
+      <c r="L206" t="n">
+        <v>1</v>
+      </c>
+      <c r="M206" t="inlineStr"/>
     </row>
     <row r="207">
       <c r="A207" s="1" t="n">
@@ -8708,16 +7496,13 @@
       <c r="H207" t="n">
         <v>0</v>
       </c>
-      <c r="I207" t="n">
-        <v>0</v>
-      </c>
+      <c r="I207" t="inlineStr"/>
       <c r="J207" t="inlineStr"/>
       <c r="K207" t="inlineStr"/>
-      <c r="L207" t="inlineStr"/>
-      <c r="M207" t="n">
-        <v>1</v>
-      </c>
-      <c r="N207" t="inlineStr"/>
+      <c r="L207" t="n">
+        <v>1</v>
+      </c>
+      <c r="M207" t="inlineStr"/>
     </row>
     <row r="208">
       <c r="A208" s="1" t="n">
@@ -8744,16 +7529,13 @@
       <c r="H208" t="n">
         <v>0</v>
       </c>
-      <c r="I208" t="n">
-        <v>0</v>
-      </c>
+      <c r="I208" t="inlineStr"/>
       <c r="J208" t="inlineStr"/>
       <c r="K208" t="inlineStr"/>
-      <c r="L208" t="inlineStr"/>
-      <c r="M208" t="n">
-        <v>1</v>
-      </c>
-      <c r="N208" t="inlineStr"/>
+      <c r="L208" t="n">
+        <v>1</v>
+      </c>
+      <c r="M208" t="inlineStr"/>
     </row>
     <row r="209">
       <c r="A209" s="1" t="n">
@@ -8778,18 +7560,15 @@
         <v>4951805.646202277</v>
       </c>
       <c r="H209" t="n">
-        <v>0</v>
-      </c>
-      <c r="I209" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I209" t="inlineStr"/>
       <c r="J209" t="inlineStr"/>
       <c r="K209" t="inlineStr"/>
-      <c r="L209" t="inlineStr"/>
-      <c r="M209" t="n">
-        <v>1</v>
-      </c>
-      <c r="N209" t="inlineStr"/>
+      <c r="L209" t="n">
+        <v>1</v>
+      </c>
+      <c r="M209" t="inlineStr"/>
     </row>
     <row r="210">
       <c r="A210" s="1" t="n">
@@ -8816,16 +7595,13 @@
       <c r="H210" t="n">
         <v>0</v>
       </c>
-      <c r="I210" t="n">
-        <v>0</v>
-      </c>
+      <c r="I210" t="inlineStr"/>
       <c r="J210" t="inlineStr"/>
       <c r="K210" t="inlineStr"/>
-      <c r="L210" t="inlineStr"/>
-      <c r="M210" t="n">
-        <v>1</v>
-      </c>
-      <c r="N210" t="inlineStr"/>
+      <c r="L210" t="n">
+        <v>1</v>
+      </c>
+      <c r="M210" t="inlineStr"/>
     </row>
     <row r="211">
       <c r="A211" s="1" t="n">
@@ -8850,18 +7626,15 @@
         <v>4951805.646202277</v>
       </c>
       <c r="H211" t="n">
-        <v>0</v>
-      </c>
-      <c r="I211" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I211" t="inlineStr"/>
       <c r="J211" t="inlineStr"/>
       <c r="K211" t="inlineStr"/>
-      <c r="L211" t="inlineStr"/>
-      <c r="M211" t="n">
-        <v>1</v>
-      </c>
-      <c r="N211" t="inlineStr"/>
+      <c r="L211" t="n">
+        <v>1</v>
+      </c>
+      <c r="M211" t="inlineStr"/>
     </row>
     <row r="212">
       <c r="A212" s="1" t="n">
@@ -8888,16 +7661,13 @@
       <c r="H212" t="n">
         <v>0</v>
       </c>
-      <c r="I212" t="n">
-        <v>0</v>
-      </c>
+      <c r="I212" t="inlineStr"/>
       <c r="J212" t="inlineStr"/>
       <c r="K212" t="inlineStr"/>
-      <c r="L212" t="inlineStr"/>
-      <c r="M212" t="n">
-        <v>1</v>
-      </c>
-      <c r="N212" t="inlineStr"/>
+      <c r="L212" t="n">
+        <v>1</v>
+      </c>
+      <c r="M212" t="inlineStr"/>
     </row>
     <row r="213">
       <c r="A213" s="1" t="n">
@@ -8924,16 +7694,13 @@
       <c r="H213" t="n">
         <v>0</v>
       </c>
-      <c r="I213" t="n">
-        <v>0</v>
-      </c>
+      <c r="I213" t="inlineStr"/>
       <c r="J213" t="inlineStr"/>
       <c r="K213" t="inlineStr"/>
-      <c r="L213" t="inlineStr"/>
-      <c r="M213" t="n">
-        <v>1</v>
-      </c>
-      <c r="N213" t="inlineStr"/>
+      <c r="L213" t="n">
+        <v>1</v>
+      </c>
+      <c r="M213" t="inlineStr"/>
     </row>
     <row r="214">
       <c r="A214" s="1" t="n">
@@ -8960,16 +7727,13 @@
       <c r="H214" t="n">
         <v>0</v>
       </c>
-      <c r="I214" t="n">
-        <v>0</v>
-      </c>
+      <c r="I214" t="inlineStr"/>
       <c r="J214" t="inlineStr"/>
       <c r="K214" t="inlineStr"/>
-      <c r="L214" t="inlineStr"/>
-      <c r="M214" t="n">
-        <v>1</v>
-      </c>
-      <c r="N214" t="inlineStr"/>
+      <c r="L214" t="n">
+        <v>1</v>
+      </c>
+      <c r="M214" t="inlineStr"/>
     </row>
     <row r="215">
       <c r="A215" s="1" t="n">
@@ -8996,16 +7760,13 @@
       <c r="H215" t="n">
         <v>0</v>
       </c>
-      <c r="I215" t="n">
-        <v>0</v>
-      </c>
+      <c r="I215" t="inlineStr"/>
       <c r="J215" t="inlineStr"/>
       <c r="K215" t="inlineStr"/>
-      <c r="L215" t="inlineStr"/>
-      <c r="M215" t="n">
-        <v>1</v>
-      </c>
-      <c r="N215" t="inlineStr"/>
+      <c r="L215" t="n">
+        <v>1</v>
+      </c>
+      <c r="M215" t="inlineStr"/>
     </row>
     <row r="216">
       <c r="A216" s="1" t="n">
@@ -9032,16 +7793,13 @@
       <c r="H216" t="n">
         <v>0</v>
       </c>
-      <c r="I216" t="n">
-        <v>0</v>
-      </c>
+      <c r="I216" t="inlineStr"/>
       <c r="J216" t="inlineStr"/>
       <c r="K216" t="inlineStr"/>
-      <c r="L216" t="inlineStr"/>
-      <c r="M216" t="n">
-        <v>1</v>
-      </c>
-      <c r="N216" t="inlineStr"/>
+      <c r="L216" t="n">
+        <v>1</v>
+      </c>
+      <c r="M216" t="inlineStr"/>
     </row>
     <row r="217">
       <c r="A217" s="1" t="n">
@@ -9068,16 +7826,13 @@
       <c r="H217" t="n">
         <v>0</v>
       </c>
-      <c r="I217" t="n">
-        <v>1</v>
-      </c>
+      <c r="I217" t="inlineStr"/>
       <c r="J217" t="inlineStr"/>
       <c r="K217" t="inlineStr"/>
-      <c r="L217" t="inlineStr"/>
-      <c r="M217" t="n">
-        <v>1</v>
-      </c>
-      <c r="N217" t="inlineStr"/>
+      <c r="L217" t="n">
+        <v>1</v>
+      </c>
+      <c r="M217" t="inlineStr"/>
     </row>
     <row r="218">
       <c r="A218" s="1" t="n">
@@ -9104,16 +7859,13 @@
       <c r="H218" t="n">
         <v>0</v>
       </c>
-      <c r="I218" t="n">
-        <v>0</v>
-      </c>
+      <c r="I218" t="inlineStr"/>
       <c r="J218" t="inlineStr"/>
       <c r="K218" t="inlineStr"/>
-      <c r="L218" t="inlineStr"/>
-      <c r="M218" t="n">
-        <v>1</v>
-      </c>
-      <c r="N218" t="inlineStr"/>
+      <c r="L218" t="n">
+        <v>1</v>
+      </c>
+      <c r="M218" t="inlineStr"/>
     </row>
     <row r="219">
       <c r="A219" s="1" t="n">
@@ -9140,16 +7892,13 @@
       <c r="H219" t="n">
         <v>0</v>
       </c>
-      <c r="I219" t="n">
-        <v>1</v>
-      </c>
+      <c r="I219" t="inlineStr"/>
       <c r="J219" t="inlineStr"/>
       <c r="K219" t="inlineStr"/>
-      <c r="L219" t="inlineStr"/>
-      <c r="M219" t="n">
-        <v>1</v>
-      </c>
-      <c r="N219" t="inlineStr"/>
+      <c r="L219" t="n">
+        <v>1</v>
+      </c>
+      <c r="M219" t="inlineStr"/>
     </row>
     <row r="220">
       <c r="A220" s="1" t="n">
@@ -9176,16 +7925,13 @@
       <c r="H220" t="n">
         <v>0</v>
       </c>
-      <c r="I220" t="n">
-        <v>0</v>
-      </c>
+      <c r="I220" t="inlineStr"/>
       <c r="J220" t="inlineStr"/>
       <c r="K220" t="inlineStr"/>
-      <c r="L220" t="inlineStr"/>
-      <c r="M220" t="n">
-        <v>1</v>
-      </c>
-      <c r="N220" t="inlineStr"/>
+      <c r="L220" t="n">
+        <v>1</v>
+      </c>
+      <c r="M220" t="inlineStr"/>
     </row>
     <row r="221">
       <c r="A221" s="1" t="n">
@@ -9210,18 +7956,15 @@
         <v>4839064.14733253</v>
       </c>
       <c r="H221" t="n">
-        <v>0</v>
-      </c>
-      <c r="I221" t="n">
-        <v>1</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I221" t="inlineStr"/>
       <c r="J221" t="inlineStr"/>
       <c r="K221" t="inlineStr"/>
-      <c r="L221" t="inlineStr"/>
-      <c r="M221" t="n">
-        <v>1</v>
-      </c>
-      <c r="N221" t="inlineStr"/>
+      <c r="L221" t="n">
+        <v>1</v>
+      </c>
+      <c r="M221" t="inlineStr"/>
     </row>
     <row r="222">
       <c r="A222" s="1" t="n">
@@ -9248,16 +7991,13 @@
       <c r="H222" t="n">
         <v>0</v>
       </c>
-      <c r="I222" t="n">
-        <v>0</v>
-      </c>
+      <c r="I222" t="inlineStr"/>
       <c r="J222" t="inlineStr"/>
       <c r="K222" t="inlineStr"/>
-      <c r="L222" t="inlineStr"/>
-      <c r="M222" t="n">
-        <v>1</v>
-      </c>
-      <c r="N222" t="inlineStr"/>
+      <c r="L222" t="n">
+        <v>1</v>
+      </c>
+      <c r="M222" t="inlineStr"/>
     </row>
     <row r="223">
       <c r="A223" s="1" t="n">
@@ -9284,16 +8024,13 @@
       <c r="H223" t="n">
         <v>0</v>
       </c>
-      <c r="I223" t="n">
-        <v>1</v>
-      </c>
+      <c r="I223" t="inlineStr"/>
       <c r="J223" t="inlineStr"/>
       <c r="K223" t="inlineStr"/>
-      <c r="L223" t="inlineStr"/>
-      <c r="M223" t="n">
-        <v>1</v>
-      </c>
-      <c r="N223" t="inlineStr"/>
+      <c r="L223" t="n">
+        <v>1</v>
+      </c>
+      <c r="M223" t="inlineStr"/>
     </row>
     <row r="224">
       <c r="A224" s="1" t="n">
@@ -9320,16 +8057,13 @@
       <c r="H224" t="n">
         <v>0</v>
       </c>
-      <c r="I224" t="n">
-        <v>0</v>
-      </c>
+      <c r="I224" t="inlineStr"/>
       <c r="J224" t="inlineStr"/>
       <c r="K224" t="inlineStr"/>
-      <c r="L224" t="inlineStr"/>
-      <c r="M224" t="n">
-        <v>1</v>
-      </c>
-      <c r="N224" t="inlineStr"/>
+      <c r="L224" t="n">
+        <v>1</v>
+      </c>
+      <c r="M224" t="inlineStr"/>
     </row>
     <row r="225">
       <c r="A225" s="1" t="n">
@@ -9354,18 +8088,15 @@
         <v>4860136.76563253</v>
       </c>
       <c r="H225" t="n">
-        <v>0</v>
-      </c>
-      <c r="I225" t="n">
-        <v>1</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I225" t="inlineStr"/>
       <c r="J225" t="inlineStr"/>
       <c r="K225" t="inlineStr"/>
-      <c r="L225" t="inlineStr"/>
-      <c r="M225" t="n">
-        <v>1</v>
-      </c>
-      <c r="N225" t="inlineStr"/>
+      <c r="L225" t="n">
+        <v>1</v>
+      </c>
+      <c r="M225" t="inlineStr"/>
     </row>
     <row r="226">
       <c r="A226" s="1" t="n">
@@ -9392,16 +8123,13 @@
       <c r="H226" t="n">
         <v>0</v>
       </c>
-      <c r="I226" t="n">
-        <v>1</v>
-      </c>
+      <c r="I226" t="inlineStr"/>
       <c r="J226" t="inlineStr"/>
       <c r="K226" t="inlineStr"/>
-      <c r="L226" t="inlineStr"/>
-      <c r="M226" t="n">
-        <v>1</v>
-      </c>
-      <c r="N226" t="inlineStr"/>
+      <c r="L226" t="n">
+        <v>1</v>
+      </c>
+      <c r="M226" t="inlineStr"/>
     </row>
     <row r="227">
       <c r="A227" s="1" t="n">
@@ -9428,16 +8156,13 @@
       <c r="H227" t="n">
         <v>0</v>
       </c>
-      <c r="I227" t="n">
-        <v>1</v>
-      </c>
+      <c r="I227" t="inlineStr"/>
       <c r="J227" t="inlineStr"/>
       <c r="K227" t="inlineStr"/>
-      <c r="L227" t="inlineStr"/>
-      <c r="M227" t="n">
-        <v>1</v>
-      </c>
-      <c r="N227" t="inlineStr"/>
+      <c r="L227" t="n">
+        <v>1</v>
+      </c>
+      <c r="M227" t="inlineStr"/>
     </row>
     <row r="228">
       <c r="A228" s="1" t="n">
@@ -9464,16 +8189,13 @@
       <c r="H228" t="n">
         <v>0</v>
       </c>
-      <c r="I228" t="n">
-        <v>1</v>
-      </c>
+      <c r="I228" t="inlineStr"/>
       <c r="J228" t="inlineStr"/>
       <c r="K228" t="inlineStr"/>
-      <c r="L228" t="inlineStr"/>
-      <c r="M228" t="n">
-        <v>1</v>
-      </c>
-      <c r="N228" t="inlineStr"/>
+      <c r="L228" t="n">
+        <v>1</v>
+      </c>
+      <c r="M228" t="inlineStr"/>
     </row>
     <row r="229">
       <c r="A229" s="1" t="n">
@@ -9500,16 +8222,13 @@
       <c r="H229" t="n">
         <v>0</v>
       </c>
-      <c r="I229" t="n">
-        <v>1</v>
-      </c>
+      <c r="I229" t="inlineStr"/>
       <c r="J229" t="inlineStr"/>
       <c r="K229" t="inlineStr"/>
-      <c r="L229" t="inlineStr"/>
-      <c r="M229" t="n">
-        <v>1</v>
-      </c>
-      <c r="N229" t="inlineStr"/>
+      <c r="L229" t="n">
+        <v>1</v>
+      </c>
+      <c r="M229" t="inlineStr"/>
     </row>
     <row r="230">
       <c r="A230" s="1" t="n">
@@ -9536,16 +8255,13 @@
       <c r="H230" t="n">
         <v>0</v>
       </c>
-      <c r="I230" t="n">
-        <v>1</v>
-      </c>
+      <c r="I230" t="inlineStr"/>
       <c r="J230" t="inlineStr"/>
       <c r="K230" t="inlineStr"/>
-      <c r="L230" t="inlineStr"/>
-      <c r="M230" t="n">
-        <v>1</v>
-      </c>
-      <c r="N230" t="inlineStr"/>
+      <c r="L230" t="n">
+        <v>1</v>
+      </c>
+      <c r="M230" t="inlineStr"/>
     </row>
     <row r="231">
       <c r="A231" s="1" t="n">
@@ -9572,16 +8288,13 @@
       <c r="H231" t="n">
         <v>0</v>
       </c>
-      <c r="I231" t="n">
-        <v>1</v>
-      </c>
+      <c r="I231" t="inlineStr"/>
       <c r="J231" t="inlineStr"/>
       <c r="K231" t="inlineStr"/>
-      <c r="L231" t="inlineStr"/>
-      <c r="M231" t="n">
-        <v>1</v>
-      </c>
-      <c r="N231" t="inlineStr"/>
+      <c r="L231" t="n">
+        <v>1</v>
+      </c>
+      <c r="M231" t="inlineStr"/>
     </row>
     <row r="232">
       <c r="A232" s="1" t="n">
@@ -9608,16 +8321,13 @@
       <c r="H232" t="n">
         <v>0</v>
       </c>
-      <c r="I232" t="n">
-        <v>1</v>
-      </c>
+      <c r="I232" t="inlineStr"/>
       <c r="J232" t="inlineStr"/>
       <c r="K232" t="inlineStr"/>
-      <c r="L232" t="inlineStr"/>
-      <c r="M232" t="n">
-        <v>1</v>
-      </c>
-      <c r="N232" t="inlineStr"/>
+      <c r="L232" t="n">
+        <v>1</v>
+      </c>
+      <c r="M232" t="inlineStr"/>
     </row>
     <row r="233">
       <c r="A233" s="1" t="n">
@@ -9642,18 +8352,15 @@
         <v>4677839.26803253</v>
       </c>
       <c r="H233" t="n">
-        <v>0</v>
-      </c>
-      <c r="I233" t="n">
-        <v>1</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I233" t="inlineStr"/>
       <c r="J233" t="inlineStr"/>
       <c r="K233" t="inlineStr"/>
-      <c r="L233" t="inlineStr"/>
-      <c r="M233" t="n">
-        <v>1</v>
-      </c>
-      <c r="N233" t="inlineStr"/>
+      <c r="L233" t="n">
+        <v>1</v>
+      </c>
+      <c r="M233" t="inlineStr"/>
     </row>
     <row r="234">
       <c r="A234" s="1" t="n">
@@ -9680,18 +8387,15 @@
       <c r="H234" t="n">
         <v>0</v>
       </c>
-      <c r="I234" t="n">
-        <v>1</v>
-      </c>
+      <c r="I234" t="inlineStr"/>
       <c r="J234" t="inlineStr"/>
       <c r="K234" t="inlineStr"/>
-      <c r="L234" t="inlineStr"/>
-      <c r="M234" t="n">
-        <v>1</v>
-      </c>
-      <c r="N234" t="inlineStr"/>
+      <c r="L234" t="n">
+        <v>1</v>
+      </c>
+      <c r="M234" t="inlineStr"/>
     </row>
   </sheetData>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
--- a/BackTest/2019-11-21 BackTest ORBS.xlsx
+++ b/BackTest/2019-11-21 BackTest ORBS.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -54,18 +54,18 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
+    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
 </styleSheet>
 </file>
 
@@ -394,7 +394,7 @@
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>OBV</t>
+          <t>CMO</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
@@ -583,11 +583,17 @@
         <v>21246.88222886567</v>
       </c>
       <c r="H6" t="n">
-        <v>0</v>
-      </c>
-      <c r="I6" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I6" t="n">
+        <v>11.4</v>
+      </c>
       <c r="J6" t="inlineStr"/>
-      <c r="K6" t="inlineStr"/>
+      <c r="K6" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
       <c r="L6" t="n">
         <v>1</v>
       </c>
@@ -616,11 +622,17 @@
         <v>45829.56662886566</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
-      </c>
-      <c r="I7" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I7" t="n">
+        <v>11.3</v>
+      </c>
       <c r="J7" t="inlineStr"/>
-      <c r="K7" t="inlineStr"/>
+      <c r="K7" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L7" t="n">
         <v>1</v>
       </c>
@@ -649,11 +661,17 @@
         <v>45829.56662886566</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
-      </c>
-      <c r="I8" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I8" t="n">
+        <v>11.4</v>
+      </c>
       <c r="J8" t="inlineStr"/>
-      <c r="K8" t="inlineStr"/>
+      <c r="K8" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L8" t="n">
         <v>1</v>
       </c>
@@ -682,11 +700,17 @@
         <v>13184.56662886566</v>
       </c>
       <c r="H9" t="n">
-        <v>0</v>
-      </c>
-      <c r="I9" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I9" t="n">
+        <v>11.4</v>
+      </c>
       <c r="J9" t="inlineStr"/>
-      <c r="K9" t="inlineStr"/>
+      <c r="K9" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L9" t="n">
         <v>1</v>
       </c>
@@ -715,11 +739,17 @@
         <v>13184.56662886566</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
-      </c>
-      <c r="I10" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I10" t="n">
+        <v>11.3</v>
+      </c>
       <c r="J10" t="inlineStr"/>
-      <c r="K10" t="inlineStr"/>
+      <c r="K10" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L10" t="n">
         <v>1</v>
       </c>
@@ -748,11 +778,17 @@
         <v>13184.56662886566</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
-      </c>
-      <c r="I11" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I11" t="n">
+        <v>11.3</v>
+      </c>
       <c r="J11" t="inlineStr"/>
-      <c r="K11" t="inlineStr"/>
+      <c r="K11" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L11" t="n">
         <v>1</v>
       </c>
@@ -781,11 +817,17 @@
         <v>14560.06902886566</v>
       </c>
       <c r="H12" t="n">
-        <v>0</v>
-      </c>
-      <c r="I12" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I12" t="n">
+        <v>11.3</v>
+      </c>
       <c r="J12" t="inlineStr"/>
-      <c r="K12" t="inlineStr"/>
+      <c r="K12" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L12" t="n">
         <v>1</v>
       </c>
@@ -814,11 +856,17 @@
         <v>14560.06902886566</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
-      </c>
-      <c r="I13" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I13" t="n">
+        <v>11.4</v>
+      </c>
       <c r="J13" t="inlineStr"/>
-      <c r="K13" t="inlineStr"/>
+      <c r="K13" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L13" t="n">
         <v>1</v>
       </c>
@@ -847,15 +895,17 @@
         <v>-92738.50867113433</v>
       </c>
       <c r="H14" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I14" t="n">
         <v>11.4</v>
       </c>
-      <c r="J14" t="n">
-        <v>11.4</v>
-      </c>
-      <c r="K14" t="inlineStr"/>
+      <c r="J14" t="inlineStr"/>
+      <c r="K14" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L14" t="n">
         <v>1</v>
       </c>
@@ -884,15 +934,15 @@
         <v>-92738.50867113433</v>
       </c>
       <c r="H15" t="n">
-        <v>0</v>
-      </c>
-      <c r="I15" t="inlineStr"/>
-      <c r="J15" t="n">
-        <v>11.4</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I15" t="n">
+        <v>11.3</v>
+      </c>
+      <c r="J15" t="inlineStr"/>
       <c r="K15" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L15" t="n">
@@ -923,15 +973,15 @@
         <v>-90238.50867113433</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
-      </c>
-      <c r="I16" t="inlineStr"/>
-      <c r="J16" t="n">
-        <v>11.4</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I16" t="n">
+        <v>11.3</v>
+      </c>
+      <c r="J16" t="inlineStr"/>
       <c r="K16" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L16" t="n">
@@ -962,15 +1012,17 @@
         <v>-90238.50867113433</v>
       </c>
       <c r="H17" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I17" t="n">
         <v>11.4</v>
       </c>
-      <c r="J17" t="n">
-        <v>11.4</v>
-      </c>
-      <c r="K17" t="inlineStr"/>
+      <c r="J17" t="inlineStr"/>
+      <c r="K17" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L17" t="n">
         <v>1</v>
       </c>
@@ -999,15 +1051,15 @@
         <v>-117277.5086711343</v>
       </c>
       <c r="H18" t="n">
-        <v>0</v>
-      </c>
-      <c r="I18" t="inlineStr"/>
-      <c r="J18" t="n">
-        <v>11.4</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I18" t="n">
+        <v>11.4</v>
+      </c>
+      <c r="J18" t="inlineStr"/>
       <c r="K18" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L18" t="n">
@@ -1038,15 +1090,15 @@
         <v>-117277.5086711343</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
-      </c>
-      <c r="I19" t="inlineStr"/>
-      <c r="J19" t="n">
-        <v>11.4</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I19" t="n">
+        <v>11.3</v>
+      </c>
+      <c r="J19" t="inlineStr"/>
       <c r="K19" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L19" t="n">
@@ -1077,11 +1129,17 @@
         <v>-117277.5086711343</v>
       </c>
       <c r="H20" t="n">
-        <v>0</v>
-      </c>
-      <c r="I20" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I20" t="n">
+        <v>11.3</v>
+      </c>
       <c r="J20" t="inlineStr"/>
-      <c r="K20" t="inlineStr"/>
+      <c r="K20" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L20" t="n">
         <v>1</v>
       </c>
@@ -1110,11 +1168,17 @@
         <v>-117277.5086711343</v>
       </c>
       <c r="H21" t="n">
-        <v>0</v>
-      </c>
-      <c r="I21" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I21" t="n">
+        <v>11.3</v>
+      </c>
       <c r="J21" t="inlineStr"/>
-      <c r="K21" t="inlineStr"/>
+      <c r="K21" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L21" t="n">
         <v>1</v>
       </c>
@@ -1143,11 +1207,17 @@
         <v>-117277.5086711343</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
-      </c>
-      <c r="I22" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I22" t="n">
+        <v>11.3</v>
+      </c>
       <c r="J22" t="inlineStr"/>
-      <c r="K22" t="inlineStr"/>
+      <c r="K22" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L22" t="n">
         <v>1</v>
       </c>
@@ -1176,11 +1246,17 @@
         <v>-117277.5086711343</v>
       </c>
       <c r="H23" t="n">
-        <v>0</v>
-      </c>
-      <c r="I23" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I23" t="n">
+        <v>11.3</v>
+      </c>
       <c r="J23" t="inlineStr"/>
-      <c r="K23" t="inlineStr"/>
+      <c r="K23" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L23" t="n">
         <v>1</v>
       </c>
@@ -1209,11 +1285,17 @@
         <v>-117277.5086711343</v>
       </c>
       <c r="H24" t="n">
-        <v>0</v>
-      </c>
-      <c r="I24" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I24" t="n">
+        <v>11.3</v>
+      </c>
       <c r="J24" t="inlineStr"/>
-      <c r="K24" t="inlineStr"/>
+      <c r="K24" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L24" t="n">
         <v>1</v>
       </c>
@@ -1242,11 +1324,17 @@
         <v>-117277.5086711343</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
-      </c>
-      <c r="I25" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I25" t="n">
+        <v>11.3</v>
+      </c>
       <c r="J25" t="inlineStr"/>
-      <c r="K25" t="inlineStr"/>
+      <c r="K25" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L25" t="n">
         <v>1</v>
       </c>
@@ -1275,11 +1363,17 @@
         <v>-117277.5086711343</v>
       </c>
       <c r="H26" t="n">
-        <v>0</v>
-      </c>
-      <c r="I26" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I26" t="n">
+        <v>11.3</v>
+      </c>
       <c r="J26" t="inlineStr"/>
-      <c r="K26" t="inlineStr"/>
+      <c r="K26" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L26" t="n">
         <v>1</v>
       </c>
@@ -1308,15 +1402,17 @@
         <v>-90065.75307113433</v>
       </c>
       <c r="H27" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I27" t="n">
         <v>11.3</v>
       </c>
-      <c r="J27" t="n">
-        <v>11.3</v>
-      </c>
-      <c r="K27" t="inlineStr"/>
+      <c r="J27" t="inlineStr"/>
+      <c r="K27" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L27" t="n">
         <v>1</v>
       </c>
@@ -1345,17 +1441,15 @@
         <v>-173191.2725711343</v>
       </c>
       <c r="H28" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I28" t="n">
         <v>11.4</v>
       </c>
-      <c r="J28" t="n">
-        <v>11.3</v>
-      </c>
+      <c r="J28" t="inlineStr"/>
       <c r="K28" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L28" t="n">
@@ -1386,15 +1480,15 @@
         <v>-173191.2725711343</v>
       </c>
       <c r="H29" t="n">
-        <v>0</v>
-      </c>
-      <c r="I29" t="inlineStr"/>
-      <c r="J29" t="n">
-        <v>11.3</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I29" t="n">
+        <v>11.3</v>
+      </c>
+      <c r="J29" t="inlineStr"/>
       <c r="K29" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L29" t="n">
@@ -1425,11 +1519,17 @@
         <v>-172295.2792711343</v>
       </c>
       <c r="H30" t="n">
-        <v>0</v>
-      </c>
-      <c r="I30" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I30" t="n">
+        <v>11.3</v>
+      </c>
       <c r="J30" t="inlineStr"/>
-      <c r="K30" t="inlineStr"/>
+      <c r="K30" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L30" t="n">
         <v>1</v>
       </c>
@@ -1458,11 +1558,17 @@
         <v>-411242.9847711343</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
-      </c>
-      <c r="I31" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I31" t="n">
+        <v>11.4</v>
+      </c>
       <c r="J31" t="inlineStr"/>
-      <c r="K31" t="inlineStr"/>
+      <c r="K31" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L31" t="n">
         <v>1</v>
       </c>
@@ -1491,11 +1597,17 @@
         <v>-411242.9847711343</v>
       </c>
       <c r="H32" t="n">
-        <v>0</v>
-      </c>
-      <c r="I32" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I32" t="n">
+        <v>11.3</v>
+      </c>
       <c r="J32" t="inlineStr"/>
-      <c r="K32" t="inlineStr"/>
+      <c r="K32" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L32" t="n">
         <v>1</v>
       </c>
@@ -1524,15 +1636,15 @@
         <v>-411242.9847711343</v>
       </c>
       <c r="H33" t="n">
-        <v>2</v>
-      </c>
-      <c r="I33" t="n">
-        <v>11.3</v>
-      </c>
-      <c r="J33" t="n">
-        <v>11.3</v>
-      </c>
-      <c r="K33" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I33" t="inlineStr"/>
+      <c r="J33" t="inlineStr"/>
+      <c r="K33" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L33" t="n">
         <v>1</v>
       </c>
@@ -1564,12 +1676,10 @@
         <v>0</v>
       </c>
       <c r="I34" t="inlineStr"/>
-      <c r="J34" t="n">
-        <v>11.3</v>
-      </c>
+      <c r="J34" t="inlineStr"/>
       <c r="K34" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L34" t="n">
@@ -1600,17 +1710,15 @@
         <v>-411242.9847711343</v>
       </c>
       <c r="H35" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I35" t="n">
         <v>11.3</v>
       </c>
-      <c r="J35" t="n">
-        <v>11.3</v>
-      </c>
+      <c r="J35" t="inlineStr"/>
       <c r="K35" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L35" t="n">
@@ -1641,11 +1749,17 @@
         <v>-411242.9847711343</v>
       </c>
       <c r="H36" t="n">
-        <v>0</v>
-      </c>
-      <c r="I36" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I36" t="n">
+        <v>11.3</v>
+      </c>
       <c r="J36" t="inlineStr"/>
-      <c r="K36" t="inlineStr"/>
+      <c r="K36" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L36" t="n">
         <v>1</v>
       </c>
@@ -1674,11 +1788,17 @@
         <v>-386023.3803711343</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
-      </c>
-      <c r="I37" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I37" t="n">
+        <v>11.3</v>
+      </c>
       <c r="J37" t="inlineStr"/>
-      <c r="K37" t="inlineStr"/>
+      <c r="K37" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L37" t="n">
         <v>1</v>
       </c>
@@ -1707,11 +1827,17 @@
         <v>-386023.3803711343</v>
       </c>
       <c r="H38" t="n">
-        <v>0</v>
-      </c>
-      <c r="I38" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I38" t="n">
+        <v>11.4</v>
+      </c>
       <c r="J38" t="inlineStr"/>
-      <c r="K38" t="inlineStr"/>
+      <c r="K38" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L38" t="n">
         <v>1</v>
       </c>
@@ -1744,7 +1870,11 @@
       </c>
       <c r="I39" t="inlineStr"/>
       <c r="J39" t="inlineStr"/>
-      <c r="K39" t="inlineStr"/>
+      <c r="K39" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L39" t="n">
         <v>1</v>
       </c>
@@ -1777,7 +1907,11 @@
       </c>
       <c r="I40" t="inlineStr"/>
       <c r="J40" t="inlineStr"/>
-      <c r="K40" t="inlineStr"/>
+      <c r="K40" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L40" t="n">
         <v>1</v>
       </c>
@@ -1806,15 +1940,15 @@
         <v>-429773.6537711343</v>
       </c>
       <c r="H41" t="n">
-        <v>2</v>
-      </c>
-      <c r="I41" t="n">
-        <v>11.4</v>
-      </c>
-      <c r="J41" t="n">
-        <v>11.4</v>
-      </c>
-      <c r="K41" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I41" t="inlineStr"/>
+      <c r="J41" t="inlineStr"/>
+      <c r="K41" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L41" t="n">
         <v>1</v>
       </c>
@@ -1843,17 +1977,15 @@
         <v>-429773.6537711343</v>
       </c>
       <c r="H42" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I42" t="n">
         <v>11.3</v>
       </c>
-      <c r="J42" t="n">
-        <v>11.4</v>
-      </c>
+      <c r="J42" t="inlineStr"/>
       <c r="K42" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L42" t="n">
@@ -1887,12 +2019,10 @@
         <v>0</v>
       </c>
       <c r="I43" t="inlineStr"/>
-      <c r="J43" t="n">
-        <v>11.4</v>
-      </c>
+      <c r="J43" t="inlineStr"/>
       <c r="K43" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L43" t="n">
@@ -1927,7 +2057,11 @@
       </c>
       <c r="I44" t="inlineStr"/>
       <c r="J44" t="inlineStr"/>
-      <c r="K44" t="inlineStr"/>
+      <c r="K44" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L44" t="n">
         <v>1</v>
       </c>
@@ -1960,7 +2094,11 @@
       </c>
       <c r="I45" t="inlineStr"/>
       <c r="J45" t="inlineStr"/>
-      <c r="K45" t="inlineStr"/>
+      <c r="K45" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L45" t="n">
         <v>1</v>
       </c>
@@ -1993,7 +2131,11 @@
       </c>
       <c r="I46" t="inlineStr"/>
       <c r="J46" t="inlineStr"/>
-      <c r="K46" t="inlineStr"/>
+      <c r="K46" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L46" t="n">
         <v>1</v>
       </c>
@@ -2026,7 +2168,11 @@
       </c>
       <c r="I47" t="inlineStr"/>
       <c r="J47" t="inlineStr"/>
-      <c r="K47" t="inlineStr"/>
+      <c r="K47" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L47" t="n">
         <v>1</v>
       </c>
@@ -2059,7 +2205,11 @@
       </c>
       <c r="I48" t="inlineStr"/>
       <c r="J48" t="inlineStr"/>
-      <c r="K48" t="inlineStr"/>
+      <c r="K48" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L48" t="n">
         <v>1</v>
       </c>
@@ -2092,7 +2242,11 @@
       </c>
       <c r="I49" t="inlineStr"/>
       <c r="J49" t="inlineStr"/>
-      <c r="K49" t="inlineStr"/>
+      <c r="K49" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L49" t="n">
         <v>1</v>
       </c>
@@ -2125,7 +2279,11 @@
       </c>
       <c r="I50" t="inlineStr"/>
       <c r="J50" t="inlineStr"/>
-      <c r="K50" t="inlineStr"/>
+      <c r="K50" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L50" t="n">
         <v>1</v>
       </c>
@@ -2158,7 +2316,11 @@
       </c>
       <c r="I51" t="inlineStr"/>
       <c r="J51" t="inlineStr"/>
-      <c r="K51" t="inlineStr"/>
+      <c r="K51" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L51" t="n">
         <v>1</v>
       </c>
@@ -2191,7 +2353,11 @@
       </c>
       <c r="I52" t="inlineStr"/>
       <c r="J52" t="inlineStr"/>
-      <c r="K52" t="inlineStr"/>
+      <c r="K52" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L52" t="n">
         <v>1</v>
       </c>
@@ -2224,7 +2390,11 @@
       </c>
       <c r="I53" t="inlineStr"/>
       <c r="J53" t="inlineStr"/>
-      <c r="K53" t="inlineStr"/>
+      <c r="K53" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L53" t="n">
         <v>1</v>
       </c>
@@ -2257,7 +2427,11 @@
       </c>
       <c r="I54" t="inlineStr"/>
       <c r="J54" t="inlineStr"/>
-      <c r="K54" t="inlineStr"/>
+      <c r="K54" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L54" t="n">
         <v>1</v>
       </c>
@@ -2286,15 +2460,15 @@
         <v>-155511.5393252753</v>
       </c>
       <c r="H55" t="n">
-        <v>2</v>
-      </c>
-      <c r="I55" t="n">
-        <v>11.5</v>
-      </c>
-      <c r="J55" t="n">
-        <v>11.5</v>
-      </c>
-      <c r="K55" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I55" t="inlineStr"/>
+      <c r="J55" t="inlineStr"/>
+      <c r="K55" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L55" t="n">
         <v>1</v>
       </c>
@@ -2323,17 +2497,13 @@
         <v>-155511.5393252753</v>
       </c>
       <c r="H56" t="n">
-        <v>2</v>
-      </c>
-      <c r="I56" t="n">
-        <v>11.5</v>
-      </c>
-      <c r="J56" t="n">
-        <v>11.5</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I56" t="inlineStr"/>
+      <c r="J56" t="inlineStr"/>
       <c r="K56" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L56" t="n">
@@ -2364,17 +2534,13 @@
         <v>-155511.5393252753</v>
       </c>
       <c r="H57" t="n">
-        <v>2</v>
-      </c>
-      <c r="I57" t="n">
-        <v>11.5</v>
-      </c>
-      <c r="J57" t="n">
-        <v>11.5</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I57" t="inlineStr"/>
+      <c r="J57" t="inlineStr"/>
       <c r="K57" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L57" t="n">
@@ -2405,15 +2571,15 @@
         <v>-155511.5393252753</v>
       </c>
       <c r="H58" t="n">
-        <v>2</v>
-      </c>
-      <c r="I58" t="n">
-        <v>11.5</v>
-      </c>
-      <c r="J58" t="n">
-        <v>11.5</v>
-      </c>
-      <c r="K58" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I58" t="inlineStr"/>
+      <c r="J58" t="inlineStr"/>
+      <c r="K58" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L58" t="n">
         <v>1</v>
       </c>
@@ -2442,17 +2608,13 @@
         <v>-163311.8413252753</v>
       </c>
       <c r="H59" t="n">
-        <v>2</v>
-      </c>
-      <c r="I59" t="n">
-        <v>11.5</v>
-      </c>
-      <c r="J59" t="n">
-        <v>11.5</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I59" t="inlineStr"/>
+      <c r="J59" t="inlineStr"/>
       <c r="K59" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L59" t="n">
@@ -2483,17 +2645,13 @@
         <v>-138251.9970122318</v>
       </c>
       <c r="H60" t="n">
-        <v>2</v>
-      </c>
-      <c r="I60" t="n">
-        <v>11.4</v>
-      </c>
-      <c r="J60" t="n">
-        <v>11.5</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I60" t="inlineStr"/>
+      <c r="J60" t="inlineStr"/>
       <c r="K60" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L60" t="n">
@@ -2524,15 +2682,15 @@
         <v>-138251.9970122318</v>
       </c>
       <c r="H61" t="n">
-        <v>2</v>
-      </c>
-      <c r="I61" t="n">
-        <v>11.5</v>
-      </c>
-      <c r="J61" t="n">
-        <v>11.5</v>
-      </c>
-      <c r="K61" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I61" t="inlineStr"/>
+      <c r="J61" t="inlineStr"/>
+      <c r="K61" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L61" t="n">
         <v>1</v>
       </c>
@@ -2561,17 +2719,13 @@
         <v>-141493.8720122318</v>
       </c>
       <c r="H62" t="n">
-        <v>2</v>
-      </c>
-      <c r="I62" t="n">
-        <v>11.5</v>
-      </c>
-      <c r="J62" t="n">
-        <v>11.5</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I62" t="inlineStr"/>
+      <c r="J62" t="inlineStr"/>
       <c r="K62" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L62" t="n">
@@ -2602,17 +2756,13 @@
         <v>-141493.8720122318</v>
       </c>
       <c r="H63" t="n">
-        <v>2</v>
-      </c>
-      <c r="I63" t="n">
-        <v>11.4</v>
-      </c>
-      <c r="J63" t="n">
-        <v>11.5</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I63" t="inlineStr"/>
+      <c r="J63" t="inlineStr"/>
       <c r="K63" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L63" t="n">
@@ -2643,15 +2793,15 @@
         <v>-141493.8720122318</v>
       </c>
       <c r="H64" t="n">
-        <v>2</v>
-      </c>
-      <c r="I64" t="n">
-        <v>11.4</v>
-      </c>
-      <c r="J64" t="n">
-        <v>11.4</v>
-      </c>
-      <c r="K64" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I64" t="inlineStr"/>
+      <c r="J64" t="inlineStr"/>
+      <c r="K64" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L64" t="n">
         <v>1</v>
       </c>
@@ -2680,17 +2830,13 @@
         <v>-131936.9865122318</v>
       </c>
       <c r="H65" t="n">
-        <v>2</v>
-      </c>
-      <c r="I65" t="n">
-        <v>11.4</v>
-      </c>
-      <c r="J65" t="n">
-        <v>11.4</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I65" t="inlineStr"/>
+      <c r="J65" t="inlineStr"/>
       <c r="K65" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L65" t="n">
@@ -2721,17 +2867,13 @@
         <v>-131936.9865122318</v>
       </c>
       <c r="H66" t="n">
-        <v>2</v>
-      </c>
-      <c r="I66" t="n">
-        <v>11.5</v>
-      </c>
-      <c r="J66" t="n">
-        <v>11.4</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I66" t="inlineStr"/>
+      <c r="J66" t="inlineStr"/>
       <c r="K66" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L66" t="n">
@@ -2762,15 +2904,15 @@
         <v>-121936.9865122318</v>
       </c>
       <c r="H67" t="n">
-        <v>2</v>
-      </c>
-      <c r="I67" t="n">
-        <v>11.5</v>
-      </c>
-      <c r="J67" t="n">
-        <v>11.5</v>
-      </c>
-      <c r="K67" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I67" t="inlineStr"/>
+      <c r="J67" t="inlineStr"/>
+      <c r="K67" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L67" t="n">
         <v>1</v>
       </c>
@@ -2802,12 +2944,10 @@
         <v>0</v>
       </c>
       <c r="I68" t="inlineStr"/>
-      <c r="J68" t="n">
-        <v>11.5</v>
-      </c>
+      <c r="J68" t="inlineStr"/>
       <c r="K68" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L68" t="n">
@@ -2841,12 +2981,10 @@
         <v>0</v>
       </c>
       <c r="I69" t="inlineStr"/>
-      <c r="J69" t="n">
-        <v>11.5</v>
-      </c>
+      <c r="J69" t="inlineStr"/>
       <c r="K69" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L69" t="n">
@@ -2877,15 +3015,15 @@
         <v>-103916.9865122318</v>
       </c>
       <c r="H70" t="n">
-        <v>2</v>
-      </c>
-      <c r="I70" t="n">
-        <v>11.5</v>
-      </c>
-      <c r="J70" t="n">
-        <v>11.5</v>
-      </c>
-      <c r="K70" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I70" t="inlineStr"/>
+      <c r="J70" t="inlineStr"/>
+      <c r="K70" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L70" t="n">
         <v>1</v>
       </c>
@@ -2914,17 +3052,13 @@
         <v>-103916.9865122318</v>
       </c>
       <c r="H71" t="n">
-        <v>2</v>
-      </c>
-      <c r="I71" t="n">
-        <v>11.6</v>
-      </c>
-      <c r="J71" t="n">
-        <v>11.5</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I71" t="inlineStr"/>
+      <c r="J71" t="inlineStr"/>
       <c r="K71" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L71" t="n">
@@ -2955,17 +3089,13 @@
         <v>-108520.9865122318</v>
       </c>
       <c r="H72" t="n">
-        <v>2</v>
-      </c>
-      <c r="I72" t="n">
-        <v>11.6</v>
-      </c>
-      <c r="J72" t="n">
-        <v>11.5</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I72" t="inlineStr"/>
+      <c r="J72" t="inlineStr"/>
       <c r="K72" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L72" t="n">
@@ -3000,7 +3130,11 @@
       </c>
       <c r="I73" t="inlineStr"/>
       <c r="J73" t="inlineStr"/>
-      <c r="K73" t="inlineStr"/>
+      <c r="K73" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L73" t="n">
         <v>1</v>
       </c>
@@ -3033,7 +3167,11 @@
       </c>
       <c r="I74" t="inlineStr"/>
       <c r="J74" t="inlineStr"/>
-      <c r="K74" t="inlineStr"/>
+      <c r="K74" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L74" t="n">
         <v>1</v>
       </c>
@@ -3066,7 +3204,11 @@
       </c>
       <c r="I75" t="inlineStr"/>
       <c r="J75" t="inlineStr"/>
-      <c r="K75" t="inlineStr"/>
+      <c r="K75" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L75" t="n">
         <v>1</v>
       </c>
@@ -3095,15 +3237,15 @@
         <v>-58081.98651223176</v>
       </c>
       <c r="H76" t="n">
-        <v>2</v>
-      </c>
-      <c r="I76" t="n">
-        <v>11.6</v>
-      </c>
-      <c r="J76" t="n">
-        <v>11.6</v>
-      </c>
-      <c r="K76" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I76" t="inlineStr"/>
+      <c r="J76" t="inlineStr"/>
+      <c r="K76" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L76" t="n">
         <v>1</v>
       </c>
@@ -3135,12 +3277,10 @@
         <v>0</v>
       </c>
       <c r="I77" t="inlineStr"/>
-      <c r="J77" t="n">
-        <v>11.6</v>
-      </c>
+      <c r="J77" t="inlineStr"/>
       <c r="K77" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L77" t="n">
@@ -3174,12 +3314,10 @@
         <v>0</v>
       </c>
       <c r="I78" t="inlineStr"/>
-      <c r="J78" t="n">
-        <v>11.6</v>
-      </c>
+      <c r="J78" t="inlineStr"/>
       <c r="K78" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L78" t="n">
@@ -3214,7 +3352,11 @@
       </c>
       <c r="I79" t="inlineStr"/>
       <c r="J79" t="inlineStr"/>
-      <c r="K79" t="inlineStr"/>
+      <c r="K79" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L79" t="n">
         <v>1</v>
       </c>
@@ -3247,7 +3389,11 @@
       </c>
       <c r="I80" t="inlineStr"/>
       <c r="J80" t="inlineStr"/>
-      <c r="K80" t="inlineStr"/>
+      <c r="K80" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L80" t="n">
         <v>1</v>
       </c>
@@ -3280,7 +3426,11 @@
       </c>
       <c r="I81" t="inlineStr"/>
       <c r="J81" t="inlineStr"/>
-      <c r="K81" t="inlineStr"/>
+      <c r="K81" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L81" t="n">
         <v>1</v>
       </c>
@@ -3313,7 +3463,11 @@
       </c>
       <c r="I82" t="inlineStr"/>
       <c r="J82" t="inlineStr"/>
-      <c r="K82" t="inlineStr"/>
+      <c r="K82" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L82" t="n">
         <v>1</v>
       </c>
@@ -3346,7 +3500,11 @@
       </c>
       <c r="I83" t="inlineStr"/>
       <c r="J83" t="inlineStr"/>
-      <c r="K83" t="inlineStr"/>
+      <c r="K83" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L83" t="n">
         <v>1</v>
       </c>
@@ -3375,15 +3533,15 @@
         <v>-48404.22191223176</v>
       </c>
       <c r="H84" t="n">
-        <v>2</v>
-      </c>
-      <c r="I84" t="n">
-        <v>11.6</v>
-      </c>
-      <c r="J84" t="n">
-        <v>11.6</v>
-      </c>
-      <c r="K84" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I84" t="inlineStr"/>
+      <c r="J84" t="inlineStr"/>
+      <c r="K84" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L84" t="n">
         <v>1</v>
       </c>
@@ -3412,17 +3570,13 @@
         <v>-48404.22191223176</v>
       </c>
       <c r="H85" t="n">
-        <v>2</v>
-      </c>
-      <c r="I85" t="n">
-        <v>11.6</v>
-      </c>
-      <c r="J85" t="n">
-        <v>11.6</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I85" t="inlineStr"/>
+      <c r="J85" t="inlineStr"/>
       <c r="K85" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L85" t="n">
@@ -3453,17 +3607,13 @@
         <v>-88071.25421223175</v>
       </c>
       <c r="H86" t="n">
-        <v>2</v>
-      </c>
-      <c r="I86" t="n">
-        <v>11.6</v>
-      </c>
-      <c r="J86" t="n">
-        <v>11.6</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I86" t="inlineStr"/>
+      <c r="J86" t="inlineStr"/>
       <c r="K86" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L86" t="n">
@@ -3494,15 +3644,15 @@
         <v>-75622.43641223175</v>
       </c>
       <c r="H87" t="n">
-        <v>2</v>
-      </c>
-      <c r="I87" t="n">
-        <v>11.5</v>
-      </c>
-      <c r="J87" t="n">
-        <v>11.5</v>
-      </c>
-      <c r="K87" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I87" t="inlineStr"/>
+      <c r="J87" t="inlineStr"/>
+      <c r="K87" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L87" t="n">
         <v>1</v>
       </c>
@@ -3531,17 +3681,13 @@
         <v>-75622.43641223175</v>
       </c>
       <c r="H88" t="n">
-        <v>2</v>
-      </c>
-      <c r="I88" t="n">
-        <v>11.7</v>
-      </c>
-      <c r="J88" t="n">
-        <v>11.5</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I88" t="inlineStr"/>
+      <c r="J88" t="inlineStr"/>
       <c r="K88" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L88" t="n">
@@ -3572,17 +3718,13 @@
         <v>-94473.31741223176</v>
       </c>
       <c r="H89" t="n">
-        <v>2</v>
-      </c>
-      <c r="I89" t="n">
-        <v>11.7</v>
-      </c>
-      <c r="J89" t="n">
-        <v>11.5</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I89" t="inlineStr"/>
+      <c r="J89" t="inlineStr"/>
       <c r="K89" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L89" t="n">
@@ -3613,15 +3755,15 @@
         <v>-94473.31741223176</v>
       </c>
       <c r="H90" t="n">
-        <v>2</v>
-      </c>
-      <c r="I90" t="n">
-        <v>11.6</v>
-      </c>
-      <c r="J90" t="n">
-        <v>11.6</v>
-      </c>
-      <c r="K90" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I90" t="inlineStr"/>
+      <c r="J90" t="inlineStr"/>
+      <c r="K90" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L90" t="n">
         <v>1</v>
       </c>
@@ -3650,17 +3792,13 @@
         <v>-94473.31741223176</v>
       </c>
       <c r="H91" t="n">
-        <v>2</v>
-      </c>
-      <c r="I91" t="n">
-        <v>11.6</v>
-      </c>
-      <c r="J91" t="n">
-        <v>11.6</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I91" t="inlineStr"/>
+      <c r="J91" t="inlineStr"/>
       <c r="K91" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L91" t="n">
@@ -3691,17 +3829,13 @@
         <v>-8506.499512231763</v>
       </c>
       <c r="H92" t="n">
-        <v>2</v>
-      </c>
-      <c r="I92" t="n">
-        <v>11.6</v>
-      </c>
-      <c r="J92" t="n">
-        <v>11.6</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I92" t="inlineStr"/>
+      <c r="J92" t="inlineStr"/>
       <c r="K92" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L92" t="n">
@@ -3736,7 +3870,11 @@
       </c>
       <c r="I93" t="inlineStr"/>
       <c r="J93" t="inlineStr"/>
-      <c r="K93" t="inlineStr"/>
+      <c r="K93" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L93" t="n">
         <v>1</v>
       </c>
@@ -3769,7 +3907,11 @@
       </c>
       <c r="I94" t="inlineStr"/>
       <c r="J94" t="inlineStr"/>
-      <c r="K94" t="inlineStr"/>
+      <c r="K94" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L94" t="n">
         <v>1</v>
       </c>
@@ -3802,7 +3944,11 @@
       </c>
       <c r="I95" t="inlineStr"/>
       <c r="J95" t="inlineStr"/>
-      <c r="K95" t="inlineStr"/>
+      <c r="K95" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L95" t="n">
         <v>1</v>
       </c>
@@ -3835,7 +3981,11 @@
       </c>
       <c r="I96" t="inlineStr"/>
       <c r="J96" t="inlineStr"/>
-      <c r="K96" t="inlineStr"/>
+      <c r="K96" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L96" t="n">
         <v>1</v>
       </c>
@@ -3868,7 +4018,11 @@
       </c>
       <c r="I97" t="inlineStr"/>
       <c r="J97" t="inlineStr"/>
-      <c r="K97" t="inlineStr"/>
+      <c r="K97" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L97" t="n">
         <v>1</v>
       </c>
@@ -3901,7 +4055,11 @@
       </c>
       <c r="I98" t="inlineStr"/>
       <c r="J98" t="inlineStr"/>
-      <c r="K98" t="inlineStr"/>
+      <c r="K98" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L98" t="n">
         <v>1</v>
       </c>
@@ -3934,7 +4092,11 @@
       </c>
       <c r="I99" t="inlineStr"/>
       <c r="J99" t="inlineStr"/>
-      <c r="K99" t="inlineStr"/>
+      <c r="K99" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L99" t="n">
         <v>1</v>
       </c>
@@ -3967,7 +4129,11 @@
       </c>
       <c r="I100" t="inlineStr"/>
       <c r="J100" t="inlineStr"/>
-      <c r="K100" t="inlineStr"/>
+      <c r="K100" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L100" t="n">
         <v>1</v>
       </c>
@@ -4000,7 +4166,11 @@
       </c>
       <c r="I101" t="inlineStr"/>
       <c r="J101" t="inlineStr"/>
-      <c r="K101" t="inlineStr"/>
+      <c r="K101" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L101" t="n">
         <v>1</v>
       </c>
@@ -4033,7 +4203,11 @@
       </c>
       <c r="I102" t="inlineStr"/>
       <c r="J102" t="inlineStr"/>
-      <c r="K102" t="inlineStr"/>
+      <c r="K102" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L102" t="n">
         <v>1</v>
       </c>
@@ -4066,7 +4240,11 @@
       </c>
       <c r="I103" t="inlineStr"/>
       <c r="J103" t="inlineStr"/>
-      <c r="K103" t="inlineStr"/>
+      <c r="K103" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L103" t="n">
         <v>1</v>
       </c>
@@ -4099,7 +4277,11 @@
       </c>
       <c r="I104" t="inlineStr"/>
       <c r="J104" t="inlineStr"/>
-      <c r="K104" t="inlineStr"/>
+      <c r="K104" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L104" t="n">
         <v>1</v>
       </c>
@@ -4132,7 +4314,11 @@
       </c>
       <c r="I105" t="inlineStr"/>
       <c r="J105" t="inlineStr"/>
-      <c r="K105" t="inlineStr"/>
+      <c r="K105" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L105" t="n">
         <v>1</v>
       </c>
@@ -4165,7 +4351,11 @@
       </c>
       <c r="I106" t="inlineStr"/>
       <c r="J106" t="inlineStr"/>
-      <c r="K106" t="inlineStr"/>
+      <c r="K106" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L106" t="n">
         <v>1</v>
       </c>
@@ -4198,7 +4388,11 @@
       </c>
       <c r="I107" t="inlineStr"/>
       <c r="J107" t="inlineStr"/>
-      <c r="K107" t="inlineStr"/>
+      <c r="K107" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L107" t="n">
         <v>1</v>
       </c>
@@ -4231,7 +4425,11 @@
       </c>
       <c r="I108" t="inlineStr"/>
       <c r="J108" t="inlineStr"/>
-      <c r="K108" t="inlineStr"/>
+      <c r="K108" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L108" t="n">
         <v>1</v>
       </c>
@@ -4264,7 +4462,11 @@
       </c>
       <c r="I109" t="inlineStr"/>
       <c r="J109" t="inlineStr"/>
-      <c r="K109" t="inlineStr"/>
+      <c r="K109" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L109" t="n">
         <v>1</v>
       </c>
@@ -4297,7 +4499,11 @@
       </c>
       <c r="I110" t="inlineStr"/>
       <c r="J110" t="inlineStr"/>
-      <c r="K110" t="inlineStr"/>
+      <c r="K110" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L110" t="n">
         <v>1</v>
       </c>
@@ -4330,7 +4536,11 @@
       </c>
       <c r="I111" t="inlineStr"/>
       <c r="J111" t="inlineStr"/>
-      <c r="K111" t="inlineStr"/>
+      <c r="K111" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L111" t="n">
         <v>1</v>
       </c>
@@ -4363,7 +4573,11 @@
       </c>
       <c r="I112" t="inlineStr"/>
       <c r="J112" t="inlineStr"/>
-      <c r="K112" t="inlineStr"/>
+      <c r="K112" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L112" t="n">
         <v>1</v>
       </c>
@@ -4396,7 +4610,11 @@
       </c>
       <c r="I113" t="inlineStr"/>
       <c r="J113" t="inlineStr"/>
-      <c r="K113" t="inlineStr"/>
+      <c r="K113" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L113" t="n">
         <v>1</v>
       </c>
@@ -4429,7 +4647,11 @@
       </c>
       <c r="I114" t="inlineStr"/>
       <c r="J114" t="inlineStr"/>
-      <c r="K114" t="inlineStr"/>
+      <c r="K114" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L114" t="n">
         <v>1</v>
       </c>
@@ -4462,7 +4684,11 @@
       </c>
       <c r="I115" t="inlineStr"/>
       <c r="J115" t="inlineStr"/>
-      <c r="K115" t="inlineStr"/>
+      <c r="K115" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L115" t="n">
         <v>1</v>
       </c>
@@ -4495,7 +4721,11 @@
       </c>
       <c r="I116" t="inlineStr"/>
       <c r="J116" t="inlineStr"/>
-      <c r="K116" t="inlineStr"/>
+      <c r="K116" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L116" t="n">
         <v>1</v>
       </c>
@@ -4528,7 +4758,11 @@
       </c>
       <c r="I117" t="inlineStr"/>
       <c r="J117" t="inlineStr"/>
-      <c r="K117" t="inlineStr"/>
+      <c r="K117" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L117" t="n">
         <v>1</v>
       </c>
@@ -4561,7 +4795,11 @@
       </c>
       <c r="I118" t="inlineStr"/>
       <c r="J118" t="inlineStr"/>
-      <c r="K118" t="inlineStr"/>
+      <c r="K118" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L118" t="n">
         <v>1</v>
       </c>
@@ -4594,7 +4832,11 @@
       </c>
       <c r="I119" t="inlineStr"/>
       <c r="J119" t="inlineStr"/>
-      <c r="K119" t="inlineStr"/>
+      <c r="K119" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L119" t="n">
         <v>1</v>
       </c>
@@ -4627,7 +4869,11 @@
       </c>
       <c r="I120" t="inlineStr"/>
       <c r="J120" t="inlineStr"/>
-      <c r="K120" t="inlineStr"/>
+      <c r="K120" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L120" t="n">
         <v>1</v>
       </c>
@@ -4660,7 +4906,11 @@
       </c>
       <c r="I121" t="inlineStr"/>
       <c r="J121" t="inlineStr"/>
-      <c r="K121" t="inlineStr"/>
+      <c r="K121" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L121" t="n">
         <v>1</v>
       </c>
@@ -4693,7 +4943,11 @@
       </c>
       <c r="I122" t="inlineStr"/>
       <c r="J122" t="inlineStr"/>
-      <c r="K122" t="inlineStr"/>
+      <c r="K122" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L122" t="n">
         <v>1</v>
       </c>
@@ -4726,7 +4980,11 @@
       </c>
       <c r="I123" t="inlineStr"/>
       <c r="J123" t="inlineStr"/>
-      <c r="K123" t="inlineStr"/>
+      <c r="K123" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L123" t="n">
         <v>1</v>
       </c>
@@ -4759,7 +5017,11 @@
       </c>
       <c r="I124" t="inlineStr"/>
       <c r="J124" t="inlineStr"/>
-      <c r="K124" t="inlineStr"/>
+      <c r="K124" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L124" t="n">
         <v>1</v>
       </c>
@@ -4792,7 +5054,11 @@
       </c>
       <c r="I125" t="inlineStr"/>
       <c r="J125" t="inlineStr"/>
-      <c r="K125" t="inlineStr"/>
+      <c r="K125" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L125" t="n">
         <v>1</v>
       </c>
@@ -4825,7 +5091,11 @@
       </c>
       <c r="I126" t="inlineStr"/>
       <c r="J126" t="inlineStr"/>
-      <c r="K126" t="inlineStr"/>
+      <c r="K126" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L126" t="n">
         <v>1</v>
       </c>
@@ -4858,7 +5128,11 @@
       </c>
       <c r="I127" t="inlineStr"/>
       <c r="J127" t="inlineStr"/>
-      <c r="K127" t="inlineStr"/>
+      <c r="K127" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L127" t="n">
         <v>1</v>
       </c>
@@ -4891,7 +5165,11 @@
       </c>
       <c r="I128" t="inlineStr"/>
       <c r="J128" t="inlineStr"/>
-      <c r="K128" t="inlineStr"/>
+      <c r="K128" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L128" t="n">
         <v>1</v>
       </c>
@@ -4924,7 +5202,11 @@
       </c>
       <c r="I129" t="inlineStr"/>
       <c r="J129" t="inlineStr"/>
-      <c r="K129" t="inlineStr"/>
+      <c r="K129" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L129" t="n">
         <v>1</v>
       </c>
@@ -4957,7 +5239,11 @@
       </c>
       <c r="I130" t="inlineStr"/>
       <c r="J130" t="inlineStr"/>
-      <c r="K130" t="inlineStr"/>
+      <c r="K130" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L130" t="n">
         <v>1</v>
       </c>
@@ -4990,7 +5276,11 @@
       </c>
       <c r="I131" t="inlineStr"/>
       <c r="J131" t="inlineStr"/>
-      <c r="K131" t="inlineStr"/>
+      <c r="K131" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L131" t="n">
         <v>1</v>
       </c>
@@ -5023,7 +5313,11 @@
       </c>
       <c r="I132" t="inlineStr"/>
       <c r="J132" t="inlineStr"/>
-      <c r="K132" t="inlineStr"/>
+      <c r="K132" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L132" t="n">
         <v>1</v>
       </c>
@@ -5056,7 +5350,11 @@
       </c>
       <c r="I133" t="inlineStr"/>
       <c r="J133" t="inlineStr"/>
-      <c r="K133" t="inlineStr"/>
+      <c r="K133" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L133" t="n">
         <v>1</v>
       </c>
@@ -5089,7 +5387,11 @@
       </c>
       <c r="I134" t="inlineStr"/>
       <c r="J134" t="inlineStr"/>
-      <c r="K134" t="inlineStr"/>
+      <c r="K134" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L134" t="n">
         <v>1</v>
       </c>
@@ -5122,7 +5424,11 @@
       </c>
       <c r="I135" t="inlineStr"/>
       <c r="J135" t="inlineStr"/>
-      <c r="K135" t="inlineStr"/>
+      <c r="K135" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L135" t="n">
         <v>1</v>
       </c>
@@ -5155,7 +5461,11 @@
       </c>
       <c r="I136" t="inlineStr"/>
       <c r="J136" t="inlineStr"/>
-      <c r="K136" t="inlineStr"/>
+      <c r="K136" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L136" t="n">
         <v>1</v>
       </c>
@@ -5188,7 +5498,11 @@
       </c>
       <c r="I137" t="inlineStr"/>
       <c r="J137" t="inlineStr"/>
-      <c r="K137" t="inlineStr"/>
+      <c r="K137" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L137" t="n">
         <v>1</v>
       </c>
@@ -5221,7 +5535,11 @@
       </c>
       <c r="I138" t="inlineStr"/>
       <c r="J138" t="inlineStr"/>
-      <c r="K138" t="inlineStr"/>
+      <c r="K138" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L138" t="n">
         <v>1</v>
       </c>
@@ -5254,7 +5572,11 @@
       </c>
       <c r="I139" t="inlineStr"/>
       <c r="J139" t="inlineStr"/>
-      <c r="K139" t="inlineStr"/>
+      <c r="K139" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L139" t="n">
         <v>1</v>
       </c>
@@ -5287,7 +5609,11 @@
       </c>
       <c r="I140" t="inlineStr"/>
       <c r="J140" t="inlineStr"/>
-      <c r="K140" t="inlineStr"/>
+      <c r="K140" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L140" t="n">
         <v>1</v>
       </c>
@@ -5316,11 +5642,15 @@
         <v>5875887.816036986</v>
       </c>
       <c r="H141" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I141" t="inlineStr"/>
       <c r="J141" t="inlineStr"/>
-      <c r="K141" t="inlineStr"/>
+      <c r="K141" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L141" t="n">
         <v>1</v>
       </c>
@@ -5349,11 +5679,15 @@
         <v>5875887.816036986</v>
       </c>
       <c r="H142" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I142" t="inlineStr"/>
       <c r="J142" t="inlineStr"/>
-      <c r="K142" t="inlineStr"/>
+      <c r="K142" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L142" t="n">
         <v>1</v>
       </c>
@@ -5382,11 +5716,15 @@
         <v>5873387.816036986</v>
       </c>
       <c r="H143" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I143" t="inlineStr"/>
       <c r="J143" t="inlineStr"/>
-      <c r="K143" t="inlineStr"/>
+      <c r="K143" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L143" t="n">
         <v>1</v>
       </c>
@@ -5415,11 +5753,15 @@
         <v>5804120.056115499</v>
       </c>
       <c r="H144" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I144" t="inlineStr"/>
       <c r="J144" t="inlineStr"/>
-      <c r="K144" t="inlineStr"/>
+      <c r="K144" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L144" t="n">
         <v>1</v>
       </c>
@@ -5448,11 +5790,15 @@
         <v>5804120.056115499</v>
       </c>
       <c r="H145" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I145" t="inlineStr"/>
       <c r="J145" t="inlineStr"/>
-      <c r="K145" t="inlineStr"/>
+      <c r="K145" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L145" t="n">
         <v>1</v>
       </c>
@@ -5485,7 +5831,11 @@
       </c>
       <c r="I146" t="inlineStr"/>
       <c r="J146" t="inlineStr"/>
-      <c r="K146" t="inlineStr"/>
+      <c r="K146" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L146" t="n">
         <v>1</v>
       </c>
@@ -5514,11 +5864,15 @@
         <v>5780553.526415499</v>
       </c>
       <c r="H147" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I147" t="inlineStr"/>
       <c r="J147" t="inlineStr"/>
-      <c r="K147" t="inlineStr"/>
+      <c r="K147" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L147" t="n">
         <v>1</v>
       </c>
@@ -5551,7 +5905,11 @@
       </c>
       <c r="I148" t="inlineStr"/>
       <c r="J148" t="inlineStr"/>
-      <c r="K148" t="inlineStr"/>
+      <c r="K148" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L148" t="n">
         <v>1</v>
       </c>
@@ -5584,7 +5942,11 @@
       </c>
       <c r="I149" t="inlineStr"/>
       <c r="J149" t="inlineStr"/>
-      <c r="K149" t="inlineStr"/>
+      <c r="K149" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L149" t="n">
         <v>1</v>
       </c>
@@ -5617,7 +5979,11 @@
       </c>
       <c r="I150" t="inlineStr"/>
       <c r="J150" t="inlineStr"/>
-      <c r="K150" t="inlineStr"/>
+      <c r="K150" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L150" t="n">
         <v>1</v>
       </c>
@@ -5650,7 +6016,11 @@
       </c>
       <c r="I151" t="inlineStr"/>
       <c r="J151" t="inlineStr"/>
-      <c r="K151" t="inlineStr"/>
+      <c r="K151" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L151" t="n">
         <v>1</v>
       </c>
@@ -5683,7 +6053,11 @@
       </c>
       <c r="I152" t="inlineStr"/>
       <c r="J152" t="inlineStr"/>
-      <c r="K152" t="inlineStr"/>
+      <c r="K152" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L152" t="n">
         <v>1</v>
       </c>
@@ -5716,7 +6090,11 @@
       </c>
       <c r="I153" t="inlineStr"/>
       <c r="J153" t="inlineStr"/>
-      <c r="K153" t="inlineStr"/>
+      <c r="K153" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L153" t="n">
         <v>1</v>
       </c>
@@ -5749,7 +6127,11 @@
       </c>
       <c r="I154" t="inlineStr"/>
       <c r="J154" t="inlineStr"/>
-      <c r="K154" t="inlineStr"/>
+      <c r="K154" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L154" t="n">
         <v>1</v>
       </c>
@@ -5782,7 +6164,11 @@
       </c>
       <c r="I155" t="inlineStr"/>
       <c r="J155" t="inlineStr"/>
-      <c r="K155" t="inlineStr"/>
+      <c r="K155" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L155" t="n">
         <v>1</v>
       </c>
@@ -5815,7 +6201,11 @@
       </c>
       <c r="I156" t="inlineStr"/>
       <c r="J156" t="inlineStr"/>
-      <c r="K156" t="inlineStr"/>
+      <c r="K156" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L156" t="n">
         <v>1</v>
       </c>
@@ -5844,14 +6234,16 @@
         <v>5460632.417502277</v>
       </c>
       <c r="H157" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I157" t="inlineStr"/>
       <c r="J157" t="inlineStr"/>
-      <c r="K157" t="inlineStr"/>
-      <c r="L157" t="n">
-        <v>1</v>
-      </c>
+      <c r="K157" t="inlineStr">
+        <is>
+          <t>매도 체결</t>
+        </is>
+      </c>
+      <c r="L157" t="inlineStr"/>
       <c r="M157" t="inlineStr"/>
     </row>
     <row r="158">
@@ -5877,7 +6269,7 @@
         <v>5460632.417502277</v>
       </c>
       <c r="H158" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I158" t="inlineStr"/>
       <c r="J158" t="inlineStr"/>
@@ -5910,7 +6302,7 @@
         <v>5460632.417502277</v>
       </c>
       <c r="H159" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I159" t="inlineStr"/>
       <c r="J159" t="inlineStr"/>
@@ -5943,7 +6335,7 @@
         <v>5468965.750902276</v>
       </c>
       <c r="H160" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I160" t="inlineStr"/>
       <c r="J160" t="inlineStr"/>
@@ -5976,7 +6368,7 @@
         <v>5467373.789102277</v>
       </c>
       <c r="H161" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I161" t="inlineStr"/>
       <c r="J161" t="inlineStr"/>
@@ -6009,7 +6401,7 @@
         <v>5467373.789102277</v>
       </c>
       <c r="H162" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I162" t="inlineStr"/>
       <c r="J162" t="inlineStr"/>
@@ -6042,7 +6434,7 @@
         <v>5467373.789102277</v>
       </c>
       <c r="H163" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I163" t="inlineStr"/>
       <c r="J163" t="inlineStr"/>
@@ -6075,7 +6467,7 @@
         <v>5462425.365502276</v>
       </c>
       <c r="H164" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I164" t="inlineStr"/>
       <c r="J164" t="inlineStr"/>
@@ -6108,7 +6500,7 @@
         <v>5462425.365502276</v>
       </c>
       <c r="H165" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I165" t="inlineStr"/>
       <c r="J165" t="inlineStr"/>
@@ -6141,7 +6533,7 @@
         <v>5192108.694502276</v>
       </c>
       <c r="H166" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I166" t="inlineStr"/>
       <c r="J166" t="inlineStr"/>
@@ -6174,7 +6566,7 @@
         <v>5192108.694502276</v>
       </c>
       <c r="H167" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I167" t="inlineStr"/>
       <c r="J167" t="inlineStr"/>
@@ -6240,7 +6632,7 @@
         <v>5192108.694502276</v>
       </c>
       <c r="H169" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I169" t="inlineStr"/>
       <c r="J169" t="inlineStr"/>
@@ -6273,7 +6665,7 @@
         <v>5201123.484602276</v>
       </c>
       <c r="H170" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I170" t="inlineStr"/>
       <c r="J170" t="inlineStr"/>
@@ -6306,7 +6698,7 @@
         <v>5201123.484602276</v>
       </c>
       <c r="H171" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I171" t="inlineStr"/>
       <c r="J171" t="inlineStr"/>
@@ -6372,7 +6764,7 @@
         <v>5192821.522802277</v>
       </c>
       <c r="H173" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I173" t="inlineStr"/>
       <c r="J173" t="inlineStr"/>
@@ -6471,7 +6863,7 @@
         <v>5172974.623902276</v>
       </c>
       <c r="H176" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I176" t="inlineStr"/>
       <c r="J176" t="inlineStr"/>
@@ -6504,7 +6896,7 @@
         <v>5172974.623902276</v>
       </c>
       <c r="H177" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I177" t="inlineStr"/>
       <c r="J177" t="inlineStr"/>
@@ -6537,7 +6929,7 @@
         <v>5172739.077702276</v>
       </c>
       <c r="H178" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I178" t="inlineStr"/>
       <c r="J178" t="inlineStr"/>
@@ -6603,7 +6995,7 @@
         <v>5172739.077702276</v>
       </c>
       <c r="H180" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I180" t="inlineStr"/>
       <c r="J180" t="inlineStr"/>
@@ -6636,7 +7028,7 @@
         <v>5172739.077702276</v>
       </c>
       <c r="H181" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I181" t="inlineStr"/>
       <c r="J181" t="inlineStr"/>
@@ -6669,7 +7061,7 @@
         <v>5177739.077702276</v>
       </c>
       <c r="H182" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I182" t="inlineStr"/>
       <c r="J182" t="inlineStr"/>
@@ -6702,7 +7094,7 @@
         <v>5177739.077702276</v>
       </c>
       <c r="H183" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I183" t="inlineStr"/>
       <c r="J183" t="inlineStr"/>
@@ -6735,7 +7127,7 @@
         <v>5177739.077702276</v>
       </c>
       <c r="H184" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I184" t="inlineStr"/>
       <c r="J184" t="inlineStr"/>
@@ -6768,7 +7160,7 @@
         <v>5177739.077702276</v>
       </c>
       <c r="H185" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I185" t="inlineStr"/>
       <c r="J185" t="inlineStr"/>
@@ -6801,7 +7193,7 @@
         <v>4999856.284702277</v>
       </c>
       <c r="H186" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I186" t="inlineStr"/>
       <c r="J186" t="inlineStr"/>
@@ -6834,7 +7226,7 @@
         <v>4999856.284702277</v>
       </c>
       <c r="H187" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I187" t="inlineStr"/>
       <c r="J187" t="inlineStr"/>
@@ -6867,7 +7259,7 @@
         <v>5000956.284702277</v>
       </c>
       <c r="H188" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I188" t="inlineStr"/>
       <c r="J188" t="inlineStr"/>
@@ -6900,7 +7292,7 @@
         <v>5000956.284702277</v>
       </c>
       <c r="H189" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I189" t="inlineStr"/>
       <c r="J189" t="inlineStr"/>
@@ -6933,7 +7325,7 @@
         <v>5012126.284702277</v>
       </c>
       <c r="H190" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I190" t="inlineStr"/>
       <c r="J190" t="inlineStr"/>
@@ -6966,7 +7358,7 @@
         <v>5093033.016102277</v>
       </c>
       <c r="H191" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I191" t="inlineStr"/>
       <c r="J191" t="inlineStr"/>
@@ -7164,7 +7556,7 @@
         <v>5095133.016102277</v>
       </c>
       <c r="H197" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I197" t="inlineStr"/>
       <c r="J197" t="inlineStr"/>
@@ -7197,7 +7589,7 @@
         <v>5095479.379602277</v>
       </c>
       <c r="H198" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I198" t="inlineStr"/>
       <c r="J198" t="inlineStr"/>
@@ -7230,7 +7622,7 @@
         <v>5095479.379602277</v>
       </c>
       <c r="H199" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I199" t="inlineStr"/>
       <c r="J199" t="inlineStr"/>
@@ -7329,7 +7721,7 @@
         <v>4958752.815002277</v>
       </c>
       <c r="H202" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I202" t="inlineStr"/>
       <c r="J202" t="inlineStr"/>
@@ -7362,7 +7754,7 @@
         <v>4958752.815002277</v>
       </c>
       <c r="H203" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I203" t="inlineStr"/>
       <c r="J203" t="inlineStr"/>
@@ -7560,7 +7952,7 @@
         <v>4951805.646202277</v>
       </c>
       <c r="H209" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I209" t="inlineStr"/>
       <c r="J209" t="inlineStr"/>
@@ -7593,7 +7985,7 @@
         <v>4951805.646202277</v>
       </c>
       <c r="H210" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I210" t="inlineStr"/>
       <c r="J210" t="inlineStr"/>
@@ -7626,7 +8018,7 @@
         <v>4951805.646202277</v>
       </c>
       <c r="H211" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I211" t="inlineStr"/>
       <c r="J211" t="inlineStr"/>
@@ -7659,7 +8051,7 @@
         <v>4927846.097502277</v>
       </c>
       <c r="H212" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I212" t="inlineStr"/>
       <c r="J212" t="inlineStr"/>
@@ -7692,7 +8084,7 @@
         <v>4927846.097502277</v>
       </c>
       <c r="H213" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I213" t="inlineStr"/>
       <c r="J213" t="inlineStr"/>
@@ -7758,7 +8150,7 @@
         <v>4932072.758802277</v>
       </c>
       <c r="H215" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I215" t="inlineStr"/>
       <c r="J215" t="inlineStr"/>
@@ -7923,7 +8315,7 @@
         <v>4839064.14733253</v>
       </c>
       <c r="H220" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I220" t="inlineStr"/>
       <c r="J220" t="inlineStr"/>
@@ -7956,7 +8348,7 @@
         <v>4839064.14733253</v>
       </c>
       <c r="H221" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I221" t="inlineStr"/>
       <c r="J221" t="inlineStr"/>
@@ -7989,7 +8381,7 @@
         <v>4839064.14733253</v>
       </c>
       <c r="H222" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I222" t="inlineStr"/>
       <c r="J222" t="inlineStr"/>
@@ -8022,7 +8414,7 @@
         <v>4839064.14733253</v>
       </c>
       <c r="H223" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I223" t="inlineStr"/>
       <c r="J223" t="inlineStr"/>
@@ -8055,7 +8447,7 @@
         <v>4860136.76563253</v>
       </c>
       <c r="H224" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I224" t="inlineStr"/>
       <c r="J224" t="inlineStr"/>
@@ -8088,7 +8480,7 @@
         <v>4860136.76563253</v>
       </c>
       <c r="H225" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I225" t="inlineStr"/>
       <c r="J225" t="inlineStr"/>
@@ -8121,7 +8513,7 @@
         <v>4860136.76563253</v>
       </c>
       <c r="H226" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I226" t="inlineStr"/>
       <c r="J226" t="inlineStr"/>
@@ -8154,7 +8546,7 @@
         <v>4684029.93643253</v>
       </c>
       <c r="H227" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I227" t="inlineStr"/>
       <c r="J227" t="inlineStr"/>
@@ -8187,7 +8579,7 @@
         <v>4727665.84253253</v>
       </c>
       <c r="H228" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I228" t="inlineStr"/>
       <c r="J228" t="inlineStr"/>
@@ -8220,7 +8612,7 @@
         <v>4727745.84253253</v>
       </c>
       <c r="H229" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I229" t="inlineStr"/>
       <c r="J229" t="inlineStr"/>
@@ -8352,7 +8744,7 @@
         <v>4677839.26803253</v>
       </c>
       <c r="H233" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I233" t="inlineStr"/>
       <c r="J233" t="inlineStr"/>
@@ -8396,6 +8788,6 @@
       <c r="M234" t="inlineStr"/>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>
 </file>
--- a/BackTest/2019-11-21 BackTest ORBS.xlsx
+++ b/BackTest/2019-11-21 BackTest ORBS.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -54,18 +54,18 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
 </styleSheet>
 </file>
 
@@ -394,7 +394,7 @@
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>CMO</t>
+          <t>OBV</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
@@ -583,17 +583,11 @@
         <v>21246.88222886567</v>
       </c>
       <c r="H6" t="n">
-        <v>1</v>
-      </c>
-      <c r="I6" t="n">
-        <v>11.4</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I6" t="inlineStr"/>
       <c r="J6" t="inlineStr"/>
-      <c r="K6" t="inlineStr">
-        <is>
-          <t>매수 체결</t>
-        </is>
-      </c>
+      <c r="K6" t="inlineStr"/>
       <c r="L6" t="n">
         <v>1</v>
       </c>
@@ -622,17 +616,11 @@
         <v>45829.56662886566</v>
       </c>
       <c r="H7" t="n">
-        <v>1</v>
-      </c>
-      <c r="I7" t="n">
-        <v>11.3</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I7" t="inlineStr"/>
       <c r="J7" t="inlineStr"/>
-      <c r="K7" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K7" t="inlineStr"/>
       <c r="L7" t="n">
         <v>1</v>
       </c>
@@ -661,17 +649,11 @@
         <v>45829.56662886566</v>
       </c>
       <c r="H8" t="n">
-        <v>1</v>
-      </c>
-      <c r="I8" t="n">
-        <v>11.4</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I8" t="inlineStr"/>
       <c r="J8" t="inlineStr"/>
-      <c r="K8" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K8" t="inlineStr"/>
       <c r="L8" t="n">
         <v>1</v>
       </c>
@@ -700,17 +682,11 @@
         <v>13184.56662886566</v>
       </c>
       <c r="H9" t="n">
-        <v>1</v>
-      </c>
-      <c r="I9" t="n">
-        <v>11.4</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I9" t="inlineStr"/>
       <c r="J9" t="inlineStr"/>
-      <c r="K9" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K9" t="inlineStr"/>
       <c r="L9" t="n">
         <v>1</v>
       </c>
@@ -744,12 +720,10 @@
       <c r="I10" t="n">
         <v>11.3</v>
       </c>
-      <c r="J10" t="inlineStr"/>
-      <c r="K10" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J10" t="n">
+        <v>11.3</v>
+      </c>
+      <c r="K10" t="inlineStr"/>
       <c r="L10" t="n">
         <v>1</v>
       </c>
@@ -783,10 +757,12 @@
       <c r="I11" t="n">
         <v>11.3</v>
       </c>
-      <c r="J11" t="inlineStr"/>
+      <c r="J11" t="n">
+        <v>11.3</v>
+      </c>
       <c r="K11" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매수 대기</t>
         </is>
       </c>
       <c r="L11" t="n">
@@ -817,15 +793,15 @@
         <v>14560.06902886566</v>
       </c>
       <c r="H12" t="n">
-        <v>1</v>
-      </c>
-      <c r="I12" t="n">
-        <v>11.3</v>
-      </c>
-      <c r="J12" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I12" t="inlineStr"/>
+      <c r="J12" t="n">
+        <v>11.3</v>
+      </c>
       <c r="K12" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매수 대기</t>
         </is>
       </c>
       <c r="L12" t="n">
@@ -856,17 +832,11 @@
         <v>14560.06902886566</v>
       </c>
       <c r="H13" t="n">
-        <v>1</v>
-      </c>
-      <c r="I13" t="n">
-        <v>11.4</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I13" t="inlineStr"/>
       <c r="J13" t="inlineStr"/>
-      <c r="K13" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K13" t="inlineStr"/>
       <c r="L13" t="n">
         <v>1</v>
       </c>
@@ -895,17 +865,11 @@
         <v>-92738.50867113433</v>
       </c>
       <c r="H14" t="n">
-        <v>1</v>
-      </c>
-      <c r="I14" t="n">
-        <v>11.4</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I14" t="inlineStr"/>
       <c r="J14" t="inlineStr"/>
-      <c r="K14" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K14" t="inlineStr"/>
       <c r="L14" t="n">
         <v>1</v>
       </c>
@@ -934,17 +898,11 @@
         <v>-92738.50867113433</v>
       </c>
       <c r="H15" t="n">
-        <v>1</v>
-      </c>
-      <c r="I15" t="n">
-        <v>11.3</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I15" t="inlineStr"/>
       <c r="J15" t="inlineStr"/>
-      <c r="K15" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K15" t="inlineStr"/>
       <c r="L15" t="n">
         <v>1</v>
       </c>
@@ -973,17 +931,11 @@
         <v>-90238.50867113433</v>
       </c>
       <c r="H16" t="n">
-        <v>1</v>
-      </c>
-      <c r="I16" t="n">
-        <v>11.3</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I16" t="inlineStr"/>
       <c r="J16" t="inlineStr"/>
-      <c r="K16" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K16" t="inlineStr"/>
       <c r="L16" t="n">
         <v>1</v>
       </c>
@@ -1012,17 +964,11 @@
         <v>-90238.50867113433</v>
       </c>
       <c r="H17" t="n">
-        <v>1</v>
-      </c>
-      <c r="I17" t="n">
-        <v>11.4</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I17" t="inlineStr"/>
       <c r="J17" t="inlineStr"/>
-      <c r="K17" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K17" t="inlineStr"/>
       <c r="L17" t="n">
         <v>1</v>
       </c>
@@ -1051,17 +997,11 @@
         <v>-117277.5086711343</v>
       </c>
       <c r="H18" t="n">
-        <v>1</v>
-      </c>
-      <c r="I18" t="n">
-        <v>11.4</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I18" t="inlineStr"/>
       <c r="J18" t="inlineStr"/>
-      <c r="K18" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K18" t="inlineStr"/>
       <c r="L18" t="n">
         <v>1</v>
       </c>
@@ -1095,12 +1035,10 @@
       <c r="I19" t="n">
         <v>11.3</v>
       </c>
-      <c r="J19" t="inlineStr"/>
-      <c r="K19" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J19" t="n">
+        <v>11.3</v>
+      </c>
+      <c r="K19" t="inlineStr"/>
       <c r="L19" t="n">
         <v>1</v>
       </c>
@@ -1129,15 +1067,15 @@
         <v>-117277.5086711343</v>
       </c>
       <c r="H20" t="n">
-        <v>1</v>
-      </c>
-      <c r="I20" t="n">
-        <v>11.3</v>
-      </c>
-      <c r="J20" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I20" t="inlineStr"/>
+      <c r="J20" t="n">
+        <v>11.3</v>
+      </c>
       <c r="K20" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매수 대기</t>
         </is>
       </c>
       <c r="L20" t="n">
@@ -1168,15 +1106,15 @@
         <v>-117277.5086711343</v>
       </c>
       <c r="H21" t="n">
-        <v>1</v>
-      </c>
-      <c r="I21" t="n">
-        <v>11.3</v>
-      </c>
-      <c r="J21" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I21" t="inlineStr"/>
+      <c r="J21" t="n">
+        <v>11.3</v>
+      </c>
       <c r="K21" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매수 대기</t>
         </is>
       </c>
       <c r="L21" t="n">
@@ -1207,17 +1145,11 @@
         <v>-117277.5086711343</v>
       </c>
       <c r="H22" t="n">
-        <v>1</v>
-      </c>
-      <c r="I22" t="n">
-        <v>11.3</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I22" t="inlineStr"/>
       <c r="J22" t="inlineStr"/>
-      <c r="K22" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K22" t="inlineStr"/>
       <c r="L22" t="n">
         <v>1</v>
       </c>
@@ -1251,12 +1183,10 @@
       <c r="I23" t="n">
         <v>11.3</v>
       </c>
-      <c r="J23" t="inlineStr"/>
-      <c r="K23" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J23" t="n">
+        <v>11.3</v>
+      </c>
+      <c r="K23" t="inlineStr"/>
       <c r="L23" t="n">
         <v>1</v>
       </c>
@@ -1290,10 +1220,12 @@
       <c r="I24" t="n">
         <v>11.3</v>
       </c>
-      <c r="J24" t="inlineStr"/>
+      <c r="J24" t="n">
+        <v>11.3</v>
+      </c>
       <c r="K24" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매수 대기</t>
         </is>
       </c>
       <c r="L24" t="n">
@@ -1329,10 +1261,12 @@
       <c r="I25" t="n">
         <v>11.3</v>
       </c>
-      <c r="J25" t="inlineStr"/>
+      <c r="J25" t="n">
+        <v>11.3</v>
+      </c>
       <c r="K25" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매수 대기</t>
         </is>
       </c>
       <c r="L25" t="n">
@@ -1368,12 +1302,10 @@
       <c r="I26" t="n">
         <v>11.3</v>
       </c>
-      <c r="J26" t="inlineStr"/>
-      <c r="K26" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J26" t="n">
+        <v>11.3</v>
+      </c>
+      <c r="K26" t="inlineStr"/>
       <c r="L26" t="n">
         <v>1</v>
       </c>
@@ -1407,10 +1339,12 @@
       <c r="I27" t="n">
         <v>11.3</v>
       </c>
-      <c r="J27" t="inlineStr"/>
+      <c r="J27" t="n">
+        <v>11.3</v>
+      </c>
       <c r="K27" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매수 대기</t>
         </is>
       </c>
       <c r="L27" t="n">
@@ -1441,15 +1375,15 @@
         <v>-173191.2725711343</v>
       </c>
       <c r="H28" t="n">
-        <v>1</v>
-      </c>
-      <c r="I28" t="n">
-        <v>11.4</v>
-      </c>
-      <c r="J28" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I28" t="inlineStr"/>
+      <c r="J28" t="n">
+        <v>11.3</v>
+      </c>
       <c r="K28" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매수 대기</t>
         </is>
       </c>
       <c r="L28" t="n">
@@ -1480,17 +1414,11 @@
         <v>-173191.2725711343</v>
       </c>
       <c r="H29" t="n">
-        <v>1</v>
-      </c>
-      <c r="I29" t="n">
-        <v>11.3</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I29" t="inlineStr"/>
       <c r="J29" t="inlineStr"/>
-      <c r="K29" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K29" t="inlineStr"/>
       <c r="L29" t="n">
         <v>1</v>
       </c>
@@ -1519,17 +1447,11 @@
         <v>-172295.2792711343</v>
       </c>
       <c r="H30" t="n">
-        <v>1</v>
-      </c>
-      <c r="I30" t="n">
-        <v>11.3</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I30" t="inlineStr"/>
       <c r="J30" t="inlineStr"/>
-      <c r="K30" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K30" t="inlineStr"/>
       <c r="L30" t="n">
         <v>1</v>
       </c>
@@ -1558,17 +1480,11 @@
         <v>-411242.9847711343</v>
       </c>
       <c r="H31" t="n">
-        <v>1</v>
-      </c>
-      <c r="I31" t="n">
-        <v>11.4</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I31" t="inlineStr"/>
       <c r="J31" t="inlineStr"/>
-      <c r="K31" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K31" t="inlineStr"/>
       <c r="L31" t="n">
         <v>1</v>
       </c>
@@ -1597,17 +1513,11 @@
         <v>-411242.9847711343</v>
       </c>
       <c r="H32" t="n">
-        <v>1</v>
-      </c>
-      <c r="I32" t="n">
-        <v>11.3</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I32" t="inlineStr"/>
       <c r="J32" t="inlineStr"/>
-      <c r="K32" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K32" t="inlineStr"/>
       <c r="L32" t="n">
         <v>1</v>
       </c>
@@ -1636,15 +1546,15 @@
         <v>-411242.9847711343</v>
       </c>
       <c r="H33" t="n">
-        <v>0</v>
-      </c>
-      <c r="I33" t="inlineStr"/>
-      <c r="J33" t="inlineStr"/>
-      <c r="K33" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I33" t="n">
+        <v>11.3</v>
+      </c>
+      <c r="J33" t="n">
+        <v>11.3</v>
+      </c>
+      <c r="K33" t="inlineStr"/>
       <c r="L33" t="n">
         <v>1</v>
       </c>
@@ -1673,13 +1583,17 @@
         <v>-411242.9847711343</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
-      </c>
-      <c r="I34" t="inlineStr"/>
-      <c r="J34" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I34" t="n">
+        <v>11.3</v>
+      </c>
+      <c r="J34" t="n">
+        <v>11.3</v>
+      </c>
       <c r="K34" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매수 대기</t>
         </is>
       </c>
       <c r="L34" t="n">
@@ -1715,10 +1629,12 @@
       <c r="I35" t="n">
         <v>11.3</v>
       </c>
-      <c r="J35" t="inlineStr"/>
+      <c r="J35" t="n">
+        <v>11.3</v>
+      </c>
       <c r="K35" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매수 대기</t>
         </is>
       </c>
       <c r="L35" t="n">
@@ -1754,12 +1670,10 @@
       <c r="I36" t="n">
         <v>11.3</v>
       </c>
-      <c r="J36" t="inlineStr"/>
-      <c r="K36" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J36" t="n">
+        <v>11.3</v>
+      </c>
+      <c r="K36" t="inlineStr"/>
       <c r="L36" t="n">
         <v>1</v>
       </c>
@@ -1793,10 +1707,12 @@
       <c r="I37" t="n">
         <v>11.3</v>
       </c>
-      <c r="J37" t="inlineStr"/>
+      <c r="J37" t="n">
+        <v>11.3</v>
+      </c>
       <c r="K37" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매수 대기</t>
         </is>
       </c>
       <c r="L37" t="n">
@@ -1832,10 +1748,12 @@
       <c r="I38" t="n">
         <v>11.4</v>
       </c>
-      <c r="J38" t="inlineStr"/>
+      <c r="J38" t="n">
+        <v>11.3</v>
+      </c>
       <c r="K38" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매수 대기</t>
         </is>
       </c>
       <c r="L38" t="n">
@@ -1870,11 +1788,7 @@
       </c>
       <c r="I39" t="inlineStr"/>
       <c r="J39" t="inlineStr"/>
-      <c r="K39" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K39" t="inlineStr"/>
       <c r="L39" t="n">
         <v>1</v>
       </c>
@@ -1907,11 +1821,7 @@
       </c>
       <c r="I40" t="inlineStr"/>
       <c r="J40" t="inlineStr"/>
-      <c r="K40" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K40" t="inlineStr"/>
       <c r="L40" t="n">
         <v>1</v>
       </c>
@@ -1944,11 +1854,7 @@
       </c>
       <c r="I41" t="inlineStr"/>
       <c r="J41" t="inlineStr"/>
-      <c r="K41" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K41" t="inlineStr"/>
       <c r="L41" t="n">
         <v>1</v>
       </c>
@@ -1977,17 +1883,11 @@
         <v>-429773.6537711343</v>
       </c>
       <c r="H42" t="n">
-        <v>1</v>
-      </c>
-      <c r="I42" t="n">
-        <v>11.3</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I42" t="inlineStr"/>
       <c r="J42" t="inlineStr"/>
-      <c r="K42" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K42" t="inlineStr"/>
       <c r="L42" t="n">
         <v>1</v>
       </c>
@@ -2020,11 +1920,7 @@
       </c>
       <c r="I43" t="inlineStr"/>
       <c r="J43" t="inlineStr"/>
-      <c r="K43" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K43" t="inlineStr"/>
       <c r="L43" t="n">
         <v>1</v>
       </c>
@@ -2057,11 +1953,7 @@
       </c>
       <c r="I44" t="inlineStr"/>
       <c r="J44" t="inlineStr"/>
-      <c r="K44" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K44" t="inlineStr"/>
       <c r="L44" t="n">
         <v>1</v>
       </c>
@@ -2094,11 +1986,7 @@
       </c>
       <c r="I45" t="inlineStr"/>
       <c r="J45" t="inlineStr"/>
-      <c r="K45" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K45" t="inlineStr"/>
       <c r="L45" t="n">
         <v>1</v>
       </c>
@@ -2131,11 +2019,7 @@
       </c>
       <c r="I46" t="inlineStr"/>
       <c r="J46" t="inlineStr"/>
-      <c r="K46" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K46" t="inlineStr"/>
       <c r="L46" t="n">
         <v>1</v>
       </c>
@@ -2168,11 +2052,7 @@
       </c>
       <c r="I47" t="inlineStr"/>
       <c r="J47" t="inlineStr"/>
-      <c r="K47" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K47" t="inlineStr"/>
       <c r="L47" t="n">
         <v>1</v>
       </c>
@@ -2205,11 +2085,7 @@
       </c>
       <c r="I48" t="inlineStr"/>
       <c r="J48" t="inlineStr"/>
-      <c r="K48" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K48" t="inlineStr"/>
       <c r="L48" t="n">
         <v>1</v>
       </c>
@@ -2242,11 +2118,7 @@
       </c>
       <c r="I49" t="inlineStr"/>
       <c r="J49" t="inlineStr"/>
-      <c r="K49" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K49" t="inlineStr"/>
       <c r="L49" t="n">
         <v>1</v>
       </c>
@@ -2279,11 +2151,7 @@
       </c>
       <c r="I50" t="inlineStr"/>
       <c r="J50" t="inlineStr"/>
-      <c r="K50" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K50" t="inlineStr"/>
       <c r="L50" t="n">
         <v>1</v>
       </c>
@@ -2316,11 +2184,7 @@
       </c>
       <c r="I51" t="inlineStr"/>
       <c r="J51" t="inlineStr"/>
-      <c r="K51" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K51" t="inlineStr"/>
       <c r="L51" t="n">
         <v>1</v>
       </c>
@@ -2353,11 +2217,7 @@
       </c>
       <c r="I52" t="inlineStr"/>
       <c r="J52" t="inlineStr"/>
-      <c r="K52" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K52" t="inlineStr"/>
       <c r="L52" t="n">
         <v>1</v>
       </c>
@@ -2390,11 +2250,7 @@
       </c>
       <c r="I53" t="inlineStr"/>
       <c r="J53" t="inlineStr"/>
-      <c r="K53" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K53" t="inlineStr"/>
       <c r="L53" t="n">
         <v>1</v>
       </c>
@@ -2427,11 +2283,7 @@
       </c>
       <c r="I54" t="inlineStr"/>
       <c r="J54" t="inlineStr"/>
-      <c r="K54" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K54" t="inlineStr"/>
       <c r="L54" t="n">
         <v>1</v>
       </c>
@@ -2464,11 +2316,7 @@
       </c>
       <c r="I55" t="inlineStr"/>
       <c r="J55" t="inlineStr"/>
-      <c r="K55" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K55" t="inlineStr"/>
       <c r="L55" t="n">
         <v>1</v>
       </c>
@@ -2501,11 +2349,7 @@
       </c>
       <c r="I56" t="inlineStr"/>
       <c r="J56" t="inlineStr"/>
-      <c r="K56" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K56" t="inlineStr"/>
       <c r="L56" t="n">
         <v>1</v>
       </c>
@@ -2538,11 +2382,7 @@
       </c>
       <c r="I57" t="inlineStr"/>
       <c r="J57" t="inlineStr"/>
-      <c r="K57" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K57" t="inlineStr"/>
       <c r="L57" t="n">
         <v>1</v>
       </c>
@@ -2575,11 +2415,7 @@
       </c>
       <c r="I58" t="inlineStr"/>
       <c r="J58" t="inlineStr"/>
-      <c r="K58" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K58" t="inlineStr"/>
       <c r="L58" t="n">
         <v>1</v>
       </c>
@@ -2612,11 +2448,7 @@
       </c>
       <c r="I59" t="inlineStr"/>
       <c r="J59" t="inlineStr"/>
-      <c r="K59" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K59" t="inlineStr"/>
       <c r="L59" t="n">
         <v>1</v>
       </c>
@@ -2649,11 +2481,7 @@
       </c>
       <c r="I60" t="inlineStr"/>
       <c r="J60" t="inlineStr"/>
-      <c r="K60" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K60" t="inlineStr"/>
       <c r="L60" t="n">
         <v>1</v>
       </c>
@@ -2686,11 +2514,7 @@
       </c>
       <c r="I61" t="inlineStr"/>
       <c r="J61" t="inlineStr"/>
-      <c r="K61" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K61" t="inlineStr"/>
       <c r="L61" t="n">
         <v>1</v>
       </c>
@@ -2723,11 +2547,7 @@
       </c>
       <c r="I62" t="inlineStr"/>
       <c r="J62" t="inlineStr"/>
-      <c r="K62" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K62" t="inlineStr"/>
       <c r="L62" t="n">
         <v>1</v>
       </c>
@@ -2760,11 +2580,7 @@
       </c>
       <c r="I63" t="inlineStr"/>
       <c r="J63" t="inlineStr"/>
-      <c r="K63" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K63" t="inlineStr"/>
       <c r="L63" t="n">
         <v>1</v>
       </c>
@@ -2797,11 +2613,7 @@
       </c>
       <c r="I64" t="inlineStr"/>
       <c r="J64" t="inlineStr"/>
-      <c r="K64" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K64" t="inlineStr"/>
       <c r="L64" t="n">
         <v>1</v>
       </c>
@@ -2834,11 +2646,7 @@
       </c>
       <c r="I65" t="inlineStr"/>
       <c r="J65" t="inlineStr"/>
-      <c r="K65" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K65" t="inlineStr"/>
       <c r="L65" t="n">
         <v>1</v>
       </c>
@@ -2871,11 +2679,7 @@
       </c>
       <c r="I66" t="inlineStr"/>
       <c r="J66" t="inlineStr"/>
-      <c r="K66" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K66" t="inlineStr"/>
       <c r="L66" t="n">
         <v>1</v>
       </c>
@@ -2908,11 +2712,7 @@
       </c>
       <c r="I67" t="inlineStr"/>
       <c r="J67" t="inlineStr"/>
-      <c r="K67" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K67" t="inlineStr"/>
       <c r="L67" t="n">
         <v>1</v>
       </c>
@@ -2945,11 +2745,7 @@
       </c>
       <c r="I68" t="inlineStr"/>
       <c r="J68" t="inlineStr"/>
-      <c r="K68" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K68" t="inlineStr"/>
       <c r="L68" t="n">
         <v>1</v>
       </c>
@@ -2982,11 +2778,7 @@
       </c>
       <c r="I69" t="inlineStr"/>
       <c r="J69" t="inlineStr"/>
-      <c r="K69" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K69" t="inlineStr"/>
       <c r="L69" t="n">
         <v>1</v>
       </c>
@@ -3019,11 +2811,7 @@
       </c>
       <c r="I70" t="inlineStr"/>
       <c r="J70" t="inlineStr"/>
-      <c r="K70" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K70" t="inlineStr"/>
       <c r="L70" t="n">
         <v>1</v>
       </c>
@@ -3056,11 +2844,7 @@
       </c>
       <c r="I71" t="inlineStr"/>
       <c r="J71" t="inlineStr"/>
-      <c r="K71" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K71" t="inlineStr"/>
       <c r="L71" t="n">
         <v>1</v>
       </c>
@@ -3093,11 +2877,7 @@
       </c>
       <c r="I72" t="inlineStr"/>
       <c r="J72" t="inlineStr"/>
-      <c r="K72" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K72" t="inlineStr"/>
       <c r="L72" t="n">
         <v>1</v>
       </c>
@@ -3130,11 +2910,7 @@
       </c>
       <c r="I73" t="inlineStr"/>
       <c r="J73" t="inlineStr"/>
-      <c r="K73" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K73" t="inlineStr"/>
       <c r="L73" t="n">
         <v>1</v>
       </c>
@@ -3167,11 +2943,7 @@
       </c>
       <c r="I74" t="inlineStr"/>
       <c r="J74" t="inlineStr"/>
-      <c r="K74" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K74" t="inlineStr"/>
       <c r="L74" t="n">
         <v>1</v>
       </c>
@@ -3204,11 +2976,7 @@
       </c>
       <c r="I75" t="inlineStr"/>
       <c r="J75" t="inlineStr"/>
-      <c r="K75" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K75" t="inlineStr"/>
       <c r="L75" t="n">
         <v>1</v>
       </c>
@@ -3241,11 +3009,7 @@
       </c>
       <c r="I76" t="inlineStr"/>
       <c r="J76" t="inlineStr"/>
-      <c r="K76" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K76" t="inlineStr"/>
       <c r="L76" t="n">
         <v>1</v>
       </c>
@@ -3278,11 +3042,7 @@
       </c>
       <c r="I77" t="inlineStr"/>
       <c r="J77" t="inlineStr"/>
-      <c r="K77" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K77" t="inlineStr"/>
       <c r="L77" t="n">
         <v>1</v>
       </c>
@@ -3311,15 +3071,11 @@
         <v>-57847.16591223176</v>
       </c>
       <c r="H78" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I78" t="inlineStr"/>
       <c r="J78" t="inlineStr"/>
-      <c r="K78" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K78" t="inlineStr"/>
       <c r="L78" t="n">
         <v>1</v>
       </c>
@@ -3348,15 +3104,11 @@
         <v>-57847.16591223176</v>
       </c>
       <c r="H79" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I79" t="inlineStr"/>
       <c r="J79" t="inlineStr"/>
-      <c r="K79" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K79" t="inlineStr"/>
       <c r="L79" t="n">
         <v>1</v>
       </c>
@@ -3385,15 +3137,11 @@
         <v>108755.3658877682</v>
       </c>
       <c r="H80" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I80" t="inlineStr"/>
       <c r="J80" t="inlineStr"/>
-      <c r="K80" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K80" t="inlineStr"/>
       <c r="L80" t="n">
         <v>1</v>
       </c>
@@ -3422,15 +3170,11 @@
         <v>-48404.22191223176</v>
       </c>
       <c r="H81" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I81" t="inlineStr"/>
       <c r="J81" t="inlineStr"/>
-      <c r="K81" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K81" t="inlineStr"/>
       <c r="L81" t="n">
         <v>1</v>
       </c>
@@ -3459,15 +3203,11 @@
         <v>-48404.22191223176</v>
       </c>
       <c r="H82" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I82" t="inlineStr"/>
       <c r="J82" t="inlineStr"/>
-      <c r="K82" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K82" t="inlineStr"/>
       <c r="L82" t="n">
         <v>1</v>
       </c>
@@ -3496,15 +3236,11 @@
         <v>-48404.22191223176</v>
       </c>
       <c r="H83" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I83" t="inlineStr"/>
       <c r="J83" t="inlineStr"/>
-      <c r="K83" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K83" t="inlineStr"/>
       <c r="L83" t="n">
         <v>1</v>
       </c>
@@ -3533,15 +3269,11 @@
         <v>-48404.22191223176</v>
       </c>
       <c r="H84" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I84" t="inlineStr"/>
       <c r="J84" t="inlineStr"/>
-      <c r="K84" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K84" t="inlineStr"/>
       <c r="L84" t="n">
         <v>1</v>
       </c>
@@ -3574,11 +3306,7 @@
       </c>
       <c r="I85" t="inlineStr"/>
       <c r="J85" t="inlineStr"/>
-      <c r="K85" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K85" t="inlineStr"/>
       <c r="L85" t="n">
         <v>1</v>
       </c>
@@ -3611,11 +3339,7 @@
       </c>
       <c r="I86" t="inlineStr"/>
       <c r="J86" t="inlineStr"/>
-      <c r="K86" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K86" t="inlineStr"/>
       <c r="L86" t="n">
         <v>1</v>
       </c>
@@ -3648,11 +3372,7 @@
       </c>
       <c r="I87" t="inlineStr"/>
       <c r="J87" t="inlineStr"/>
-      <c r="K87" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K87" t="inlineStr"/>
       <c r="L87" t="n">
         <v>1</v>
       </c>
@@ -3681,15 +3401,11 @@
         <v>-75622.43641223175</v>
       </c>
       <c r="H88" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I88" t="inlineStr"/>
       <c r="J88" t="inlineStr"/>
-      <c r="K88" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K88" t="inlineStr"/>
       <c r="L88" t="n">
         <v>1</v>
       </c>
@@ -3718,15 +3434,11 @@
         <v>-94473.31741223176</v>
       </c>
       <c r="H89" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I89" t="inlineStr"/>
       <c r="J89" t="inlineStr"/>
-      <c r="K89" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K89" t="inlineStr"/>
       <c r="L89" t="n">
         <v>1</v>
       </c>
@@ -3759,11 +3471,7 @@
       </c>
       <c r="I90" t="inlineStr"/>
       <c r="J90" t="inlineStr"/>
-      <c r="K90" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K90" t="inlineStr"/>
       <c r="L90" t="n">
         <v>1</v>
       </c>
@@ -3796,11 +3504,7 @@
       </c>
       <c r="I91" t="inlineStr"/>
       <c r="J91" t="inlineStr"/>
-      <c r="K91" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K91" t="inlineStr"/>
       <c r="L91" t="n">
         <v>1</v>
       </c>
@@ -3833,11 +3537,7 @@
       </c>
       <c r="I92" t="inlineStr"/>
       <c r="J92" t="inlineStr"/>
-      <c r="K92" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K92" t="inlineStr"/>
       <c r="L92" t="n">
         <v>1</v>
       </c>
@@ -3870,11 +3570,7 @@
       </c>
       <c r="I93" t="inlineStr"/>
       <c r="J93" t="inlineStr"/>
-      <c r="K93" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K93" t="inlineStr"/>
       <c r="L93" t="n">
         <v>1</v>
       </c>
@@ -3907,11 +3603,7 @@
       </c>
       <c r="I94" t="inlineStr"/>
       <c r="J94" t="inlineStr"/>
-      <c r="K94" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K94" t="inlineStr"/>
       <c r="L94" t="n">
         <v>1</v>
       </c>
@@ -3944,11 +3636,7 @@
       </c>
       <c r="I95" t="inlineStr"/>
       <c r="J95" t="inlineStr"/>
-      <c r="K95" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K95" t="inlineStr"/>
       <c r="L95" t="n">
         <v>1</v>
       </c>
@@ -3981,11 +3669,7 @@
       </c>
       <c r="I96" t="inlineStr"/>
       <c r="J96" t="inlineStr"/>
-      <c r="K96" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K96" t="inlineStr"/>
       <c r="L96" t="n">
         <v>1</v>
       </c>
@@ -4018,11 +3702,7 @@
       </c>
       <c r="I97" t="inlineStr"/>
       <c r="J97" t="inlineStr"/>
-      <c r="K97" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K97" t="inlineStr"/>
       <c r="L97" t="n">
         <v>1</v>
       </c>
@@ -4055,11 +3735,7 @@
       </c>
       <c r="I98" t="inlineStr"/>
       <c r="J98" t="inlineStr"/>
-      <c r="K98" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K98" t="inlineStr"/>
       <c r="L98" t="n">
         <v>1</v>
       </c>
@@ -4092,11 +3768,7 @@
       </c>
       <c r="I99" t="inlineStr"/>
       <c r="J99" t="inlineStr"/>
-      <c r="K99" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K99" t="inlineStr"/>
       <c r="L99" t="n">
         <v>1</v>
       </c>
@@ -4125,15 +3797,11 @@
         <v>-8506.499512231763</v>
       </c>
       <c r="H100" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I100" t="inlineStr"/>
       <c r="J100" t="inlineStr"/>
-      <c r="K100" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K100" t="inlineStr"/>
       <c r="L100" t="n">
         <v>1</v>
       </c>
@@ -4162,15 +3830,11 @@
         <v>-8506.499512231763</v>
       </c>
       <c r="H101" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I101" t="inlineStr"/>
       <c r="J101" t="inlineStr"/>
-      <c r="K101" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K101" t="inlineStr"/>
       <c r="L101" t="n">
         <v>1</v>
       </c>
@@ -4199,15 +3863,11 @@
         <v>-8506.499512231763</v>
       </c>
       <c r="H102" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I102" t="inlineStr"/>
       <c r="J102" t="inlineStr"/>
-      <c r="K102" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K102" t="inlineStr"/>
       <c r="L102" t="n">
         <v>1</v>
       </c>
@@ -4236,15 +3896,11 @@
         <v>-8506.499512231763</v>
       </c>
       <c r="H103" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I103" t="inlineStr"/>
       <c r="J103" t="inlineStr"/>
-      <c r="K103" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K103" t="inlineStr"/>
       <c r="L103" t="n">
         <v>1</v>
       </c>
@@ -4273,15 +3929,11 @@
         <v>-8506.499512231763</v>
       </c>
       <c r="H104" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I104" t="inlineStr"/>
       <c r="J104" t="inlineStr"/>
-      <c r="K104" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K104" t="inlineStr"/>
       <c r="L104" t="n">
         <v>1</v>
       </c>
@@ -4310,15 +3962,11 @@
         <v>-8506.499512231763</v>
       </c>
       <c r="H105" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I105" t="inlineStr"/>
       <c r="J105" t="inlineStr"/>
-      <c r="K105" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K105" t="inlineStr"/>
       <c r="L105" t="n">
         <v>1</v>
       </c>
@@ -4351,11 +3999,7 @@
       </c>
       <c r="I106" t="inlineStr"/>
       <c r="J106" t="inlineStr"/>
-      <c r="K106" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K106" t="inlineStr"/>
       <c r="L106" t="n">
         <v>1</v>
       </c>
@@ -4384,15 +4028,11 @@
         <v>-8506.499512231763</v>
       </c>
       <c r="H107" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I107" t="inlineStr"/>
       <c r="J107" t="inlineStr"/>
-      <c r="K107" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K107" t="inlineStr"/>
       <c r="L107" t="n">
         <v>1</v>
       </c>
@@ -4421,15 +4061,11 @@
         <v>-8506.499512231763</v>
       </c>
       <c r="H108" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I108" t="inlineStr"/>
       <c r="J108" t="inlineStr"/>
-      <c r="K108" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K108" t="inlineStr"/>
       <c r="L108" t="n">
         <v>1</v>
       </c>
@@ -4458,15 +4094,11 @@
         <v>-8506.499512231763</v>
       </c>
       <c r="H109" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I109" t="inlineStr"/>
       <c r="J109" t="inlineStr"/>
-      <c r="K109" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K109" t="inlineStr"/>
       <c r="L109" t="n">
         <v>1</v>
       </c>
@@ -4495,15 +4127,11 @@
         <v>-8506.499512231763</v>
       </c>
       <c r="H110" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I110" t="inlineStr"/>
       <c r="J110" t="inlineStr"/>
-      <c r="K110" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K110" t="inlineStr"/>
       <c r="L110" t="n">
         <v>1</v>
       </c>
@@ -4532,15 +4160,11 @@
         <v>-8506.499512231763</v>
       </c>
       <c r="H111" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I111" t="inlineStr"/>
       <c r="J111" t="inlineStr"/>
-      <c r="K111" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K111" t="inlineStr"/>
       <c r="L111" t="n">
         <v>1</v>
       </c>
@@ -4569,15 +4193,11 @@
         <v>-8506.499512231763</v>
       </c>
       <c r="H112" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I112" t="inlineStr"/>
       <c r="J112" t="inlineStr"/>
-      <c r="K112" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K112" t="inlineStr"/>
       <c r="L112" t="n">
         <v>1</v>
       </c>
@@ -4606,15 +4226,11 @@
         <v>-8506.499512231763</v>
       </c>
       <c r="H113" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I113" t="inlineStr"/>
       <c r="J113" t="inlineStr"/>
-      <c r="K113" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K113" t="inlineStr"/>
       <c r="L113" t="n">
         <v>1</v>
       </c>
@@ -4643,15 +4259,11 @@
         <v>-8506.499512231763</v>
       </c>
       <c r="H114" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I114" t="inlineStr"/>
       <c r="J114" t="inlineStr"/>
-      <c r="K114" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K114" t="inlineStr"/>
       <c r="L114" t="n">
         <v>1</v>
       </c>
@@ -4680,15 +4292,11 @@
         <v>-8506.499512231763</v>
       </c>
       <c r="H115" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I115" t="inlineStr"/>
       <c r="J115" t="inlineStr"/>
-      <c r="K115" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K115" t="inlineStr"/>
       <c r="L115" t="n">
         <v>1</v>
       </c>
@@ -4717,15 +4325,11 @@
         <v>-8506.499512231763</v>
       </c>
       <c r="H116" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I116" t="inlineStr"/>
       <c r="J116" t="inlineStr"/>
-      <c r="K116" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K116" t="inlineStr"/>
       <c r="L116" t="n">
         <v>1</v>
       </c>
@@ -4754,15 +4358,11 @@
         <v>-8506.499512231763</v>
       </c>
       <c r="H117" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I117" t="inlineStr"/>
       <c r="J117" t="inlineStr"/>
-      <c r="K117" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K117" t="inlineStr"/>
       <c r="L117" t="n">
         <v>1</v>
       </c>
@@ -4791,15 +4391,11 @@
         <v>-8506.499512231763</v>
       </c>
       <c r="H118" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I118" t="inlineStr"/>
       <c r="J118" t="inlineStr"/>
-      <c r="K118" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K118" t="inlineStr"/>
       <c r="L118" t="n">
         <v>1</v>
       </c>
@@ -4828,15 +4424,11 @@
         <v>-8506.499512231763</v>
       </c>
       <c r="H119" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I119" t="inlineStr"/>
       <c r="J119" t="inlineStr"/>
-      <c r="K119" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K119" t="inlineStr"/>
       <c r="L119" t="n">
         <v>1</v>
       </c>
@@ -4865,15 +4457,11 @@
         <v>5591453.112187768</v>
       </c>
       <c r="H120" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I120" t="inlineStr"/>
       <c r="J120" t="inlineStr"/>
-      <c r="K120" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K120" t="inlineStr"/>
       <c r="L120" t="n">
         <v>1</v>
       </c>
@@ -4902,15 +4490,11 @@
         <v>5591453.112187768</v>
       </c>
       <c r="H121" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I121" t="inlineStr"/>
       <c r="J121" t="inlineStr"/>
-      <c r="K121" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K121" t="inlineStr"/>
       <c r="L121" t="n">
         <v>1</v>
       </c>
@@ -4939,15 +4523,11 @@
         <v>5591453.112187768</v>
       </c>
       <c r="H122" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I122" t="inlineStr"/>
       <c r="J122" t="inlineStr"/>
-      <c r="K122" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K122" t="inlineStr"/>
       <c r="L122" t="n">
         <v>1</v>
       </c>
@@ -4976,15 +4556,11 @@
         <v>5591453.112187768</v>
       </c>
       <c r="H123" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I123" t="inlineStr"/>
       <c r="J123" t="inlineStr"/>
-      <c r="K123" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K123" t="inlineStr"/>
       <c r="L123" t="n">
         <v>1</v>
       </c>
@@ -5017,11 +4593,7 @@
       </c>
       <c r="I124" t="inlineStr"/>
       <c r="J124" t="inlineStr"/>
-      <c r="K124" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K124" t="inlineStr"/>
       <c r="L124" t="n">
         <v>1</v>
       </c>
@@ -5050,15 +4622,11 @@
         <v>5591704.500487768</v>
       </c>
       <c r="H125" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I125" t="inlineStr"/>
       <c r="J125" t="inlineStr"/>
-      <c r="K125" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K125" t="inlineStr"/>
       <c r="L125" t="n">
         <v>1</v>
       </c>
@@ -5087,15 +4655,11 @@
         <v>5589970.523587768</v>
       </c>
       <c r="H126" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I126" t="inlineStr"/>
       <c r="J126" t="inlineStr"/>
-      <c r="K126" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K126" t="inlineStr"/>
       <c r="L126" t="n">
         <v>1</v>
       </c>
@@ -5124,15 +4688,11 @@
         <v>5531140.523587768</v>
       </c>
       <c r="H127" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I127" t="inlineStr"/>
       <c r="J127" t="inlineStr"/>
-      <c r="K127" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K127" t="inlineStr"/>
       <c r="L127" t="n">
         <v>1</v>
       </c>
@@ -5165,11 +4725,7 @@
       </c>
       <c r="I128" t="inlineStr"/>
       <c r="J128" t="inlineStr"/>
-      <c r="K128" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K128" t="inlineStr"/>
       <c r="L128" t="n">
         <v>1</v>
       </c>
@@ -5202,11 +4758,7 @@
       </c>
       <c r="I129" t="inlineStr"/>
       <c r="J129" t="inlineStr"/>
-      <c r="K129" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K129" t="inlineStr"/>
       <c r="L129" t="n">
         <v>1</v>
       </c>
@@ -5235,15 +4787,11 @@
         <v>5744753.290687768</v>
       </c>
       <c r="H130" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I130" t="inlineStr"/>
       <c r="J130" t="inlineStr"/>
-      <c r="K130" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K130" t="inlineStr"/>
       <c r="L130" t="n">
         <v>1</v>
       </c>
@@ -5272,15 +4820,11 @@
         <v>5899399.429436986</v>
       </c>
       <c r="H131" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I131" t="inlineStr"/>
       <c r="J131" t="inlineStr"/>
-      <c r="K131" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K131" t="inlineStr"/>
       <c r="L131" t="n">
         <v>1</v>
       </c>
@@ -5309,15 +4853,11 @@
         <v>5899399.429436986</v>
       </c>
       <c r="H132" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I132" t="inlineStr"/>
       <c r="J132" t="inlineStr"/>
-      <c r="K132" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K132" t="inlineStr"/>
       <c r="L132" t="n">
         <v>1</v>
       </c>
@@ -5350,11 +4890,7 @@
       </c>
       <c r="I133" t="inlineStr"/>
       <c r="J133" t="inlineStr"/>
-      <c r="K133" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K133" t="inlineStr"/>
       <c r="L133" t="n">
         <v>1</v>
       </c>
@@ -5383,15 +4919,11 @@
         <v>5765375.388336986</v>
       </c>
       <c r="H134" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I134" t="inlineStr"/>
       <c r="J134" t="inlineStr"/>
-      <c r="K134" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K134" t="inlineStr"/>
       <c r="L134" t="n">
         <v>1</v>
       </c>
@@ -5420,15 +4952,11 @@
         <v>5765375.388336986</v>
       </c>
       <c r="H135" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I135" t="inlineStr"/>
       <c r="J135" t="inlineStr"/>
-      <c r="K135" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K135" t="inlineStr"/>
       <c r="L135" t="n">
         <v>1</v>
       </c>
@@ -5461,11 +4989,7 @@
       </c>
       <c r="I136" t="inlineStr"/>
       <c r="J136" t="inlineStr"/>
-      <c r="K136" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K136" t="inlineStr"/>
       <c r="L136" t="n">
         <v>1</v>
       </c>
@@ -5498,11 +5022,7 @@
       </c>
       <c r="I137" t="inlineStr"/>
       <c r="J137" t="inlineStr"/>
-      <c r="K137" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K137" t="inlineStr"/>
       <c r="L137" t="n">
         <v>1</v>
       </c>
@@ -5535,11 +5055,7 @@
       </c>
       <c r="I138" t="inlineStr"/>
       <c r="J138" t="inlineStr"/>
-      <c r="K138" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K138" t="inlineStr"/>
       <c r="L138" t="n">
         <v>1</v>
       </c>
@@ -5572,11 +5088,7 @@
       </c>
       <c r="I139" t="inlineStr"/>
       <c r="J139" t="inlineStr"/>
-      <c r="K139" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K139" t="inlineStr"/>
       <c r="L139" t="n">
         <v>1</v>
       </c>
@@ -5609,11 +5121,7 @@
       </c>
       <c r="I140" t="inlineStr"/>
       <c r="J140" t="inlineStr"/>
-      <c r="K140" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K140" t="inlineStr"/>
       <c r="L140" t="n">
         <v>1</v>
       </c>
@@ -5646,11 +5154,7 @@
       </c>
       <c r="I141" t="inlineStr"/>
       <c r="J141" t="inlineStr"/>
-      <c r="K141" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K141" t="inlineStr"/>
       <c r="L141" t="n">
         <v>1</v>
       </c>
@@ -5683,11 +5187,7 @@
       </c>
       <c r="I142" t="inlineStr"/>
       <c r="J142" t="inlineStr"/>
-      <c r="K142" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K142" t="inlineStr"/>
       <c r="L142" t="n">
         <v>1</v>
       </c>
@@ -5720,11 +5220,7 @@
       </c>
       <c r="I143" t="inlineStr"/>
       <c r="J143" t="inlineStr"/>
-      <c r="K143" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K143" t="inlineStr"/>
       <c r="L143" t="n">
         <v>1</v>
       </c>
@@ -5757,11 +5253,7 @@
       </c>
       <c r="I144" t="inlineStr"/>
       <c r="J144" t="inlineStr"/>
-      <c r="K144" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K144" t="inlineStr"/>
       <c r="L144" t="n">
         <v>1</v>
       </c>
@@ -5794,11 +5286,7 @@
       </c>
       <c r="I145" t="inlineStr"/>
       <c r="J145" t="inlineStr"/>
-      <c r="K145" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K145" t="inlineStr"/>
       <c r="L145" t="n">
         <v>1</v>
       </c>
@@ -5827,15 +5315,11 @@
         <v>5778250.278815499</v>
       </c>
       <c r="H146" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I146" t="inlineStr"/>
       <c r="J146" t="inlineStr"/>
-      <c r="K146" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K146" t="inlineStr"/>
       <c r="L146" t="n">
         <v>1</v>
       </c>
@@ -5864,15 +5348,11 @@
         <v>5780553.526415499</v>
       </c>
       <c r="H147" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I147" t="inlineStr"/>
       <c r="J147" t="inlineStr"/>
-      <c r="K147" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K147" t="inlineStr"/>
       <c r="L147" t="n">
         <v>1</v>
       </c>
@@ -5901,15 +5381,11 @@
         <v>5780553.526415499</v>
       </c>
       <c r="H148" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I148" t="inlineStr"/>
       <c r="J148" t="inlineStr"/>
-      <c r="K148" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K148" t="inlineStr"/>
       <c r="L148" t="n">
         <v>1</v>
       </c>
@@ -5942,11 +5418,7 @@
       </c>
       <c r="I149" t="inlineStr"/>
       <c r="J149" t="inlineStr"/>
-      <c r="K149" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K149" t="inlineStr"/>
       <c r="L149" t="n">
         <v>1</v>
       </c>
@@ -5979,11 +5451,7 @@
       </c>
       <c r="I150" t="inlineStr"/>
       <c r="J150" t="inlineStr"/>
-      <c r="K150" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K150" t="inlineStr"/>
       <c r="L150" t="n">
         <v>1</v>
       </c>
@@ -6016,11 +5484,7 @@
       </c>
       <c r="I151" t="inlineStr"/>
       <c r="J151" t="inlineStr"/>
-      <c r="K151" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K151" t="inlineStr"/>
       <c r="L151" t="n">
         <v>1</v>
       </c>
@@ -6053,11 +5517,7 @@
       </c>
       <c r="I152" t="inlineStr"/>
       <c r="J152" t="inlineStr"/>
-      <c r="K152" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K152" t="inlineStr"/>
       <c r="L152" t="n">
         <v>1</v>
       </c>
@@ -6086,15 +5546,11 @@
         <v>5553622.812902276</v>
       </c>
       <c r="H153" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I153" t="inlineStr"/>
       <c r="J153" t="inlineStr"/>
-      <c r="K153" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K153" t="inlineStr"/>
       <c r="L153" t="n">
         <v>1</v>
       </c>
@@ -6123,15 +5579,11 @@
         <v>5553622.812902276</v>
       </c>
       <c r="H154" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I154" t="inlineStr"/>
       <c r="J154" t="inlineStr"/>
-      <c r="K154" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K154" t="inlineStr"/>
       <c r="L154" t="n">
         <v>1</v>
       </c>
@@ -6164,11 +5616,7 @@
       </c>
       <c r="I155" t="inlineStr"/>
       <c r="J155" t="inlineStr"/>
-      <c r="K155" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K155" t="inlineStr"/>
       <c r="L155" t="n">
         <v>1</v>
       </c>
@@ -6201,11 +5649,7 @@
       </c>
       <c r="I156" t="inlineStr"/>
       <c r="J156" t="inlineStr"/>
-      <c r="K156" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K156" t="inlineStr"/>
       <c r="L156" t="n">
         <v>1</v>
       </c>
@@ -6238,12 +5682,10 @@
       </c>
       <c r="I157" t="inlineStr"/>
       <c r="J157" t="inlineStr"/>
-      <c r="K157" t="inlineStr">
-        <is>
-          <t>매도 체결</t>
-        </is>
-      </c>
-      <c r="L157" t="inlineStr"/>
+      <c r="K157" t="inlineStr"/>
+      <c r="L157" t="n">
+        <v>1</v>
+      </c>
       <c r="M157" t="inlineStr"/>
     </row>
     <row r="158">
@@ -6599,7 +6041,7 @@
         <v>5192108.694502276</v>
       </c>
       <c r="H168" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I168" t="inlineStr"/>
       <c r="J168" t="inlineStr"/>
@@ -6665,7 +6107,7 @@
         <v>5201123.484602276</v>
       </c>
       <c r="H170" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I170" t="inlineStr"/>
       <c r="J170" t="inlineStr"/>
@@ -6698,7 +6140,7 @@
         <v>5201123.484602276</v>
       </c>
       <c r="H171" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I171" t="inlineStr"/>
       <c r="J171" t="inlineStr"/>
@@ -6863,7 +6305,7 @@
         <v>5172974.623902276</v>
       </c>
       <c r="H176" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I176" t="inlineStr"/>
       <c r="J176" t="inlineStr"/>
@@ -6896,7 +6338,7 @@
         <v>5172974.623902276</v>
       </c>
       <c r="H177" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I177" t="inlineStr"/>
       <c r="J177" t="inlineStr"/>
@@ -6929,7 +6371,7 @@
         <v>5172739.077702276</v>
       </c>
       <c r="H178" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I178" t="inlineStr"/>
       <c r="J178" t="inlineStr"/>
@@ -6995,7 +6437,7 @@
         <v>5172739.077702276</v>
       </c>
       <c r="H180" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I180" t="inlineStr"/>
       <c r="J180" t="inlineStr"/>
@@ -7061,7 +6503,7 @@
         <v>5177739.077702276</v>
       </c>
       <c r="H182" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I182" t="inlineStr"/>
       <c r="J182" t="inlineStr"/>
@@ -7094,7 +6536,7 @@
         <v>5177739.077702276</v>
       </c>
       <c r="H183" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I183" t="inlineStr"/>
       <c r="J183" t="inlineStr"/>
@@ -7127,7 +6569,7 @@
         <v>5177739.077702276</v>
       </c>
       <c r="H184" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I184" t="inlineStr"/>
       <c r="J184" t="inlineStr"/>
@@ -7193,7 +6635,7 @@
         <v>4999856.284702277</v>
       </c>
       <c r="H186" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I186" t="inlineStr"/>
       <c r="J186" t="inlineStr"/>
@@ -7226,7 +6668,7 @@
         <v>4999856.284702277</v>
       </c>
       <c r="H187" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I187" t="inlineStr"/>
       <c r="J187" t="inlineStr"/>
@@ -7259,7 +6701,7 @@
         <v>5000956.284702277</v>
       </c>
       <c r="H188" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I188" t="inlineStr"/>
       <c r="J188" t="inlineStr"/>
@@ -7292,7 +6734,7 @@
         <v>5000956.284702277</v>
       </c>
       <c r="H189" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I189" t="inlineStr"/>
       <c r="J189" t="inlineStr"/>
@@ -7358,7 +6800,7 @@
         <v>5093033.016102277</v>
       </c>
       <c r="H191" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I191" t="inlineStr"/>
       <c r="J191" t="inlineStr"/>
@@ -7556,7 +6998,7 @@
         <v>5095133.016102277</v>
       </c>
       <c r="H197" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I197" t="inlineStr"/>
       <c r="J197" t="inlineStr"/>
@@ -7589,7 +7031,7 @@
         <v>5095479.379602277</v>
       </c>
       <c r="H198" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I198" t="inlineStr"/>
       <c r="J198" t="inlineStr"/>
@@ -7622,7 +7064,7 @@
         <v>5095479.379602277</v>
       </c>
       <c r="H199" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I199" t="inlineStr"/>
       <c r="J199" t="inlineStr"/>
@@ -7721,7 +7163,7 @@
         <v>4958752.815002277</v>
       </c>
       <c r="H202" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I202" t="inlineStr"/>
       <c r="J202" t="inlineStr"/>
@@ -7754,7 +7196,7 @@
         <v>4958752.815002277</v>
       </c>
       <c r="H203" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I203" t="inlineStr"/>
       <c r="J203" t="inlineStr"/>
@@ -7952,7 +7394,7 @@
         <v>4951805.646202277</v>
       </c>
       <c r="H209" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I209" t="inlineStr"/>
       <c r="J209" t="inlineStr"/>
@@ -7985,7 +7427,7 @@
         <v>4951805.646202277</v>
       </c>
       <c r="H210" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I210" t="inlineStr"/>
       <c r="J210" t="inlineStr"/>
@@ -8018,7 +7460,7 @@
         <v>4951805.646202277</v>
       </c>
       <c r="H211" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I211" t="inlineStr"/>
       <c r="J211" t="inlineStr"/>
@@ -8051,7 +7493,7 @@
         <v>4927846.097502277</v>
       </c>
       <c r="H212" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I212" t="inlineStr"/>
       <c r="J212" t="inlineStr"/>
@@ -8084,7 +7526,7 @@
         <v>4927846.097502277</v>
       </c>
       <c r="H213" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I213" t="inlineStr"/>
       <c r="J213" t="inlineStr"/>
@@ -8150,7 +7592,7 @@
         <v>4932072.758802277</v>
       </c>
       <c r="H215" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I215" t="inlineStr"/>
       <c r="J215" t="inlineStr"/>
@@ -8282,7 +7724,7 @@
         <v>4962846.049717403</v>
       </c>
       <c r="H219" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I219" t="inlineStr"/>
       <c r="J219" t="inlineStr"/>
@@ -8348,7 +7790,7 @@
         <v>4839064.14733253</v>
       </c>
       <c r="H221" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I221" t="inlineStr"/>
       <c r="J221" t="inlineStr"/>
@@ -8381,7 +7823,7 @@
         <v>4839064.14733253</v>
       </c>
       <c r="H222" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I222" t="inlineStr"/>
       <c r="J222" t="inlineStr"/>
@@ -8414,7 +7856,7 @@
         <v>4839064.14733253</v>
       </c>
       <c r="H223" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I223" t="inlineStr"/>
       <c r="J223" t="inlineStr"/>
@@ -8612,7 +8054,7 @@
         <v>4727745.84253253</v>
       </c>
       <c r="H229" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I229" t="inlineStr"/>
       <c r="J229" t="inlineStr"/>
@@ -8645,7 +8087,7 @@
         <v>4718914.84253253</v>
       </c>
       <c r="H230" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I230" t="inlineStr"/>
       <c r="J230" t="inlineStr"/>
@@ -8678,7 +8120,7 @@
         <v>4718914.84253253</v>
       </c>
       <c r="H231" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I231" t="inlineStr"/>
       <c r="J231" t="inlineStr"/>
@@ -8711,7 +8153,7 @@
         <v>4718914.84253253</v>
       </c>
       <c r="H232" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I232" t="inlineStr"/>
       <c r="J232" t="inlineStr"/>
@@ -8744,7 +8186,7 @@
         <v>4677839.26803253</v>
       </c>
       <c r="H233" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I233" t="inlineStr"/>
       <c r="J233" t="inlineStr"/>
@@ -8777,7 +8219,7 @@
         <v>4677839.26803253</v>
       </c>
       <c r="H234" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I234" t="inlineStr"/>
       <c r="J234" t="inlineStr"/>
@@ -8788,6 +8230,6 @@
       <c r="M234" t="inlineStr"/>
     </row>
   </sheetData>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
--- a/BackTest/2019-11-21 BackTest ORBS.xlsx
+++ b/BackTest/2019-11-21 BackTest ORBS.xlsx
@@ -715,14 +715,10 @@
         <v>13184.56662886566</v>
       </c>
       <c r="H10" t="n">
-        <v>1</v>
-      </c>
-      <c r="I10" t="n">
-        <v>11.3</v>
-      </c>
-      <c r="J10" t="n">
-        <v>11.3</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I10" t="inlineStr"/>
+      <c r="J10" t="inlineStr"/>
       <c r="K10" t="inlineStr"/>
       <c r="L10" t="n">
         <v>1</v>
@@ -752,19 +748,11 @@
         <v>13184.56662886566</v>
       </c>
       <c r="H11" t="n">
-        <v>1</v>
-      </c>
-      <c r="I11" t="n">
-        <v>11.3</v>
-      </c>
-      <c r="J11" t="n">
-        <v>11.3</v>
-      </c>
-      <c r="K11" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I11" t="inlineStr"/>
+      <c r="J11" t="inlineStr"/>
+      <c r="K11" t="inlineStr"/>
       <c r="L11" t="n">
         <v>1</v>
       </c>
@@ -793,17 +781,15 @@
         <v>14560.06902886566</v>
       </c>
       <c r="H12" t="n">
-        <v>0</v>
-      </c>
-      <c r="I12" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I12" t="n">
+        <v>11.3</v>
+      </c>
       <c r="J12" t="n">
         <v>11.3</v>
       </c>
-      <c r="K12" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+      <c r="K12" t="inlineStr"/>
       <c r="L12" t="n">
         <v>1</v>
       </c>
@@ -835,8 +821,14 @@
         <v>0</v>
       </c>
       <c r="I13" t="inlineStr"/>
-      <c r="J13" t="inlineStr"/>
-      <c r="K13" t="inlineStr"/>
+      <c r="J13" t="n">
+        <v>11.3</v>
+      </c>
+      <c r="K13" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L13" t="n">
         <v>1</v>
       </c>
@@ -868,8 +860,14 @@
         <v>0</v>
       </c>
       <c r="I14" t="inlineStr"/>
-      <c r="J14" t="inlineStr"/>
-      <c r="K14" t="inlineStr"/>
+      <c r="J14" t="n">
+        <v>11.3</v>
+      </c>
+      <c r="K14" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L14" t="n">
         <v>1</v>
       </c>
@@ -898,10 +896,14 @@
         <v>-92738.50867113433</v>
       </c>
       <c r="H15" t="n">
-        <v>0</v>
-      </c>
-      <c r="I15" t="inlineStr"/>
-      <c r="J15" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I15" t="n">
+        <v>11.3</v>
+      </c>
+      <c r="J15" t="n">
+        <v>11.3</v>
+      </c>
       <c r="K15" t="inlineStr"/>
       <c r="L15" t="n">
         <v>1</v>
@@ -931,11 +933,19 @@
         <v>-90238.50867113433</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
-      </c>
-      <c r="I16" t="inlineStr"/>
-      <c r="J16" t="inlineStr"/>
-      <c r="K16" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I16" t="n">
+        <v>11.3</v>
+      </c>
+      <c r="J16" t="n">
+        <v>11.3</v>
+      </c>
+      <c r="K16" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L16" t="n">
         <v>1</v>
       </c>
@@ -967,8 +977,14 @@
         <v>0</v>
       </c>
       <c r="I17" t="inlineStr"/>
-      <c r="J17" t="inlineStr"/>
-      <c r="K17" t="inlineStr"/>
+      <c r="J17" t="n">
+        <v>11.3</v>
+      </c>
+      <c r="K17" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L17" t="n">
         <v>1</v>
       </c>
@@ -1030,14 +1046,10 @@
         <v>-117277.5086711343</v>
       </c>
       <c r="H19" t="n">
-        <v>1</v>
-      </c>
-      <c r="I19" t="n">
-        <v>11.3</v>
-      </c>
-      <c r="J19" t="n">
-        <v>11.3</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I19" t="inlineStr"/>
+      <c r="J19" t="inlineStr"/>
       <c r="K19" t="inlineStr"/>
       <c r="L19" t="n">
         <v>1</v>
@@ -1070,14 +1082,8 @@
         <v>0</v>
       </c>
       <c r="I20" t="inlineStr"/>
-      <c r="J20" t="n">
-        <v>11.3</v>
-      </c>
-      <c r="K20" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+      <c r="J20" t="inlineStr"/>
+      <c r="K20" t="inlineStr"/>
       <c r="L20" t="n">
         <v>1</v>
       </c>
@@ -1106,17 +1112,15 @@
         <v>-117277.5086711343</v>
       </c>
       <c r="H21" t="n">
-        <v>0</v>
-      </c>
-      <c r="I21" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I21" t="n">
+        <v>11.3</v>
+      </c>
       <c r="J21" t="n">
         <v>11.3</v>
       </c>
-      <c r="K21" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+      <c r="K21" t="inlineStr"/>
       <c r="L21" t="n">
         <v>1</v>
       </c>
@@ -1145,11 +1149,19 @@
         <v>-117277.5086711343</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
-      </c>
-      <c r="I22" t="inlineStr"/>
-      <c r="J22" t="inlineStr"/>
-      <c r="K22" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I22" t="n">
+        <v>11.3</v>
+      </c>
+      <c r="J22" t="n">
+        <v>11.3</v>
+      </c>
+      <c r="K22" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L22" t="n">
         <v>1</v>
       </c>
@@ -1186,7 +1198,11 @@
       <c r="J23" t="n">
         <v>11.3</v>
       </c>
-      <c r="K23" t="inlineStr"/>
+      <c r="K23" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L23" t="n">
         <v>1</v>
       </c>
@@ -1223,11 +1239,7 @@
       <c r="J24" t="n">
         <v>11.3</v>
       </c>
-      <c r="K24" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+      <c r="K24" t="inlineStr"/>
       <c r="L24" t="n">
         <v>1</v>
       </c>
@@ -1305,7 +1317,11 @@
       <c r="J26" t="n">
         <v>11.3</v>
       </c>
-      <c r="K26" t="inlineStr"/>
+      <c r="K26" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L26" t="n">
         <v>1</v>
       </c>
@@ -1342,11 +1358,7 @@
       <c r="J27" t="n">
         <v>11.3</v>
       </c>
-      <c r="K27" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+      <c r="K27" t="inlineStr"/>
       <c r="L27" t="n">
         <v>1</v>
       </c>
@@ -1375,9 +1387,11 @@
         <v>-173191.2725711343</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
-      </c>
-      <c r="I28" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I28" t="n">
+        <v>11.4</v>
+      </c>
       <c r="J28" t="n">
         <v>11.3</v>
       </c>
@@ -1414,11 +1428,19 @@
         <v>-173191.2725711343</v>
       </c>
       <c r="H29" t="n">
-        <v>0</v>
-      </c>
-      <c r="I29" t="inlineStr"/>
-      <c r="J29" t="inlineStr"/>
-      <c r="K29" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I29" t="n">
+        <v>11.3</v>
+      </c>
+      <c r="J29" t="n">
+        <v>11.3</v>
+      </c>
+      <c r="K29" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L29" t="n">
         <v>1</v>
       </c>
@@ -1447,10 +1469,14 @@
         <v>-172295.2792711343</v>
       </c>
       <c r="H30" t="n">
-        <v>0</v>
-      </c>
-      <c r="I30" t="inlineStr"/>
-      <c r="J30" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I30" t="n">
+        <v>11.3</v>
+      </c>
+      <c r="J30" t="n">
+        <v>11.3</v>
+      </c>
       <c r="K30" t="inlineStr"/>
       <c r="L30" t="n">
         <v>1</v>
@@ -1480,11 +1506,19 @@
         <v>-411242.9847711343</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
-      </c>
-      <c r="I31" t="inlineStr"/>
-      <c r="J31" t="inlineStr"/>
-      <c r="K31" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I31" t="n">
+        <v>11.4</v>
+      </c>
+      <c r="J31" t="n">
+        <v>11.3</v>
+      </c>
+      <c r="K31" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L31" t="n">
         <v>1</v>
       </c>
@@ -1513,11 +1547,19 @@
         <v>-411242.9847711343</v>
       </c>
       <c r="H32" t="n">
-        <v>0</v>
-      </c>
-      <c r="I32" t="inlineStr"/>
-      <c r="J32" t="inlineStr"/>
-      <c r="K32" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I32" t="n">
+        <v>11.3</v>
+      </c>
+      <c r="J32" t="n">
+        <v>11.3</v>
+      </c>
+      <c r="K32" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
       <c r="L32" t="n">
         <v>1</v>
       </c>
@@ -1554,7 +1596,11 @@
       <c r="J33" t="n">
         <v>11.3</v>
       </c>
-      <c r="K33" t="inlineStr"/>
+      <c r="K33" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L33" t="n">
         <v>1</v>
       </c>
@@ -1593,7 +1639,7 @@
       </c>
       <c r="K34" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L34" t="n">
@@ -1634,7 +1680,7 @@
       </c>
       <c r="K35" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L35" t="n">
@@ -1673,7 +1719,11 @@
       <c r="J36" t="n">
         <v>11.3</v>
       </c>
-      <c r="K36" t="inlineStr"/>
+      <c r="K36" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L36" t="n">
         <v>1</v>
       </c>
@@ -1712,7 +1762,7 @@
       </c>
       <c r="K37" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L37" t="n">
@@ -1753,7 +1803,7 @@
       </c>
       <c r="K38" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L38" t="n">
@@ -1784,11 +1834,19 @@
         <v>-386023.3803711343</v>
       </c>
       <c r="H39" t="n">
-        <v>0</v>
-      </c>
-      <c r="I39" t="inlineStr"/>
-      <c r="J39" t="inlineStr"/>
-      <c r="K39" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I39" t="n">
+        <v>11.4</v>
+      </c>
+      <c r="J39" t="n">
+        <v>11.3</v>
+      </c>
+      <c r="K39" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L39" t="n">
         <v>1</v>
       </c>
@@ -1817,11 +1875,19 @@
         <v>-386023.3803711343</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
-      </c>
-      <c r="I40" t="inlineStr"/>
-      <c r="J40" t="inlineStr"/>
-      <c r="K40" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I40" t="n">
+        <v>11.4</v>
+      </c>
+      <c r="J40" t="n">
+        <v>11.3</v>
+      </c>
+      <c r="K40" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L40" t="n">
         <v>1</v>
       </c>
@@ -1850,11 +1916,19 @@
         <v>-429773.6537711343</v>
       </c>
       <c r="H41" t="n">
-        <v>0</v>
-      </c>
-      <c r="I41" t="inlineStr"/>
-      <c r="J41" t="inlineStr"/>
-      <c r="K41" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I41" t="n">
+        <v>11.4</v>
+      </c>
+      <c r="J41" t="n">
+        <v>11.3</v>
+      </c>
+      <c r="K41" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L41" t="n">
         <v>1</v>
       </c>
@@ -1883,11 +1957,19 @@
         <v>-429773.6537711343</v>
       </c>
       <c r="H42" t="n">
-        <v>0</v>
-      </c>
-      <c r="I42" t="inlineStr"/>
-      <c r="J42" t="inlineStr"/>
-      <c r="K42" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I42" t="n">
+        <v>11.3</v>
+      </c>
+      <c r="J42" t="n">
+        <v>11.3</v>
+      </c>
+      <c r="K42" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L42" t="n">
         <v>1</v>
       </c>
@@ -1916,11 +1998,19 @@
         <v>-303882.4167711344</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
-      </c>
-      <c r="I43" t="inlineStr"/>
-      <c r="J43" t="inlineStr"/>
-      <c r="K43" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I43" t="n">
+        <v>11.3</v>
+      </c>
+      <c r="J43" t="n">
+        <v>11.3</v>
+      </c>
+      <c r="K43" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L43" t="n">
         <v>1</v>
       </c>
@@ -1949,11 +2039,19 @@
         <v>-304012.4167711344</v>
       </c>
       <c r="H44" t="n">
-        <v>0</v>
-      </c>
-      <c r="I44" t="inlineStr"/>
-      <c r="J44" t="inlineStr"/>
-      <c r="K44" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I44" t="n">
+        <v>11.4</v>
+      </c>
+      <c r="J44" t="n">
+        <v>11.3</v>
+      </c>
+      <c r="K44" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L44" t="n">
         <v>1</v>
       </c>
@@ -1982,11 +2080,19 @@
         <v>-303962.4167711344</v>
       </c>
       <c r="H45" t="n">
-        <v>0</v>
-      </c>
-      <c r="I45" t="inlineStr"/>
-      <c r="J45" t="inlineStr"/>
-      <c r="K45" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I45" t="n">
+        <v>11.3</v>
+      </c>
+      <c r="J45" t="n">
+        <v>11.3</v>
+      </c>
+      <c r="K45" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L45" t="n">
         <v>1</v>
       </c>
@@ -2015,11 +2121,19 @@
         <v>-303962.4167711344</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
-      </c>
-      <c r="I46" t="inlineStr"/>
-      <c r="J46" t="inlineStr"/>
-      <c r="K46" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I46" t="n">
+        <v>11.5</v>
+      </c>
+      <c r="J46" t="n">
+        <v>11.3</v>
+      </c>
+      <c r="K46" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L46" t="n">
         <v>1</v>
       </c>
@@ -2051,8 +2165,14 @@
         <v>0</v>
       </c>
       <c r="I47" t="inlineStr"/>
-      <c r="J47" t="inlineStr"/>
-      <c r="K47" t="inlineStr"/>
+      <c r="J47" t="n">
+        <v>11.3</v>
+      </c>
+      <c r="K47" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L47" t="n">
         <v>1</v>
       </c>
@@ -2084,8 +2204,14 @@
         <v>0</v>
       </c>
       <c r="I48" t="inlineStr"/>
-      <c r="J48" t="inlineStr"/>
-      <c r="K48" t="inlineStr"/>
+      <c r="J48" t="n">
+        <v>11.3</v>
+      </c>
+      <c r="K48" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L48" t="n">
         <v>1</v>
       </c>
@@ -2117,8 +2243,14 @@
         <v>0</v>
       </c>
       <c r="I49" t="inlineStr"/>
-      <c r="J49" t="inlineStr"/>
-      <c r="K49" t="inlineStr"/>
+      <c r="J49" t="n">
+        <v>11.3</v>
+      </c>
+      <c r="K49" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L49" t="n">
         <v>1</v>
       </c>
@@ -2150,8 +2282,14 @@
         <v>0</v>
       </c>
       <c r="I50" t="inlineStr"/>
-      <c r="J50" t="inlineStr"/>
-      <c r="K50" t="inlineStr"/>
+      <c r="J50" t="n">
+        <v>11.3</v>
+      </c>
+      <c r="K50" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L50" t="n">
         <v>1</v>
       </c>
@@ -2183,8 +2321,14 @@
         <v>0</v>
       </c>
       <c r="I51" t="inlineStr"/>
-      <c r="J51" t="inlineStr"/>
-      <c r="K51" t="inlineStr"/>
+      <c r="J51" t="n">
+        <v>11.3</v>
+      </c>
+      <c r="K51" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L51" t="n">
         <v>1</v>
       </c>
@@ -2216,8 +2360,14 @@
         <v>0</v>
       </c>
       <c r="I52" t="inlineStr"/>
-      <c r="J52" t="inlineStr"/>
-      <c r="K52" t="inlineStr"/>
+      <c r="J52" t="n">
+        <v>11.3</v>
+      </c>
+      <c r="K52" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L52" t="n">
         <v>1</v>
       </c>
@@ -2249,8 +2399,14 @@
         <v>0</v>
       </c>
       <c r="I53" t="inlineStr"/>
-      <c r="J53" t="inlineStr"/>
-      <c r="K53" t="inlineStr"/>
+      <c r="J53" t="n">
+        <v>11.3</v>
+      </c>
+      <c r="K53" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L53" t="n">
         <v>1</v>
       </c>
@@ -2282,8 +2438,14 @@
         <v>0</v>
       </c>
       <c r="I54" t="inlineStr"/>
-      <c r="J54" t="inlineStr"/>
-      <c r="K54" t="inlineStr"/>
+      <c r="J54" t="n">
+        <v>11.3</v>
+      </c>
+      <c r="K54" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L54" t="n">
         <v>1</v>
       </c>
@@ -2315,8 +2477,14 @@
         <v>0</v>
       </c>
       <c r="I55" t="inlineStr"/>
-      <c r="J55" t="inlineStr"/>
-      <c r="K55" t="inlineStr"/>
+      <c r="J55" t="n">
+        <v>11.3</v>
+      </c>
+      <c r="K55" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L55" t="n">
         <v>1</v>
       </c>
@@ -2345,11 +2513,19 @@
         <v>-155511.5393252753</v>
       </c>
       <c r="H56" t="n">
-        <v>0</v>
-      </c>
-      <c r="I56" t="inlineStr"/>
-      <c r="J56" t="inlineStr"/>
-      <c r="K56" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I56" t="n">
+        <v>11.5</v>
+      </c>
+      <c r="J56" t="n">
+        <v>11.3</v>
+      </c>
+      <c r="K56" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L56" t="n">
         <v>1</v>
       </c>
@@ -2378,11 +2554,19 @@
         <v>-155511.5393252753</v>
       </c>
       <c r="H57" t="n">
-        <v>0</v>
-      </c>
-      <c r="I57" t="inlineStr"/>
-      <c r="J57" t="inlineStr"/>
-      <c r="K57" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I57" t="n">
+        <v>11.5</v>
+      </c>
+      <c r="J57" t="n">
+        <v>11.3</v>
+      </c>
+      <c r="K57" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L57" t="n">
         <v>1</v>
       </c>
@@ -2411,11 +2595,19 @@
         <v>-155511.5393252753</v>
       </c>
       <c r="H58" t="n">
-        <v>0</v>
-      </c>
-      <c r="I58" t="inlineStr"/>
-      <c r="J58" t="inlineStr"/>
-      <c r="K58" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I58" t="n">
+        <v>11.5</v>
+      </c>
+      <c r="J58" t="n">
+        <v>11.3</v>
+      </c>
+      <c r="K58" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L58" t="n">
         <v>1</v>
       </c>
@@ -2444,11 +2636,19 @@
         <v>-163311.8413252753</v>
       </c>
       <c r="H59" t="n">
-        <v>0</v>
-      </c>
-      <c r="I59" t="inlineStr"/>
-      <c r="J59" t="inlineStr"/>
-      <c r="K59" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I59" t="n">
+        <v>11.5</v>
+      </c>
+      <c r="J59" t="n">
+        <v>11.3</v>
+      </c>
+      <c r="K59" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L59" t="n">
         <v>1</v>
       </c>
@@ -2477,11 +2677,19 @@
         <v>-138251.9970122318</v>
       </c>
       <c r="H60" t="n">
-        <v>0</v>
-      </c>
-      <c r="I60" t="inlineStr"/>
-      <c r="J60" t="inlineStr"/>
-      <c r="K60" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I60" t="n">
+        <v>11.4</v>
+      </c>
+      <c r="J60" t="n">
+        <v>11.3</v>
+      </c>
+      <c r="K60" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L60" t="n">
         <v>1</v>
       </c>
@@ -2510,11 +2718,19 @@
         <v>-138251.9970122318</v>
       </c>
       <c r="H61" t="n">
-        <v>0</v>
-      </c>
-      <c r="I61" t="inlineStr"/>
-      <c r="J61" t="inlineStr"/>
-      <c r="K61" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I61" t="n">
+        <v>11.5</v>
+      </c>
+      <c r="J61" t="n">
+        <v>11.3</v>
+      </c>
+      <c r="K61" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L61" t="n">
         <v>1</v>
       </c>
@@ -2543,11 +2759,19 @@
         <v>-141493.8720122318</v>
       </c>
       <c r="H62" t="n">
-        <v>0</v>
-      </c>
-      <c r="I62" t="inlineStr"/>
-      <c r="J62" t="inlineStr"/>
-      <c r="K62" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I62" t="n">
+        <v>11.5</v>
+      </c>
+      <c r="J62" t="n">
+        <v>11.3</v>
+      </c>
+      <c r="K62" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L62" t="n">
         <v>1</v>
       </c>
@@ -2576,11 +2800,19 @@
         <v>-141493.8720122318</v>
       </c>
       <c r="H63" t="n">
-        <v>0</v>
-      </c>
-      <c r="I63" t="inlineStr"/>
-      <c r="J63" t="inlineStr"/>
-      <c r="K63" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I63" t="n">
+        <v>11.4</v>
+      </c>
+      <c r="J63" t="n">
+        <v>11.3</v>
+      </c>
+      <c r="K63" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L63" t="n">
         <v>1</v>
       </c>
@@ -2609,11 +2841,19 @@
         <v>-141493.8720122318</v>
       </c>
       <c r="H64" t="n">
-        <v>0</v>
-      </c>
-      <c r="I64" t="inlineStr"/>
-      <c r="J64" t="inlineStr"/>
-      <c r="K64" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I64" t="n">
+        <v>11.4</v>
+      </c>
+      <c r="J64" t="n">
+        <v>11.3</v>
+      </c>
+      <c r="K64" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L64" t="n">
         <v>1</v>
       </c>
@@ -2642,11 +2882,19 @@
         <v>-131936.9865122318</v>
       </c>
       <c r="H65" t="n">
-        <v>0</v>
-      </c>
-      <c r="I65" t="inlineStr"/>
-      <c r="J65" t="inlineStr"/>
-      <c r="K65" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I65" t="n">
+        <v>11.4</v>
+      </c>
+      <c r="J65" t="n">
+        <v>11.3</v>
+      </c>
+      <c r="K65" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L65" t="n">
         <v>1</v>
       </c>
@@ -2675,11 +2923,19 @@
         <v>-131936.9865122318</v>
       </c>
       <c r="H66" t="n">
-        <v>0</v>
-      </c>
-      <c r="I66" t="inlineStr"/>
-      <c r="J66" t="inlineStr"/>
-      <c r="K66" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I66" t="n">
+        <v>11.5</v>
+      </c>
+      <c r="J66" t="n">
+        <v>11.3</v>
+      </c>
+      <c r="K66" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L66" t="n">
         <v>1</v>
       </c>
@@ -2708,11 +2964,19 @@
         <v>-121936.9865122318</v>
       </c>
       <c r="H67" t="n">
-        <v>0</v>
-      </c>
-      <c r="I67" t="inlineStr"/>
-      <c r="J67" t="inlineStr"/>
-      <c r="K67" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I67" t="n">
+        <v>11.5</v>
+      </c>
+      <c r="J67" t="n">
+        <v>11.3</v>
+      </c>
+      <c r="K67" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L67" t="n">
         <v>1</v>
       </c>
@@ -2741,11 +3005,19 @@
         <v>-124836.9865122318</v>
       </c>
       <c r="H68" t="n">
-        <v>0</v>
-      </c>
-      <c r="I68" t="inlineStr"/>
-      <c r="J68" t="inlineStr"/>
-      <c r="K68" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I68" t="n">
+        <v>11.6</v>
+      </c>
+      <c r="J68" t="n">
+        <v>11.3</v>
+      </c>
+      <c r="K68" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L68" t="n">
         <v>1</v>
       </c>
@@ -2774,11 +3046,19 @@
         <v>-124836.9865122318</v>
       </c>
       <c r="H69" t="n">
-        <v>0</v>
-      </c>
-      <c r="I69" t="inlineStr"/>
-      <c r="J69" t="inlineStr"/>
-      <c r="K69" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I69" t="n">
+        <v>11.5</v>
+      </c>
+      <c r="J69" t="n">
+        <v>11.3</v>
+      </c>
+      <c r="K69" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L69" t="n">
         <v>1</v>
       </c>
@@ -2807,11 +3087,19 @@
         <v>-103916.9865122318</v>
       </c>
       <c r="H70" t="n">
-        <v>0</v>
-      </c>
-      <c r="I70" t="inlineStr"/>
-      <c r="J70" t="inlineStr"/>
-      <c r="K70" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I70" t="n">
+        <v>11.5</v>
+      </c>
+      <c r="J70" t="n">
+        <v>11.3</v>
+      </c>
+      <c r="K70" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L70" t="n">
         <v>1</v>
       </c>
@@ -2843,8 +3131,14 @@
         <v>0</v>
       </c>
       <c r="I71" t="inlineStr"/>
-      <c r="J71" t="inlineStr"/>
-      <c r="K71" t="inlineStr"/>
+      <c r="J71" t="n">
+        <v>11.3</v>
+      </c>
+      <c r="K71" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L71" t="n">
         <v>1</v>
       </c>
@@ -2876,8 +3170,14 @@
         <v>0</v>
       </c>
       <c r="I72" t="inlineStr"/>
-      <c r="J72" t="inlineStr"/>
-      <c r="K72" t="inlineStr"/>
+      <c r="J72" t="n">
+        <v>11.3</v>
+      </c>
+      <c r="K72" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L72" t="n">
         <v>1</v>
       </c>
@@ -2906,11 +3206,19 @@
         <v>-96799.98651223176</v>
       </c>
       <c r="H73" t="n">
-        <v>0</v>
-      </c>
-      <c r="I73" t="inlineStr"/>
-      <c r="J73" t="inlineStr"/>
-      <c r="K73" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I73" t="n">
+        <v>11.5</v>
+      </c>
+      <c r="J73" t="n">
+        <v>11.3</v>
+      </c>
+      <c r="K73" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L73" t="n">
         <v>1</v>
       </c>
@@ -2942,8 +3250,14 @@
         <v>0</v>
       </c>
       <c r="I74" t="inlineStr"/>
-      <c r="J74" t="inlineStr"/>
-      <c r="K74" t="inlineStr"/>
+      <c r="J74" t="n">
+        <v>11.3</v>
+      </c>
+      <c r="K74" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L74" t="n">
         <v>1</v>
       </c>
@@ -2975,8 +3289,14 @@
         <v>0</v>
       </c>
       <c r="I75" t="inlineStr"/>
-      <c r="J75" t="inlineStr"/>
-      <c r="K75" t="inlineStr"/>
+      <c r="J75" t="n">
+        <v>11.3</v>
+      </c>
+      <c r="K75" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L75" t="n">
         <v>1</v>
       </c>
@@ -3008,8 +3328,14 @@
         <v>0</v>
       </c>
       <c r="I76" t="inlineStr"/>
-      <c r="J76" t="inlineStr"/>
-      <c r="K76" t="inlineStr"/>
+      <c r="J76" t="n">
+        <v>11.3</v>
+      </c>
+      <c r="K76" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L76" t="n">
         <v>1</v>
       </c>
@@ -3041,8 +3367,14 @@
         <v>0</v>
       </c>
       <c r="I77" t="inlineStr"/>
-      <c r="J77" t="inlineStr"/>
-      <c r="K77" t="inlineStr"/>
+      <c r="J77" t="n">
+        <v>11.3</v>
+      </c>
+      <c r="K77" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L77" t="n">
         <v>1</v>
       </c>
@@ -3071,11 +3403,17 @@
         <v>-57847.16591223176</v>
       </c>
       <c r="H78" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I78" t="inlineStr"/>
-      <c r="J78" t="inlineStr"/>
-      <c r="K78" t="inlineStr"/>
+      <c r="J78" t="n">
+        <v>11.3</v>
+      </c>
+      <c r="K78" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L78" t="n">
         <v>1</v>
       </c>
@@ -3104,11 +3442,17 @@
         <v>-57847.16591223176</v>
       </c>
       <c r="H79" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I79" t="inlineStr"/>
-      <c r="J79" t="inlineStr"/>
-      <c r="K79" t="inlineStr"/>
+      <c r="J79" t="n">
+        <v>11.3</v>
+      </c>
+      <c r="K79" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L79" t="n">
         <v>1</v>
       </c>
@@ -3137,11 +3481,17 @@
         <v>108755.3658877682</v>
       </c>
       <c r="H80" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I80" t="inlineStr"/>
-      <c r="J80" t="inlineStr"/>
-      <c r="K80" t="inlineStr"/>
+      <c r="J80" t="n">
+        <v>11.3</v>
+      </c>
+      <c r="K80" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L80" t="n">
         <v>1</v>
       </c>
@@ -3170,11 +3520,17 @@
         <v>-48404.22191223176</v>
       </c>
       <c r="H81" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I81" t="inlineStr"/>
-      <c r="J81" t="inlineStr"/>
-      <c r="K81" t="inlineStr"/>
+      <c r="J81" t="n">
+        <v>11.3</v>
+      </c>
+      <c r="K81" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L81" t="n">
         <v>1</v>
       </c>
@@ -3203,11 +3559,17 @@
         <v>-48404.22191223176</v>
       </c>
       <c r="H82" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I82" t="inlineStr"/>
-      <c r="J82" t="inlineStr"/>
-      <c r="K82" t="inlineStr"/>
+      <c r="J82" t="n">
+        <v>11.3</v>
+      </c>
+      <c r="K82" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L82" t="n">
         <v>1</v>
       </c>
@@ -3236,11 +3598,17 @@
         <v>-48404.22191223176</v>
       </c>
       <c r="H83" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I83" t="inlineStr"/>
-      <c r="J83" t="inlineStr"/>
-      <c r="K83" t="inlineStr"/>
+      <c r="J83" t="n">
+        <v>11.3</v>
+      </c>
+      <c r="K83" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L83" t="n">
         <v>1</v>
       </c>
@@ -3269,11 +3637,17 @@
         <v>-48404.22191223176</v>
       </c>
       <c r="H84" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I84" t="inlineStr"/>
-      <c r="J84" t="inlineStr"/>
-      <c r="K84" t="inlineStr"/>
+      <c r="J84" t="n">
+        <v>11.3</v>
+      </c>
+      <c r="K84" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L84" t="n">
         <v>1</v>
       </c>
@@ -3305,8 +3679,14 @@
         <v>0</v>
       </c>
       <c r="I85" t="inlineStr"/>
-      <c r="J85" t="inlineStr"/>
-      <c r="K85" t="inlineStr"/>
+      <c r="J85" t="n">
+        <v>11.3</v>
+      </c>
+      <c r="K85" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L85" t="n">
         <v>1</v>
       </c>
@@ -3338,8 +3718,14 @@
         <v>0</v>
       </c>
       <c r="I86" t="inlineStr"/>
-      <c r="J86" t="inlineStr"/>
-      <c r="K86" t="inlineStr"/>
+      <c r="J86" t="n">
+        <v>11.3</v>
+      </c>
+      <c r="K86" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L86" t="n">
         <v>1</v>
       </c>
@@ -3371,8 +3757,14 @@
         <v>0</v>
       </c>
       <c r="I87" t="inlineStr"/>
-      <c r="J87" t="inlineStr"/>
-      <c r="K87" t="inlineStr"/>
+      <c r="J87" t="n">
+        <v>11.3</v>
+      </c>
+      <c r="K87" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L87" t="n">
         <v>1</v>
       </c>
@@ -3401,11 +3793,17 @@
         <v>-75622.43641223175</v>
       </c>
       <c r="H88" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I88" t="inlineStr"/>
-      <c r="J88" t="inlineStr"/>
-      <c r="K88" t="inlineStr"/>
+      <c r="J88" t="n">
+        <v>11.3</v>
+      </c>
+      <c r="K88" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L88" t="n">
         <v>1</v>
       </c>
@@ -3434,11 +3832,17 @@
         <v>-94473.31741223176</v>
       </c>
       <c r="H89" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I89" t="inlineStr"/>
-      <c r="J89" t="inlineStr"/>
-      <c r="K89" t="inlineStr"/>
+      <c r="J89" t="n">
+        <v>11.3</v>
+      </c>
+      <c r="K89" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L89" t="n">
         <v>1</v>
       </c>
@@ -3470,8 +3874,14 @@
         <v>0</v>
       </c>
       <c r="I90" t="inlineStr"/>
-      <c r="J90" t="inlineStr"/>
-      <c r="K90" t="inlineStr"/>
+      <c r="J90" t="n">
+        <v>11.3</v>
+      </c>
+      <c r="K90" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L90" t="n">
         <v>1</v>
       </c>
@@ -3503,8 +3913,14 @@
         <v>0</v>
       </c>
       <c r="I91" t="inlineStr"/>
-      <c r="J91" t="inlineStr"/>
-      <c r="K91" t="inlineStr"/>
+      <c r="J91" t="n">
+        <v>11.3</v>
+      </c>
+      <c r="K91" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L91" t="n">
         <v>1</v>
       </c>
@@ -3536,8 +3952,14 @@
         <v>0</v>
       </c>
       <c r="I92" t="inlineStr"/>
-      <c r="J92" t="inlineStr"/>
-      <c r="K92" t="inlineStr"/>
+      <c r="J92" t="n">
+        <v>11.3</v>
+      </c>
+      <c r="K92" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L92" t="n">
         <v>1</v>
       </c>
@@ -3569,8 +3991,14 @@
         <v>0</v>
       </c>
       <c r="I93" t="inlineStr"/>
-      <c r="J93" t="inlineStr"/>
-      <c r="K93" t="inlineStr"/>
+      <c r="J93" t="n">
+        <v>11.3</v>
+      </c>
+      <c r="K93" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L93" t="n">
         <v>1</v>
       </c>
@@ -3602,8 +4030,14 @@
         <v>0</v>
       </c>
       <c r="I94" t="inlineStr"/>
-      <c r="J94" t="inlineStr"/>
-      <c r="K94" t="inlineStr"/>
+      <c r="J94" t="n">
+        <v>11.3</v>
+      </c>
+      <c r="K94" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L94" t="n">
         <v>1</v>
       </c>
@@ -3635,8 +4069,14 @@
         <v>0</v>
       </c>
       <c r="I95" t="inlineStr"/>
-      <c r="J95" t="inlineStr"/>
-      <c r="K95" t="inlineStr"/>
+      <c r="J95" t="n">
+        <v>11.3</v>
+      </c>
+      <c r="K95" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L95" t="n">
         <v>1</v>
       </c>
@@ -3668,8 +4108,14 @@
         <v>0</v>
       </c>
       <c r="I96" t="inlineStr"/>
-      <c r="J96" t="inlineStr"/>
-      <c r="K96" t="inlineStr"/>
+      <c r="J96" t="n">
+        <v>11.3</v>
+      </c>
+      <c r="K96" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L96" t="n">
         <v>1</v>
       </c>
@@ -3701,8 +4147,14 @@
         <v>0</v>
       </c>
       <c r="I97" t="inlineStr"/>
-      <c r="J97" t="inlineStr"/>
-      <c r="K97" t="inlineStr"/>
+      <c r="J97" t="n">
+        <v>11.3</v>
+      </c>
+      <c r="K97" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L97" t="n">
         <v>1</v>
       </c>
@@ -3734,8 +4186,14 @@
         <v>0</v>
       </c>
       <c r="I98" t="inlineStr"/>
-      <c r="J98" t="inlineStr"/>
-      <c r="K98" t="inlineStr"/>
+      <c r="J98" t="n">
+        <v>11.3</v>
+      </c>
+      <c r="K98" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L98" t="n">
         <v>1</v>
       </c>
@@ -3767,8 +4225,14 @@
         <v>0</v>
       </c>
       <c r="I99" t="inlineStr"/>
-      <c r="J99" t="inlineStr"/>
-      <c r="K99" t="inlineStr"/>
+      <c r="J99" t="n">
+        <v>11.3</v>
+      </c>
+      <c r="K99" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L99" t="n">
         <v>1</v>
       </c>
@@ -3797,11 +4261,17 @@
         <v>-8506.499512231763</v>
       </c>
       <c r="H100" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I100" t="inlineStr"/>
-      <c r="J100" t="inlineStr"/>
-      <c r="K100" t="inlineStr"/>
+      <c r="J100" t="n">
+        <v>11.3</v>
+      </c>
+      <c r="K100" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L100" t="n">
         <v>1</v>
       </c>
@@ -3830,11 +4300,17 @@
         <v>-8506.499512231763</v>
       </c>
       <c r="H101" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I101" t="inlineStr"/>
-      <c r="J101" t="inlineStr"/>
-      <c r="K101" t="inlineStr"/>
+      <c r="J101" t="n">
+        <v>11.3</v>
+      </c>
+      <c r="K101" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L101" t="n">
         <v>1</v>
       </c>
@@ -3863,11 +4339,17 @@
         <v>-8506.499512231763</v>
       </c>
       <c r="H102" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I102" t="inlineStr"/>
-      <c r="J102" t="inlineStr"/>
-      <c r="K102" t="inlineStr"/>
+      <c r="J102" t="n">
+        <v>11.3</v>
+      </c>
+      <c r="K102" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L102" t="n">
         <v>1</v>
       </c>
@@ -3896,11 +4378,17 @@
         <v>-8506.499512231763</v>
       </c>
       <c r="H103" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I103" t="inlineStr"/>
-      <c r="J103" t="inlineStr"/>
-      <c r="K103" t="inlineStr"/>
+      <c r="J103" t="n">
+        <v>11.3</v>
+      </c>
+      <c r="K103" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L103" t="n">
         <v>1</v>
       </c>
@@ -3929,11 +4417,17 @@
         <v>-8506.499512231763</v>
       </c>
       <c r="H104" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I104" t="inlineStr"/>
-      <c r="J104" t="inlineStr"/>
-      <c r="K104" t="inlineStr"/>
+      <c r="J104" t="n">
+        <v>11.3</v>
+      </c>
+      <c r="K104" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L104" t="n">
         <v>1</v>
       </c>
@@ -3962,11 +4456,17 @@
         <v>-8506.499512231763</v>
       </c>
       <c r="H105" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I105" t="inlineStr"/>
-      <c r="J105" t="inlineStr"/>
-      <c r="K105" t="inlineStr"/>
+      <c r="J105" t="n">
+        <v>11.3</v>
+      </c>
+      <c r="K105" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L105" t="n">
         <v>1</v>
       </c>
@@ -3998,8 +4498,14 @@
         <v>0</v>
       </c>
       <c r="I106" t="inlineStr"/>
-      <c r="J106" t="inlineStr"/>
-      <c r="K106" t="inlineStr"/>
+      <c r="J106" t="n">
+        <v>11.3</v>
+      </c>
+      <c r="K106" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L106" t="n">
         <v>1</v>
       </c>
@@ -4028,11 +4534,17 @@
         <v>-8506.499512231763</v>
       </c>
       <c r="H107" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I107" t="inlineStr"/>
-      <c r="J107" t="inlineStr"/>
-      <c r="K107" t="inlineStr"/>
+      <c r="J107" t="n">
+        <v>11.3</v>
+      </c>
+      <c r="K107" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L107" t="n">
         <v>1</v>
       </c>
@@ -4061,11 +4573,17 @@
         <v>-8506.499512231763</v>
       </c>
       <c r="H108" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I108" t="inlineStr"/>
-      <c r="J108" t="inlineStr"/>
-      <c r="K108" t="inlineStr"/>
+      <c r="J108" t="n">
+        <v>11.3</v>
+      </c>
+      <c r="K108" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L108" t="n">
         <v>1</v>
       </c>
@@ -4094,11 +4612,17 @@
         <v>-8506.499512231763</v>
       </c>
       <c r="H109" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I109" t="inlineStr"/>
-      <c r="J109" t="inlineStr"/>
-      <c r="K109" t="inlineStr"/>
+      <c r="J109" t="n">
+        <v>11.3</v>
+      </c>
+      <c r="K109" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L109" t="n">
         <v>1</v>
       </c>
@@ -4127,11 +4651,17 @@
         <v>-8506.499512231763</v>
       </c>
       <c r="H110" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I110" t="inlineStr"/>
-      <c r="J110" t="inlineStr"/>
-      <c r="K110" t="inlineStr"/>
+      <c r="J110" t="n">
+        <v>11.3</v>
+      </c>
+      <c r="K110" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L110" t="n">
         <v>1</v>
       </c>
@@ -4160,11 +4690,17 @@
         <v>-8506.499512231763</v>
       </c>
       <c r="H111" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I111" t="inlineStr"/>
-      <c r="J111" t="inlineStr"/>
-      <c r="K111" t="inlineStr"/>
+      <c r="J111" t="n">
+        <v>11.3</v>
+      </c>
+      <c r="K111" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L111" t="n">
         <v>1</v>
       </c>
@@ -4193,11 +4729,17 @@
         <v>-8506.499512231763</v>
       </c>
       <c r="H112" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I112" t="inlineStr"/>
-      <c r="J112" t="inlineStr"/>
-      <c r="K112" t="inlineStr"/>
+      <c r="J112" t="n">
+        <v>11.3</v>
+      </c>
+      <c r="K112" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L112" t="n">
         <v>1</v>
       </c>
@@ -4226,11 +4768,17 @@
         <v>-8506.499512231763</v>
       </c>
       <c r="H113" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I113" t="inlineStr"/>
-      <c r="J113" t="inlineStr"/>
-      <c r="K113" t="inlineStr"/>
+      <c r="J113" t="n">
+        <v>11.3</v>
+      </c>
+      <c r="K113" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L113" t="n">
         <v>1</v>
       </c>
@@ -4259,11 +4807,17 @@
         <v>-8506.499512231763</v>
       </c>
       <c r="H114" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I114" t="inlineStr"/>
-      <c r="J114" t="inlineStr"/>
-      <c r="K114" t="inlineStr"/>
+      <c r="J114" t="n">
+        <v>11.3</v>
+      </c>
+      <c r="K114" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L114" t="n">
         <v>1</v>
       </c>
@@ -4292,11 +4846,17 @@
         <v>-8506.499512231763</v>
       </c>
       <c r="H115" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I115" t="inlineStr"/>
-      <c r="J115" t="inlineStr"/>
-      <c r="K115" t="inlineStr"/>
+      <c r="J115" t="n">
+        <v>11.3</v>
+      </c>
+      <c r="K115" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L115" t="n">
         <v>1</v>
       </c>
@@ -4325,11 +4885,17 @@
         <v>-8506.499512231763</v>
       </c>
       <c r="H116" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I116" t="inlineStr"/>
-      <c r="J116" t="inlineStr"/>
-      <c r="K116" t="inlineStr"/>
+      <c r="J116" t="n">
+        <v>11.3</v>
+      </c>
+      <c r="K116" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L116" t="n">
         <v>1</v>
       </c>
@@ -4358,11 +4924,17 @@
         <v>-8506.499512231763</v>
       </c>
       <c r="H117" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I117" t="inlineStr"/>
-      <c r="J117" t="inlineStr"/>
-      <c r="K117" t="inlineStr"/>
+      <c r="J117" t="n">
+        <v>11.3</v>
+      </c>
+      <c r="K117" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L117" t="n">
         <v>1</v>
       </c>
@@ -4391,11 +4963,17 @@
         <v>-8506.499512231763</v>
       </c>
       <c r="H118" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I118" t="inlineStr"/>
-      <c r="J118" t="inlineStr"/>
-      <c r="K118" t="inlineStr"/>
+      <c r="J118" t="n">
+        <v>11.3</v>
+      </c>
+      <c r="K118" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L118" t="n">
         <v>1</v>
       </c>
@@ -4424,11 +5002,17 @@
         <v>-8506.499512231763</v>
       </c>
       <c r="H119" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I119" t="inlineStr"/>
-      <c r="J119" t="inlineStr"/>
-      <c r="K119" t="inlineStr"/>
+      <c r="J119" t="n">
+        <v>11.3</v>
+      </c>
+      <c r="K119" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L119" t="n">
         <v>1</v>
       </c>
@@ -4457,11 +5041,17 @@
         <v>5591453.112187768</v>
       </c>
       <c r="H120" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I120" t="inlineStr"/>
-      <c r="J120" t="inlineStr"/>
-      <c r="K120" t="inlineStr"/>
+      <c r="J120" t="n">
+        <v>11.3</v>
+      </c>
+      <c r="K120" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L120" t="n">
         <v>1</v>
       </c>
@@ -4490,11 +5080,17 @@
         <v>5591453.112187768</v>
       </c>
       <c r="H121" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I121" t="inlineStr"/>
-      <c r="J121" t="inlineStr"/>
-      <c r="K121" t="inlineStr"/>
+      <c r="J121" t="n">
+        <v>11.3</v>
+      </c>
+      <c r="K121" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L121" t="n">
         <v>1</v>
       </c>
@@ -4523,11 +5119,17 @@
         <v>5591453.112187768</v>
       </c>
       <c r="H122" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I122" t="inlineStr"/>
-      <c r="J122" t="inlineStr"/>
-      <c r="K122" t="inlineStr"/>
+      <c r="J122" t="n">
+        <v>11.3</v>
+      </c>
+      <c r="K122" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L122" t="n">
         <v>1</v>
       </c>
@@ -4556,11 +5158,17 @@
         <v>5591453.112187768</v>
       </c>
       <c r="H123" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I123" t="inlineStr"/>
-      <c r="J123" t="inlineStr"/>
-      <c r="K123" t="inlineStr"/>
+      <c r="J123" t="n">
+        <v>11.3</v>
+      </c>
+      <c r="K123" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L123" t="n">
         <v>1</v>
       </c>
@@ -4592,8 +5200,14 @@
         <v>0</v>
       </c>
       <c r="I124" t="inlineStr"/>
-      <c r="J124" t="inlineStr"/>
-      <c r="K124" t="inlineStr"/>
+      <c r="J124" t="n">
+        <v>11.3</v>
+      </c>
+      <c r="K124" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L124" t="n">
         <v>1</v>
       </c>
@@ -4622,11 +5236,17 @@
         <v>5591704.500487768</v>
       </c>
       <c r="H125" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I125" t="inlineStr"/>
-      <c r="J125" t="inlineStr"/>
-      <c r="K125" t="inlineStr"/>
+      <c r="J125" t="n">
+        <v>11.3</v>
+      </c>
+      <c r="K125" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L125" t="n">
         <v>1</v>
       </c>
@@ -4655,11 +5275,17 @@
         <v>5589970.523587768</v>
       </c>
       <c r="H126" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I126" t="inlineStr"/>
-      <c r="J126" t="inlineStr"/>
-      <c r="K126" t="inlineStr"/>
+      <c r="J126" t="n">
+        <v>11.3</v>
+      </c>
+      <c r="K126" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L126" t="n">
         <v>1</v>
       </c>
@@ -4688,11 +5314,17 @@
         <v>5531140.523587768</v>
       </c>
       <c r="H127" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I127" t="inlineStr"/>
-      <c r="J127" t="inlineStr"/>
-      <c r="K127" t="inlineStr"/>
+      <c r="J127" t="n">
+        <v>11.3</v>
+      </c>
+      <c r="K127" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L127" t="n">
         <v>1</v>
       </c>
@@ -4724,8 +5356,14 @@
         <v>0</v>
       </c>
       <c r="I128" t="inlineStr"/>
-      <c r="J128" t="inlineStr"/>
-      <c r="K128" t="inlineStr"/>
+      <c r="J128" t="n">
+        <v>11.3</v>
+      </c>
+      <c r="K128" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L128" t="n">
         <v>1</v>
       </c>
@@ -4757,8 +5395,14 @@
         <v>0</v>
       </c>
       <c r="I129" t="inlineStr"/>
-      <c r="J129" t="inlineStr"/>
-      <c r="K129" t="inlineStr"/>
+      <c r="J129" t="n">
+        <v>11.3</v>
+      </c>
+      <c r="K129" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L129" t="n">
         <v>1</v>
       </c>
@@ -4787,11 +5431,17 @@
         <v>5744753.290687768</v>
       </c>
       <c r="H130" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I130" t="inlineStr"/>
-      <c r="J130" t="inlineStr"/>
-      <c r="K130" t="inlineStr"/>
+      <c r="J130" t="n">
+        <v>11.3</v>
+      </c>
+      <c r="K130" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L130" t="n">
         <v>1</v>
       </c>
@@ -4820,11 +5470,17 @@
         <v>5899399.429436986</v>
       </c>
       <c r="H131" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I131" t="inlineStr"/>
-      <c r="J131" t="inlineStr"/>
-      <c r="K131" t="inlineStr"/>
+      <c r="J131" t="n">
+        <v>11.3</v>
+      </c>
+      <c r="K131" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L131" t="n">
         <v>1</v>
       </c>
@@ -4853,11 +5509,17 @@
         <v>5899399.429436986</v>
       </c>
       <c r="H132" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I132" t="inlineStr"/>
-      <c r="J132" t="inlineStr"/>
-      <c r="K132" t="inlineStr"/>
+      <c r="J132" t="n">
+        <v>11.3</v>
+      </c>
+      <c r="K132" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L132" t="n">
         <v>1</v>
       </c>
@@ -4889,8 +5551,14 @@
         <v>0</v>
       </c>
       <c r="I133" t="inlineStr"/>
-      <c r="J133" t="inlineStr"/>
-      <c r="K133" t="inlineStr"/>
+      <c r="J133" t="n">
+        <v>11.3</v>
+      </c>
+      <c r="K133" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L133" t="n">
         <v>1</v>
       </c>
@@ -4919,11 +5587,17 @@
         <v>5765375.388336986</v>
       </c>
       <c r="H134" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I134" t="inlineStr"/>
-      <c r="J134" t="inlineStr"/>
-      <c r="K134" t="inlineStr"/>
+      <c r="J134" t="n">
+        <v>11.3</v>
+      </c>
+      <c r="K134" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L134" t="n">
         <v>1</v>
       </c>
@@ -4952,11 +5626,17 @@
         <v>5765375.388336986</v>
       </c>
       <c r="H135" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I135" t="inlineStr"/>
-      <c r="J135" t="inlineStr"/>
-      <c r="K135" t="inlineStr"/>
+      <c r="J135" t="n">
+        <v>11.3</v>
+      </c>
+      <c r="K135" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L135" t="n">
         <v>1</v>
       </c>
@@ -4988,8 +5668,14 @@
         <v>0</v>
       </c>
       <c r="I136" t="inlineStr"/>
-      <c r="J136" t="inlineStr"/>
-      <c r="K136" t="inlineStr"/>
+      <c r="J136" t="n">
+        <v>11.3</v>
+      </c>
+      <c r="K136" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L136" t="n">
         <v>1</v>
       </c>
@@ -5021,8 +5707,14 @@
         <v>0</v>
       </c>
       <c r="I137" t="inlineStr"/>
-      <c r="J137" t="inlineStr"/>
-      <c r="K137" t="inlineStr"/>
+      <c r="J137" t="n">
+        <v>11.3</v>
+      </c>
+      <c r="K137" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L137" t="n">
         <v>1</v>
       </c>
@@ -5054,8 +5746,14 @@
         <v>0</v>
       </c>
       <c r="I138" t="inlineStr"/>
-      <c r="J138" t="inlineStr"/>
-      <c r="K138" t="inlineStr"/>
+      <c r="J138" t="n">
+        <v>11.3</v>
+      </c>
+      <c r="K138" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L138" t="n">
         <v>1</v>
       </c>
@@ -5087,8 +5785,14 @@
         <v>0</v>
       </c>
       <c r="I139" t="inlineStr"/>
-      <c r="J139" t="inlineStr"/>
-      <c r="K139" t="inlineStr"/>
+      <c r="J139" t="n">
+        <v>11.3</v>
+      </c>
+      <c r="K139" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L139" t="n">
         <v>1</v>
       </c>
@@ -5120,8 +5824,14 @@
         <v>0</v>
       </c>
       <c r="I140" t="inlineStr"/>
-      <c r="J140" t="inlineStr"/>
-      <c r="K140" t="inlineStr"/>
+      <c r="J140" t="n">
+        <v>11.3</v>
+      </c>
+      <c r="K140" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L140" t="n">
         <v>1</v>
       </c>
@@ -5153,8 +5863,14 @@
         <v>0</v>
       </c>
       <c r="I141" t="inlineStr"/>
-      <c r="J141" t="inlineStr"/>
-      <c r="K141" t="inlineStr"/>
+      <c r="J141" t="n">
+        <v>11.3</v>
+      </c>
+      <c r="K141" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L141" t="n">
         <v>1</v>
       </c>
@@ -5186,8 +5902,14 @@
         <v>0</v>
       </c>
       <c r="I142" t="inlineStr"/>
-      <c r="J142" t="inlineStr"/>
-      <c r="K142" t="inlineStr"/>
+      <c r="J142" t="n">
+        <v>11.3</v>
+      </c>
+      <c r="K142" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L142" t="n">
         <v>1</v>
       </c>
@@ -5219,8 +5941,14 @@
         <v>0</v>
       </c>
       <c r="I143" t="inlineStr"/>
-      <c r="J143" t="inlineStr"/>
-      <c r="K143" t="inlineStr"/>
+      <c r="J143" t="n">
+        <v>11.3</v>
+      </c>
+      <c r="K143" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L143" t="n">
         <v>1</v>
       </c>
@@ -5252,8 +5980,14 @@
         <v>0</v>
       </c>
       <c r="I144" t="inlineStr"/>
-      <c r="J144" t="inlineStr"/>
-      <c r="K144" t="inlineStr"/>
+      <c r="J144" t="n">
+        <v>11.3</v>
+      </c>
+      <c r="K144" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L144" t="n">
         <v>1</v>
       </c>
@@ -5285,8 +6019,14 @@
         <v>0</v>
       </c>
       <c r="I145" t="inlineStr"/>
-      <c r="J145" t="inlineStr"/>
-      <c r="K145" t="inlineStr"/>
+      <c r="J145" t="n">
+        <v>11.3</v>
+      </c>
+      <c r="K145" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L145" t="n">
         <v>1</v>
       </c>
@@ -5315,11 +6055,17 @@
         <v>5778250.278815499</v>
       </c>
       <c r="H146" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I146" t="inlineStr"/>
-      <c r="J146" t="inlineStr"/>
-      <c r="K146" t="inlineStr"/>
+      <c r="J146" t="n">
+        <v>11.3</v>
+      </c>
+      <c r="K146" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L146" t="n">
         <v>1</v>
       </c>
@@ -5348,11 +6094,17 @@
         <v>5780553.526415499</v>
       </c>
       <c r="H147" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I147" t="inlineStr"/>
-      <c r="J147" t="inlineStr"/>
-      <c r="K147" t="inlineStr"/>
+      <c r="J147" t="n">
+        <v>11.3</v>
+      </c>
+      <c r="K147" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L147" t="n">
         <v>1</v>
       </c>
@@ -5381,11 +6133,17 @@
         <v>5780553.526415499</v>
       </c>
       <c r="H148" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I148" t="inlineStr"/>
-      <c r="J148" t="inlineStr"/>
-      <c r="K148" t="inlineStr"/>
+      <c r="J148" t="n">
+        <v>11.3</v>
+      </c>
+      <c r="K148" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L148" t="n">
         <v>1</v>
       </c>
@@ -5417,8 +6175,14 @@
         <v>0</v>
       </c>
       <c r="I149" t="inlineStr"/>
-      <c r="J149" t="inlineStr"/>
-      <c r="K149" t="inlineStr"/>
+      <c r="J149" t="n">
+        <v>11.3</v>
+      </c>
+      <c r="K149" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L149" t="n">
         <v>1</v>
       </c>
@@ -5450,8 +6214,14 @@
         <v>0</v>
       </c>
       <c r="I150" t="inlineStr"/>
-      <c r="J150" t="inlineStr"/>
-      <c r="K150" t="inlineStr"/>
+      <c r="J150" t="n">
+        <v>11.3</v>
+      </c>
+      <c r="K150" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L150" t="n">
         <v>1</v>
       </c>
@@ -5483,8 +6253,14 @@
         <v>0</v>
       </c>
       <c r="I151" t="inlineStr"/>
-      <c r="J151" t="inlineStr"/>
-      <c r="K151" t="inlineStr"/>
+      <c r="J151" t="n">
+        <v>11.3</v>
+      </c>
+      <c r="K151" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L151" t="n">
         <v>1</v>
       </c>
@@ -5516,8 +6292,14 @@
         <v>0</v>
       </c>
       <c r="I152" t="inlineStr"/>
-      <c r="J152" t="inlineStr"/>
-      <c r="K152" t="inlineStr"/>
+      <c r="J152" t="n">
+        <v>11.3</v>
+      </c>
+      <c r="K152" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L152" t="n">
         <v>1</v>
       </c>
@@ -5549,12 +6331,20 @@
         <v>2</v>
       </c>
       <c r="I153" t="inlineStr"/>
-      <c r="J153" t="inlineStr"/>
-      <c r="K153" t="inlineStr"/>
+      <c r="J153" t="n">
+        <v>11.3</v>
+      </c>
+      <c r="K153" t="inlineStr">
+        <is>
+          <t>매도 체결</t>
+        </is>
+      </c>
       <c r="L153" t="n">
-        <v>1</v>
-      </c>
-      <c r="M153" t="inlineStr"/>
+        <v>1.065796460176991</v>
+      </c>
+      <c r="M153" t="n">
+        <v>1.017857142857143</v>
+      </c>
     </row>
     <row r="154">
       <c r="A154" s="1" t="n">
@@ -5579,7 +6369,7 @@
         <v>5553622.812902276</v>
       </c>
       <c r="H154" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I154" t="inlineStr"/>
       <c r="J154" t="inlineStr"/>
@@ -5612,7 +6402,7 @@
         <v>5490281.987002277</v>
       </c>
       <c r="H155" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I155" t="inlineStr"/>
       <c r="J155" t="inlineStr"/>
@@ -5711,7 +6501,7 @@
         <v>5460632.417502277</v>
       </c>
       <c r="H158" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I158" t="inlineStr"/>
       <c r="J158" t="inlineStr"/>
@@ -5777,7 +6567,7 @@
         <v>5468965.750902276</v>
       </c>
       <c r="H160" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I160" t="inlineStr"/>
       <c r="J160" t="inlineStr"/>
@@ -5975,7 +6765,7 @@
         <v>5192108.694502276</v>
       </c>
       <c r="H166" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I166" t="inlineStr"/>
       <c r="J166" t="inlineStr"/>
@@ -6008,7 +6798,7 @@
         <v>5192108.694502276</v>
       </c>
       <c r="H167" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I167" t="inlineStr"/>
       <c r="J167" t="inlineStr"/>
@@ -6041,7 +6831,7 @@
         <v>5192108.694502276</v>
       </c>
       <c r="H168" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I168" t="inlineStr"/>
       <c r="J168" t="inlineStr"/>
@@ -6074,7 +6864,7 @@
         <v>5192108.694502276</v>
       </c>
       <c r="H169" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I169" t="inlineStr"/>
       <c r="J169" t="inlineStr"/>
@@ -7724,7 +8514,7 @@
         <v>4962846.049717403</v>
       </c>
       <c r="H219" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I219" t="inlineStr"/>
       <c r="J219" t="inlineStr"/>
@@ -7757,7 +8547,7 @@
         <v>4839064.14733253</v>
       </c>
       <c r="H220" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I220" t="inlineStr"/>
       <c r="J220" t="inlineStr"/>
@@ -7889,7 +8679,7 @@
         <v>4860136.76563253</v>
       </c>
       <c r="H224" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I224" t="inlineStr"/>
       <c r="J224" t="inlineStr"/>
@@ -7922,7 +8712,7 @@
         <v>4860136.76563253</v>
       </c>
       <c r="H225" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I225" t="inlineStr"/>
       <c r="J225" t="inlineStr"/>
@@ -7955,7 +8745,7 @@
         <v>4860136.76563253</v>
       </c>
       <c r="H226" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I226" t="inlineStr"/>
       <c r="J226" t="inlineStr"/>
@@ -7988,7 +8778,7 @@
         <v>4684029.93643253</v>
       </c>
       <c r="H227" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I227" t="inlineStr"/>
       <c r="J227" t="inlineStr"/>
@@ -8021,7 +8811,7 @@
         <v>4727665.84253253</v>
       </c>
       <c r="H228" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I228" t="inlineStr"/>
       <c r="J228" t="inlineStr"/>
@@ -8087,7 +8877,7 @@
         <v>4718914.84253253</v>
       </c>
       <c r="H230" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I230" t="inlineStr"/>
       <c r="J230" t="inlineStr"/>
@@ -8120,7 +8910,7 @@
         <v>4718914.84253253</v>
       </c>
       <c r="H231" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I231" t="inlineStr"/>
       <c r="J231" t="inlineStr"/>
@@ -8153,7 +8943,7 @@
         <v>4718914.84253253</v>
       </c>
       <c r="H232" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I232" t="inlineStr"/>
       <c r="J232" t="inlineStr"/>
@@ -8186,7 +8976,7 @@
         <v>4677839.26803253</v>
       </c>
       <c r="H233" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I233" t="inlineStr"/>
       <c r="J233" t="inlineStr"/>
@@ -8219,7 +9009,7 @@
         <v>4677839.26803253</v>
       </c>
       <c r="H234" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I234" t="inlineStr"/>
       <c r="J234" t="inlineStr"/>

--- a/BackTest/2019-11-21 BackTest ORBS.xlsx
+++ b/BackTest/2019-11-21 BackTest ORBS.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M234"/>
+  <dimension ref="A1:L234"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -389,40 +389,35 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
-          <t>volume</t>
+          <t>OBV</t>
         </is>
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>OBV</t>
+          <t>trade_state</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
         <is>
-          <t>trade_state</t>
+          <t>BuyPrice</t>
         </is>
       </c>
       <c r="I1" s="1" t="inlineStr">
         <is>
-          <t>BuyPrice</t>
+          <t>bprelay</t>
         </is>
       </c>
       <c r="J1" s="1" t="inlineStr">
         <is>
-          <t>bprelay</t>
+          <t>Condition</t>
         </is>
       </c>
       <c r="K1" s="1" t="inlineStr">
         <is>
-          <t>Condition</t>
+          <t>Profits</t>
         </is>
       </c>
       <c r="L1" s="1" t="inlineStr">
-        <is>
-          <t>Profits</t>
-        </is>
-      </c>
-      <c r="M1" s="1" t="inlineStr">
         <is>
           <t>Price_point</t>
         </is>
@@ -448,18 +443,15 @@
         <v>8326.356900000001</v>
       </c>
       <c r="G2" t="n">
-        <v>572186.3044288657</v>
-      </c>
-      <c r="H2" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H2" t="inlineStr"/>
       <c r="I2" t="inlineStr"/>
       <c r="J2" t="inlineStr"/>
-      <c r="K2" t="inlineStr"/>
-      <c r="L2" t="n">
-        <v>1</v>
-      </c>
-      <c r="M2" t="inlineStr"/>
+      <c r="K2" t="n">
+        <v>1</v>
+      </c>
+      <c r="L2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
@@ -481,18 +473,15 @@
         <v>499999</v>
       </c>
       <c r="G3" t="n">
-        <v>72187.30442886567</v>
-      </c>
-      <c r="H3" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H3" t="inlineStr"/>
       <c r="I3" t="inlineStr"/>
       <c r="J3" t="inlineStr"/>
-      <c r="K3" t="inlineStr"/>
-      <c r="L3" t="n">
-        <v>1</v>
-      </c>
-      <c r="M3" t="inlineStr"/>
+      <c r="K3" t="n">
+        <v>1</v>
+      </c>
+      <c r="L3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
@@ -514,18 +503,15 @@
         <v>42778.0987</v>
       </c>
       <c r="G4" t="n">
-        <v>72187.30442886567</v>
-      </c>
-      <c r="H4" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H4" t="inlineStr"/>
       <c r="I4" t="inlineStr"/>
       <c r="J4" t="inlineStr"/>
-      <c r="K4" t="inlineStr"/>
-      <c r="L4" t="n">
-        <v>1</v>
-      </c>
-      <c r="M4" t="inlineStr"/>
+      <c r="K4" t="n">
+        <v>1</v>
+      </c>
+      <c r="L4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
@@ -547,18 +533,15 @@
         <v>5597</v>
       </c>
       <c r="G5" t="n">
-        <v>77784.30442886567</v>
-      </c>
-      <c r="H5" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H5" t="inlineStr"/>
       <c r="I5" t="inlineStr"/>
       <c r="J5" t="inlineStr"/>
-      <c r="K5" t="inlineStr"/>
-      <c r="L5" t="n">
-        <v>1</v>
-      </c>
-      <c r="M5" t="inlineStr"/>
+      <c r="K5" t="n">
+        <v>1</v>
+      </c>
+      <c r="L5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
@@ -580,18 +563,15 @@
         <v>56537.4222</v>
       </c>
       <c r="G6" t="n">
-        <v>21246.88222886567</v>
-      </c>
-      <c r="H6" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H6" t="inlineStr"/>
       <c r="I6" t="inlineStr"/>
       <c r="J6" t="inlineStr"/>
-      <c r="K6" t="inlineStr"/>
-      <c r="L6" t="n">
-        <v>1</v>
-      </c>
-      <c r="M6" t="inlineStr"/>
+      <c r="K6" t="n">
+        <v>1</v>
+      </c>
+      <c r="L6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
@@ -613,18 +593,15 @@
         <v>24582.6844</v>
       </c>
       <c r="G7" t="n">
-        <v>45829.56662886566</v>
-      </c>
-      <c r="H7" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H7" t="inlineStr"/>
       <c r="I7" t="inlineStr"/>
       <c r="J7" t="inlineStr"/>
-      <c r="K7" t="inlineStr"/>
-      <c r="L7" t="n">
-        <v>1</v>
-      </c>
-      <c r="M7" t="inlineStr"/>
+      <c r="K7" t="n">
+        <v>1</v>
+      </c>
+      <c r="L7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
@@ -646,18 +623,15 @@
         <v>807.4595</v>
       </c>
       <c r="G8" t="n">
-        <v>45829.56662886566</v>
-      </c>
-      <c r="H8" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H8" t="inlineStr"/>
       <c r="I8" t="inlineStr"/>
       <c r="J8" t="inlineStr"/>
-      <c r="K8" t="inlineStr"/>
-      <c r="L8" t="n">
-        <v>1</v>
-      </c>
-      <c r="M8" t="inlineStr"/>
+      <c r="K8" t="n">
+        <v>1</v>
+      </c>
+      <c r="L8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
@@ -679,18 +653,15 @@
         <v>32645</v>
       </c>
       <c r="G9" t="n">
-        <v>13184.56662886566</v>
-      </c>
-      <c r="H9" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H9" t="inlineStr"/>
       <c r="I9" t="inlineStr"/>
       <c r="J9" t="inlineStr"/>
-      <c r="K9" t="inlineStr"/>
-      <c r="L9" t="n">
-        <v>1</v>
-      </c>
-      <c r="M9" t="inlineStr"/>
+      <c r="K9" t="n">
+        <v>1</v>
+      </c>
+      <c r="L9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
@@ -712,18 +683,15 @@
         <v>8073</v>
       </c>
       <c r="G10" t="n">
-        <v>13184.56662886566</v>
-      </c>
-      <c r="H10" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H10" t="inlineStr"/>
       <c r="I10" t="inlineStr"/>
       <c r="J10" t="inlineStr"/>
-      <c r="K10" t="inlineStr"/>
-      <c r="L10" t="n">
-        <v>1</v>
-      </c>
-      <c r="M10" t="inlineStr"/>
+      <c r="K10" t="n">
+        <v>1</v>
+      </c>
+      <c r="L10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n">
@@ -745,18 +713,15 @@
         <v>24305.407</v>
       </c>
       <c r="G11" t="n">
-        <v>13184.56662886566</v>
-      </c>
-      <c r="H11" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H11" t="inlineStr"/>
       <c r="I11" t="inlineStr"/>
       <c r="J11" t="inlineStr"/>
-      <c r="K11" t="inlineStr"/>
-      <c r="L11" t="n">
-        <v>1</v>
-      </c>
-      <c r="M11" t="inlineStr"/>
+      <c r="K11" t="n">
+        <v>1</v>
+      </c>
+      <c r="L11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" s="1" t="n">
@@ -778,22 +743,15 @@
         <v>1375.5024</v>
       </c>
       <c r="G12" t="n">
-        <v>14560.06902886566</v>
-      </c>
-      <c r="H12" t="n">
-        <v>1</v>
-      </c>
-      <c r="I12" t="n">
-        <v>11.3</v>
-      </c>
-      <c r="J12" t="n">
-        <v>11.3</v>
-      </c>
-      <c r="K12" t="inlineStr"/>
-      <c r="L12" t="n">
-        <v>1</v>
-      </c>
-      <c r="M12" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H12" t="inlineStr"/>
+      <c r="I12" t="inlineStr"/>
+      <c r="J12" t="inlineStr"/>
+      <c r="K12" t="n">
+        <v>1</v>
+      </c>
+      <c r="L12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" s="1" t="n">
@@ -815,24 +773,15 @@
         <v>2679.1378</v>
       </c>
       <c r="G13" t="n">
-        <v>14560.06902886566</v>
-      </c>
-      <c r="H13" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H13" t="inlineStr"/>
       <c r="I13" t="inlineStr"/>
-      <c r="J13" t="n">
-        <v>11.3</v>
-      </c>
-      <c r="K13" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
-      <c r="L13" t="n">
-        <v>1</v>
-      </c>
-      <c r="M13" t="inlineStr"/>
+      <c r="J13" t="inlineStr"/>
+      <c r="K13" t="n">
+        <v>1</v>
+      </c>
+      <c r="L13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" s="1" t="n">
@@ -854,24 +803,15 @@
         <v>107298.5777</v>
       </c>
       <c r="G14" t="n">
-        <v>-92738.50867113433</v>
-      </c>
-      <c r="H14" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H14" t="inlineStr"/>
       <c r="I14" t="inlineStr"/>
-      <c r="J14" t="n">
-        <v>11.3</v>
-      </c>
-      <c r="K14" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
-      <c r="L14" t="n">
-        <v>1</v>
-      </c>
-      <c r="M14" t="inlineStr"/>
+      <c r="J14" t="inlineStr"/>
+      <c r="K14" t="n">
+        <v>1</v>
+      </c>
+      <c r="L14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n">
@@ -893,22 +833,15 @@
         <v>48631.578</v>
       </c>
       <c r="G15" t="n">
-        <v>-92738.50867113433</v>
-      </c>
-      <c r="H15" t="n">
-        <v>1</v>
-      </c>
-      <c r="I15" t="n">
-        <v>11.3</v>
-      </c>
-      <c r="J15" t="n">
-        <v>11.3</v>
-      </c>
-      <c r="K15" t="inlineStr"/>
-      <c r="L15" t="n">
-        <v>1</v>
-      </c>
-      <c r="M15" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H15" t="inlineStr"/>
+      <c r="I15" t="inlineStr"/>
+      <c r="J15" t="inlineStr"/>
+      <c r="K15" t="n">
+        <v>1</v>
+      </c>
+      <c r="L15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" s="1" t="n">
@@ -930,26 +863,15 @@
         <v>2500</v>
       </c>
       <c r="G16" t="n">
-        <v>-90238.50867113433</v>
-      </c>
-      <c r="H16" t="n">
-        <v>1</v>
-      </c>
-      <c r="I16" t="n">
-        <v>11.3</v>
-      </c>
-      <c r="J16" t="n">
-        <v>11.3</v>
-      </c>
-      <c r="K16" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
-      <c r="L16" t="n">
-        <v>1</v>
-      </c>
-      <c r="M16" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H16" t="inlineStr"/>
+      <c r="I16" t="inlineStr"/>
+      <c r="J16" t="inlineStr"/>
+      <c r="K16" t="n">
+        <v>1</v>
+      </c>
+      <c r="L16" t="inlineStr"/>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n">
@@ -971,24 +893,15 @@
         <v>17299.9168</v>
       </c>
       <c r="G17" t="n">
-        <v>-90238.50867113433</v>
-      </c>
-      <c r="H17" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H17" t="inlineStr"/>
       <c r="I17" t="inlineStr"/>
-      <c r="J17" t="n">
-        <v>11.3</v>
-      </c>
-      <c r="K17" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
-      <c r="L17" t="n">
-        <v>1</v>
-      </c>
-      <c r="M17" t="inlineStr"/>
+      <c r="J17" t="inlineStr"/>
+      <c r="K17" t="n">
+        <v>1</v>
+      </c>
+      <c r="L17" t="inlineStr"/>
     </row>
     <row r="18">
       <c r="A18" s="1" t="n">
@@ -1010,18 +923,15 @@
         <v>27039</v>
       </c>
       <c r="G18" t="n">
-        <v>-117277.5086711343</v>
-      </c>
-      <c r="H18" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H18" t="inlineStr"/>
       <c r="I18" t="inlineStr"/>
       <c r="J18" t="inlineStr"/>
-      <c r="K18" t="inlineStr"/>
-      <c r="L18" t="n">
-        <v>1</v>
-      </c>
-      <c r="M18" t="inlineStr"/>
+      <c r="K18" t="n">
+        <v>1</v>
+      </c>
+      <c r="L18" t="inlineStr"/>
     </row>
     <row r="19">
       <c r="A19" s="1" t="n">
@@ -1043,18 +953,15 @@
         <v>15228.602</v>
       </c>
       <c r="G19" t="n">
-        <v>-117277.5086711343</v>
-      </c>
-      <c r="H19" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H19" t="inlineStr"/>
       <c r="I19" t="inlineStr"/>
       <c r="J19" t="inlineStr"/>
-      <c r="K19" t="inlineStr"/>
-      <c r="L19" t="n">
-        <v>1</v>
-      </c>
-      <c r="M19" t="inlineStr"/>
+      <c r="K19" t="n">
+        <v>1</v>
+      </c>
+      <c r="L19" t="inlineStr"/>
     </row>
     <row r="20">
       <c r="A20" s="1" t="n">
@@ -1076,18 +983,15 @@
         <v>1234.472</v>
       </c>
       <c r="G20" t="n">
-        <v>-117277.5086711343</v>
-      </c>
-      <c r="H20" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H20" t="inlineStr"/>
       <c r="I20" t="inlineStr"/>
       <c r="J20" t="inlineStr"/>
-      <c r="K20" t="inlineStr"/>
-      <c r="L20" t="n">
-        <v>1</v>
-      </c>
-      <c r="M20" t="inlineStr"/>
+      <c r="K20" t="n">
+        <v>1</v>
+      </c>
+      <c r="L20" t="inlineStr"/>
     </row>
     <row r="21">
       <c r="A21" s="1" t="n">
@@ -1109,22 +1013,15 @@
         <v>2107.8893</v>
       </c>
       <c r="G21" t="n">
-        <v>-117277.5086711343</v>
-      </c>
-      <c r="H21" t="n">
-        <v>1</v>
-      </c>
-      <c r="I21" t="n">
-        <v>11.3</v>
-      </c>
-      <c r="J21" t="n">
-        <v>11.3</v>
-      </c>
-      <c r="K21" t="inlineStr"/>
-      <c r="L21" t="n">
-        <v>1</v>
-      </c>
-      <c r="M21" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H21" t="inlineStr"/>
+      <c r="I21" t="inlineStr"/>
+      <c r="J21" t="inlineStr"/>
+      <c r="K21" t="n">
+        <v>1</v>
+      </c>
+      <c r="L21" t="inlineStr"/>
     </row>
     <row r="22">
       <c r="A22" s="1" t="n">
@@ -1146,26 +1043,15 @@
         <v>897.278</v>
       </c>
       <c r="G22" t="n">
-        <v>-117277.5086711343</v>
-      </c>
-      <c r="H22" t="n">
-        <v>1</v>
-      </c>
-      <c r="I22" t="n">
-        <v>11.3</v>
-      </c>
-      <c r="J22" t="n">
-        <v>11.3</v>
-      </c>
-      <c r="K22" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
-      <c r="L22" t="n">
-        <v>1</v>
-      </c>
-      <c r="M22" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H22" t="inlineStr"/>
+      <c r="I22" t="inlineStr"/>
+      <c r="J22" t="inlineStr"/>
+      <c r="K22" t="n">
+        <v>1</v>
+      </c>
+      <c r="L22" t="inlineStr"/>
     </row>
     <row r="23">
       <c r="A23" s="1" t="n">
@@ -1187,26 +1073,15 @@
         <v>25806.7562</v>
       </c>
       <c r="G23" t="n">
-        <v>-117277.5086711343</v>
-      </c>
-      <c r="H23" t="n">
-        <v>1</v>
-      </c>
-      <c r="I23" t="n">
-        <v>11.3</v>
-      </c>
-      <c r="J23" t="n">
-        <v>11.3</v>
-      </c>
-      <c r="K23" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
-      <c r="L23" t="n">
-        <v>1</v>
-      </c>
-      <c r="M23" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H23" t="inlineStr"/>
+      <c r="I23" t="inlineStr"/>
+      <c r="J23" t="inlineStr"/>
+      <c r="K23" t="n">
+        <v>1</v>
+      </c>
+      <c r="L23" t="inlineStr"/>
     </row>
     <row r="24">
       <c r="A24" s="1" t="n">
@@ -1228,22 +1103,15 @@
         <v>725.3665</v>
       </c>
       <c r="G24" t="n">
-        <v>-117277.5086711343</v>
-      </c>
-      <c r="H24" t="n">
-        <v>1</v>
-      </c>
-      <c r="I24" t="n">
-        <v>11.3</v>
-      </c>
-      <c r="J24" t="n">
-        <v>11.3</v>
-      </c>
-      <c r="K24" t="inlineStr"/>
-      <c r="L24" t="n">
-        <v>1</v>
-      </c>
-      <c r="M24" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H24" t="inlineStr"/>
+      <c r="I24" t="inlineStr"/>
+      <c r="J24" t="inlineStr"/>
+      <c r="K24" t="n">
+        <v>1</v>
+      </c>
+      <c r="L24" t="inlineStr"/>
     </row>
     <row r="25">
       <c r="A25" s="1" t="n">
@@ -1265,26 +1133,15 @@
         <v>2673.2721</v>
       </c>
       <c r="G25" t="n">
-        <v>-117277.5086711343</v>
-      </c>
-      <c r="H25" t="n">
-        <v>1</v>
-      </c>
-      <c r="I25" t="n">
-        <v>11.3</v>
-      </c>
-      <c r="J25" t="n">
-        <v>11.3</v>
-      </c>
-      <c r="K25" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
-      <c r="L25" t="n">
-        <v>1</v>
-      </c>
-      <c r="M25" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H25" t="inlineStr"/>
+      <c r="I25" t="inlineStr"/>
+      <c r="J25" t="inlineStr"/>
+      <c r="K25" t="n">
+        <v>1</v>
+      </c>
+      <c r="L25" t="inlineStr"/>
     </row>
     <row r="26">
       <c r="A26" s="1" t="n">
@@ -1306,26 +1163,15 @@
         <v>5266</v>
       </c>
       <c r="G26" t="n">
-        <v>-117277.5086711343</v>
-      </c>
-      <c r="H26" t="n">
-        <v>1</v>
-      </c>
-      <c r="I26" t="n">
-        <v>11.3</v>
-      </c>
-      <c r="J26" t="n">
-        <v>11.3</v>
-      </c>
-      <c r="K26" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
-      <c r="L26" t="n">
-        <v>1</v>
-      </c>
-      <c r="M26" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H26" t="inlineStr"/>
+      <c r="I26" t="inlineStr"/>
+      <c r="J26" t="inlineStr"/>
+      <c r="K26" t="n">
+        <v>1</v>
+      </c>
+      <c r="L26" t="inlineStr"/>
     </row>
     <row r="27">
       <c r="A27" s="1" t="n">
@@ -1347,22 +1193,15 @@
         <v>27211.7556</v>
       </c>
       <c r="G27" t="n">
-        <v>-90065.75307113433</v>
-      </c>
-      <c r="H27" t="n">
-        <v>1</v>
-      </c>
-      <c r="I27" t="n">
-        <v>11.3</v>
-      </c>
-      <c r="J27" t="n">
-        <v>11.3</v>
-      </c>
-      <c r="K27" t="inlineStr"/>
-      <c r="L27" t="n">
-        <v>1</v>
-      </c>
-      <c r="M27" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H27" t="inlineStr"/>
+      <c r="I27" t="inlineStr"/>
+      <c r="J27" t="inlineStr"/>
+      <c r="K27" t="n">
+        <v>1</v>
+      </c>
+      <c r="L27" t="inlineStr"/>
     </row>
     <row r="28">
       <c r="A28" s="1" t="n">
@@ -1384,26 +1223,15 @@
         <v>83125.51949999999</v>
       </c>
       <c r="G28" t="n">
-        <v>-173191.2725711343</v>
-      </c>
-      <c r="H28" t="n">
-        <v>1</v>
-      </c>
-      <c r="I28" t="n">
-        <v>11.4</v>
-      </c>
-      <c r="J28" t="n">
-        <v>11.3</v>
-      </c>
-      <c r="K28" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
-      <c r="L28" t="n">
-        <v>1</v>
-      </c>
-      <c r="M28" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H28" t="inlineStr"/>
+      <c r="I28" t="inlineStr"/>
+      <c r="J28" t="inlineStr"/>
+      <c r="K28" t="n">
+        <v>1</v>
+      </c>
+      <c r="L28" t="inlineStr"/>
     </row>
     <row r="29">
       <c r="A29" s="1" t="n">
@@ -1425,26 +1253,15 @@
         <v>23087</v>
       </c>
       <c r="G29" t="n">
-        <v>-173191.2725711343</v>
-      </c>
-      <c r="H29" t="n">
-        <v>1</v>
-      </c>
-      <c r="I29" t="n">
-        <v>11.3</v>
-      </c>
-      <c r="J29" t="n">
-        <v>11.3</v>
-      </c>
-      <c r="K29" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
-      <c r="L29" t="n">
-        <v>1</v>
-      </c>
-      <c r="M29" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H29" t="inlineStr"/>
+      <c r="I29" t="inlineStr"/>
+      <c r="J29" t="inlineStr"/>
+      <c r="K29" t="n">
+        <v>1</v>
+      </c>
+      <c r="L29" t="inlineStr"/>
     </row>
     <row r="30">
       <c r="A30" s="1" t="n">
@@ -1466,22 +1283,15 @@
         <v>895.9933</v>
       </c>
       <c r="G30" t="n">
-        <v>-172295.2792711343</v>
-      </c>
-      <c r="H30" t="n">
-        <v>1</v>
-      </c>
-      <c r="I30" t="n">
-        <v>11.3</v>
-      </c>
-      <c r="J30" t="n">
-        <v>11.3</v>
-      </c>
-      <c r="K30" t="inlineStr"/>
-      <c r="L30" t="n">
-        <v>1</v>
-      </c>
-      <c r="M30" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H30" t="inlineStr"/>
+      <c r="I30" t="inlineStr"/>
+      <c r="J30" t="inlineStr"/>
+      <c r="K30" t="n">
+        <v>1</v>
+      </c>
+      <c r="L30" t="inlineStr"/>
     </row>
     <row r="31">
       <c r="A31" s="1" t="n">
@@ -1503,26 +1313,15 @@
         <v>238947.7055</v>
       </c>
       <c r="G31" t="n">
-        <v>-411242.9847711343</v>
-      </c>
-      <c r="H31" t="n">
-        <v>1</v>
-      </c>
-      <c r="I31" t="n">
-        <v>11.4</v>
-      </c>
-      <c r="J31" t="n">
-        <v>11.3</v>
-      </c>
-      <c r="K31" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
-      <c r="L31" t="n">
-        <v>1</v>
-      </c>
-      <c r="M31" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H31" t="inlineStr"/>
+      <c r="I31" t="inlineStr"/>
+      <c r="J31" t="inlineStr"/>
+      <c r="K31" t="n">
+        <v>1</v>
+      </c>
+      <c r="L31" t="inlineStr"/>
     </row>
     <row r="32">
       <c r="A32" s="1" t="n">
@@ -1544,26 +1343,21 @@
         <v>225.0001</v>
       </c>
       <c r="G32" t="n">
-        <v>-411242.9847711343</v>
+        <v>1</v>
       </c>
       <c r="H32" t="n">
-        <v>1</v>
-      </c>
-      <c r="I32" t="n">
-        <v>11.3</v>
-      </c>
-      <c r="J32" t="n">
-        <v>11.3</v>
-      </c>
-      <c r="K32" t="inlineStr">
+        <v>11.3</v>
+      </c>
+      <c r="I32" t="inlineStr"/>
+      <c r="J32" t="inlineStr">
         <is>
           <t>매수 체결</t>
         </is>
       </c>
-      <c r="L32" t="n">
-        <v>1</v>
-      </c>
-      <c r="M32" t="inlineStr"/>
+      <c r="K32" t="n">
+        <v>1</v>
+      </c>
+      <c r="L32" t="inlineStr"/>
     </row>
     <row r="33">
       <c r="A33" s="1" t="n">
@@ -1585,26 +1379,19 @@
         <v>224.9999</v>
       </c>
       <c r="G33" t="n">
-        <v>-411242.9847711343</v>
-      </c>
-      <c r="H33" t="n">
-        <v>1</v>
-      </c>
-      <c r="I33" t="n">
-        <v>11.3</v>
-      </c>
-      <c r="J33" t="n">
-        <v>11.3</v>
-      </c>
-      <c r="K33" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L33" t="n">
-        <v>1</v>
-      </c>
-      <c r="M33" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H33" t="inlineStr"/>
+      <c r="I33" t="inlineStr"/>
+      <c r="J33" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K33" t="n">
+        <v>1</v>
+      </c>
+      <c r="L33" t="inlineStr"/>
     </row>
     <row r="34">
       <c r="A34" s="1" t="n">
@@ -1626,26 +1413,19 @@
         <v>1196.5449</v>
       </c>
       <c r="G34" t="n">
-        <v>-411242.9847711343</v>
-      </c>
-      <c r="H34" t="n">
-        <v>1</v>
-      </c>
-      <c r="I34" t="n">
-        <v>11.3</v>
-      </c>
-      <c r="J34" t="n">
-        <v>11.3</v>
-      </c>
-      <c r="K34" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L34" t="n">
-        <v>1</v>
-      </c>
-      <c r="M34" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H34" t="inlineStr"/>
+      <c r="I34" t="inlineStr"/>
+      <c r="J34" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K34" t="n">
+        <v>1</v>
+      </c>
+      <c r="L34" t="inlineStr"/>
     </row>
     <row r="35">
       <c r="A35" s="1" t="n">
@@ -1667,26 +1447,21 @@
         <v>15336.6987</v>
       </c>
       <c r="G35" t="n">
-        <v>-411242.9847711343</v>
+        <v>1</v>
       </c>
       <c r="H35" t="n">
-        <v>1</v>
-      </c>
-      <c r="I35" t="n">
-        <v>11.3</v>
-      </c>
-      <c r="J35" t="n">
-        <v>11.3</v>
-      </c>
-      <c r="K35" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L35" t="n">
-        <v>1</v>
-      </c>
-      <c r="M35" t="inlineStr"/>
+        <v>11.3</v>
+      </c>
+      <c r="I35" t="inlineStr"/>
+      <c r="J35" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K35" t="n">
+        <v>1</v>
+      </c>
+      <c r="L35" t="inlineStr"/>
     </row>
     <row r="36">
       <c r="A36" s="1" t="n">
@@ -1708,26 +1483,21 @@
         <v>69635.2056</v>
       </c>
       <c r="G36" t="n">
-        <v>-411242.9847711343</v>
+        <v>1</v>
       </c>
       <c r="H36" t="n">
-        <v>1</v>
-      </c>
-      <c r="I36" t="n">
-        <v>11.3</v>
-      </c>
-      <c r="J36" t="n">
-        <v>11.3</v>
-      </c>
-      <c r="K36" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L36" t="n">
-        <v>1</v>
-      </c>
-      <c r="M36" t="inlineStr"/>
+        <v>11.3</v>
+      </c>
+      <c r="I36" t="inlineStr"/>
+      <c r="J36" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K36" t="n">
+        <v>1</v>
+      </c>
+      <c r="L36" t="inlineStr"/>
     </row>
     <row r="37">
       <c r="A37" s="1" t="n">
@@ -1749,26 +1519,21 @@
         <v>25219.6044</v>
       </c>
       <c r="G37" t="n">
-        <v>-386023.3803711343</v>
+        <v>1</v>
       </c>
       <c r="H37" t="n">
-        <v>1</v>
-      </c>
-      <c r="I37" t="n">
-        <v>11.3</v>
-      </c>
-      <c r="J37" t="n">
-        <v>11.3</v>
-      </c>
-      <c r="K37" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L37" t="n">
-        <v>1</v>
-      </c>
-      <c r="M37" t="inlineStr"/>
+        <v>11.3</v>
+      </c>
+      <c r="I37" t="inlineStr"/>
+      <c r="J37" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K37" t="n">
+        <v>1</v>
+      </c>
+      <c r="L37" t="inlineStr"/>
     </row>
     <row r="38">
       <c r="A38" s="1" t="n">
@@ -1790,26 +1555,21 @@
         <v>43750.2734</v>
       </c>
       <c r="G38" t="n">
-        <v>-386023.3803711343</v>
+        <v>1</v>
       </c>
       <c r="H38" t="n">
-        <v>1</v>
-      </c>
-      <c r="I38" t="n">
-        <v>11.4</v>
-      </c>
-      <c r="J38" t="n">
-        <v>11.3</v>
-      </c>
-      <c r="K38" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L38" t="n">
-        <v>1</v>
-      </c>
-      <c r="M38" t="inlineStr"/>
+        <v>11.4</v>
+      </c>
+      <c r="I38" t="inlineStr"/>
+      <c r="J38" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K38" t="n">
+        <v>1</v>
+      </c>
+      <c r="L38" t="inlineStr"/>
     </row>
     <row r="39">
       <c r="A39" s="1" t="n">
@@ -1831,26 +1591,21 @@
         <v>500</v>
       </c>
       <c r="G39" t="n">
-        <v>-386023.3803711343</v>
+        <v>1</v>
       </c>
       <c r="H39" t="n">
-        <v>1</v>
-      </c>
-      <c r="I39" t="n">
-        <v>11.4</v>
-      </c>
-      <c r="J39" t="n">
-        <v>11.3</v>
-      </c>
-      <c r="K39" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L39" t="n">
-        <v>1</v>
-      </c>
-      <c r="M39" t="inlineStr"/>
+        <v>11.4</v>
+      </c>
+      <c r="I39" t="inlineStr"/>
+      <c r="J39" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K39" t="n">
+        <v>1</v>
+      </c>
+      <c r="L39" t="inlineStr"/>
     </row>
     <row r="40">
       <c r="A40" s="1" t="n">
@@ -1872,26 +1627,21 @@
         <v>40191.6896</v>
       </c>
       <c r="G40" t="n">
-        <v>-386023.3803711343</v>
+        <v>1</v>
       </c>
       <c r="H40" t="n">
-        <v>1</v>
-      </c>
-      <c r="I40" t="n">
-        <v>11.4</v>
-      </c>
-      <c r="J40" t="n">
-        <v>11.3</v>
-      </c>
-      <c r="K40" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L40" t="n">
-        <v>1</v>
-      </c>
-      <c r="M40" t="inlineStr"/>
+        <v>11.4</v>
+      </c>
+      <c r="I40" t="inlineStr"/>
+      <c r="J40" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K40" t="n">
+        <v>1</v>
+      </c>
+      <c r="L40" t="inlineStr"/>
     </row>
     <row r="41">
       <c r="A41" s="1" t="n">
@@ -1913,26 +1663,21 @@
         <v>43750.2734</v>
       </c>
       <c r="G41" t="n">
-        <v>-429773.6537711343</v>
+        <v>1</v>
       </c>
       <c r="H41" t="n">
-        <v>1</v>
-      </c>
-      <c r="I41" t="n">
-        <v>11.4</v>
-      </c>
-      <c r="J41" t="n">
-        <v>11.3</v>
-      </c>
-      <c r="K41" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L41" t="n">
-        <v>1</v>
-      </c>
-      <c r="M41" t="inlineStr"/>
+        <v>11.4</v>
+      </c>
+      <c r="I41" t="inlineStr"/>
+      <c r="J41" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K41" t="n">
+        <v>1</v>
+      </c>
+      <c r="L41" t="inlineStr"/>
     </row>
     <row r="42">
       <c r="A42" s="1" t="n">
@@ -1954,26 +1699,21 @@
         <v>40191.6896</v>
       </c>
       <c r="G42" t="n">
-        <v>-429773.6537711343</v>
+        <v>1</v>
       </c>
       <c r="H42" t="n">
-        <v>1</v>
-      </c>
-      <c r="I42" t="n">
-        <v>11.3</v>
-      </c>
-      <c r="J42" t="n">
-        <v>11.3</v>
-      </c>
-      <c r="K42" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L42" t="n">
-        <v>1</v>
-      </c>
-      <c r="M42" t="inlineStr"/>
+        <v>11.3</v>
+      </c>
+      <c r="I42" t="inlineStr"/>
+      <c r="J42" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K42" t="n">
+        <v>1</v>
+      </c>
+      <c r="L42" t="inlineStr"/>
     </row>
     <row r="43">
       <c r="A43" s="1" t="n">
@@ -1995,26 +1735,21 @@
         <v>125891.237</v>
       </c>
       <c r="G43" t="n">
-        <v>-303882.4167711344</v>
+        <v>1</v>
       </c>
       <c r="H43" t="n">
-        <v>1</v>
-      </c>
-      <c r="I43" t="n">
-        <v>11.3</v>
-      </c>
-      <c r="J43" t="n">
-        <v>11.3</v>
-      </c>
-      <c r="K43" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L43" t="n">
-        <v>1</v>
-      </c>
-      <c r="M43" t="inlineStr"/>
+        <v>11.3</v>
+      </c>
+      <c r="I43" t="inlineStr"/>
+      <c r="J43" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K43" t="n">
+        <v>1</v>
+      </c>
+      <c r="L43" t="inlineStr"/>
     </row>
     <row r="44">
       <c r="A44" s="1" t="n">
@@ -2036,26 +1771,19 @@
         <v>130</v>
       </c>
       <c r="G44" t="n">
-        <v>-304012.4167711344</v>
-      </c>
-      <c r="H44" t="n">
-        <v>1</v>
-      </c>
-      <c r="I44" t="n">
-        <v>11.4</v>
-      </c>
-      <c r="J44" t="n">
-        <v>11.3</v>
-      </c>
-      <c r="K44" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L44" t="n">
-        <v>1</v>
-      </c>
-      <c r="M44" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H44" t="inlineStr"/>
+      <c r="I44" t="inlineStr"/>
+      <c r="J44" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K44" t="n">
+        <v>1</v>
+      </c>
+      <c r="L44" t="inlineStr"/>
     </row>
     <row r="45">
       <c r="A45" s="1" t="n">
@@ -2077,26 +1805,21 @@
         <v>50</v>
       </c>
       <c r="G45" t="n">
-        <v>-303962.4167711344</v>
+        <v>1</v>
       </c>
       <c r="H45" t="n">
-        <v>1</v>
-      </c>
-      <c r="I45" t="n">
-        <v>11.3</v>
-      </c>
-      <c r="J45" t="n">
-        <v>11.3</v>
-      </c>
-      <c r="K45" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L45" t="n">
-        <v>1</v>
-      </c>
-      <c r="M45" t="inlineStr"/>
+        <v>11.3</v>
+      </c>
+      <c r="I45" t="inlineStr"/>
+      <c r="J45" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K45" t="n">
+        <v>1</v>
+      </c>
+      <c r="L45" t="inlineStr"/>
     </row>
     <row r="46">
       <c r="A46" s="1" t="n">
@@ -2118,26 +1841,19 @@
         <v>1988.8955</v>
       </c>
       <c r="G46" t="n">
-        <v>-303962.4167711344</v>
-      </c>
-      <c r="H46" t="n">
-        <v>1</v>
-      </c>
-      <c r="I46" t="n">
-        <v>11.5</v>
-      </c>
-      <c r="J46" t="n">
-        <v>11.3</v>
-      </c>
-      <c r="K46" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L46" t="n">
-        <v>1</v>
-      </c>
-      <c r="M46" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H46" t="inlineStr"/>
+      <c r="I46" t="inlineStr"/>
+      <c r="J46" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K46" t="n">
+        <v>1</v>
+      </c>
+      <c r="L46" t="inlineStr"/>
     </row>
     <row r="47">
       <c r="A47" s="1" t="n">
@@ -2159,24 +1875,19 @@
         <v>8674</v>
       </c>
       <c r="G47" t="n">
-        <v>-303962.4167711344</v>
-      </c>
-      <c r="H47" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H47" t="inlineStr"/>
       <c r="I47" t="inlineStr"/>
-      <c r="J47" t="n">
-        <v>11.3</v>
-      </c>
-      <c r="K47" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L47" t="n">
-        <v>1</v>
-      </c>
-      <c r="M47" t="inlineStr"/>
+      <c r="J47" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K47" t="n">
+        <v>1</v>
+      </c>
+      <c r="L47" t="inlineStr"/>
     </row>
     <row r="48">
       <c r="A48" s="1" t="n">
@@ -2198,24 +1909,19 @@
         <v>176183.8331</v>
       </c>
       <c r="G48" t="n">
-        <v>-303962.4167711344</v>
-      </c>
-      <c r="H48" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H48" t="inlineStr"/>
       <c r="I48" t="inlineStr"/>
-      <c r="J48" t="n">
-        <v>11.3</v>
-      </c>
-      <c r="K48" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L48" t="n">
-        <v>1</v>
-      </c>
-      <c r="M48" t="inlineStr"/>
+      <c r="J48" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K48" t="n">
+        <v>1</v>
+      </c>
+      <c r="L48" t="inlineStr"/>
     </row>
     <row r="49">
       <c r="A49" s="1" t="n">
@@ -2237,24 +1943,19 @@
         <v>40665.2789</v>
       </c>
       <c r="G49" t="n">
-        <v>-303962.4167711344</v>
-      </c>
-      <c r="H49" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H49" t="inlineStr"/>
       <c r="I49" t="inlineStr"/>
-      <c r="J49" t="n">
-        <v>11.3</v>
-      </c>
-      <c r="K49" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L49" t="n">
-        <v>1</v>
-      </c>
-      <c r="M49" t="inlineStr"/>
+      <c r="J49" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K49" t="n">
+        <v>1</v>
+      </c>
+      <c r="L49" t="inlineStr"/>
     </row>
     <row r="50">
       <c r="A50" s="1" t="n">
@@ -2276,24 +1977,19 @@
         <v>99911.58106551724</v>
       </c>
       <c r="G50" t="n">
-        <v>-204050.8357056171</v>
-      </c>
-      <c r="H50" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H50" t="inlineStr"/>
       <c r="I50" t="inlineStr"/>
-      <c r="J50" t="n">
-        <v>11.3</v>
-      </c>
-      <c r="K50" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L50" t="n">
-        <v>1</v>
-      </c>
-      <c r="M50" t="inlineStr"/>
+      <c r="J50" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K50" t="n">
+        <v>1</v>
+      </c>
+      <c r="L50" t="inlineStr"/>
     </row>
     <row r="51">
       <c r="A51" s="1" t="n">
@@ -2315,24 +2011,19 @@
         <v>104002.4714</v>
       </c>
       <c r="G51" t="n">
-        <v>-204050.8357056171</v>
-      </c>
-      <c r="H51" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H51" t="inlineStr"/>
       <c r="I51" t="inlineStr"/>
-      <c r="J51" t="n">
-        <v>11.3</v>
-      </c>
-      <c r="K51" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L51" t="n">
-        <v>1</v>
-      </c>
-      <c r="M51" t="inlineStr"/>
+      <c r="J51" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K51" t="n">
+        <v>1</v>
+      </c>
+      <c r="L51" t="inlineStr"/>
     </row>
     <row r="52">
       <c r="A52" s="1" t="n">
@@ -2354,24 +2045,19 @@
         <v>13685.4766</v>
       </c>
       <c r="G52" t="n">
-        <v>-217736.3123056171</v>
-      </c>
-      <c r="H52" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H52" t="inlineStr"/>
       <c r="I52" t="inlineStr"/>
-      <c r="J52" t="n">
-        <v>11.3</v>
-      </c>
-      <c r="K52" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L52" t="n">
-        <v>1</v>
-      </c>
-      <c r="M52" t="inlineStr"/>
+      <c r="J52" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K52" t="n">
+        <v>1</v>
+      </c>
+      <c r="L52" t="inlineStr"/>
     </row>
     <row r="53">
       <c r="A53" s="1" t="n">
@@ -2393,24 +2079,19 @@
         <v>62854.34188034188</v>
       </c>
       <c r="G53" t="n">
-        <v>-154881.9704252752</v>
-      </c>
-      <c r="H53" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H53" t="inlineStr"/>
       <c r="I53" t="inlineStr"/>
-      <c r="J53" t="n">
-        <v>11.3</v>
-      </c>
-      <c r="K53" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L53" t="n">
-        <v>1</v>
-      </c>
-      <c r="M53" t="inlineStr"/>
+      <c r="J53" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K53" t="n">
+        <v>1</v>
+      </c>
+      <c r="L53" t="inlineStr"/>
     </row>
     <row r="54">
       <c r="A54" s="1" t="n">
@@ -2432,24 +2113,19 @@
         <v>629.5689</v>
       </c>
       <c r="G54" t="n">
-        <v>-155511.5393252753</v>
-      </c>
-      <c r="H54" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H54" t="inlineStr"/>
       <c r="I54" t="inlineStr"/>
-      <c r="J54" t="n">
-        <v>11.3</v>
-      </c>
-      <c r="K54" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L54" t="n">
-        <v>1</v>
-      </c>
-      <c r="M54" t="inlineStr"/>
+      <c r="J54" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K54" t="n">
+        <v>1</v>
+      </c>
+      <c r="L54" t="inlineStr"/>
     </row>
     <row r="55">
       <c r="A55" s="1" t="n">
@@ -2471,24 +2147,19 @@
         <v>41123.5154</v>
       </c>
       <c r="G55" t="n">
-        <v>-155511.5393252753</v>
-      </c>
-      <c r="H55" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H55" t="inlineStr"/>
       <c r="I55" t="inlineStr"/>
-      <c r="J55" t="n">
-        <v>11.3</v>
-      </c>
-      <c r="K55" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L55" t="n">
-        <v>1</v>
-      </c>
-      <c r="M55" t="inlineStr"/>
+      <c r="J55" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K55" t="n">
+        <v>1</v>
+      </c>
+      <c r="L55" t="inlineStr"/>
     </row>
     <row r="56">
       <c r="A56" s="1" t="n">
@@ -2510,26 +2181,19 @@
         <v>4347.826086956522</v>
       </c>
       <c r="G56" t="n">
-        <v>-155511.5393252753</v>
-      </c>
-      <c r="H56" t="n">
-        <v>1</v>
-      </c>
-      <c r="I56" t="n">
-        <v>11.5</v>
-      </c>
-      <c r="J56" t="n">
-        <v>11.3</v>
-      </c>
-      <c r="K56" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L56" t="n">
-        <v>1</v>
-      </c>
-      <c r="M56" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H56" t="inlineStr"/>
+      <c r="I56" t="inlineStr"/>
+      <c r="J56" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K56" t="n">
+        <v>1</v>
+      </c>
+      <c r="L56" t="inlineStr"/>
     </row>
     <row r="57">
       <c r="A57" s="1" t="n">
@@ -2551,26 +2215,19 @@
         <v>19712.9732</v>
       </c>
       <c r="G57" t="n">
-        <v>-155511.5393252753</v>
-      </c>
-      <c r="H57" t="n">
-        <v>1</v>
-      </c>
-      <c r="I57" t="n">
-        <v>11.5</v>
-      </c>
-      <c r="J57" t="n">
-        <v>11.3</v>
-      </c>
-      <c r="K57" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L57" t="n">
-        <v>1</v>
-      </c>
-      <c r="M57" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H57" t="inlineStr"/>
+      <c r="I57" t="inlineStr"/>
+      <c r="J57" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K57" t="n">
+        <v>1</v>
+      </c>
+      <c r="L57" t="inlineStr"/>
     </row>
     <row r="58">
       <c r="A58" s="1" t="n">
@@ -2592,26 +2249,19 @@
         <v>26021.841</v>
       </c>
       <c r="G58" t="n">
-        <v>-155511.5393252753</v>
-      </c>
-      <c r="H58" t="n">
-        <v>1</v>
-      </c>
-      <c r="I58" t="n">
-        <v>11.5</v>
-      </c>
-      <c r="J58" t="n">
-        <v>11.3</v>
-      </c>
-      <c r="K58" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L58" t="n">
-        <v>1</v>
-      </c>
-      <c r="M58" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H58" t="inlineStr"/>
+      <c r="I58" t="inlineStr"/>
+      <c r="J58" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K58" t="n">
+        <v>1</v>
+      </c>
+      <c r="L58" t="inlineStr"/>
     </row>
     <row r="59">
       <c r="A59" s="1" t="n">
@@ -2633,26 +2283,19 @@
         <v>7800.302</v>
       </c>
       <c r="G59" t="n">
-        <v>-163311.8413252753</v>
-      </c>
-      <c r="H59" t="n">
-        <v>1</v>
-      </c>
-      <c r="I59" t="n">
-        <v>11.5</v>
-      </c>
-      <c r="J59" t="n">
-        <v>11.3</v>
-      </c>
-      <c r="K59" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L59" t="n">
-        <v>1</v>
-      </c>
-      <c r="M59" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H59" t="inlineStr"/>
+      <c r="I59" t="inlineStr"/>
+      <c r="J59" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K59" t="n">
+        <v>1</v>
+      </c>
+      <c r="L59" t="inlineStr"/>
     </row>
     <row r="60">
       <c r="A60" s="1" t="n">
@@ -2674,26 +2317,19 @@
         <v>25059.84431304348</v>
       </c>
       <c r="G60" t="n">
-        <v>-138251.9970122318</v>
-      </c>
-      <c r="H60" t="n">
-        <v>1</v>
-      </c>
-      <c r="I60" t="n">
-        <v>11.4</v>
-      </c>
-      <c r="J60" t="n">
-        <v>11.3</v>
-      </c>
-      <c r="K60" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L60" t="n">
-        <v>1</v>
-      </c>
-      <c r="M60" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H60" t="inlineStr"/>
+      <c r="I60" t="inlineStr"/>
+      <c r="J60" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K60" t="n">
+        <v>1</v>
+      </c>
+      <c r="L60" t="inlineStr"/>
     </row>
     <row r="61">
       <c r="A61" s="1" t="n">
@@ -2715,26 +2351,19 @@
         <v>6472.514786956522</v>
       </c>
       <c r="G61" t="n">
-        <v>-138251.9970122318</v>
-      </c>
-      <c r="H61" t="n">
-        <v>1</v>
-      </c>
-      <c r="I61" t="n">
-        <v>11.5</v>
-      </c>
-      <c r="J61" t="n">
-        <v>11.3</v>
-      </c>
-      <c r="K61" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L61" t="n">
-        <v>1</v>
-      </c>
-      <c r="M61" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H61" t="inlineStr"/>
+      <c r="I61" t="inlineStr"/>
+      <c r="J61" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K61" t="n">
+        <v>1</v>
+      </c>
+      <c r="L61" t="inlineStr"/>
     </row>
     <row r="62">
       <c r="A62" s="1" t="n">
@@ -2756,26 +2385,19 @@
         <v>3241.875</v>
       </c>
       <c r="G62" t="n">
-        <v>-141493.8720122318</v>
-      </c>
-      <c r="H62" t="n">
-        <v>1</v>
-      </c>
-      <c r="I62" t="n">
-        <v>11.5</v>
-      </c>
-      <c r="J62" t="n">
-        <v>11.3</v>
-      </c>
-      <c r="K62" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L62" t="n">
-        <v>1</v>
-      </c>
-      <c r="M62" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H62" t="inlineStr"/>
+      <c r="I62" t="inlineStr"/>
+      <c r="J62" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K62" t="n">
+        <v>1</v>
+      </c>
+      <c r="L62" t="inlineStr"/>
     </row>
     <row r="63">
       <c r="A63" s="1" t="n">
@@ -2797,26 +2419,19 @@
         <v>26021.841</v>
       </c>
       <c r="G63" t="n">
-        <v>-141493.8720122318</v>
-      </c>
-      <c r="H63" t="n">
-        <v>1</v>
-      </c>
-      <c r="I63" t="n">
-        <v>11.4</v>
-      </c>
-      <c r="J63" t="n">
-        <v>11.3</v>
-      </c>
-      <c r="K63" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L63" t="n">
-        <v>1</v>
-      </c>
-      <c r="M63" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H63" t="inlineStr"/>
+      <c r="I63" t="inlineStr"/>
+      <c r="J63" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K63" t="n">
+        <v>1</v>
+      </c>
+      <c r="L63" t="inlineStr"/>
     </row>
     <row r="64">
       <c r="A64" s="1" t="n">
@@ -2838,26 +2453,19 @@
         <v>100845.4887</v>
       </c>
       <c r="G64" t="n">
-        <v>-141493.8720122318</v>
-      </c>
-      <c r="H64" t="n">
-        <v>1</v>
-      </c>
-      <c r="I64" t="n">
-        <v>11.4</v>
-      </c>
-      <c r="J64" t="n">
-        <v>11.3</v>
-      </c>
-      <c r="K64" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L64" t="n">
-        <v>1</v>
-      </c>
-      <c r="M64" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H64" t="inlineStr"/>
+      <c r="I64" t="inlineStr"/>
+      <c r="J64" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K64" t="n">
+        <v>1</v>
+      </c>
+      <c r="L64" t="inlineStr"/>
     </row>
     <row r="65">
       <c r="A65" s="1" t="n">
@@ -2879,26 +2487,19 @@
         <v>9556.8855</v>
       </c>
       <c r="G65" t="n">
-        <v>-131936.9865122318</v>
-      </c>
-      <c r="H65" t="n">
-        <v>1</v>
-      </c>
-      <c r="I65" t="n">
-        <v>11.4</v>
-      </c>
-      <c r="J65" t="n">
-        <v>11.3</v>
-      </c>
-      <c r="K65" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L65" t="n">
-        <v>1</v>
-      </c>
-      <c r="M65" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H65" t="inlineStr"/>
+      <c r="I65" t="inlineStr"/>
+      <c r="J65" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K65" t="n">
+        <v>1</v>
+      </c>
+      <c r="L65" t="inlineStr"/>
     </row>
     <row r="66">
       <c r="A66" s="1" t="n">
@@ -2920,26 +2521,19 @@
         <v>78995.1009</v>
       </c>
       <c r="G66" t="n">
-        <v>-131936.9865122318</v>
-      </c>
-      <c r="H66" t="n">
-        <v>1</v>
-      </c>
-      <c r="I66" t="n">
-        <v>11.5</v>
-      </c>
-      <c r="J66" t="n">
-        <v>11.3</v>
-      </c>
-      <c r="K66" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L66" t="n">
-        <v>1</v>
-      </c>
-      <c r="M66" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H66" t="inlineStr"/>
+      <c r="I66" t="inlineStr"/>
+      <c r="J66" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K66" t="n">
+        <v>1</v>
+      </c>
+      <c r="L66" t="inlineStr"/>
     </row>
     <row r="67">
       <c r="A67" s="1" t="n">
@@ -2961,26 +2555,19 @@
         <v>10000</v>
       </c>
       <c r="G67" t="n">
-        <v>-121936.9865122318</v>
-      </c>
-      <c r="H67" t="n">
-        <v>1</v>
-      </c>
-      <c r="I67" t="n">
-        <v>11.5</v>
-      </c>
-      <c r="J67" t="n">
-        <v>11.3</v>
-      </c>
-      <c r="K67" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L67" t="n">
-        <v>1</v>
-      </c>
-      <c r="M67" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H67" t="inlineStr"/>
+      <c r="I67" t="inlineStr"/>
+      <c r="J67" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K67" t="n">
+        <v>1</v>
+      </c>
+      <c r="L67" t="inlineStr"/>
     </row>
     <row r="68">
       <c r="A68" s="1" t="n">
@@ -3002,26 +2589,19 @@
         <v>2900</v>
       </c>
       <c r="G68" t="n">
-        <v>-124836.9865122318</v>
-      </c>
-      <c r="H68" t="n">
-        <v>1</v>
-      </c>
-      <c r="I68" t="n">
-        <v>11.6</v>
-      </c>
-      <c r="J68" t="n">
-        <v>11.3</v>
-      </c>
-      <c r="K68" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L68" t="n">
-        <v>1</v>
-      </c>
-      <c r="M68" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H68" t="inlineStr"/>
+      <c r="I68" t="inlineStr"/>
+      <c r="J68" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K68" t="n">
+        <v>1</v>
+      </c>
+      <c r="L68" t="inlineStr"/>
     </row>
     <row r="69">
       <c r="A69" s="1" t="n">
@@ -3043,26 +2623,19 @@
         <v>27100</v>
       </c>
       <c r="G69" t="n">
-        <v>-124836.9865122318</v>
-      </c>
-      <c r="H69" t="n">
-        <v>1</v>
-      </c>
-      <c r="I69" t="n">
-        <v>11.5</v>
-      </c>
-      <c r="J69" t="n">
-        <v>11.3</v>
-      </c>
-      <c r="K69" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L69" t="n">
-        <v>1</v>
-      </c>
-      <c r="M69" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H69" t="inlineStr"/>
+      <c r="I69" t="inlineStr"/>
+      <c r="J69" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K69" t="n">
+        <v>1</v>
+      </c>
+      <c r="L69" t="inlineStr"/>
     </row>
     <row r="70">
       <c r="A70" s="1" t="n">
@@ -3084,26 +2657,19 @@
         <v>20920</v>
       </c>
       <c r="G70" t="n">
-        <v>-103916.9865122318</v>
-      </c>
-      <c r="H70" t="n">
-        <v>1</v>
-      </c>
-      <c r="I70" t="n">
-        <v>11.5</v>
-      </c>
-      <c r="J70" t="n">
-        <v>11.3</v>
-      </c>
-      <c r="K70" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L70" t="n">
-        <v>1</v>
-      </c>
-      <c r="M70" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H70" t="inlineStr"/>
+      <c r="I70" t="inlineStr"/>
+      <c r="J70" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K70" t="n">
+        <v>1</v>
+      </c>
+      <c r="L70" t="inlineStr"/>
     </row>
     <row r="71">
       <c r="A71" s="1" t="n">
@@ -3125,24 +2691,19 @@
         <v>3250</v>
       </c>
       <c r="G71" t="n">
-        <v>-103916.9865122318</v>
-      </c>
-      <c r="H71" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H71" t="inlineStr"/>
       <c r="I71" t="inlineStr"/>
-      <c r="J71" t="n">
-        <v>11.3</v>
-      </c>
-      <c r="K71" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L71" t="n">
-        <v>1</v>
-      </c>
-      <c r="M71" t="inlineStr"/>
+      <c r="J71" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K71" t="n">
+        <v>1</v>
+      </c>
+      <c r="L71" t="inlineStr"/>
     </row>
     <row r="72">
       <c r="A72" s="1" t="n">
@@ -3164,24 +2725,19 @@
         <v>4604</v>
       </c>
       <c r="G72" t="n">
-        <v>-108520.9865122318</v>
-      </c>
-      <c r="H72" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H72" t="inlineStr"/>
       <c r="I72" t="inlineStr"/>
-      <c r="J72" t="n">
-        <v>11.3</v>
-      </c>
-      <c r="K72" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L72" t="n">
-        <v>1</v>
-      </c>
-      <c r="M72" t="inlineStr"/>
+      <c r="J72" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K72" t="n">
+        <v>1</v>
+      </c>
+      <c r="L72" t="inlineStr"/>
     </row>
     <row r="73">
       <c r="A73" s="1" t="n">
@@ -3203,26 +2759,19 @@
         <v>11721</v>
       </c>
       <c r="G73" t="n">
-        <v>-96799.98651223176</v>
-      </c>
-      <c r="H73" t="n">
-        <v>1</v>
-      </c>
-      <c r="I73" t="n">
-        <v>11.5</v>
-      </c>
-      <c r="J73" t="n">
-        <v>11.3</v>
-      </c>
-      <c r="K73" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L73" t="n">
-        <v>1</v>
-      </c>
-      <c r="M73" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H73" t="inlineStr"/>
+      <c r="I73" t="inlineStr"/>
+      <c r="J73" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K73" t="n">
+        <v>1</v>
+      </c>
+      <c r="L73" t="inlineStr"/>
     </row>
     <row r="74">
       <c r="A74" s="1" t="n">
@@ -3244,24 +2793,19 @@
         <v>1200</v>
       </c>
       <c r="G74" t="n">
-        <v>-97999.98651223176</v>
-      </c>
-      <c r="H74" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H74" t="inlineStr"/>
       <c r="I74" t="inlineStr"/>
-      <c r="J74" t="n">
-        <v>11.3</v>
-      </c>
-      <c r="K74" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L74" t="n">
-        <v>1</v>
-      </c>
-      <c r="M74" t="inlineStr"/>
+      <c r="J74" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K74" t="n">
+        <v>1</v>
+      </c>
+      <c r="L74" t="inlineStr"/>
     </row>
     <row r="75">
       <c r="A75" s="1" t="n">
@@ -3283,24 +2827,19 @@
         <v>39918</v>
       </c>
       <c r="G75" t="n">
-        <v>-58081.98651223176</v>
-      </c>
-      <c r="H75" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H75" t="inlineStr"/>
       <c r="I75" t="inlineStr"/>
-      <c r="J75" t="n">
-        <v>11.3</v>
-      </c>
-      <c r="K75" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L75" t="n">
-        <v>1</v>
-      </c>
-      <c r="M75" t="inlineStr"/>
+      <c r="J75" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K75" t="n">
+        <v>1</v>
+      </c>
+      <c r="L75" t="inlineStr"/>
     </row>
     <row r="76">
       <c r="A76" s="1" t="n">
@@ -3322,24 +2861,19 @@
         <v>348.2436</v>
       </c>
       <c r="G76" t="n">
-        <v>-58081.98651223176</v>
-      </c>
-      <c r="H76" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H76" t="inlineStr"/>
       <c r="I76" t="inlineStr"/>
-      <c r="J76" t="n">
-        <v>11.3</v>
-      </c>
-      <c r="K76" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L76" t="n">
-        <v>1</v>
-      </c>
-      <c r="M76" t="inlineStr"/>
+      <c r="J76" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K76" t="n">
+        <v>1</v>
+      </c>
+      <c r="L76" t="inlineStr"/>
     </row>
     <row r="77">
       <c r="A77" s="1" t="n">
@@ -3361,24 +2895,19 @@
         <v>234.8206</v>
       </c>
       <c r="G77" t="n">
-        <v>-57847.16591223176</v>
-      </c>
-      <c r="H77" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H77" t="inlineStr"/>
       <c r="I77" t="inlineStr"/>
-      <c r="J77" t="n">
-        <v>11.3</v>
-      </c>
-      <c r="K77" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L77" t="n">
-        <v>1</v>
-      </c>
-      <c r="M77" t="inlineStr"/>
+      <c r="J77" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K77" t="n">
+        <v>1</v>
+      </c>
+      <c r="L77" t="inlineStr"/>
     </row>
     <row r="78">
       <c r="A78" s="1" t="n">
@@ -3400,24 +2929,19 @@
         <v>60130.1794</v>
       </c>
       <c r="G78" t="n">
-        <v>-57847.16591223176</v>
-      </c>
-      <c r="H78" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H78" t="inlineStr"/>
       <c r="I78" t="inlineStr"/>
-      <c r="J78" t="n">
-        <v>11.3</v>
-      </c>
-      <c r="K78" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L78" t="n">
-        <v>1</v>
-      </c>
-      <c r="M78" t="inlineStr"/>
+      <c r="J78" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K78" t="n">
+        <v>1</v>
+      </c>
+      <c r="L78" t="inlineStr"/>
     </row>
     <row r="79">
       <c r="A79" s="1" t="n">
@@ -3439,24 +2963,19 @@
         <v>3296.405</v>
       </c>
       <c r="G79" t="n">
-        <v>-57847.16591223176</v>
-      </c>
-      <c r="H79" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H79" t="inlineStr"/>
       <c r="I79" t="inlineStr"/>
-      <c r="J79" t="n">
-        <v>11.3</v>
-      </c>
-      <c r="K79" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L79" t="n">
-        <v>1</v>
-      </c>
-      <c r="M79" t="inlineStr"/>
+      <c r="J79" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K79" t="n">
+        <v>1</v>
+      </c>
+      <c r="L79" t="inlineStr"/>
     </row>
     <row r="80">
       <c r="A80" s="1" t="n">
@@ -3478,24 +2997,19 @@
         <v>166602.5318</v>
       </c>
       <c r="G80" t="n">
-        <v>108755.3658877682</v>
-      </c>
-      <c r="H80" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H80" t="inlineStr"/>
       <c r="I80" t="inlineStr"/>
-      <c r="J80" t="n">
-        <v>11.3</v>
-      </c>
-      <c r="K80" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L80" t="n">
-        <v>1</v>
-      </c>
-      <c r="M80" t="inlineStr"/>
+      <c r="J80" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K80" t="n">
+        <v>1</v>
+      </c>
+      <c r="L80" t="inlineStr"/>
     </row>
     <row r="81">
       <c r="A81" s="1" t="n">
@@ -3517,24 +3031,19 @@
         <v>157159.5878</v>
       </c>
       <c r="G81" t="n">
-        <v>-48404.22191223176</v>
-      </c>
-      <c r="H81" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H81" t="inlineStr"/>
       <c r="I81" t="inlineStr"/>
-      <c r="J81" t="n">
-        <v>11.3</v>
-      </c>
-      <c r="K81" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L81" t="n">
-        <v>1</v>
-      </c>
-      <c r="M81" t="inlineStr"/>
+      <c r="J81" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K81" t="n">
+        <v>1</v>
+      </c>
+      <c r="L81" t="inlineStr"/>
     </row>
     <row r="82">
       <c r="A82" s="1" t="n">
@@ -3556,24 +3065,19 @@
         <v>1546.1593</v>
       </c>
       <c r="G82" t="n">
-        <v>-48404.22191223176</v>
-      </c>
-      <c r="H82" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H82" t="inlineStr"/>
       <c r="I82" t="inlineStr"/>
-      <c r="J82" t="n">
-        <v>11.3</v>
-      </c>
-      <c r="K82" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L82" t="n">
-        <v>1</v>
-      </c>
-      <c r="M82" t="inlineStr"/>
+      <c r="J82" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K82" t="n">
+        <v>1</v>
+      </c>
+      <c r="L82" t="inlineStr"/>
     </row>
     <row r="83">
       <c r="A83" s="1" t="n">
@@ -3595,24 +3099,19 @@
         <v>315.6044</v>
       </c>
       <c r="G83" t="n">
-        <v>-48404.22191223176</v>
-      </c>
-      <c r="H83" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H83" t="inlineStr"/>
       <c r="I83" t="inlineStr"/>
-      <c r="J83" t="n">
-        <v>11.3</v>
-      </c>
-      <c r="K83" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L83" t="n">
-        <v>1</v>
-      </c>
-      <c r="M83" t="inlineStr"/>
+      <c r="J83" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K83" t="n">
+        <v>1</v>
+      </c>
+      <c r="L83" t="inlineStr"/>
     </row>
     <row r="84">
       <c r="A84" s="1" t="n">
@@ -3634,24 +3133,19 @@
         <v>19712.9732</v>
       </c>
       <c r="G84" t="n">
-        <v>-48404.22191223176</v>
-      </c>
-      <c r="H84" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H84" t="inlineStr"/>
       <c r="I84" t="inlineStr"/>
-      <c r="J84" t="n">
-        <v>11.3</v>
-      </c>
-      <c r="K84" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L84" t="n">
-        <v>1</v>
-      </c>
-      <c r="M84" t="inlineStr"/>
+      <c r="J84" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K84" t="n">
+        <v>1</v>
+      </c>
+      <c r="L84" t="inlineStr"/>
     </row>
     <row r="85">
       <c r="A85" s="1" t="n">
@@ -3673,24 +3167,19 @@
         <v>45319.1004</v>
       </c>
       <c r="G85" t="n">
-        <v>-48404.22191223176</v>
-      </c>
-      <c r="H85" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H85" t="inlineStr"/>
       <c r="I85" t="inlineStr"/>
-      <c r="J85" t="n">
-        <v>11.3</v>
-      </c>
-      <c r="K85" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L85" t="n">
-        <v>1</v>
-      </c>
-      <c r="M85" t="inlineStr"/>
+      <c r="J85" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K85" t="n">
+        <v>1</v>
+      </c>
+      <c r="L85" t="inlineStr"/>
     </row>
     <row r="86">
       <c r="A86" s="1" t="n">
@@ -3712,24 +3201,19 @@
         <v>39667.0323</v>
       </c>
       <c r="G86" t="n">
-        <v>-88071.25421223175</v>
-      </c>
-      <c r="H86" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H86" t="inlineStr"/>
       <c r="I86" t="inlineStr"/>
-      <c r="J86" t="n">
-        <v>11.3</v>
-      </c>
-      <c r="K86" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L86" t="n">
-        <v>1</v>
-      </c>
-      <c r="M86" t="inlineStr"/>
+      <c r="J86" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K86" t="n">
+        <v>1</v>
+      </c>
+      <c r="L86" t="inlineStr"/>
     </row>
     <row r="87">
       <c r="A87" s="1" t="n">
@@ -3751,24 +3235,19 @@
         <v>12448.8178</v>
       </c>
       <c r="G87" t="n">
-        <v>-75622.43641223175</v>
-      </c>
-      <c r="H87" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H87" t="inlineStr"/>
       <c r="I87" t="inlineStr"/>
-      <c r="J87" t="n">
-        <v>11.3</v>
-      </c>
-      <c r="K87" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L87" t="n">
-        <v>1</v>
-      </c>
-      <c r="M87" t="inlineStr"/>
+      <c r="J87" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K87" t="n">
+        <v>1</v>
+      </c>
+      <c r="L87" t="inlineStr"/>
     </row>
     <row r="88">
       <c r="A88" s="1" t="n">
@@ -3790,24 +3269,19 @@
         <v>16129.033</v>
       </c>
       <c r="G88" t="n">
-        <v>-75622.43641223175</v>
-      </c>
-      <c r="H88" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H88" t="inlineStr"/>
       <c r="I88" t="inlineStr"/>
-      <c r="J88" t="n">
-        <v>11.3</v>
-      </c>
-      <c r="K88" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L88" t="n">
-        <v>1</v>
-      </c>
-      <c r="M88" t="inlineStr"/>
+      <c r="J88" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K88" t="n">
+        <v>1</v>
+      </c>
+      <c r="L88" t="inlineStr"/>
     </row>
     <row r="89">
       <c r="A89" s="1" t="n">
@@ -3829,24 +3303,19 @@
         <v>18850.881</v>
       </c>
       <c r="G89" t="n">
-        <v>-94473.31741223176</v>
-      </c>
-      <c r="H89" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H89" t="inlineStr"/>
       <c r="I89" t="inlineStr"/>
-      <c r="J89" t="n">
-        <v>11.3</v>
-      </c>
-      <c r="K89" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L89" t="n">
-        <v>1</v>
-      </c>
-      <c r="M89" t="inlineStr"/>
+      <c r="J89" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K89" t="n">
+        <v>1</v>
+      </c>
+      <c r="L89" t="inlineStr"/>
     </row>
     <row r="90">
       <c r="A90" s="1" t="n">
@@ -3868,24 +3337,19 @@
         <v>87199.11900000001</v>
       </c>
       <c r="G90" t="n">
-        <v>-94473.31741223176</v>
-      </c>
-      <c r="H90" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H90" t="inlineStr"/>
       <c r="I90" t="inlineStr"/>
-      <c r="J90" t="n">
-        <v>11.3</v>
-      </c>
-      <c r="K90" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L90" t="n">
-        <v>1</v>
-      </c>
-      <c r="M90" t="inlineStr"/>
+      <c r="J90" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K90" t="n">
+        <v>1</v>
+      </c>
+      <c r="L90" t="inlineStr"/>
     </row>
     <row r="91">
       <c r="A91" s="1" t="n">
@@ -3907,24 +3371,19 @@
         <v>12800.881</v>
       </c>
       <c r="G91" t="n">
-        <v>-94473.31741223176</v>
-      </c>
-      <c r="H91" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H91" t="inlineStr"/>
       <c r="I91" t="inlineStr"/>
-      <c r="J91" t="n">
-        <v>11.3</v>
-      </c>
-      <c r="K91" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L91" t="n">
-        <v>1</v>
-      </c>
-      <c r="M91" t="inlineStr"/>
+      <c r="J91" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K91" t="n">
+        <v>1</v>
+      </c>
+      <c r="L91" t="inlineStr"/>
     </row>
     <row r="92">
       <c r="A92" s="1" t="n">
@@ -3946,24 +3405,19 @@
         <v>85966.81789999999</v>
       </c>
       <c r="G92" t="n">
-        <v>-8506.499512231763</v>
-      </c>
-      <c r="H92" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H92" t="inlineStr"/>
       <c r="I92" t="inlineStr"/>
-      <c r="J92" t="n">
-        <v>11.3</v>
-      </c>
-      <c r="K92" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L92" t="n">
-        <v>1</v>
-      </c>
-      <c r="M92" t="inlineStr"/>
+      <c r="J92" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K92" t="n">
+        <v>1</v>
+      </c>
+      <c r="L92" t="inlineStr"/>
     </row>
     <row r="93">
       <c r="A93" s="1" t="n">
@@ -3985,24 +3439,19 @@
         <v>13302038.8404</v>
       </c>
       <c r="G93" t="n">
-        <v>-8506.499512231763</v>
-      </c>
-      <c r="H93" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H93" t="inlineStr"/>
       <c r="I93" t="inlineStr"/>
-      <c r="J93" t="n">
-        <v>11.3</v>
-      </c>
-      <c r="K93" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L93" t="n">
-        <v>1</v>
-      </c>
-      <c r="M93" t="inlineStr"/>
+      <c r="J93" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K93" t="n">
+        <v>1</v>
+      </c>
+      <c r="L93" t="inlineStr"/>
     </row>
     <row r="94">
       <c r="A94" s="1" t="n">
@@ -4024,24 +3473,19 @@
         <v>130065131.364</v>
       </c>
       <c r="G94" t="n">
-        <v>-8506.499512231763</v>
-      </c>
-      <c r="H94" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H94" t="inlineStr"/>
       <c r="I94" t="inlineStr"/>
-      <c r="J94" t="n">
-        <v>11.3</v>
-      </c>
-      <c r="K94" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L94" t="n">
-        <v>1</v>
-      </c>
-      <c r="M94" t="inlineStr"/>
+      <c r="J94" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K94" t="n">
+        <v>1</v>
+      </c>
+      <c r="L94" t="inlineStr"/>
     </row>
     <row r="95">
       <c r="A95" s="1" t="n">
@@ -4063,24 +3507,19 @@
         <v>106001857.6074</v>
       </c>
       <c r="G95" t="n">
-        <v>-8506.499512231763</v>
-      </c>
-      <c r="H95" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H95" t="inlineStr"/>
       <c r="I95" t="inlineStr"/>
-      <c r="J95" t="n">
-        <v>11.3</v>
-      </c>
-      <c r="K95" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L95" t="n">
-        <v>1</v>
-      </c>
-      <c r="M95" t="inlineStr"/>
+      <c r="J95" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K95" t="n">
+        <v>1</v>
+      </c>
+      <c r="L95" t="inlineStr"/>
     </row>
     <row r="96">
       <c r="A96" s="1" t="n">
@@ -4102,24 +3541,19 @@
         <v>92703390.89920001</v>
       </c>
       <c r="G96" t="n">
-        <v>-8506.499512231763</v>
-      </c>
-      <c r="H96" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H96" t="inlineStr"/>
       <c r="I96" t="inlineStr"/>
-      <c r="J96" t="n">
-        <v>11.3</v>
-      </c>
-      <c r="K96" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L96" t="n">
-        <v>1</v>
-      </c>
-      <c r="M96" t="inlineStr"/>
+      <c r="J96" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K96" t="n">
+        <v>1</v>
+      </c>
+      <c r="L96" t="inlineStr"/>
     </row>
     <row r="97">
       <c r="A97" s="1" t="n">
@@ -4141,24 +3575,19 @@
         <v>38036926.8492</v>
       </c>
       <c r="G97" t="n">
-        <v>-8506.499512231763</v>
-      </c>
-      <c r="H97" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H97" t="inlineStr"/>
       <c r="I97" t="inlineStr"/>
-      <c r="J97" t="n">
-        <v>11.3</v>
-      </c>
-      <c r="K97" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L97" t="n">
-        <v>1</v>
-      </c>
-      <c r="M97" t="inlineStr"/>
+      <c r="J97" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K97" t="n">
+        <v>1</v>
+      </c>
+      <c r="L97" t="inlineStr"/>
     </row>
     <row r="98">
       <c r="A98" s="1" t="n">
@@ -4180,24 +3609,19 @@
         <v>8453362.104</v>
       </c>
       <c r="G98" t="n">
-        <v>-8506.499512231763</v>
-      </c>
-      <c r="H98" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H98" t="inlineStr"/>
       <c r="I98" t="inlineStr"/>
-      <c r="J98" t="n">
-        <v>11.3</v>
-      </c>
-      <c r="K98" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L98" t="n">
-        <v>1</v>
-      </c>
-      <c r="M98" t="inlineStr"/>
+      <c r="J98" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K98" t="n">
+        <v>1</v>
+      </c>
+      <c r="L98" t="inlineStr"/>
     </row>
     <row r="99">
       <c r="A99" s="1" t="n">
@@ -4219,24 +3643,19 @@
         <v>156096310.7232</v>
       </c>
       <c r="G99" t="n">
-        <v>-8506.499512231763</v>
-      </c>
-      <c r="H99" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H99" t="inlineStr"/>
       <c r="I99" t="inlineStr"/>
-      <c r="J99" t="n">
-        <v>11.3</v>
-      </c>
-      <c r="K99" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L99" t="n">
-        <v>1</v>
-      </c>
-      <c r="M99" t="inlineStr"/>
+      <c r="J99" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K99" t="n">
+        <v>1</v>
+      </c>
+      <c r="L99" t="inlineStr"/>
     </row>
     <row r="100">
       <c r="A100" s="1" t="n">
@@ -4258,24 +3677,19 @@
         <v>195853126.5092</v>
       </c>
       <c r="G100" t="n">
-        <v>-8506.499512231763</v>
-      </c>
-      <c r="H100" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H100" t="inlineStr"/>
       <c r="I100" t="inlineStr"/>
-      <c r="J100" t="n">
-        <v>11.3</v>
-      </c>
-      <c r="K100" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L100" t="n">
-        <v>1</v>
-      </c>
-      <c r="M100" t="inlineStr"/>
+      <c r="J100" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K100" t="n">
+        <v>1</v>
+      </c>
+      <c r="L100" t="inlineStr"/>
     </row>
     <row r="101">
       <c r="A101" s="1" t="n">
@@ -4297,24 +3711,19 @@
         <v>158274385.0388</v>
       </c>
       <c r="G101" t="n">
-        <v>-8506.499512231763</v>
-      </c>
-      <c r="H101" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H101" t="inlineStr"/>
       <c r="I101" t="inlineStr"/>
-      <c r="J101" t="n">
-        <v>11.3</v>
-      </c>
-      <c r="K101" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L101" t="n">
-        <v>1</v>
-      </c>
-      <c r="M101" t="inlineStr"/>
+      <c r="J101" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K101" t="n">
+        <v>1</v>
+      </c>
+      <c r="L101" t="inlineStr"/>
     </row>
     <row r="102">
       <c r="A102" s="1" t="n">
@@ -4336,24 +3745,19 @@
         <v>179923443.1154</v>
       </c>
       <c r="G102" t="n">
-        <v>-8506.499512231763</v>
-      </c>
-      <c r="H102" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H102" t="inlineStr"/>
       <c r="I102" t="inlineStr"/>
-      <c r="J102" t="n">
-        <v>11.3</v>
-      </c>
-      <c r="K102" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L102" t="n">
-        <v>1</v>
-      </c>
-      <c r="M102" t="inlineStr"/>
+      <c r="J102" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K102" t="n">
+        <v>1</v>
+      </c>
+      <c r="L102" t="inlineStr"/>
     </row>
     <row r="103">
       <c r="A103" s="1" t="n">
@@ -4375,24 +3779,19 @@
         <v>121746723.4606</v>
       </c>
       <c r="G103" t="n">
-        <v>-8506.499512231763</v>
-      </c>
-      <c r="H103" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H103" t="inlineStr"/>
       <c r="I103" t="inlineStr"/>
-      <c r="J103" t="n">
-        <v>11.3</v>
-      </c>
-      <c r="K103" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L103" t="n">
-        <v>1</v>
-      </c>
-      <c r="M103" t="inlineStr"/>
+      <c r="J103" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K103" t="n">
+        <v>1</v>
+      </c>
+      <c r="L103" t="inlineStr"/>
     </row>
     <row r="104">
       <c r="A104" s="1" t="n">
@@ -4414,24 +3813,19 @@
         <v>27976905.5353</v>
       </c>
       <c r="G104" t="n">
-        <v>-8506.499512231763</v>
-      </c>
-      <c r="H104" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H104" t="inlineStr"/>
       <c r="I104" t="inlineStr"/>
-      <c r="J104" t="n">
-        <v>11.3</v>
-      </c>
-      <c r="K104" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L104" t="n">
-        <v>1</v>
-      </c>
-      <c r="M104" t="inlineStr"/>
+      <c r="J104" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K104" t="n">
+        <v>1</v>
+      </c>
+      <c r="L104" t="inlineStr"/>
     </row>
     <row r="105">
       <c r="A105" s="1" t="n">
@@ -4453,24 +3847,19 @@
         <v>112470697.5007</v>
       </c>
       <c r="G105" t="n">
-        <v>-8506.499512231763</v>
-      </c>
-      <c r="H105" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H105" t="inlineStr"/>
       <c r="I105" t="inlineStr"/>
-      <c r="J105" t="n">
-        <v>11.3</v>
-      </c>
-      <c r="K105" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L105" t="n">
-        <v>1</v>
-      </c>
-      <c r="M105" t="inlineStr"/>
+      <c r="J105" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K105" t="n">
+        <v>1</v>
+      </c>
+      <c r="L105" t="inlineStr"/>
     </row>
     <row r="106">
       <c r="A106" s="1" t="n">
@@ -4492,24 +3881,19 @@
         <v>186207290.4324</v>
       </c>
       <c r="G106" t="n">
-        <v>-8506.499512231763</v>
-      </c>
-      <c r="H106" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H106" t="inlineStr"/>
       <c r="I106" t="inlineStr"/>
-      <c r="J106" t="n">
-        <v>11.3</v>
-      </c>
-      <c r="K106" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L106" t="n">
-        <v>1</v>
-      </c>
-      <c r="M106" t="inlineStr"/>
+      <c r="J106" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K106" t="n">
+        <v>1</v>
+      </c>
+      <c r="L106" t="inlineStr"/>
     </row>
     <row r="107">
       <c r="A107" s="1" t="n">
@@ -4531,24 +3915,19 @@
         <v>187632281.534</v>
       </c>
       <c r="G107" t="n">
-        <v>-8506.499512231763</v>
-      </c>
-      <c r="H107" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H107" t="inlineStr"/>
       <c r="I107" t="inlineStr"/>
-      <c r="J107" t="n">
-        <v>11.3</v>
-      </c>
-      <c r="K107" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L107" t="n">
-        <v>1</v>
-      </c>
-      <c r="M107" t="inlineStr"/>
+      <c r="J107" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K107" t="n">
+        <v>1</v>
+      </c>
+      <c r="L107" t="inlineStr"/>
     </row>
     <row r="108">
       <c r="A108" s="1" t="n">
@@ -4570,24 +3949,19 @@
         <v>189037860.2988</v>
       </c>
       <c r="G108" t="n">
-        <v>-8506.499512231763</v>
-      </c>
-      <c r="H108" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H108" t="inlineStr"/>
       <c r="I108" t="inlineStr"/>
-      <c r="J108" t="n">
-        <v>11.3</v>
-      </c>
-      <c r="K108" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L108" t="n">
-        <v>1</v>
-      </c>
-      <c r="M108" t="inlineStr"/>
+      <c r="J108" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K108" t="n">
+        <v>1</v>
+      </c>
+      <c r="L108" t="inlineStr"/>
     </row>
     <row r="109">
       <c r="A109" s="1" t="n">
@@ -4609,24 +3983,19 @@
         <v>189738700.8229</v>
       </c>
       <c r="G109" t="n">
-        <v>-8506.499512231763</v>
-      </c>
-      <c r="H109" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H109" t="inlineStr"/>
       <c r="I109" t="inlineStr"/>
-      <c r="J109" t="n">
-        <v>11.3</v>
-      </c>
-      <c r="K109" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L109" t="n">
-        <v>1</v>
-      </c>
-      <c r="M109" t="inlineStr"/>
+      <c r="J109" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K109" t="n">
+        <v>1</v>
+      </c>
+      <c r="L109" t="inlineStr"/>
     </row>
     <row r="110">
       <c r="A110" s="1" t="n">
@@ -4648,24 +4017,19 @@
         <v>189733668.404</v>
       </c>
       <c r="G110" t="n">
-        <v>-8506.499512231763</v>
-      </c>
-      <c r="H110" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H110" t="inlineStr"/>
       <c r="I110" t="inlineStr"/>
-      <c r="J110" t="n">
-        <v>11.3</v>
-      </c>
-      <c r="K110" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L110" t="n">
-        <v>1</v>
-      </c>
-      <c r="M110" t="inlineStr"/>
+      <c r="J110" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K110" t="n">
+        <v>1</v>
+      </c>
+      <c r="L110" t="inlineStr"/>
     </row>
     <row r="111">
       <c r="A111" s="1" t="n">
@@ -4687,24 +4051,19 @@
         <v>179900005.3512</v>
       </c>
       <c r="G111" t="n">
-        <v>-8506.499512231763</v>
-      </c>
-      <c r="H111" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H111" t="inlineStr"/>
       <c r="I111" t="inlineStr"/>
-      <c r="J111" t="n">
-        <v>11.3</v>
-      </c>
-      <c r="K111" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L111" t="n">
-        <v>1</v>
-      </c>
-      <c r="M111" t="inlineStr"/>
+      <c r="J111" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K111" t="n">
+        <v>1</v>
+      </c>
+      <c r="L111" t="inlineStr"/>
     </row>
     <row r="112">
       <c r="A112" s="1" t="n">
@@ -4726,24 +4085,19 @@
         <v>186907693.1443</v>
       </c>
       <c r="G112" t="n">
-        <v>-8506.499512231763</v>
-      </c>
-      <c r="H112" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H112" t="inlineStr"/>
       <c r="I112" t="inlineStr"/>
-      <c r="J112" t="n">
-        <v>11.3</v>
-      </c>
-      <c r="K112" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L112" t="n">
-        <v>1</v>
-      </c>
-      <c r="M112" t="inlineStr"/>
+      <c r="J112" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K112" t="n">
+        <v>1</v>
+      </c>
+      <c r="L112" t="inlineStr"/>
     </row>
     <row r="113">
       <c r="A113" s="1" t="n">
@@ -4765,24 +4119,19 @@
         <v>189019743.1377</v>
       </c>
       <c r="G113" t="n">
-        <v>-8506.499512231763</v>
-      </c>
-      <c r="H113" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H113" t="inlineStr"/>
       <c r="I113" t="inlineStr"/>
-      <c r="J113" t="n">
-        <v>11.3</v>
-      </c>
-      <c r="K113" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L113" t="n">
-        <v>1</v>
-      </c>
-      <c r="M113" t="inlineStr"/>
+      <c r="J113" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K113" t="n">
+        <v>1</v>
+      </c>
+      <c r="L113" t="inlineStr"/>
     </row>
     <row r="114">
       <c r="A114" s="1" t="n">
@@ -4804,24 +4153,19 @@
         <v>186909832.5976</v>
       </c>
       <c r="G114" t="n">
-        <v>-8506.499512231763</v>
-      </c>
-      <c r="H114" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H114" t="inlineStr"/>
       <c r="I114" t="inlineStr"/>
-      <c r="J114" t="n">
-        <v>11.3</v>
-      </c>
-      <c r="K114" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L114" t="n">
-        <v>1</v>
-      </c>
-      <c r="M114" t="inlineStr"/>
+      <c r="J114" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K114" t="n">
+        <v>1</v>
+      </c>
+      <c r="L114" t="inlineStr"/>
     </row>
     <row r="115">
       <c r="A115" s="1" t="n">
@@ -4843,24 +4187,19 @@
         <v>191151814.6144</v>
       </c>
       <c r="G115" t="n">
-        <v>-8506.499512231763</v>
-      </c>
-      <c r="H115" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H115" t="inlineStr"/>
       <c r="I115" t="inlineStr"/>
-      <c r="J115" t="n">
-        <v>11.3</v>
-      </c>
-      <c r="K115" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L115" t="n">
-        <v>1</v>
-      </c>
-      <c r="M115" t="inlineStr"/>
+      <c r="J115" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K115" t="n">
+        <v>1</v>
+      </c>
+      <c r="L115" t="inlineStr"/>
     </row>
     <row r="116">
       <c r="A116" s="1" t="n">
@@ -4882,24 +4221,19 @@
         <v>105400215.78</v>
       </c>
       <c r="G116" t="n">
-        <v>-8506.499512231763</v>
-      </c>
-      <c r="H116" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H116" t="inlineStr"/>
       <c r="I116" t="inlineStr"/>
-      <c r="J116" t="n">
-        <v>11.3</v>
-      </c>
-      <c r="K116" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L116" t="n">
-        <v>1</v>
-      </c>
-      <c r="M116" t="inlineStr"/>
+      <c r="J116" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K116" t="n">
+        <v>1</v>
+      </c>
+      <c r="L116" t="inlineStr"/>
     </row>
     <row r="117">
       <c r="A117" s="1" t="n">
@@ -4921,24 +4255,19 @@
         <v>178811966.5981</v>
       </c>
       <c r="G117" t="n">
-        <v>-8506.499512231763</v>
-      </c>
-      <c r="H117" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H117" t="inlineStr"/>
       <c r="I117" t="inlineStr"/>
-      <c r="J117" t="n">
-        <v>11.3</v>
-      </c>
-      <c r="K117" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L117" t="n">
-        <v>1</v>
-      </c>
-      <c r="M117" t="inlineStr"/>
+      <c r="J117" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K117" t="n">
+        <v>1</v>
+      </c>
+      <c r="L117" t="inlineStr"/>
     </row>
     <row r="118">
       <c r="A118" s="1" t="n">
@@ -4960,24 +4289,19 @@
         <v>190423056.5092</v>
       </c>
       <c r="G118" t="n">
-        <v>-8506.499512231763</v>
-      </c>
-      <c r="H118" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H118" t="inlineStr"/>
       <c r="I118" t="inlineStr"/>
-      <c r="J118" t="n">
-        <v>11.3</v>
-      </c>
-      <c r="K118" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L118" t="n">
-        <v>1</v>
-      </c>
-      <c r="M118" t="inlineStr"/>
+      <c r="J118" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K118" t="n">
+        <v>1</v>
+      </c>
+      <c r="L118" t="inlineStr"/>
     </row>
     <row r="119">
       <c r="A119" s="1" t="n">
@@ -4999,24 +4323,19 @@
         <v>189720388.404</v>
       </c>
       <c r="G119" t="n">
-        <v>-8506.499512231763</v>
-      </c>
-      <c r="H119" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H119" t="inlineStr"/>
       <c r="I119" t="inlineStr"/>
-      <c r="J119" t="n">
-        <v>11.3</v>
-      </c>
-      <c r="K119" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L119" t="n">
-        <v>1</v>
-      </c>
-      <c r="M119" t="inlineStr"/>
+      <c r="J119" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K119" t="n">
+        <v>1</v>
+      </c>
+      <c r="L119" t="inlineStr"/>
     </row>
     <row r="120">
       <c r="A120" s="1" t="n">
@@ -5038,24 +4357,19 @@
         <v>5599959.6117</v>
       </c>
       <c r="G120" t="n">
-        <v>5591453.112187768</v>
-      </c>
-      <c r="H120" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H120" t="inlineStr"/>
       <c r="I120" t="inlineStr"/>
-      <c r="J120" t="n">
-        <v>11.3</v>
-      </c>
-      <c r="K120" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L120" t="n">
-        <v>1</v>
-      </c>
-      <c r="M120" t="inlineStr"/>
+      <c r="J120" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K120" t="n">
+        <v>1</v>
+      </c>
+      <c r="L120" t="inlineStr"/>
     </row>
     <row r="121">
       <c r="A121" s="1" t="n">
@@ -5077,24 +4391,19 @@
         <v>4891.0665</v>
       </c>
       <c r="G121" t="n">
-        <v>5591453.112187768</v>
-      </c>
-      <c r="H121" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H121" t="inlineStr"/>
       <c r="I121" t="inlineStr"/>
-      <c r="J121" t="n">
-        <v>11.3</v>
-      </c>
-      <c r="K121" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L121" t="n">
-        <v>1</v>
-      </c>
-      <c r="M121" t="inlineStr"/>
+      <c r="J121" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K121" t="n">
+        <v>1</v>
+      </c>
+      <c r="L121" t="inlineStr"/>
     </row>
     <row r="122">
       <c r="A122" s="1" t="n">
@@ -5116,24 +4425,19 @@
         <v>100000</v>
       </c>
       <c r="G122" t="n">
-        <v>5591453.112187768</v>
-      </c>
-      <c r="H122" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H122" t="inlineStr"/>
       <c r="I122" t="inlineStr"/>
-      <c r="J122" t="n">
-        <v>11.3</v>
-      </c>
-      <c r="K122" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L122" t="n">
-        <v>1</v>
-      </c>
-      <c r="M122" t="inlineStr"/>
+      <c r="J122" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K122" t="n">
+        <v>1</v>
+      </c>
+      <c r="L122" t="inlineStr"/>
     </row>
     <row r="123">
       <c r="A123" s="1" t="n">
@@ -5155,24 +4459,19 @@
         <v>2000</v>
       </c>
       <c r="G123" t="n">
-        <v>5591453.112187768</v>
-      </c>
-      <c r="H123" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H123" t="inlineStr"/>
       <c r="I123" t="inlineStr"/>
-      <c r="J123" t="n">
-        <v>11.3</v>
-      </c>
-      <c r="K123" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L123" t="n">
-        <v>1</v>
-      </c>
-      <c r="M123" t="inlineStr"/>
+      <c r="J123" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K123" t="n">
+        <v>1</v>
+      </c>
+      <c r="L123" t="inlineStr"/>
     </row>
     <row r="124">
       <c r="A124" s="1" t="n">
@@ -5194,24 +4493,19 @@
         <v>251.3883</v>
       </c>
       <c r="G124" t="n">
-        <v>5591704.500487768</v>
-      </c>
-      <c r="H124" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H124" t="inlineStr"/>
       <c r="I124" t="inlineStr"/>
-      <c r="J124" t="n">
-        <v>11.3</v>
-      </c>
-      <c r="K124" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L124" t="n">
-        <v>1</v>
-      </c>
-      <c r="M124" t="inlineStr"/>
+      <c r="J124" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K124" t="n">
+        <v>1</v>
+      </c>
+      <c r="L124" t="inlineStr"/>
     </row>
     <row r="125">
       <c r="A125" s="1" t="n">
@@ -5233,24 +4527,19 @@
         <v>4201.680672268908</v>
       </c>
       <c r="G125" t="n">
-        <v>5591704.500487768</v>
-      </c>
-      <c r="H125" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H125" t="inlineStr"/>
       <c r="I125" t="inlineStr"/>
-      <c r="J125" t="n">
-        <v>11.3</v>
-      </c>
-      <c r="K125" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L125" t="n">
-        <v>1</v>
-      </c>
-      <c r="M125" t="inlineStr"/>
+      <c r="J125" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K125" t="n">
+        <v>1</v>
+      </c>
+      <c r="L125" t="inlineStr"/>
     </row>
     <row r="126">
       <c r="A126" s="1" t="n">
@@ -5272,24 +4561,19 @@
         <v>1733.9769</v>
       </c>
       <c r="G126" t="n">
-        <v>5589970.523587768</v>
-      </c>
-      <c r="H126" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H126" t="inlineStr"/>
       <c r="I126" t="inlineStr"/>
-      <c r="J126" t="n">
-        <v>11.3</v>
-      </c>
-      <c r="K126" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L126" t="n">
-        <v>1</v>
-      </c>
-      <c r="M126" t="inlineStr"/>
+      <c r="J126" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K126" t="n">
+        <v>1</v>
+      </c>
+      <c r="L126" t="inlineStr"/>
     </row>
     <row r="127">
       <c r="A127" s="1" t="n">
@@ -5311,24 +4595,19 @@
         <v>58830</v>
       </c>
       <c r="G127" t="n">
-        <v>5531140.523587768</v>
-      </c>
-      <c r="H127" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H127" t="inlineStr"/>
       <c r="I127" t="inlineStr"/>
-      <c r="J127" t="n">
-        <v>11.3</v>
-      </c>
-      <c r="K127" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L127" t="n">
-        <v>1</v>
-      </c>
-      <c r="M127" t="inlineStr"/>
+      <c r="J127" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K127" t="n">
+        <v>1</v>
+      </c>
+      <c r="L127" t="inlineStr"/>
     </row>
     <row r="128">
       <c r="A128" s="1" t="n">
@@ -5350,24 +4629,19 @@
         <v>123789.0642</v>
       </c>
       <c r="G128" t="n">
-        <v>5654929.587787768</v>
-      </c>
-      <c r="H128" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H128" t="inlineStr"/>
       <c r="I128" t="inlineStr"/>
-      <c r="J128" t="n">
-        <v>11.3</v>
-      </c>
-      <c r="K128" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L128" t="n">
-        <v>1</v>
-      </c>
-      <c r="M128" t="inlineStr"/>
+      <c r="J128" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K128" t="n">
+        <v>1</v>
+      </c>
+      <c r="L128" t="inlineStr"/>
     </row>
     <row r="129">
       <c r="A129" s="1" t="n">
@@ -5389,24 +4663,19 @@
         <v>89823.7029</v>
       </c>
       <c r="G129" t="n">
-        <v>5744753.290687768</v>
-      </c>
-      <c r="H129" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H129" t="inlineStr"/>
       <c r="I129" t="inlineStr"/>
-      <c r="J129" t="n">
-        <v>11.3</v>
-      </c>
-      <c r="K129" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L129" t="n">
-        <v>1</v>
-      </c>
-      <c r="M129" t="inlineStr"/>
+      <c r="J129" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K129" t="n">
+        <v>1</v>
+      </c>
+      <c r="L129" t="inlineStr"/>
     </row>
     <row r="130">
       <c r="A130" s="1" t="n">
@@ -5428,24 +4697,19 @@
         <v>49.9214</v>
       </c>
       <c r="G130" t="n">
-        <v>5744753.290687768</v>
-      </c>
-      <c r="H130" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H130" t="inlineStr"/>
       <c r="I130" t="inlineStr"/>
-      <c r="J130" t="n">
-        <v>11.3</v>
-      </c>
-      <c r="K130" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L130" t="n">
-        <v>1</v>
-      </c>
-      <c r="M130" t="inlineStr"/>
+      <c r="J130" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K130" t="n">
+        <v>1</v>
+      </c>
+      <c r="L130" t="inlineStr"/>
     </row>
     <row r="131">
       <c r="A131" s="1" t="n">
@@ -5467,24 +4731,19 @@
         <v>154646.1387492187</v>
       </c>
       <c r="G131" t="n">
-        <v>5899399.429436986</v>
-      </c>
-      <c r="H131" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H131" t="inlineStr"/>
       <c r="I131" t="inlineStr"/>
-      <c r="J131" t="n">
-        <v>11.3</v>
-      </c>
-      <c r="K131" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L131" t="n">
-        <v>1</v>
-      </c>
-      <c r="M131" t="inlineStr"/>
+      <c r="J131" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K131" t="n">
+        <v>1</v>
+      </c>
+      <c r="L131" t="inlineStr"/>
     </row>
     <row r="132">
       <c r="A132" s="1" t="n">
@@ -5506,24 +4765,19 @@
         <v>1980.0993</v>
       </c>
       <c r="G132" t="n">
-        <v>5899399.429436986</v>
-      </c>
-      <c r="H132" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H132" t="inlineStr"/>
       <c r="I132" t="inlineStr"/>
-      <c r="J132" t="n">
-        <v>11.3</v>
-      </c>
-      <c r="K132" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L132" t="n">
-        <v>1</v>
-      </c>
-      <c r="M132" t="inlineStr"/>
+      <c r="J132" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K132" t="n">
+        <v>1</v>
+      </c>
+      <c r="L132" t="inlineStr"/>
     </row>
     <row r="133">
       <c r="A133" s="1" t="n">
@@ -5545,24 +4799,19 @@
         <v>134024.0411</v>
       </c>
       <c r="G133" t="n">
-        <v>5765375.388336986</v>
-      </c>
-      <c r="H133" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H133" t="inlineStr"/>
       <c r="I133" t="inlineStr"/>
-      <c r="J133" t="n">
-        <v>11.3</v>
-      </c>
-      <c r="K133" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L133" t="n">
-        <v>1</v>
-      </c>
-      <c r="M133" t="inlineStr"/>
+      <c r="J133" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K133" t="n">
+        <v>1</v>
+      </c>
+      <c r="L133" t="inlineStr"/>
     </row>
     <row r="134">
       <c r="A134" s="1" t="n">
@@ -5584,24 +4833,19 @@
         <v>1000</v>
       </c>
       <c r="G134" t="n">
-        <v>5765375.388336986</v>
-      </c>
-      <c r="H134" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H134" t="inlineStr"/>
       <c r="I134" t="inlineStr"/>
-      <c r="J134" t="n">
-        <v>11.3</v>
-      </c>
-      <c r="K134" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L134" t="n">
-        <v>1</v>
-      </c>
-      <c r="M134" t="inlineStr"/>
+      <c r="J134" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K134" t="n">
+        <v>1</v>
+      </c>
+      <c r="L134" t="inlineStr"/>
     </row>
     <row r="135">
       <c r="A135" s="1" t="n">
@@ -5623,24 +4867,19 @@
         <v>41487.3614</v>
       </c>
       <c r="G135" t="n">
-        <v>5765375.388336986</v>
-      </c>
-      <c r="H135" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H135" t="inlineStr"/>
       <c r="I135" t="inlineStr"/>
-      <c r="J135" t="n">
-        <v>11.3</v>
-      </c>
-      <c r="K135" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L135" t="n">
-        <v>1</v>
-      </c>
-      <c r="M135" t="inlineStr"/>
+      <c r="J135" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K135" t="n">
+        <v>1</v>
+      </c>
+      <c r="L135" t="inlineStr"/>
     </row>
     <row r="136">
       <c r="A136" s="1" t="n">
@@ -5662,24 +4901,19 @@
         <v>11937.9435</v>
       </c>
       <c r="G136" t="n">
-        <v>5777313.331836986</v>
-      </c>
-      <c r="H136" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H136" t="inlineStr"/>
       <c r="I136" t="inlineStr"/>
-      <c r="J136" t="n">
-        <v>11.3</v>
-      </c>
-      <c r="K136" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L136" t="n">
-        <v>1</v>
-      </c>
-      <c r="M136" t="inlineStr"/>
+      <c r="J136" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K136" t="n">
+        <v>1</v>
+      </c>
+      <c r="L136" t="inlineStr"/>
     </row>
     <row r="137">
       <c r="A137" s="1" t="n">
@@ -5701,24 +4935,19 @@
         <v>17840.68947851239</v>
       </c>
       <c r="G137" t="n">
-        <v>5777313.331836986</v>
-      </c>
-      <c r="H137" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H137" t="inlineStr"/>
       <c r="I137" t="inlineStr"/>
-      <c r="J137" t="n">
-        <v>11.3</v>
-      </c>
-      <c r="K137" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L137" t="n">
-        <v>1</v>
-      </c>
-      <c r="M137" t="inlineStr"/>
+      <c r="J137" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K137" t="n">
+        <v>1</v>
+      </c>
+      <c r="L137" t="inlineStr"/>
     </row>
     <row r="138">
       <c r="A138" s="1" t="n">
@@ -5740,24 +4969,19 @@
         <v>85476.65089999999</v>
       </c>
       <c r="G138" t="n">
-        <v>5777313.331836986</v>
-      </c>
-      <c r="H138" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H138" t="inlineStr"/>
       <c r="I138" t="inlineStr"/>
-      <c r="J138" t="n">
-        <v>11.3</v>
-      </c>
-      <c r="K138" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L138" t="n">
-        <v>1</v>
-      </c>
-      <c r="M138" t="inlineStr"/>
+      <c r="J138" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K138" t="n">
+        <v>1</v>
+      </c>
+      <c r="L138" t="inlineStr"/>
     </row>
     <row r="139">
       <c r="A139" s="1" t="n">
@@ -5779,24 +5003,19 @@
         <v>102072.4842</v>
       </c>
       <c r="G139" t="n">
-        <v>5879385.816036986</v>
-      </c>
-      <c r="H139" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H139" t="inlineStr"/>
       <c r="I139" t="inlineStr"/>
-      <c r="J139" t="n">
-        <v>11.3</v>
-      </c>
-      <c r="K139" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L139" t="n">
-        <v>1</v>
-      </c>
-      <c r="M139" t="inlineStr"/>
+      <c r="J139" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K139" t="n">
+        <v>1</v>
+      </c>
+      <c r="L139" t="inlineStr"/>
     </row>
     <row r="140">
       <c r="A140" s="1" t="n">
@@ -5818,24 +5037,19 @@
         <v>3539</v>
       </c>
       <c r="G140" t="n">
-        <v>5875846.816036986</v>
-      </c>
-      <c r="H140" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H140" t="inlineStr"/>
       <c r="I140" t="inlineStr"/>
-      <c r="J140" t="n">
-        <v>11.3</v>
-      </c>
-      <c r="K140" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L140" t="n">
-        <v>1</v>
-      </c>
-      <c r="M140" t="inlineStr"/>
+      <c r="J140" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K140" t="n">
+        <v>1</v>
+      </c>
+      <c r="L140" t="inlineStr"/>
     </row>
     <row r="141">
       <c r="A141" s="1" t="n">
@@ -5857,24 +5071,19 @@
         <v>41</v>
       </c>
       <c r="G141" t="n">
-        <v>5875887.816036986</v>
-      </c>
-      <c r="H141" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H141" t="inlineStr"/>
       <c r="I141" t="inlineStr"/>
-      <c r="J141" t="n">
-        <v>11.3</v>
-      </c>
-      <c r="K141" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L141" t="n">
-        <v>1</v>
-      </c>
-      <c r="M141" t="inlineStr"/>
+      <c r="J141" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K141" t="n">
+        <v>1</v>
+      </c>
+      <c r="L141" t="inlineStr"/>
     </row>
     <row r="142">
       <c r="A142" s="1" t="n">
@@ -5896,24 +5105,17 @@
         <v>47091.4205</v>
       </c>
       <c r="G142" t="n">
-        <v>5875887.816036986</v>
-      </c>
-      <c r="H142" t="n">
-        <v>0</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="H142" t="inlineStr"/>
       <c r="I142" t="inlineStr"/>
-      <c r="J142" t="n">
-        <v>11.3</v>
-      </c>
-      <c r="K142" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L142" t="n">
-        <v>1</v>
-      </c>
-      <c r="M142" t="inlineStr"/>
+      <c r="J142" t="inlineStr">
+        <is>
+          <t>매도 체결</t>
+        </is>
+      </c>
+      <c r="K142" t="inlineStr"/>
+      <c r="L142" t="inlineStr"/>
     </row>
     <row r="143">
       <c r="A143" s="1" t="n">
@@ -5935,24 +5137,15 @@
         <v>2500</v>
       </c>
       <c r="G143" t="n">
-        <v>5873387.816036986</v>
-      </c>
-      <c r="H143" t="n">
-        <v>0</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="H143" t="inlineStr"/>
       <c r="I143" t="inlineStr"/>
-      <c r="J143" t="n">
-        <v>11.3</v>
-      </c>
-      <c r="K143" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L143" t="n">
-        <v>1</v>
-      </c>
-      <c r="M143" t="inlineStr"/>
+      <c r="J143" t="inlineStr"/>
+      <c r="K143" t="n">
+        <v>1</v>
+      </c>
+      <c r="L143" t="inlineStr"/>
     </row>
     <row r="144">
       <c r="A144" s="1" t="n">
@@ -5974,24 +5167,15 @@
         <v>69267.75992148761</v>
       </c>
       <c r="G144" t="n">
-        <v>5804120.056115499</v>
-      </c>
-      <c r="H144" t="n">
-        <v>0</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="H144" t="inlineStr"/>
       <c r="I144" t="inlineStr"/>
-      <c r="J144" t="n">
-        <v>11.3</v>
-      </c>
-      <c r="K144" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L144" t="n">
-        <v>1</v>
-      </c>
-      <c r="M144" t="inlineStr"/>
+      <c r="J144" t="inlineStr"/>
+      <c r="K144" t="n">
+        <v>1</v>
+      </c>
+      <c r="L144" t="inlineStr"/>
     </row>
     <row r="145">
       <c r="A145" s="1" t="n">
@@ -6013,24 +5197,15 @@
         <v>3350</v>
       </c>
       <c r="G145" t="n">
-        <v>5804120.056115499</v>
-      </c>
-      <c r="H145" t="n">
-        <v>0</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="H145" t="inlineStr"/>
       <c r="I145" t="inlineStr"/>
-      <c r="J145" t="n">
-        <v>11.3</v>
-      </c>
-      <c r="K145" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L145" t="n">
-        <v>1</v>
-      </c>
-      <c r="M145" t="inlineStr"/>
+      <c r="J145" t="inlineStr"/>
+      <c r="K145" t="n">
+        <v>1</v>
+      </c>
+      <c r="L145" t="inlineStr"/>
     </row>
     <row r="146">
       <c r="A146" s="1" t="n">
@@ -6052,24 +5227,15 @@
         <v>25869.7773</v>
       </c>
       <c r="G146" t="n">
-        <v>5778250.278815499</v>
-      </c>
-      <c r="H146" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H146" t="inlineStr"/>
       <c r="I146" t="inlineStr"/>
-      <c r="J146" t="n">
-        <v>11.3</v>
-      </c>
-      <c r="K146" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L146" t="n">
-        <v>1</v>
-      </c>
-      <c r="M146" t="inlineStr"/>
+      <c r="J146" t="inlineStr"/>
+      <c r="K146" t="n">
+        <v>1</v>
+      </c>
+      <c r="L146" t="inlineStr"/>
     </row>
     <row r="147">
       <c r="A147" s="1" t="n">
@@ -6091,24 +5257,15 @@
         <v>2303.2476</v>
       </c>
       <c r="G147" t="n">
-        <v>5780553.526415499</v>
-      </c>
-      <c r="H147" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H147" t="inlineStr"/>
       <c r="I147" t="inlineStr"/>
-      <c r="J147" t="n">
-        <v>11.3</v>
-      </c>
-      <c r="K147" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L147" t="n">
-        <v>1</v>
-      </c>
-      <c r="M147" t="inlineStr"/>
+      <c r="J147" t="inlineStr"/>
+      <c r="K147" t="n">
+        <v>1</v>
+      </c>
+      <c r="L147" t="inlineStr"/>
     </row>
     <row r="148">
       <c r="A148" s="1" t="n">
@@ -6130,24 +5287,15 @@
         <v>5819.577</v>
       </c>
       <c r="G148" t="n">
-        <v>5780553.526415499</v>
-      </c>
-      <c r="H148" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H148" t="inlineStr"/>
       <c r="I148" t="inlineStr"/>
-      <c r="J148" t="n">
-        <v>11.3</v>
-      </c>
-      <c r="K148" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L148" t="n">
-        <v>1</v>
-      </c>
-      <c r="M148" t="inlineStr"/>
+      <c r="J148" t="inlineStr"/>
+      <c r="K148" t="n">
+        <v>1</v>
+      </c>
+      <c r="L148" t="inlineStr"/>
     </row>
     <row r="149">
       <c r="A149" s="1" t="n">
@@ -6169,24 +5317,15 @@
         <v>189553.5962</v>
       </c>
       <c r="G149" t="n">
-        <v>5590999.930215499</v>
-      </c>
-      <c r="H149" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H149" t="inlineStr"/>
       <c r="I149" t="inlineStr"/>
-      <c r="J149" t="n">
-        <v>11.3</v>
-      </c>
-      <c r="K149" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L149" t="n">
-        <v>1</v>
-      </c>
-      <c r="M149" t="inlineStr"/>
+      <c r="J149" t="inlineStr"/>
+      <c r="K149" t="n">
+        <v>1</v>
+      </c>
+      <c r="L149" t="inlineStr"/>
     </row>
     <row r="150">
       <c r="A150" s="1" t="n">
@@ -6208,24 +5347,15 @@
         <v>9946.4038</v>
       </c>
       <c r="G150" t="n">
-        <v>5590999.930215499</v>
-      </c>
-      <c r="H150" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H150" t="inlineStr"/>
       <c r="I150" t="inlineStr"/>
-      <c r="J150" t="n">
-        <v>11.3</v>
-      </c>
-      <c r="K150" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L150" t="n">
-        <v>1</v>
-      </c>
-      <c r="M150" t="inlineStr"/>
+      <c r="J150" t="inlineStr"/>
+      <c r="K150" t="n">
+        <v>1</v>
+      </c>
+      <c r="L150" t="inlineStr"/>
     </row>
     <row r="151">
       <c r="A151" s="1" t="n">
@@ -6247,24 +5377,15 @@
         <v>210</v>
       </c>
       <c r="G151" t="n">
-        <v>5591209.930215499</v>
-      </c>
-      <c r="H151" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H151" t="inlineStr"/>
       <c r="I151" t="inlineStr"/>
-      <c r="J151" t="n">
-        <v>11.3</v>
-      </c>
-      <c r="K151" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L151" t="n">
-        <v>1</v>
-      </c>
-      <c r="M151" t="inlineStr"/>
+      <c r="J151" t="inlineStr"/>
+      <c r="K151" t="n">
+        <v>1</v>
+      </c>
+      <c r="L151" t="inlineStr"/>
     </row>
     <row r="152">
       <c r="A152" s="1" t="n">
@@ -6286,24 +5407,15 @@
         <v>80376.11629999999</v>
       </c>
       <c r="G152" t="n">
-        <v>5510833.813915499</v>
-      </c>
-      <c r="H152" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H152" t="inlineStr"/>
       <c r="I152" t="inlineStr"/>
-      <c r="J152" t="n">
-        <v>11.3</v>
-      </c>
-      <c r="K152" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L152" t="n">
-        <v>1</v>
-      </c>
-      <c r="M152" t="inlineStr"/>
+      <c r="J152" t="inlineStr"/>
+      <c r="K152" t="n">
+        <v>1</v>
+      </c>
+      <c r="L152" t="inlineStr"/>
     </row>
     <row r="153">
       <c r="A153" s="1" t="n">
@@ -6325,26 +5437,15 @@
         <v>42788.99898677686</v>
       </c>
       <c r="G153" t="n">
-        <v>5553622.812902276</v>
-      </c>
-      <c r="H153" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H153" t="inlineStr"/>
       <c r="I153" t="inlineStr"/>
-      <c r="J153" t="n">
-        <v>11.3</v>
-      </c>
-      <c r="K153" t="inlineStr">
-        <is>
-          <t>매도 체결</t>
-        </is>
-      </c>
-      <c r="L153" t="n">
-        <v>1.065796460176991</v>
-      </c>
-      <c r="M153" t="n">
-        <v>1.017857142857143</v>
-      </c>
+      <c r="J153" t="inlineStr"/>
+      <c r="K153" t="n">
+        <v>1</v>
+      </c>
+      <c r="L153" t="inlineStr"/>
     </row>
     <row r="154">
       <c r="A154" s="1" t="n">
@@ -6366,18 +5467,15 @@
         <v>31119.63199173554</v>
       </c>
       <c r="G154" t="n">
-        <v>5553622.812902276</v>
-      </c>
-      <c r="H154" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H154" t="inlineStr"/>
       <c r="I154" t="inlineStr"/>
       <c r="J154" t="inlineStr"/>
-      <c r="K154" t="inlineStr"/>
-      <c r="L154" t="n">
-        <v>1</v>
-      </c>
-      <c r="M154" t="inlineStr"/>
+      <c r="K154" t="n">
+        <v>1</v>
+      </c>
+      <c r="L154" t="inlineStr"/>
     </row>
     <row r="155">
       <c r="A155" s="1" t="n">
@@ -6399,18 +5497,15 @@
         <v>63340.8259</v>
       </c>
       <c r="G155" t="n">
-        <v>5490281.987002277</v>
-      </c>
-      <c r="H155" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H155" t="inlineStr"/>
       <c r="I155" t="inlineStr"/>
       <c r="J155" t="inlineStr"/>
-      <c r="K155" t="inlineStr"/>
-      <c r="L155" t="n">
-        <v>1</v>
-      </c>
-      <c r="M155" t="inlineStr"/>
+      <c r="K155" t="n">
+        <v>1</v>
+      </c>
+      <c r="L155" t="inlineStr"/>
     </row>
     <row r="156">
       <c r="A156" s="1" t="n">
@@ -6432,18 +5527,15 @@
         <v>29649.5695</v>
       </c>
       <c r="G156" t="n">
-        <v>5460632.417502277</v>
-      </c>
-      <c r="H156" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H156" t="inlineStr"/>
       <c r="I156" t="inlineStr"/>
       <c r="J156" t="inlineStr"/>
-      <c r="K156" t="inlineStr"/>
-      <c r="L156" t="n">
-        <v>1</v>
-      </c>
-      <c r="M156" t="inlineStr"/>
+      <c r="K156" t="n">
+        <v>1</v>
+      </c>
+      <c r="L156" t="inlineStr"/>
     </row>
     <row r="157">
       <c r="A157" s="1" t="n">
@@ -6465,18 +5557,15 @@
         <v>23602.5531</v>
       </c>
       <c r="G157" t="n">
-        <v>5460632.417502277</v>
-      </c>
-      <c r="H157" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H157" t="inlineStr"/>
       <c r="I157" t="inlineStr"/>
       <c r="J157" t="inlineStr"/>
-      <c r="K157" t="inlineStr"/>
-      <c r="L157" t="n">
-        <v>1</v>
-      </c>
-      <c r="M157" t="inlineStr"/>
+      <c r="K157" t="n">
+        <v>1</v>
+      </c>
+      <c r="L157" t="inlineStr"/>
     </row>
     <row r="158">
       <c r="A158" s="1" t="n">
@@ -6498,18 +5587,15 @@
         <v>24718.9033</v>
       </c>
       <c r="G158" t="n">
-        <v>5460632.417502277</v>
-      </c>
-      <c r="H158" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H158" t="inlineStr"/>
       <c r="I158" t="inlineStr"/>
       <c r="J158" t="inlineStr"/>
-      <c r="K158" t="inlineStr"/>
-      <c r="L158" t="n">
-        <v>1</v>
-      </c>
-      <c r="M158" t="inlineStr"/>
+      <c r="K158" t="n">
+        <v>1</v>
+      </c>
+      <c r="L158" t="inlineStr"/>
     </row>
     <row r="159">
       <c r="A159" s="1" t="n">
@@ -6531,18 +5617,15 @@
         <v>25652.1657</v>
       </c>
       <c r="G159" t="n">
-        <v>5460632.417502277</v>
-      </c>
-      <c r="H159" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H159" t="inlineStr"/>
       <c r="I159" t="inlineStr"/>
       <c r="J159" t="inlineStr"/>
-      <c r="K159" t="inlineStr"/>
-      <c r="L159" t="n">
-        <v>1</v>
-      </c>
-      <c r="M159" t="inlineStr"/>
+      <c r="K159" t="n">
+        <v>1</v>
+      </c>
+      <c r="L159" t="inlineStr"/>
     </row>
     <row r="160">
       <c r="A160" s="1" t="n">
@@ -6564,18 +5647,15 @@
         <v>8333.3334</v>
       </c>
       <c r="G160" t="n">
-        <v>5468965.750902276</v>
-      </c>
-      <c r="H160" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H160" t="inlineStr"/>
       <c r="I160" t="inlineStr"/>
       <c r="J160" t="inlineStr"/>
-      <c r="K160" t="inlineStr"/>
-      <c r="L160" t="n">
-        <v>1</v>
-      </c>
-      <c r="M160" t="inlineStr"/>
+      <c r="K160" t="n">
+        <v>1</v>
+      </c>
+      <c r="L160" t="inlineStr"/>
     </row>
     <row r="161">
       <c r="A161" s="1" t="n">
@@ -6597,18 +5677,15 @@
         <v>1591.9618</v>
       </c>
       <c r="G161" t="n">
-        <v>5467373.789102277</v>
-      </c>
-      <c r="H161" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H161" t="inlineStr"/>
       <c r="I161" t="inlineStr"/>
       <c r="J161" t="inlineStr"/>
-      <c r="K161" t="inlineStr"/>
-      <c r="L161" t="n">
-        <v>1</v>
-      </c>
-      <c r="M161" t="inlineStr"/>
+      <c r="K161" t="n">
+        <v>1</v>
+      </c>
+      <c r="L161" t="inlineStr"/>
     </row>
     <row r="162">
       <c r="A162" s="1" t="n">
@@ -6630,18 +5707,15 @@
         <v>117.7310924369748</v>
       </c>
       <c r="G162" t="n">
-        <v>5467373.789102277</v>
-      </c>
-      <c r="H162" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H162" t="inlineStr"/>
       <c r="I162" t="inlineStr"/>
       <c r="J162" t="inlineStr"/>
-      <c r="K162" t="inlineStr"/>
-      <c r="L162" t="n">
-        <v>1</v>
-      </c>
-      <c r="M162" t="inlineStr"/>
+      <c r="K162" t="n">
+        <v>1</v>
+      </c>
+      <c r="L162" t="inlineStr"/>
     </row>
     <row r="163">
       <c r="A163" s="1" t="n">
@@ -6663,18 +5737,15 @@
         <v>117.8151260504202</v>
       </c>
       <c r="G163" t="n">
-        <v>5467373.789102277</v>
-      </c>
-      <c r="H163" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H163" t="inlineStr"/>
       <c r="I163" t="inlineStr"/>
       <c r="J163" t="inlineStr"/>
-      <c r="K163" t="inlineStr"/>
-      <c r="L163" t="n">
-        <v>1</v>
-      </c>
-      <c r="M163" t="inlineStr"/>
+      <c r="K163" t="n">
+        <v>1</v>
+      </c>
+      <c r="L163" t="inlineStr"/>
     </row>
     <row r="164">
       <c r="A164" s="1" t="n">
@@ -6696,18 +5767,15 @@
         <v>4948.4236</v>
       </c>
       <c r="G164" t="n">
-        <v>5462425.365502276</v>
-      </c>
-      <c r="H164" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H164" t="inlineStr"/>
       <c r="I164" t="inlineStr"/>
       <c r="J164" t="inlineStr"/>
-      <c r="K164" t="inlineStr"/>
-      <c r="L164" t="n">
-        <v>1</v>
-      </c>
-      <c r="M164" t="inlineStr"/>
+      <c r="K164" t="n">
+        <v>1</v>
+      </c>
+      <c r="L164" t="inlineStr"/>
     </row>
     <row r="165">
       <c r="A165" s="1" t="n">
@@ -6729,18 +5797,15 @@
         <v>146865</v>
       </c>
       <c r="G165" t="n">
-        <v>5462425.365502276</v>
-      </c>
-      <c r="H165" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H165" t="inlineStr"/>
       <c r="I165" t="inlineStr"/>
       <c r="J165" t="inlineStr"/>
-      <c r="K165" t="inlineStr"/>
-      <c r="L165" t="n">
-        <v>1</v>
-      </c>
-      <c r="M165" t="inlineStr"/>
+      <c r="K165" t="n">
+        <v>1</v>
+      </c>
+      <c r="L165" t="inlineStr"/>
     </row>
     <row r="166">
       <c r="A166" s="1" t="n">
@@ -6762,18 +5827,15 @@
         <v>270316.671</v>
       </c>
       <c r="G166" t="n">
-        <v>5192108.694502276</v>
-      </c>
-      <c r="H166" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H166" t="inlineStr"/>
       <c r="I166" t="inlineStr"/>
       <c r="J166" t="inlineStr"/>
-      <c r="K166" t="inlineStr"/>
-      <c r="L166" t="n">
-        <v>1</v>
-      </c>
-      <c r="M166" t="inlineStr"/>
+      <c r="K166" t="n">
+        <v>1</v>
+      </c>
+      <c r="L166" t="inlineStr"/>
     </row>
     <row r="167">
       <c r="A167" s="1" t="n">
@@ -6795,18 +5857,15 @@
         <v>100000</v>
       </c>
       <c r="G167" t="n">
-        <v>5192108.694502276</v>
-      </c>
-      <c r="H167" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H167" t="inlineStr"/>
       <c r="I167" t="inlineStr"/>
       <c r="J167" t="inlineStr"/>
-      <c r="K167" t="inlineStr"/>
-      <c r="L167" t="n">
-        <v>1</v>
-      </c>
-      <c r="M167" t="inlineStr"/>
+      <c r="K167" t="n">
+        <v>1</v>
+      </c>
+      <c r="L167" t="inlineStr"/>
     </row>
     <row r="168">
       <c r="A168" s="1" t="n">
@@ -6828,18 +5887,15 @@
         <v>100000</v>
       </c>
       <c r="G168" t="n">
-        <v>5192108.694502276</v>
-      </c>
-      <c r="H168" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H168" t="inlineStr"/>
       <c r="I168" t="inlineStr"/>
       <c r="J168" t="inlineStr"/>
-      <c r="K168" t="inlineStr"/>
-      <c r="L168" t="n">
-        <v>1</v>
-      </c>
-      <c r="M168" t="inlineStr"/>
+      <c r="K168" t="n">
+        <v>1</v>
+      </c>
+      <c r="L168" t="inlineStr"/>
     </row>
     <row r="169">
       <c r="A169" s="1" t="n">
@@ -6861,18 +5917,15 @@
         <v>74084.7746</v>
       </c>
       <c r="G169" t="n">
-        <v>5192108.694502276</v>
-      </c>
-      <c r="H169" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H169" t="inlineStr"/>
       <c r="I169" t="inlineStr"/>
       <c r="J169" t="inlineStr"/>
-      <c r="K169" t="inlineStr"/>
-      <c r="L169" t="n">
-        <v>1</v>
-      </c>
-      <c r="M169" t="inlineStr"/>
+      <c r="K169" t="n">
+        <v>1</v>
+      </c>
+      <c r="L169" t="inlineStr"/>
     </row>
     <row r="170">
       <c r="A170" s="1" t="n">
@@ -6894,18 +5947,15 @@
         <v>9014.7901</v>
       </c>
       <c r="G170" t="n">
-        <v>5201123.484602276</v>
-      </c>
-      <c r="H170" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H170" t="inlineStr"/>
       <c r="I170" t="inlineStr"/>
       <c r="J170" t="inlineStr"/>
-      <c r="K170" t="inlineStr"/>
-      <c r="L170" t="n">
-        <v>1</v>
-      </c>
-      <c r="M170" t="inlineStr"/>
+      <c r="K170" t="n">
+        <v>1</v>
+      </c>
+      <c r="L170" t="inlineStr"/>
     </row>
     <row r="171">
       <c r="A171" s="1" t="n">
@@ -6927,18 +5977,15 @@
         <v>100</v>
       </c>
       <c r="G171" t="n">
-        <v>5201123.484602276</v>
-      </c>
-      <c r="H171" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H171" t="inlineStr"/>
       <c r="I171" t="inlineStr"/>
       <c r="J171" t="inlineStr"/>
-      <c r="K171" t="inlineStr"/>
-      <c r="L171" t="n">
-        <v>1</v>
-      </c>
-      <c r="M171" t="inlineStr"/>
+      <c r="K171" t="n">
+        <v>1</v>
+      </c>
+      <c r="L171" t="inlineStr"/>
     </row>
     <row r="172">
       <c r="A172" s="1" t="n">
@@ -6960,18 +6007,15 @@
         <v>3360</v>
       </c>
       <c r="G172" t="n">
-        <v>5201123.484602276</v>
-      </c>
-      <c r="H172" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H172" t="inlineStr"/>
       <c r="I172" t="inlineStr"/>
       <c r="J172" t="inlineStr"/>
-      <c r="K172" t="inlineStr"/>
-      <c r="L172" t="n">
-        <v>1</v>
-      </c>
-      <c r="M172" t="inlineStr"/>
+      <c r="K172" t="n">
+        <v>1</v>
+      </c>
+      <c r="L172" t="inlineStr"/>
     </row>
     <row r="173">
       <c r="A173" s="1" t="n">
@@ -6993,18 +6037,15 @@
         <v>8301.961799999999</v>
       </c>
       <c r="G173" t="n">
-        <v>5192821.522802277</v>
-      </c>
-      <c r="H173" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H173" t="inlineStr"/>
       <c r="I173" t="inlineStr"/>
       <c r="J173" t="inlineStr"/>
-      <c r="K173" t="inlineStr"/>
-      <c r="L173" t="n">
-        <v>1</v>
-      </c>
-      <c r="M173" t="inlineStr"/>
+      <c r="K173" t="n">
+        <v>1</v>
+      </c>
+      <c r="L173" t="inlineStr"/>
     </row>
     <row r="174">
       <c r="A174" s="1" t="n">
@@ -7026,18 +6067,15 @@
         <v>1590</v>
       </c>
       <c r="G174" t="n">
-        <v>5194411.522802277</v>
-      </c>
-      <c r="H174" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H174" t="inlineStr"/>
       <c r="I174" t="inlineStr"/>
       <c r="J174" t="inlineStr"/>
-      <c r="K174" t="inlineStr"/>
-      <c r="L174" t="n">
-        <v>1</v>
-      </c>
-      <c r="M174" t="inlineStr"/>
+      <c r="K174" t="n">
+        <v>1</v>
+      </c>
+      <c r="L174" t="inlineStr"/>
     </row>
     <row r="175">
       <c r="A175" s="1" t="n">
@@ -7059,18 +6097,15 @@
         <v>100000</v>
       </c>
       <c r="G175" t="n">
-        <v>5194411.522802277</v>
-      </c>
-      <c r="H175" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H175" t="inlineStr"/>
       <c r="I175" t="inlineStr"/>
       <c r="J175" t="inlineStr"/>
-      <c r="K175" t="inlineStr"/>
-      <c r="L175" t="n">
-        <v>1</v>
-      </c>
-      <c r="M175" t="inlineStr"/>
+      <c r="K175" t="n">
+        <v>1</v>
+      </c>
+      <c r="L175" t="inlineStr"/>
     </row>
     <row r="176">
       <c r="A176" s="1" t="n">
@@ -7092,18 +6127,15 @@
         <v>21436.8989</v>
       </c>
       <c r="G176" t="n">
-        <v>5172974.623902276</v>
-      </c>
-      <c r="H176" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H176" t="inlineStr"/>
       <c r="I176" t="inlineStr"/>
       <c r="J176" t="inlineStr"/>
-      <c r="K176" t="inlineStr"/>
-      <c r="L176" t="n">
-        <v>1</v>
-      </c>
-      <c r="M176" t="inlineStr"/>
+      <c r="K176" t="n">
+        <v>1</v>
+      </c>
+      <c r="L176" t="inlineStr"/>
     </row>
     <row r="177">
       <c r="A177" s="1" t="n">
@@ -7125,18 +6157,15 @@
         <v>80546.3033</v>
       </c>
       <c r="G177" t="n">
-        <v>5172974.623902276</v>
-      </c>
-      <c r="H177" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H177" t="inlineStr"/>
       <c r="I177" t="inlineStr"/>
       <c r="J177" t="inlineStr"/>
-      <c r="K177" t="inlineStr"/>
-      <c r="L177" t="n">
-        <v>1</v>
-      </c>
-      <c r="M177" t="inlineStr"/>
+      <c r="K177" t="n">
+        <v>1</v>
+      </c>
+      <c r="L177" t="inlineStr"/>
     </row>
     <row r="178">
       <c r="A178" s="1" t="n">
@@ -7158,18 +6187,15 @@
         <v>235.5462</v>
       </c>
       <c r="G178" t="n">
-        <v>5172739.077702276</v>
-      </c>
-      <c r="H178" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H178" t="inlineStr"/>
       <c r="I178" t="inlineStr"/>
       <c r="J178" t="inlineStr"/>
-      <c r="K178" t="inlineStr"/>
-      <c r="L178" t="n">
-        <v>1</v>
-      </c>
-      <c r="M178" t="inlineStr"/>
+      <c r="K178" t="n">
+        <v>1</v>
+      </c>
+      <c r="L178" t="inlineStr"/>
     </row>
     <row r="179">
       <c r="A179" s="1" t="n">
@@ -7191,18 +6217,15 @@
         <v>8696.2371</v>
       </c>
       <c r="G179" t="n">
-        <v>5172739.077702276</v>
-      </c>
-      <c r="H179" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H179" t="inlineStr"/>
       <c r="I179" t="inlineStr"/>
       <c r="J179" t="inlineStr"/>
-      <c r="K179" t="inlineStr"/>
-      <c r="L179" t="n">
-        <v>1</v>
-      </c>
-      <c r="M179" t="inlineStr"/>
+      <c r="K179" t="n">
+        <v>1</v>
+      </c>
+      <c r="L179" t="inlineStr"/>
     </row>
     <row r="180">
       <c r="A180" s="1" t="n">
@@ -7224,18 +6247,15 @@
         <v>75906.85980000001</v>
       </c>
       <c r="G180" t="n">
-        <v>5172739.077702276</v>
-      </c>
-      <c r="H180" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H180" t="inlineStr"/>
       <c r="I180" t="inlineStr"/>
       <c r="J180" t="inlineStr"/>
-      <c r="K180" t="inlineStr"/>
-      <c r="L180" t="n">
-        <v>1</v>
-      </c>
-      <c r="M180" t="inlineStr"/>
+      <c r="K180" t="n">
+        <v>1</v>
+      </c>
+      <c r="L180" t="inlineStr"/>
     </row>
     <row r="181">
       <c r="A181" s="1" t="n">
@@ -7257,18 +6277,15 @@
         <v>4201.6807</v>
       </c>
       <c r="G181" t="n">
-        <v>5172739.077702276</v>
-      </c>
-      <c r="H181" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H181" t="inlineStr"/>
       <c r="I181" t="inlineStr"/>
       <c r="J181" t="inlineStr"/>
-      <c r="K181" t="inlineStr"/>
-      <c r="L181" t="n">
-        <v>1</v>
-      </c>
-      <c r="M181" t="inlineStr"/>
+      <c r="K181" t="n">
+        <v>1</v>
+      </c>
+      <c r="L181" t="inlineStr"/>
     </row>
     <row r="182">
       <c r="A182" s="1" t="n">
@@ -7290,18 +6307,15 @@
         <v>5000</v>
       </c>
       <c r="G182" t="n">
-        <v>5177739.077702276</v>
-      </c>
-      <c r="H182" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H182" t="inlineStr"/>
       <c r="I182" t="inlineStr"/>
       <c r="J182" t="inlineStr"/>
-      <c r="K182" t="inlineStr"/>
-      <c r="L182" t="n">
-        <v>1</v>
-      </c>
-      <c r="M182" t="inlineStr"/>
+      <c r="K182" t="n">
+        <v>1</v>
+      </c>
+      <c r="L182" t="inlineStr"/>
     </row>
     <row r="183">
       <c r="A183" s="1" t="n">
@@ -7323,18 +6337,15 @@
         <v>13163.9409</v>
       </c>
       <c r="G183" t="n">
-        <v>5177739.077702276</v>
-      </c>
-      <c r="H183" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H183" t="inlineStr"/>
       <c r="I183" t="inlineStr"/>
       <c r="J183" t="inlineStr"/>
-      <c r="K183" t="inlineStr"/>
-      <c r="L183" t="n">
-        <v>1</v>
-      </c>
-      <c r="M183" t="inlineStr"/>
+      <c r="K183" t="n">
+        <v>1</v>
+      </c>
+      <c r="L183" t="inlineStr"/>
     </row>
     <row r="184">
       <c r="A184" s="1" t="n">
@@ -7356,18 +6367,15 @@
         <v>33000</v>
       </c>
       <c r="G184" t="n">
-        <v>5177739.077702276</v>
-      </c>
-      <c r="H184" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H184" t="inlineStr"/>
       <c r="I184" t="inlineStr"/>
       <c r="J184" t="inlineStr"/>
-      <c r="K184" t="inlineStr"/>
-      <c r="L184" t="n">
-        <v>1</v>
-      </c>
-      <c r="M184" t="inlineStr"/>
+      <c r="K184" t="n">
+        <v>1</v>
+      </c>
+      <c r="L184" t="inlineStr"/>
     </row>
     <row r="185">
       <c r="A185" s="1" t="n">
@@ -7389,18 +6397,15 @@
         <v>10950.3295</v>
       </c>
       <c r="G185" t="n">
-        <v>5177739.077702276</v>
-      </c>
-      <c r="H185" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H185" t="inlineStr"/>
       <c r="I185" t="inlineStr"/>
       <c r="J185" t="inlineStr"/>
-      <c r="K185" t="inlineStr"/>
-      <c r="L185" t="n">
-        <v>1</v>
-      </c>
-      <c r="M185" t="inlineStr"/>
+      <c r="K185" t="n">
+        <v>1</v>
+      </c>
+      <c r="L185" t="inlineStr"/>
     </row>
     <row r="186">
       <c r="A186" s="1" t="n">
@@ -7422,18 +6427,15 @@
         <v>177882.793</v>
       </c>
       <c r="G186" t="n">
-        <v>4999856.284702277</v>
-      </c>
-      <c r="H186" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H186" t="inlineStr"/>
       <c r="I186" t="inlineStr"/>
       <c r="J186" t="inlineStr"/>
-      <c r="K186" t="inlineStr"/>
-      <c r="L186" t="n">
-        <v>1</v>
-      </c>
-      <c r="M186" t="inlineStr"/>
+      <c r="K186" t="n">
+        <v>1</v>
+      </c>
+      <c r="L186" t="inlineStr"/>
     </row>
     <row r="187">
       <c r="A187" s="1" t="n">
@@ -7455,18 +6457,15 @@
         <v>4300</v>
       </c>
       <c r="G187" t="n">
-        <v>4999856.284702277</v>
-      </c>
-      <c r="H187" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H187" t="inlineStr"/>
       <c r="I187" t="inlineStr"/>
       <c r="J187" t="inlineStr"/>
-      <c r="K187" t="inlineStr"/>
-      <c r="L187" t="n">
-        <v>1</v>
-      </c>
-      <c r="M187" t="inlineStr"/>
+      <c r="K187" t="n">
+        <v>1</v>
+      </c>
+      <c r="L187" t="inlineStr"/>
     </row>
     <row r="188">
       <c r="A188" s="1" t="n">
@@ -7488,18 +6487,15 @@
         <v>1100</v>
       </c>
       <c r="G188" t="n">
-        <v>5000956.284702277</v>
-      </c>
-      <c r="H188" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H188" t="inlineStr"/>
       <c r="I188" t="inlineStr"/>
       <c r="J188" t="inlineStr"/>
-      <c r="K188" t="inlineStr"/>
-      <c r="L188" t="n">
-        <v>1</v>
-      </c>
-      <c r="M188" t="inlineStr"/>
+      <c r="K188" t="n">
+        <v>1</v>
+      </c>
+      <c r="L188" t="inlineStr"/>
     </row>
     <row r="189">
       <c r="A189" s="1" t="n">
@@ -7521,18 +6517,15 @@
         <v>97127.8533</v>
       </c>
       <c r="G189" t="n">
-        <v>5000956.284702277</v>
-      </c>
-      <c r="H189" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H189" t="inlineStr"/>
       <c r="I189" t="inlineStr"/>
       <c r="J189" t="inlineStr"/>
-      <c r="K189" t="inlineStr"/>
-      <c r="L189" t="n">
-        <v>1</v>
-      </c>
-      <c r="M189" t="inlineStr"/>
+      <c r="K189" t="n">
+        <v>1</v>
+      </c>
+      <c r="L189" t="inlineStr"/>
     </row>
     <row r="190">
       <c r="A190" s="1" t="n">
@@ -7554,18 +6547,15 @@
         <v>11170</v>
       </c>
       <c r="G190" t="n">
-        <v>5012126.284702277</v>
-      </c>
-      <c r="H190" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H190" t="inlineStr"/>
       <c r="I190" t="inlineStr"/>
       <c r="J190" t="inlineStr"/>
-      <c r="K190" t="inlineStr"/>
-      <c r="L190" t="n">
-        <v>1</v>
-      </c>
-      <c r="M190" t="inlineStr"/>
+      <c r="K190" t="n">
+        <v>1</v>
+      </c>
+      <c r="L190" t="inlineStr"/>
     </row>
     <row r="191">
       <c r="A191" s="1" t="n">
@@ -7587,18 +6577,15 @@
         <v>80906.7314</v>
       </c>
       <c r="G191" t="n">
-        <v>5093033.016102277</v>
-      </c>
-      <c r="H191" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H191" t="inlineStr"/>
       <c r="I191" t="inlineStr"/>
       <c r="J191" t="inlineStr"/>
-      <c r="K191" t="inlineStr"/>
-      <c r="L191" t="n">
-        <v>1</v>
-      </c>
-      <c r="M191" t="inlineStr"/>
+      <c r="K191" t="n">
+        <v>1</v>
+      </c>
+      <c r="L191" t="inlineStr"/>
     </row>
     <row r="192">
       <c r="A192" s="1" t="n">
@@ -7620,18 +6607,15 @@
         <v>100</v>
       </c>
       <c r="G192" t="n">
-        <v>5092933.016102277</v>
-      </c>
-      <c r="H192" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H192" t="inlineStr"/>
       <c r="I192" t="inlineStr"/>
       <c r="J192" t="inlineStr"/>
-      <c r="K192" t="inlineStr"/>
-      <c r="L192" t="n">
-        <v>1</v>
-      </c>
-      <c r="M192" t="inlineStr"/>
+      <c r="K192" t="n">
+        <v>1</v>
+      </c>
+      <c r="L192" t="inlineStr"/>
     </row>
     <row r="193">
       <c r="A193" s="1" t="n">
@@ -7653,18 +6637,15 @@
         <v>1000</v>
       </c>
       <c r="G193" t="n">
-        <v>5092933.016102277</v>
-      </c>
-      <c r="H193" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H193" t="inlineStr"/>
       <c r="I193" t="inlineStr"/>
       <c r="J193" t="inlineStr"/>
-      <c r="K193" t="inlineStr"/>
-      <c r="L193" t="n">
-        <v>1</v>
-      </c>
-      <c r="M193" t="inlineStr"/>
+      <c r="K193" t="n">
+        <v>1</v>
+      </c>
+      <c r="L193" t="inlineStr"/>
     </row>
     <row r="194">
       <c r="A194" s="1" t="n">
@@ -7686,18 +6667,15 @@
         <v>18228.795</v>
       </c>
       <c r="G194" t="n">
-        <v>5092933.016102277</v>
-      </c>
-      <c r="H194" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H194" t="inlineStr"/>
       <c r="I194" t="inlineStr"/>
       <c r="J194" t="inlineStr"/>
-      <c r="K194" t="inlineStr"/>
-      <c r="L194" t="n">
-        <v>1</v>
-      </c>
-      <c r="M194" t="inlineStr"/>
+      <c r="K194" t="n">
+        <v>1</v>
+      </c>
+      <c r="L194" t="inlineStr"/>
     </row>
     <row r="195">
       <c r="A195" s="1" t="n">
@@ -7719,18 +6697,15 @@
         <v>21771.205</v>
       </c>
       <c r="G195" t="n">
-        <v>5092933.016102277</v>
-      </c>
-      <c r="H195" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H195" t="inlineStr"/>
       <c r="I195" t="inlineStr"/>
       <c r="J195" t="inlineStr"/>
-      <c r="K195" t="inlineStr"/>
-      <c r="L195" t="n">
-        <v>1</v>
-      </c>
-      <c r="M195" t="inlineStr"/>
+      <c r="K195" t="n">
+        <v>1</v>
+      </c>
+      <c r="L195" t="inlineStr"/>
     </row>
     <row r="196">
       <c r="A196" s="1" t="n">
@@ -7752,18 +6727,15 @@
         <v>2200</v>
       </c>
       <c r="G196" t="n">
-        <v>5095133.016102277</v>
-      </c>
-      <c r="H196" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H196" t="inlineStr"/>
       <c r="I196" t="inlineStr"/>
       <c r="J196" t="inlineStr"/>
-      <c r="K196" t="inlineStr"/>
-      <c r="L196" t="n">
-        <v>1</v>
-      </c>
-      <c r="M196" t="inlineStr"/>
+      <c r="K196" t="n">
+        <v>1</v>
+      </c>
+      <c r="L196" t="inlineStr"/>
     </row>
     <row r="197">
       <c r="A197" s="1" t="n">
@@ -7785,18 +6757,15 @@
         <v>908.5016000000001</v>
       </c>
       <c r="G197" t="n">
-        <v>5095133.016102277</v>
-      </c>
-      <c r="H197" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H197" t="inlineStr"/>
       <c r="I197" t="inlineStr"/>
       <c r="J197" t="inlineStr"/>
-      <c r="K197" t="inlineStr"/>
-      <c r="L197" t="n">
-        <v>1</v>
-      </c>
-      <c r="M197" t="inlineStr"/>
+      <c r="K197" t="n">
+        <v>1</v>
+      </c>
+      <c r="L197" t="inlineStr"/>
     </row>
     <row r="198">
       <c r="A198" s="1" t="n">
@@ -7818,18 +6787,15 @@
         <v>346.3635</v>
       </c>
       <c r="G198" t="n">
-        <v>5095479.379602277</v>
-      </c>
-      <c r="H198" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H198" t="inlineStr"/>
       <c r="I198" t="inlineStr"/>
       <c r="J198" t="inlineStr"/>
-      <c r="K198" t="inlineStr"/>
-      <c r="L198" t="n">
-        <v>1</v>
-      </c>
-      <c r="M198" t="inlineStr"/>
+      <c r="K198" t="n">
+        <v>1</v>
+      </c>
+      <c r="L198" t="inlineStr"/>
     </row>
     <row r="199">
       <c r="A199" s="1" t="n">
@@ -7851,18 +6817,15 @@
         <v>215067.6921</v>
       </c>
       <c r="G199" t="n">
-        <v>5095479.379602277</v>
-      </c>
-      <c r="H199" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H199" t="inlineStr"/>
       <c r="I199" t="inlineStr"/>
       <c r="J199" t="inlineStr"/>
-      <c r="K199" t="inlineStr"/>
-      <c r="L199" t="n">
-        <v>1</v>
-      </c>
-      <c r="M199" t="inlineStr"/>
+      <c r="K199" t="n">
+        <v>1</v>
+      </c>
+      <c r="L199" t="inlineStr"/>
     </row>
     <row r="200">
       <c r="A200" s="1" t="n">
@@ -7884,18 +6847,15 @@
         <v>234400.0556</v>
       </c>
       <c r="G200" t="n">
-        <v>4861079.324002277</v>
-      </c>
-      <c r="H200" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H200" t="inlineStr"/>
       <c r="I200" t="inlineStr"/>
       <c r="J200" t="inlineStr"/>
-      <c r="K200" t="inlineStr"/>
-      <c r="L200" t="n">
-        <v>1</v>
-      </c>
-      <c r="M200" t="inlineStr"/>
+      <c r="K200" t="n">
+        <v>1</v>
+      </c>
+      <c r="L200" t="inlineStr"/>
     </row>
     <row r="201">
       <c r="A201" s="1" t="n">
@@ -7917,18 +6877,15 @@
         <v>38611.1969</v>
       </c>
       <c r="G201" t="n">
-        <v>4861079.324002277</v>
-      </c>
-      <c r="H201" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H201" t="inlineStr"/>
       <c r="I201" t="inlineStr"/>
       <c r="J201" t="inlineStr"/>
-      <c r="K201" t="inlineStr"/>
-      <c r="L201" t="n">
-        <v>1</v>
-      </c>
-      <c r="M201" t="inlineStr"/>
+      <c r="K201" t="n">
+        <v>1</v>
+      </c>
+      <c r="L201" t="inlineStr"/>
     </row>
     <row r="202">
       <c r="A202" s="1" t="n">
@@ -7950,18 +6907,15 @@
         <v>97673.49099999999</v>
       </c>
       <c r="G202" t="n">
-        <v>4958752.815002277</v>
-      </c>
-      <c r="H202" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H202" t="inlineStr"/>
       <c r="I202" t="inlineStr"/>
       <c r="J202" t="inlineStr"/>
-      <c r="K202" t="inlineStr"/>
-      <c r="L202" t="n">
-        <v>1</v>
-      </c>
-      <c r="M202" t="inlineStr"/>
+      <c r="K202" t="n">
+        <v>1</v>
+      </c>
+      <c r="L202" t="inlineStr"/>
     </row>
     <row r="203">
       <c r="A203" s="1" t="n">
@@ -7983,18 +6937,15 @@
         <v>32236.2036</v>
       </c>
       <c r="G203" t="n">
-        <v>4958752.815002277</v>
-      </c>
-      <c r="H203" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H203" t="inlineStr"/>
       <c r="I203" t="inlineStr"/>
       <c r="J203" t="inlineStr"/>
-      <c r="K203" t="inlineStr"/>
-      <c r="L203" t="n">
-        <v>1</v>
-      </c>
-      <c r="M203" t="inlineStr"/>
+      <c r="K203" t="n">
+        <v>1</v>
+      </c>
+      <c r="L203" t="inlineStr"/>
     </row>
     <row r="204">
       <c r="A204" s="1" t="n">
@@ -8016,18 +6967,15 @@
         <v>4201.680672268908</v>
       </c>
       <c r="G204" t="n">
-        <v>4958752.815002277</v>
-      </c>
-      <c r="H204" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H204" t="inlineStr"/>
       <c r="I204" t="inlineStr"/>
       <c r="J204" t="inlineStr"/>
-      <c r="K204" t="inlineStr"/>
-      <c r="L204" t="n">
-        <v>1</v>
-      </c>
-      <c r="M204" t="inlineStr"/>
+      <c r="K204" t="n">
+        <v>1</v>
+      </c>
+      <c r="L204" t="inlineStr"/>
     </row>
     <row r="205">
       <c r="A205" s="1" t="n">
@@ -8049,18 +6997,15 @@
         <v>25000</v>
       </c>
       <c r="G205" t="n">
-        <v>4933752.815002277</v>
-      </c>
-      <c r="H205" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H205" t="inlineStr"/>
       <c r="I205" t="inlineStr"/>
       <c r="J205" t="inlineStr"/>
-      <c r="K205" t="inlineStr"/>
-      <c r="L205" t="n">
-        <v>1</v>
-      </c>
-      <c r="M205" t="inlineStr"/>
+      <c r="K205" t="n">
+        <v>1</v>
+      </c>
+      <c r="L205" t="inlineStr"/>
     </row>
     <row r="206">
       <c r="A206" s="1" t="n">
@@ -8082,18 +7027,15 @@
         <v>26673.5393</v>
       </c>
       <c r="G206" t="n">
-        <v>4933752.815002277</v>
-      </c>
-      <c r="H206" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H206" t="inlineStr"/>
       <c r="I206" t="inlineStr"/>
       <c r="J206" t="inlineStr"/>
-      <c r="K206" t="inlineStr"/>
-      <c r="L206" t="n">
-        <v>1</v>
-      </c>
-      <c r="M206" t="inlineStr"/>
+      <c r="K206" t="n">
+        <v>1</v>
+      </c>
+      <c r="L206" t="inlineStr"/>
     </row>
     <row r="207">
       <c r="A207" s="1" t="n">
@@ -8115,18 +7057,15 @@
         <v>100</v>
       </c>
       <c r="G207" t="n">
-        <v>4933652.815002277</v>
-      </c>
-      <c r="H207" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H207" t="inlineStr"/>
       <c r="I207" t="inlineStr"/>
       <c r="J207" t="inlineStr"/>
-      <c r="K207" t="inlineStr"/>
-      <c r="L207" t="n">
-        <v>1</v>
-      </c>
-      <c r="M207" t="inlineStr"/>
+      <c r="K207" t="n">
+        <v>1</v>
+      </c>
+      <c r="L207" t="inlineStr"/>
     </row>
     <row r="208">
       <c r="A208" s="1" t="n">
@@ -8148,18 +7087,15 @@
         <v>4201.6807</v>
       </c>
       <c r="G208" t="n">
-        <v>4933652.815002277</v>
-      </c>
-      <c r="H208" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H208" t="inlineStr"/>
       <c r="I208" t="inlineStr"/>
       <c r="J208" t="inlineStr"/>
-      <c r="K208" t="inlineStr"/>
-      <c r="L208" t="n">
-        <v>1</v>
-      </c>
-      <c r="M208" t="inlineStr"/>
+      <c r="K208" t="n">
+        <v>1</v>
+      </c>
+      <c r="L208" t="inlineStr"/>
     </row>
     <row r="209">
       <c r="A209" s="1" t="n">
@@ -8181,18 +7117,15 @@
         <v>18152.8312</v>
       </c>
       <c r="G209" t="n">
-        <v>4951805.646202277</v>
-      </c>
-      <c r="H209" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H209" t="inlineStr"/>
       <c r="I209" t="inlineStr"/>
       <c r="J209" t="inlineStr"/>
-      <c r="K209" t="inlineStr"/>
-      <c r="L209" t="n">
-        <v>1</v>
-      </c>
-      <c r="M209" t="inlineStr"/>
+      <c r="K209" t="n">
+        <v>1</v>
+      </c>
+      <c r="L209" t="inlineStr"/>
     </row>
     <row r="210">
       <c r="A210" s="1" t="n">
@@ -8214,18 +7147,15 @@
         <v>88371.85649999999</v>
       </c>
       <c r="G210" t="n">
-        <v>4951805.646202277</v>
-      </c>
-      <c r="H210" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H210" t="inlineStr"/>
       <c r="I210" t="inlineStr"/>
       <c r="J210" t="inlineStr"/>
-      <c r="K210" t="inlineStr"/>
-      <c r="L210" t="n">
-        <v>1</v>
-      </c>
-      <c r="M210" t="inlineStr"/>
+      <c r="K210" t="n">
+        <v>1</v>
+      </c>
+      <c r="L210" t="inlineStr"/>
     </row>
     <row r="211">
       <c r="A211" s="1" t="n">
@@ -8247,18 +7177,15 @@
         <v>45978.7097</v>
       </c>
       <c r="G211" t="n">
-        <v>4951805.646202277</v>
-      </c>
-      <c r="H211" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H211" t="inlineStr"/>
       <c r="I211" t="inlineStr"/>
       <c r="J211" t="inlineStr"/>
-      <c r="K211" t="inlineStr"/>
-      <c r="L211" t="n">
-        <v>1</v>
-      </c>
-      <c r="M211" t="inlineStr"/>
+      <c r="K211" t="n">
+        <v>1</v>
+      </c>
+      <c r="L211" t="inlineStr"/>
     </row>
     <row r="212">
       <c r="A212" s="1" t="n">
@@ -8280,18 +7207,15 @@
         <v>23959.5487</v>
       </c>
       <c r="G212" t="n">
-        <v>4927846.097502277</v>
-      </c>
-      <c r="H212" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H212" t="inlineStr"/>
       <c r="I212" t="inlineStr"/>
       <c r="J212" t="inlineStr"/>
-      <c r="K212" t="inlineStr"/>
-      <c r="L212" t="n">
-        <v>1</v>
-      </c>
-      <c r="M212" t="inlineStr"/>
+      <c r="K212" t="n">
+        <v>1</v>
+      </c>
+      <c r="L212" t="inlineStr"/>
     </row>
     <row r="213">
       <c r="A213" s="1" t="n">
@@ -8313,18 +7237,15 @@
         <v>24965.0007</v>
       </c>
       <c r="G213" t="n">
-        <v>4927846.097502277</v>
-      </c>
-      <c r="H213" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H213" t="inlineStr"/>
       <c r="I213" t="inlineStr"/>
       <c r="J213" t="inlineStr"/>
-      <c r="K213" t="inlineStr"/>
-      <c r="L213" t="n">
-        <v>1</v>
-      </c>
-      <c r="M213" t="inlineStr"/>
+      <c r="K213" t="n">
+        <v>1</v>
+      </c>
+      <c r="L213" t="inlineStr"/>
     </row>
     <row r="214">
       <c r="A214" s="1" t="n">
@@ -8346,18 +7267,15 @@
         <v>4226.6613</v>
       </c>
       <c r="G214" t="n">
-        <v>4932072.758802277</v>
-      </c>
-      <c r="H214" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H214" t="inlineStr"/>
       <c r="I214" t="inlineStr"/>
       <c r="J214" t="inlineStr"/>
-      <c r="K214" t="inlineStr"/>
-      <c r="L214" t="n">
-        <v>1</v>
-      </c>
-      <c r="M214" t="inlineStr"/>
+      <c r="K214" t="n">
+        <v>1</v>
+      </c>
+      <c r="L214" t="inlineStr"/>
     </row>
     <row r="215">
       <c r="A215" s="1" t="n">
@@ -8379,18 +7297,15 @@
         <v>6079.6567</v>
       </c>
       <c r="G215" t="n">
-        <v>4932072.758802277</v>
-      </c>
-      <c r="H215" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H215" t="inlineStr"/>
       <c r="I215" t="inlineStr"/>
       <c r="J215" t="inlineStr"/>
-      <c r="K215" t="inlineStr"/>
-      <c r="L215" t="n">
-        <v>1</v>
-      </c>
-      <c r="M215" t="inlineStr"/>
+      <c r="K215" t="n">
+        <v>1</v>
+      </c>
+      <c r="L215" t="inlineStr"/>
     </row>
     <row r="216">
       <c r="A216" s="1" t="n">
@@ -8412,18 +7327,15 @@
         <v>4360</v>
       </c>
       <c r="G216" t="n">
-        <v>4932072.758802277</v>
-      </c>
-      <c r="H216" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H216" t="inlineStr"/>
       <c r="I216" t="inlineStr"/>
       <c r="J216" t="inlineStr"/>
-      <c r="K216" t="inlineStr"/>
-      <c r="L216" t="n">
-        <v>1</v>
-      </c>
-      <c r="M216" t="inlineStr"/>
+      <c r="K216" t="n">
+        <v>1</v>
+      </c>
+      <c r="L216" t="inlineStr"/>
     </row>
     <row r="217">
       <c r="A217" s="1" t="n">
@@ -8445,18 +7357,15 @@
         <v>298792.3166</v>
       </c>
       <c r="G217" t="n">
-        <v>4932072.758802277</v>
-      </c>
-      <c r="H217" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H217" t="inlineStr"/>
       <c r="I217" t="inlineStr"/>
       <c r="J217" t="inlineStr"/>
-      <c r="K217" t="inlineStr"/>
-      <c r="L217" t="n">
-        <v>1</v>
-      </c>
-      <c r="M217" t="inlineStr"/>
+      <c r="K217" t="n">
+        <v>1</v>
+      </c>
+      <c r="L217" t="inlineStr"/>
     </row>
     <row r="218">
       <c r="A218" s="1" t="n">
@@ -8478,18 +7387,15 @@
         <v>63287.2407</v>
       </c>
       <c r="G218" t="n">
-        <v>4932072.758802277</v>
-      </c>
-      <c r="H218" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H218" t="inlineStr"/>
       <c r="I218" t="inlineStr"/>
       <c r="J218" t="inlineStr"/>
-      <c r="K218" t="inlineStr"/>
-      <c r="L218" t="n">
-        <v>1</v>
-      </c>
-      <c r="M218" t="inlineStr"/>
+      <c r="K218" t="n">
+        <v>1</v>
+      </c>
+      <c r="L218" t="inlineStr"/>
     </row>
     <row r="219">
       <c r="A219" s="1" t="n">
@@ -8511,18 +7417,15 @@
         <v>30773.29091512605</v>
       </c>
       <c r="G219" t="n">
-        <v>4962846.049717403</v>
-      </c>
-      <c r="H219" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H219" t="inlineStr"/>
       <c r="I219" t="inlineStr"/>
       <c r="J219" t="inlineStr"/>
-      <c r="K219" t="inlineStr"/>
-      <c r="L219" t="n">
-        <v>1</v>
-      </c>
-      <c r="M219" t="inlineStr"/>
+      <c r="K219" t="n">
+        <v>1</v>
+      </c>
+      <c r="L219" t="inlineStr"/>
     </row>
     <row r="220">
       <c r="A220" s="1" t="n">
@@ -8544,18 +7447,15 @@
         <v>123781.9023848739</v>
       </c>
       <c r="G220" t="n">
-        <v>4839064.14733253</v>
-      </c>
-      <c r="H220" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H220" t="inlineStr"/>
       <c r="I220" t="inlineStr"/>
       <c r="J220" t="inlineStr"/>
-      <c r="K220" t="inlineStr"/>
-      <c r="L220" t="n">
-        <v>1</v>
-      </c>
-      <c r="M220" t="inlineStr"/>
+      <c r="K220" t="n">
+        <v>1</v>
+      </c>
+      <c r="L220" t="inlineStr"/>
     </row>
     <row r="221">
       <c r="A221" s="1" t="n">
@@ -8577,18 +7477,15 @@
         <v>171836.0471</v>
       </c>
       <c r="G221" t="n">
-        <v>4839064.14733253</v>
-      </c>
-      <c r="H221" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H221" t="inlineStr"/>
       <c r="I221" t="inlineStr"/>
       <c r="J221" t="inlineStr"/>
-      <c r="K221" t="inlineStr"/>
-      <c r="L221" t="n">
-        <v>1</v>
-      </c>
-      <c r="M221" t="inlineStr"/>
+      <c r="K221" t="n">
+        <v>1</v>
+      </c>
+      <c r="L221" t="inlineStr"/>
     </row>
     <row r="222">
       <c r="A222" s="1" t="n">
@@ -8610,18 +7507,15 @@
         <v>1.5126050420168e-05</v>
       </c>
       <c r="G222" t="n">
-        <v>4839064.14733253</v>
-      </c>
-      <c r="H222" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H222" t="inlineStr"/>
       <c r="I222" t="inlineStr"/>
       <c r="J222" t="inlineStr"/>
-      <c r="K222" t="inlineStr"/>
-      <c r="L222" t="n">
-        <v>1</v>
-      </c>
-      <c r="M222" t="inlineStr"/>
+      <c r="K222" t="n">
+        <v>1</v>
+      </c>
+      <c r="L222" t="inlineStr"/>
     </row>
     <row r="223">
       <c r="A223" s="1" t="n">
@@ -8643,18 +7537,15 @@
         <v>19132.62628487395</v>
       </c>
       <c r="G223" t="n">
-        <v>4839064.14733253</v>
-      </c>
-      <c r="H223" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H223" t="inlineStr"/>
       <c r="I223" t="inlineStr"/>
       <c r="J223" t="inlineStr"/>
-      <c r="K223" t="inlineStr"/>
-      <c r="L223" t="n">
-        <v>1</v>
-      </c>
-      <c r="M223" t="inlineStr"/>
+      <c r="K223" t="n">
+        <v>1</v>
+      </c>
+      <c r="L223" t="inlineStr"/>
     </row>
     <row r="224">
       <c r="A224" s="1" t="n">
@@ -8676,18 +7567,15 @@
         <v>21072.6183</v>
       </c>
       <c r="G224" t="n">
-        <v>4860136.76563253</v>
-      </c>
-      <c r="H224" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H224" t="inlineStr"/>
       <c r="I224" t="inlineStr"/>
       <c r="J224" t="inlineStr"/>
-      <c r="K224" t="inlineStr"/>
-      <c r="L224" t="n">
-        <v>1</v>
-      </c>
-      <c r="M224" t="inlineStr"/>
+      <c r="K224" t="n">
+        <v>1</v>
+      </c>
+      <c r="L224" t="inlineStr"/>
     </row>
     <row r="225">
       <c r="A225" s="1" t="n">
@@ -8709,18 +7597,15 @@
         <v>6899.4078</v>
       </c>
       <c r="G225" t="n">
-        <v>4860136.76563253</v>
-      </c>
-      <c r="H225" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H225" t="inlineStr"/>
       <c r="I225" t="inlineStr"/>
       <c r="J225" t="inlineStr"/>
-      <c r="K225" t="inlineStr"/>
-      <c r="L225" t="n">
-        <v>1</v>
-      </c>
-      <c r="M225" t="inlineStr"/>
+      <c r="K225" t="n">
+        <v>1</v>
+      </c>
+      <c r="L225" t="inlineStr"/>
     </row>
     <row r="226">
       <c r="A226" s="1" t="n">
@@ -8742,18 +7627,15 @@
         <v>86491.4749</v>
       </c>
       <c r="G226" t="n">
-        <v>4860136.76563253</v>
-      </c>
-      <c r="H226" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H226" t="inlineStr"/>
       <c r="I226" t="inlineStr"/>
       <c r="J226" t="inlineStr"/>
-      <c r="K226" t="inlineStr"/>
-      <c r="L226" t="n">
-        <v>1</v>
-      </c>
-      <c r="M226" t="inlineStr"/>
+      <c r="K226" t="n">
+        <v>1</v>
+      </c>
+      <c r="L226" t="inlineStr"/>
     </row>
     <row r="227">
       <c r="A227" s="1" t="n">
@@ -8775,18 +7657,15 @@
         <v>176106.8292</v>
       </c>
       <c r="G227" t="n">
-        <v>4684029.93643253</v>
-      </c>
-      <c r="H227" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H227" t="inlineStr"/>
       <c r="I227" t="inlineStr"/>
       <c r="J227" t="inlineStr"/>
-      <c r="K227" t="inlineStr"/>
-      <c r="L227" t="n">
-        <v>1</v>
-      </c>
-      <c r="M227" t="inlineStr"/>
+      <c r="K227" t="n">
+        <v>1</v>
+      </c>
+      <c r="L227" t="inlineStr"/>
     </row>
     <row r="228">
       <c r="A228" s="1" t="n">
@@ -8808,18 +7687,15 @@
         <v>43635.9061</v>
       </c>
       <c r="G228" t="n">
-        <v>4727665.84253253</v>
-      </c>
-      <c r="H228" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H228" t="inlineStr"/>
       <c r="I228" t="inlineStr"/>
       <c r="J228" t="inlineStr"/>
-      <c r="K228" t="inlineStr"/>
-      <c r="L228" t="n">
-        <v>1</v>
-      </c>
-      <c r="M228" t="inlineStr"/>
+      <c r="K228" t="n">
+        <v>1</v>
+      </c>
+      <c r="L228" t="inlineStr"/>
     </row>
     <row r="229">
       <c r="A229" s="1" t="n">
@@ -8841,18 +7717,15 @@
         <v>80</v>
       </c>
       <c r="G229" t="n">
-        <v>4727745.84253253</v>
-      </c>
-      <c r="H229" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H229" t="inlineStr"/>
       <c r="I229" t="inlineStr"/>
       <c r="J229" t="inlineStr"/>
-      <c r="K229" t="inlineStr"/>
-      <c r="L229" t="n">
-        <v>1</v>
-      </c>
-      <c r="M229" t="inlineStr"/>
+      <c r="K229" t="n">
+        <v>1</v>
+      </c>
+      <c r="L229" t="inlineStr"/>
     </row>
     <row r="230">
       <c r="A230" s="1" t="n">
@@ -8874,18 +7747,15 @@
         <v>8831</v>
       </c>
       <c r="G230" t="n">
-        <v>4718914.84253253</v>
-      </c>
-      <c r="H230" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H230" t="inlineStr"/>
       <c r="I230" t="inlineStr"/>
       <c r="J230" t="inlineStr"/>
-      <c r="K230" t="inlineStr"/>
-      <c r="L230" t="n">
-        <v>1</v>
-      </c>
-      <c r="M230" t="inlineStr"/>
+      <c r="K230" t="n">
+        <v>1</v>
+      </c>
+      <c r="L230" t="inlineStr"/>
     </row>
     <row r="231">
       <c r="A231" s="1" t="n">
@@ -8907,18 +7777,15 @@
         <v>982.0187</v>
       </c>
       <c r="G231" t="n">
-        <v>4718914.84253253</v>
-      </c>
-      <c r="H231" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H231" t="inlineStr"/>
       <c r="I231" t="inlineStr"/>
       <c r="J231" t="inlineStr"/>
-      <c r="K231" t="inlineStr"/>
-      <c r="L231" t="n">
-        <v>1</v>
-      </c>
-      <c r="M231" t="inlineStr"/>
+      <c r="K231" t="n">
+        <v>1</v>
+      </c>
+      <c r="L231" t="inlineStr"/>
     </row>
     <row r="232">
       <c r="A232" s="1" t="n">
@@ -8940,18 +7807,15 @@
         <v>20000</v>
       </c>
       <c r="G232" t="n">
-        <v>4718914.84253253</v>
-      </c>
-      <c r="H232" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H232" t="inlineStr"/>
       <c r="I232" t="inlineStr"/>
       <c r="J232" t="inlineStr"/>
-      <c r="K232" t="inlineStr"/>
-      <c r="L232" t="n">
-        <v>1</v>
-      </c>
-      <c r="M232" t="inlineStr"/>
+      <c r="K232" t="n">
+        <v>1</v>
+      </c>
+      <c r="L232" t="inlineStr"/>
     </row>
     <row r="233">
       <c r="A233" s="1" t="n">
@@ -8973,18 +7837,15 @@
         <v>41075.5745</v>
       </c>
       <c r="G233" t="n">
-        <v>4677839.26803253</v>
-      </c>
-      <c r="H233" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H233" t="inlineStr"/>
       <c r="I233" t="inlineStr"/>
       <c r="J233" t="inlineStr"/>
-      <c r="K233" t="inlineStr"/>
-      <c r="L233" t="n">
-        <v>1</v>
-      </c>
-      <c r="M233" t="inlineStr"/>
+      <c r="K233" t="n">
+        <v>1</v>
+      </c>
+      <c r="L233" t="inlineStr"/>
     </row>
     <row r="234">
       <c r="A234" s="1" t="n">
@@ -9006,18 +7867,15 @@
         <v>106098.7638</v>
       </c>
       <c r="G234" t="n">
-        <v>4677839.26803253</v>
-      </c>
-      <c r="H234" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H234" t="inlineStr"/>
       <c r="I234" t="inlineStr"/>
       <c r="J234" t="inlineStr"/>
-      <c r="K234" t="inlineStr"/>
-      <c r="L234" t="n">
-        <v>1</v>
-      </c>
-      <c r="M234" t="inlineStr"/>
+      <c r="K234" t="n">
+        <v>1</v>
+      </c>
+      <c r="L234" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
